--- a/Documentation/Test Cases.xlsx
+++ b/Documentation/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010377\Documents\GitHub\axi2spi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126A08D1-B40C-43FE-B640-76A6C6B91DEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C937D6-6427-44C7-B7E6-6D870C9982A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="206">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -46,6 +46,603 @@
   </si>
   <si>
     <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Git Commit</t>
+  </si>
+  <si>
+    <t>AXI_GEN_01</t>
+  </si>
+  <si>
+    <t>AXI_CS_01</t>
+  </si>
+  <si>
+    <t>AXI_GEN_01_1</t>
+  </si>
+  <si>
+    <t>Requirement Tag</t>
+  </si>
+  <si>
+    <t>AXI_GEN_01_2</t>
+  </si>
+  <si>
+    <t>AXI_GEN_01_3</t>
+  </si>
+  <si>
+    <t>AXI_GEN_01_4</t>
+  </si>
+  <si>
+    <t>AXI_GEN_01_5</t>
+  </si>
+  <si>
+    <t>AXI_GEN_01_6</t>
+  </si>
+  <si>
+    <t>The device does not function when read address scenario is below the address range of [C_BASEADDR , C_HIGHADDR].</t>
+  </si>
+  <si>
+    <t>The device does not function when read address scenario is above the address range of [C_BASEADDR , C_HIGHADDR].</t>
+  </si>
+  <si>
+    <t>The device does not function when write address scenario is below the address range of [C_BASEADDR , C_HIGHADDR].</t>
+  </si>
+  <si>
+    <t>The device does not function when write address scenario is above the address range of [C_BASEADDR , C_HIGHADDR].</t>
+  </si>
+  <si>
+    <t>3. Observe reg_read_enable</t>
+  </si>
+  <si>
+    <t>2. Set S_AXI_ARVALID to logic high.</t>
+  </si>
+  <si>
+    <t>4. Set S_AXI_ARVALID to logic low.</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to 0x[C_BASEADDR - 2].</t>
+  </si>
+  <si>
+    <t>reg_read_enable = '0'</t>
+  </si>
+  <si>
+    <t>3. Observe "reg_" set of outputs.</t>
+  </si>
+  <si>
+    <t>reg_write_enable = '0'</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to 0x[C_BASEADDR + 2].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to 0x[C_HIGHADDR + 2].</t>
+  </si>
+  <si>
+    <t>reg_read_enable = '1'</t>
+  </si>
+  <si>
+    <t>S_AXI_ARADDR = 0x98</t>
+  </si>
+  <si>
+    <t>S_AXI_ARADDR = 0x102</t>
+  </si>
+  <si>
+    <t>S_AXI_ARADDR = 0x202</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_AWADDR to 0x[C_BASEADDR - 2].</t>
+  </si>
+  <si>
+    <t>2. Set S_AXI_AWVALID to logic high.</t>
+  </si>
+  <si>
+    <t>4. Set S_AXI_AWVALID to logic low.</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_AWADDR to 0x[C_BASEADDR + 2].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_AWADDR to 0x[C_HIGHADDR + 2].</t>
+  </si>
+  <si>
+    <t>S_AXI_AWADDR = 0x98</t>
+  </si>
+  <si>
+    <t>S_AXI_AWADDR = 0x102</t>
+  </si>
+  <si>
+    <t>S_AXI_AWADDR = 0x202</t>
+  </si>
+  <si>
+    <t>S_AXI_AWVALID = '1'</t>
+  </si>
+  <si>
+    <t>S_AXI_ARVALID = '1'</t>
+  </si>
+  <si>
+    <t>reg_write_enable = '1'</t>
+  </si>
+  <si>
+    <t>The device functions when write address scenario is in the address range of              [C_BASEADDR , C_HIGHADDR].</t>
+  </si>
+  <si>
+    <t>The device functions when read address scenario is in the address range of                  [C_BASEADDR , C_HIGHADDR].</t>
+  </si>
+  <si>
+    <t>AXI_CS_01_1</t>
+  </si>
+  <si>
+    <t>Srr_cs signal shall be set when s_axi_awaddr is equal to 0x[C_BASEADDR + 40] and s_axi_awvalid is set.</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_AWADDR to 0x[C_HIGHADDR + 40].</t>
+  </si>
+  <si>
+    <t>3. Observe srr_cs</t>
+  </si>
+  <si>
+    <t>AXI_CS_01_2</t>
+  </si>
+  <si>
+    <t>S_AXI_AWADDR = 0x140</t>
+  </si>
+  <si>
+    <t>srr_cs = '1'</t>
+  </si>
+  <si>
+    <t>srr_cs = '0'</t>
+  </si>
+  <si>
+    <t>Srr_cs signal shall not be set when s_axi_awaddr is not equal to 0x[C_BASEADDR + 40] and s_axi_awvalid is set.</t>
+  </si>
+  <si>
+    <t>2. Observe srr_cs</t>
+  </si>
+  <si>
+    <t>3. Set S_AXI_AWVALID to logic low.</t>
+  </si>
+  <si>
+    <t>AXI_CS_02</t>
+  </si>
+  <si>
+    <t>AXI_CS_03</t>
+  </si>
+  <si>
+    <t>AXI_CS_02_1</t>
+  </si>
+  <si>
+    <t>AXI_CS_02_2</t>
+  </si>
+  <si>
+    <t>AXI_CS_03_1</t>
+  </si>
+  <si>
+    <t>AXI_CS_03_2</t>
+  </si>
+  <si>
+    <t>3. Set S_AXI_ARVALID to logic low.</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to 0x[C_HIGHADDR + 60].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_AWADDR to 0x[C_HIGHADDR + 60].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Observe spicr_cs </t>
+  </si>
+  <si>
+    <t>Spicr_cs signal shall be set when s_axi_awaddr is equal to 0x[C_BASEADDR + 60] and s_axi_awvalid is set.</t>
+  </si>
+  <si>
+    <t>Spicr_cs signal shall not be set when s_axi_awaddr is not equal to 0x[C_BASEADDR + 60] and s_axi_awvalid is set.</t>
+  </si>
+  <si>
+    <t>Spicr_cs signal shall be set when s_axi_araddr is equal to 0x[C_BASEADDR + 60] and s_axi_arvalid is set.</t>
+  </si>
+  <si>
+    <t>Spicr_cs signal shall not be set when s_axi_araddr is not equal to 0x[C_BASEADDR + 60] and s_axi_arvalid is set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Observe spicr_cs </t>
+  </si>
+  <si>
+    <t>spicr_cs = '1'</t>
+  </si>
+  <si>
+    <t>spicr_cs = '0'</t>
+  </si>
+  <si>
+    <t>S_AXI_AWADDR = 0x160</t>
+  </si>
+  <si>
+    <t>S_AXI_ARADDR = 0x160</t>
+  </si>
+  <si>
+    <t>AXI_CS_04</t>
+  </si>
+  <si>
+    <t>AXI_CS_04_1</t>
+  </si>
+  <si>
+    <t>AXI_CS_04_2</t>
+  </si>
+  <si>
+    <t>Spisr_cs signal shall be set when s_axi_araddr is equal to 0x[C_BASEADDR + 64] and s_axi_arvalid is set.</t>
+  </si>
+  <si>
+    <t>Spisr_cs signal shall not be set when s_axi_araddr is not equal to 0x[C_BASEADDR + 64] and s_axi_arvalid is set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Observe spisr_cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Observe spisr_cs </t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to 0x[C_HIGHADDR + 64].</t>
+  </si>
+  <si>
+    <t>S_AXI_ARADDR = 0x164</t>
+  </si>
+  <si>
+    <t>spisr_cs = '1'</t>
+  </si>
+  <si>
+    <t>spisr_cs = '0'</t>
+  </si>
+  <si>
+    <t>AXI_CS_05</t>
+  </si>
+  <si>
+    <t>AXI_CS_05_1</t>
+  </si>
+  <si>
+    <t>AXI_CS_05_2</t>
+  </si>
+  <si>
+    <t>S_AXI_AWADDR = 0x168</t>
+  </si>
+  <si>
+    <t>Spidtr_cs signal shall be set when s_axi_awaddr is equal to 0x[C_BASEADDR + 68] and s_axi_awvalid is set.</t>
+  </si>
+  <si>
+    <t>Spidtr_cs signal shall not be set when s_axi_awaddr is not equal to 0x[C_BASEADDR + 68] and s_axi_awvalid is set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Observe spidtr_cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Observe spidtr_cs </t>
+  </si>
+  <si>
+    <t>spidtr_cs = '1'</t>
+  </si>
+  <si>
+    <t>spidtr_cs = '0'</t>
+  </si>
+  <si>
+    <t>AXI_CS_06_1</t>
+  </si>
+  <si>
+    <t>AXI_CS_06_2</t>
+  </si>
+  <si>
+    <t>AXI_CS_06</t>
+  </si>
+  <si>
+    <t>Spidrr_cs signal shall be set when s_axi_araddr is equal to 0x[C_BASEADDR + 6C] and s_axi_arvalid is set.</t>
+  </si>
+  <si>
+    <t>Spidrr_cs signal shall not be set when s_axi_araddr is not equal to 0x[C_BASEADDR + 6C] and s_axi_arvalid is set.</t>
+  </si>
+  <si>
+    <t>S_AXI_ARADDR = 0x16C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Observe spidrr_cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Observe spidrr_cs </t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to 0x[C_HIGHADDR + 6C].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_AWADDR to 0x[C_HIGHADDR + 68].</t>
+  </si>
+  <si>
+    <t>spidrr_cs = '1'</t>
+  </si>
+  <si>
+    <t>spidrr_cs = '0'</t>
+  </si>
+  <si>
+    <t>AXI_CS_07</t>
+  </si>
+  <si>
+    <t>AXI_CS_08</t>
+  </si>
+  <si>
+    <t>AXI_CS_08_1</t>
+  </si>
+  <si>
+    <t>AXI_CS_08_2</t>
+  </si>
+  <si>
+    <t>AXI_CS_07_1</t>
+  </si>
+  <si>
+    <t>AXI_CS_07_2</t>
+  </si>
+  <si>
+    <t>Spissr_cs  signal shall not be set when s_axi_araddr is not equal to 0x[C_BASEADDR + 70] and s_axi_arvalid is set.</t>
+  </si>
+  <si>
+    <t>Spissr_cs  signal shall be set when s_axi_araddr is equal to 0x[C_BASEADDR + 70] and s_axi_arvalid is set.</t>
+  </si>
+  <si>
+    <t>Spissr_cs  signal shall not be set when s_axi_awaddr is not equal to 0x[C_BASEADDR + 70] and s_axi_awvalid is set.</t>
+  </si>
+  <si>
+    <t>Spissr_cs  signal shall be set when s_axi_awaddr is equal to 0x[C_BASEADDR + 70] and s_axi_awvalid is set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Observe spissr_cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Observe spissr_cs </t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to 0x[C_HIGHADDR + 70].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_AWADDR to 0x[C_HIGHADDR + 70].</t>
+  </si>
+  <si>
+    <t>S_AXI_AWADDR = 0x170</t>
+  </si>
+  <si>
+    <t>S_AXI_ARADDR = 0x170</t>
+  </si>
+  <si>
+    <t>spissr_cs = '1'</t>
+  </si>
+  <si>
+    <t>spissr_cs = '0'</t>
+  </si>
+  <si>
+    <t>AXI_CS_09</t>
+  </si>
+  <si>
+    <t>Tx_fifo_ocy_cs signal shall not be set when s_axi_araddr is not equal to 0x[C_BASEADDR + 74] and s_axi_arvalid is set.</t>
+  </si>
+  <si>
+    <t>Tx_fifo_ocy_cs signal shall be set when s_axi_araddr is equal to 0x[C_BASEADDR + 74] and s_axi_arvalid is set.</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to 0x[C_HIGHADDR + 74].</t>
+  </si>
+  <si>
+    <t>S_AXI_ARADDR = 0x174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Observe tx_fifo_ocy_cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Observe tx_fifo_ocy_cs </t>
+  </si>
+  <si>
+    <t>tx_fifo_ocy_cs = '1'</t>
+  </si>
+  <si>
+    <t>tx_fifo_ocy_cs = '0'</t>
+  </si>
+  <si>
+    <t>AXI_CS_09_1</t>
+  </si>
+  <si>
+    <t>AXI_CS_09_2</t>
+  </si>
+  <si>
+    <t>AXI_CS_10</t>
+  </si>
+  <si>
+    <t>AXI_CS_10_1</t>
+  </si>
+  <si>
+    <t>AXI_CS_10_2</t>
+  </si>
+  <si>
+    <t>Rx_fifo_ocy_cs signal shall not be set when s_axi_araddr is not equal to 0x[C_BASEADDR + 78] and s_axi_arvalid is set.</t>
+  </si>
+  <si>
+    <t>Rx_fifo_ocy_cs signal shall be set when s_axi_araddr is equal to 0x[C_BASEADDR + 78] and s_axi_arvalid is set.</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to 0x[C_HIGHADDR + 78].</t>
+  </si>
+  <si>
+    <t>S_AXI_ARADDR = 0x178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Observe rx_fifo_ocy_cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Observe rx_fifo_ocy_cs </t>
+  </si>
+  <si>
+    <t>rx_fifo_ocy_cs = '0'</t>
+  </si>
+  <si>
+    <t>rx_fifo_ocy_cs = '1'</t>
+  </si>
+  <si>
+    <t>AXI_CS_11</t>
+  </si>
+  <si>
+    <t>AXI_CS_12</t>
+  </si>
+  <si>
+    <t>AXI_CS_11_1</t>
+  </si>
+  <si>
+    <t>AXI_CS_11_2</t>
+  </si>
+  <si>
+    <t>AXI_CS_12_1</t>
+  </si>
+  <si>
+    <t>AXI_CS_12_2</t>
+  </si>
+  <si>
+    <t>Dgier_cs signal shall not be set when s_axi_araddr is not equal to 0x[C_BASEADDR + 1C] and s_axi_arvalid is set.</t>
+  </si>
+  <si>
+    <t>Dgier_cs signal shall be set when s_axi_araddr is equal to 0x[C_BASEADDR + 1C] and s_axi_arvalid is set.</t>
+  </si>
+  <si>
+    <t>Dgier_cs signal shall not be set when s_axi_awaddr is not equal to 0x[C_BASEADDR + 1C] and s_axi_awvalid is set.</t>
+  </si>
+  <si>
+    <t>Dgier_cs signal shall be set when s_axi_awaddr is equal to 0x[C_BASEADDR + 1C] and s_axi_awvalid is set.</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_AWADDR to 0x[C_HIGHADDR + 1C].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to 0x[C_HIGHADDR + 1C].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Observe dgier_cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Observe dgier_cs </t>
+  </si>
+  <si>
+    <t>dgier_cs = '1'</t>
+  </si>
+  <si>
+    <t>dgier_cs = '0'</t>
+  </si>
+  <si>
+    <t>AXI_CS_13</t>
+  </si>
+  <si>
+    <t>AXI_CS_14</t>
+  </si>
+  <si>
+    <t>AXI_CS_14_1</t>
+  </si>
+  <si>
+    <t>AXI_CS_14_2</t>
+  </si>
+  <si>
+    <t>AXI_CS_13_2</t>
+  </si>
+  <si>
+    <t>AXI_CS_13_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Observe ipisr_cs </t>
+  </si>
+  <si>
+    <t>3. Observe ipisr_cs</t>
+  </si>
+  <si>
+    <t>2. Observe ipisr_cs</t>
+  </si>
+  <si>
+    <t>Ipisr_cs signal shall be set when s_axi_awaddr is equal to 0x[C_BASEADDR + 20] and s_axi_awvalid is set.</t>
+  </si>
+  <si>
+    <t>Ipisr_cs signal shall not be set when s_axi_awaddr is not equal to 0x[C_BASEADDR + 20] and s_axi_awvalid is set.</t>
+  </si>
+  <si>
+    <t>Ipisr_cs signal shall be set when s_axi_araddr is equal to 0x[C_BASEADDR + 20] and s_axi_arvalid is set.</t>
+  </si>
+  <si>
+    <t>Ipisr_cs signal shall not be set when s_axi_araddr is not equal to 0x[C_BASEADDR + 20] and s_axi_arvalid is set.</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to 0x[C_HIGHADDR + 20].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_AWADDR to 0x[C_HIGHADDR + 20].</t>
+  </si>
+  <si>
+    <t>S_AXI_AWADDR = 0x120</t>
+  </si>
+  <si>
+    <t>S_AXI_ARADDR = 0x120</t>
+  </si>
+  <si>
+    <t>S_AXI_ARADDR = 0x11C</t>
+  </si>
+  <si>
+    <t>S_AXI_AWADDR = 0x11C</t>
+  </si>
+  <si>
+    <t>ipisr_cs = '1'</t>
+  </si>
+  <si>
+    <t>ipisr_cs = '0'</t>
+  </si>
+  <si>
+    <t>AXI_CS_15</t>
+  </si>
+  <si>
+    <t>AXI_CS_16</t>
+  </si>
+  <si>
+    <t>AXI_CS_15_1</t>
+  </si>
+  <si>
+    <t>AXI_CS_15_2</t>
+  </si>
+  <si>
+    <t>AXI_CS_16_1</t>
+  </si>
+  <si>
+    <t>AXI_CS_16_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Observe ipier_cs </t>
+  </si>
+  <si>
+    <t>3. Observe ipier_cs</t>
+  </si>
+  <si>
+    <t>2. Observe ipier_cs</t>
+  </si>
+  <si>
+    <t>Ipier_cs signal shall not be set when s_axi_araddr is not equal to 0x[C_BASEADDR + 28] and s_axi_arvalid is set.</t>
+  </si>
+  <si>
+    <t>Ipier_cs signal shall be set when s_axi_araddr is equal to 0x[C_BASEADDR + 28] and s_axi_arvalid is set.</t>
+  </si>
+  <si>
+    <t>Ipier_cs signal shall not be set when s_axi_awaddr is not equal to 0x[C_BASEADDR + 28] and s_axi_awvalid is set.</t>
+  </si>
+  <si>
+    <t>Ipier_cs signal shall be set when s_axi_awaddr is equal to 0x[C_BASEADDR + 28] and s_axi_awvalid is set.</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_AWADDR to 0x[C_HIGHADDR + 28].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to 0x[C_HIGHADDR + 28].</t>
+  </si>
+  <si>
+    <t>S_AXI_ARADDR = 0x128</t>
+  </si>
+  <si>
+    <t>S_AXI_AWADDR = 0x128</t>
+  </si>
+  <si>
+    <t>ipier_cs = '1'</t>
+  </si>
+  <si>
+    <t>ipier_cs = '0'</t>
   </si>
 </sst>
 </file>
@@ -69,7 +666,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -78,16 +675,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -96,13 +693,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -111,12 +706,400 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -126,16 +1109,145 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,46 +1529,2300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="27"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="33"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="46"/>
+      <c r="I26" s="47"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="49"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="48"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="49"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
+      <c r="B29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="40"/>
+      <c r="I29" s="50"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="48"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="49"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="51"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="46"/>
+      <c r="I32" s="47"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="48"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="49"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="48"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="49"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="48"/>
+      <c r="B35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="40"/>
+      <c r="I35" s="50"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="48"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="49"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="51"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="55"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="46"/>
+      <c r="I38" s="47"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="48"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="49"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="48"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="49"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="48"/>
+      <c r="B41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="40"/>
+      <c r="I41" s="50"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="48"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="49"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="51"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="55"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" s="46"/>
+      <c r="I44" s="47"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="48"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="49"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="48"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="49"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="48"/>
+      <c r="B47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H47" s="40"/>
+      <c r="I47" s="50"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="48"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="49"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="51"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H50" s="46"/>
+      <c r="I50" s="47"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="48"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="49"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="48"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="49"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="48"/>
+      <c r="B53" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H53" s="40"/>
+      <c r="I53" s="50"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="48"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="49"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="51"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="31"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="55"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H56" s="46"/>
+      <c r="I56" s="47"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="48"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="49"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="48"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" s="11"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="49"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="48"/>
+      <c r="B59" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H59" s="40"/>
+      <c r="I59" s="50"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="48"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="49"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="51"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="31"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="55"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H62" s="46"/>
+      <c r="I62" s="47"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="48"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="49"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="48"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="49"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="48"/>
+      <c r="B65" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H65" s="40"/>
+      <c r="I65" s="50"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="48"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="49"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="51"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" s="31"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="55"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H68" s="46"/>
+      <c r="I68" s="47"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="48"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="49"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="48"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="49"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="48"/>
+      <c r="B71" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H71" s="40"/>
+      <c r="I71" s="50"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="48"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="49"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="51"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="31"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="55"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="H74" s="46"/>
+      <c r="I74" s="47"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="48"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="49"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="48"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="49"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="48"/>
+      <c r="B77" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H77" s="40"/>
+      <c r="I77" s="50"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="48"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="49"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="51"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="31"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="55"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G80" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H80" s="46"/>
+      <c r="I80" s="47"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="48"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="49"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="48"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E82" s="11"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="49"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="48"/>
+      <c r="B83" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H83" s="40"/>
+      <c r="I83" s="50"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="48"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="49"/>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="51"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="31"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="55"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F86" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G86" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H86" s="46"/>
+      <c r="I86" s="47"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="48"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="49"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="48"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E88" s="11"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="49"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="48"/>
+      <c r="B89" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H89" s="40"/>
+      <c r="I89" s="50"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="48"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="49"/>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="51"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E91" s="31"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="55"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C92" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F92" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H92" s="46"/>
+      <c r="I92" s="47"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="48"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="49"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="48"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E94" s="11"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="49"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="48"/>
+      <c r="B95" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H95" s="40"/>
+      <c r="I95" s="50"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="48"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="49"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="51"/>
+      <c r="B97" s="52"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="31"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="55"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E98" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F98" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G98" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="H98" s="46"/>
+      <c r="I98" s="47"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="48"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="49"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="48"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E100" s="11"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="49"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="48"/>
+      <c r="B101" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="H101" s="40"/>
+      <c r="I101" s="50"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="48"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="49"/>
+    </row>
+    <row r="103" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="51"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="53"/>
+      <c r="D103" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E103" s="31"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="55"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="F104" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G104" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="H104" s="46"/>
+      <c r="I104" s="47"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="48"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="41"/>
+      <c r="I105" s="49"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="48"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E106" s="11"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="49"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="48"/>
+      <c r="B107" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="H107" s="40"/>
+      <c r="I107" s="50"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="48"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="49"/>
+    </row>
+    <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="51"/>
+      <c r="B109" s="52"/>
+      <c r="C109" s="53"/>
+      <c r="D109" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="31"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="55"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C110" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E110" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F110" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G110" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="H110" s="46"/>
+      <c r="I110" s="47"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="48"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="41"/>
+      <c r="I111" s="49"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="48"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E112" s="11"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="49"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="48"/>
+      <c r="B113" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H113" s="40"/>
+      <c r="I113" s="50"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="48"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="49"/>
+    </row>
+    <row r="115" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="51"/>
+      <c r="B115" s="52"/>
+      <c r="C115" s="53"/>
+      <c r="D115" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E115" s="31"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="54"/>
+      <c r="I115" s="55"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C116" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F116" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="H116" s="46"/>
+      <c r="I116" s="47"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="48"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="41"/>
+      <c r="I117" s="49"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="48"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E118" s="11"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="49"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="48"/>
+      <c r="B119" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F119" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H119" s="40"/>
+      <c r="I119" s="50"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="48"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="41"/>
+      <c r="I120" s="49"/>
+    </row>
+    <row r="121" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="51"/>
+      <c r="B121" s="52"/>
+      <c r="C121" s="53"/>
+      <c r="D121" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="31"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="55"/>
     </row>
   </sheetData>
+  <mergeCells count="169">
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="H116:H118"/>
+    <mergeCell ref="I116:I118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="H119:H121"/>
+    <mergeCell ref="I119:I121"/>
+    <mergeCell ref="A110:A115"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="H110:H112"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="H113:H115"/>
+    <mergeCell ref="I113:I115"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="H107:H109"/>
+    <mergeCell ref="I107:I109"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="H98:H100"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="I101:I103"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Test Cases.xlsx
+++ b/Documentation/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010377\Documents\GitHub\axi2spi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4506FEE7-FFA9-4B09-910C-E5A109AE2354}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C337EECC-B700-47CF-BF41-0AD3F3C78BAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="307">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -99,27 +99,12 @@
     <t>2. Set S_AXI_ARVALID to logic high.</t>
   </si>
   <si>
-    <t>4. Set S_AXI_ARVALID to logic low.</t>
-  </si>
-  <si>
-    <t>1. Set S_AXI_ARADDR to 0x[C_BASEADDR - 2].</t>
-  </si>
-  <si>
     <t>reg_read_enable = '0'</t>
   </si>
   <si>
-    <t>3. Observe "reg_" set of outputs.</t>
-  </si>
-  <si>
     <t>reg_write_enable = '0'</t>
   </si>
   <si>
-    <t>1. Set S_AXI_ARADDR to 0x[C_BASEADDR + 2].</t>
-  </si>
-  <si>
-    <t>1. Set S_AXI_ARADDR to 0x[C_HIGHADDR + 2].</t>
-  </si>
-  <si>
     <t>reg_read_enable = '1'</t>
   </si>
   <si>
@@ -132,21 +117,9 @@
     <t>S_AXI_ARADDR = 0x202</t>
   </si>
   <si>
-    <t>1. Set S_AXI_AWADDR to 0x[C_BASEADDR - 2].</t>
-  </si>
-  <si>
     <t>2. Set S_AXI_AWVALID to logic high.</t>
   </si>
   <si>
-    <t>4. Set S_AXI_AWVALID to logic low.</t>
-  </si>
-  <si>
-    <t>1. Set S_AXI_AWADDR to 0x[C_BASEADDR + 2].</t>
-  </si>
-  <si>
-    <t>1. Set S_AXI_AWADDR to 0x[C_HIGHADDR + 2].</t>
-  </si>
-  <si>
     <t>S_AXI_AWADDR = 0x98</t>
   </si>
   <si>
@@ -171,9 +144,6 @@
     <t>Srr_cs signal shall be set when s_axi_awaddr is equal to 0x[C_BASEADDR + 40] and s_axi_awvalid is set.</t>
   </si>
   <si>
-    <t>1. Set S_AXI_AWADDR to 0x[C_HIGHADDR + 40].</t>
-  </si>
-  <si>
     <t>3. Observe srr_cs</t>
   </si>
   <si>
@@ -219,12 +189,6 @@
     <t>3. Set S_AXI_ARVALID to logic low.</t>
   </si>
   <si>
-    <t>1. Set S_AXI_ARADDR to 0x[C_HIGHADDR + 60].</t>
-  </si>
-  <si>
-    <t>1. Set S_AXI_AWADDR to 0x[C_HIGHADDR + 60].</t>
-  </si>
-  <si>
     <t xml:space="preserve">3. Observe spicr_cs </t>
   </si>
   <si>
@@ -276,9 +240,6 @@
     <t xml:space="preserve">3. Observe spisr_cs </t>
   </si>
   <si>
-    <t>1. Set S_AXI_ARADDR to 0x[C_HIGHADDR + 64].</t>
-  </si>
-  <si>
     <t>S_AXI_ARADDR = 0x164</t>
   </si>
   <si>
@@ -342,12 +303,6 @@
     <t xml:space="preserve">2. Observe spidrr_cs </t>
   </si>
   <si>
-    <t>1. Set S_AXI_ARADDR to 0x[C_HIGHADDR + 6C].</t>
-  </si>
-  <si>
-    <t>1. Set S_AXI_AWADDR to 0x[C_HIGHADDR + 68].</t>
-  </si>
-  <si>
     <t>spidrr_cs = '1'</t>
   </si>
   <si>
@@ -390,12 +345,6 @@
     <t xml:space="preserve">2. Observe spissr_cs </t>
   </si>
   <si>
-    <t>1. Set S_AXI_ARADDR to 0x[C_HIGHADDR + 70].</t>
-  </si>
-  <si>
-    <t>1. Set S_AXI_AWADDR to 0x[C_HIGHADDR + 70].</t>
-  </si>
-  <si>
     <t>S_AXI_AWADDR = 0x170</t>
   </si>
   <si>
@@ -417,9 +366,6 @@
     <t>Tx_fifo_ocy_cs signal shall be set when s_axi_araddr is equal to 0x[C_BASEADDR + 74] and s_axi_arvalid is set.</t>
   </si>
   <si>
-    <t>1. Set S_AXI_ARADDR to 0x[C_HIGHADDR + 74].</t>
-  </si>
-  <si>
     <t>S_AXI_ARADDR = 0x174</t>
   </si>
   <si>
@@ -456,9 +402,6 @@
     <t>Rx_fifo_ocy_cs signal shall be set when s_axi_araddr is equal to 0x[C_BASEADDR + 78] and s_axi_arvalid is set.</t>
   </si>
   <si>
-    <t>1. Set S_AXI_ARADDR to 0x[C_HIGHADDR + 78].</t>
-  </si>
-  <si>
     <t>S_AXI_ARADDR = 0x178</t>
   </si>
   <si>
@@ -504,12 +447,6 @@
     <t>Dgier_cs signal shall be set when s_axi_awaddr is equal to 0x[C_BASEADDR + 1C] and s_axi_awvalid is set.</t>
   </si>
   <si>
-    <t>1. Set S_AXI_AWADDR to 0x[C_HIGHADDR + 1C].</t>
-  </si>
-  <si>
-    <t>1. Set S_AXI_ARADDR to 0x[C_HIGHADDR + 1C].</t>
-  </si>
-  <si>
     <t xml:space="preserve">3. Observe dgier_cs </t>
   </si>
   <si>
@@ -561,12 +498,6 @@
     <t>Ipisr_cs signal shall not be set when s_axi_araddr is not equal to 0x[C_BASEADDR + 20] and s_axi_arvalid is set.</t>
   </si>
   <si>
-    <t>1. Set S_AXI_ARADDR to 0x[C_HIGHADDR + 20].</t>
-  </si>
-  <si>
-    <t>1. Set S_AXI_AWADDR to 0x[C_HIGHADDR + 20].</t>
-  </si>
-  <si>
     <t>S_AXI_AWADDR = 0x120</t>
   </si>
   <si>
@@ -624,12 +555,6 @@
     <t>Ipier_cs signal shall be set when s_axi_awaddr is equal to 0x[C_BASEADDR + 28] and s_axi_awvalid is set.</t>
   </si>
   <si>
-    <t>1. Set S_AXI_AWADDR to 0x[C_HIGHADDR + 28].</t>
-  </si>
-  <si>
-    <t>1. Set S_AXI_ARADDR to 0x[C_HIGHADDR + 28].</t>
-  </si>
-  <si>
     <t>S_AXI_ARADDR = 0x128</t>
   </si>
   <si>
@@ -946,6 +871,84 @@
   </si>
   <si>
     <t>The device functions when write address scenario is in the address range of                               [C_BASEADDR , C_HIGHADDR].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_AWADDR to [C_HIGHADDR + 0x40].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_AWADDR to [C_HIGHADDR + 0x2].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_AWADDR to [C_BASEADDR + 0x60].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_AWADDR to [C_BASEADDR - 0x2].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to [C_HIGHADDR + 0x2].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to [C_BASEADDR + 0x60].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to [C_BASEADDR - 0x2].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to [C_HIGHADDR + 0x28].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_AWADDR to [C_HIGHADDR + 0x28].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to [C_HIGHADDR + 0x20].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_AWADDR to [C_HIGHADDR + 0x20].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to [C_HIGHADDR + 0x1C].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_AWADDR to [C_HIGHADDR + 0x1C].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to [C_HIGHADDR + 0x78].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to [C_HIGHADDR + 0x74].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to [C_HIGHADDR + 0x70].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_AWADDR to [C_HIGHADDR + 0x70].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to [C_HIGHADDR + 0x6C].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_AWADDR to [C_HIGHADDR + 0x68].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to [C_HIGHADDR + 0x64].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARADDR to [C_HIGHADDR + 0x60].</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_AWADDR to [C_HIGHADDR + 0x60].</t>
+  </si>
+  <si>
+    <t>3. Observe reg_write_enable</t>
+  </si>
+  <si>
+    <t>4. Reset the module.</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>9a4cd59</t>
   </si>
 </sst>
 </file>
@@ -961,15 +964,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1207,19 +1216,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1292,34 +1288,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1510,7 +1478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1531,15 +1499,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1549,93 +1598,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1644,59 +1627,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1980,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,7 +1960,7 @@
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.28515625" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -2026,3078 +1997,3234 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="70" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>24</v>
+        <v>287</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+        <v>23</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>305</v>
+      </c>
+      <c r="I2" s="80" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="54"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="38"/>
+        <v>24</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="85"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="54"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="38"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="54"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="7" t="s">
-        <v>23</v>
+        <v>304</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="38"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="81"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="48" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="45" t="s">
-        <v>304</v>
+      <c r="C6" s="51" t="s">
+        <v>279</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>28</v>
+        <v>286</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="38"/>
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="38"/>
+        <v>24</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="85"/>
+      <c r="I7" s="81"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="38"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="81"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="11" t="s">
-        <v>23</v>
+      <c r="A9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="38"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="81"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="48" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="51" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="38"/>
+        <v>23</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="I10" s="81" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="46"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="38"/>
+        <v>24</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="85"/>
+      <c r="I11" s="81"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="46"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="38"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="81"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="11" t="s">
-        <v>23</v>
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="38"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="81"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="48" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="38"/>
+        <v>23</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="I14" s="81" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="46"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="38"/>
+        <v>24</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="85"/>
+      <c r="I15" s="81"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="46"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="5" t="s">
-        <v>26</v>
+        <v>303</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="38"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="81"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="47"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="7" t="s">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="38"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="81"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="48" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="38"/>
+      <c r="I18" s="81" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="46"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="38"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="85"/>
+      <c r="I19" s="81"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="46"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="10" t="s">
-        <v>21</v>
+        <v>303</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="38"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="81"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="11" t="s">
-        <v>36</v>
+      <c r="A21" s="39"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="38"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="81"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="48" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="51" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>38</v>
+        <v>282</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="38"/>
+        <v>23</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="82" t="s">
+        <v>305</v>
+      </c>
+      <c r="I22" s="83" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="46"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="38"/>
+        <v>24</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="79"/>
+      <c r="I23" s="81"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="46"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="10" t="s">
-        <v>21</v>
+        <v>303</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="38"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="81"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="52"/>
-      <c r="D25" s="16" t="s">
-        <v>36</v>
+      <c r="D25" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="39"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="81"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>46</v>
+      <c r="B26" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>37</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>47</v>
+        <v>281</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G26" s="14"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="28"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="47"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="29"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="65"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="44"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="11" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="29"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="65"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>53</v>
+      <c r="A29" s="74"/>
+      <c r="B29" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="76" t="s">
+        <v>43</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>38</v>
+        <v>282</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G29" s="10"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="34"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="55"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="24"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="29"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="65"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="35"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="56"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>66</v>
+      <c r="A32" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="78" t="s">
+        <v>54</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>64</v>
+        <v>302</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G32" s="14"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="28"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="47"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="24"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="29"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="65"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="24"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="11" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="29"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="65"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>67</v>
+      <c r="A35" s="74"/>
+      <c r="B35" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="76" t="s">
+        <v>55</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>38</v>
+        <v>282</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="34"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="55"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="24"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="29"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="65"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="31"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="77"/>
       <c r="D37" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="35"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="56"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>68</v>
+      <c r="A38" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="78" t="s">
+        <v>56</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>63</v>
+        <v>301</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="28"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="47"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="24"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="29"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="65"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="24"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="11" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="29"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="65"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>69</v>
+      <c r="A41" s="74"/>
+      <c r="B41" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="76" t="s">
+        <v>57</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G41" s="10"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="34"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="55"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="24"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="76"/>
       <c r="D42" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="29"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="65"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="31"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="77"/>
       <c r="D43" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="35"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="56"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>78</v>
+      <c r="A44" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="78" t="s">
+        <v>66</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G44" s="14"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="28"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="47"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="24"/>
+      <c r="A45" s="74"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="76"/>
       <c r="D45" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="29"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="65"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="24"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="76"/>
       <c r="D46" s="11" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="29"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="65"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>79</v>
+      <c r="A47" s="74"/>
+      <c r="B47" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="76" t="s">
+        <v>67</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G47" s="10"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="34"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="55"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="24"/>
+      <c r="A48" s="74"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="10" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="29"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="65"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="77"/>
       <c r="D49" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="35"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="56"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>90</v>
+      <c r="A50" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="78" t="s">
+        <v>77</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>105</v>
+        <v>299</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G50" s="14"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="28"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="47"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="24"/>
+      <c r="A51" s="74"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="76"/>
       <c r="D51" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="29"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="65"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="24"/>
+      <c r="A52" s="74"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="76"/>
       <c r="D52" s="11" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="29"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="65"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>91</v>
+      <c r="A53" s="74"/>
+      <c r="B53" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="76" t="s">
+        <v>78</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>38</v>
+        <v>282</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G53" s="10"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="34"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="55"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="24"/>
+      <c r="A54" s="74"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="10" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="29"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="65"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="20"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="31"/>
+      <c r="A55" s="75"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="77"/>
       <c r="D55" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="35"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="56"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>99</v>
+      <c r="A56" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="78" t="s">
+        <v>86</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>104</v>
+        <v>298</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G56" s="14"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="28"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="47"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="24"/>
+      <c r="A57" s="74"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="76"/>
       <c r="D57" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="29"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="65"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="24"/>
+      <c r="A58" s="74"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="76"/>
       <c r="D58" s="11" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="29"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="65"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>100</v>
+      <c r="A59" s="74"/>
+      <c r="B59" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="76" t="s">
+        <v>87</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G59" s="10"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="34"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="55"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="24"/>
+      <c r="A60" s="74"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="76"/>
       <c r="D60" s="10" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="29"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="65"/>
     </row>
     <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="20"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="31"/>
+      <c r="A61" s="75"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="77"/>
       <c r="D61" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="35"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="56"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>117</v>
+      <c r="A62" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="78" t="s">
+        <v>102</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>121</v>
+        <v>297</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="G62" s="14"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="28"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="47"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="24"/>
+      <c r="A63" s="74"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="76"/>
       <c r="D63" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="29"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="65"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="24"/>
+      <c r="A64" s="74"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="11" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="29"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="65"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>116</v>
+      <c r="A65" s="74"/>
+      <c r="B65" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="76" t="s">
+        <v>101</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>38</v>
+        <v>282</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="G65" s="10"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="34"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="55"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="24"/>
+      <c r="A66" s="74"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="76"/>
       <c r="D66" s="10" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="29"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="65"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="20"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="31"/>
+      <c r="A67" s="75"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="77"/>
       <c r="D67" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E67" s="17"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="35"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="56"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>115</v>
+      <c r="A68" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="78" t="s">
+        <v>100</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>120</v>
+        <v>296</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="G68" s="14"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="28"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="47"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="24"/>
+      <c r="A69" s="74"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="76"/>
       <c r="D69" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="29"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="65"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="24"/>
+      <c r="A70" s="74"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="76"/>
       <c r="D70" s="11" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="29"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="65"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>114</v>
+      <c r="A71" s="74"/>
+      <c r="B71" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="76" t="s">
+        <v>99</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="G71" s="10"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="34"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="55"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="24"/>
+      <c r="A72" s="74"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="76"/>
       <c r="D72" s="10" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="29"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="65"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="20"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="31"/>
+      <c r="A73" s="75"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="77"/>
       <c r="D73" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E73" s="17"/>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="35"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="56"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C74" s="23" t="s">
-        <v>128</v>
+      <c r="A74" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="78" t="s">
+        <v>111</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>129</v>
+        <v>295</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="G74" s="14"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="28"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="47"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="24"/>
+      <c r="A75" s="74"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="76"/>
       <c r="D75" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="29"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="65"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="24"/>
+      <c r="A76" s="74"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="76"/>
       <c r="D76" s="11" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="29"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="65"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>127</v>
+      <c r="A77" s="74"/>
+      <c r="B77" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="76" t="s">
+        <v>110</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G77" s="10"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="34"/>
+      <c r="H77" s="53"/>
+      <c r="I77" s="55"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="24"/>
+      <c r="A78" s="74"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="76"/>
       <c r="D78" s="10" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="29"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="65"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="20"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="31"/>
+      <c r="A79" s="75"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="77"/>
       <c r="D79" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="35"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="56"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>141</v>
+      <c r="A80" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="78" t="s">
+        <v>123</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>142</v>
+        <v>294</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="G80" s="14"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="28"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="47"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="24"/>
+      <c r="A81" s="74"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="76"/>
       <c r="D81" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="29"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="65"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="24"/>
+      <c r="A82" s="74"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="76"/>
       <c r="D82" s="11" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="29"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="65"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
-      <c r="B83" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>140</v>
+      <c r="A83" s="74"/>
+      <c r="B83" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" s="76" t="s">
+        <v>122</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G83" s="10"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="34"/>
+      <c r="H83" s="53"/>
+      <c r="I83" s="55"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="24"/>
+      <c r="A84" s="74"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="76"/>
       <c r="D84" s="10" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="29"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="65"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="20"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="31"/>
+      <c r="A85" s="75"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="77"/>
       <c r="D85" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="35"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="56"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C86" s="23" t="s">
-        <v>157</v>
+      <c r="A86" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="78" t="s">
+        <v>138</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>158</v>
+        <v>293</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="G86" s="14"/>
-      <c r="H86" s="25"/>
-      <c r="I86" s="28"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="47"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="19"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="24"/>
+      <c r="A87" s="74"/>
+      <c r="B87" s="61"/>
+      <c r="C87" s="76"/>
       <c r="D87" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="29"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="65"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="19"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="24"/>
+      <c r="A88" s="74"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="76"/>
       <c r="D88" s="11" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="29"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="65"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
-      <c r="B89" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>156</v>
+      <c r="A89" s="74"/>
+      <c r="B89" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" s="76" t="s">
+        <v>137</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>38</v>
+        <v>282</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="G89" s="10"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="34"/>
+      <c r="H89" s="53"/>
+      <c r="I89" s="55"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="24"/>
+      <c r="A90" s="74"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="76"/>
       <c r="D90" s="10" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="29"/>
+      <c r="H90" s="64"/>
+      <c r="I90" s="65"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="20"/>
-      <c r="B91" s="30"/>
-      <c r="C91" s="31"/>
+      <c r="A91" s="75"/>
+      <c r="B91" s="67"/>
+      <c r="C91" s="77"/>
       <c r="D91" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="35"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="56"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C92" s="23" t="s">
-        <v>155</v>
+      <c r="A92" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="B92" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" s="78" t="s">
+        <v>136</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>159</v>
+        <v>292</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="G92" s="14"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="28"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="47"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="19"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="24"/>
+      <c r="A93" s="74"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="76"/>
       <c r="D93" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="29"/>
+      <c r="H93" s="64"/>
+      <c r="I93" s="65"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="19"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="24"/>
+      <c r="A94" s="74"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="76"/>
       <c r="D94" s="11" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="29"/>
+      <c r="H94" s="46"/>
+      <c r="I94" s="65"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="19"/>
-      <c r="B95" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>154</v>
+      <c r="A95" s="74"/>
+      <c r="B95" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C95" s="76" t="s">
+        <v>135</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="G95" s="10"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="34"/>
+      <c r="H95" s="53"/>
+      <c r="I95" s="55"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="19"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="24"/>
+      <c r="A96" s="74"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="76"/>
       <c r="D96" s="10" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="29"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="65"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="20"/>
-      <c r="B97" s="30"/>
-      <c r="C97" s="31"/>
+      <c r="A97" s="75"/>
+      <c r="B97" s="67"/>
+      <c r="C97" s="77"/>
       <c r="D97" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E97" s="17"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
-      <c r="H97" s="33"/>
-      <c r="I97" s="35"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="56"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B98" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C98" s="23" t="s">
-        <v>173</v>
+      <c r="A98" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="C98" s="78" t="s">
+        <v>152</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="G98" s="14"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="28"/>
+      <c r="H98" s="45"/>
+      <c r="I98" s="47"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="19"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="24"/>
+      <c r="A99" s="74"/>
+      <c r="B99" s="61"/>
+      <c r="C99" s="76"/>
       <c r="D99" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="29"/>
+      <c r="H99" s="64"/>
+      <c r="I99" s="65"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="19"/>
-      <c r="B100" s="22"/>
-      <c r="C100" s="24"/>
+      <c r="A100" s="74"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="76"/>
       <c r="D100" s="11" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="29"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="65"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="19"/>
-      <c r="B101" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>174</v>
+      <c r="A101" s="74"/>
+      <c r="B101" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="C101" s="76" t="s">
+        <v>153</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>38</v>
+        <v>282</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="G101" s="10"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="34"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="55"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="19"/>
-      <c r="B102" s="22"/>
-      <c r="C102" s="24"/>
+      <c r="A102" s="74"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="76"/>
       <c r="D102" s="10" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="29"/>
+      <c r="H102" s="64"/>
+      <c r="I102" s="65"/>
     </row>
     <row r="103" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="20"/>
-      <c r="B103" s="30"/>
-      <c r="C103" s="31"/>
+      <c r="A103" s="75"/>
+      <c r="B103" s="67"/>
+      <c r="C103" s="77"/>
       <c r="D103" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E103" s="17"/>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
-      <c r="H103" s="33"/>
-      <c r="I103" s="35"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="56"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B104" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>175</v>
+      <c r="A104" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" s="78" t="s">
+        <v>154</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>177</v>
+        <v>290</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="G104" s="14"/>
-      <c r="H104" s="25"/>
-      <c r="I104" s="28"/>
+      <c r="H104" s="45"/>
+      <c r="I104" s="47"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="19"/>
-      <c r="B105" s="22"/>
-      <c r="C105" s="24"/>
+      <c r="A105" s="74"/>
+      <c r="B105" s="61"/>
+      <c r="C105" s="76"/>
       <c r="D105" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
-      <c r="H105" s="26"/>
-      <c r="I105" s="29"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="65"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="19"/>
-      <c r="B106" s="22"/>
-      <c r="C106" s="24"/>
+      <c r="A106" s="74"/>
+      <c r="B106" s="61"/>
+      <c r="C106" s="76"/>
       <c r="D106" s="11" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="29"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="65"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="19"/>
-      <c r="B107" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>176</v>
+      <c r="A107" s="74"/>
+      <c r="B107" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C107" s="76" t="s">
+        <v>155</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="G107" s="10"/>
-      <c r="H107" s="32"/>
-      <c r="I107" s="34"/>
+      <c r="H107" s="53"/>
+      <c r="I107" s="55"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="19"/>
-      <c r="B108" s="22"/>
-      <c r="C108" s="24"/>
+      <c r="A108" s="74"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="76"/>
       <c r="D108" s="10" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="29"/>
+      <c r="H108" s="64"/>
+      <c r="I108" s="65"/>
     </row>
     <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="20"/>
-      <c r="B109" s="30"/>
-      <c r="C109" s="31"/>
+      <c r="A109" s="75"/>
+      <c r="B109" s="67"/>
+      <c r="C109" s="77"/>
       <c r="D109" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="16"/>
       <c r="G109" s="16"/>
-      <c r="H109" s="33"/>
-      <c r="I109" s="35"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="56"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="B110" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>197</v>
+      <c r="A110" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="B110" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C110" s="78" t="s">
+        <v>174</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>198</v>
+        <v>289</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="G110" s="14"/>
-      <c r="H110" s="25"/>
-      <c r="I110" s="28"/>
+      <c r="H110" s="45"/>
+      <c r="I110" s="47"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="19"/>
-      <c r="B111" s="22"/>
-      <c r="C111" s="24"/>
+      <c r="A111" s="74"/>
+      <c r="B111" s="61"/>
+      <c r="C111" s="76"/>
       <c r="D111" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F111" s="10"/>
       <c r="G111" s="10"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="29"/>
+      <c r="H111" s="64"/>
+      <c r="I111" s="65"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="19"/>
-      <c r="B112" s="22"/>
-      <c r="C112" s="24"/>
+      <c r="A112" s="74"/>
+      <c r="B112" s="61"/>
+      <c r="C112" s="76"/>
       <c r="D112" s="11" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="29"/>
+      <c r="H112" s="46"/>
+      <c r="I112" s="65"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="19"/>
-      <c r="B113" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C113" s="24" t="s">
-        <v>196</v>
+      <c r="A113" s="74"/>
+      <c r="B113" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="C113" s="76" t="s">
+        <v>173</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>38</v>
+        <v>282</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="G113" s="10"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="34"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="55"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="19"/>
-      <c r="B114" s="22"/>
-      <c r="C114" s="24"/>
+      <c r="A114" s="74"/>
+      <c r="B114" s="61"/>
+      <c r="C114" s="76"/>
       <c r="D114" s="10" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
-      <c r="H114" s="26"/>
-      <c r="I114" s="29"/>
+      <c r="H114" s="64"/>
+      <c r="I114" s="65"/>
     </row>
     <row r="115" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="20"/>
-      <c r="B115" s="30"/>
-      <c r="C115" s="31"/>
+      <c r="A115" s="75"/>
+      <c r="B115" s="67"/>
+      <c r="C115" s="77"/>
       <c r="D115" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E115" s="17"/>
       <c r="F115" s="16"/>
       <c r="G115" s="16"/>
-      <c r="H115" s="33"/>
-      <c r="I115" s="35"/>
+      <c r="H115" s="54"/>
+      <c r="I115" s="56"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="B116" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C116" s="23" t="s">
-        <v>195</v>
+      <c r="A116" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="B116" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C116" s="78" t="s">
+        <v>172</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="G116" s="14"/>
-      <c r="H116" s="25"/>
-      <c r="I116" s="28"/>
+      <c r="H116" s="45"/>
+      <c r="I116" s="47"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="19"/>
-      <c r="B117" s="22"/>
-      <c r="C117" s="24"/>
+      <c r="A117" s="74"/>
+      <c r="B117" s="61"/>
+      <c r="C117" s="76"/>
       <c r="D117" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
-      <c r="H117" s="26"/>
-      <c r="I117" s="29"/>
+      <c r="H117" s="64"/>
+      <c r="I117" s="65"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="19"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="24"/>
+      <c r="A118" s="74"/>
+      <c r="B118" s="61"/>
+      <c r="C118" s="76"/>
       <c r="D118" s="11" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="29"/>
+      <c r="H118" s="46"/>
+      <c r="I118" s="65"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="19"/>
-      <c r="B119" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C119" s="24" t="s">
-        <v>194</v>
+      <c r="A119" s="74"/>
+      <c r="B119" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="C119" s="76" t="s">
+        <v>171</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="G119" s="10"/>
-      <c r="H119" s="32"/>
-      <c r="I119" s="34"/>
+      <c r="H119" s="53"/>
+      <c r="I119" s="55"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="19"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="24"/>
+      <c r="A120" s="74"/>
+      <c r="B120" s="61"/>
+      <c r="C120" s="76"/>
       <c r="D120" s="10" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
-      <c r="H120" s="26"/>
-      <c r="I120" s="29"/>
+      <c r="H120" s="64"/>
+      <c r="I120" s="65"/>
     </row>
     <row r="121" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="20"/>
-      <c r="B121" s="30"/>
-      <c r="C121" s="31"/>
+      <c r="A121" s="75"/>
+      <c r="B121" s="67"/>
+      <c r="C121" s="77"/>
       <c r="D121" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E121" s="17"/>
       <c r="F121" s="16"/>
       <c r="G121" s="16"/>
-      <c r="H121" s="33"/>
-      <c r="I121" s="35"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="56"/>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="B122" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C122" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="D122" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="E122" s="68" t="s">
-        <v>208</v>
-      </c>
-      <c r="F122" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="G122" s="67"/>
-      <c r="H122" s="25"/>
-      <c r="I122" s="28"/>
+      <c r="A122" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="B122" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="C122" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="D122" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E122" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="F122" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="G122" s="28"/>
+      <c r="H122" s="45"/>
+      <c r="I122" s="47"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="41"/>
-      <c r="B123" s="22"/>
-      <c r="C123" s="44"/>
-      <c r="D123" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="E123" s="59" t="s">
-        <v>209</v>
+      <c r="A123" s="39"/>
+      <c r="B123" s="61"/>
+      <c r="C123" s="63"/>
+      <c r="D123" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E123" s="20" t="s">
+        <v>184</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="10"/>
-      <c r="H123" s="26"/>
-      <c r="I123" s="29"/>
+      <c r="H123" s="64"/>
+      <c r="I123" s="65"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="41"/>
-      <c r="B124" s="22"/>
-      <c r="C124" s="44"/>
-      <c r="D124" s="57" t="s">
-        <v>215</v>
-      </c>
-      <c r="E124" s="59" t="s">
-        <v>210</v>
+      <c r="A124" s="39"/>
+      <c r="B124" s="61"/>
+      <c r="C124" s="63"/>
+      <c r="D124" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E124" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="10"/>
-      <c r="H124" s="26"/>
-      <c r="I124" s="29"/>
+      <c r="H124" s="64"/>
+      <c r="I124" s="65"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="41"/>
-      <c r="B125" s="22"/>
-      <c r="C125" s="44"/>
-      <c r="D125" s="57" t="s">
-        <v>216</v>
-      </c>
-      <c r="E125" s="59" t="s">
-        <v>211</v>
+      <c r="A125" s="39"/>
+      <c r="B125" s="61"/>
+      <c r="C125" s="63"/>
+      <c r="D125" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E125" s="20" t="s">
+        <v>186</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="10"/>
-      <c r="H125" s="26"/>
-      <c r="I125" s="29"/>
+      <c r="H125" s="64"/>
+      <c r="I125" s="65"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="41"/>
-      <c r="B126" s="22"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="E126" s="64"/>
+      <c r="A126" s="39"/>
+      <c r="B126" s="61"/>
+      <c r="C126" s="63"/>
+      <c r="D126" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="E126" s="25"/>
       <c r="F126" s="7"/>
       <c r="G126" s="11"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="70"/>
+      <c r="H126" s="46"/>
+      <c r="I126" s="48"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="41"/>
-      <c r="B127" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="C127" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="D127" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="E127" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="F127" s="65" t="s">
-        <v>208</v>
-      </c>
-      <c r="G127" s="57"/>
-      <c r="H127" s="26"/>
-      <c r="I127" s="29"/>
+      <c r="A127" s="39"/>
+      <c r="B127" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C127" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E127" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F127" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G127" s="18"/>
+      <c r="H127" s="64"/>
+      <c r="I127" s="65"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="41"/>
-      <c r="B128" s="22"/>
-      <c r="C128" s="44"/>
-      <c r="D128" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="E128" s="59" t="s">
-        <v>42</v>
+      <c r="A128" s="39"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="63"/>
+      <c r="D128" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="10"/>
-      <c r="H128" s="26"/>
-      <c r="I128" s="29"/>
+      <c r="H128" s="64"/>
+      <c r="I128" s="65"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="41"/>
-      <c r="B129" s="22"/>
-      <c r="C129" s="44"/>
-      <c r="D129" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="E129" s="59" t="s">
-        <v>228</v>
+      <c r="A129" s="39"/>
+      <c r="B129" s="61"/>
+      <c r="C129" s="63"/>
+      <c r="D129" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E129" s="20" t="s">
+        <v>203</v>
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="10"/>
-      <c r="H129" s="26"/>
-      <c r="I129" s="29"/>
+      <c r="H129" s="64"/>
+      <c r="I129" s="65"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="41"/>
-      <c r="B130" s="22"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="57" t="s">
-        <v>216</v>
-      </c>
-      <c r="E130" s="59" t="s">
-        <v>211</v>
+      <c r="A130" s="39"/>
+      <c r="B130" s="61"/>
+      <c r="C130" s="63"/>
+      <c r="D130" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E130" s="20" t="s">
+        <v>186</v>
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="10"/>
-      <c r="H130" s="26"/>
-      <c r="I130" s="29"/>
+      <c r="H130" s="64"/>
+      <c r="I130" s="65"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="22"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="E131" s="64"/>
+      <c r="A131" s="39"/>
+      <c r="B131" s="61"/>
+      <c r="C131" s="63"/>
+      <c r="D131" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="E131" s="25"/>
       <c r="F131" s="7"/>
       <c r="G131" s="11"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="70"/>
+      <c r="H131" s="46"/>
+      <c r="I131" s="48"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="41"/>
-      <c r="B132" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="C132" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="D132" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="E132" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="F132" s="65" t="s">
-        <v>208</v>
-      </c>
-      <c r="G132" s="57"/>
-      <c r="H132" s="26"/>
-      <c r="I132" s="29"/>
+      <c r="A132" s="39"/>
+      <c r="B132" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="C132" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E132" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F132" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G132" s="18"/>
+      <c r="H132" s="64"/>
+      <c r="I132" s="65"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="41"/>
-      <c r="B133" s="22"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="E133" s="59" t="s">
-        <v>42</v>
+      <c r="A133" s="39"/>
+      <c r="B133" s="61"/>
+      <c r="C133" s="63"/>
+      <c r="D133" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E133" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="10"/>
-      <c r="H133" s="26"/>
-      <c r="I133" s="29"/>
+      <c r="H133" s="64"/>
+      <c r="I133" s="65"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="22"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="57" t="s">
-        <v>215</v>
-      </c>
-      <c r="E134" s="59" t="s">
-        <v>210</v>
+      <c r="A134" s="39"/>
+      <c r="B134" s="61"/>
+      <c r="C134" s="63"/>
+      <c r="D134" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E134" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="10"/>
-      <c r="H134" s="26"/>
-      <c r="I134" s="29"/>
+      <c r="H134" s="64"/>
+      <c r="I134" s="65"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="22"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="E135" s="59" t="s">
-        <v>227</v>
+      <c r="A135" s="39"/>
+      <c r="B135" s="61"/>
+      <c r="C135" s="63"/>
+      <c r="D135" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E135" s="20" t="s">
+        <v>202</v>
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="10"/>
-      <c r="H135" s="26"/>
-      <c r="I135" s="29"/>
+      <c r="H135" s="64"/>
+      <c r="I135" s="65"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
-      <c r="B136" s="22"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="E136" s="64"/>
+      <c r="A136" s="39"/>
+      <c r="B136" s="61"/>
+      <c r="C136" s="63"/>
+      <c r="D136" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="E136" s="25"/>
       <c r="F136" s="7"/>
       <c r="G136" s="11"/>
-      <c r="H136" s="27"/>
-      <c r="I136" s="70"/>
+      <c r="H136" s="46"/>
+      <c r="I136" s="48"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="41"/>
-      <c r="B137" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="C137" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="D137" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="E137" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="F137" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="G137" s="57"/>
-      <c r="H137" s="26"/>
-      <c r="I137" s="29"/>
+      <c r="A137" s="39"/>
+      <c r="B137" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="C137" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E137" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F137" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G137" s="18"/>
+      <c r="H137" s="64"/>
+      <c r="I137" s="65"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="41"/>
-      <c r="B138" s="22"/>
-      <c r="C138" s="44"/>
-      <c r="D138" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="E138" s="59" t="s">
-        <v>42</v>
+      <c r="A138" s="39"/>
+      <c r="B138" s="61"/>
+      <c r="C138" s="63"/>
+      <c r="D138" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E138" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="10"/>
-      <c r="H138" s="26"/>
-      <c r="I138" s="29"/>
+      <c r="H138" s="64"/>
+      <c r="I138" s="65"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="41"/>
-      <c r="B139" s="22"/>
-      <c r="C139" s="44"/>
-      <c r="D139" s="57" t="s">
-        <v>215</v>
-      </c>
-      <c r="E139" s="59" t="s">
-        <v>210</v>
+      <c r="A139" s="39"/>
+      <c r="B139" s="61"/>
+      <c r="C139" s="63"/>
+      <c r="D139" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E139" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="10"/>
-      <c r="H139" s="26"/>
-      <c r="I139" s="29"/>
+      <c r="H139" s="64"/>
+      <c r="I139" s="65"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="41"/>
-      <c r="B140" s="22"/>
-      <c r="C140" s="44"/>
-      <c r="D140" s="57" t="s">
-        <v>216</v>
-      </c>
-      <c r="E140" s="59" t="s">
-        <v>211</v>
+      <c r="A140" s="39"/>
+      <c r="B140" s="61"/>
+      <c r="C140" s="63"/>
+      <c r="D140" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E140" s="20" t="s">
+        <v>186</v>
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="10"/>
-      <c r="H140" s="26"/>
-      <c r="I140" s="29"/>
+      <c r="H140" s="64"/>
+      <c r="I140" s="65"/>
     </row>
     <row r="141" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="41"/>
-      <c r="B141" s="48"/>
-      <c r="C141" s="45"/>
-      <c r="D141" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="E141" s="62"/>
+      <c r="A141" s="39"/>
+      <c r="B141" s="49"/>
+      <c r="C141" s="51"/>
+      <c r="D141" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E141" s="23"/>
       <c r="F141" s="5"/>
       <c r="G141" s="10"/>
-      <c r="H141" s="26"/>
-      <c r="I141" s="29"/>
+      <c r="H141" s="64"/>
+      <c r="I141" s="65"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="77" t="s">
-        <v>229</v>
-      </c>
-      <c r="B142" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="C142" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="D142" s="74" t="s">
-        <v>232</v>
-      </c>
-      <c r="E142" s="67" t="s">
-        <v>226</v>
-      </c>
-      <c r="F142" s="67" t="s">
-        <v>226</v>
-      </c>
-      <c r="G142" s="67"/>
-      <c r="H142" s="25"/>
-      <c r="I142" s="28"/>
+      <c r="A142" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="B142" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="C142" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="D142" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="E142" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="F142" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G142" s="28"/>
+      <c r="H142" s="45"/>
+      <c r="I142" s="47"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="78"/>
-      <c r="B143" s="22"/>
-      <c r="C143" s="44"/>
-      <c r="D143" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="E143" s="57" t="s">
-        <v>211</v>
+      <c r="A143" s="58"/>
+      <c r="B143" s="61"/>
+      <c r="C143" s="63"/>
+      <c r="D143" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E143" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="F143" s="10"/>
       <c r="G143" s="10"/>
-      <c r="H143" s="26"/>
-      <c r="I143" s="29"/>
+      <c r="H143" s="64"/>
+      <c r="I143" s="65"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="78"/>
-      <c r="B144" s="22"/>
-      <c r="C144" s="44"/>
-      <c r="D144" s="75" t="s">
-        <v>235</v>
+      <c r="A144" s="58"/>
+      <c r="B144" s="61"/>
+      <c r="C144" s="63"/>
+      <c r="D144" s="34" t="s">
+        <v>210</v>
       </c>
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
       <c r="G144" s="11"/>
-      <c r="H144" s="27"/>
-      <c r="I144" s="70"/>
+      <c r="H144" s="46"/>
+      <c r="I144" s="48"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="78"/>
-      <c r="B145" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="C145" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="D145" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="E145" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="F145" s="60" t="s">
-        <v>208</v>
-      </c>
-      <c r="G145" s="60"/>
-      <c r="H145" s="32"/>
-      <c r="I145" s="34"/>
+      <c r="A145" s="58"/>
+      <c r="B145" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="C145" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="D145" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E145" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="F145" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G145" s="21"/>
+      <c r="H145" s="53"/>
+      <c r="I145" s="55"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="78"/>
-      <c r="B146" s="22"/>
-      <c r="C146" s="44"/>
-      <c r="D146" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="E146" s="57" t="s">
-        <v>227</v>
+      <c r="A146" s="58"/>
+      <c r="B146" s="61"/>
+      <c r="C146" s="63"/>
+      <c r="D146" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E146" s="18" t="s">
+        <v>202</v>
       </c>
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
-      <c r="H146" s="26"/>
-      <c r="I146" s="29"/>
+      <c r="H146" s="64"/>
+      <c r="I146" s="65"/>
     </row>
     <row r="147" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="79"/>
-      <c r="B147" s="30"/>
-      <c r="C147" s="71"/>
-      <c r="D147" s="76" t="s">
-        <v>235</v>
+      <c r="A147" s="66"/>
+      <c r="B147" s="67"/>
+      <c r="C147" s="68"/>
+      <c r="D147" s="35" t="s">
+        <v>210</v>
       </c>
       <c r="E147" s="16"/>
       <c r="F147" s="16"/>
       <c r="G147" s="16"/>
-      <c r="H147" s="33"/>
-      <c r="I147" s="35"/>
+      <c r="H147" s="54"/>
+      <c r="I147" s="56"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="77" t="s">
-        <v>237</v>
-      </c>
-      <c r="B148" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="C148" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="D148" s="74" t="s">
-        <v>241</v>
-      </c>
-      <c r="E148" s="60" t="s">
-        <v>240</v>
-      </c>
-      <c r="F148" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="G148" s="67"/>
-      <c r="H148" s="25"/>
-      <c r="I148" s="28"/>
+      <c r="A148" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="B148" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="C148" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="D148" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="E148" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F148" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="G148" s="28"/>
+      <c r="H148" s="45"/>
+      <c r="I148" s="47"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="78"/>
-      <c r="B149" s="22"/>
-      <c r="C149" s="44"/>
-      <c r="D149" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="E149" s="57" t="s">
-        <v>228</v>
+      <c r="A149" s="58"/>
+      <c r="B149" s="61"/>
+      <c r="C149" s="63"/>
+      <c r="D149" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="E149" s="18" t="s">
+        <v>203</v>
       </c>
       <c r="F149" s="10"/>
       <c r="G149" s="10"/>
-      <c r="H149" s="26"/>
-      <c r="I149" s="29"/>
+      <c r="H149" s="64"/>
+      <c r="I149" s="65"/>
     </row>
     <row r="150" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="78"/>
-      <c r="B150" s="22"/>
-      <c r="C150" s="44"/>
-      <c r="D150" s="75" t="s">
-        <v>245</v>
+      <c r="A150" s="58"/>
+      <c r="B150" s="61"/>
+      <c r="C150" s="63"/>
+      <c r="D150" s="34" t="s">
+        <v>220</v>
       </c>
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
-      <c r="H150" s="27"/>
-      <c r="I150" s="70"/>
+      <c r="H150" s="46"/>
+      <c r="I150" s="48"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="78"/>
-      <c r="B151" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="C151" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="D151" s="74" t="s">
-        <v>241</v>
-      </c>
-      <c r="E151" s="60" t="s">
-        <v>240</v>
-      </c>
-      <c r="F151" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="G151" s="60"/>
-      <c r="H151" s="32"/>
-      <c r="I151" s="34"/>
+      <c r="A151" s="58"/>
+      <c r="B151" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="C151" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="D151" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="E151" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F151" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="G151" s="21"/>
+      <c r="H151" s="53"/>
+      <c r="I151" s="55"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="78"/>
-      <c r="B152" s="22"/>
-      <c r="C152" s="44"/>
-      <c r="D152" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="E152" s="57" t="s">
-        <v>210</v>
+      <c r="A152" s="58"/>
+      <c r="B152" s="61"/>
+      <c r="C152" s="63"/>
+      <c r="D152" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E152" s="18" t="s">
+        <v>185</v>
       </c>
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
-      <c r="H152" s="26"/>
-      <c r="I152" s="29"/>
+      <c r="H152" s="64"/>
+      <c r="I152" s="65"/>
     </row>
     <row r="153" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="79"/>
-      <c r="B153" s="30"/>
-      <c r="C153" s="71"/>
-      <c r="D153" s="75" t="s">
-        <v>245</v>
+      <c r="A153" s="66"/>
+      <c r="B153" s="67"/>
+      <c r="C153" s="68"/>
+      <c r="D153" s="34" t="s">
+        <v>220</v>
       </c>
       <c r="E153" s="16"/>
       <c r="F153" s="16"/>
       <c r="G153" s="16"/>
-      <c r="H153" s="33"/>
-      <c r="I153" s="35"/>
+      <c r="H153" s="54"/>
+      <c r="I153" s="56"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="77" t="s">
-        <v>248</v>
-      </c>
-      <c r="B154" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="C154" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="D154" s="74" t="s">
-        <v>253</v>
-      </c>
-      <c r="E154" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="F154" s="67" t="s">
-        <v>255</v>
-      </c>
-      <c r="G154" s="67"/>
-      <c r="H154" s="25"/>
-      <c r="I154" s="28"/>
+      <c r="A154" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="B154" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="C154" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="D154" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="E154" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F154" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="G154" s="28"/>
+      <c r="H154" s="45"/>
+      <c r="I154" s="47"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="78"/>
-      <c r="B155" s="22"/>
-      <c r="C155" s="44"/>
-      <c r="D155" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="E155" s="57" t="s">
-        <v>228</v>
+      <c r="A155" s="58"/>
+      <c r="B155" s="61"/>
+      <c r="C155" s="63"/>
+      <c r="D155" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="E155" s="18" t="s">
+        <v>203</v>
       </c>
       <c r="F155" s="10"/>
       <c r="G155" s="10"/>
-      <c r="H155" s="26"/>
-      <c r="I155" s="29"/>
+      <c r="H155" s="64"/>
+      <c r="I155" s="65"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="78"/>
-      <c r="B156" s="22"/>
-      <c r="C156" s="44"/>
-      <c r="D156" s="63" t="s">
-        <v>245</v>
+      <c r="A156" s="58"/>
+      <c r="B156" s="61"/>
+      <c r="C156" s="63"/>
+      <c r="D156" s="24" t="s">
+        <v>220</v>
       </c>
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
       <c r="G156" s="11"/>
-      <c r="H156" s="27"/>
-      <c r="I156" s="70"/>
+      <c r="H156" s="46"/>
+      <c r="I156" s="48"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="78"/>
-      <c r="B157" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="C157" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="D157" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="E157" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="F157" s="60" t="s">
-        <v>256</v>
-      </c>
-      <c r="G157" s="60"/>
-      <c r="H157" s="32"/>
-      <c r="I157" s="34"/>
+      <c r="A157" s="58"/>
+      <c r="B157" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="C157" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="D157" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E157" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F157" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G157" s="21"/>
+      <c r="H157" s="53"/>
+      <c r="I157" s="55"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="78"/>
-      <c r="B158" s="22"/>
-      <c r="C158" s="44"/>
-      <c r="D158" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="E158" s="57" t="s">
-        <v>210</v>
+      <c r="A158" s="58"/>
+      <c r="B158" s="61"/>
+      <c r="C158" s="63"/>
+      <c r="D158" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E158" s="18" t="s">
+        <v>185</v>
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
-      <c r="H158" s="26"/>
-      <c r="I158" s="29"/>
+      <c r="H158" s="64"/>
+      <c r="I158" s="65"/>
     </row>
     <row r="159" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="83"/>
-      <c r="B159" s="48"/>
-      <c r="C159" s="45"/>
-      <c r="D159" s="57" t="s">
-        <v>245</v>
+      <c r="A159" s="59"/>
+      <c r="B159" s="49"/>
+      <c r="C159" s="51"/>
+      <c r="D159" s="18" t="s">
+        <v>220</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
-      <c r="H159" s="26"/>
-      <c r="I159" s="29"/>
+      <c r="H159" s="64"/>
+      <c r="I159" s="65"/>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="B160" s="80" t="s">
-        <v>258</v>
-      </c>
-      <c r="C160" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="D160" s="74" t="s">
-        <v>263</v>
-      </c>
-      <c r="E160" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="F160" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="G160" s="67"/>
-      <c r="H160" s="25"/>
-      <c r="I160" s="28"/>
+      <c r="A160" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="B160" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C160" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="D160" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="E160" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="F160" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G160" s="28"/>
+      <c r="H160" s="45"/>
+      <c r="I160" s="47"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="41"/>
-      <c r="B161" s="50"/>
-      <c r="C161" s="47"/>
-      <c r="D161" s="63" t="s">
-        <v>262</v>
-      </c>
-      <c r="E161" s="64"/>
+      <c r="A161" s="39"/>
+      <c r="B161" s="42"/>
+      <c r="C161" s="44"/>
+      <c r="D161" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="E161" s="25"/>
       <c r="F161" s="11"/>
       <c r="G161" s="11"/>
-      <c r="H161" s="27"/>
-      <c r="I161" s="70"/>
+      <c r="H161" s="46"/>
+      <c r="I161" s="48"/>
     </row>
     <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="41"/>
-      <c r="B162" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="C162" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="D162" s="61" t="s">
-        <v>269</v>
-      </c>
-      <c r="E162" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="F162" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="G162" s="60"/>
-      <c r="H162" s="32"/>
-      <c r="I162" s="34"/>
+      <c r="A162" s="39"/>
+      <c r="B162" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="C162" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="D162" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="E162" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F162" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G162" s="21"/>
+      <c r="H162" s="53"/>
+      <c r="I162" s="55"/>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="42"/>
-      <c r="B163" s="51"/>
+      <c r="A163" s="40"/>
+      <c r="B163" s="50"/>
       <c r="C163" s="52"/>
-      <c r="D163" s="72" t="s">
-        <v>262</v>
-      </c>
-      <c r="E163" s="73"/>
+      <c r="D163" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="E163" s="32"/>
       <c r="F163" s="16"/>
       <c r="G163" s="16"/>
-      <c r="H163" s="33"/>
-      <c r="I163" s="35"/>
+      <c r="H163" s="54"/>
+      <c r="I163" s="56"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="40" t="s">
-        <v>264</v>
-      </c>
-      <c r="B164" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="C164" s="81" t="s">
-        <v>268</v>
-      </c>
-      <c r="D164" s="74" t="s">
-        <v>271</v>
-      </c>
-      <c r="E164" s="67" t="s">
-        <v>211</v>
-      </c>
-      <c r="F164" s="67" t="s">
-        <v>274</v>
-      </c>
-      <c r="G164" s="67"/>
-      <c r="H164" s="25"/>
-      <c r="I164" s="28"/>
+      <c r="A164" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B164" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="C164" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="D164" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="E164" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="F164" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="G164" s="28"/>
+      <c r="H164" s="45"/>
+      <c r="I164" s="47"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="41"/>
-      <c r="B165" s="50"/>
-      <c r="C165" s="47"/>
-      <c r="D165" s="63" t="s">
-        <v>272</v>
-      </c>
-      <c r="E165" s="64"/>
+      <c r="A165" s="39"/>
+      <c r="B165" s="42"/>
+      <c r="C165" s="44"/>
+      <c r="D165" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="E165" s="25"/>
       <c r="F165" s="11"/>
       <c r="G165" s="11"/>
-      <c r="H165" s="27"/>
-      <c r="I165" s="70"/>
+      <c r="H165" s="46"/>
+      <c r="I165" s="48"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="41"/>
-      <c r="B166" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="C166" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="D166" s="61" t="s">
-        <v>270</v>
-      </c>
-      <c r="E166" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="F166" s="60" t="s">
-        <v>273</v>
-      </c>
-      <c r="G166" s="60"/>
-      <c r="H166" s="32"/>
-      <c r="I166" s="34"/>
+      <c r="A166" s="39"/>
+      <c r="B166" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="C166" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D166" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="E166" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="F166" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G166" s="21"/>
+      <c r="H166" s="53"/>
+      <c r="I166" s="55"/>
     </row>
     <row r="167" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="42"/>
-      <c r="B167" s="51"/>
+      <c r="A167" s="40"/>
+      <c r="B167" s="50"/>
       <c r="C167" s="52"/>
-      <c r="D167" s="72" t="s">
-        <v>272</v>
-      </c>
-      <c r="E167" s="73"/>
+      <c r="D167" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="E167" s="32"/>
       <c r="F167" s="16"/>
       <c r="G167" s="16"/>
-      <c r="H167" s="33"/>
-      <c r="I167" s="35"/>
+      <c r="H167" s="54"/>
+      <c r="I167" s="56"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="B168" s="80" t="s">
-        <v>276</v>
-      </c>
-      <c r="C168" s="81" t="s">
-        <v>278</v>
-      </c>
-      <c r="D168" s="74" t="s">
-        <v>271</v>
-      </c>
-      <c r="E168" s="67" t="s">
-        <v>211</v>
-      </c>
-      <c r="F168" s="67" t="s">
-        <v>281</v>
-      </c>
-      <c r="G168" s="67"/>
-      <c r="H168" s="25"/>
-      <c r="I168" s="28"/>
+      <c r="A168" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="B168" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="C168" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="D168" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="E168" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="F168" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="G168" s="28"/>
+      <c r="H168" s="45"/>
+      <c r="I168" s="47"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="41"/>
-      <c r="B169" s="50"/>
-      <c r="C169" s="47"/>
-      <c r="D169" s="63" t="s">
-        <v>280</v>
-      </c>
-      <c r="E169" s="64"/>
+      <c r="A169" s="39"/>
+      <c r="B169" s="42"/>
+      <c r="C169" s="44"/>
+      <c r="D169" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="E169" s="25"/>
       <c r="F169" s="11"/>
       <c r="G169" s="11"/>
-      <c r="H169" s="27"/>
-      <c r="I169" s="70"/>
+      <c r="H169" s="46"/>
+      <c r="I169" s="48"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="41"/>
-      <c r="B170" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="C170" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D170" s="61" t="s">
-        <v>270</v>
-      </c>
-      <c r="E170" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="F170" s="60" t="s">
-        <v>282</v>
-      </c>
-      <c r="G170" s="60"/>
-      <c r="H170" s="32"/>
-      <c r="I170" s="34"/>
+      <c r="A170" s="39"/>
+      <c r="B170" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="C170" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="D170" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="E170" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="F170" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="G170" s="21"/>
+      <c r="H170" s="53"/>
+      <c r="I170" s="55"/>
     </row>
     <row r="171" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="42"/>
-      <c r="B171" s="51"/>
+      <c r="A171" s="40"/>
+      <c r="B171" s="50"/>
       <c r="C171" s="52"/>
-      <c r="D171" s="72" t="s">
-        <v>280</v>
-      </c>
-      <c r="E171" s="73"/>
+      <c r="D171" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="E171" s="32"/>
       <c r="F171" s="16"/>
       <c r="G171" s="16"/>
-      <c r="H171" s="33"/>
-      <c r="I171" s="35"/>
+      <c r="H171" s="54"/>
+      <c r="I171" s="56"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B172" s="80" t="s">
-        <v>293</v>
-      </c>
-      <c r="C172" s="81" t="s">
-        <v>283</v>
-      </c>
-      <c r="D172" s="74" t="s">
-        <v>286</v>
-      </c>
-      <c r="E172" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="F172" s="67" t="s">
-        <v>290</v>
-      </c>
-      <c r="G172" s="67"/>
-      <c r="H172" s="25"/>
-      <c r="I172" s="28"/>
+      <c r="A172" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B172" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="C172" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="D172" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="E172" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="F172" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="G172" s="28"/>
+      <c r="H172" s="45"/>
+      <c r="I172" s="47"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="41"/>
-      <c r="B173" s="50"/>
-      <c r="C173" s="47"/>
-      <c r="D173" s="63" t="s">
-        <v>289</v>
-      </c>
-      <c r="E173" s="64"/>
+      <c r="A173" s="39"/>
+      <c r="B173" s="42"/>
+      <c r="C173" s="44"/>
+      <c r="D173" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="E173" s="25"/>
       <c r="F173" s="11"/>
       <c r="G173" s="11"/>
-      <c r="H173" s="27"/>
-      <c r="I173" s="70"/>
+      <c r="H173" s="46"/>
+      <c r="I173" s="48"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="41"/>
-      <c r="B174" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="C174" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="D174" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="E174" s="60" t="s">
-        <v>288</v>
-      </c>
-      <c r="F174" s="60" t="s">
-        <v>291</v>
-      </c>
-      <c r="G174" s="60"/>
-      <c r="H174" s="32"/>
-      <c r="I174" s="34"/>
+      <c r="A174" s="39"/>
+      <c r="B174" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="C174" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="D174" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E174" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="F174" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="G174" s="21"/>
+      <c r="H174" s="53"/>
+      <c r="I174" s="55"/>
     </row>
     <row r="175" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="42"/>
-      <c r="B175" s="51"/>
+      <c r="A175" s="40"/>
+      <c r="B175" s="50"/>
       <c r="C175" s="52"/>
-      <c r="D175" s="72" t="s">
-        <v>289</v>
-      </c>
-      <c r="E175" s="73"/>
+      <c r="D175" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="E175" s="32"/>
       <c r="F175" s="16"/>
       <c r="G175" s="16"/>
-      <c r="H175" s="33"/>
-      <c r="I175" s="35"/>
+      <c r="H175" s="54"/>
+      <c r="I175" s="56"/>
     </row>
     <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="B176" s="80" t="s">
-        <v>296</v>
-      </c>
-      <c r="C176" s="81" t="s">
-        <v>298</v>
-      </c>
-      <c r="D176" s="74" t="s">
+      <c r="A176" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="B176" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="E176" s="67" t="s">
-        <v>211</v>
-      </c>
-      <c r="F176" s="67" t="s">
-        <v>302</v>
-      </c>
-      <c r="G176" s="67"/>
-      <c r="H176" s="25"/>
-      <c r="I176" s="28"/>
+      <c r="C176" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="D176" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="E176" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="F176" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="G176" s="28"/>
+      <c r="H176" s="45"/>
+      <c r="I176" s="47"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="41"/>
-      <c r="B177" s="50"/>
-      <c r="C177" s="47"/>
-      <c r="D177" s="63" t="s">
-        <v>300</v>
-      </c>
-      <c r="E177" s="64"/>
+      <c r="A177" s="39"/>
+      <c r="B177" s="42"/>
+      <c r="C177" s="44"/>
+      <c r="D177" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="E177" s="25"/>
       <c r="F177" s="11"/>
       <c r="G177" s="11"/>
-      <c r="H177" s="27"/>
-      <c r="I177" s="70"/>
+      <c r="H177" s="46"/>
+      <c r="I177" s="48"/>
     </row>
     <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="41"/>
-      <c r="B178" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="C178" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="D178" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="E178" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="F178" s="60" t="s">
-        <v>303</v>
-      </c>
-      <c r="G178" s="60"/>
-      <c r="H178" s="32"/>
-      <c r="I178" s="34"/>
+      <c r="A178" s="39"/>
+      <c r="B178" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="C178" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="D178" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="E178" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="F178" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="G178" s="21"/>
+      <c r="H178" s="53"/>
+      <c r="I178" s="55"/>
     </row>
     <row r="179" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="42"/>
-      <c r="B179" s="51"/>
+      <c r="A179" s="40"/>
+      <c r="B179" s="50"/>
       <c r="C179" s="52"/>
-      <c r="D179" s="72" t="s">
-        <v>300</v>
-      </c>
-      <c r="E179" s="73"/>
+      <c r="D179" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="E179" s="32"/>
       <c r="F179" s="16"/>
       <c r="G179" s="16"/>
-      <c r="H179" s="33"/>
-      <c r="I179" s="35"/>
+      <c r="H179" s="54"/>
+      <c r="I179" s="56"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="82"/>
-      <c r="B180" s="82"/>
-      <c r="C180" s="84"/>
-      <c r="D180" s="59"/>
-      <c r="E180" s="59"/>
-      <c r="F180" s="59"/>
-      <c r="G180" s="59"/>
-      <c r="H180" s="66"/>
-      <c r="I180" s="66"/>
+      <c r="A180" s="36"/>
+      <c r="B180" s="36"/>
+      <c r="C180" s="37"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="20"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="82"/>
-      <c r="B181" s="82"/>
-      <c r="C181" s="84"/>
-      <c r="D181" s="59"/>
-      <c r="E181" s="62"/>
-      <c r="F181" s="62"/>
-      <c r="G181" s="62"/>
-      <c r="H181" s="66"/>
-      <c r="I181" s="66"/>
+      <c r="A181" s="36"/>
+      <c r="B181" s="36"/>
+      <c r="C181" s="37"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="23"/>
+      <c r="F181" s="23"/>
+      <c r="G181" s="23"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="27"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="82"/>
-      <c r="B182" s="82"/>
-      <c r="C182" s="84"/>
-      <c r="D182" s="59"/>
-      <c r="E182" s="59"/>
-      <c r="F182" s="59"/>
-      <c r="G182" s="59"/>
-      <c r="H182" s="66"/>
-      <c r="I182" s="66"/>
+      <c r="A182" s="36"/>
+      <c r="B182" s="36"/>
+      <c r="C182" s="37"/>
+      <c r="D182" s="20"/>
+      <c r="E182" s="20"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="20"/>
+      <c r="H182" s="27"/>
+      <c r="I182" s="27"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="82"/>
-      <c r="B183" s="82"/>
-      <c r="C183" s="84"/>
-      <c r="D183" s="59"/>
-      <c r="E183" s="62"/>
-      <c r="F183" s="62"/>
-      <c r="G183" s="62"/>
-      <c r="H183" s="66"/>
-      <c r="I183" s="66"/>
+      <c r="A183" s="36"/>
+      <c r="B183" s="36"/>
+      <c r="C183" s="37"/>
+      <c r="D183" s="20"/>
+      <c r="E183" s="23"/>
+      <c r="F183" s="23"/>
+      <c r="G183" s="23"/>
+      <c r="H183" s="27"/>
+      <c r="I183" s="27"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B184" s="62"/>
-      <c r="C184" s="62"/>
-      <c r="D184" s="62"/>
-      <c r="E184" s="62"/>
-      <c r="F184" s="62"/>
-      <c r="G184" s="62"/>
-      <c r="H184" s="62"/>
-      <c r="I184" s="62"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="23"/>
+      <c r="D184" s="23"/>
+      <c r="E184" s="23"/>
+      <c r="F184" s="23"/>
+      <c r="G184" s="23"/>
+      <c r="H184" s="23"/>
+      <c r="I184" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="258">
-    <mergeCell ref="A176:A179"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="H176:H177"/>
-    <mergeCell ref="I176:I177"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="H178:H179"/>
-    <mergeCell ref="I178:I179"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="H172:H173"/>
-    <mergeCell ref="I172:I173"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="H174:H175"/>
-    <mergeCell ref="I174:I175"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="H166:H167"/>
-    <mergeCell ref="I166:I167"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="H168:H169"/>
-    <mergeCell ref="I168:I169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="A160:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="H160:H161"/>
-    <mergeCell ref="I160:I161"/>
-    <mergeCell ref="I162:I163"/>
-    <mergeCell ref="H162:H163"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="H164:H165"/>
-    <mergeCell ref="I164:I165"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="A154:A159"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="H154:H156"/>
-    <mergeCell ref="I154:I156"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="H157:H159"/>
-    <mergeCell ref="I157:I159"/>
-    <mergeCell ref="A148:A153"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="H148:H150"/>
-    <mergeCell ref="I148:I150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="H151:H153"/>
-    <mergeCell ref="I151:I153"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="H116:H118"/>
+    <mergeCell ref="I116:I118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="H119:H121"/>
+    <mergeCell ref="I119:I121"/>
+    <mergeCell ref="A110:A115"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="H110:H112"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="H113:H115"/>
+    <mergeCell ref="I113:I115"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="H107:H109"/>
+    <mergeCell ref="I107:I109"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="H98:H100"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="I101:I103"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="H132:H136"/>
+    <mergeCell ref="I132:I136"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
     <mergeCell ref="B137:B141"/>
     <mergeCell ref="C137:C141"/>
     <mergeCell ref="H137:H141"/>
@@ -5122,177 +5249,69 @@
     <mergeCell ref="I127:I131"/>
     <mergeCell ref="B132:B136"/>
     <mergeCell ref="C132:C136"/>
-    <mergeCell ref="H132:H136"/>
-    <mergeCell ref="I132:I136"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="I74:I76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="H77:H79"/>
-    <mergeCell ref="I77:I79"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="I95:I97"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="H98:H100"/>
-    <mergeCell ref="I98:I100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="H101:H103"/>
-    <mergeCell ref="I101:I103"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="I104:I106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="H107:H109"/>
-    <mergeCell ref="I107:I109"/>
-    <mergeCell ref="A110:A115"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="H110:H112"/>
-    <mergeCell ref="I110:I112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="H113:H115"/>
-    <mergeCell ref="I113:I115"/>
-    <mergeCell ref="A116:A121"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="H116:H118"/>
-    <mergeCell ref="I116:I118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="H119:H121"/>
-    <mergeCell ref="I119:I121"/>
+    <mergeCell ref="A148:A153"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="H148:H150"/>
+    <mergeCell ref="I148:I150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="H151:H153"/>
+    <mergeCell ref="I151:I153"/>
+    <mergeCell ref="A154:A159"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="H154:H156"/>
+    <mergeCell ref="I154:I156"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="H157:H159"/>
+    <mergeCell ref="I157:I159"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="H160:H161"/>
+    <mergeCell ref="I160:I161"/>
+    <mergeCell ref="I162:I163"/>
+    <mergeCell ref="H162:H163"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="I166:I167"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="H168:H169"/>
+    <mergeCell ref="I168:I169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="H164:H165"/>
+    <mergeCell ref="I164:I165"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="H172:H173"/>
+    <mergeCell ref="I172:I173"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="H174:H175"/>
+    <mergeCell ref="I174:I175"/>
+    <mergeCell ref="A176:A179"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="H176:H177"/>
+    <mergeCell ref="I176:I177"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="H178:H179"/>
+    <mergeCell ref="I178:I179"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentation/Test Cases.xlsx
+++ b/Documentation/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010377\Documents\GitHub\axi2spi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C337EECC-B700-47CF-BF41-0AD3F3C78BAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70CDF3B-5964-43A5-93C9-E43BF9CE0178}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="308">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -949,6 +949,9 @@
   </si>
   <si>
     <t>9a4cd59</t>
+  </si>
+  <si>
+    <t>45e33fa</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1630,6 +1633,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1639,6 +1654,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1647,27 +1692,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1951,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26:N37"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N105" sqref="N105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,10 +2042,10 @@
       <c r="G2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="73" t="s">
         <v>305</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="75" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2041,8 +2065,8 @@
       <c r="G3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="81"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
@@ -2054,8 +2078,8 @@
       <c r="E4" s="10"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="81"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="76"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
@@ -2067,8 +2091,8 @@
       <c r="E5" s="11"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="81"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="76"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39"/>
@@ -2090,10 +2114,10 @@
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="74" t="s">
         <v>305</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="76" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2113,8 +2137,8 @@
       <c r="G7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="85"/>
-      <c r="I7" s="81"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="76"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="39"/>
@@ -2126,8 +2150,8 @@
       <c r="E8" s="10"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="81"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="76"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
@@ -2139,8 +2163,8 @@
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="81"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="76"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
@@ -2162,10 +2186,10 @@
       <c r="G10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="85" t="s">
+      <c r="H10" s="74" t="s">
         <v>305</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="76" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2185,8 +2209,8 @@
       <c r="G11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="85"/>
-      <c r="I11" s="81"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="76"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
@@ -2198,8 +2222,8 @@
       <c r="E12" s="10"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="81"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="76"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
@@ -2211,8 +2235,8 @@
       <c r="E13" s="11"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="81"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="76"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
@@ -2234,10 +2258,10 @@
       <c r="G14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="85" t="s">
+      <c r="H14" s="74" t="s">
         <v>305</v>
       </c>
-      <c r="I14" s="81" t="s">
+      <c r="I14" s="76" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2257,8 +2281,8 @@
       <c r="G15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="85"/>
-      <c r="I15" s="81"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="76"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
@@ -2270,8 +2294,8 @@
       <c r="E16" s="10"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="81"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="76"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
@@ -2283,8 +2307,8 @@
       <c r="E17" s="11"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="81"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="76"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
@@ -2306,10 +2330,10 @@
       <c r="G18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="85" t="s">
+      <c r="H18" s="74" t="s">
         <v>305</v>
       </c>
-      <c r="I18" s="81" t="s">
+      <c r="I18" s="76" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2329,8 +2353,8 @@
       <c r="G19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="85"/>
-      <c r="I19" s="81"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="76"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
@@ -2342,8 +2366,8 @@
       <c r="E20" s="10"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="81"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="76"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
@@ -2355,8 +2379,8 @@
       <c r="E21" s="11"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="81"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="76"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
@@ -2378,10 +2402,10 @@
       <c r="G22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="82" t="s">
+      <c r="H22" s="87" t="s">
         <v>305</v>
       </c>
-      <c r="I22" s="83" t="s">
+      <c r="I22" s="89" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2401,8 +2425,8 @@
       <c r="G23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="79"/>
-      <c r="I23" s="81"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="76"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
@@ -2414,8 +2438,8 @@
       <c r="E24" s="10"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="81"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="76"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
@@ -2427,11 +2451,11 @@
       <c r="E25" s="16"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="81"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="76"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="77" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="60" t="s">
@@ -2449,12 +2473,18 @@
       <c r="F26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="47"/>
+      <c r="G26" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="I26" s="83" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="74"/>
+      <c r="A27" s="78"/>
       <c r="B27" s="61"/>
       <c r="C27" s="63"/>
       <c r="D27" s="10" t="s">
@@ -2465,11 +2495,11 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="65"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="84"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="74"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="61"/>
       <c r="C28" s="63"/>
       <c r="D28" s="11" t="s">
@@ -2478,15 +2508,15 @@
       <c r="E28" s="8"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="65"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="89"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="74"/>
+      <c r="A29" s="78"/>
       <c r="B29" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="90" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -2498,14 +2528,20 @@
       <c r="F29" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="55"/>
+      <c r="G29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="I29" s="84" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="74"/>
+      <c r="A30" s="78"/>
       <c r="B30" s="61"/>
-      <c r="C30" s="76"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="10" t="s">
         <v>44</v>
       </c>
@@ -2514,30 +2550,30 @@
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="65"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="84"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="75"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="67"/>
-      <c r="C31" s="77"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="56"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="84"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="77" t="s">
         <v>46</v>
       </c>
       <c r="B32" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="92" t="s">
         <v>54</v>
       </c>
       <c r="D32" s="14" t="s">
@@ -2549,14 +2585,20 @@
       <c r="F32" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="47"/>
+      <c r="G32" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="I32" s="83" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="74"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="61"/>
-      <c r="C33" s="76"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="10" t="s">
         <v>29</v>
       </c>
@@ -2565,28 +2607,28 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="65"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="84"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="74"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="61"/>
-      <c r="C34" s="76"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="65"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="89"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="74"/>
+      <c r="A35" s="78"/>
       <c r="B35" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="76" t="s">
+      <c r="C35" s="90" t="s">
         <v>55</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -2598,14 +2640,20 @@
       <c r="F35" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="55"/>
+      <c r="G35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="I35" s="84" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
+      <c r="A36" s="78"/>
       <c r="B36" s="61"/>
-      <c r="C36" s="76"/>
+      <c r="C36" s="90"/>
       <c r="D36" s="10" t="s">
         <v>58</v>
       </c>
@@ -2614,30 +2662,30 @@
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="65"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="84"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="75"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="67"/>
-      <c r="C37" s="77"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="56"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="84"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="77" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C38" s="92" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="14" t="s">
@@ -2649,14 +2697,20 @@
       <c r="F38" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="14"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="47"/>
+      <c r="G38" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="I38" s="83" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="74"/>
+      <c r="A39" s="78"/>
       <c r="B39" s="61"/>
-      <c r="C39" s="76"/>
+      <c r="C39" s="90"/>
       <c r="D39" s="10" t="s">
         <v>22</v>
       </c>
@@ -2665,28 +2719,28 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="65"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="84"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="74"/>
+      <c r="A40" s="78"/>
       <c r="B40" s="61"/>
-      <c r="C40" s="76"/>
+      <c r="C40" s="90"/>
       <c r="D40" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="65"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="89"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="74"/>
+      <c r="A41" s="78"/>
       <c r="B41" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="76" t="s">
+      <c r="C41" s="90" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="9" t="s">
@@ -2698,14 +2752,20 @@
       <c r="F41" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="55"/>
+      <c r="G41" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H41" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="I41" s="84" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="74"/>
+      <c r="A42" s="78"/>
       <c r="B42" s="61"/>
-      <c r="C42" s="76"/>
+      <c r="C42" s="90"/>
       <c r="D42" s="10" t="s">
         <v>58</v>
       </c>
@@ -2714,30 +2774,30 @@
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="65"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="84"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="75"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="67"/>
-      <c r="C43" s="77"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="16" t="s">
         <v>52</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="56"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="84"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="73" t="s">
+      <c r="A44" s="77" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="78" t="s">
+      <c r="C44" s="92" t="s">
         <v>66</v>
       </c>
       <c r="D44" s="14" t="s">
@@ -2749,14 +2809,20 @@
       <c r="F44" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="14"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="47"/>
+      <c r="G44" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="I44" s="83" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="74"/>
+      <c r="A45" s="78"/>
       <c r="B45" s="61"/>
-      <c r="C45" s="76"/>
+      <c r="C45" s="90"/>
       <c r="D45" s="10" t="s">
         <v>22</v>
       </c>
@@ -2765,28 +2831,28 @@
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="65"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="84"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="74"/>
+      <c r="A46" s="78"/>
       <c r="B46" s="61"/>
-      <c r="C46" s="76"/>
+      <c r="C46" s="90"/>
       <c r="D46" s="11" t="s">
         <v>69</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="65"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="89"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="74"/>
+      <c r="A47" s="78"/>
       <c r="B47" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="76" t="s">
+      <c r="C47" s="90" t="s">
         <v>67</v>
       </c>
       <c r="D47" s="9" t="s">
@@ -2798,14 +2864,20 @@
       <c r="F47" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="55"/>
+      <c r="G47" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="I47" s="84" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="74"/>
+      <c r="A48" s="78"/>
       <c r="B48" s="61"/>
-      <c r="C48" s="76"/>
+      <c r="C48" s="90"/>
       <c r="D48" s="10" t="s">
         <v>68</v>
       </c>
@@ -2814,30 +2886,30 @@
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="65"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="84"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="75"/>
+      <c r="A49" s="79"/>
       <c r="B49" s="67"/>
-      <c r="C49" s="77"/>
+      <c r="C49" s="91"/>
       <c r="D49" s="16" t="s">
         <v>52</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="56"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="84"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="73" t="s">
+      <c r="A50" s="77" t="s">
         <v>73</v>
       </c>
       <c r="B50" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="78" t="s">
+      <c r="C50" s="92" t="s">
         <v>77</v>
       </c>
       <c r="D50" s="14" t="s">
@@ -2849,14 +2921,20 @@
       <c r="F50" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G50" s="14"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="47"/>
+      <c r="G50" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H50" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="I50" s="83" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="74"/>
+      <c r="A51" s="78"/>
       <c r="B51" s="61"/>
-      <c r="C51" s="76"/>
+      <c r="C51" s="90"/>
       <c r="D51" s="10" t="s">
         <v>29</v>
       </c>
@@ -2865,28 +2943,28 @@
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="65"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="84"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="74"/>
+      <c r="A52" s="78"/>
       <c r="B52" s="61"/>
-      <c r="C52" s="76"/>
+      <c r="C52" s="90"/>
       <c r="D52" s="11" t="s">
         <v>80</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="65"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="89"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="74"/>
+      <c r="A53" s="78"/>
       <c r="B53" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="76" t="s">
+      <c r="C53" s="90" t="s">
         <v>78</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -2898,14 +2976,20 @@
       <c r="F53" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="55"/>
+      <c r="G53" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="I53" s="84" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="74"/>
+      <c r="A54" s="78"/>
       <c r="B54" s="61"/>
-      <c r="C54" s="76"/>
+      <c r="C54" s="90"/>
       <c r="D54" s="10" t="s">
         <v>79</v>
       </c>
@@ -2914,30 +2998,30 @@
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="65"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="84"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="75"/>
+      <c r="A55" s="79"/>
       <c r="B55" s="67"/>
-      <c r="C55" s="77"/>
+      <c r="C55" s="91"/>
       <c r="D55" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="56"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="84"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="73" t="s">
+      <c r="A56" s="77" t="s">
         <v>85</v>
       </c>
       <c r="B56" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="78" t="s">
+      <c r="C56" s="92" t="s">
         <v>86</v>
       </c>
       <c r="D56" s="14" t="s">
@@ -2949,14 +3033,20 @@
       <c r="F56" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G56" s="14"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="47"/>
+      <c r="G56" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H56" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="I56" s="83" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="74"/>
+      <c r="A57" s="78"/>
       <c r="B57" s="61"/>
-      <c r="C57" s="76"/>
+      <c r="C57" s="90"/>
       <c r="D57" s="10" t="s">
         <v>22</v>
       </c>
@@ -2965,28 +3055,28 @@
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="65"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="84"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="74"/>
+      <c r="A58" s="78"/>
       <c r="B58" s="61"/>
-      <c r="C58" s="76"/>
+      <c r="C58" s="90"/>
       <c r="D58" s="11" t="s">
         <v>89</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="65"/>
+      <c r="H58" s="82"/>
+      <c r="I58" s="89"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="74"/>
+      <c r="A59" s="78"/>
       <c r="B59" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="76" t="s">
+      <c r="C59" s="90" t="s">
         <v>87</v>
       </c>
       <c r="D59" s="9" t="s">
@@ -2998,14 +3088,20 @@
       <c r="F59" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G59" s="10"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="55"/>
+      <c r="G59" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H59" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="I59" s="84" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="74"/>
+      <c r="A60" s="78"/>
       <c r="B60" s="61"/>
-      <c r="C60" s="76"/>
+      <c r="C60" s="90"/>
       <c r="D60" s="10" t="s">
         <v>90</v>
       </c>
@@ -3014,30 +3110,30 @@
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="65"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="84"/>
     </row>
     <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="75"/>
+      <c r="A61" s="79"/>
       <c r="B61" s="67"/>
-      <c r="C61" s="77"/>
+      <c r="C61" s="91"/>
       <c r="D61" s="16" t="s">
         <v>52</v>
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="56"/>
+      <c r="H61" s="86"/>
+      <c r="I61" s="84"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="73" t="s">
+      <c r="A62" s="77" t="s">
         <v>93</v>
       </c>
       <c r="B62" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="78" t="s">
+      <c r="C62" s="92" t="s">
         <v>102</v>
       </c>
       <c r="D62" s="14" t="s">
@@ -3049,14 +3145,20 @@
       <c r="F62" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G62" s="14"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="47"/>
+      <c r="G62" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H62" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="I62" s="83" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="74"/>
+      <c r="A63" s="78"/>
       <c r="B63" s="61"/>
-      <c r="C63" s="76"/>
+      <c r="C63" s="90"/>
       <c r="D63" s="10" t="s">
         <v>29</v>
       </c>
@@ -3065,28 +3167,28 @@
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="65"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="84"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="74"/>
+      <c r="A64" s="78"/>
       <c r="B64" s="61"/>
-      <c r="C64" s="76"/>
+      <c r="C64" s="90"/>
       <c r="D64" s="11" t="s">
         <v>103</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="65"/>
+      <c r="H64" s="82"/>
+      <c r="I64" s="89"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="74"/>
+      <c r="A65" s="78"/>
       <c r="B65" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="76" t="s">
+      <c r="C65" s="90" t="s">
         <v>101</v>
       </c>
       <c r="D65" s="9" t="s">
@@ -3098,14 +3200,20 @@
       <c r="F65" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G65" s="10"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="55"/>
+      <c r="G65" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H65" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="I65" s="84" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="74"/>
+      <c r="A66" s="78"/>
       <c r="B66" s="61"/>
-      <c r="C66" s="76"/>
+      <c r="C66" s="90"/>
       <c r="D66" s="10" t="s">
         <v>104</v>
       </c>
@@ -3114,30 +3222,30 @@
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="65"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="84"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="75"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="67"/>
-      <c r="C67" s="77"/>
+      <c r="C67" s="91"/>
       <c r="D67" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E67" s="17"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="56"/>
+      <c r="H67" s="86"/>
+      <c r="I67" s="84"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="73" t="s">
+      <c r="A68" s="77" t="s">
         <v>94</v>
       </c>
       <c r="B68" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="78" t="s">
+      <c r="C68" s="92" t="s">
         <v>100</v>
       </c>
       <c r="D68" s="14" t="s">
@@ -3149,14 +3257,20 @@
       <c r="F68" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G68" s="14"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="47"/>
+      <c r="G68" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H68" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="I68" s="83" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="74"/>
+      <c r="A69" s="78"/>
       <c r="B69" s="61"/>
-      <c r="C69" s="76"/>
+      <c r="C69" s="90"/>
       <c r="D69" s="10" t="s">
         <v>22</v>
       </c>
@@ -3165,28 +3279,28 @@
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
-      <c r="H69" s="64"/>
-      <c r="I69" s="65"/>
+      <c r="H69" s="81"/>
+      <c r="I69" s="84"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="74"/>
+      <c r="A70" s="78"/>
       <c r="B70" s="61"/>
-      <c r="C70" s="76"/>
+      <c r="C70" s="90"/>
       <c r="D70" s="11" t="s">
         <v>103</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="65"/>
+      <c r="H70" s="82"/>
+      <c r="I70" s="89"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="74"/>
+      <c r="A71" s="78"/>
       <c r="B71" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="76" t="s">
+      <c r="C71" s="90" t="s">
         <v>99</v>
       </c>
       <c r="D71" s="9" t="s">
@@ -3198,14 +3312,20 @@
       <c r="F71" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G71" s="10"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="55"/>
+      <c r="G71" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H71" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="I71" s="84" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="74"/>
+      <c r="A72" s="78"/>
       <c r="B72" s="61"/>
-      <c r="C72" s="76"/>
+      <c r="C72" s="90"/>
       <c r="D72" s="10" t="s">
         <v>104</v>
       </c>
@@ -3214,30 +3334,30 @@
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="65"/>
+      <c r="H72" s="81"/>
+      <c r="I72" s="84"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="75"/>
+      <c r="A73" s="79"/>
       <c r="B73" s="67"/>
-      <c r="C73" s="77"/>
+      <c r="C73" s="91"/>
       <c r="D73" s="16" t="s">
         <v>52</v>
       </c>
       <c r="E73" s="17"/>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="56"/>
+      <c r="H73" s="86"/>
+      <c r="I73" s="84"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="73" t="s">
+      <c r="A74" s="77" t="s">
         <v>109</v>
       </c>
       <c r="B74" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="C74" s="78" t="s">
+      <c r="C74" s="92" t="s">
         <v>111</v>
       </c>
       <c r="D74" s="14" t="s">
@@ -3249,14 +3369,20 @@
       <c r="F74" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="G74" s="14"/>
-      <c r="H74" s="45"/>
-      <c r="I74" s="47"/>
+      <c r="G74" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H74" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="I74" s="83" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="74"/>
+      <c r="A75" s="78"/>
       <c r="B75" s="61"/>
-      <c r="C75" s="76"/>
+      <c r="C75" s="90"/>
       <c r="D75" s="10" t="s">
         <v>22</v>
       </c>
@@ -3265,28 +3391,28 @@
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
-      <c r="H75" s="64"/>
-      <c r="I75" s="65"/>
+      <c r="H75" s="81"/>
+      <c r="I75" s="84"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="74"/>
+      <c r="A76" s="78"/>
       <c r="B76" s="61"/>
-      <c r="C76" s="76"/>
+      <c r="C76" s="90"/>
       <c r="D76" s="11" t="s">
         <v>114</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
-      <c r="H76" s="46"/>
-      <c r="I76" s="65"/>
+      <c r="H76" s="82"/>
+      <c r="I76" s="89"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="74"/>
+      <c r="A77" s="78"/>
       <c r="B77" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="76" t="s">
+      <c r="C77" s="90" t="s">
         <v>110</v>
       </c>
       <c r="D77" s="9" t="s">
@@ -3298,14 +3424,20 @@
       <c r="F77" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="G77" s="10"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="55"/>
+      <c r="G77" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H77" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="I77" s="84" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="74"/>
+      <c r="A78" s="78"/>
       <c r="B78" s="61"/>
-      <c r="C78" s="76"/>
+      <c r="C78" s="90"/>
       <c r="D78" s="10" t="s">
         <v>113</v>
       </c>
@@ -3314,30 +3446,30 @@
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="65"/>
+      <c r="H78" s="81"/>
+      <c r="I78" s="84"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="75"/>
+      <c r="A79" s="79"/>
       <c r="B79" s="67"/>
-      <c r="C79" s="77"/>
+      <c r="C79" s="91"/>
       <c r="D79" s="16" t="s">
         <v>52</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="56"/>
+      <c r="H79" s="86"/>
+      <c r="I79" s="84"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="73" t="s">
+      <c r="A80" s="77" t="s">
         <v>119</v>
       </c>
       <c r="B80" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="C80" s="78" t="s">
+      <c r="C80" s="92" t="s">
         <v>123</v>
       </c>
       <c r="D80" s="14" t="s">
@@ -3349,14 +3481,20 @@
       <c r="F80" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G80" s="14"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="47"/>
+      <c r="G80" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H80" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="I80" s="83" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="74"/>
+      <c r="A81" s="78"/>
       <c r="B81" s="61"/>
-      <c r="C81" s="76"/>
+      <c r="C81" s="90"/>
       <c r="D81" s="10" t="s">
         <v>22</v>
       </c>
@@ -3365,28 +3503,28 @@
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
-      <c r="H81" s="64"/>
-      <c r="I81" s="65"/>
+      <c r="H81" s="81"/>
+      <c r="I81" s="84"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="74"/>
+      <c r="A82" s="78"/>
       <c r="B82" s="61"/>
-      <c r="C82" s="76"/>
+      <c r="C82" s="90"/>
       <c r="D82" s="11" t="s">
         <v>126</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
-      <c r="H82" s="46"/>
-      <c r="I82" s="65"/>
+      <c r="H82" s="82"/>
+      <c r="I82" s="89"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="74"/>
+      <c r="A83" s="78"/>
       <c r="B83" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="76" t="s">
+      <c r="C83" s="90" t="s">
         <v>122</v>
       </c>
       <c r="D83" s="9" t="s">
@@ -3398,14 +3536,20 @@
       <c r="F83" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="G83" s="10"/>
-      <c r="H83" s="53"/>
-      <c r="I83" s="55"/>
+      <c r="G83" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H83" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="I83" s="84" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="74"/>
+      <c r="A84" s="78"/>
       <c r="B84" s="61"/>
-      <c r="C84" s="76"/>
+      <c r="C84" s="90"/>
       <c r="D84" s="10" t="s">
         <v>125</v>
       </c>
@@ -3414,30 +3558,30 @@
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
-      <c r="H84" s="64"/>
-      <c r="I84" s="65"/>
+      <c r="H84" s="81"/>
+      <c r="I84" s="84"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="75"/>
+      <c r="A85" s="79"/>
       <c r="B85" s="67"/>
-      <c r="C85" s="77"/>
+      <c r="C85" s="91"/>
       <c r="D85" s="16" t="s">
         <v>52</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="56"/>
+      <c r="H85" s="86"/>
+      <c r="I85" s="84"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="73" t="s">
+      <c r="A86" s="77" t="s">
         <v>129</v>
       </c>
       <c r="B86" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="78" t="s">
+      <c r="C86" s="92" t="s">
         <v>138</v>
       </c>
       <c r="D86" s="14" t="s">
@@ -3449,14 +3593,20 @@
       <c r="F86" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="G86" s="14"/>
-      <c r="H86" s="45"/>
-      <c r="I86" s="47"/>
+      <c r="G86" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H86" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="I86" s="83" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="74"/>
+      <c r="A87" s="78"/>
       <c r="B87" s="61"/>
-      <c r="C87" s="76"/>
+      <c r="C87" s="90"/>
       <c r="D87" s="10" t="s">
         <v>29</v>
       </c>
@@ -3465,28 +3615,28 @@
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="65"/>
+      <c r="H87" s="81"/>
+      <c r="I87" s="84"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="74"/>
+      <c r="A88" s="78"/>
       <c r="B88" s="61"/>
-      <c r="C88" s="76"/>
+      <c r="C88" s="90"/>
       <c r="D88" s="11" t="s">
         <v>139</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
-      <c r="H88" s="46"/>
-      <c r="I88" s="65"/>
+      <c r="H88" s="82"/>
+      <c r="I88" s="89"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="74"/>
+      <c r="A89" s="78"/>
       <c r="B89" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="C89" s="76" t="s">
+      <c r="C89" s="90" t="s">
         <v>137</v>
       </c>
       <c r="D89" s="9" t="s">
@@ -3498,14 +3648,20 @@
       <c r="F89" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="G89" s="10"/>
-      <c r="H89" s="53"/>
-      <c r="I89" s="55"/>
+      <c r="G89" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H89" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="I89" s="84" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="74"/>
+      <c r="A90" s="78"/>
       <c r="B90" s="61"/>
-      <c r="C90" s="76"/>
+      <c r="C90" s="90"/>
       <c r="D90" s="10" t="s">
         <v>140</v>
       </c>
@@ -3514,30 +3670,30 @@
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
-      <c r="H90" s="64"/>
-      <c r="I90" s="65"/>
+      <c r="H90" s="81"/>
+      <c r="I90" s="84"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="75"/>
+      <c r="A91" s="79"/>
       <c r="B91" s="67"/>
-      <c r="C91" s="77"/>
+      <c r="C91" s="91"/>
       <c r="D91" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
-      <c r="H91" s="54"/>
-      <c r="I91" s="56"/>
+      <c r="H91" s="86"/>
+      <c r="I91" s="84"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="73" t="s">
+      <c r="A92" s="77" t="s">
         <v>130</v>
       </c>
       <c r="B92" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="78" t="s">
+      <c r="C92" s="92" t="s">
         <v>136</v>
       </c>
       <c r="D92" s="14" t="s">
@@ -3549,14 +3705,20 @@
       <c r="F92" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="G92" s="14"/>
-      <c r="H92" s="45"/>
-      <c r="I92" s="47"/>
+      <c r="G92" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H92" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="I92" s="83" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="74"/>
+      <c r="A93" s="78"/>
       <c r="B93" s="61"/>
-      <c r="C93" s="76"/>
+      <c r="C93" s="90"/>
       <c r="D93" s="10" t="s">
         <v>22</v>
       </c>
@@ -3565,28 +3727,28 @@
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
-      <c r="H93" s="64"/>
-      <c r="I93" s="65"/>
+      <c r="H93" s="81"/>
+      <c r="I93" s="84"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="74"/>
+      <c r="A94" s="78"/>
       <c r="B94" s="61"/>
-      <c r="C94" s="76"/>
+      <c r="C94" s="90"/>
       <c r="D94" s="11" t="s">
         <v>139</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
-      <c r="H94" s="46"/>
-      <c r="I94" s="65"/>
+      <c r="H94" s="82"/>
+      <c r="I94" s="89"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="74"/>
+      <c r="A95" s="78"/>
       <c r="B95" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="C95" s="76" t="s">
+      <c r="C95" s="90" t="s">
         <v>135</v>
       </c>
       <c r="D95" s="9" t="s">
@@ -3598,14 +3760,20 @@
       <c r="F95" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="G95" s="10"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="55"/>
+      <c r="G95" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H95" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="I95" s="84" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="74"/>
+      <c r="A96" s="78"/>
       <c r="B96" s="61"/>
-      <c r="C96" s="76"/>
+      <c r="C96" s="90"/>
       <c r="D96" s="10" t="s">
         <v>140</v>
       </c>
@@ -3614,30 +3782,30 @@
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
-      <c r="H96" s="64"/>
-      <c r="I96" s="65"/>
+      <c r="H96" s="81"/>
+      <c r="I96" s="84"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="75"/>
+      <c r="A97" s="79"/>
       <c r="B97" s="67"/>
-      <c r="C97" s="77"/>
+      <c r="C97" s="91"/>
       <c r="D97" s="16" t="s">
         <v>52</v>
       </c>
       <c r="E97" s="17"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="56"/>
+      <c r="H97" s="86"/>
+      <c r="I97" s="84"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="73" t="s">
+      <c r="A98" s="77" t="s">
         <v>143</v>
       </c>
       <c r="B98" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C98" s="78" t="s">
+      <c r="C98" s="92" t="s">
         <v>152</v>
       </c>
       <c r="D98" s="14" t="s">
@@ -3649,14 +3817,20 @@
       <c r="F98" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="G98" s="14"/>
-      <c r="H98" s="45"/>
-      <c r="I98" s="47"/>
+      <c r="G98" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H98" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="I98" s="83" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="74"/>
+      <c r="A99" s="78"/>
       <c r="B99" s="61"/>
-      <c r="C99" s="76"/>
+      <c r="C99" s="90"/>
       <c r="D99" s="10" t="s">
         <v>29</v>
       </c>
@@ -3665,28 +3839,28 @@
       </c>
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
-      <c r="H99" s="64"/>
-      <c r="I99" s="65"/>
+      <c r="H99" s="81"/>
+      <c r="I99" s="84"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="74"/>
+      <c r="A100" s="78"/>
       <c r="B100" s="61"/>
-      <c r="C100" s="76"/>
+      <c r="C100" s="90"/>
       <c r="D100" s="11" t="s">
         <v>150</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
-      <c r="H100" s="46"/>
-      <c r="I100" s="65"/>
+      <c r="H100" s="82"/>
+      <c r="I100" s="89"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="74"/>
+      <c r="A101" s="78"/>
       <c r="B101" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="C101" s="76" t="s">
+      <c r="C101" s="90" t="s">
         <v>153</v>
       </c>
       <c r="D101" s="9" t="s">
@@ -3698,14 +3872,20 @@
       <c r="F101" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="G101" s="10"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="55"/>
+      <c r="G101" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H101" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="I101" s="84" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="74"/>
+      <c r="A102" s="78"/>
       <c r="B102" s="61"/>
-      <c r="C102" s="76"/>
+      <c r="C102" s="90"/>
       <c r="D102" s="10" t="s">
         <v>151</v>
       </c>
@@ -3714,30 +3894,30 @@
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
-      <c r="H102" s="64"/>
-      <c r="I102" s="65"/>
+      <c r="H102" s="81"/>
+      <c r="I102" s="84"/>
     </row>
     <row r="103" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="75"/>
+      <c r="A103" s="79"/>
       <c r="B103" s="67"/>
-      <c r="C103" s="77"/>
+      <c r="C103" s="91"/>
       <c r="D103" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E103" s="17"/>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="56"/>
+      <c r="H103" s="86"/>
+      <c r="I103" s="84"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="73" t="s">
+      <c r="A104" s="77" t="s">
         <v>144</v>
       </c>
       <c r="B104" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="C104" s="78" t="s">
+      <c r="C104" s="92" t="s">
         <v>154</v>
       </c>
       <c r="D104" s="14" t="s">
@@ -3749,14 +3929,20 @@
       <c r="F104" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="G104" s="14"/>
-      <c r="H104" s="45"/>
-      <c r="I104" s="47"/>
+      <c r="G104" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H104" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="I104" s="83" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="74"/>
+      <c r="A105" s="78"/>
       <c r="B105" s="61"/>
-      <c r="C105" s="76"/>
+      <c r="C105" s="90"/>
       <c r="D105" s="10" t="s">
         <v>22</v>
       </c>
@@ -3765,28 +3951,28 @@
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
-      <c r="H105" s="64"/>
-      <c r="I105" s="65"/>
+      <c r="H105" s="81"/>
+      <c r="I105" s="84"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="74"/>
+      <c r="A106" s="78"/>
       <c r="B106" s="61"/>
-      <c r="C106" s="76"/>
+      <c r="C106" s="90"/>
       <c r="D106" s="11" t="s">
         <v>150</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
-      <c r="H106" s="46"/>
-      <c r="I106" s="65"/>
+      <c r="H106" s="82"/>
+      <c r="I106" s="89"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="74"/>
+      <c r="A107" s="78"/>
       <c r="B107" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="C107" s="76" t="s">
+      <c r="C107" s="90" t="s">
         <v>155</v>
       </c>
       <c r="D107" s="9" t="s">
@@ -3798,14 +3984,20 @@
       <c r="F107" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="G107" s="10"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="55"/>
+      <c r="G107" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H107" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="I107" s="84" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="74"/>
+      <c r="A108" s="78"/>
       <c r="B108" s="61"/>
-      <c r="C108" s="76"/>
+      <c r="C108" s="90"/>
       <c r="D108" s="10" t="s">
         <v>149</v>
       </c>
@@ -3814,30 +4006,30 @@
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
-      <c r="H108" s="64"/>
-      <c r="I108" s="65"/>
+      <c r="H108" s="81"/>
+      <c r="I108" s="84"/>
     </row>
     <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="75"/>
+      <c r="A109" s="79"/>
       <c r="B109" s="67"/>
-      <c r="C109" s="77"/>
+      <c r="C109" s="91"/>
       <c r="D109" s="16" t="s">
         <v>52</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="16"/>
       <c r="G109" s="16"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="56"/>
+      <c r="H109" s="86"/>
+      <c r="I109" s="84"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="73" t="s">
+      <c r="A110" s="77" t="s">
         <v>162</v>
       </c>
       <c r="B110" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="C110" s="78" t="s">
+      <c r="C110" s="92" t="s">
         <v>174</v>
       </c>
       <c r="D110" s="14" t="s">
@@ -3849,14 +4041,20 @@
       <c r="F110" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G110" s="14"/>
-      <c r="H110" s="45"/>
-      <c r="I110" s="47"/>
+      <c r="G110" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="H110" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="I110" s="83" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="74"/>
+      <c r="A111" s="78"/>
       <c r="B111" s="61"/>
-      <c r="C111" s="76"/>
+      <c r="C111" s="90"/>
       <c r="D111" s="10" t="s">
         <v>29</v>
       </c>
@@ -3865,28 +4063,28 @@
       </c>
       <c r="F111" s="10"/>
       <c r="G111" s="10"/>
-      <c r="H111" s="64"/>
-      <c r="I111" s="65"/>
+      <c r="H111" s="81"/>
+      <c r="I111" s="84"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="74"/>
+      <c r="A112" s="78"/>
       <c r="B112" s="61"/>
-      <c r="C112" s="76"/>
+      <c r="C112" s="90"/>
       <c r="D112" s="11" t="s">
         <v>169</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
-      <c r="H112" s="46"/>
-      <c r="I112" s="65"/>
+      <c r="H112" s="82"/>
+      <c r="I112" s="89"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="74"/>
+      <c r="A113" s="78"/>
       <c r="B113" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="C113" s="76" t="s">
+      <c r="C113" s="90" t="s">
         <v>173</v>
       </c>
       <c r="D113" s="9" t="s">
@@ -3898,14 +4096,20 @@
       <c r="F113" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="G113" s="10"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="55"/>
+      <c r="G113" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H113" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="I113" s="84" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="74"/>
+      <c r="A114" s="78"/>
       <c r="B114" s="61"/>
-      <c r="C114" s="76"/>
+      <c r="C114" s="90"/>
       <c r="D114" s="10" t="s">
         <v>170</v>
       </c>
@@ -3914,30 +4118,30 @@
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
-      <c r="H114" s="64"/>
-      <c r="I114" s="65"/>
+      <c r="H114" s="81"/>
+      <c r="I114" s="84"/>
     </row>
     <row r="115" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="75"/>
+      <c r="A115" s="79"/>
       <c r="B115" s="67"/>
-      <c r="C115" s="77"/>
+      <c r="C115" s="91"/>
       <c r="D115" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E115" s="17"/>
       <c r="F115" s="16"/>
       <c r="G115" s="16"/>
-      <c r="H115" s="54"/>
-      <c r="I115" s="56"/>
+      <c r="H115" s="86"/>
+      <c r="I115" s="84"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="73" t="s">
+      <c r="A116" s="77" t="s">
         <v>163</v>
       </c>
       <c r="B116" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="C116" s="78" t="s">
+      <c r="C116" s="92" t="s">
         <v>172</v>
       </c>
       <c r="D116" s="14" t="s">
@@ -3949,14 +4153,20 @@
       <c r="F116" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G116" s="14"/>
-      <c r="H116" s="45"/>
-      <c r="I116" s="47"/>
+      <c r="G116" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="H116" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="I116" s="83" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="74"/>
+      <c r="A117" s="78"/>
       <c r="B117" s="61"/>
-      <c r="C117" s="76"/>
+      <c r="C117" s="90"/>
       <c r="D117" s="10" t="s">
         <v>22</v>
       </c>
@@ -3965,28 +4175,28 @@
       </c>
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
-      <c r="H117" s="64"/>
-      <c r="I117" s="65"/>
+      <c r="H117" s="81"/>
+      <c r="I117" s="84"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="74"/>
+      <c r="A118" s="78"/>
       <c r="B118" s="61"/>
-      <c r="C118" s="76"/>
+      <c r="C118" s="90"/>
       <c r="D118" s="11" t="s">
         <v>169</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
-      <c r="H118" s="46"/>
-      <c r="I118" s="65"/>
+      <c r="H118" s="82"/>
+      <c r="I118" s="89"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="74"/>
+      <c r="A119" s="78"/>
       <c r="B119" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="C119" s="76" t="s">
+      <c r="C119" s="90" t="s">
         <v>171</v>
       </c>
       <c r="D119" s="9" t="s">
@@ -3998,14 +4208,20 @@
       <c r="F119" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="G119" s="10"/>
-      <c r="H119" s="53"/>
-      <c r="I119" s="55"/>
+      <c r="G119" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H119" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="I119" s="84" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="74"/>
+      <c r="A120" s="78"/>
       <c r="B120" s="61"/>
-      <c r="C120" s="76"/>
+      <c r="C120" s="90"/>
       <c r="D120" s="10" t="s">
         <v>168</v>
       </c>
@@ -4014,21 +4230,21 @@
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
-      <c r="H120" s="64"/>
-      <c r="I120" s="65"/>
+      <c r="H120" s="81"/>
+      <c r="I120" s="84"/>
     </row>
     <row r="121" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="75"/>
+      <c r="A121" s="79"/>
       <c r="B121" s="67"/>
-      <c r="C121" s="77"/>
+      <c r="C121" s="91"/>
       <c r="D121" s="16" t="s">
         <v>52</v>
       </c>
       <c r="E121" s="17"/>
       <c r="F121" s="16"/>
       <c r="G121" s="16"/>
-      <c r="H121" s="54"/>
-      <c r="I121" s="56"/>
+      <c r="H121" s="86"/>
+      <c r="I121" s="84"/>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="38" t="s">

--- a/Documentation/Test Cases.xlsx
+++ b/Documentation/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010377\Documents\GitHub\axi2spi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70CDF3B-5964-43A5-93C9-E43BF9CE0178}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825E0584-791F-4E4B-AECE-76B6B0F3EA5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="309">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -952,6 +952,9 @@
   </si>
   <si>
     <t>45e33fa</t>
+  </si>
+  <si>
+    <t>TODO</t>
   </si>
 </sst>
 </file>
@@ -967,7 +970,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -977,6 +980,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1481,7 +1496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1499,9 +1514,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1514,9 +1526,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1528,6 +1537,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1537,47 +1597,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1585,113 +1654,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1975,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N105" sqref="N105"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L168" sqref="L168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,85 +2086,85 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="74" t="s">
         <v>287</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="64" t="s">
         <v>305</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="94" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="76"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="93"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="5" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="76"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="93"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="7" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="82" t="s">
         <v>304</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="76"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="93"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="54" t="s">
         <v>279</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -2114,17 +2179,17 @@
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="48" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="69"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="10" t="s">
         <v>22</v>
       </c>
@@ -2137,113 +2202,113 @@
       <c r="G7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="76"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="69"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="76"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="44"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="7" t="s">
         <v>304</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="76"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="48"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="49" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="87" t="s">
         <v>285</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="H10" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="I10" s="76" t="s">
+      <c r="I10" s="93" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="74"/>
-      <c r="I11" s="76"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="93"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="10" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="76"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="93"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="7" t="s">
+      <c r="A13" s="50"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="82" t="s">
         <v>304</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="76"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="93"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="49" t="s">
+      <c r="A14" s="50"/>
+      <c r="B14" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -2258,17 +2323,17 @@
       <c r="G14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="74" t="s">
+      <c r="H14" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="I14" s="76" t="s">
+      <c r="I14" s="48" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="69"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
@@ -2281,113 +2346,113 @@
       <c r="G15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="74"/>
-      <c r="I15" s="76"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="48"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="69"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="5" t="s">
         <v>303</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="76"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="48"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="44"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="7" t="s">
         <v>304</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="76"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="48"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="49" t="s">
+      <c r="A18" s="50"/>
+      <c r="B18" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="86" t="s">
         <v>280</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="87" t="s">
         <v>283</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="74" t="s">
+      <c r="H18" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="I18" s="76" t="s">
+      <c r="I18" s="93" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="10" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="74"/>
-      <c r="I19" s="76"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="93"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="10" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="80" t="s">
         <v>303</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="76"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="93"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="7" t="s">
+      <c r="A21" s="50"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="82" t="s">
         <v>304</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="76"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="93"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="49" t="s">
+      <c r="A22" s="50"/>
+      <c r="B22" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="54" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -2402,17 +2467,17 @@
       <c r="G22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="87" t="s">
+      <c r="H22" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="I22" s="89" t="s">
+      <c r="I22" s="41" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="69"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="10" t="s">
         <v>29</v>
       </c>
@@ -2425,98 +2490,98 @@
       <c r="G23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="88"/>
-      <c r="I23" s="76"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="69"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="10" t="s">
         <v>303</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="76"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="48"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="52"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="76"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="48"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="80" t="s">
+      <c r="H26" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="I26" s="83" t="s">
+      <c r="I26" s="95" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="10" t="s">
+      <c r="A27" s="33"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="84"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="96"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="11" t="s">
+      <c r="A28" s="33"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="89"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="97"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="78"/>
-      <c r="B29" s="61" t="s">
+      <c r="A29" s="33"/>
+      <c r="B29" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="90" t="s">
+      <c r="C29" s="36" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -2531,17 +2596,17 @@
       <c r="G29" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="85" t="s">
+      <c r="H29" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="I29" s="84" t="s">
+      <c r="I29" s="40" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="90"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="10" t="s">
         <v>44</v>
       </c>
@@ -2550,85 +2615,85 @@
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="84"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="40"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="79"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="16" t="s">
+      <c r="A31" s="34"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="84"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="40"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="92" t="s">
+      <c r="C32" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="75" t="s">
         <v>302</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="80" t="s">
+      <c r="H32" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="I32" s="83" t="s">
+      <c r="I32" s="95" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="10" t="s">
+      <c r="A33" s="33"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="84"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="96"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="11" t="s">
+      <c r="A34" s="33"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="89"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="97"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
-      <c r="B35" s="61" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="90" t="s">
+      <c r="C35" s="36" t="s">
         <v>55</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -2643,17 +2708,17 @@
       <c r="G35" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="85" t="s">
+      <c r="H35" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="I35" s="84" t="s">
+      <c r="I35" s="40" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="90"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="10" t="s">
         <v>58</v>
       </c>
@@ -2662,85 +2727,85 @@
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="84"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="40"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="79"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="16" t="s">
+      <c r="A37" s="34"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="84"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="40"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="92" t="s">
+      <c r="C38" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="75" t="s">
         <v>301</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="80" t="s">
+      <c r="H38" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="I38" s="83" t="s">
+      <c r="I38" s="95" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="78"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="10" t="s">
+      <c r="A39" s="33"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="84"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="96"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="78"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="11" t="s">
+      <c r="A40" s="33"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="89"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="97"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
-      <c r="B41" s="61" t="s">
+      <c r="A41" s="33"/>
+      <c r="B41" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="90" t="s">
+      <c r="C41" s="36" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="9" t="s">
@@ -2755,17 +2820,17 @@
       <c r="G41" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H41" s="85" t="s">
+      <c r="H41" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="I41" s="84" t="s">
+      <c r="I41" s="40" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="90"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="10" t="s">
         <v>58</v>
       </c>
@@ -2774,85 +2839,85 @@
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="84"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="40"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="79"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="16" t="s">
+      <c r="A43" s="34"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="84"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="40"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="77" t="s">
+      <c r="A44" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="60" t="s">
+      <c r="B44" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="92" t="s">
+      <c r="C44" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="H44" s="80" t="s">
+      <c r="H44" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="I44" s="83" t="s">
+      <c r="I44" s="95" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="10" t="s">
+      <c r="A45" s="33"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="84"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="96"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="11" t="s">
+      <c r="A46" s="33"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="89"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="97"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="78"/>
-      <c r="B47" s="61" t="s">
+      <c r="A47" s="33"/>
+      <c r="B47" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="90" t="s">
+      <c r="C47" s="36" t="s">
         <v>67</v>
       </c>
       <c r="D47" s="9" t="s">
@@ -2867,17 +2932,17 @@
       <c r="G47" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H47" s="85" t="s">
+      <c r="H47" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="I47" s="84" t="s">
+      <c r="I47" s="40" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="90"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="36"/>
       <c r="D48" s="10" t="s">
         <v>68</v>
       </c>
@@ -2886,85 +2951,85 @@
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="84"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="40"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="79"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="16" t="s">
+      <c r="A49" s="34"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="84"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="40"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="77" t="s">
+      <c r="A50" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="60" t="s">
+      <c r="B50" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="92" t="s">
+      <c r="C50" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="75" t="s">
         <v>299</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="H50" s="80" t="s">
+      <c r="H50" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="I50" s="83" t="s">
+      <c r="I50" s="95" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="78"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="10" t="s">
+      <c r="A51" s="33"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="84"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="96"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="90"/>
-      <c r="D52" s="11" t="s">
+      <c r="A52" s="33"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="89"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="97"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="78"/>
-      <c r="B53" s="61" t="s">
+      <c r="A53" s="33"/>
+      <c r="B53" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="90" t="s">
+      <c r="C53" s="36" t="s">
         <v>78</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -2979,17 +3044,17 @@
       <c r="G53" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H53" s="85" t="s">
+      <c r="H53" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="I53" s="84" t="s">
+      <c r="I53" s="40" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="78"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="90"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="36"/>
       <c r="D54" s="10" t="s">
         <v>79</v>
       </c>
@@ -2998,85 +3063,85 @@
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="84"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="40"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="79"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="16" t="s">
+      <c r="A55" s="34"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="84"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="40"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="77" t="s">
+      <c r="A56" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="60" t="s">
+      <c r="B56" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="92" t="s">
+      <c r="C56" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="75" t="s">
         <v>298</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="F56" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="H56" s="80" t="s">
+      <c r="H56" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="I56" s="83" t="s">
+      <c r="I56" s="95" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="78"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="10" t="s">
+      <c r="A57" s="33"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="84"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="80"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="96"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="78"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="90"/>
-      <c r="D58" s="11" t="s">
+      <c r="A58" s="33"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="82"/>
-      <c r="I58" s="89"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="97"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="78"/>
-      <c r="B59" s="61" t="s">
+      <c r="A59" s="33"/>
+      <c r="B59" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="90" t="s">
+      <c r="C59" s="36" t="s">
         <v>87</v>
       </c>
       <c r="D59" s="9" t="s">
@@ -3091,17 +3156,17 @@
       <c r="G59" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H59" s="85" t="s">
+      <c r="H59" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="I59" s="84" t="s">
+      <c r="I59" s="40" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="78"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="90"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="36"/>
       <c r="D60" s="10" t="s">
         <v>90</v>
       </c>
@@ -3110,85 +3175,85 @@
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="84"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="40"/>
     </row>
     <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="79"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="91"/>
-      <c r="D61" s="16" t="s">
+      <c r="A61" s="34"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E61" s="17"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="86"/>
-      <c r="I61" s="84"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="40"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="77" t="s">
+      <c r="A62" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="60" t="s">
+      <c r="B62" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="92" t="s">
+      <c r="C62" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="75" t="s">
         <v>297</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="F62" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="G62" s="14" t="s">
+      <c r="G62" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="H62" s="80" t="s">
+      <c r="H62" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="I62" s="83" t="s">
+      <c r="I62" s="95" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="78"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="90"/>
-      <c r="D63" s="10" t="s">
+      <c r="A63" s="33"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="84"/>
+      <c r="F63" s="80"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="96"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="78"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="11" t="s">
+      <c r="A64" s="33"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="82"/>
-      <c r="I64" s="89"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="97"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="78"/>
-      <c r="B65" s="61" t="s">
+      <c r="A65" s="33"/>
+      <c r="B65" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="90" t="s">
+      <c r="C65" s="36" t="s">
         <v>101</v>
       </c>
       <c r="D65" s="9" t="s">
@@ -3203,17 +3268,17 @@
       <c r="G65" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H65" s="85" t="s">
+      <c r="H65" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="I65" s="84" t="s">
+      <c r="I65" s="40" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="78"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="90"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="36"/>
       <c r="D66" s="10" t="s">
         <v>104</v>
       </c>
@@ -3222,85 +3287,85 @@
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
-      <c r="H66" s="81"/>
-      <c r="I66" s="84"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="40"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="79"/>
-      <c r="B67" s="67"/>
-      <c r="C67" s="91"/>
-      <c r="D67" s="16" t="s">
+      <c r="A67" s="34"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E67" s="17"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="86"/>
-      <c r="I67" s="84"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="40"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="77" t="s">
+      <c r="A68" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B68" s="60" t="s">
+      <c r="B68" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="92" t="s">
+      <c r="C68" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D68" s="75" t="s">
         <v>296</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="H68" s="80" t="s">
+      <c r="H68" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="I68" s="83" t="s">
+      <c r="I68" s="95" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="78"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="90"/>
-      <c r="D69" s="10" t="s">
+      <c r="A69" s="33"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="104"/>
+      <c r="D69" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="81"/>
-      <c r="I69" s="84"/>
+      <c r="F69" s="80"/>
+      <c r="G69" s="80"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="96"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="78"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="90"/>
-      <c r="D70" s="11" t="s">
+      <c r="A70" s="33"/>
+      <c r="B70" s="77"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="82"/>
-      <c r="I70" s="89"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="83"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="97"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="78"/>
-      <c r="B71" s="61" t="s">
+      <c r="A71" s="33"/>
+      <c r="B71" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="90" t="s">
+      <c r="C71" s="36" t="s">
         <v>99</v>
       </c>
       <c r="D71" s="9" t="s">
@@ -3315,17 +3380,17 @@
       <c r="G71" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H71" s="85" t="s">
+      <c r="H71" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="I71" s="84" t="s">
+      <c r="I71" s="40" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="78"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="90"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="36"/>
       <c r="D72" s="10" t="s">
         <v>104</v>
       </c>
@@ -3334,85 +3399,85 @@
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
-      <c r="H72" s="81"/>
-      <c r="I72" s="84"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="40"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="79"/>
-      <c r="B73" s="67"/>
-      <c r="C73" s="91"/>
-      <c r="D73" s="16" t="s">
+      <c r="A73" s="34"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E73" s="17"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="86"/>
-      <c r="I73" s="84"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="40"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="77" t="s">
+      <c r="A74" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="60" t="s">
+      <c r="B74" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="C74" s="92" t="s">
+      <c r="C74" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="75" t="s">
         <v>295</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="F74" s="14" t="s">
+      <c r="F74" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="G74" s="14" t="s">
+      <c r="G74" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="H74" s="80" t="s">
+      <c r="H74" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="I74" s="83" t="s">
+      <c r="I74" s="95" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="78"/>
-      <c r="B75" s="61"/>
-      <c r="C75" s="90"/>
-      <c r="D75" s="10" t="s">
+      <c r="A75" s="33"/>
+      <c r="B75" s="77"/>
+      <c r="C75" s="104"/>
+      <c r="D75" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E75" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="81"/>
-      <c r="I75" s="84"/>
+      <c r="F75" s="80"/>
+      <c r="G75" s="80"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="96"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="78"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="90"/>
-      <c r="D76" s="11" t="s">
+      <c r="A76" s="33"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="82"/>
-      <c r="I76" s="89"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="97"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="78"/>
-      <c r="B77" s="61" t="s">
+      <c r="A77" s="33"/>
+      <c r="B77" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="90" t="s">
+      <c r="C77" s="36" t="s">
         <v>110</v>
       </c>
       <c r="D77" s="9" t="s">
@@ -3427,17 +3492,17 @@
       <c r="G77" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H77" s="85" t="s">
+      <c r="H77" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="I77" s="84" t="s">
+      <c r="I77" s="40" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="78"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="90"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="36"/>
       <c r="D78" s="10" t="s">
         <v>113</v>
       </c>
@@ -3446,85 +3511,85 @@
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
-      <c r="H78" s="81"/>
-      <c r="I78" s="84"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="40"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="79"/>
-      <c r="B79" s="67"/>
-      <c r="C79" s="91"/>
-      <c r="D79" s="16" t="s">
+      <c r="A79" s="34"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E79" s="17"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="86"/>
-      <c r="I79" s="84"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="40"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="77" t="s">
+      <c r="A80" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="60" t="s">
+      <c r="B80" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="C80" s="92" t="s">
+      <c r="C80" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D80" s="75" t="s">
         <v>294</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="F80" s="14" t="s">
+      <c r="F80" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="G80" s="14" t="s">
+      <c r="G80" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="H80" s="80" t="s">
+      <c r="H80" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="I80" s="83" t="s">
+      <c r="I80" s="95" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="78"/>
-      <c r="B81" s="61"/>
-      <c r="C81" s="90"/>
-      <c r="D81" s="10" t="s">
+      <c r="A81" s="33"/>
+      <c r="B81" s="77"/>
+      <c r="C81" s="104"/>
+      <c r="D81" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="81"/>
-      <c r="I81" s="84"/>
+      <c r="F81" s="80"/>
+      <c r="G81" s="80"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="96"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="78"/>
-      <c r="B82" s="61"/>
-      <c r="C82" s="90"/>
-      <c r="D82" s="11" t="s">
+      <c r="A82" s="33"/>
+      <c r="B82" s="77"/>
+      <c r="C82" s="104"/>
+      <c r="D82" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="82"/>
-      <c r="I82" s="89"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="83"/>
+      <c r="G82" s="83"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="97"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="78"/>
-      <c r="B83" s="61" t="s">
+      <c r="A83" s="33"/>
+      <c r="B83" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="90" t="s">
+      <c r="C83" s="36" t="s">
         <v>122</v>
       </c>
       <c r="D83" s="9" t="s">
@@ -3539,17 +3604,17 @@
       <c r="G83" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H83" s="85" t="s">
+      <c r="H83" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="I83" s="84" t="s">
+      <c r="I83" s="40" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="78"/>
-      <c r="B84" s="61"/>
-      <c r="C84" s="90"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="36"/>
       <c r="D84" s="10" t="s">
         <v>125</v>
       </c>
@@ -3558,85 +3623,85 @@
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
-      <c r="H84" s="81"/>
-      <c r="I84" s="84"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="40"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="79"/>
-      <c r="B85" s="67"/>
-      <c r="C85" s="91"/>
-      <c r="D85" s="16" t="s">
+      <c r="A85" s="34"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E85" s="17"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="86"/>
-      <c r="I85" s="84"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="40"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="77" t="s">
+      <c r="A86" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="B86" s="60" t="s">
+      <c r="B86" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="92" t="s">
+      <c r="C86" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D86" s="75" t="s">
         <v>293</v>
       </c>
-      <c r="E86" s="14" t="s">
+      <c r="E86" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="F86" s="14" t="s">
+      <c r="F86" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="G86" s="14" t="s">
+      <c r="G86" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="H86" s="80" t="s">
+      <c r="H86" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="I86" s="83" t="s">
+      <c r="I86" s="95" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="78"/>
-      <c r="B87" s="61"/>
-      <c r="C87" s="90"/>
-      <c r="D87" s="10" t="s">
+      <c r="A87" s="33"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E87" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="81"/>
-      <c r="I87" s="84"/>
+      <c r="F87" s="80"/>
+      <c r="G87" s="80"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="96"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="78"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="90"/>
-      <c r="D88" s="11" t="s">
+      <c r="A88" s="33"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="104"/>
+      <c r="D88" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="82"/>
-      <c r="I88" s="89"/>
+      <c r="E88" s="84"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="97"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="78"/>
-      <c r="B89" s="61" t="s">
+      <c r="A89" s="33"/>
+      <c r="B89" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="C89" s="90" t="s">
+      <c r="C89" s="36" t="s">
         <v>137</v>
       </c>
       <c r="D89" s="9" t="s">
@@ -3651,17 +3716,17 @@
       <c r="G89" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H89" s="85" t="s">
+      <c r="H89" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="I89" s="84" t="s">
+      <c r="I89" s="40" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="78"/>
-      <c r="B90" s="61"/>
-      <c r="C90" s="90"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="36"/>
       <c r="D90" s="10" t="s">
         <v>140</v>
       </c>
@@ -3670,85 +3735,85 @@
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
-      <c r="H90" s="81"/>
-      <c r="I90" s="84"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="40"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="79"/>
-      <c r="B91" s="67"/>
-      <c r="C91" s="91"/>
-      <c r="D91" s="16" t="s">
+      <c r="A91" s="34"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E91" s="17"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="86"/>
-      <c r="I91" s="84"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="40"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="77" t="s">
+      <c r="A92" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="B92" s="60" t="s">
+      <c r="B92" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="92" t="s">
+      <c r="C92" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="75" t="s">
         <v>292</v>
       </c>
-      <c r="E92" s="14" t="s">
+      <c r="E92" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="F92" s="14" t="s">
+      <c r="F92" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="G92" s="14" t="s">
+      <c r="G92" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="H92" s="80" t="s">
+      <c r="H92" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="I92" s="83" t="s">
+      <c r="I92" s="95" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="78"/>
-      <c r="B93" s="61"/>
-      <c r="C93" s="90"/>
-      <c r="D93" s="10" t="s">
+      <c r="A93" s="33"/>
+      <c r="B93" s="77"/>
+      <c r="C93" s="104"/>
+      <c r="D93" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E93" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="81"/>
-      <c r="I93" s="84"/>
+      <c r="F93" s="80"/>
+      <c r="G93" s="80"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="96"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="78"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="90"/>
-      <c r="D94" s="11" t="s">
+      <c r="A94" s="33"/>
+      <c r="B94" s="77"/>
+      <c r="C94" s="104"/>
+      <c r="D94" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="E94" s="8"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="82"/>
-      <c r="I94" s="89"/>
+      <c r="E94" s="84"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="83"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="97"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="78"/>
-      <c r="B95" s="61" t="s">
+      <c r="A95" s="33"/>
+      <c r="B95" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C95" s="90" t="s">
+      <c r="C95" s="36" t="s">
         <v>135</v>
       </c>
       <c r="D95" s="9" t="s">
@@ -3763,17 +3828,17 @@
       <c r="G95" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H95" s="85" t="s">
+      <c r="H95" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="I95" s="84" t="s">
+      <c r="I95" s="40" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="78"/>
-      <c r="B96" s="61"/>
-      <c r="C96" s="90"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="36"/>
       <c r="D96" s="10" t="s">
         <v>140</v>
       </c>
@@ -3782,85 +3847,85 @@
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
-      <c r="H96" s="81"/>
-      <c r="I96" s="84"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="40"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="79"/>
-      <c r="B97" s="67"/>
-      <c r="C97" s="91"/>
-      <c r="D97" s="16" t="s">
+      <c r="A97" s="34"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E97" s="17"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="86"/>
-      <c r="I97" s="84"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="45"/>
+      <c r="I97" s="40"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="77" t="s">
+      <c r="A98" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="B98" s="60" t="s">
+      <c r="B98" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="C98" s="92" t="s">
+      <c r="C98" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D98" s="75" t="s">
         <v>291</v>
       </c>
-      <c r="E98" s="14" t="s">
+      <c r="E98" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="F98" s="14" t="s">
+      <c r="F98" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="G98" s="14" t="s">
+      <c r="G98" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="H98" s="80" t="s">
+      <c r="H98" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="I98" s="83" t="s">
+      <c r="I98" s="95" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="78"/>
-      <c r="B99" s="61"/>
-      <c r="C99" s="90"/>
-      <c r="D99" s="10" t="s">
+      <c r="A99" s="33"/>
+      <c r="B99" s="77"/>
+      <c r="C99" s="104"/>
+      <c r="D99" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E99" s="10" t="s">
+      <c r="E99" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="81"/>
-      <c r="I99" s="84"/>
+      <c r="F99" s="80"/>
+      <c r="G99" s="80"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="96"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="78"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="90"/>
-      <c r="D100" s="11" t="s">
+      <c r="A100" s="33"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="104"/>
+      <c r="D100" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="E100" s="8"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="82"/>
-      <c r="I100" s="89"/>
+      <c r="E100" s="84"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="83"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="97"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="78"/>
-      <c r="B101" s="61" t="s">
+      <c r="A101" s="33"/>
+      <c r="B101" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="C101" s="90" t="s">
+      <c r="C101" s="36" t="s">
         <v>153</v>
       </c>
       <c r="D101" s="9" t="s">
@@ -3875,17 +3940,17 @@
       <c r="G101" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H101" s="85" t="s">
+      <c r="H101" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="I101" s="84" t="s">
+      <c r="I101" s="40" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="78"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="90"/>
+      <c r="A102" s="33"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="36"/>
       <c r="D102" s="10" t="s">
         <v>151</v>
       </c>
@@ -3894,85 +3959,85 @@
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
-      <c r="H102" s="81"/>
-      <c r="I102" s="84"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="40"/>
     </row>
     <row r="103" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="79"/>
-      <c r="B103" s="67"/>
-      <c r="C103" s="91"/>
-      <c r="D103" s="16" t="s">
+      <c r="A103" s="34"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E103" s="17"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="86"/>
-      <c r="I103" s="84"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="45"/>
+      <c r="I103" s="40"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="77" t="s">
+      <c r="A104" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="B104" s="60" t="s">
+      <c r="B104" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="C104" s="92" t="s">
+      <c r="C104" s="103" t="s">
         <v>154</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D104" s="75" t="s">
         <v>290</v>
       </c>
-      <c r="E104" s="14" t="s">
+      <c r="E104" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="F104" s="14" t="s">
+      <c r="F104" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="G104" s="14" t="s">
+      <c r="G104" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="H104" s="80" t="s">
+      <c r="H104" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="I104" s="83" t="s">
+      <c r="I104" s="95" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="78"/>
-      <c r="B105" s="61"/>
-      <c r="C105" s="90"/>
-      <c r="D105" s="10" t="s">
+      <c r="A105" s="33"/>
+      <c r="B105" s="77"/>
+      <c r="C105" s="104"/>
+      <c r="D105" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="10" t="s">
+      <c r="E105" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="81"/>
-      <c r="I105" s="84"/>
+      <c r="F105" s="80"/>
+      <c r="G105" s="80"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="96"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="78"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="90"/>
-      <c r="D106" s="11" t="s">
+      <c r="A106" s="33"/>
+      <c r="B106" s="77"/>
+      <c r="C106" s="104"/>
+      <c r="D106" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="E106" s="8"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="82"/>
-      <c r="I106" s="89"/>
+      <c r="E106" s="84"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="83"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="97"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="78"/>
-      <c r="B107" s="61" t="s">
+      <c r="A107" s="33"/>
+      <c r="B107" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="C107" s="90" t="s">
+      <c r="C107" s="36" t="s">
         <v>155</v>
       </c>
       <c r="D107" s="9" t="s">
@@ -3987,17 +4052,17 @@
       <c r="G107" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H107" s="85" t="s">
+      <c r="H107" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="I107" s="84" t="s">
+      <c r="I107" s="40" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="78"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="90"/>
+      <c r="A108" s="33"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="36"/>
       <c r="D108" s="10" t="s">
         <v>149</v>
       </c>
@@ -4006,85 +4071,85 @@
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
-      <c r="H108" s="81"/>
-      <c r="I108" s="84"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="40"/>
     </row>
     <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="79"/>
-      <c r="B109" s="67"/>
-      <c r="C109" s="91"/>
-      <c r="D109" s="16" t="s">
+      <c r="A109" s="34"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E109" s="17"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="86"/>
-      <c r="I109" s="84"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="45"/>
+      <c r="I109" s="40"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="77" t="s">
+      <c r="A110" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="B110" s="60" t="s">
+      <c r="B110" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="C110" s="92" t="s">
+      <c r="C110" s="103" t="s">
         <v>174</v>
       </c>
-      <c r="D110" s="14" t="s">
+      <c r="D110" s="75" t="s">
         <v>289</v>
       </c>
-      <c r="E110" s="14" t="s">
+      <c r="E110" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="F110" s="14" t="s">
+      <c r="F110" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="G110" s="14" t="s">
+      <c r="G110" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="H110" s="80" t="s">
+      <c r="H110" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="I110" s="83" t="s">
+      <c r="I110" s="95" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="78"/>
-      <c r="B111" s="61"/>
-      <c r="C111" s="90"/>
-      <c r="D111" s="10" t="s">
+      <c r="A111" s="33"/>
+      <c r="B111" s="77"/>
+      <c r="C111" s="104"/>
+      <c r="D111" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E111" s="10" t="s">
+      <c r="E111" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="81"/>
-      <c r="I111" s="84"/>
+      <c r="F111" s="80"/>
+      <c r="G111" s="80"/>
+      <c r="H111" s="38"/>
+      <c r="I111" s="96"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="78"/>
-      <c r="B112" s="61"/>
-      <c r="C112" s="90"/>
-      <c r="D112" s="11" t="s">
+      <c r="A112" s="33"/>
+      <c r="B112" s="77"/>
+      <c r="C112" s="104"/>
+      <c r="D112" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="E112" s="8"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="82"/>
-      <c r="I112" s="89"/>
+      <c r="E112" s="84"/>
+      <c r="F112" s="83"/>
+      <c r="G112" s="83"/>
+      <c r="H112" s="39"/>
+      <c r="I112" s="97"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="78"/>
-      <c r="B113" s="61" t="s">
+      <c r="A113" s="33"/>
+      <c r="B113" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="C113" s="90" t="s">
+      <c r="C113" s="36" t="s">
         <v>173</v>
       </c>
       <c r="D113" s="9" t="s">
@@ -4099,17 +4164,17 @@
       <c r="G113" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="H113" s="85" t="s">
+      <c r="H113" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="I113" s="84" t="s">
+      <c r="I113" s="40" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="78"/>
-      <c r="B114" s="61"/>
-      <c r="C114" s="90"/>
+      <c r="A114" s="33"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="36"/>
       <c r="D114" s="10" t="s">
         <v>170</v>
       </c>
@@ -4118,85 +4183,85 @@
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
-      <c r="H114" s="81"/>
-      <c r="I114" s="84"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="40"/>
     </row>
     <row r="115" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="79"/>
-      <c r="B115" s="67"/>
-      <c r="C115" s="91"/>
-      <c r="D115" s="16" t="s">
+      <c r="A115" s="34"/>
+      <c r="B115" s="42"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E115" s="17"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="86"/>
-      <c r="I115" s="84"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="45"/>
+      <c r="I115" s="40"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="77" t="s">
+      <c r="A116" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="B116" s="60" t="s">
+      <c r="B116" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="C116" s="92" t="s">
+      <c r="C116" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="D116" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="E116" s="14" t="s">
+      <c r="E116" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="F116" s="14" t="s">
+      <c r="F116" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="G116" s="14" t="s">
+      <c r="G116" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="H116" s="80" t="s">
+      <c r="H116" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="I116" s="83" t="s">
+      <c r="I116" s="95" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="78"/>
-      <c r="B117" s="61"/>
-      <c r="C117" s="90"/>
-      <c r="D117" s="10" t="s">
+      <c r="A117" s="33"/>
+      <c r="B117" s="77"/>
+      <c r="C117" s="104"/>
+      <c r="D117" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="E117" s="10" t="s">
+      <c r="E117" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="81"/>
-      <c r="I117" s="84"/>
+      <c r="F117" s="80"/>
+      <c r="G117" s="80"/>
+      <c r="H117" s="38"/>
+      <c r="I117" s="96"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="78"/>
-      <c r="B118" s="61"/>
-      <c r="C118" s="90"/>
-      <c r="D118" s="11" t="s">
+      <c r="A118" s="33"/>
+      <c r="B118" s="77"/>
+      <c r="C118" s="104"/>
+      <c r="D118" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="E118" s="8"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="82"/>
-      <c r="I118" s="89"/>
+      <c r="E118" s="84"/>
+      <c r="F118" s="83"/>
+      <c r="G118" s="83"/>
+      <c r="H118" s="39"/>
+      <c r="I118" s="97"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="78"/>
-      <c r="B119" s="61" t="s">
+      <c r="A119" s="33"/>
+      <c r="B119" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="C119" s="90" t="s">
+      <c r="C119" s="36" t="s">
         <v>171</v>
       </c>
       <c r="D119" s="9" t="s">
@@ -4211,17 +4276,17 @@
       <c r="G119" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="H119" s="85" t="s">
+      <c r="H119" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="I119" s="84" t="s">
+      <c r="I119" s="40" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="78"/>
-      <c r="B120" s="61"/>
-      <c r="C120" s="90"/>
+      <c r="A120" s="33"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="36"/>
       <c r="D120" s="10" t="s">
         <v>168</v>
       </c>
@@ -4230,1181 +4295,1185 @@
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
-      <c r="H120" s="81"/>
-      <c r="I120" s="84"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="40"/>
     </row>
     <row r="121" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="79"/>
-      <c r="B121" s="67"/>
-      <c r="C121" s="91"/>
-      <c r="D121" s="16" t="s">
+      <c r="A121" s="34"/>
+      <c r="B121" s="42"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E121" s="17"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="86"/>
-      <c r="I121" s="84"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="45"/>
+      <c r="I121" s="40"/>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="38" t="s">
+      <c r="A122" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="B122" s="60" t="s">
+      <c r="B122" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="C122" s="62" t="s">
+      <c r="C122" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="D122" s="28" t="s">
+      <c r="D122" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="E122" s="29" t="s">
+      <c r="E122" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="F122" s="30" t="s">
+      <c r="F122" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="G122" s="28"/>
-      <c r="H122" s="45"/>
-      <c r="I122" s="47"/>
+      <c r="G122" s="75"/>
+      <c r="H122" s="110" t="s">
+        <v>308</v>
+      </c>
+      <c r="I122" s="98"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="39"/>
-      <c r="B123" s="61"/>
-      <c r="C123" s="63"/>
-      <c r="D123" s="18" t="s">
+      <c r="A123" s="50"/>
+      <c r="B123" s="77"/>
+      <c r="C123" s="102"/>
+      <c r="D123" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="E123" s="20" t="s">
+      <c r="E123" s="106" t="s">
         <v>184</v>
       </c>
-      <c r="F123" s="5"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="64"/>
-      <c r="I123" s="65"/>
+      <c r="F123" s="79"/>
+      <c r="G123" s="80"/>
+      <c r="H123" s="111"/>
+      <c r="I123" s="99"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="39"/>
-      <c r="B124" s="61"/>
-      <c r="C124" s="63"/>
-      <c r="D124" s="18" t="s">
+      <c r="A124" s="50"/>
+      <c r="B124" s="77"/>
+      <c r="C124" s="102"/>
+      <c r="D124" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="E124" s="20" t="s">
+      <c r="E124" s="106" t="s">
         <v>185</v>
       </c>
-      <c r="F124" s="5"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="64"/>
-      <c r="I124" s="65"/>
+      <c r="F124" s="79"/>
+      <c r="G124" s="80"/>
+      <c r="H124" s="111"/>
+      <c r="I124" s="99"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="39"/>
-      <c r="B125" s="61"/>
-      <c r="C125" s="63"/>
-      <c r="D125" s="18" t="s">
+      <c r="A125" s="50"/>
+      <c r="B125" s="77"/>
+      <c r="C125" s="102"/>
+      <c r="D125" s="80" t="s">
         <v>191</v>
       </c>
-      <c r="E125" s="20" t="s">
+      <c r="E125" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="F125" s="5"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="64"/>
-      <c r="I125" s="65"/>
+      <c r="F125" s="79"/>
+      <c r="G125" s="80"/>
+      <c r="H125" s="111"/>
+      <c r="I125" s="99"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="39"/>
-      <c r="B126" s="61"/>
-      <c r="C126" s="63"/>
-      <c r="D126" s="24" t="s">
+      <c r="A126" s="50"/>
+      <c r="B126" s="77"/>
+      <c r="C126" s="102"/>
+      <c r="D126" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="E126" s="25"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="46"/>
-      <c r="I126" s="48"/>
+      <c r="E126" s="107"/>
+      <c r="F126" s="82"/>
+      <c r="G126" s="83"/>
+      <c r="H126" s="112"/>
+      <c r="I126" s="100"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="39"/>
-      <c r="B127" s="42" t="s">
+      <c r="A127" s="50"/>
+      <c r="B127" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="C127" s="44" t="s">
+      <c r="C127" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="D127" s="18" t="s">
+      <c r="D127" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="E127" s="20" t="s">
+      <c r="E127" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="F127" s="26" t="s">
+      <c r="F127" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="G127" s="18"/>
-      <c r="H127" s="64"/>
-      <c r="I127" s="65"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="111" t="s">
+        <v>308</v>
+      </c>
+      <c r="I127" s="61"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="39"/>
-      <c r="B128" s="61"/>
-      <c r="C128" s="63"/>
-      <c r="D128" s="18" t="s">
+      <c r="A128" s="50"/>
+      <c r="B128" s="35"/>
+      <c r="C128" s="52"/>
+      <c r="D128" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E128" s="20" t="s">
+      <c r="E128" s="17" t="s">
         <v>33</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="10"/>
-      <c r="H128" s="64"/>
-      <c r="I128" s="65"/>
+      <c r="H128" s="111"/>
+      <c r="I128" s="61"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="39"/>
-      <c r="B129" s="61"/>
-      <c r="C129" s="63"/>
-      <c r="D129" s="18" t="s">
+      <c r="A129" s="50"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="52"/>
+      <c r="D129" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="E129" s="20" t="s">
+      <c r="E129" s="17" t="s">
         <v>203</v>
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="10"/>
-      <c r="H129" s="64"/>
-      <c r="I129" s="65"/>
+      <c r="H129" s="111"/>
+      <c r="I129" s="61"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="39"/>
-      <c r="B130" s="61"/>
-      <c r="C130" s="63"/>
-      <c r="D130" s="18" t="s">
+      <c r="A130" s="50"/>
+      <c r="B130" s="35"/>
+      <c r="C130" s="52"/>
+      <c r="D130" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E130" s="20" t="s">
+      <c r="E130" s="17" t="s">
         <v>186</v>
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="10"/>
-      <c r="H130" s="64"/>
-      <c r="I130" s="65"/>
+      <c r="H130" s="111"/>
+      <c r="I130" s="61"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="39"/>
-      <c r="B131" s="61"/>
-      <c r="C131" s="63"/>
-      <c r="D131" s="24" t="s">
+      <c r="A131" s="50"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="52"/>
+      <c r="D131" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="E131" s="25"/>
+      <c r="E131" s="22"/>
       <c r="F131" s="7"/>
       <c r="G131" s="11"/>
-      <c r="H131" s="46"/>
-      <c r="I131" s="48"/>
+      <c r="H131" s="112"/>
+      <c r="I131" s="62"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="39"/>
-      <c r="B132" s="42" t="s">
+      <c r="A132" s="50"/>
+      <c r="B132" s="91" t="s">
         <v>197</v>
       </c>
-      <c r="C132" s="44" t="s">
+      <c r="C132" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="D132" s="18" t="s">
+      <c r="D132" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="E132" s="20" t="s">
+      <c r="E132" s="106" t="s">
         <v>183</v>
       </c>
-      <c r="F132" s="26" t="s">
+      <c r="F132" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="G132" s="18"/>
-      <c r="H132" s="64"/>
-      <c r="I132" s="65"/>
+      <c r="G132" s="80"/>
+      <c r="H132" s="111" t="s">
+        <v>308</v>
+      </c>
+      <c r="I132" s="99"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="39"/>
-      <c r="B133" s="61"/>
-      <c r="C133" s="63"/>
-      <c r="D133" s="18" t="s">
+      <c r="A133" s="50"/>
+      <c r="B133" s="77"/>
+      <c r="C133" s="102"/>
+      <c r="D133" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E133" s="20" t="s">
+      <c r="E133" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="F133" s="5"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="64"/>
-      <c r="I133" s="65"/>
+      <c r="F133" s="79"/>
+      <c r="G133" s="80"/>
+      <c r="H133" s="111"/>
+      <c r="I133" s="99"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="39"/>
-      <c r="B134" s="61"/>
-      <c r="C134" s="63"/>
-      <c r="D134" s="18" t="s">
+      <c r="A134" s="50"/>
+      <c r="B134" s="77"/>
+      <c r="C134" s="102"/>
+      <c r="D134" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="E134" s="20" t="s">
+      <c r="E134" s="106" t="s">
         <v>185</v>
       </c>
-      <c r="F134" s="5"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="64"/>
-      <c r="I134" s="65"/>
+      <c r="F134" s="79"/>
+      <c r="G134" s="80"/>
+      <c r="H134" s="111"/>
+      <c r="I134" s="99"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="39"/>
-      <c r="B135" s="61"/>
-      <c r="C135" s="63"/>
-      <c r="D135" s="18" t="s">
+      <c r="A135" s="50"/>
+      <c r="B135" s="77"/>
+      <c r="C135" s="102"/>
+      <c r="D135" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="E135" s="20" t="s">
+      <c r="E135" s="106" t="s">
         <v>202</v>
       </c>
-      <c r="F135" s="5"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="64"/>
-      <c r="I135" s="65"/>
+      <c r="F135" s="79"/>
+      <c r="G135" s="80"/>
+      <c r="H135" s="111"/>
+      <c r="I135" s="99"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="39"/>
-      <c r="B136" s="61"/>
-      <c r="C136" s="63"/>
-      <c r="D136" s="24" t="s">
+      <c r="A136" s="50"/>
+      <c r="B136" s="77"/>
+      <c r="C136" s="102"/>
+      <c r="D136" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="E136" s="25"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="46"/>
-      <c r="I136" s="48"/>
+      <c r="E136" s="107"/>
+      <c r="F136" s="82"/>
+      <c r="G136" s="83"/>
+      <c r="H136" s="112"/>
+      <c r="I136" s="100"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="39"/>
-      <c r="B137" s="42" t="s">
+      <c r="A137" s="50"/>
+      <c r="B137" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="C137" s="44" t="s">
+      <c r="C137" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="D137" s="18" t="s">
+      <c r="D137" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="E137" s="20" t="s">
+      <c r="E137" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="F137" s="26" t="s">
+      <c r="F137" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="G137" s="18"/>
-      <c r="H137" s="64"/>
-      <c r="I137" s="65"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="111" t="s">
+        <v>308</v>
+      </c>
+      <c r="I137" s="61"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="39"/>
-      <c r="B138" s="61"/>
-      <c r="C138" s="63"/>
-      <c r="D138" s="18" t="s">
+      <c r="A138" s="50"/>
+      <c r="B138" s="35"/>
+      <c r="C138" s="52"/>
+      <c r="D138" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E138" s="20" t="s">
+      <c r="E138" s="17" t="s">
         <v>33</v>
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="10"/>
-      <c r="H138" s="64"/>
-      <c r="I138" s="65"/>
+      <c r="H138" s="111"/>
+      <c r="I138" s="61"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="39"/>
-      <c r="B139" s="61"/>
-      <c r="C139" s="63"/>
-      <c r="D139" s="18" t="s">
+      <c r="A139" s="50"/>
+      <c r="B139" s="35"/>
+      <c r="C139" s="52"/>
+      <c r="D139" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E139" s="20" t="s">
+      <c r="E139" s="17" t="s">
         <v>185</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="10"/>
-      <c r="H139" s="64"/>
-      <c r="I139" s="65"/>
+      <c r="H139" s="111"/>
+      <c r="I139" s="61"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="39"/>
-      <c r="B140" s="61"/>
-      <c r="C140" s="63"/>
-      <c r="D140" s="18" t="s">
+      <c r="A140" s="50"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="52"/>
+      <c r="D140" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E140" s="20" t="s">
+      <c r="E140" s="17" t="s">
         <v>186</v>
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="10"/>
-      <c r="H140" s="64"/>
-      <c r="I140" s="65"/>
+      <c r="H140" s="111"/>
+      <c r="I140" s="61"/>
     </row>
     <row r="141" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="39"/>
-      <c r="B141" s="49"/>
-      <c r="C141" s="51"/>
-      <c r="D141" s="18" t="s">
+      <c r="A141" s="50"/>
+      <c r="B141" s="57"/>
+      <c r="C141" s="54"/>
+      <c r="D141" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E141" s="23"/>
+      <c r="E141" s="20"/>
       <c r="F141" s="5"/>
       <c r="G141" s="10"/>
-      <c r="H141" s="64"/>
-      <c r="I141" s="65"/>
+      <c r="H141" s="111"/>
+      <c r="I141" s="61"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="57" t="s">
+      <c r="A142" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="B142" s="60" t="s">
+      <c r="B142" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="C142" s="62" t="s">
+      <c r="C142" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="D142" s="33" t="s">
+      <c r="D142" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="E142" s="28" t="s">
+      <c r="E142" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="F142" s="28" t="s">
+      <c r="F142" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="G142" s="28"/>
-      <c r="H142" s="45"/>
-      <c r="I142" s="47"/>
+      <c r="G142" s="75"/>
+      <c r="H142" s="110" t="s">
+        <v>308</v>
+      </c>
+      <c r="I142" s="98"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="58"/>
-      <c r="B143" s="61"/>
-      <c r="C143" s="63"/>
-      <c r="D143" s="19" t="s">
+      <c r="A143" s="67"/>
+      <c r="B143" s="77"/>
+      <c r="C143" s="102"/>
+      <c r="D143" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="E143" s="18" t="s">
+      <c r="E143" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="64"/>
-      <c r="I143" s="65"/>
+      <c r="F143" s="80"/>
+      <c r="G143" s="80"/>
+      <c r="H143" s="111"/>
+      <c r="I143" s="99"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="58"/>
-      <c r="B144" s="61"/>
-      <c r="C144" s="63"/>
-      <c r="D144" s="34" t="s">
+      <c r="A144" s="67"/>
+      <c r="B144" s="77"/>
+      <c r="C144" s="102"/>
+      <c r="D144" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="E144" s="11"/>
-      <c r="F144" s="11"/>
-      <c r="G144" s="11"/>
-      <c r="H144" s="46"/>
-      <c r="I144" s="48"/>
+      <c r="E144" s="83"/>
+      <c r="F144" s="83"/>
+      <c r="G144" s="83"/>
+      <c r="H144" s="112"/>
+      <c r="I144" s="100"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="58"/>
-      <c r="B145" s="61" t="s">
+      <c r="A145" s="67"/>
+      <c r="B145" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="C145" s="63" t="s">
+      <c r="C145" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="D145" s="19" t="s">
+      <c r="D145" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="E145" s="21" t="s">
+      <c r="E145" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="F145" s="21" t="s">
+      <c r="F145" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="G145" s="21"/>
-      <c r="H145" s="53"/>
-      <c r="I145" s="55"/>
+      <c r="G145" s="18"/>
+      <c r="H145" s="113" t="s">
+        <v>308</v>
+      </c>
+      <c r="I145" s="69"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="58"/>
-      <c r="B146" s="61"/>
-      <c r="C146" s="63"/>
-      <c r="D146" s="19" t="s">
+      <c r="A146" s="67"/>
+      <c r="B146" s="35"/>
+      <c r="C146" s="52"/>
+      <c r="D146" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="E146" s="18" t="s">
+      <c r="E146" s="15" t="s">
         <v>202</v>
       </c>
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
-      <c r="H146" s="64"/>
-      <c r="I146" s="65"/>
+      <c r="H146" s="111"/>
+      <c r="I146" s="61"/>
     </row>
     <row r="147" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="66"/>
-      <c r="B147" s="67"/>
-      <c r="C147" s="68"/>
-      <c r="D147" s="35" t="s">
+      <c r="A147" s="68"/>
+      <c r="B147" s="42"/>
+      <c r="C147" s="65"/>
+      <c r="D147" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="E147" s="16"/>
-      <c r="F147" s="16"/>
-      <c r="G147" s="16"/>
-      <c r="H147" s="54"/>
-      <c r="I147" s="56"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="114"/>
+      <c r="I147" s="70"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="57" t="s">
+      <c r="A148" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="B148" s="60" t="s">
+      <c r="B148" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="C148" s="62" t="s">
+      <c r="C148" s="101" t="s">
         <v>217</v>
       </c>
-      <c r="D148" s="33" t="s">
+      <c r="D148" s="76" t="s">
         <v>216</v>
       </c>
-      <c r="E148" s="21" t="s">
+      <c r="E148" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="F148" s="28" t="s">
+      <c r="F148" s="75" t="s">
         <v>221</v>
       </c>
-      <c r="G148" s="28"/>
-      <c r="H148" s="45"/>
-      <c r="I148" s="47"/>
+      <c r="G148" s="75"/>
+      <c r="H148" s="110" t="s">
+        <v>308</v>
+      </c>
+      <c r="I148" s="98"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="58"/>
-      <c r="B149" s="61"/>
-      <c r="C149" s="63"/>
-      <c r="D149" s="19" t="s">
+      <c r="A149" s="67"/>
+      <c r="B149" s="77"/>
+      <c r="C149" s="102"/>
+      <c r="D149" s="81" t="s">
         <v>219</v>
       </c>
-      <c r="E149" s="18" t="s">
+      <c r="E149" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
-      <c r="H149" s="64"/>
-      <c r="I149" s="65"/>
+      <c r="F149" s="80"/>
+      <c r="G149" s="80"/>
+      <c r="H149" s="111"/>
+      <c r="I149" s="99"/>
     </row>
     <row r="150" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="58"/>
-      <c r="B150" s="61"/>
-      <c r="C150" s="63"/>
-      <c r="D150" s="34" t="s">
+      <c r="A150" s="67"/>
+      <c r="B150" s="77"/>
+      <c r="C150" s="102"/>
+      <c r="D150" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="E150" s="11"/>
-      <c r="F150" s="11"/>
-      <c r="G150" s="11"/>
-      <c r="H150" s="46"/>
-      <c r="I150" s="48"/>
+      <c r="E150" s="83"/>
+      <c r="F150" s="83"/>
+      <c r="G150" s="83"/>
+      <c r="H150" s="112"/>
+      <c r="I150" s="100"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="58"/>
-      <c r="B151" s="61" t="s">
+      <c r="A151" s="67"/>
+      <c r="B151" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="C151" s="63" t="s">
+      <c r="C151" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="D151" s="33" t="s">
+      <c r="D151" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="E151" s="21" t="s">
+      <c r="E151" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="F151" s="21" t="s">
+      <c r="F151" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="G151" s="21"/>
-      <c r="H151" s="53"/>
-      <c r="I151" s="55"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="113" t="s">
+        <v>308</v>
+      </c>
+      <c r="I151" s="69"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="58"/>
-      <c r="B152" s="61"/>
-      <c r="C152" s="63"/>
-      <c r="D152" s="19" t="s">
+      <c r="A152" s="67"/>
+      <c r="B152" s="35"/>
+      <c r="C152" s="52"/>
+      <c r="D152" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E152" s="18" t="s">
+      <c r="E152" s="15" t="s">
         <v>185</v>
       </c>
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
-      <c r="H152" s="64"/>
-      <c r="I152" s="65"/>
+      <c r="H152" s="111"/>
+      <c r="I152" s="61"/>
     </row>
     <row r="153" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="66"/>
-      <c r="B153" s="67"/>
-      <c r="C153" s="68"/>
-      <c r="D153" s="34" t="s">
+      <c r="A153" s="68"/>
+      <c r="B153" s="42"/>
+      <c r="C153" s="65"/>
+      <c r="D153" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="E153" s="16"/>
-      <c r="F153" s="16"/>
-      <c r="G153" s="16"/>
-      <c r="H153" s="54"/>
-      <c r="I153" s="56"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="114"/>
+      <c r="I153" s="70"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="57" t="s">
+      <c r="A154" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="B154" s="60" t="s">
+      <c r="B154" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="C154" s="62" t="s">
+      <c r="C154" s="101" t="s">
         <v>226</v>
       </c>
-      <c r="D154" s="33" t="s">
+      <c r="D154" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="E154" s="21" t="s">
+      <c r="E154" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="F154" s="28" t="s">
+      <c r="F154" s="75" t="s">
         <v>230</v>
       </c>
-      <c r="G154" s="28"/>
-      <c r="H154" s="45"/>
-      <c r="I154" s="47"/>
+      <c r="G154" s="75"/>
+      <c r="H154" s="110" t="s">
+        <v>308</v>
+      </c>
+      <c r="I154" s="98"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="58"/>
-      <c r="B155" s="61"/>
-      <c r="C155" s="63"/>
-      <c r="D155" s="19" t="s">
+      <c r="A155" s="67"/>
+      <c r="B155" s="77"/>
+      <c r="C155" s="102"/>
+      <c r="D155" s="81" t="s">
         <v>219</v>
       </c>
-      <c r="E155" s="18" t="s">
+      <c r="E155" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
-      <c r="H155" s="64"/>
-      <c r="I155" s="65"/>
+      <c r="F155" s="80"/>
+      <c r="G155" s="80"/>
+      <c r="H155" s="111"/>
+      <c r="I155" s="99"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="58"/>
-      <c r="B156" s="61"/>
-      <c r="C156" s="63"/>
-      <c r="D156" s="24" t="s">
+      <c r="A156" s="67"/>
+      <c r="B156" s="77"/>
+      <c r="C156" s="102"/>
+      <c r="D156" s="83" t="s">
         <v>220</v>
       </c>
-      <c r="E156" s="11"/>
-      <c r="F156" s="11"/>
-      <c r="G156" s="11"/>
-      <c r="H156" s="46"/>
-      <c r="I156" s="48"/>
+      <c r="E156" s="83"/>
+      <c r="F156" s="83"/>
+      <c r="G156" s="83"/>
+      <c r="H156" s="112"/>
+      <c r="I156" s="100"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="58"/>
-      <c r="B157" s="61" t="s">
+      <c r="A157" s="67"/>
+      <c r="B157" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="C157" s="63" t="s">
+      <c r="C157" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="D157" s="19" t="s">
+      <c r="D157" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="E157" s="21" t="s">
+      <c r="E157" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="F157" s="21" t="s">
+      <c r="F157" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="G157" s="21"/>
-      <c r="H157" s="53"/>
-      <c r="I157" s="55"/>
+      <c r="G157" s="18"/>
+      <c r="H157" s="113" t="s">
+        <v>308</v>
+      </c>
+      <c r="I157" s="69"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="58"/>
-      <c r="B158" s="61"/>
-      <c r="C158" s="63"/>
-      <c r="D158" s="19" t="s">
+      <c r="A158" s="67"/>
+      <c r="B158" s="35"/>
+      <c r="C158" s="52"/>
+      <c r="D158" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E158" s="18" t="s">
+      <c r="E158" s="15" t="s">
         <v>185</v>
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
-      <c r="H158" s="64"/>
-      <c r="I158" s="65"/>
+      <c r="H158" s="111"/>
+      <c r="I158" s="61"/>
     </row>
     <row r="159" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="59"/>
-      <c r="B159" s="49"/>
-      <c r="C159" s="51"/>
-      <c r="D159" s="18" t="s">
+      <c r="A159" s="71"/>
+      <c r="B159" s="57"/>
+      <c r="C159" s="54"/>
+      <c r="D159" s="15" t="s">
         <v>220</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
-      <c r="H159" s="64"/>
-      <c r="I159" s="65"/>
+      <c r="H159" s="111"/>
+      <c r="I159" s="61"/>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="38" t="s">
+      <c r="A160" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="B160" s="41" t="s">
+      <c r="B160" s="108" t="s">
         <v>233</v>
       </c>
-      <c r="C160" s="43" t="s">
+      <c r="C160" s="109" t="s">
         <v>236</v>
       </c>
-      <c r="D160" s="33" t="s">
+      <c r="D160" s="76" t="s">
         <v>238</v>
       </c>
-      <c r="E160" s="28" t="s">
+      <c r="E160" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="F160" s="28" t="s">
+      <c r="F160" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="G160" s="28"/>
-      <c r="H160" s="45"/>
-      <c r="I160" s="47"/>
+      <c r="G160" s="75"/>
+      <c r="H160" s="110" t="s">
+        <v>308</v>
+      </c>
+      <c r="I160" s="98"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="39"/>
-      <c r="B161" s="42"/>
-      <c r="C161" s="44"/>
-      <c r="D161" s="24" t="s">
+      <c r="A161" s="50"/>
+      <c r="B161" s="91"/>
+      <c r="C161" s="92"/>
+      <c r="D161" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="E161" s="25"/>
-      <c r="F161" s="11"/>
-      <c r="G161" s="11"/>
-      <c r="H161" s="46"/>
-      <c r="I161" s="48"/>
+      <c r="E161" s="107"/>
+      <c r="F161" s="83"/>
+      <c r="G161" s="83"/>
+      <c r="H161" s="112"/>
+      <c r="I161" s="100"/>
     </row>
     <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="39"/>
-      <c r="B162" s="49" t="s">
+      <c r="A162" s="50"/>
+      <c r="B162" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="C162" s="51" t="s">
+      <c r="C162" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="D162" s="22" t="s">
+      <c r="D162" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="E162" s="21" t="s">
+      <c r="E162" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="F162" s="21" t="s">
+      <c r="F162" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G162" s="21"/>
-      <c r="H162" s="53"/>
-      <c r="I162" s="55"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="113" t="s">
+        <v>308</v>
+      </c>
+      <c r="I162" s="69"/>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="40"/>
-      <c r="B163" s="50"/>
-      <c r="C163" s="52"/>
-      <c r="D163" s="31" t="s">
+      <c r="A163" s="51"/>
+      <c r="B163" s="60"/>
+      <c r="C163" s="63"/>
+      <c r="D163" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="E163" s="32"/>
-      <c r="F163" s="16"/>
-      <c r="G163" s="16"/>
-      <c r="H163" s="54"/>
-      <c r="I163" s="56"/>
+      <c r="E163" s="26"/>
+      <c r="F163" s="13"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="114"/>
+      <c r="I163" s="70"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="38" t="s">
+      <c r="A164" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="B164" s="41" t="s">
+      <c r="B164" s="108" t="s">
         <v>240</v>
       </c>
-      <c r="C164" s="43" t="s">
+      <c r="C164" s="109" t="s">
         <v>243</v>
       </c>
-      <c r="D164" s="33" t="s">
+      <c r="D164" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="E164" s="28" t="s">
+      <c r="E164" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="F164" s="28" t="s">
+      <c r="F164" s="75" t="s">
         <v>249</v>
       </c>
-      <c r="G164" s="28"/>
-      <c r="H164" s="45"/>
-      <c r="I164" s="47"/>
+      <c r="G164" s="75"/>
+      <c r="H164" s="110" t="s">
+        <v>308</v>
+      </c>
+      <c r="I164" s="98"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="39"/>
-      <c r="B165" s="42"/>
-      <c r="C165" s="44"/>
-      <c r="D165" s="24" t="s">
+      <c r="A165" s="50"/>
+      <c r="B165" s="91"/>
+      <c r="C165" s="92"/>
+      <c r="D165" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="E165" s="25"/>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="46"/>
-      <c r="I165" s="48"/>
+      <c r="E165" s="107"/>
+      <c r="F165" s="83"/>
+      <c r="G165" s="83"/>
+      <c r="H165" s="112"/>
+      <c r="I165" s="100"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="39"/>
-      <c r="B166" s="49" t="s">
+      <c r="A166" s="50"/>
+      <c r="B166" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="C166" s="51" t="s">
+      <c r="C166" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="D166" s="22" t="s">
+      <c r="D166" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="E166" s="21" t="s">
+      <c r="E166" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F166" s="21" t="s">
+      <c r="F166" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="G166" s="21"/>
-      <c r="H166" s="53"/>
-      <c r="I166" s="55"/>
+      <c r="G166" s="18"/>
+      <c r="H166" s="111" t="s">
+        <v>308</v>
+      </c>
+      <c r="I166" s="69"/>
     </row>
     <row r="167" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="40"/>
-      <c r="B167" s="50"/>
-      <c r="C167" s="52"/>
-      <c r="D167" s="31" t="s">
+      <c r="A167" s="51"/>
+      <c r="B167" s="60"/>
+      <c r="C167" s="63"/>
+      <c r="D167" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="E167" s="32"/>
-      <c r="F167" s="16"/>
-      <c r="G167" s="16"/>
-      <c r="H167" s="54"/>
-      <c r="I167" s="56"/>
+      <c r="E167" s="26"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="112"/>
+      <c r="I167" s="70"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="38" t="s">
+      <c r="A168" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="B168" s="41" t="s">
+      <c r="B168" s="108" t="s">
         <v>251</v>
       </c>
-      <c r="C168" s="43" t="s">
+      <c r="C168" s="109" t="s">
         <v>253</v>
       </c>
-      <c r="D168" s="33" t="s">
+      <c r="D168" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="E168" s="28" t="s">
+      <c r="E168" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="F168" s="28" t="s">
+      <c r="F168" s="75" t="s">
         <v>256</v>
       </c>
-      <c r="G168" s="28"/>
-      <c r="H168" s="45"/>
-      <c r="I168" s="47"/>
+      <c r="G168" s="75"/>
+      <c r="H168" s="110" t="s">
+        <v>308</v>
+      </c>
+      <c r="I168" s="98"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="39"/>
-      <c r="B169" s="42"/>
-      <c r="C169" s="44"/>
-      <c r="D169" s="24" t="s">
+      <c r="A169" s="50"/>
+      <c r="B169" s="91"/>
+      <c r="C169" s="92"/>
+      <c r="D169" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="E169" s="25"/>
-      <c r="F169" s="11"/>
-      <c r="G169" s="11"/>
-      <c r="H169" s="46"/>
-      <c r="I169" s="48"/>
+      <c r="E169" s="107"/>
+      <c r="F169" s="83"/>
+      <c r="G169" s="83"/>
+      <c r="H169" s="112"/>
+      <c r="I169" s="100"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="39"/>
-      <c r="B170" s="49" t="s">
+      <c r="A170" s="50"/>
+      <c r="B170" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="C170" s="51" t="s">
+      <c r="C170" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="D170" s="22" t="s">
+      <c r="D170" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="E170" s="21" t="s">
+      <c r="E170" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F170" s="21" t="s">
+      <c r="F170" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="G170" s="21"/>
-      <c r="H170" s="53"/>
-      <c r="I170" s="55"/>
+      <c r="G170" s="18"/>
+      <c r="H170" s="111" t="s">
+        <v>308</v>
+      </c>
+      <c r="I170" s="69"/>
     </row>
     <row r="171" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="40"/>
-      <c r="B171" s="50"/>
-      <c r="C171" s="52"/>
-      <c r="D171" s="31" t="s">
+      <c r="A171" s="51"/>
+      <c r="B171" s="60"/>
+      <c r="C171" s="63"/>
+      <c r="D171" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="E171" s="32"/>
-      <c r="F171" s="16"/>
-      <c r="G171" s="16"/>
-      <c r="H171" s="54"/>
-      <c r="I171" s="56"/>
+      <c r="E171" s="26"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="112"/>
+      <c r="I171" s="70"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="38" t="s">
+      <c r="A172" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="B172" s="41" t="s">
+      <c r="B172" s="108" t="s">
         <v>268</v>
       </c>
-      <c r="C172" s="43" t="s">
+      <c r="C172" s="109" t="s">
         <v>258</v>
       </c>
-      <c r="D172" s="33" t="s">
+      <c r="D172" s="76" t="s">
         <v>261</v>
       </c>
-      <c r="E172" s="28" t="s">
+      <c r="E172" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="F172" s="28" t="s">
+      <c r="F172" s="75" t="s">
         <v>265</v>
       </c>
-      <c r="G172" s="28"/>
-      <c r="H172" s="45"/>
-      <c r="I172" s="47"/>
+      <c r="G172" s="75"/>
+      <c r="H172" s="110" t="s">
+        <v>308</v>
+      </c>
+      <c r="I172" s="98"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="39"/>
-      <c r="B173" s="42"/>
-      <c r="C173" s="44"/>
-      <c r="D173" s="24" t="s">
+      <c r="A173" s="50"/>
+      <c r="B173" s="91"/>
+      <c r="C173" s="92"/>
+      <c r="D173" s="83" t="s">
         <v>264</v>
       </c>
-      <c r="E173" s="25"/>
-      <c r="F173" s="11"/>
-      <c r="G173" s="11"/>
-      <c r="H173" s="46"/>
-      <c r="I173" s="48"/>
+      <c r="E173" s="107"/>
+      <c r="F173" s="83"/>
+      <c r="G173" s="83"/>
+      <c r="H173" s="112"/>
+      <c r="I173" s="100"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="39"/>
-      <c r="B174" s="49" t="s">
+      <c r="A174" s="50"/>
+      <c r="B174" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="C174" s="51" t="s">
+      <c r="C174" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="D174" s="22" t="s">
+      <c r="D174" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="E174" s="21" t="s">
+      <c r="E174" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="F174" s="21" t="s">
+      <c r="F174" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="G174" s="21"/>
-      <c r="H174" s="53"/>
-      <c r="I174" s="55"/>
+      <c r="G174" s="18"/>
+      <c r="H174" s="111" t="s">
+        <v>308</v>
+      </c>
+      <c r="I174" s="69"/>
     </row>
     <row r="175" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="40"/>
-      <c r="B175" s="50"/>
-      <c r="C175" s="52"/>
-      <c r="D175" s="31" t="s">
+      <c r="A175" s="51"/>
+      <c r="B175" s="60"/>
+      <c r="C175" s="63"/>
+      <c r="D175" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="E175" s="32"/>
-      <c r="F175" s="16"/>
-      <c r="G175" s="16"/>
-      <c r="H175" s="54"/>
-      <c r="I175" s="56"/>
+      <c r="E175" s="26"/>
+      <c r="F175" s="13"/>
+      <c r="G175" s="13"/>
+      <c r="H175" s="112"/>
+      <c r="I175" s="70"/>
     </row>
     <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="38" t="s">
+      <c r="A176" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="B176" s="41" t="s">
+      <c r="B176" s="108" t="s">
         <v>271</v>
       </c>
-      <c r="C176" s="43" t="s">
+      <c r="C176" s="109" t="s">
         <v>273</v>
       </c>
-      <c r="D176" s="33" t="s">
+      <c r="D176" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="E176" s="28" t="s">
+      <c r="E176" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="F176" s="28" t="s">
+      <c r="F176" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="G176" s="28"/>
-      <c r="H176" s="45"/>
-      <c r="I176" s="47"/>
+      <c r="G176" s="75"/>
+      <c r="H176" s="110" t="s">
+        <v>308</v>
+      </c>
+      <c r="I176" s="98"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="39"/>
-      <c r="B177" s="42"/>
-      <c r="C177" s="44"/>
-      <c r="D177" s="24" t="s">
+      <c r="A177" s="50"/>
+      <c r="B177" s="91"/>
+      <c r="C177" s="92"/>
+      <c r="D177" s="83" t="s">
         <v>275</v>
       </c>
-      <c r="E177" s="25"/>
-      <c r="F177" s="11"/>
-      <c r="G177" s="11"/>
-      <c r="H177" s="46"/>
-      <c r="I177" s="48"/>
+      <c r="E177" s="107"/>
+      <c r="F177" s="83"/>
+      <c r="G177" s="83"/>
+      <c r="H177" s="112"/>
+      <c r="I177" s="100"/>
     </row>
     <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="39"/>
-      <c r="B178" s="49" t="s">
+      <c r="A178" s="50"/>
+      <c r="B178" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="C178" s="51" t="s">
+      <c r="C178" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="D178" s="22" t="s">
+      <c r="D178" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="E178" s="21" t="s">
+      <c r="E178" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F178" s="21" t="s">
+      <c r="F178" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="G178" s="21"/>
-      <c r="H178" s="53"/>
-      <c r="I178" s="55"/>
+      <c r="G178" s="18"/>
+      <c r="H178" s="113" t="s">
+        <v>308</v>
+      </c>
+      <c r="I178" s="69"/>
     </row>
     <row r="179" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="40"/>
-      <c r="B179" s="50"/>
-      <c r="C179" s="52"/>
-      <c r="D179" s="31" t="s">
+      <c r="A179" s="51"/>
+      <c r="B179" s="60"/>
+      <c r="C179" s="63"/>
+      <c r="D179" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="E179" s="32"/>
-      <c r="F179" s="16"/>
-      <c r="G179" s="16"/>
-      <c r="H179" s="54"/>
-      <c r="I179" s="56"/>
+      <c r="E179" s="26"/>
+      <c r="F179" s="13"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="114"/>
+      <c r="I179" s="70"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="36"/>
-      <c r="B180" s="36"/>
-      <c r="C180" s="37"/>
-      <c r="D180" s="20"/>
-      <c r="E180" s="20"/>
-      <c r="F180" s="20"/>
-      <c r="G180" s="20"/>
-      <c r="H180" s="27"/>
-      <c r="I180" s="27"/>
+      <c r="A180" s="30"/>
+      <c r="B180" s="30"/>
+      <c r="C180" s="31"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="17"/>
+      <c r="G180" s="17"/>
+      <c r="H180" s="24"/>
+      <c r="I180" s="24"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="36"/>
-      <c r="B181" s="36"/>
-      <c r="C181" s="37"/>
-      <c r="D181" s="20"/>
-      <c r="E181" s="23"/>
-      <c r="F181" s="23"/>
-      <c r="G181" s="23"/>
-      <c r="H181" s="27"/>
-      <c r="I181" s="27"/>
+      <c r="A181" s="30"/>
+      <c r="B181" s="30"/>
+      <c r="C181" s="31"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="20"/>
+      <c r="H181" s="24"/>
+      <c r="I181" s="24"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="36"/>
-      <c r="B182" s="36"/>
-      <c r="C182" s="37"/>
-      <c r="D182" s="20"/>
-      <c r="E182" s="20"/>
-      <c r="F182" s="20"/>
-      <c r="G182" s="20"/>
-      <c r="H182" s="27"/>
-      <c r="I182" s="27"/>
+      <c r="A182" s="30"/>
+      <c r="B182" s="30"/>
+      <c r="C182" s="31"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="17"/>
+      <c r="G182" s="17"/>
+      <c r="H182" s="24"/>
+      <c r="I182" s="24"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="36"/>
-      <c r="B183" s="36"/>
-      <c r="C183" s="37"/>
-      <c r="D183" s="20"/>
-      <c r="E183" s="23"/>
-      <c r="F183" s="23"/>
-      <c r="G183" s="23"/>
-      <c r="H183" s="27"/>
-      <c r="I183" s="27"/>
+      <c r="A183" s="30"/>
+      <c r="B183" s="30"/>
+      <c r="C183" s="31"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="20"/>
+      <c r="F183" s="20"/>
+      <c r="G183" s="20"/>
+      <c r="H183" s="24"/>
+      <c r="I183" s="24"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B184" s="23"/>
-      <c r="C184" s="23"/>
-      <c r="D184" s="23"/>
-      <c r="E184" s="23"/>
-      <c r="F184" s="23"/>
-      <c r="G184" s="23"/>
-      <c r="H184" s="23"/>
-      <c r="I184" s="23"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="20"/>
+      <c r="H184" s="20"/>
+      <c r="I184" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="258">
-    <mergeCell ref="A116:A121"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="H116:H118"/>
-    <mergeCell ref="I116:I118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="H119:H121"/>
-    <mergeCell ref="I119:I121"/>
-    <mergeCell ref="A110:A115"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="H110:H112"/>
-    <mergeCell ref="I110:I112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="H113:H115"/>
-    <mergeCell ref="I113:I115"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="I104:I106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="H107:H109"/>
-    <mergeCell ref="I107:I109"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="H98:H100"/>
-    <mergeCell ref="I98:I100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="H101:H103"/>
-    <mergeCell ref="I101:I103"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="I95:I97"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="I74:I76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="H77:H79"/>
-    <mergeCell ref="I77:I79"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A176:A179"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="H176:H177"/>
+    <mergeCell ref="I176:I177"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="H178:H179"/>
+    <mergeCell ref="I178:I179"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="H172:H173"/>
+    <mergeCell ref="I172:I173"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="H174:H175"/>
+    <mergeCell ref="I174:I175"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="I166:I167"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="H168:H169"/>
+    <mergeCell ref="I168:I169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="H164:H165"/>
+    <mergeCell ref="I164:I165"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="H160:H161"/>
+    <mergeCell ref="I160:I161"/>
+    <mergeCell ref="I162:I163"/>
+    <mergeCell ref="H162:H163"/>
+    <mergeCell ref="A154:A159"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="H154:H156"/>
+    <mergeCell ref="I154:I156"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="H157:H159"/>
+    <mergeCell ref="I157:I159"/>
+    <mergeCell ref="A148:A153"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="H148:H150"/>
+    <mergeCell ref="I148:I150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="H151:H153"/>
+    <mergeCell ref="I151:I153"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="C137:C141"/>
+    <mergeCell ref="H137:H141"/>
+    <mergeCell ref="I137:I141"/>
+    <mergeCell ref="A122:A141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="H142:H144"/>
+    <mergeCell ref="H145:H147"/>
+    <mergeCell ref="I145:I147"/>
+    <mergeCell ref="I142:I144"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="H122:H126"/>
+    <mergeCell ref="I122:I126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="H127:H131"/>
+    <mergeCell ref="I127:I131"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="C132:C136"/>
+    <mergeCell ref="H132:H136"/>
+    <mergeCell ref="I132:I136"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="H26:H28"/>
     <mergeCell ref="I26:I28"/>
@@ -5429,105 +5498,141 @@
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="C14:C17"/>
-    <mergeCell ref="H132:H136"/>
-    <mergeCell ref="I132:I136"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="C137:C141"/>
-    <mergeCell ref="H137:H141"/>
-    <mergeCell ref="I137:I141"/>
-    <mergeCell ref="A122:A141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="A142:A147"/>
-    <mergeCell ref="H142:H144"/>
-    <mergeCell ref="H145:H147"/>
-    <mergeCell ref="I145:I147"/>
-    <mergeCell ref="I142:I144"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="H122:H126"/>
-    <mergeCell ref="I122:I126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="H127:H131"/>
-    <mergeCell ref="I127:I131"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="A148:A153"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="H148:H150"/>
-    <mergeCell ref="I148:I150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="H151:H153"/>
-    <mergeCell ref="I151:I153"/>
-    <mergeCell ref="A154:A159"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="H154:H156"/>
-    <mergeCell ref="I154:I156"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="H157:H159"/>
-    <mergeCell ref="I157:I159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="A160:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="H160:H161"/>
-    <mergeCell ref="I160:I161"/>
-    <mergeCell ref="I162:I163"/>
-    <mergeCell ref="H162:H163"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="H166:H167"/>
-    <mergeCell ref="I166:I167"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="H168:H169"/>
-    <mergeCell ref="I168:I169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="H164:H165"/>
-    <mergeCell ref="I164:I165"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="H172:H173"/>
-    <mergeCell ref="I172:I173"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="H174:H175"/>
-    <mergeCell ref="I174:I175"/>
-    <mergeCell ref="A176:A179"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="H176:H177"/>
-    <mergeCell ref="I176:I177"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="H178:H179"/>
-    <mergeCell ref="I178:I179"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="H98:H100"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="I101:I103"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="H107:H109"/>
+    <mergeCell ref="I107:I109"/>
+    <mergeCell ref="A110:A115"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="H110:H112"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="H113:H115"/>
+    <mergeCell ref="I113:I115"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="H116:H118"/>
+    <mergeCell ref="I116:I118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="H119:H121"/>
+    <mergeCell ref="I119:I121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentation/Test Cases.xlsx
+++ b/Documentation/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010377\Documents\GitHub\axi2spi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825E0584-791F-4E4B-AECE-76B6B0F3EA5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7FA121-44D2-4DCD-B674-9040FB4DF52E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="319">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -714,18 +714,9 @@
     <t>Reg_wstb shall be set to S_AXI_WSTB when S_AXI_WVALID is set.</t>
   </si>
   <si>
-    <t>1. Set S_AXI_WSTB to 0x"AA"</t>
-  </si>
-  <si>
-    <t>S_AXI_WSTB = 0x"AA"</t>
-  </si>
-  <si>
     <t>reg_wstb = no change</t>
   </si>
   <si>
-    <t>reg_wstb = 0x"AA"</t>
-  </si>
-  <si>
     <t>AXI_WR_05</t>
   </si>
   <si>
@@ -735,12 +726,6 @@
     <t>AXI_WR_05_2</t>
   </si>
   <si>
-    <t>Reg_write_enable shall be set when S_AXI_WVALID is set.</t>
-  </si>
-  <si>
-    <t>Reg_write_enable shall not be set when S_AXI_WVALID is not set.</t>
-  </si>
-  <si>
     <t>2. Observe reg_write_enable</t>
   </si>
   <si>
@@ -807,9 +792,6 @@
     <t>S_AXI_BRESP shall be set to "00" when reg_werror is not set.</t>
   </si>
   <si>
-    <t>S_AXI_BRESP shall be set to "01" when reg_werror is set.</t>
-  </si>
-  <si>
     <t>1. Set reg_werror  to logic high.</t>
   </si>
   <si>
@@ -828,9 +810,6 @@
     <t>S_AXI_BRESP = "00"</t>
   </si>
   <si>
-    <t>S_AXI_BRESP = "01"</t>
-  </si>
-  <si>
     <t>AXI_WR_08</t>
   </si>
   <si>
@@ -861,12 +840,6 @@
     <t>1. Set reg_wack  to logic high.</t>
   </si>
   <si>
-    <t>S_AXI_BVALID = "00"</t>
-  </si>
-  <si>
-    <t>S_AXI_BVALID = "01"</t>
-  </si>
-  <si>
     <t>The device functions when read address scenario is in the address range of                          [C_BASEADDR , C_HIGHADDR].</t>
   </si>
   <si>
@@ -954,7 +927,64 @@
     <t>45e33fa</t>
   </si>
   <si>
-    <t>TODO</t>
+    <t>1. Set S_AXI_WSTB to 0x"A"</t>
+  </si>
+  <si>
+    <t>S_AXI_WSTB = 0x"A"</t>
+  </si>
+  <si>
+    <t>reg_wstb = 0x"A"</t>
+  </si>
+  <si>
+    <t>Reg_write_data_en shall not be set when S_AXI_WVALID is not set.</t>
+  </si>
+  <si>
+    <t>Reg_write_data_en shall be set when S_AXI_WVALID is set.</t>
+  </si>
+  <si>
+    <t>2. Observe reg_write_data_en</t>
+  </si>
+  <si>
+    <t>reg_write_data_en = '1'</t>
+  </si>
+  <si>
+    <t>reg_write_data_en = '0'</t>
+  </si>
+  <si>
+    <t>AXI_WR_10</t>
+  </si>
+  <si>
+    <t>AXI_WR_10_1</t>
+  </si>
+  <si>
+    <t>AXI_WR_10_2</t>
+  </si>
+  <si>
+    <t>Reg_write_enable shall not be set when S_AXI_AWVALID is not set.</t>
+  </si>
+  <si>
+    <t>Reg_write_enable shall be set when S_AXI_AWVALID is set.</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_AWVALID to logic low.</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_AWVALID to logic high.</t>
+  </si>
+  <si>
+    <t>S_AXI_BRESP shall be set to "10" when reg_werror is set.</t>
+  </si>
+  <si>
+    <t>S_AXI_BRESP = "10"</t>
+  </si>
+  <si>
+    <t>S_AXI_BVALID = '0'</t>
+  </si>
+  <si>
+    <t>S_AXI_BVALID = '1'</t>
+  </si>
+  <si>
+    <t>8d8b3cc</t>
   </si>
 </sst>
 </file>
@@ -970,7 +1000,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -989,12 +1019,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="41">
     <border>
@@ -1496,7 +1520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1525,237 +1549,203 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2040,16 +2030,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L168" sqref="L168"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G189" sqref="G189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.28515625" customWidth="1"/>
-    <col min="4" max="4" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -2086,89 +2076,89 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="74" t="s">
-        <v>287</v>
-      </c>
-      <c r="E2" s="75" t="s">
+      <c r="D2" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="64" t="s">
-        <v>305</v>
-      </c>
-      <c r="I2" s="94" t="s">
-        <v>306</v>
+      <c r="H2" s="74" t="s">
+        <v>296</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="93"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="77"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="93"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="77"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="93"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="57" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>279</v>
+      <c r="C6" s="52" t="s">
+        <v>270</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>62</v>
@@ -2179,17 +2169,17 @@
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>306</v>
+      <c r="H6" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="I6" s="78" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="55"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="10" t="s">
         <v>22</v>
       </c>
@@ -2202,117 +2192,117 @@
       <c r="G7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="48"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="78"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="55"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="48"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="78"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="56"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="48"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="78"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="85" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="E10" s="87" t="s">
+      <c r="D10" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="E10" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="88" t="s">
+      <c r="F10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="88" t="s">
+      <c r="G10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="I10" s="93" t="s">
-        <v>306</v>
+      <c r="H10" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="I10" s="77" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="80" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="81" t="s">
+      <c r="F11" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="81" t="s">
+      <c r="G11" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="93"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="77"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="80" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="93"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="77"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="93"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="77"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="57" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>30</v>
@@ -2323,17 +2313,17 @@
       <c r="G14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>306</v>
+      <c r="H14" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="I14" s="78" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="55"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
@@ -2346,117 +2336,117 @@
       <c r="G15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="48"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="78"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="55"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="5" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="48"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="78"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="56"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="48"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="78"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="85" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="86" t="s">
-        <v>280</v>
-      </c>
-      <c r="D18" s="87" t="s">
-        <v>283</v>
-      </c>
-      <c r="E18" s="87" t="s">
+      <c r="C18" s="68" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="88" t="s">
+      <c r="F18" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="88" t="s">
+      <c r="G18" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="I18" s="93" t="s">
-        <v>306</v>
+      <c r="H18" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="I18" s="77" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="80" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="80" t="s">
+      <c r="E19" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="81" t="s">
+      <c r="F19" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="81" t="s">
+      <c r="G19" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="93"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="77"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="80" t="s">
-        <v>303</v>
-      </c>
-      <c r="E20" s="80"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="93"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="77"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="93"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="77"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="57" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="52" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>32</v>
@@ -2467,17 +2457,17 @@
       <c r="G22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="46" t="s">
-        <v>305</v>
-      </c>
-      <c r="I22" s="41" t="s">
-        <v>306</v>
+      <c r="H22" s="91" t="s">
+        <v>296</v>
+      </c>
+      <c r="I22" s="93" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="55"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="10" t="s">
         <v>29</v>
       </c>
@@ -2490,102 +2480,102 @@
       <c r="G23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="48"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="78"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="55"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="10" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="48"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="78"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="63"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="48"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="78"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="101" t="s">
+      <c r="C26" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="75" t="s">
-        <v>281</v>
-      </c>
-      <c r="E26" s="75" t="s">
+      <c r="D26" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="75" t="s">
+      <c r="F26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="75" t="s">
+      <c r="G26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="I26" s="95" t="s">
-        <v>307</v>
+      <c r="H26" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I26" s="85" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="80" t="s">
+      <c r="A27" s="80"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="80" t="s">
+      <c r="E27" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="96"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="86"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="83" t="s">
+      <c r="A28" s="80"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="84"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="97"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="87"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="35" t="s">
+      <c r="A29" s="80"/>
+      <c r="B29" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="94" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>27</v>
@@ -2596,17 +2586,17 @@
       <c r="G29" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="I29" s="40" t="s">
-        <v>307</v>
+      <c r="H29" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I29" s="88" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="94"/>
       <c r="D30" s="10" t="s">
         <v>44</v>
       </c>
@@ -2615,89 +2605,89 @@
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="40"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="88"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="95"/>
       <c r="D31" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="40"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="88"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="103" t="s">
+      <c r="C32" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="75" t="s">
-        <v>302</v>
-      </c>
-      <c r="E32" s="75" t="s">
+      <c r="D32" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="E32" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="75" t="s">
+      <c r="F32" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="75" t="s">
+      <c r="G32" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="I32" s="95" t="s">
-        <v>307</v>
+      <c r="H32" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I32" s="85" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="80" t="s">
+      <c r="A33" s="80"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="80" t="s">
+      <c r="E33" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="96"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="86"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="83" t="s">
+      <c r="A34" s="80"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="84"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="97"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="87"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="35" t="s">
+      <c r="A35" s="80"/>
+      <c r="B35" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="94" t="s">
         <v>55</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>31</v>
@@ -2708,17 +2698,17 @@
       <c r="G35" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="I35" s="40" t="s">
-        <v>307</v>
+      <c r="H35" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I35" s="88" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="94"/>
       <c r="D36" s="10" t="s">
         <v>58</v>
       </c>
@@ -2727,89 +2717,89 @@
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="40"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="88"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="95"/>
       <c r="D37" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="40"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="88"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="72" t="s">
+      <c r="B38" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="103" t="s">
+      <c r="C38" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="75" t="s">
-        <v>301</v>
-      </c>
-      <c r="E38" s="75" t="s">
+      <c r="D38" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="E38" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="F38" s="75" t="s">
+      <c r="F38" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="75" t="s">
+      <c r="G38" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="I38" s="95" t="s">
-        <v>307</v>
+      <c r="H38" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I38" s="85" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="80" t="s">
+      <c r="A39" s="80"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="80" t="s">
+      <c r="E39" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="96"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="83" t="s">
+      <c r="A40" s="80"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="84"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="97"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="87"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="35" t="s">
+      <c r="A41" s="80"/>
+      <c r="B41" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="94" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>27</v>
@@ -2820,17 +2810,17 @@
       <c r="G41" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H41" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="I41" s="40" t="s">
-        <v>307</v>
+      <c r="H41" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I41" s="88" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="36"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="94"/>
       <c r="D42" s="10" t="s">
         <v>58</v>
       </c>
@@ -2839,89 +2829,89 @@
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="40"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="88"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="34"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="43"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="95"/>
       <c r="D43" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="40"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="88"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="103" t="s">
+      <c r="C44" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="E44" s="75" t="s">
+      <c r="D44" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="E44" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="75" t="s">
+      <c r="F44" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="75" t="s">
+      <c r="G44" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H44" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="I44" s="95" t="s">
-        <v>307</v>
+      <c r="H44" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I44" s="85" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="104"/>
-      <c r="D45" s="80" t="s">
+      <c r="A45" s="80"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="80" t="s">
+      <c r="E45" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="96"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="86"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="104"/>
-      <c r="D46" s="83" t="s">
+      <c r="A46" s="80"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="84"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="97"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="87"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
-      <c r="B47" s="35" t="s">
+      <c r="A47" s="80"/>
+      <c r="B47" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="94" t="s">
         <v>67</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>27</v>
@@ -2932,17 +2922,17 @@
       <c r="G47" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H47" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="I47" s="40" t="s">
-        <v>307</v>
+      <c r="H47" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I47" s="88" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
+      <c r="A48" s="80"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="94"/>
       <c r="D48" s="10" t="s">
         <v>68</v>
       </c>
@@ -2951,89 +2941,89 @@
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="40"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="88"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="43"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="95"/>
       <c r="D49" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="40"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="88"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="72" t="s">
+      <c r="B50" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="103" t="s">
+      <c r="C50" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="D50" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="E50" s="75" t="s">
+      <c r="D50" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="E50" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F50" s="75" t="s">
+      <c r="F50" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="G50" s="75" t="s">
+      <c r="G50" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="H50" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="I50" s="95" t="s">
-        <v>307</v>
+      <c r="H50" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I50" s="85" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="80" t="s">
+      <c r="A51" s="80"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="80" t="s">
+      <c r="E51" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="96"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="86"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="104"/>
-      <c r="D52" s="83" t="s">
+      <c r="A52" s="80"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E52" s="84"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="97"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="87"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
-      <c r="B53" s="35" t="s">
+      <c r="A53" s="80"/>
+      <c r="B53" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="94" t="s">
         <v>78</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>31</v>
@@ -3044,17 +3034,17 @@
       <c r="G53" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H53" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="I53" s="40" t="s">
-        <v>307</v>
+      <c r="H53" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I53" s="88" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="36"/>
+      <c r="A54" s="80"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="94"/>
       <c r="D54" s="10" t="s">
         <v>79</v>
       </c>
@@ -3063,89 +3053,89 @@
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="40"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="88"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="34"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="43"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="95"/>
       <c r="D55" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="40"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="88"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="72" t="s">
+      <c r="B56" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="103" t="s">
+      <c r="C56" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="D56" s="75" t="s">
+      <c r="D56" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G56" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H56" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I56" s="85" t="s">
         <v>298</v>
       </c>
-      <c r="E56" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="F56" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="G56" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H56" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="I56" s="95" t="s">
-        <v>307</v>
-      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="104"/>
-      <c r="D57" s="80" t="s">
+      <c r="A57" s="80"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="80" t="s">
+      <c r="E57" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F57" s="80"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="96"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="86"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="33"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="83" t="s">
+      <c r="A58" s="80"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="E58" s="84"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="97"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="84"/>
+      <c r="I58" s="87"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="33"/>
-      <c r="B59" s="35" t="s">
+      <c r="A59" s="80"/>
+      <c r="B59" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C59" s="94" t="s">
         <v>87</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>27</v>
@@ -3156,17 +3146,17 @@
       <c r="G59" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H59" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="I59" s="40" t="s">
-        <v>307</v>
+      <c r="H59" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I59" s="88" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="36"/>
+      <c r="A60" s="80"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="94"/>
       <c r="D60" s="10" t="s">
         <v>90</v>
       </c>
@@ -3175,89 +3165,89 @@
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="40"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="88"/>
     </row>
     <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="34"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="43"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="95"/>
       <c r="D61" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="40"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="88"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="72" t="s">
+      <c r="B62" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="103" t="s">
+      <c r="C62" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="D62" s="75" t="s">
-        <v>297</v>
-      </c>
-      <c r="E62" s="75" t="s">
+      <c r="D62" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="E62" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="F62" s="75" t="s">
+      <c r="F62" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="G62" s="75" t="s">
+      <c r="G62" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H62" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="I62" s="95" t="s">
-        <v>307</v>
+      <c r="H62" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I62" s="85" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="33"/>
-      <c r="B63" s="77"/>
-      <c r="C63" s="104"/>
-      <c r="D63" s="80" t="s">
+      <c r="A63" s="80"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E63" s="80" t="s">
+      <c r="E63" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F63" s="80"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="96"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="83"/>
+      <c r="I63" s="86"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="33"/>
-      <c r="B64" s="77"/>
-      <c r="C64" s="104"/>
-      <c r="D64" s="83" t="s">
+      <c r="A64" s="80"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="E64" s="84"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="97"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="87"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="33"/>
-      <c r="B65" s="35" t="s">
+      <c r="A65" s="80"/>
+      <c r="B65" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="94" t="s">
         <v>101</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>31</v>
@@ -3268,17 +3258,17 @@
       <c r="G65" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H65" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="I65" s="40" t="s">
-        <v>307</v>
+      <c r="H65" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I65" s="88" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="33"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="36"/>
+      <c r="A66" s="80"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="94"/>
       <c r="D66" s="10" t="s">
         <v>104</v>
       </c>
@@ -3287,89 +3277,89 @@
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="40"/>
+      <c r="H66" s="83"/>
+      <c r="I66" s="88"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="34"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="43"/>
+      <c r="A67" s="81"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="95"/>
       <c r="D67" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="40"/>
+      <c r="H67" s="90"/>
+      <c r="I67" s="88"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B68" s="72" t="s">
+      <c r="B68" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="103" t="s">
+      <c r="C68" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="E68" s="75" t="s">
+      <c r="D68" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="E68" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="F68" s="75" t="s">
+      <c r="F68" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="G68" s="75" t="s">
+      <c r="G68" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H68" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="I68" s="95" t="s">
-        <v>307</v>
+      <c r="H68" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I68" s="85" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="33"/>
-      <c r="B69" s="77"/>
-      <c r="C69" s="104"/>
-      <c r="D69" s="80" t="s">
+      <c r="A69" s="80"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="80" t="s">
+      <c r="E69" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F69" s="80"/>
-      <c r="G69" s="80"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="96"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="83"/>
+      <c r="I69" s="86"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
-      <c r="B70" s="77"/>
-      <c r="C70" s="104"/>
-      <c r="D70" s="83" t="s">
+      <c r="A70" s="80"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="E70" s="84"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="83"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="97"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="87"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="33"/>
-      <c r="B71" s="35" t="s">
+      <c r="A71" s="80"/>
+      <c r="B71" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="94" t="s">
         <v>99</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>27</v>
@@ -3380,17 +3370,17 @@
       <c r="G71" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H71" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="I71" s="40" t="s">
-        <v>307</v>
+      <c r="H71" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I71" s="88" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="33"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="36"/>
+      <c r="A72" s="80"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="94"/>
       <c r="D72" s="10" t="s">
         <v>104</v>
       </c>
@@ -3399,89 +3389,89 @@
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="40"/>
+      <c r="H72" s="83"/>
+      <c r="I72" s="88"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="34"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="43"/>
+      <c r="A73" s="81"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="95"/>
       <c r="D73" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="40"/>
+      <c r="H73" s="90"/>
+      <c r="I73" s="88"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="72" t="s">
+      <c r="B74" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="C74" s="103" t="s">
+      <c r="C74" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="E74" s="75" t="s">
+      <c r="D74" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="E74" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="F74" s="75" t="s">
+      <c r="F74" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="G74" s="75" t="s">
+      <c r="G74" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="H74" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="I74" s="95" t="s">
-        <v>307</v>
+      <c r="H74" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I74" s="85" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="33"/>
-      <c r="B75" s="77"/>
-      <c r="C75" s="104"/>
-      <c r="D75" s="80" t="s">
+      <c r="A75" s="80"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="80" t="s">
+      <c r="E75" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F75" s="80"/>
-      <c r="G75" s="80"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="96"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="83"/>
+      <c r="I75" s="86"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="33"/>
-      <c r="B76" s="77"/>
-      <c r="C76" s="104"/>
-      <c r="D76" s="83" t="s">
+      <c r="A76" s="80"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="99"/>
+      <c r="D76" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="E76" s="84"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="83"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="97"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="84"/>
+      <c r="I76" s="87"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="33"/>
-      <c r="B77" s="35" t="s">
+      <c r="A77" s="80"/>
+      <c r="B77" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="94" t="s">
         <v>110</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>27</v>
@@ -3492,17 +3482,17 @@
       <c r="G77" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H77" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="I77" s="40" t="s">
-        <v>307</v>
+      <c r="H77" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I77" s="88" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="33"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="36"/>
+      <c r="A78" s="80"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="94"/>
       <c r="D78" s="10" t="s">
         <v>113</v>
       </c>
@@ -3511,89 +3501,89 @@
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="40"/>
+      <c r="H78" s="83"/>
+      <c r="I78" s="88"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="34"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="43"/>
+      <c r="A79" s="81"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="95"/>
       <c r="D79" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="40"/>
+      <c r="H79" s="90"/>
+      <c r="I79" s="88"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="32" t="s">
+      <c r="A80" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="72" t="s">
+      <c r="B80" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="C80" s="103" t="s">
+      <c r="C80" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="D80" s="75" t="s">
-        <v>294</v>
-      </c>
-      <c r="E80" s="75" t="s">
+      <c r="D80" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="E80" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F80" s="75" t="s">
+      <c r="F80" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="G80" s="75" t="s">
+      <c r="G80" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="H80" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="I80" s="95" t="s">
-        <v>307</v>
+      <c r="H80" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I80" s="85" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="33"/>
-      <c r="B81" s="77"/>
-      <c r="C81" s="104"/>
-      <c r="D81" s="80" t="s">
+      <c r="A81" s="80"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="99"/>
+      <c r="D81" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E81" s="80" t="s">
+      <c r="E81" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F81" s="80"/>
-      <c r="G81" s="80"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="96"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="83"/>
+      <c r="I81" s="86"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
-      <c r="B82" s="77"/>
-      <c r="C82" s="104"/>
-      <c r="D82" s="83" t="s">
+      <c r="A82" s="80"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="99"/>
+      <c r="D82" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="E82" s="84"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="83"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="97"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="84"/>
+      <c r="I82" s="87"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="33"/>
-      <c r="B83" s="35" t="s">
+      <c r="A83" s="80"/>
+      <c r="B83" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="94" t="s">
         <v>122</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>27</v>
@@ -3604,17 +3594,17 @@
       <c r="G83" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H83" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="I83" s="40" t="s">
-        <v>307</v>
+      <c r="H83" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I83" s="88" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="33"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="36"/>
+      <c r="A84" s="80"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="94"/>
       <c r="D84" s="10" t="s">
         <v>125</v>
       </c>
@@ -3623,89 +3613,89 @@
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="40"/>
+      <c r="H84" s="83"/>
+      <c r="I84" s="88"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="34"/>
-      <c r="B85" s="42"/>
-      <c r="C85" s="43"/>
+      <c r="A85" s="81"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="95"/>
       <c r="D85" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="40"/>
+      <c r="H85" s="90"/>
+      <c r="I85" s="88"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="32" t="s">
+      <c r="A86" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="B86" s="72" t="s">
+      <c r="B86" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="103" t="s">
+      <c r="C86" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="D86" s="75" t="s">
-        <v>293</v>
-      </c>
-      <c r="E86" s="75" t="s">
+      <c r="D86" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="E86" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="F86" s="75" t="s">
+      <c r="F86" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="G86" s="75" t="s">
+      <c r="G86" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="H86" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="I86" s="95" t="s">
-        <v>307</v>
+      <c r="H86" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I86" s="85" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="33"/>
-      <c r="B87" s="77"/>
-      <c r="C87" s="104"/>
-      <c r="D87" s="80" t="s">
+      <c r="A87" s="80"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E87" s="80" t="s">
+      <c r="E87" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F87" s="80"/>
-      <c r="G87" s="80"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="96"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="83"/>
+      <c r="I87" s="86"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
-      <c r="B88" s="77"/>
-      <c r="C88" s="104"/>
-      <c r="D88" s="83" t="s">
+      <c r="A88" s="80"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="99"/>
+      <c r="D88" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="E88" s="84"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="83"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="97"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="84"/>
+      <c r="I88" s="87"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="33"/>
-      <c r="B89" s="35" t="s">
+      <c r="A89" s="80"/>
+      <c r="B89" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="C89" s="36" t="s">
+      <c r="C89" s="94" t="s">
         <v>137</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>31</v>
@@ -3716,17 +3706,17 @@
       <c r="G89" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H89" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="I89" s="40" t="s">
-        <v>307</v>
+      <c r="H89" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I89" s="88" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="33"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="36"/>
+      <c r="A90" s="80"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="94"/>
       <c r="D90" s="10" t="s">
         <v>140</v>
       </c>
@@ -3735,89 +3725,89 @@
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="40"/>
+      <c r="H90" s="83"/>
+      <c r="I90" s="88"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="34"/>
-      <c r="B91" s="42"/>
-      <c r="C91" s="43"/>
+      <c r="A91" s="81"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="95"/>
       <c r="D91" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E91" s="14"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="45"/>
-      <c r="I91" s="40"/>
+      <c r="H91" s="90"/>
+      <c r="I91" s="88"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="32" t="s">
+      <c r="A92" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="B92" s="72" t="s">
+      <c r="B92" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="103" t="s">
+      <c r="C92" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="D92" s="75" t="s">
-        <v>292</v>
-      </c>
-      <c r="E92" s="75" t="s">
+      <c r="D92" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="E92" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="F92" s="75" t="s">
+      <c r="F92" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="G92" s="75" t="s">
+      <c r="G92" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="H92" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="I92" s="95" t="s">
-        <v>307</v>
+      <c r="H92" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I92" s="85" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="33"/>
-      <c r="B93" s="77"/>
-      <c r="C93" s="104"/>
-      <c r="D93" s="80" t="s">
+      <c r="A93" s="80"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E93" s="80" t="s">
+      <c r="E93" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F93" s="80"/>
-      <c r="G93" s="80"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="96"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="83"/>
+      <c r="I93" s="86"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="33"/>
-      <c r="B94" s="77"/>
-      <c r="C94" s="104"/>
-      <c r="D94" s="83" t="s">
+      <c r="A94" s="80"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="99"/>
+      <c r="D94" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="E94" s="84"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="83"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="97"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="84"/>
+      <c r="I94" s="87"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="33"/>
-      <c r="B95" s="35" t="s">
+      <c r="A95" s="80"/>
+      <c r="B95" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="C95" s="36" t="s">
+      <c r="C95" s="94" t="s">
         <v>135</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>27</v>
@@ -3828,17 +3818,17 @@
       <c r="G95" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H95" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="I95" s="40" t="s">
-        <v>307</v>
+      <c r="H95" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I95" s="88" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="33"/>
-      <c r="B96" s="35"/>
-      <c r="C96" s="36"/>
+      <c r="A96" s="80"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="94"/>
       <c r="D96" s="10" t="s">
         <v>140</v>
       </c>
@@ -3847,89 +3837,89 @@
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="40"/>
+      <c r="H96" s="83"/>
+      <c r="I96" s="88"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="34"/>
-      <c r="B97" s="42"/>
-      <c r="C97" s="43"/>
+      <c r="A97" s="81"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="95"/>
       <c r="D97" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E97" s="14"/>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
-      <c r="H97" s="45"/>
-      <c r="I97" s="40"/>
+      <c r="H97" s="90"/>
+      <c r="I97" s="88"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="32" t="s">
+      <c r="A98" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="B98" s="72" t="s">
+      <c r="B98" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="C98" s="103" t="s">
+      <c r="C98" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="D98" s="75" t="s">
-        <v>291</v>
-      </c>
-      <c r="E98" s="75" t="s">
+      <c r="D98" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="E98" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="F98" s="75" t="s">
+      <c r="F98" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="G98" s="75" t="s">
+      <c r="G98" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="H98" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="I98" s="95" t="s">
-        <v>307</v>
+      <c r="H98" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I98" s="85" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="33"/>
-      <c r="B99" s="77"/>
-      <c r="C99" s="104"/>
-      <c r="D99" s="80" t="s">
+      <c r="A99" s="80"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="99"/>
+      <c r="D99" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E99" s="80" t="s">
+      <c r="E99" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F99" s="80"/>
-      <c r="G99" s="80"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="96"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="83"/>
+      <c r="I99" s="86"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="33"/>
-      <c r="B100" s="77"/>
-      <c r="C100" s="104"/>
-      <c r="D100" s="83" t="s">
+      <c r="A100" s="80"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="99"/>
+      <c r="D100" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="E100" s="84"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="83"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="97"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="84"/>
+      <c r="I100" s="87"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="33"/>
-      <c r="B101" s="35" t="s">
+      <c r="A101" s="80"/>
+      <c r="B101" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="C101" s="36" t="s">
+      <c r="C101" s="94" t="s">
         <v>153</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>31</v>
@@ -3940,17 +3930,17 @@
       <c r="G101" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H101" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="I101" s="40" t="s">
-        <v>307</v>
+      <c r="H101" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I101" s="88" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="33"/>
-      <c r="B102" s="35"/>
-      <c r="C102" s="36"/>
+      <c r="A102" s="80"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="94"/>
       <c r="D102" s="10" t="s">
         <v>151</v>
       </c>
@@ -3959,89 +3949,89 @@
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
-      <c r="H102" s="38"/>
-      <c r="I102" s="40"/>
+      <c r="H102" s="83"/>
+      <c r="I102" s="88"/>
     </row>
     <row r="103" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="34"/>
-      <c r="B103" s="42"/>
-      <c r="C103" s="43"/>
+      <c r="A103" s="81"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="95"/>
       <c r="D103" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E103" s="14"/>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="40"/>
+      <c r="H103" s="90"/>
+      <c r="I103" s="88"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="32" t="s">
+      <c r="A104" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="B104" s="72" t="s">
+      <c r="B104" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="C104" s="103" t="s">
+      <c r="C104" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="D104" s="75" t="s">
-        <v>290</v>
-      </c>
-      <c r="E104" s="75" t="s">
+      <c r="D104" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="E104" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="F104" s="75" t="s">
+      <c r="F104" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="G104" s="75" t="s">
+      <c r="G104" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="H104" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="I104" s="95" t="s">
-        <v>307</v>
+      <c r="H104" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I104" s="85" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="33"/>
-      <c r="B105" s="77"/>
-      <c r="C105" s="104"/>
-      <c r="D105" s="80" t="s">
+      <c r="A105" s="80"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="99"/>
+      <c r="D105" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="80" t="s">
+      <c r="E105" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F105" s="80"/>
-      <c r="G105" s="80"/>
-      <c r="H105" s="38"/>
-      <c r="I105" s="96"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="83"/>
+      <c r="I105" s="86"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="33"/>
-      <c r="B106" s="77"/>
-      <c r="C106" s="104"/>
-      <c r="D106" s="83" t="s">
+      <c r="A106" s="80"/>
+      <c r="B106" s="58"/>
+      <c r="C106" s="99"/>
+      <c r="D106" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="E106" s="84"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="83"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="97"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="84"/>
+      <c r="I106" s="87"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="33"/>
-      <c r="B107" s="35" t="s">
+      <c r="A107" s="80"/>
+      <c r="B107" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="C107" s="36" t="s">
+      <c r="C107" s="94" t="s">
         <v>155</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>27</v>
@@ -4052,17 +4042,17 @@
       <c r="G107" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H107" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="I107" s="40" t="s">
-        <v>307</v>
+      <c r="H107" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I107" s="88" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="33"/>
-      <c r="B108" s="35"/>
-      <c r="C108" s="36"/>
+      <c r="A108" s="80"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="94"/>
       <c r="D108" s="10" t="s">
         <v>149</v>
       </c>
@@ -4071,89 +4061,89 @@
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
-      <c r="H108" s="38"/>
-      <c r="I108" s="40"/>
+      <c r="H108" s="83"/>
+      <c r="I108" s="88"/>
     </row>
     <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="34"/>
-      <c r="B109" s="42"/>
-      <c r="C109" s="43"/>
+      <c r="A109" s="81"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="95"/>
       <c r="D109" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E109" s="14"/>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
-      <c r="H109" s="45"/>
-      <c r="I109" s="40"/>
+      <c r="H109" s="90"/>
+      <c r="I109" s="88"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="32" t="s">
+      <c r="A110" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="B110" s="72" t="s">
+      <c r="B110" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="C110" s="103" t="s">
+      <c r="C110" s="98" t="s">
         <v>174</v>
       </c>
-      <c r="D110" s="75" t="s">
-        <v>289</v>
-      </c>
-      <c r="E110" s="75" t="s">
+      <c r="D110" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E110" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="F110" s="75" t="s">
+      <c r="F110" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="G110" s="75" t="s">
+      <c r="G110" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="H110" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="I110" s="95" t="s">
-        <v>307</v>
+      <c r="H110" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I110" s="85" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="33"/>
-      <c r="B111" s="77"/>
-      <c r="C111" s="104"/>
-      <c r="D111" s="80" t="s">
+      <c r="A111" s="80"/>
+      <c r="B111" s="58"/>
+      <c r="C111" s="99"/>
+      <c r="D111" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E111" s="80" t="s">
+      <c r="E111" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F111" s="80"/>
-      <c r="G111" s="80"/>
-      <c r="H111" s="38"/>
-      <c r="I111" s="96"/>
+      <c r="F111" s="33"/>
+      <c r="G111" s="33"/>
+      <c r="H111" s="83"/>
+      <c r="I111" s="86"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="33"/>
-      <c r="B112" s="77"/>
-      <c r="C112" s="104"/>
-      <c r="D112" s="83" t="s">
+      <c r="A112" s="80"/>
+      <c r="B112" s="58"/>
+      <c r="C112" s="99"/>
+      <c r="D112" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="E112" s="84"/>
-      <c r="F112" s="83"/>
-      <c r="G112" s="83"/>
-      <c r="H112" s="39"/>
-      <c r="I112" s="97"/>
+      <c r="E112" s="37"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="84"/>
+      <c r="I112" s="87"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="33"/>
-      <c r="B113" s="35" t="s">
+      <c r="A113" s="80"/>
+      <c r="B113" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="C113" s="94" t="s">
         <v>173</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>31</v>
@@ -4164,17 +4154,17 @@
       <c r="G113" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="H113" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="I113" s="40" t="s">
-        <v>307</v>
+      <c r="H113" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I113" s="88" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="33"/>
-      <c r="B114" s="35"/>
-      <c r="C114" s="36"/>
+      <c r="A114" s="80"/>
+      <c r="B114" s="61"/>
+      <c r="C114" s="94"/>
       <c r="D114" s="10" t="s">
         <v>170</v>
       </c>
@@ -4183,89 +4173,89 @@
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
-      <c r="H114" s="38"/>
-      <c r="I114" s="40"/>
+      <c r="H114" s="83"/>
+      <c r="I114" s="88"/>
     </row>
     <row r="115" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="34"/>
-      <c r="B115" s="42"/>
-      <c r="C115" s="43"/>
+      <c r="A115" s="81"/>
+      <c r="B115" s="64"/>
+      <c r="C115" s="95"/>
       <c r="D115" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E115" s="14"/>
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
-      <c r="H115" s="45"/>
-      <c r="I115" s="40"/>
+      <c r="H115" s="90"/>
+      <c r="I115" s="88"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="32" t="s">
+      <c r="A116" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="B116" s="72" t="s">
+      <c r="B116" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="C116" s="103" t="s">
+      <c r="C116" s="98" t="s">
         <v>172</v>
       </c>
-      <c r="D116" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="E116" s="75" t="s">
+      <c r="D116" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E116" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="F116" s="75" t="s">
+      <c r="F116" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="G116" s="75" t="s">
+      <c r="G116" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="H116" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="I116" s="95" t="s">
-        <v>307</v>
+      <c r="H116" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I116" s="85" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="33"/>
-      <c r="B117" s="77"/>
-      <c r="C117" s="104"/>
-      <c r="D117" s="80" t="s">
+      <c r="A117" s="80"/>
+      <c r="B117" s="58"/>
+      <c r="C117" s="99"/>
+      <c r="D117" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E117" s="80" t="s">
+      <c r="E117" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F117" s="80"/>
-      <c r="G117" s="80"/>
-      <c r="H117" s="38"/>
-      <c r="I117" s="96"/>
+      <c r="F117" s="33"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="83"/>
+      <c r="I117" s="86"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="33"/>
-      <c r="B118" s="77"/>
-      <c r="C118" s="104"/>
-      <c r="D118" s="83" t="s">
+      <c r="A118" s="80"/>
+      <c r="B118" s="58"/>
+      <c r="C118" s="99"/>
+      <c r="D118" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="E118" s="84"/>
-      <c r="F118" s="83"/>
-      <c r="G118" s="83"/>
-      <c r="H118" s="39"/>
-      <c r="I118" s="97"/>
+      <c r="E118" s="37"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="36"/>
+      <c r="H118" s="84"/>
+      <c r="I118" s="87"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="33"/>
-      <c r="B119" s="35" t="s">
+      <c r="A119" s="80"/>
+      <c r="B119" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="C119" s="36" t="s">
+      <c r="C119" s="94" t="s">
         <v>171</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>27</v>
@@ -4276,17 +4266,17 @@
       <c r="G119" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="H119" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="I119" s="40" t="s">
-        <v>307</v>
+      <c r="H119" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I119" s="88" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="33"/>
-      <c r="B120" s="35"/>
-      <c r="C120" s="36"/>
+      <c r="A120" s="80"/>
+      <c r="B120" s="61"/>
+      <c r="C120" s="94"/>
       <c r="D120" s="10" t="s">
         <v>168</v>
       </c>
@@ -4295,111 +4285,115 @@
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
-      <c r="H120" s="38"/>
-      <c r="I120" s="40"/>
+      <c r="H120" s="83"/>
+      <c r="I120" s="88"/>
     </row>
     <row r="121" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="34"/>
-      <c r="B121" s="42"/>
-      <c r="C121" s="43"/>
+      <c r="A121" s="81"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="95"/>
       <c r="D121" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E121" s="14"/>
       <c r="F121" s="13"/>
       <c r="G121" s="13"/>
-      <c r="H121" s="45"/>
-      <c r="I121" s="40"/>
+      <c r="H121" s="90"/>
+      <c r="I121" s="88"/>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="49" t="s">
+      <c r="A122" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="B122" s="72" t="s">
+      <c r="B122" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="C122" s="101" t="s">
+      <c r="C122" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="D122" s="75" t="s">
+      <c r="D122" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="E122" s="105" t="s">
+      <c r="E122" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F122" s="74" t="s">
+      <c r="F122" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="G122" s="75"/>
-      <c r="H122" s="110" t="s">
-        <v>308</v>
-      </c>
-      <c r="I122" s="98"/>
+      <c r="G122" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="H122" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I122" s="85" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="50"/>
-      <c r="B123" s="77"/>
-      <c r="C123" s="102"/>
-      <c r="D123" s="80" t="s">
+      <c r="A123" s="44"/>
+      <c r="B123" s="58"/>
+      <c r="C123" s="60"/>
+      <c r="D123" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E123" s="106" t="s">
+      <c r="E123" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="F123" s="79"/>
-      <c r="G123" s="80"/>
-      <c r="H123" s="111"/>
-      <c r="I123" s="99"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="83"/>
+      <c r="I123" s="86"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="50"/>
-      <c r="B124" s="77"/>
-      <c r="C124" s="102"/>
-      <c r="D124" s="80" t="s">
+      <c r="A124" s="44"/>
+      <c r="B124" s="58"/>
+      <c r="C124" s="60"/>
+      <c r="D124" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="E124" s="106" t="s">
+      <c r="E124" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="F124" s="79"/>
-      <c r="G124" s="80"/>
-      <c r="H124" s="111"/>
-      <c r="I124" s="99"/>
+      <c r="F124" s="32"/>
+      <c r="G124" s="32"/>
+      <c r="H124" s="83"/>
+      <c r="I124" s="86"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="50"/>
-      <c r="B125" s="77"/>
-      <c r="C125" s="102"/>
-      <c r="D125" s="80" t="s">
+      <c r="A125" s="44"/>
+      <c r="B125" s="58"/>
+      <c r="C125" s="60"/>
+      <c r="D125" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="E125" s="106" t="s">
+      <c r="E125" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="F125" s="79"/>
-      <c r="G125" s="80"/>
-      <c r="H125" s="111"/>
-      <c r="I125" s="99"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32"/>
+      <c r="H125" s="83"/>
+      <c r="I125" s="86"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="50"/>
-      <c r="B126" s="77"/>
-      <c r="C126" s="102"/>
-      <c r="D126" s="83" t="s">
+      <c r="A126" s="44"/>
+      <c r="B126" s="58"/>
+      <c r="C126" s="60"/>
+      <c r="D126" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="E126" s="107"/>
-      <c r="F126" s="82"/>
-      <c r="G126" s="83"/>
-      <c r="H126" s="112"/>
-      <c r="I126" s="100"/>
+      <c r="E126" s="42"/>
+      <c r="F126" s="35"/>
+      <c r="G126" s="35"/>
+      <c r="H126" s="84"/>
+      <c r="I126" s="87"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="50"/>
-      <c r="B127" s="59" t="s">
+      <c r="A127" s="44"/>
+      <c r="B127" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C127" s="56" t="s">
+      <c r="C127" s="67" t="s">
         <v>194</v>
       </c>
       <c r="D127" s="15" t="s">
@@ -4411,16 +4405,20 @@
       <c r="F127" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="G127" s="15"/>
-      <c r="H127" s="111" t="s">
-        <v>308</v>
-      </c>
-      <c r="I127" s="61"/>
+      <c r="G127" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="H127" s="83" t="s">
+        <v>296</v>
+      </c>
+      <c r="I127" s="100" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="50"/>
-      <c r="B128" s="35"/>
-      <c r="C128" s="52"/>
+      <c r="A128" s="44"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="62"/>
       <c r="D128" s="15" t="s">
         <v>29</v>
       </c>
@@ -4428,14 +4426,14 @@
         <v>33</v>
       </c>
       <c r="F128" s="5"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="111"/>
-      <c r="I128" s="61"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="83"/>
+      <c r="I128" s="88"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="50"/>
-      <c r="B129" s="35"/>
-      <c r="C129" s="52"/>
+      <c r="A129" s="44"/>
+      <c r="B129" s="61"/>
+      <c r="C129" s="62"/>
       <c r="D129" s="15" t="s">
         <v>199</v>
       </c>
@@ -4443,14 +4441,14 @@
         <v>203</v>
       </c>
       <c r="F129" s="5"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="111"/>
-      <c r="I129" s="61"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="83"/>
+      <c r="I129" s="88"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="50"/>
-      <c r="B130" s="35"/>
-      <c r="C130" s="52"/>
+      <c r="A130" s="44"/>
+      <c r="B130" s="61"/>
+      <c r="C130" s="62"/>
       <c r="D130" s="15" t="s">
         <v>191</v>
       </c>
@@ -4458,110 +4456,114 @@
         <v>186</v>
       </c>
       <c r="F130" s="5"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="111"/>
-      <c r="I130" s="61"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="83"/>
+      <c r="I130" s="88"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="50"/>
-      <c r="B131" s="35"/>
-      <c r="C131" s="52"/>
+      <c r="A131" s="44"/>
+      <c r="B131" s="61"/>
+      <c r="C131" s="62"/>
       <c r="D131" s="21" t="s">
         <v>193</v>
       </c>
       <c r="E131" s="22"/>
       <c r="F131" s="7"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="112"/>
-      <c r="I131" s="62"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="84"/>
+      <c r="I131" s="93"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="50"/>
-      <c r="B132" s="91" t="s">
+      <c r="A132" s="44"/>
+      <c r="B132" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="C132" s="92" t="s">
+      <c r="C132" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="D132" s="80" t="s">
+      <c r="D132" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E132" s="106" t="s">
+      <c r="E132" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="F132" s="79" t="s">
+      <c r="F132" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="G132" s="80"/>
-      <c r="H132" s="111" t="s">
-        <v>308</v>
-      </c>
-      <c r="I132" s="99"/>
+      <c r="G132" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="H132" s="83" t="s">
+        <v>296</v>
+      </c>
+      <c r="I132" s="101" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="50"/>
-      <c r="B133" s="77"/>
-      <c r="C133" s="102"/>
-      <c r="D133" s="80" t="s">
+      <c r="A133" s="44"/>
+      <c r="B133" s="58"/>
+      <c r="C133" s="60"/>
+      <c r="D133" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E133" s="106" t="s">
+      <c r="E133" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F133" s="79"/>
-      <c r="G133" s="80"/>
-      <c r="H133" s="111"/>
-      <c r="I133" s="99"/>
+      <c r="F133" s="32"/>
+      <c r="G133" s="32"/>
+      <c r="H133" s="83"/>
+      <c r="I133" s="86"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="50"/>
-      <c r="B134" s="77"/>
-      <c r="C134" s="102"/>
-      <c r="D134" s="80" t="s">
+      <c r="A134" s="44"/>
+      <c r="B134" s="58"/>
+      <c r="C134" s="60"/>
+      <c r="D134" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="E134" s="106" t="s">
+      <c r="E134" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="F134" s="79"/>
-      <c r="G134" s="80"/>
-      <c r="H134" s="111"/>
-      <c r="I134" s="99"/>
+      <c r="F134" s="32"/>
+      <c r="G134" s="32"/>
+      <c r="H134" s="83"/>
+      <c r="I134" s="86"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="50"/>
-      <c r="B135" s="77"/>
-      <c r="C135" s="102"/>
-      <c r="D135" s="80" t="s">
+      <c r="A135" s="44"/>
+      <c r="B135" s="58"/>
+      <c r="C135" s="60"/>
+      <c r="D135" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="E135" s="106" t="s">
+      <c r="E135" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="F135" s="79"/>
-      <c r="G135" s="80"/>
-      <c r="H135" s="111"/>
-      <c r="I135" s="99"/>
+      <c r="F135" s="32"/>
+      <c r="G135" s="32"/>
+      <c r="H135" s="83"/>
+      <c r="I135" s="86"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="50"/>
-      <c r="B136" s="77"/>
-      <c r="C136" s="102"/>
-      <c r="D136" s="83" t="s">
+      <c r="A136" s="44"/>
+      <c r="B136" s="58"/>
+      <c r="C136" s="60"/>
+      <c r="D136" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="E136" s="107"/>
-      <c r="F136" s="82"/>
-      <c r="G136" s="83"/>
-      <c r="H136" s="112"/>
-      <c r="I136" s="100"/>
+      <c r="E136" s="42"/>
+      <c r="F136" s="35"/>
+      <c r="G136" s="35"/>
+      <c r="H136" s="84"/>
+      <c r="I136" s="87"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="50"/>
-      <c r="B137" s="59" t="s">
+      <c r="A137" s="44"/>
+      <c r="B137" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="C137" s="56" t="s">
+      <c r="C137" s="67" t="s">
         <v>181</v>
       </c>
       <c r="D137" s="15" t="s">
@@ -4573,16 +4575,20 @@
       <c r="F137" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="G137" s="15"/>
-      <c r="H137" s="111" t="s">
-        <v>308</v>
-      </c>
-      <c r="I137" s="61"/>
+      <c r="G137" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="H137" s="83" t="s">
+        <v>296</v>
+      </c>
+      <c r="I137" s="100" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="50"/>
-      <c r="B138" s="35"/>
-      <c r="C138" s="52"/>
+      <c r="A138" s="44"/>
+      <c r="B138" s="61"/>
+      <c r="C138" s="62"/>
       <c r="D138" s="15" t="s">
         <v>29</v>
       </c>
@@ -4590,14 +4596,14 @@
         <v>33</v>
       </c>
       <c r="F138" s="5"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="111"/>
-      <c r="I138" s="61"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="83"/>
+      <c r="I138" s="88"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="50"/>
-      <c r="B139" s="35"/>
-      <c r="C139" s="52"/>
+      <c r="A139" s="44"/>
+      <c r="B139" s="61"/>
+      <c r="C139" s="62"/>
       <c r="D139" s="15" t="s">
         <v>190</v>
       </c>
@@ -4605,14 +4611,14 @@
         <v>185</v>
       </c>
       <c r="F139" s="5"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="111"/>
-      <c r="I139" s="61"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="83"/>
+      <c r="I139" s="88"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="50"/>
-      <c r="B140" s="35"/>
-      <c r="C140" s="52"/>
+      <c r="A140" s="44"/>
+      <c r="B140" s="61"/>
+      <c r="C140" s="62"/>
       <c r="D140" s="15" t="s">
         <v>191</v>
       </c>
@@ -4620,82 +4626,86 @@
         <v>186</v>
       </c>
       <c r="F140" s="5"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="111"/>
-      <c r="I140" s="61"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="83"/>
+      <c r="I140" s="88"/>
     </row>
     <row r="141" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="50"/>
-      <c r="B141" s="57"/>
-      <c r="C141" s="54"/>
+      <c r="A141" s="44"/>
+      <c r="B141" s="50"/>
+      <c r="C141" s="52"/>
       <c r="D141" s="15" t="s">
         <v>193</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="5"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="111"/>
-      <c r="I141" s="61"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="83"/>
+      <c r="I141" s="102"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="66" t="s">
+      <c r="A142" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="B142" s="72" t="s">
+      <c r="B142" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="C142" s="101" t="s">
+      <c r="C142" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="D142" s="76" t="s">
+      <c r="D142" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="E142" s="75" t="s">
+      <c r="E142" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="F142" s="75" t="s">
+      <c r="F142" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="G142" s="75"/>
-      <c r="H142" s="110" t="s">
-        <v>308</v>
-      </c>
-      <c r="I142" s="98"/>
+      <c r="G142" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="H142" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I142" s="85" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="67"/>
-      <c r="B143" s="77"/>
-      <c r="C143" s="102"/>
-      <c r="D143" s="81" t="s">
+      <c r="A143" s="55"/>
+      <c r="B143" s="58"/>
+      <c r="C143" s="60"/>
+      <c r="D143" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="E143" s="80" t="s">
+      <c r="E143" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="F143" s="80"/>
-      <c r="G143" s="80"/>
-      <c r="H143" s="111"/>
-      <c r="I143" s="99"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="67"/>
-      <c r="B144" s="77"/>
-      <c r="C144" s="102"/>
-      <c r="D144" s="84" t="s">
+      <c r="F143" s="33"/>
+      <c r="G143" s="33"/>
+      <c r="H143" s="83"/>
+      <c r="I143" s="86"/>
+    </row>
+    <row r="144" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="55"/>
+      <c r="B144" s="58"/>
+      <c r="C144" s="60"/>
+      <c r="D144" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="E144" s="83"/>
-      <c r="F144" s="83"/>
-      <c r="G144" s="83"/>
-      <c r="H144" s="112"/>
-      <c r="I144" s="100"/>
+      <c r="E144" s="36"/>
+      <c r="F144" s="36"/>
+      <c r="G144" s="36"/>
+      <c r="H144" s="84"/>
+      <c r="I144" s="87"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="67"/>
-      <c r="B145" s="35" t="s">
+      <c r="A145" s="55"/>
+      <c r="B145" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="C145" s="52" t="s">
+      <c r="C145" s="62" t="s">
         <v>206</v>
       </c>
       <c r="D145" s="16" t="s">
@@ -4707,16 +4717,20 @@
       <c r="F145" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="G145" s="18"/>
-      <c r="H145" s="113" t="s">
-        <v>308</v>
-      </c>
-      <c r="I145" s="69"/>
+      <c r="G145" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="H145" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I145" s="100" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="67"/>
-      <c r="B146" s="35"/>
-      <c r="C146" s="52"/>
+      <c r="A146" s="55"/>
+      <c r="B146" s="61"/>
+      <c r="C146" s="62"/>
       <c r="D146" s="16" t="s">
         <v>211</v>
       </c>
@@ -4725,84 +4739,88 @@
       </c>
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
-      <c r="H146" s="111"/>
-      <c r="I146" s="61"/>
+      <c r="H146" s="83"/>
+      <c r="I146" s="88"/>
     </row>
     <row r="147" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="68"/>
-      <c r="B147" s="42"/>
+      <c r="A147" s="63"/>
+      <c r="B147" s="64"/>
       <c r="C147" s="65"/>
-      <c r="D147" s="29" t="s">
+      <c r="D147" s="28" t="s">
         <v>210</v>
       </c>
       <c r="E147" s="13"/>
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
-      <c r="H147" s="114"/>
-      <c r="I147" s="70"/>
+      <c r="H147" s="84"/>
+      <c r="I147" s="102"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="66" t="s">
+      <c r="A148" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="B148" s="72" t="s">
+      <c r="B148" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="C148" s="101" t="s">
+      <c r="C148" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="D148" s="76" t="s">
+      <c r="D148" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="E148" s="87" t="s">
+      <c r="E148" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="F148" s="75" t="s">
+      <c r="F148" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="G148" s="75"/>
-      <c r="H148" s="110" t="s">
-        <v>308</v>
-      </c>
-      <c r="I148" s="98"/>
+      <c r="G148" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="H148" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I148" s="85" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="67"/>
-      <c r="B149" s="77"/>
-      <c r="C149" s="102"/>
-      <c r="D149" s="81" t="s">
+      <c r="A149" s="55"/>
+      <c r="B149" s="58"/>
+      <c r="C149" s="60"/>
+      <c r="D149" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="E149" s="80" t="s">
+      <c r="E149" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="F149" s="80"/>
-      <c r="G149" s="80"/>
-      <c r="H149" s="111"/>
-      <c r="I149" s="99"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="83"/>
+      <c r="I149" s="86"/>
     </row>
     <row r="150" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="67"/>
-      <c r="B150" s="77"/>
-      <c r="C150" s="102"/>
-      <c r="D150" s="84" t="s">
+      <c r="A150" s="55"/>
+      <c r="B150" s="58"/>
+      <c r="C150" s="60"/>
+      <c r="D150" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E150" s="83"/>
-      <c r="F150" s="83"/>
-      <c r="G150" s="83"/>
-      <c r="H150" s="112"/>
-      <c r="I150" s="100"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="36"/>
+      <c r="H150" s="84"/>
+      <c r="I150" s="87"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="67"/>
-      <c r="B151" s="35" t="s">
+      <c r="A151" s="55"/>
+      <c r="B151" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="C151" s="52" t="s">
+      <c r="C151" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D151" s="27" t="s">
+      <c r="D151" s="26" t="s">
         <v>216</v>
       </c>
       <c r="E151" s="18" t="s">
@@ -4811,16 +4829,20 @@
       <c r="F151" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="G151" s="18"/>
-      <c r="H151" s="113" t="s">
-        <v>308</v>
-      </c>
-      <c r="I151" s="69"/>
+      <c r="G151" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="H151" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I151" s="100" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="67"/>
-      <c r="B152" s="35"/>
-      <c r="C152" s="52"/>
+      <c r="A152" s="55"/>
+      <c r="B152" s="61"/>
+      <c r="C152" s="62"/>
       <c r="D152" s="16" t="s">
         <v>188</v>
       </c>
@@ -4829,102 +4851,110 @@
       </c>
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
-      <c r="H152" s="111"/>
-      <c r="I152" s="61"/>
+      <c r="H152" s="83"/>
+      <c r="I152" s="88"/>
     </row>
     <row r="153" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="68"/>
-      <c r="B153" s="42"/>
+      <c r="A153" s="63"/>
+      <c r="B153" s="64"/>
       <c r="C153" s="65"/>
-      <c r="D153" s="28" t="s">
+      <c r="D153" s="27" t="s">
         <v>220</v>
       </c>
       <c r="E153" s="13"/>
       <c r="F153" s="13"/>
       <c r="G153" s="13"/>
-      <c r="H153" s="114"/>
-      <c r="I153" s="70"/>
+      <c r="H153" s="84"/>
+      <c r="I153" s="102"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="66" t="s">
+      <c r="A154" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="B154" s="72" t="s">
+      <c r="B154" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="C154" s="101" t="s">
+      <c r="C154" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="D154" s="76" t="s">
+      <c r="D154" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="E154" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="F154" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="E154" s="87" t="s">
-        <v>229</v>
-      </c>
-      <c r="F154" s="75" t="s">
-        <v>230</v>
-      </c>
-      <c r="G154" s="75"/>
-      <c r="H154" s="110" t="s">
-        <v>308</v>
-      </c>
-      <c r="I154" s="98"/>
+      <c r="G154" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="H154" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I154" s="85" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="67"/>
-      <c r="B155" s="77"/>
-      <c r="C155" s="102"/>
-      <c r="D155" s="81" t="s">
+      <c r="A155" s="55"/>
+      <c r="B155" s="58"/>
+      <c r="C155" s="60"/>
+      <c r="D155" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="E155" s="80" t="s">
+      <c r="E155" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="F155" s="80"/>
-      <c r="G155" s="80"/>
-      <c r="H155" s="111"/>
-      <c r="I155" s="99"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="67"/>
-      <c r="B156" s="77"/>
-      <c r="C156" s="102"/>
-      <c r="D156" s="83" t="s">
+      <c r="F155" s="33"/>
+      <c r="G155" s="33"/>
+      <c r="H155" s="83"/>
+      <c r="I155" s="86"/>
+    </row>
+    <row r="156" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="55"/>
+      <c r="B156" s="58"/>
+      <c r="C156" s="60"/>
+      <c r="D156" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="E156" s="83"/>
-      <c r="F156" s="83"/>
-      <c r="G156" s="83"/>
-      <c r="H156" s="112"/>
-      <c r="I156" s="100"/>
+      <c r="E156" s="36"/>
+      <c r="F156" s="36"/>
+      <c r="G156" s="36"/>
+      <c r="H156" s="84"/>
+      <c r="I156" s="87"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="67"/>
-      <c r="B157" s="35" t="s">
+      <c r="A157" s="55"/>
+      <c r="B157" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="C157" s="52" t="s">
+      <c r="C157" s="62" t="s">
         <v>227</v>
       </c>
       <c r="D157" s="16" t="s">
-        <v>228</v>
+        <v>299</v>
       </c>
       <c r="E157" s="18" t="s">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="G157" s="18"/>
-      <c r="H157" s="113" t="s">
-        <v>308</v>
-      </c>
-      <c r="I157" s="69"/>
+        <v>301</v>
+      </c>
+      <c r="G157" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="H157" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I157" s="100" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="67"/>
-      <c r="B158" s="35"/>
-      <c r="C158" s="52"/>
+      <c r="A158" s="55"/>
+      <c r="B158" s="61"/>
+      <c r="C158" s="62"/>
       <c r="D158" s="16" t="s">
         <v>188</v>
       </c>
@@ -4933,435 +4963,513 @@
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
-      <c r="H158" s="111"/>
-      <c r="I158" s="61"/>
+      <c r="H158" s="83"/>
+      <c r="I158" s="88"/>
     </row>
     <row r="159" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="71"/>
-      <c r="B159" s="57"/>
-      <c r="C159" s="54"/>
+      <c r="A159" s="56"/>
+      <c r="B159" s="50"/>
+      <c r="C159" s="52"/>
       <c r="D159" s="15" t="s">
         <v>220</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
-      <c r="H159" s="111"/>
-      <c r="I159" s="61"/>
+      <c r="H159" s="84"/>
+      <c r="I159" s="88"/>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="B160" s="108" t="s">
+      <c r="A160" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="B160" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="C160" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="D160" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="C160" s="109" t="s">
-        <v>236</v>
-      </c>
-      <c r="D160" s="76" t="s">
-        <v>238</v>
-      </c>
-      <c r="E160" s="75" t="s">
+      <c r="E160" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="F160" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G160" s="75"/>
-      <c r="H160" s="110" t="s">
-        <v>308</v>
-      </c>
-      <c r="I160" s="98"/>
+      <c r="F160" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="G160" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="H160" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I160" s="85" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="50"/>
-      <c r="B161" s="91"/>
-      <c r="C161" s="92"/>
-      <c r="D161" s="83" t="s">
-        <v>237</v>
-      </c>
-      <c r="E161" s="107"/>
-      <c r="F161" s="83"/>
-      <c r="G161" s="83"/>
-      <c r="H161" s="112"/>
-      <c r="I161" s="100"/>
+      <c r="A161" s="44"/>
+      <c r="B161" s="47"/>
+      <c r="C161" s="49"/>
+      <c r="D161" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="E161" s="42"/>
+      <c r="F161" s="36"/>
+      <c r="G161" s="36"/>
+      <c r="H161" s="84"/>
+      <c r="I161" s="87"/>
     </row>
     <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="50"/>
-      <c r="B162" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="C162" s="54" t="s">
-        <v>235</v>
+      <c r="A162" s="44"/>
+      <c r="B162" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="C162" s="52" t="s">
+        <v>303</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>185</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G162" s="18"/>
-      <c r="H162" s="113" t="s">
-        <v>308</v>
-      </c>
-      <c r="I162" s="69"/>
+        <v>305</v>
+      </c>
+      <c r="G162" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="H162" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I162" s="100" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="51"/>
-      <c r="B163" s="60"/>
-      <c r="C163" s="63"/>
-      <c r="D163" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="E163" s="26"/>
+      <c r="A163" s="45"/>
+      <c r="B163" s="51"/>
+      <c r="C163" s="53"/>
+      <c r="D163" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="E163" s="25"/>
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
-      <c r="H163" s="114"/>
-      <c r="I163" s="70"/>
+      <c r="H163" s="90"/>
+      <c r="I163" s="102"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="49" t="s">
-        <v>239</v>
-      </c>
-      <c r="B164" s="108" t="s">
+      <c r="A164" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="B164" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="C164" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="D164" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="E164" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F164" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="G164" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H164" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I164" s="85" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="44"/>
+      <c r="B165" s="47"/>
+      <c r="C165" s="49"/>
+      <c r="D165" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="E165" s="42"/>
+      <c r="F165" s="36"/>
+      <c r="G165" s="36"/>
+      <c r="H165" s="84"/>
+      <c r="I165" s="87"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="44"/>
+      <c r="B166" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="C166" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="D166" s="19" t="s">
         <v>240</v>
-      </c>
-      <c r="C164" s="109" t="s">
-        <v>243</v>
-      </c>
-      <c r="D164" s="76" t="s">
-        <v>246</v>
-      </c>
-      <c r="E164" s="75" t="s">
-        <v>186</v>
-      </c>
-      <c r="F164" s="75" t="s">
-        <v>249</v>
-      </c>
-      <c r="G164" s="75"/>
-      <c r="H164" s="110" t="s">
-        <v>308</v>
-      </c>
-      <c r="I164" s="98"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="50"/>
-      <c r="B165" s="91"/>
-      <c r="C165" s="92"/>
-      <c r="D165" s="83" t="s">
-        <v>247</v>
-      </c>
-      <c r="E165" s="107"/>
-      <c r="F165" s="83"/>
-      <c r="G165" s="83"/>
-      <c r="H165" s="112"/>
-      <c r="I165" s="100"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="50"/>
-      <c r="B166" s="57" t="s">
-        <v>241</v>
-      </c>
-      <c r="C166" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="D166" s="19" t="s">
-        <v>245</v>
       </c>
       <c r="E166" s="18" t="s">
         <v>202</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="G166" s="18"/>
-      <c r="H166" s="111" t="s">
-        <v>308</v>
-      </c>
-      <c r="I166" s="69"/>
+        <v>243</v>
+      </c>
+      <c r="G166" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="H166" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I166" s="100" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="167" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="51"/>
-      <c r="B167" s="60"/>
-      <c r="C167" s="63"/>
-      <c r="D167" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="E167" s="26"/>
+      <c r="A167" s="45"/>
+      <c r="B167" s="51"/>
+      <c r="C167" s="53"/>
+      <c r="D167" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="E167" s="25"/>
       <c r="F167" s="13"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="112"/>
-      <c r="I167" s="70"/>
+      <c r="H167" s="90"/>
+      <c r="I167" s="102"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="49" t="s">
+      <c r="A168" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="B168" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="C168" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="D168" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="E168" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F168" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="G168" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="H168" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I168" s="85" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="44"/>
+      <c r="B169" s="47"/>
+      <c r="C169" s="49"/>
+      <c r="D169" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="B168" s="108" t="s">
-        <v>251</v>
-      </c>
-      <c r="C168" s="109" t="s">
-        <v>253</v>
-      </c>
-      <c r="D168" s="76" t="s">
-        <v>246</v>
-      </c>
-      <c r="E168" s="75" t="s">
-        <v>186</v>
-      </c>
-      <c r="F168" s="75" t="s">
-        <v>256</v>
-      </c>
-      <c r="G168" s="75"/>
-      <c r="H168" s="110" t="s">
-        <v>308</v>
-      </c>
-      <c r="I168" s="98"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="50"/>
-      <c r="B169" s="91"/>
-      <c r="C169" s="92"/>
-      <c r="D169" s="83" t="s">
-        <v>255</v>
-      </c>
-      <c r="E169" s="107"/>
-      <c r="F169" s="83"/>
-      <c r="G169" s="83"/>
-      <c r="H169" s="112"/>
-      <c r="I169" s="100"/>
+      <c r="E169" s="42"/>
+      <c r="F169" s="36"/>
+      <c r="G169" s="36"/>
+      <c r="H169" s="84"/>
+      <c r="I169" s="87"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="50"/>
-      <c r="B170" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C170" s="54" t="s">
-        <v>254</v>
+      <c r="A170" s="44"/>
+      <c r="B170" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="C170" s="52" t="s">
+        <v>249</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>202</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="G170" s="18"/>
-      <c r="H170" s="111" t="s">
-        <v>308</v>
-      </c>
-      <c r="I170" s="69"/>
+        <v>252</v>
+      </c>
+      <c r="G170" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="H170" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I170" s="100" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="171" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="51"/>
-      <c r="B171" s="60"/>
-      <c r="C171" s="63"/>
-      <c r="D171" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="E171" s="26"/>
+      <c r="A171" s="45"/>
+      <c r="B171" s="51"/>
+      <c r="C171" s="53"/>
+      <c r="D171" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E171" s="25"/>
       <c r="F171" s="13"/>
       <c r="G171" s="13"/>
-      <c r="H171" s="112"/>
-      <c r="I171" s="70"/>
+      <c r="H171" s="90"/>
+      <c r="I171" s="102"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="B172" s="108" t="s">
-        <v>268</v>
-      </c>
-      <c r="C172" s="109" t="s">
+      <c r="A172" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="B172" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="C172" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="D172" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="E172" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F172" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G172" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="H172" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I172" s="85" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="44"/>
+      <c r="B173" s="47"/>
+      <c r="C173" s="49"/>
+      <c r="D173" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="D172" s="76" t="s">
-        <v>261</v>
-      </c>
-      <c r="E172" s="75" t="s">
+      <c r="E173" s="42"/>
+      <c r="F173" s="36"/>
+      <c r="G173" s="36"/>
+      <c r="H173" s="84"/>
+      <c r="I173" s="87"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="44"/>
+      <c r="B174" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="F172" s="75" t="s">
-        <v>265</v>
-      </c>
-      <c r="G172" s="75"/>
-      <c r="H172" s="110" t="s">
-        <v>308</v>
-      </c>
-      <c r="I172" s="98"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="50"/>
-      <c r="B173" s="91"/>
-      <c r="C173" s="92"/>
-      <c r="D173" s="83" t="s">
-        <v>264</v>
-      </c>
-      <c r="E173" s="107"/>
-      <c r="F173" s="83"/>
-      <c r="G173" s="83"/>
-      <c r="H173" s="112"/>
-      <c r="I173" s="100"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="50"/>
-      <c r="B174" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="C174" s="54" t="s">
-        <v>259</v>
+      <c r="C174" s="52" t="s">
+        <v>314</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E174" s="18" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="G174" s="18"/>
-      <c r="H174" s="111" t="s">
-        <v>308</v>
-      </c>
-      <c r="I174" s="69"/>
+        <v>315</v>
+      </c>
+      <c r="G174" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="H174" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I174" s="100" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="175" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="51"/>
-      <c r="B175" s="60"/>
-      <c r="C175" s="63"/>
-      <c r="D175" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="E175" s="26"/>
+      <c r="A175" s="45"/>
+      <c r="B175" s="51"/>
+      <c r="C175" s="53"/>
+      <c r="D175" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="E175" s="25"/>
       <c r="F175" s="13"/>
       <c r="G175" s="13"/>
-      <c r="H175" s="112"/>
-      <c r="I175" s="70"/>
+      <c r="H175" s="90"/>
+      <c r="I175" s="102"/>
     </row>
     <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="49" t="s">
-        <v>270</v>
-      </c>
-      <c r="B176" s="108" t="s">
-        <v>271</v>
-      </c>
-      <c r="C176" s="109" t="s">
-        <v>273</v>
-      </c>
-      <c r="D176" s="76" t="s">
-        <v>246</v>
-      </c>
-      <c r="E176" s="75" t="s">
+      <c r="A176" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="B176" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="C176" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D176" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="E176" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="F176" s="75" t="s">
-        <v>277</v>
-      </c>
-      <c r="G176" s="75"/>
-      <c r="H176" s="110" t="s">
-        <v>308</v>
-      </c>
-      <c r="I176" s="98"/>
+      <c r="F176" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="G176" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="H176" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I176" s="85" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="50"/>
-      <c r="B177" s="91"/>
-      <c r="C177" s="92"/>
-      <c r="D177" s="83" t="s">
-        <v>275</v>
-      </c>
-      <c r="E177" s="107"/>
-      <c r="F177" s="83"/>
-      <c r="G177" s="83"/>
-      <c r="H177" s="112"/>
-      <c r="I177" s="100"/>
+      <c r="A177" s="44"/>
+      <c r="B177" s="47"/>
+      <c r="C177" s="49"/>
+      <c r="D177" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="E177" s="42"/>
+      <c r="F177" s="36"/>
+      <c r="G177" s="36"/>
+      <c r="H177" s="84"/>
+      <c r="I177" s="87"/>
     </row>
     <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="50"/>
-      <c r="B178" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="C178" s="54" t="s">
-        <v>274</v>
+      <c r="A178" s="44"/>
+      <c r="B178" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="C178" s="52" t="s">
+        <v>267</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E178" s="18" t="s">
         <v>202</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="G178" s="18"/>
-      <c r="H178" s="113" t="s">
-        <v>308</v>
-      </c>
-      <c r="I178" s="69"/>
+        <v>317</v>
+      </c>
+      <c r="G178" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="H178" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I178" s="100" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="179" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="51"/>
-      <c r="B179" s="60"/>
-      <c r="C179" s="63"/>
-      <c r="D179" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="E179" s="26"/>
+      <c r="A179" s="45"/>
+      <c r="B179" s="51"/>
+      <c r="C179" s="53"/>
+      <c r="D179" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="E179" s="25"/>
       <c r="F179" s="13"/>
       <c r="G179" s="13"/>
-      <c r="H179" s="114"/>
-      <c r="I179" s="70"/>
+      <c r="H179" s="90"/>
+      <c r="I179" s="102"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="30"/>
-      <c r="B180" s="30"/>
-      <c r="C180" s="31"/>
-      <c r="D180" s="17"/>
-      <c r="E180" s="17"/>
-      <c r="F180" s="17"/>
-      <c r="G180" s="17"/>
-      <c r="H180" s="24"/>
-      <c r="I180" s="24"/>
+      <c r="A180" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="B180" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="C180" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="D180" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="E180" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="F180" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G180" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H180" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I180" s="85" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="30"/>
-      <c r="B181" s="30"/>
-      <c r="C181" s="31"/>
-      <c r="D181" s="17"/>
-      <c r="E181" s="20"/>
-      <c r="F181" s="20"/>
-      <c r="G181" s="20"/>
-      <c r="H181" s="24"/>
-      <c r="I181" s="24"/>
+      <c r="A181" s="44"/>
+      <c r="B181" s="47"/>
+      <c r="C181" s="49"/>
+      <c r="D181" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="E181" s="42"/>
+      <c r="F181" s="36"/>
+      <c r="G181" s="36"/>
+      <c r="H181" s="84"/>
+      <c r="I181" s="87"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="30"/>
-      <c r="B182" s="30"/>
-      <c r="C182" s="31"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="17"/>
-      <c r="F182" s="17"/>
-      <c r="G182" s="17"/>
-      <c r="H182" s="24"/>
-      <c r="I182" s="24"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="30"/>
-      <c r="B183" s="30"/>
-      <c r="C183" s="31"/>
-      <c r="D183" s="17"/>
-      <c r="E183" s="20"/>
-      <c r="F183" s="20"/>
-      <c r="G183" s="20"/>
-      <c r="H183" s="24"/>
-      <c r="I183" s="24"/>
+      <c r="A182" s="44"/>
+      <c r="B182" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="C182" s="52" t="s">
+        <v>311</v>
+      </c>
+      <c r="D182" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="E182" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F182" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G182" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H182" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I182" s="100" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="45"/>
+      <c r="B183" s="51"/>
+      <c r="C183" s="53"/>
+      <c r="D183" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="E183" s="25"/>
+      <c r="F183" s="13"/>
+      <c r="G183" s="13"/>
+      <c r="H183" s="90"/>
+      <c r="I183" s="102"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B184" s="20"/>
@@ -5374,70 +5482,187 @@
       <c r="I184" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="258">
-    <mergeCell ref="A176:A179"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="H176:H177"/>
-    <mergeCell ref="I176:I177"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="H178:H179"/>
-    <mergeCell ref="I178:I179"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="H172:H173"/>
-    <mergeCell ref="I172:I173"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="H174:H175"/>
-    <mergeCell ref="I174:I175"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="H166:H167"/>
-    <mergeCell ref="I166:I167"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="H168:H169"/>
-    <mergeCell ref="I168:I169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="H164:H165"/>
-    <mergeCell ref="I164:I165"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="A160:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="H160:H161"/>
-    <mergeCell ref="I160:I161"/>
-    <mergeCell ref="I162:I163"/>
-    <mergeCell ref="H162:H163"/>
-    <mergeCell ref="A154:A159"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="H154:H156"/>
-    <mergeCell ref="I154:I156"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="H157:H159"/>
-    <mergeCell ref="I157:I159"/>
-    <mergeCell ref="A148:A153"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="H148:H150"/>
-    <mergeCell ref="I148:I150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="H151:H153"/>
-    <mergeCell ref="I151:I153"/>
+  <mergeCells count="267">
+    <mergeCell ref="A180:A183"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="H180:H181"/>
+    <mergeCell ref="I180:I181"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="H182:H183"/>
+    <mergeCell ref="I182:I183"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="H116:H118"/>
+    <mergeCell ref="I116:I118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="H119:H121"/>
+    <mergeCell ref="I119:I121"/>
+    <mergeCell ref="A110:A115"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="H110:H112"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="H113:H115"/>
+    <mergeCell ref="I113:I115"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="H107:H109"/>
+    <mergeCell ref="I107:I109"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="H98:H100"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="I101:I103"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="H132:H136"/>
+    <mergeCell ref="I132:I136"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
     <mergeCell ref="B137:B141"/>
     <mergeCell ref="C137:C141"/>
     <mergeCell ref="H137:H141"/>
@@ -5462,177 +5687,69 @@
     <mergeCell ref="I127:I131"/>
     <mergeCell ref="B132:B136"/>
     <mergeCell ref="C132:C136"/>
-    <mergeCell ref="H132:H136"/>
-    <mergeCell ref="I132:I136"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="I74:I76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="H77:H79"/>
-    <mergeCell ref="I77:I79"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="I95:I97"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="H98:H100"/>
-    <mergeCell ref="I98:I100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="H101:H103"/>
-    <mergeCell ref="I101:I103"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="I104:I106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="H107:H109"/>
-    <mergeCell ref="I107:I109"/>
-    <mergeCell ref="A110:A115"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="H110:H112"/>
-    <mergeCell ref="I110:I112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="H113:H115"/>
-    <mergeCell ref="I113:I115"/>
-    <mergeCell ref="A116:A121"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="H116:H118"/>
-    <mergeCell ref="I116:I118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="H119:H121"/>
-    <mergeCell ref="I119:I121"/>
+    <mergeCell ref="A148:A153"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="H148:H150"/>
+    <mergeCell ref="I148:I150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="H151:H153"/>
+    <mergeCell ref="I151:I153"/>
+    <mergeCell ref="A154:A159"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="H154:H156"/>
+    <mergeCell ref="I154:I156"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="H157:H159"/>
+    <mergeCell ref="I157:I159"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="H160:H161"/>
+    <mergeCell ref="I160:I161"/>
+    <mergeCell ref="I162:I163"/>
+    <mergeCell ref="H162:H163"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="I166:I167"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="H168:H169"/>
+    <mergeCell ref="I168:I169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="H164:H165"/>
+    <mergeCell ref="I164:I165"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="H172:H173"/>
+    <mergeCell ref="I172:I173"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="H174:H175"/>
+    <mergeCell ref="I174:I175"/>
+    <mergeCell ref="A176:A179"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="H176:H177"/>
+    <mergeCell ref="I176:I177"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="H178:H179"/>
+    <mergeCell ref="I178:I179"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentation/Test Cases.xlsx
+++ b/Documentation/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010377\Documents\GitHub\axi2spi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7FA121-44D2-4DCD-B674-9040FB4DF52E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5EC269-5E2E-41F2-941D-E63811FD8FD3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AXI" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="355">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -985,6 +985,114 @@
   </si>
   <si>
     <t>8d8b3cc</t>
+  </si>
+  <si>
+    <t>SPI_BRG_01_1</t>
+  </si>
+  <si>
+    <t>SPI_BRG_01</t>
+  </si>
+  <si>
+    <t>SCK_O shall be set to the clock signal S_AXI_ACLK when C_SCK_RATIO = 1.</t>
+  </si>
+  <si>
+    <t>1. Instantiate BRG module with C_SCK_RATIO = 1.</t>
+  </si>
+  <si>
+    <t>2. Set resetn to logic high.</t>
+  </si>
+  <si>
+    <t>3. Emulate the S_AXI_ACLK with period of 1ns.</t>
+  </si>
+  <si>
+    <t>4. Verify that the SCK_O generated has period of 1ns.</t>
+  </si>
+  <si>
+    <t>resetn = '1'</t>
+  </si>
+  <si>
+    <t>S_AXI_ACLK = CLK(period:1ns)</t>
+  </si>
+  <si>
+    <t>SCK_O = CLK(period:1ns)</t>
+  </si>
+  <si>
+    <t>SPI_BRG_01_2</t>
+  </si>
+  <si>
+    <t>SCK_O shall be set to the clock signal S_AXI_ACLK with double the period when C_SCK_RATIO = 2.</t>
+  </si>
+  <si>
+    <t>4. Verify that the SCK_O generated has period of 2ns.</t>
+  </si>
+  <si>
+    <t>SCK_O = CLK(period:2ns)</t>
+  </si>
+  <si>
+    <t>SPI_BRG_01_3</t>
+  </si>
+  <si>
+    <t>SCK_O shall be set to the clock signal S_AXI_ACLK with four times the period when C_SCK_RATIO = 4.</t>
+  </si>
+  <si>
+    <t>4. Verify that the SCK_O generated has period of 4ns.</t>
+  </si>
+  <si>
+    <t>SCK_O = CLK(period:4ns)</t>
+  </si>
+  <si>
+    <t>SCK_O shall be set to the clock signal S_AXI_ACLK with eight times the period when C_SCK_RATIO = 8.</t>
+  </si>
+  <si>
+    <t>SPI_BRG_01_4</t>
+  </si>
+  <si>
+    <t>1. Instantiate BRG module with C_SCK_RATIO = 2.</t>
+  </si>
+  <si>
+    <t>1. Instantiate BRG module with C_SCK_RATIO = 4.</t>
+  </si>
+  <si>
+    <t>1. Instantiate BRG module with C_SCK_RATIO = 8.</t>
+  </si>
+  <si>
+    <t>4. Verify that the SCK_O generated has period of 8ns.</t>
+  </si>
+  <si>
+    <t>SCK_O = CLK(period:8ns)</t>
+  </si>
+  <si>
+    <t>SPI_BRG_01_5</t>
+  </si>
+  <si>
+    <t>SPI_BRG_01_6</t>
+  </si>
+  <si>
+    <t>SCK_O shall be set to the clock signal S_AXI_ACLK with eight times the period when C_SCK_RATIO = 16.</t>
+  </si>
+  <si>
+    <t>SCK_O shall be set to the clock signal S_AXI_ACLK with n*16 times the period when C_SCK_RATIO = n*16.</t>
+  </si>
+  <si>
+    <t>1. Instantiate BRG module with C_SCK_RATIO = 32.</t>
+  </si>
+  <si>
+    <t>1. Instantiate BRG module with C_SCK_RATIO = 16.</t>
+  </si>
+  <si>
+    <t>4. Verify that the SCK_O generated has period of 32ns.</t>
+  </si>
+  <si>
+    <t>4. Verify that the SCK_O generated has period of 16ns.</t>
+  </si>
+  <si>
+    <t>SCK_O = CLK(period:16ns)</t>
+  </si>
+  <si>
+    <t>SCK_O = CLK(period:32ns)</t>
+  </si>
+  <si>
+    <t>02d937e</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1019,8 +1127,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1516,11 +1630,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1589,6 +1712,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1601,151 +1736,199 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2030,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G189" sqref="G189"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2079,10 +2262,10 @@
       <c r="A2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="93" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="29" t="s">
@@ -2097,17 +2280,17 @@
       <c r="G2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="74" t="s">
-        <v>296</v>
-      </c>
-      <c r="I2" s="76" t="s">
+      <c r="H2" s="95" t="s">
+        <v>296</v>
+      </c>
+      <c r="I2" s="96" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="72"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="94"/>
       <c r="D3" s="32" t="s">
         <v>22</v>
       </c>
@@ -2120,41 +2303,41 @@
       <c r="G3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="77"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="83"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="72"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="32" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="77"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="83"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="72"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="94"/>
       <c r="D5" s="35" t="s">
         <v>295</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="77"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="83"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="56" t="s">
         <v>270</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -2169,17 +2352,17 @@
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="I6" s="78" t="s">
+      <c r="H6" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I6" s="79" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="70"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="90"/>
       <c r="D7" s="10" t="s">
         <v>22</v>
       </c>
@@ -2192,41 +2375,41 @@
       <c r="G7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="78"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="79"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="70"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="78"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="7" t="s">
         <v>295</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="78"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="79"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="84" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="38" t="s">
@@ -2241,17 +2424,17 @@
       <c r="G10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="I10" s="77" t="s">
+      <c r="H10" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I10" s="83" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="33" t="s">
         <v>22</v>
       </c>
@@ -2264,21 +2447,21 @@
       <c r="G11" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="77"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="83"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="69"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="77"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="83"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
@@ -2290,15 +2473,15 @@
       <c r="E13" s="36"/>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="77"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="56" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -2313,17 +2496,17 @@
       <c r="G14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="I14" s="78" t="s">
+      <c r="H14" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I14" s="79" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="70"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
@@ -2336,41 +2519,41 @@
       <c r="G15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="78"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="79"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="70"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="5" t="s">
         <v>294</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="78"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="79"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="7" t="s">
         <v>295</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="78"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="79"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="84" t="s">
         <v>271</v>
       </c>
       <c r="D18" s="38" t="s">
@@ -2385,17 +2568,17 @@
       <c r="G18" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="I18" s="77" t="s">
+      <c r="H18" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I18" s="83" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="33" t="s">
         <v>29</v>
       </c>
@@ -2408,21 +2591,21 @@
       <c r="G19" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="75"/>
-      <c r="I19" s="77"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="83"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="33" t="s">
         <v>294</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="77"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="83"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
@@ -2434,15 +2617,15 @@
       <c r="E21" s="36"/>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="77"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="83"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="56" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -2457,17 +2640,17 @@
       <c r="G22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="91" t="s">
-        <v>296</v>
-      </c>
-      <c r="I22" s="93" t="s">
+      <c r="H22" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="I22" s="78" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="70"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="10" t="s">
         <v>29</v>
       </c>
@@ -2480,43 +2663,43 @@
       <c r="G23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="92"/>
-      <c r="I23" s="78"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="79"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="70"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="90"/>
       <c r="D24" s="10" t="s">
         <v>294</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="78"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="79"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="53"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="7" t="s">
         <v>295</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="78"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="79"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="79" t="s">
+      <c r="A26" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="80" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="30" t="s">
@@ -2531,17 +2714,17 @@
       <c r="G26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I26" s="85" t="s">
+      <c r="H26" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I26" s="52" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="60"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="81"/>
       <c r="D27" s="33" t="s">
         <v>29</v>
       </c>
@@ -2550,28 +2733,28 @@
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="86"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="70"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="80"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="60"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="81"/>
       <c r="D28" s="36" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="87"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="53"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="80"/>
-      <c r="B29" s="61" t="s">
+      <c r="A29" s="63"/>
+      <c r="B29" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="73" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -2586,17 +2769,17 @@
       <c r="G29" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I29" s="88" t="s">
+      <c r="H29" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I29" s="75" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="80"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="94"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="73"/>
       <c r="D30" s="10" t="s">
         <v>44</v>
       </c>
@@ -2605,30 +2788,30 @@
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="88"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="75"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="81"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="95"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="88"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="75"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="98" t="s">
+      <c r="C32" s="67" t="s">
         <v>54</v>
       </c>
       <c r="D32" s="30" t="s">
@@ -2643,17 +2826,17 @@
       <c r="G32" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I32" s="85" t="s">
+      <c r="H32" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I32" s="52" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="80"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="99"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="33" t="s">
         <v>29</v>
       </c>
@@ -2662,28 +2845,28 @@
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="86"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="70"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="80"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="99"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="36" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="87"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="53"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="80"/>
-      <c r="B35" s="61" t="s">
+      <c r="A35" s="63"/>
+      <c r="B35" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="94" t="s">
+      <c r="C35" s="73" t="s">
         <v>55</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -2698,17 +2881,17 @@
       <c r="G35" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I35" s="88" t="s">
+      <c r="H35" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I35" s="75" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="80"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="94"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="10" t="s">
         <v>58</v>
       </c>
@@ -2717,30 +2900,30 @@
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="88"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="75"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="81"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="95"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="88"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="75"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="79" t="s">
+      <c r="A38" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="98" t="s">
+      <c r="C38" s="67" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="30" t="s">
@@ -2755,17 +2938,17 @@
       <c r="G38" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I38" s="85" t="s">
+      <c r="H38" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I38" s="52" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="80"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="99"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="33" t="s">
         <v>22</v>
       </c>
@@ -2774,28 +2957,28 @@
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="86"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="70"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="80"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="99"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="36" t="s">
         <v>53</v>
       </c>
       <c r="E40" s="37"/>
       <c r="F40" s="36"/>
       <c r="G40" s="36"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="87"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="53"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="80"/>
-      <c r="B41" s="61" t="s">
+      <c r="A41" s="63"/>
+      <c r="B41" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="94" t="s">
+      <c r="C41" s="73" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="9" t="s">
@@ -2810,17 +2993,17 @@
       <c r="G41" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H41" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I41" s="88" t="s">
+      <c r="H41" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I41" s="75" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="80"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="94"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="10" t="s">
         <v>58</v>
       </c>
@@ -2829,30 +3012,30 @@
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="88"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="75"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="81"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="95"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="74"/>
       <c r="D43" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="88"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="75"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="79" t="s">
+      <c r="A44" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="98" t="s">
+      <c r="C44" s="67" t="s">
         <v>66</v>
       </c>
       <c r="D44" s="30" t="s">
@@ -2867,17 +3050,17 @@
       <c r="G44" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H44" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I44" s="85" t="s">
+      <c r="H44" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I44" s="52" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="80"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="99"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="33" t="s">
         <v>22</v>
       </c>
@@ -2886,28 +3069,28 @@
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="86"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="70"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="80"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="99"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="36" t="s">
         <v>69</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="36"/>
       <c r="G46" s="36"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="87"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="53"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="80"/>
-      <c r="B47" s="61" t="s">
+      <c r="A47" s="63"/>
+      <c r="B47" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="94" t="s">
+      <c r="C47" s="73" t="s">
         <v>67</v>
       </c>
       <c r="D47" s="9" t="s">
@@ -2922,17 +3105,17 @@
       <c r="G47" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H47" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I47" s="88" t="s">
+      <c r="H47" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I47" s="75" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="80"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="94"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="73"/>
       <c r="D48" s="10" t="s">
         <v>68</v>
       </c>
@@ -2941,30 +3124,30 @@
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="88"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="75"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="81"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="95"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="74"/>
       <c r="D49" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="88"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="75"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="79" t="s">
+      <c r="A50" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="98" t="s">
+      <c r="C50" s="67" t="s">
         <v>77</v>
       </c>
       <c r="D50" s="30" t="s">
@@ -2979,17 +3162,17 @@
       <c r="G50" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="H50" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I50" s="85" t="s">
+      <c r="H50" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I50" s="52" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="80"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="99"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="33" t="s">
         <v>29</v>
       </c>
@@ -2998,28 +3181,28 @@
       </c>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="86"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="70"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="80"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="99"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="36" t="s">
         <v>80</v>
       </c>
       <c r="E52" s="37"/>
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="87"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="53"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="80"/>
-      <c r="B53" s="61" t="s">
+      <c r="A53" s="63"/>
+      <c r="B53" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="94" t="s">
+      <c r="C53" s="73" t="s">
         <v>78</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -3034,17 +3217,17 @@
       <c r="G53" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H53" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I53" s="88" t="s">
+      <c r="H53" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I53" s="75" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="80"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="94"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="73"/>
       <c r="D54" s="10" t="s">
         <v>79</v>
       </c>
@@ -3053,30 +3236,30 @@
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="88"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="75"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="81"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="95"/>
+      <c r="A55" s="64"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="74"/>
       <c r="D55" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="88"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="75"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="79" t="s">
+      <c r="A56" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="98" t="s">
+      <c r="C56" s="67" t="s">
         <v>86</v>
       </c>
       <c r="D56" s="30" t="s">
@@ -3091,17 +3274,17 @@
       <c r="G56" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="H56" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I56" s="85" t="s">
+      <c r="H56" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I56" s="52" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="80"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="99"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="68"/>
       <c r="D57" s="33" t="s">
         <v>22</v>
       </c>
@@ -3110,28 +3293,28 @@
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="86"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="70"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="80"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="99"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="68"/>
       <c r="D58" s="36" t="s">
         <v>89</v>
       </c>
       <c r="E58" s="37"/>
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="87"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="53"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="80"/>
-      <c r="B59" s="61" t="s">
+      <c r="A59" s="63"/>
+      <c r="B59" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="94" t="s">
+      <c r="C59" s="73" t="s">
         <v>87</v>
       </c>
       <c r="D59" s="9" t="s">
@@ -3146,17 +3329,17 @@
       <c r="G59" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H59" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I59" s="88" t="s">
+      <c r="H59" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I59" s="75" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="80"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="94"/>
+      <c r="A60" s="63"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="73"/>
       <c r="D60" s="10" t="s">
         <v>90</v>
       </c>
@@ -3165,30 +3348,30 @@
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="88"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="75"/>
     </row>
     <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="81"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="95"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="90"/>
-      <c r="I61" s="88"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="75"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="79" t="s">
+      <c r="A62" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="98" t="s">
+      <c r="C62" s="67" t="s">
         <v>102</v>
       </c>
       <c r="D62" s="30" t="s">
@@ -3203,17 +3386,17 @@
       <c r="G62" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H62" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I62" s="85" t="s">
+      <c r="H62" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I62" s="52" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="80"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="99"/>
+      <c r="A63" s="63"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="68"/>
       <c r="D63" s="33" t="s">
         <v>29</v>
       </c>
@@ -3222,28 +3405,28 @@
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
-      <c r="H63" s="83"/>
-      <c r="I63" s="86"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="70"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="80"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="99"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="68"/>
       <c r="D64" s="36" t="s">
         <v>103</v>
       </c>
       <c r="E64" s="37"/>
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
-      <c r="H64" s="84"/>
-      <c r="I64" s="87"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="53"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="80"/>
-      <c r="B65" s="61" t="s">
+      <c r="A65" s="63"/>
+      <c r="B65" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="94" t="s">
+      <c r="C65" s="73" t="s">
         <v>101</v>
       </c>
       <c r="D65" s="9" t="s">
@@ -3258,17 +3441,17 @@
       <c r="G65" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H65" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I65" s="88" t="s">
+      <c r="H65" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I65" s="75" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="80"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="94"/>
+      <c r="A66" s="63"/>
+      <c r="B66" s="71"/>
+      <c r="C66" s="73"/>
       <c r="D66" s="10" t="s">
         <v>104</v>
       </c>
@@ -3277,30 +3460,30 @@
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="88"/>
+      <c r="H66" s="69"/>
+      <c r="I66" s="75"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="81"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="95"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="74"/>
       <c r="D67" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="90"/>
-      <c r="I67" s="88"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="75"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="79" t="s">
+      <c r="A68" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="98" t="s">
+      <c r="C68" s="67" t="s">
         <v>100</v>
       </c>
       <c r="D68" s="30" t="s">
@@ -3315,17 +3498,17 @@
       <c r="G68" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H68" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I68" s="85" t="s">
+      <c r="H68" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I68" s="52" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="80"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="99"/>
+      <c r="A69" s="63"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="68"/>
       <c r="D69" s="33" t="s">
         <v>22</v>
       </c>
@@ -3334,28 +3517,28 @@
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
-      <c r="H69" s="83"/>
-      <c r="I69" s="86"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="70"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="80"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="99"/>
+      <c r="A70" s="63"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="68"/>
       <c r="D70" s="36" t="s">
         <v>103</v>
       </c>
       <c r="E70" s="37"/>
       <c r="F70" s="36"/>
       <c r="G70" s="36"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="87"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="53"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="80"/>
-      <c r="B71" s="61" t="s">
+      <c r="A71" s="63"/>
+      <c r="B71" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="94" t="s">
+      <c r="C71" s="73" t="s">
         <v>99</v>
       </c>
       <c r="D71" s="9" t="s">
@@ -3370,17 +3553,17 @@
       <c r="G71" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H71" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I71" s="88" t="s">
+      <c r="H71" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I71" s="75" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="80"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="94"/>
+      <c r="A72" s="63"/>
+      <c r="B72" s="71"/>
+      <c r="C72" s="73"/>
       <c r="D72" s="10" t="s">
         <v>104</v>
       </c>
@@ -3389,30 +3572,30 @@
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
-      <c r="H72" s="83"/>
-      <c r="I72" s="88"/>
+      <c r="H72" s="69"/>
+      <c r="I72" s="75"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="81"/>
-      <c r="B73" s="64"/>
-      <c r="C73" s="95"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="72"/>
+      <c r="C73" s="74"/>
       <c r="D73" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
-      <c r="H73" s="90"/>
-      <c r="I73" s="88"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="75"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="79" t="s">
+      <c r="A74" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="57" t="s">
+      <c r="B74" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="C74" s="98" t="s">
+      <c r="C74" s="67" t="s">
         <v>111</v>
       </c>
       <c r="D74" s="30" t="s">
@@ -3427,17 +3610,17 @@
       <c r="G74" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="H74" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I74" s="85" t="s">
+      <c r="H74" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I74" s="52" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="80"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="99"/>
+      <c r="A75" s="63"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="68"/>
       <c r="D75" s="33" t="s">
         <v>22</v>
       </c>
@@ -3446,28 +3629,28 @@
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
-      <c r="H75" s="83"/>
-      <c r="I75" s="86"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="70"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="80"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="99"/>
+      <c r="A76" s="63"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="68"/>
       <c r="D76" s="36" t="s">
         <v>114</v>
       </c>
       <c r="E76" s="37"/>
       <c r="F76" s="36"/>
       <c r="G76" s="36"/>
-      <c r="H76" s="84"/>
-      <c r="I76" s="87"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="53"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="80"/>
-      <c r="B77" s="61" t="s">
+      <c r="A77" s="63"/>
+      <c r="B77" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="94" t="s">
+      <c r="C77" s="73" t="s">
         <v>110</v>
       </c>
       <c r="D77" s="9" t="s">
@@ -3482,17 +3665,17 @@
       <c r="G77" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H77" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I77" s="88" t="s">
+      <c r="H77" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I77" s="75" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="80"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="94"/>
+      <c r="A78" s="63"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="73"/>
       <c r="D78" s="10" t="s">
         <v>113</v>
       </c>
@@ -3501,30 +3684,30 @@
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
-      <c r="H78" s="83"/>
-      <c r="I78" s="88"/>
+      <c r="H78" s="69"/>
+      <c r="I78" s="75"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="81"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="95"/>
+      <c r="A79" s="64"/>
+      <c r="B79" s="72"/>
+      <c r="C79" s="74"/>
       <c r="D79" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
-      <c r="H79" s="90"/>
-      <c r="I79" s="88"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="75"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="79" t="s">
+      <c r="A80" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="57" t="s">
+      <c r="B80" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="C80" s="98" t="s">
+      <c r="C80" s="67" t="s">
         <v>123</v>
       </c>
       <c r="D80" s="30" t="s">
@@ -3539,17 +3722,17 @@
       <c r="G80" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="H80" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I80" s="85" t="s">
+      <c r="H80" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I80" s="52" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="80"/>
-      <c r="B81" s="58"/>
-      <c r="C81" s="99"/>
+      <c r="A81" s="63"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="68"/>
       <c r="D81" s="33" t="s">
         <v>22</v>
       </c>
@@ -3558,28 +3741,28 @@
       </c>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
-      <c r="H81" s="83"/>
-      <c r="I81" s="86"/>
+      <c r="H81" s="69"/>
+      <c r="I81" s="70"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="80"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="99"/>
+      <c r="A82" s="63"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="68"/>
       <c r="D82" s="36" t="s">
         <v>126</v>
       </c>
       <c r="E82" s="37"/>
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
-      <c r="H82" s="84"/>
-      <c r="I82" s="87"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="53"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="80"/>
-      <c r="B83" s="61" t="s">
+      <c r="A83" s="63"/>
+      <c r="B83" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="94" t="s">
+      <c r="C83" s="73" t="s">
         <v>122</v>
       </c>
       <c r="D83" s="9" t="s">
@@ -3594,17 +3777,17 @@
       <c r="G83" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H83" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I83" s="88" t="s">
+      <c r="H83" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I83" s="75" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="80"/>
-      <c r="B84" s="61"/>
-      <c r="C84" s="94"/>
+      <c r="A84" s="63"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="73"/>
       <c r="D84" s="10" t="s">
         <v>125</v>
       </c>
@@ -3613,30 +3796,30 @@
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
-      <c r="H84" s="83"/>
-      <c r="I84" s="88"/>
+      <c r="H84" s="69"/>
+      <c r="I84" s="75"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="81"/>
-      <c r="B85" s="64"/>
-      <c r="C85" s="95"/>
+      <c r="A85" s="64"/>
+      <c r="B85" s="72"/>
+      <c r="C85" s="74"/>
       <c r="D85" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="90"/>
-      <c r="I85" s="88"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="75"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="79" t="s">
+      <c r="A86" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="B86" s="57" t="s">
+      <c r="B86" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="98" t="s">
+      <c r="C86" s="67" t="s">
         <v>138</v>
       </c>
       <c r="D86" s="30" t="s">
@@ -3651,17 +3834,17 @@
       <c r="G86" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="H86" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I86" s="85" t="s">
+      <c r="H86" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I86" s="52" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="80"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="99"/>
+      <c r="A87" s="63"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="68"/>
       <c r="D87" s="33" t="s">
         <v>29</v>
       </c>
@@ -3670,28 +3853,28 @@
       </c>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
-      <c r="H87" s="83"/>
-      <c r="I87" s="86"/>
+      <c r="H87" s="69"/>
+      <c r="I87" s="70"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="80"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="99"/>
+      <c r="A88" s="63"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="68"/>
       <c r="D88" s="36" t="s">
         <v>139</v>
       </c>
       <c r="E88" s="37"/>
       <c r="F88" s="36"/>
       <c r="G88" s="36"/>
-      <c r="H88" s="84"/>
-      <c r="I88" s="87"/>
+      <c r="H88" s="51"/>
+      <c r="I88" s="53"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="80"/>
-      <c r="B89" s="61" t="s">
+      <c r="A89" s="63"/>
+      <c r="B89" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="C89" s="94" t="s">
+      <c r="C89" s="73" t="s">
         <v>137</v>
       </c>
       <c r="D89" s="9" t="s">
@@ -3706,17 +3889,17 @@
       <c r="G89" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H89" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I89" s="88" t="s">
+      <c r="H89" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I89" s="75" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="80"/>
-      <c r="B90" s="61"/>
-      <c r="C90" s="94"/>
+      <c r="A90" s="63"/>
+      <c r="B90" s="71"/>
+      <c r="C90" s="73"/>
       <c r="D90" s="10" t="s">
         <v>140</v>
       </c>
@@ -3725,30 +3908,30 @@
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
-      <c r="H90" s="83"/>
-      <c r="I90" s="88"/>
+      <c r="H90" s="69"/>
+      <c r="I90" s="75"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="81"/>
-      <c r="B91" s="64"/>
-      <c r="C91" s="95"/>
+      <c r="A91" s="64"/>
+      <c r="B91" s="72"/>
+      <c r="C91" s="74"/>
       <c r="D91" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E91" s="14"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="90"/>
-      <c r="I91" s="88"/>
+      <c r="H91" s="59"/>
+      <c r="I91" s="75"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="79" t="s">
+      <c r="A92" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="B92" s="57" t="s">
+      <c r="B92" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="98" t="s">
+      <c r="C92" s="67" t="s">
         <v>136</v>
       </c>
       <c r="D92" s="30" t="s">
@@ -3763,17 +3946,17 @@
       <c r="G92" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="H92" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I92" s="85" t="s">
+      <c r="H92" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I92" s="52" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="80"/>
-      <c r="B93" s="58"/>
-      <c r="C93" s="99"/>
+      <c r="A93" s="63"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="68"/>
       <c r="D93" s="33" t="s">
         <v>22</v>
       </c>
@@ -3782,28 +3965,28 @@
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
-      <c r="H93" s="83"/>
-      <c r="I93" s="86"/>
+      <c r="H93" s="69"/>
+      <c r="I93" s="70"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="80"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="99"/>
+      <c r="A94" s="63"/>
+      <c r="B94" s="66"/>
+      <c r="C94" s="68"/>
       <c r="D94" s="36" t="s">
         <v>139</v>
       </c>
       <c r="E94" s="37"/>
       <c r="F94" s="36"/>
       <c r="G94" s="36"/>
-      <c r="H94" s="84"/>
-      <c r="I94" s="87"/>
+      <c r="H94" s="51"/>
+      <c r="I94" s="53"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="80"/>
-      <c r="B95" s="61" t="s">
+      <c r="A95" s="63"/>
+      <c r="B95" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="C95" s="94" t="s">
+      <c r="C95" s="73" t="s">
         <v>135</v>
       </c>
       <c r="D95" s="9" t="s">
@@ -3818,17 +4001,17 @@
       <c r="G95" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H95" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I95" s="88" t="s">
+      <c r="H95" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I95" s="75" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="80"/>
-      <c r="B96" s="61"/>
-      <c r="C96" s="94"/>
+      <c r="A96" s="63"/>
+      <c r="B96" s="71"/>
+      <c r="C96" s="73"/>
       <c r="D96" s="10" t="s">
         <v>140</v>
       </c>
@@ -3837,30 +4020,30 @@
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
-      <c r="H96" s="83"/>
-      <c r="I96" s="88"/>
+      <c r="H96" s="69"/>
+      <c r="I96" s="75"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="81"/>
-      <c r="B97" s="64"/>
-      <c r="C97" s="95"/>
+      <c r="A97" s="64"/>
+      <c r="B97" s="72"/>
+      <c r="C97" s="74"/>
       <c r="D97" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E97" s="14"/>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
-      <c r="H97" s="90"/>
-      <c r="I97" s="88"/>
+      <c r="H97" s="59"/>
+      <c r="I97" s="75"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="79" t="s">
+      <c r="A98" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="B98" s="57" t="s">
+      <c r="B98" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="C98" s="98" t="s">
+      <c r="C98" s="67" t="s">
         <v>152</v>
       </c>
       <c r="D98" s="30" t="s">
@@ -3875,17 +4058,17 @@
       <c r="G98" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="H98" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I98" s="85" t="s">
+      <c r="H98" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I98" s="52" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="80"/>
-      <c r="B99" s="58"/>
-      <c r="C99" s="99"/>
+      <c r="A99" s="63"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="68"/>
       <c r="D99" s="33" t="s">
         <v>29</v>
       </c>
@@ -3894,28 +4077,28 @@
       </c>
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
-      <c r="H99" s="83"/>
-      <c r="I99" s="86"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="70"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="80"/>
-      <c r="B100" s="58"/>
-      <c r="C100" s="99"/>
+      <c r="A100" s="63"/>
+      <c r="B100" s="66"/>
+      <c r="C100" s="68"/>
       <c r="D100" s="36" t="s">
         <v>150</v>
       </c>
       <c r="E100" s="37"/>
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
-      <c r="H100" s="84"/>
-      <c r="I100" s="87"/>
+      <c r="H100" s="51"/>
+      <c r="I100" s="53"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="80"/>
-      <c r="B101" s="61" t="s">
+      <c r="A101" s="63"/>
+      <c r="B101" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="C101" s="94" t="s">
+      <c r="C101" s="73" t="s">
         <v>153</v>
       </c>
       <c r="D101" s="9" t="s">
@@ -3930,17 +4113,17 @@
       <c r="G101" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H101" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I101" s="88" t="s">
+      <c r="H101" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I101" s="75" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="80"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="94"/>
+      <c r="A102" s="63"/>
+      <c r="B102" s="71"/>
+      <c r="C102" s="73"/>
       <c r="D102" s="10" t="s">
         <v>151</v>
       </c>
@@ -3949,30 +4132,30 @@
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
-      <c r="H102" s="83"/>
-      <c r="I102" s="88"/>
+      <c r="H102" s="69"/>
+      <c r="I102" s="75"/>
     </row>
     <row r="103" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="81"/>
-      <c r="B103" s="64"/>
-      <c r="C103" s="95"/>
+      <c r="A103" s="64"/>
+      <c r="B103" s="72"/>
+      <c r="C103" s="74"/>
       <c r="D103" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E103" s="14"/>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
-      <c r="H103" s="90"/>
-      <c r="I103" s="88"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="75"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="79" t="s">
+      <c r="A104" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="B104" s="57" t="s">
+      <c r="B104" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="C104" s="98" t="s">
+      <c r="C104" s="67" t="s">
         <v>154</v>
       </c>
       <c r="D104" s="30" t="s">
@@ -3987,17 +4170,17 @@
       <c r="G104" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="H104" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I104" s="85" t="s">
+      <c r="H104" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I104" s="52" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="80"/>
-      <c r="B105" s="58"/>
-      <c r="C105" s="99"/>
+      <c r="A105" s="63"/>
+      <c r="B105" s="66"/>
+      <c r="C105" s="68"/>
       <c r="D105" s="33" t="s">
         <v>22</v>
       </c>
@@ -4006,28 +4189,28 @@
       </c>
       <c r="F105" s="33"/>
       <c r="G105" s="33"/>
-      <c r="H105" s="83"/>
-      <c r="I105" s="86"/>
+      <c r="H105" s="69"/>
+      <c r="I105" s="70"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="80"/>
-      <c r="B106" s="58"/>
-      <c r="C106" s="99"/>
+      <c r="A106" s="63"/>
+      <c r="B106" s="66"/>
+      <c r="C106" s="68"/>
       <c r="D106" s="36" t="s">
         <v>150</v>
       </c>
       <c r="E106" s="37"/>
       <c r="F106" s="36"/>
       <c r="G106" s="36"/>
-      <c r="H106" s="84"/>
-      <c r="I106" s="87"/>
+      <c r="H106" s="51"/>
+      <c r="I106" s="53"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="80"/>
-      <c r="B107" s="61" t="s">
+      <c r="A107" s="63"/>
+      <c r="B107" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="C107" s="94" t="s">
+      <c r="C107" s="73" t="s">
         <v>155</v>
       </c>
       <c r="D107" s="9" t="s">
@@ -4042,17 +4225,17 @@
       <c r="G107" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H107" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I107" s="88" t="s">
+      <c r="H107" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I107" s="75" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="80"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="94"/>
+      <c r="A108" s="63"/>
+      <c r="B108" s="71"/>
+      <c r="C108" s="73"/>
       <c r="D108" s="10" t="s">
         <v>149</v>
       </c>
@@ -4061,30 +4244,30 @@
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
-      <c r="H108" s="83"/>
-      <c r="I108" s="88"/>
+      <c r="H108" s="69"/>
+      <c r="I108" s="75"/>
     </row>
     <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="81"/>
-      <c r="B109" s="64"/>
-      <c r="C109" s="95"/>
+      <c r="A109" s="64"/>
+      <c r="B109" s="72"/>
+      <c r="C109" s="74"/>
       <c r="D109" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E109" s="14"/>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
-      <c r="H109" s="90"/>
-      <c r="I109" s="88"/>
+      <c r="H109" s="59"/>
+      <c r="I109" s="75"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="79" t="s">
+      <c r="A110" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="B110" s="57" t="s">
+      <c r="B110" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="C110" s="98" t="s">
+      <c r="C110" s="67" t="s">
         <v>174</v>
       </c>
       <c r="D110" s="30" t="s">
@@ -4099,17 +4282,17 @@
       <c r="G110" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="H110" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I110" s="85" t="s">
+      <c r="H110" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I110" s="52" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="80"/>
-      <c r="B111" s="58"/>
-      <c r="C111" s="99"/>
+      <c r="A111" s="63"/>
+      <c r="B111" s="66"/>
+      <c r="C111" s="68"/>
       <c r="D111" s="33" t="s">
         <v>29</v>
       </c>
@@ -4118,28 +4301,28 @@
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
-      <c r="H111" s="83"/>
-      <c r="I111" s="86"/>
+      <c r="H111" s="69"/>
+      <c r="I111" s="70"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="80"/>
-      <c r="B112" s="58"/>
-      <c r="C112" s="99"/>
+      <c r="A112" s="63"/>
+      <c r="B112" s="66"/>
+      <c r="C112" s="68"/>
       <c r="D112" s="36" t="s">
         <v>169</v>
       </c>
       <c r="E112" s="37"/>
       <c r="F112" s="36"/>
       <c r="G112" s="36"/>
-      <c r="H112" s="84"/>
-      <c r="I112" s="87"/>
+      <c r="H112" s="51"/>
+      <c r="I112" s="53"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="80"/>
-      <c r="B113" s="61" t="s">
+      <c r="A113" s="63"/>
+      <c r="B113" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="C113" s="94" t="s">
+      <c r="C113" s="73" t="s">
         <v>173</v>
       </c>
       <c r="D113" s="9" t="s">
@@ -4154,17 +4337,17 @@
       <c r="G113" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="H113" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I113" s="88" t="s">
+      <c r="H113" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I113" s="75" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="80"/>
-      <c r="B114" s="61"/>
-      <c r="C114" s="94"/>
+      <c r="A114" s="63"/>
+      <c r="B114" s="71"/>
+      <c r="C114" s="73"/>
       <c r="D114" s="10" t="s">
         <v>170</v>
       </c>
@@ -4173,30 +4356,30 @@
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
-      <c r="H114" s="83"/>
-      <c r="I114" s="88"/>
+      <c r="H114" s="69"/>
+      <c r="I114" s="75"/>
     </row>
     <row r="115" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="81"/>
-      <c r="B115" s="64"/>
-      <c r="C115" s="95"/>
+      <c r="A115" s="64"/>
+      <c r="B115" s="72"/>
+      <c r="C115" s="74"/>
       <c r="D115" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E115" s="14"/>
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
-      <c r="H115" s="90"/>
-      <c r="I115" s="88"/>
+      <c r="H115" s="59"/>
+      <c r="I115" s="75"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="79" t="s">
+      <c r="A116" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="B116" s="57" t="s">
+      <c r="B116" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="C116" s="98" t="s">
+      <c r="C116" s="67" t="s">
         <v>172</v>
       </c>
       <c r="D116" s="30" t="s">
@@ -4211,17 +4394,17 @@
       <c r="G116" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="H116" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I116" s="85" t="s">
+      <c r="H116" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I116" s="52" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="80"/>
-      <c r="B117" s="58"/>
-      <c r="C117" s="99"/>
+      <c r="A117" s="63"/>
+      <c r="B117" s="66"/>
+      <c r="C117" s="68"/>
       <c r="D117" s="33" t="s">
         <v>22</v>
       </c>
@@ -4230,28 +4413,28 @@
       </c>
       <c r="F117" s="33"/>
       <c r="G117" s="33"/>
-      <c r="H117" s="83"/>
-      <c r="I117" s="86"/>
+      <c r="H117" s="69"/>
+      <c r="I117" s="70"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="80"/>
-      <c r="B118" s="58"/>
-      <c r="C118" s="99"/>
+      <c r="A118" s="63"/>
+      <c r="B118" s="66"/>
+      <c r="C118" s="68"/>
       <c r="D118" s="36" t="s">
         <v>169</v>
       </c>
       <c r="E118" s="37"/>
       <c r="F118" s="36"/>
       <c r="G118" s="36"/>
-      <c r="H118" s="84"/>
-      <c r="I118" s="87"/>
+      <c r="H118" s="51"/>
+      <c r="I118" s="53"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="80"/>
-      <c r="B119" s="61" t="s">
+      <c r="A119" s="63"/>
+      <c r="B119" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="C119" s="94" t="s">
+      <c r="C119" s="73" t="s">
         <v>171</v>
       </c>
       <c r="D119" s="9" t="s">
@@ -4266,17 +4449,17 @@
       <c r="G119" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="H119" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I119" s="88" t="s">
+      <c r="H119" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I119" s="75" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="80"/>
-      <c r="B120" s="61"/>
-      <c r="C120" s="94"/>
+      <c r="A120" s="63"/>
+      <c r="B120" s="71"/>
+      <c r="C120" s="73"/>
       <c r="D120" s="10" t="s">
         <v>168</v>
       </c>
@@ -4285,30 +4468,30 @@
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
-      <c r="H120" s="83"/>
-      <c r="I120" s="88"/>
+      <c r="H120" s="69"/>
+      <c r="I120" s="75"/>
     </row>
     <row r="121" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="81"/>
-      <c r="B121" s="64"/>
-      <c r="C121" s="95"/>
+      <c r="A121" s="64"/>
+      <c r="B121" s="72"/>
+      <c r="C121" s="74"/>
       <c r="D121" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E121" s="14"/>
       <c r="F121" s="13"/>
       <c r="G121" s="13"/>
-      <c r="H121" s="90"/>
-      <c r="I121" s="88"/>
+      <c r="H121" s="59"/>
+      <c r="I121" s="75"/>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="B122" s="57" t="s">
+      <c r="B122" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="C122" s="59" t="s">
+      <c r="C122" s="80" t="s">
         <v>182</v>
       </c>
       <c r="D122" s="30" t="s">
@@ -4323,17 +4506,17 @@
       <c r="G122" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="H122" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I122" s="85" t="s">
+      <c r="H122" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I122" s="52" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="44"/>
-      <c r="B123" s="58"/>
-      <c r="C123" s="60"/>
+      <c r="B123" s="66"/>
+      <c r="C123" s="81"/>
       <c r="D123" s="33" t="s">
         <v>187</v>
       </c>
@@ -4342,13 +4525,13 @@
       </c>
       <c r="F123" s="32"/>
       <c r="G123" s="32"/>
-      <c r="H123" s="83"/>
-      <c r="I123" s="86"/>
+      <c r="H123" s="69"/>
+      <c r="I123" s="70"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="44"/>
-      <c r="B124" s="58"/>
-      <c r="C124" s="60"/>
+      <c r="B124" s="66"/>
+      <c r="C124" s="81"/>
       <c r="D124" s="33" t="s">
         <v>190</v>
       </c>
@@ -4357,13 +4540,13 @@
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="32"/>
-      <c r="H124" s="83"/>
-      <c r="I124" s="86"/>
+      <c r="H124" s="69"/>
+      <c r="I124" s="70"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="44"/>
-      <c r="B125" s="58"/>
-      <c r="C125" s="60"/>
+      <c r="B125" s="66"/>
+      <c r="C125" s="81"/>
       <c r="D125" s="33" t="s">
         <v>191</v>
       </c>
@@ -4372,28 +4555,28 @@
       </c>
       <c r="F125" s="32"/>
       <c r="G125" s="32"/>
-      <c r="H125" s="83"/>
-      <c r="I125" s="86"/>
+      <c r="H125" s="69"/>
+      <c r="I125" s="70"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="44"/>
-      <c r="B126" s="58"/>
-      <c r="C126" s="60"/>
+      <c r="B126" s="66"/>
+      <c r="C126" s="81"/>
       <c r="D126" s="36" t="s">
         <v>193</v>
       </c>
       <c r="E126" s="42"/>
       <c r="F126" s="35"/>
       <c r="G126" s="35"/>
-      <c r="H126" s="84"/>
-      <c r="I126" s="87"/>
+      <c r="H126" s="51"/>
+      <c r="I126" s="53"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="44"/>
-      <c r="B127" s="66" t="s">
+      <c r="B127" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="C127" s="67" t="s">
+      <c r="C127" s="91" t="s">
         <v>194</v>
       </c>
       <c r="D127" s="15" t="s">
@@ -4408,17 +4591,17 @@
       <c r="G127" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="H127" s="83" t="s">
-        <v>296</v>
-      </c>
-      <c r="I127" s="100" t="s">
+      <c r="H127" s="69" t="s">
+        <v>296</v>
+      </c>
+      <c r="I127" s="60" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="44"/>
-      <c r="B128" s="61"/>
-      <c r="C128" s="62"/>
+      <c r="B128" s="71"/>
+      <c r="C128" s="97"/>
       <c r="D128" s="15" t="s">
         <v>29</v>
       </c>
@@ -4427,13 +4610,13 @@
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
-      <c r="H128" s="83"/>
-      <c r="I128" s="88"/>
+      <c r="H128" s="69"/>
+      <c r="I128" s="75"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="44"/>
-      <c r="B129" s="61"/>
-      <c r="C129" s="62"/>
+      <c r="B129" s="71"/>
+      <c r="C129" s="97"/>
       <c r="D129" s="15" t="s">
         <v>199</v>
       </c>
@@ -4442,13 +4625,13 @@
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
-      <c r="H129" s="83"/>
-      <c r="I129" s="88"/>
+      <c r="H129" s="69"/>
+      <c r="I129" s="75"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="44"/>
-      <c r="B130" s="61"/>
-      <c r="C130" s="62"/>
+      <c r="B130" s="71"/>
+      <c r="C130" s="97"/>
       <c r="D130" s="15" t="s">
         <v>191</v>
       </c>
@@ -4457,21 +4640,21 @@
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
-      <c r="H130" s="83"/>
-      <c r="I130" s="88"/>
+      <c r="H130" s="69"/>
+      <c r="I130" s="75"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="44"/>
-      <c r="B131" s="61"/>
-      <c r="C131" s="62"/>
+      <c r="B131" s="71"/>
+      <c r="C131" s="97"/>
       <c r="D131" s="21" t="s">
         <v>193</v>
       </c>
       <c r="E131" s="22"/>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
-      <c r="H131" s="84"/>
-      <c r="I131" s="93"/>
+      <c r="H131" s="51"/>
+      <c r="I131" s="78"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="44"/>
@@ -4493,17 +4676,17 @@
       <c r="G132" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="H132" s="83" t="s">
-        <v>296</v>
-      </c>
-      <c r="I132" s="101" t="s">
+      <c r="H132" s="69" t="s">
+        <v>296</v>
+      </c>
+      <c r="I132" s="92" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="44"/>
-      <c r="B133" s="58"/>
-      <c r="C133" s="60"/>
+      <c r="B133" s="66"/>
+      <c r="C133" s="81"/>
       <c r="D133" s="33" t="s">
         <v>29</v>
       </c>
@@ -4512,13 +4695,13 @@
       </c>
       <c r="F133" s="32"/>
       <c r="G133" s="32"/>
-      <c r="H133" s="83"/>
-      <c r="I133" s="86"/>
+      <c r="H133" s="69"/>
+      <c r="I133" s="70"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="44"/>
-      <c r="B134" s="58"/>
-      <c r="C134" s="60"/>
+      <c r="B134" s="66"/>
+      <c r="C134" s="81"/>
       <c r="D134" s="33" t="s">
         <v>190</v>
       </c>
@@ -4527,13 +4710,13 @@
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="32"/>
-      <c r="H134" s="83"/>
-      <c r="I134" s="86"/>
+      <c r="H134" s="69"/>
+      <c r="I134" s="70"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="44"/>
-      <c r="B135" s="58"/>
-      <c r="C135" s="60"/>
+      <c r="B135" s="66"/>
+      <c r="C135" s="81"/>
       <c r="D135" s="33" t="s">
         <v>200</v>
       </c>
@@ -4542,28 +4725,28 @@
       </c>
       <c r="F135" s="32"/>
       <c r="G135" s="32"/>
-      <c r="H135" s="83"/>
-      <c r="I135" s="86"/>
+      <c r="H135" s="69"/>
+      <c r="I135" s="70"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="44"/>
-      <c r="B136" s="58"/>
-      <c r="C136" s="60"/>
+      <c r="B136" s="66"/>
+      <c r="C136" s="81"/>
       <c r="D136" s="36" t="s">
         <v>193</v>
       </c>
       <c r="E136" s="42"/>
       <c r="F136" s="35"/>
       <c r="G136" s="35"/>
-      <c r="H136" s="84"/>
-      <c r="I136" s="87"/>
+      <c r="H136" s="51"/>
+      <c r="I136" s="53"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="44"/>
-      <c r="B137" s="66" t="s">
+      <c r="B137" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="C137" s="67" t="s">
+      <c r="C137" s="91" t="s">
         <v>181</v>
       </c>
       <c r="D137" s="15" t="s">
@@ -4578,17 +4761,17 @@
       <c r="G137" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="H137" s="83" t="s">
-        <v>296</v>
-      </c>
-      <c r="I137" s="100" t="s">
+      <c r="H137" s="69" t="s">
+        <v>296</v>
+      </c>
+      <c r="I137" s="60" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="44"/>
-      <c r="B138" s="61"/>
-      <c r="C138" s="62"/>
+      <c r="B138" s="71"/>
+      <c r="C138" s="97"/>
       <c r="D138" s="15" t="s">
         <v>29</v>
       </c>
@@ -4597,13 +4780,13 @@
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
-      <c r="H138" s="83"/>
-      <c r="I138" s="88"/>
+      <c r="H138" s="69"/>
+      <c r="I138" s="75"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="44"/>
-      <c r="B139" s="61"/>
-      <c r="C139" s="62"/>
+      <c r="B139" s="71"/>
+      <c r="C139" s="97"/>
       <c r="D139" s="15" t="s">
         <v>190</v>
       </c>
@@ -4612,13 +4795,13 @@
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
-      <c r="H139" s="83"/>
-      <c r="I139" s="88"/>
+      <c r="H139" s="69"/>
+      <c r="I139" s="75"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="44"/>
-      <c r="B140" s="61"/>
-      <c r="C140" s="62"/>
+      <c r="B140" s="71"/>
+      <c r="C140" s="97"/>
       <c r="D140" s="15" t="s">
         <v>191</v>
       </c>
@@ -4627,30 +4810,30 @@
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
-      <c r="H140" s="83"/>
-      <c r="I140" s="88"/>
+      <c r="H140" s="69"/>
+      <c r="I140" s="75"/>
     </row>
     <row r="141" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="44"/>
-      <c r="B141" s="50"/>
-      <c r="C141" s="52"/>
+      <c r="B141" s="54"/>
+      <c r="C141" s="56"/>
       <c r="D141" s="15" t="s">
         <v>193</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
-      <c r="H141" s="83"/>
-      <c r="I141" s="102"/>
+      <c r="H141" s="69"/>
+      <c r="I141" s="61"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="54" t="s">
+      <c r="A142" s="99" t="s">
         <v>204</v>
       </c>
-      <c r="B142" s="57" t="s">
+      <c r="B142" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="C142" s="59" t="s">
+      <c r="C142" s="80" t="s">
         <v>208</v>
       </c>
       <c r="D142" s="31" t="s">
@@ -4665,17 +4848,17 @@
       <c r="G142" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="H142" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I142" s="85" t="s">
+      <c r="H142" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I142" s="52" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="55"/>
-      <c r="B143" s="58"/>
-      <c r="C143" s="60"/>
+      <c r="A143" s="100"/>
+      <c r="B143" s="66"/>
+      <c r="C143" s="81"/>
       <c r="D143" s="34" t="s">
         <v>189</v>
       </c>
@@ -4684,28 +4867,28 @@
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
-      <c r="H143" s="83"/>
-      <c r="I143" s="86"/>
+      <c r="H143" s="69"/>
+      <c r="I143" s="70"/>
     </row>
     <row r="144" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="55"/>
-      <c r="B144" s="58"/>
-      <c r="C144" s="60"/>
+      <c r="A144" s="100"/>
+      <c r="B144" s="66"/>
+      <c r="C144" s="81"/>
       <c r="D144" s="37" t="s">
         <v>210</v>
       </c>
       <c r="E144" s="36"/>
       <c r="F144" s="36"/>
       <c r="G144" s="36"/>
-      <c r="H144" s="84"/>
-      <c r="I144" s="87"/>
+      <c r="H144" s="51"/>
+      <c r="I144" s="53"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="55"/>
-      <c r="B145" s="61" t="s">
+      <c r="A145" s="100"/>
+      <c r="B145" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="C145" s="62" t="s">
+      <c r="C145" s="97" t="s">
         <v>206</v>
       </c>
       <c r="D145" s="16" t="s">
@@ -4720,17 +4903,17 @@
       <c r="G145" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="H145" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I145" s="100" t="s">
+      <c r="H145" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I145" s="60" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="55"/>
-      <c r="B146" s="61"/>
-      <c r="C146" s="62"/>
+      <c r="A146" s="100"/>
+      <c r="B146" s="71"/>
+      <c r="C146" s="97"/>
       <c r="D146" s="16" t="s">
         <v>211</v>
       </c>
@@ -4739,30 +4922,30 @@
       </c>
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
-      <c r="H146" s="83"/>
-      <c r="I146" s="88"/>
+      <c r="H146" s="69"/>
+      <c r="I146" s="75"/>
     </row>
     <row r="147" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="63"/>
-      <c r="B147" s="64"/>
-      <c r="C147" s="65"/>
+      <c r="A147" s="101"/>
+      <c r="B147" s="72"/>
+      <c r="C147" s="98"/>
       <c r="D147" s="28" t="s">
         <v>210</v>
       </c>
       <c r="E147" s="13"/>
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
-      <c r="H147" s="84"/>
-      <c r="I147" s="102"/>
+      <c r="H147" s="51"/>
+      <c r="I147" s="61"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="54" t="s">
+      <c r="A148" s="99" t="s">
         <v>212</v>
       </c>
-      <c r="B148" s="57" t="s">
+      <c r="B148" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="C148" s="59" t="s">
+      <c r="C148" s="80" t="s">
         <v>217</v>
       </c>
       <c r="D148" s="31" t="s">
@@ -4777,17 +4960,17 @@
       <c r="G148" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="H148" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I148" s="85" t="s">
+      <c r="H148" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I148" s="52" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="55"/>
-      <c r="B149" s="58"/>
-      <c r="C149" s="60"/>
+      <c r="A149" s="100"/>
+      <c r="B149" s="66"/>
+      <c r="C149" s="81"/>
       <c r="D149" s="34" t="s">
         <v>219</v>
       </c>
@@ -4796,28 +4979,28 @@
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="33"/>
-      <c r="H149" s="83"/>
-      <c r="I149" s="86"/>
+      <c r="H149" s="69"/>
+      <c r="I149" s="70"/>
     </row>
     <row r="150" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="55"/>
-      <c r="B150" s="58"/>
-      <c r="C150" s="60"/>
+      <c r="A150" s="100"/>
+      <c r="B150" s="66"/>
+      <c r="C150" s="81"/>
       <c r="D150" s="37" t="s">
         <v>220</v>
       </c>
       <c r="E150" s="36"/>
       <c r="F150" s="36"/>
       <c r="G150" s="36"/>
-      <c r="H150" s="84"/>
-      <c r="I150" s="87"/>
+      <c r="H150" s="51"/>
+      <c r="I150" s="53"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="55"/>
-      <c r="B151" s="61" t="s">
+      <c r="A151" s="100"/>
+      <c r="B151" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="C151" s="62" t="s">
+      <c r="C151" s="97" t="s">
         <v>218</v>
       </c>
       <c r="D151" s="26" t="s">
@@ -4832,17 +5015,17 @@
       <c r="G151" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="H151" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I151" s="100" t="s">
+      <c r="H151" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I151" s="60" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="55"/>
-      <c r="B152" s="61"/>
-      <c r="C152" s="62"/>
+      <c r="A152" s="100"/>
+      <c r="B152" s="71"/>
+      <c r="C152" s="97"/>
       <c r="D152" s="16" t="s">
         <v>188</v>
       </c>
@@ -4851,30 +5034,30 @@
       </c>
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
-      <c r="H152" s="83"/>
-      <c r="I152" s="88"/>
+      <c r="H152" s="69"/>
+      <c r="I152" s="75"/>
     </row>
     <row r="153" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="63"/>
-      <c r="B153" s="64"/>
-      <c r="C153" s="65"/>
+      <c r="A153" s="101"/>
+      <c r="B153" s="72"/>
+      <c r="C153" s="98"/>
       <c r="D153" s="27" t="s">
         <v>220</v>
       </c>
       <c r="E153" s="13"/>
       <c r="F153" s="13"/>
       <c r="G153" s="13"/>
-      <c r="H153" s="84"/>
-      <c r="I153" s="102"/>
+      <c r="H153" s="51"/>
+      <c r="I153" s="61"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="54" t="s">
+      <c r="A154" s="99" t="s">
         <v>223</v>
       </c>
-      <c r="B154" s="57" t="s">
+      <c r="B154" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="C154" s="59" t="s">
+      <c r="C154" s="80" t="s">
         <v>226</v>
       </c>
       <c r="D154" s="31" t="s">
@@ -4889,17 +5072,17 @@
       <c r="G154" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="H154" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I154" s="85" t="s">
+      <c r="H154" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I154" s="52" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="55"/>
-      <c r="B155" s="58"/>
-      <c r="C155" s="60"/>
+      <c r="A155" s="100"/>
+      <c r="B155" s="66"/>
+      <c r="C155" s="81"/>
       <c r="D155" s="34" t="s">
         <v>219</v>
       </c>
@@ -4908,28 +5091,28 @@
       </c>
       <c r="F155" s="33"/>
       <c r="G155" s="33"/>
-      <c r="H155" s="83"/>
-      <c r="I155" s="86"/>
+      <c r="H155" s="69"/>
+      <c r="I155" s="70"/>
     </row>
     <row r="156" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="55"/>
-      <c r="B156" s="58"/>
-      <c r="C156" s="60"/>
+      <c r="A156" s="100"/>
+      <c r="B156" s="66"/>
+      <c r="C156" s="81"/>
       <c r="D156" s="36" t="s">
         <v>220</v>
       </c>
       <c r="E156" s="36"/>
       <c r="F156" s="36"/>
       <c r="G156" s="36"/>
-      <c r="H156" s="84"/>
-      <c r="I156" s="87"/>
+      <c r="H156" s="51"/>
+      <c r="I156" s="53"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="55"/>
-      <c r="B157" s="61" t="s">
+      <c r="A157" s="100"/>
+      <c r="B157" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="C157" s="62" t="s">
+      <c r="C157" s="97" t="s">
         <v>227</v>
       </c>
       <c r="D157" s="16" t="s">
@@ -4944,17 +5127,17 @@
       <c r="G157" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="H157" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I157" s="100" t="s">
+      <c r="H157" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I157" s="60" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="55"/>
-      <c r="B158" s="61"/>
-      <c r="C158" s="62"/>
+      <c r="A158" s="100"/>
+      <c r="B158" s="71"/>
+      <c r="C158" s="97"/>
       <c r="D158" s="16" t="s">
         <v>188</v>
       </c>
@@ -4963,21 +5146,21 @@
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
-      <c r="H158" s="83"/>
-      <c r="I158" s="88"/>
+      <c r="H158" s="69"/>
+      <c r="I158" s="75"/>
     </row>
     <row r="159" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="56"/>
-      <c r="B159" s="50"/>
-      <c r="C159" s="52"/>
+      <c r="A159" s="102"/>
+      <c r="B159" s="54"/>
+      <c r="C159" s="56"/>
       <c r="D159" s="15" t="s">
         <v>220</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
-      <c r="H159" s="84"/>
-      <c r="I159" s="88"/>
+      <c r="H159" s="51"/>
+      <c r="I159" s="75"/>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="43" t="s">
@@ -5001,10 +5184,10 @@
       <c r="G160" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="H160" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I160" s="85" t="s">
+      <c r="H160" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I160" s="52" t="s">
         <v>318</v>
       </c>
     </row>
@@ -5018,15 +5201,15 @@
       <c r="E161" s="42"/>
       <c r="F161" s="36"/>
       <c r="G161" s="36"/>
-      <c r="H161" s="84"/>
-      <c r="I161" s="87"/>
+      <c r="H161" s="51"/>
+      <c r="I161" s="53"/>
     </row>
     <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="44"/>
-      <c r="B162" s="50" t="s">
+      <c r="B162" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="C162" s="52" t="s">
+      <c r="C162" s="56" t="s">
         <v>303</v>
       </c>
       <c r="D162" s="19" t="s">
@@ -5041,25 +5224,25 @@
       <c r="G162" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="H162" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I162" s="100" t="s">
+      <c r="H162" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I162" s="60" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="45"/>
-      <c r="B163" s="51"/>
-      <c r="C163" s="53"/>
+      <c r="B163" s="55"/>
+      <c r="C163" s="57"/>
       <c r="D163" s="24" t="s">
         <v>304</v>
       </c>
       <c r="E163" s="25"/>
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
-      <c r="H163" s="90"/>
-      <c r="I163" s="102"/>
+      <c r="H163" s="59"/>
+      <c r="I163" s="61"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="43" t="s">
@@ -5083,10 +5266,10 @@
       <c r="G164" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="H164" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I164" s="85" t="s">
+      <c r="H164" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I164" s="52" t="s">
         <v>318</v>
       </c>
     </row>
@@ -5100,15 +5283,15 @@
       <c r="E165" s="42"/>
       <c r="F165" s="36"/>
       <c r="G165" s="36"/>
-      <c r="H165" s="84"/>
-      <c r="I165" s="87"/>
+      <c r="H165" s="51"/>
+      <c r="I165" s="53"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="44"/>
-      <c r="B166" s="50" t="s">
+      <c r="B166" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="C166" s="52" t="s">
+      <c r="C166" s="56" t="s">
         <v>237</v>
       </c>
       <c r="D166" s="19" t="s">
@@ -5123,25 +5306,25 @@
       <c r="G166" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="H166" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I166" s="100" t="s">
+      <c r="H166" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I166" s="60" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="45"/>
-      <c r="B167" s="51"/>
-      <c r="C167" s="53"/>
+      <c r="B167" s="55"/>
+      <c r="C167" s="57"/>
       <c r="D167" s="24" t="s">
         <v>242</v>
       </c>
       <c r="E167" s="25"/>
       <c r="F167" s="13"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="90"/>
-      <c r="I167" s="102"/>
+      <c r="H167" s="59"/>
+      <c r="I167" s="61"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="43" t="s">
@@ -5165,10 +5348,10 @@
       <c r="G168" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="H168" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I168" s="85" t="s">
+      <c r="H168" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I168" s="52" t="s">
         <v>318</v>
       </c>
     </row>
@@ -5182,15 +5365,15 @@
       <c r="E169" s="42"/>
       <c r="F169" s="36"/>
       <c r="G169" s="36"/>
-      <c r="H169" s="84"/>
-      <c r="I169" s="87"/>
+      <c r="H169" s="51"/>
+      <c r="I169" s="53"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="44"/>
-      <c r="B170" s="50" t="s">
+      <c r="B170" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="C170" s="52" t="s">
+      <c r="C170" s="56" t="s">
         <v>249</v>
       </c>
       <c r="D170" s="19" t="s">
@@ -5205,25 +5388,25 @@
       <c r="G170" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="H170" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I170" s="100" t="s">
+      <c r="H170" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I170" s="60" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="45"/>
-      <c r="B171" s="51"/>
-      <c r="C171" s="53"/>
+      <c r="B171" s="55"/>
+      <c r="C171" s="57"/>
       <c r="D171" s="24" t="s">
         <v>250</v>
       </c>
       <c r="E171" s="25"/>
       <c r="F171" s="13"/>
       <c r="G171" s="13"/>
-      <c r="H171" s="90"/>
-      <c r="I171" s="102"/>
+      <c r="H171" s="59"/>
+      <c r="I171" s="61"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="43" t="s">
@@ -5247,10 +5430,10 @@
       <c r="G172" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="H172" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I172" s="85" t="s">
+      <c r="H172" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I172" s="52" t="s">
         <v>318</v>
       </c>
     </row>
@@ -5264,15 +5447,15 @@
       <c r="E173" s="42"/>
       <c r="F173" s="36"/>
       <c r="G173" s="36"/>
-      <c r="H173" s="84"/>
-      <c r="I173" s="87"/>
+      <c r="H173" s="51"/>
+      <c r="I173" s="53"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="44"/>
-      <c r="B174" s="50" t="s">
+      <c r="B174" s="54" t="s">
         <v>262</v>
       </c>
-      <c r="C174" s="52" t="s">
+      <c r="C174" s="56" t="s">
         <v>314</v>
       </c>
       <c r="D174" s="19" t="s">
@@ -5287,25 +5470,25 @@
       <c r="G174" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="H174" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I174" s="100" t="s">
+      <c r="H174" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I174" s="60" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="45"/>
-      <c r="B175" s="51"/>
-      <c r="C175" s="53"/>
+      <c r="B175" s="55"/>
+      <c r="C175" s="57"/>
       <c r="D175" s="24" t="s">
         <v>258</v>
       </c>
       <c r="E175" s="25"/>
       <c r="F175" s="13"/>
       <c r="G175" s="13"/>
-      <c r="H175" s="90"/>
-      <c r="I175" s="102"/>
+      <c r="H175" s="59"/>
+      <c r="I175" s="61"/>
     </row>
     <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="43" t="s">
@@ -5329,10 +5512,10 @@
       <c r="G176" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="H176" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I176" s="85" t="s">
+      <c r="H176" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I176" s="52" t="s">
         <v>318</v>
       </c>
     </row>
@@ -5346,15 +5529,15 @@
       <c r="E177" s="42"/>
       <c r="F177" s="36"/>
       <c r="G177" s="36"/>
-      <c r="H177" s="84"/>
-      <c r="I177" s="87"/>
+      <c r="H177" s="51"/>
+      <c r="I177" s="53"/>
     </row>
     <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="44"/>
-      <c r="B178" s="50" t="s">
+      <c r="B178" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="C178" s="52" t="s">
+      <c r="C178" s="56" t="s">
         <v>267</v>
       </c>
       <c r="D178" s="19" t="s">
@@ -5369,25 +5552,25 @@
       <c r="G178" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="H178" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I178" s="100" t="s">
+      <c r="H178" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I178" s="60" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="45"/>
-      <c r="B179" s="51"/>
-      <c r="C179" s="53"/>
+      <c r="B179" s="55"/>
+      <c r="C179" s="57"/>
       <c r="D179" s="24" t="s">
         <v>268</v>
       </c>
       <c r="E179" s="25"/>
       <c r="F179" s="13"/>
       <c r="G179" s="13"/>
-      <c r="H179" s="90"/>
-      <c r="I179" s="102"/>
+      <c r="H179" s="59"/>
+      <c r="I179" s="61"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="43" t="s">
@@ -5411,10 +5594,10 @@
       <c r="G180" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H180" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="I180" s="85" t="s">
+      <c r="H180" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I180" s="52" t="s">
         <v>318</v>
       </c>
     </row>
@@ -5428,15 +5611,15 @@
       <c r="E181" s="42"/>
       <c r="F181" s="36"/>
       <c r="G181" s="36"/>
-      <c r="H181" s="84"/>
-      <c r="I181" s="87"/>
+      <c r="H181" s="51"/>
+      <c r="I181" s="53"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="44"/>
-      <c r="B182" s="50" t="s">
+      <c r="B182" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="C182" s="52" t="s">
+      <c r="C182" s="56" t="s">
         <v>311</v>
       </c>
       <c r="D182" s="19" t="s">
@@ -5451,25 +5634,25 @@
       <c r="G182" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H182" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I182" s="100" t="s">
+      <c r="H182" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I182" s="60" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="45"/>
-      <c r="B183" s="51"/>
-      <c r="C183" s="53"/>
+      <c r="B183" s="55"/>
+      <c r="C183" s="57"/>
       <c r="D183" s="24" t="s">
         <v>232</v>
       </c>
       <c r="E183" s="25"/>
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
-      <c r="H183" s="90"/>
-      <c r="I183" s="102"/>
+      <c r="H183" s="59"/>
+      <c r="I183" s="61"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B184" s="20"/>
@@ -5483,150 +5666,105 @@
     </row>
   </sheetData>
   <mergeCells count="267">
-    <mergeCell ref="A180:A183"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="H180:H181"/>
-    <mergeCell ref="I180:I181"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="H182:H183"/>
-    <mergeCell ref="I182:I183"/>
-    <mergeCell ref="A116:A121"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="H116:H118"/>
-    <mergeCell ref="I116:I118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="H119:H121"/>
-    <mergeCell ref="I119:I121"/>
-    <mergeCell ref="A110:A115"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="H110:H112"/>
-    <mergeCell ref="I110:I112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="H113:H115"/>
-    <mergeCell ref="I113:I115"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="I104:I106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="H107:H109"/>
-    <mergeCell ref="I107:I109"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="H98:H100"/>
-    <mergeCell ref="I98:I100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="H101:H103"/>
-    <mergeCell ref="I101:I103"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="I95:I97"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="I74:I76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="H77:H79"/>
-    <mergeCell ref="I77:I79"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A176:A179"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="H176:H177"/>
+    <mergeCell ref="I176:I177"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="H178:H179"/>
+    <mergeCell ref="I178:I179"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="H172:H173"/>
+    <mergeCell ref="I172:I173"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="H174:H175"/>
+    <mergeCell ref="I174:I175"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="I166:I167"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="H168:H169"/>
+    <mergeCell ref="I168:I169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="H164:H165"/>
+    <mergeCell ref="I164:I165"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="H160:H161"/>
+    <mergeCell ref="I160:I161"/>
+    <mergeCell ref="I162:I163"/>
+    <mergeCell ref="H162:H163"/>
+    <mergeCell ref="A154:A159"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="H154:H156"/>
+    <mergeCell ref="I154:I156"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="H157:H159"/>
+    <mergeCell ref="I157:I159"/>
+    <mergeCell ref="A148:A153"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="H148:H150"/>
+    <mergeCell ref="I148:I150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="H151:H153"/>
+    <mergeCell ref="I151:I153"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="C137:C141"/>
+    <mergeCell ref="H137:H141"/>
+    <mergeCell ref="I137:I141"/>
+    <mergeCell ref="A122:A141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="H142:H144"/>
+    <mergeCell ref="H145:H147"/>
+    <mergeCell ref="I145:I147"/>
+    <mergeCell ref="I142:I144"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="H122:H126"/>
+    <mergeCell ref="I122:I126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="H127:H131"/>
+    <mergeCell ref="I127:I131"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="C132:C136"/>
+    <mergeCell ref="H132:H136"/>
+    <mergeCell ref="I132:I136"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="H26:H28"/>
     <mergeCell ref="I26:I28"/>
@@ -5651,105 +5789,150 @@
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="C14:C17"/>
-    <mergeCell ref="H132:H136"/>
-    <mergeCell ref="I132:I136"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="C137:C141"/>
-    <mergeCell ref="H137:H141"/>
-    <mergeCell ref="I137:I141"/>
-    <mergeCell ref="A122:A141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="A142:A147"/>
-    <mergeCell ref="H142:H144"/>
-    <mergeCell ref="H145:H147"/>
-    <mergeCell ref="I145:I147"/>
-    <mergeCell ref="I142:I144"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="H122:H126"/>
-    <mergeCell ref="I122:I126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="H127:H131"/>
-    <mergeCell ref="I127:I131"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="A148:A153"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="H148:H150"/>
-    <mergeCell ref="I148:I150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="H151:H153"/>
-    <mergeCell ref="I151:I153"/>
-    <mergeCell ref="A154:A159"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="H154:H156"/>
-    <mergeCell ref="I154:I156"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="H157:H159"/>
-    <mergeCell ref="I157:I159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="A160:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="H160:H161"/>
-    <mergeCell ref="I160:I161"/>
-    <mergeCell ref="I162:I163"/>
-    <mergeCell ref="H162:H163"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="H166:H167"/>
-    <mergeCell ref="I166:I167"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="H168:H169"/>
-    <mergeCell ref="I168:I169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="H164:H165"/>
-    <mergeCell ref="I164:I165"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="H172:H173"/>
-    <mergeCell ref="I172:I173"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="H174:H175"/>
-    <mergeCell ref="I174:I175"/>
-    <mergeCell ref="A176:A179"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="H176:H177"/>
-    <mergeCell ref="I176:I177"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="H178:H179"/>
-    <mergeCell ref="I178:I179"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="H98:H100"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="I101:I103"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="H107:H109"/>
+    <mergeCell ref="I107:I109"/>
+    <mergeCell ref="A110:A115"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="H110:H112"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="H113:H115"/>
+    <mergeCell ref="I113:I115"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="H116:H118"/>
+    <mergeCell ref="I116:I118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="H119:H121"/>
+    <mergeCell ref="I119:I121"/>
+    <mergeCell ref="A180:A183"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="H180:H181"/>
+    <mergeCell ref="I180:I181"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="H182:H183"/>
+    <mergeCell ref="I182:I183"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5758,13 +5941,494 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5110BF86-FE5F-4C8F-9A0D-6A0CFE69DE9D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="114" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="115" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="53"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="103" t="s">
+        <v>330</v>
+      </c>
+      <c r="D6" s="117" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" s="118" t="s">
+        <v>326</v>
+      </c>
+      <c r="F6" s="117" t="s">
+        <v>332</v>
+      </c>
+      <c r="G6" s="117" t="s">
+        <v>332</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I6" s="125" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="119" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" s="120" t="s">
+        <v>327</v>
+      </c>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="126"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="119" t="s">
+        <v>324</v>
+      </c>
+      <c r="E8" s="120"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="126"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="121" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" s="122"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="127"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="86" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" s="111" t="s">
+        <v>334</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I10" s="92" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="70"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="70"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="53"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="C14" s="103" t="s">
+        <v>337</v>
+      </c>
+      <c r="D14" s="117" t="s">
+        <v>341</v>
+      </c>
+      <c r="E14" s="118" t="s">
+        <v>326</v>
+      </c>
+      <c r="F14" s="117" t="s">
+        <v>343</v>
+      </c>
+      <c r="G14" s="117" t="s">
+        <v>343</v>
+      </c>
+      <c r="H14" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I14" s="125" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="119" t="s">
+        <v>323</v>
+      </c>
+      <c r="E15" s="120" t="s">
+        <v>327</v>
+      </c>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="126"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="119" t="s">
+        <v>324</v>
+      </c>
+      <c r="E16" s="120"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="126"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="121" t="s">
+        <v>342</v>
+      </c>
+      <c r="E17" s="122"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="127"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="86" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" s="111" t="s">
+        <v>346</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="E18" s="106" t="s">
+        <v>326</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="H18" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I18" s="92" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="70"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="70"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="53"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>347</v>
+      </c>
+      <c r="D22" s="117" t="s">
+        <v>348</v>
+      </c>
+      <c r="E22" s="118" t="s">
+        <v>326</v>
+      </c>
+      <c r="F22" s="117" t="s">
+        <v>353</v>
+      </c>
+      <c r="G22" s="117" t="s">
+        <v>353</v>
+      </c>
+      <c r="H22" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="I22" s="125" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="119" t="s">
+        <v>323</v>
+      </c>
+      <c r="E23" s="120" t="s">
+        <v>327</v>
+      </c>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="126"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="119" t="s">
+        <v>324</v>
+      </c>
+      <c r="E24" s="120"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="126"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="45"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="123" t="s">
+        <v>350</v>
+      </c>
+      <c r="E25" s="124"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="128"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documentation/Test Cases.xlsx
+++ b/Documentation/Test Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010377\Documents\GitHub\axi2spi\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010371\Documents\GitHub\axi2spi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5EC269-5E2E-41F2-941D-E63811FD8FD3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F9233D-E044-4F86-9814-CAA4213CE706}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13632" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AXI" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="428">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1093,6 +1093,225 @@
   </si>
   <si>
     <t>02d937e</t>
+  </si>
+  <si>
+    <t>AXI_RD_01</t>
+  </si>
+  <si>
+    <t>AXI_RD_01_1</t>
+  </si>
+  <si>
+    <t>AXI_RD_01_2</t>
+  </si>
+  <si>
+    <t>2. Set S_AXI_ARVALID to logic low.</t>
+  </si>
+  <si>
+    <t>S_AXI_ARVALID = '0'</t>
+  </si>
+  <si>
+    <t>axi_state = S1</t>
+  </si>
+  <si>
+    <t>AXI_RD_02</t>
+  </si>
+  <si>
+    <t>AXI_RD_02_1</t>
+  </si>
+  <si>
+    <t>2. Set reg_rack to logic low.</t>
+  </si>
+  <si>
+    <t>1. Transition axi_state to S1.</t>
+  </si>
+  <si>
+    <t>reg_rack = '0'</t>
+  </si>
+  <si>
+    <t>AXI_RD_02_2</t>
+  </si>
+  <si>
+    <t>2. Set reg_rack to logic high.</t>
+  </si>
+  <si>
+    <t>reg_rack = '1'</t>
+  </si>
+  <si>
+    <t>axi_state = S2</t>
+  </si>
+  <si>
+    <t>AXI_RD_03</t>
+  </si>
+  <si>
+    <t>AXI_RD_03_1</t>
+  </si>
+  <si>
+    <t>AXI_RD_03_2</t>
+  </si>
+  <si>
+    <t>1. Transistion axi_state to S2</t>
+  </si>
+  <si>
+    <t>AXI_RD_04</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARVALID to logic low.</t>
+  </si>
+  <si>
+    <t>2. Observe reg_read_enable</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARVALID to logic high.</t>
+  </si>
+  <si>
+    <t>AXI_RD_04_2</t>
+  </si>
+  <si>
+    <t>AXI_RD_04_1</t>
+  </si>
+  <si>
+    <t>AXI_RD_05</t>
+  </si>
+  <si>
+    <t>AXI_RD_05_1</t>
+  </si>
+  <si>
+    <t>AXI_RD_05_2</t>
+  </si>
+  <si>
+    <t>1. Set reg_rack to logic low.</t>
+  </si>
+  <si>
+    <t>2. Observe S_AXI_ARREADY</t>
+  </si>
+  <si>
+    <t>1. Set reg_rack to logic high.</t>
+  </si>
+  <si>
+    <t>S_AXI_ARREADY = '0'</t>
+  </si>
+  <si>
+    <t>S_AXI_ARREADY = '1'</t>
+  </si>
+  <si>
+    <t>AXI_RD_06</t>
+  </si>
+  <si>
+    <t>AXI_RD_06_1</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARREADY to logic low.</t>
+  </si>
+  <si>
+    <t>2. Observe S_AXI_RDATA</t>
+  </si>
+  <si>
+    <t>S_AXI_RDATA = no change</t>
+  </si>
+  <si>
+    <t>AXI_RD_06_2</t>
+  </si>
+  <si>
+    <t>axi_state shall not be set to S1 when axi_state is S0 and S_AXI_ARVAILD is not set.</t>
+  </si>
+  <si>
+    <t>axi_state shall be set to S1 when axi_state is S0 and S_AXI_ARVALID is set.</t>
+  </si>
+  <si>
+    <t>axi_state shall not be set to S2 when axi_state is S1 and reg_rack is not set.</t>
+  </si>
+  <si>
+    <t>axi_state shall be set to S2 when axi_state is S1 and reg_rack is set.</t>
+  </si>
+  <si>
+    <t>axi_state shall not be set to S0 when axi_state is S2 and reg_rack is set.</t>
+  </si>
+  <si>
+    <t>axi_state shall be set to S0 when axi_state is S2 and reg_rack is reset.</t>
+  </si>
+  <si>
+    <t>reg_read_enable shall not be set when S_AXI_ARVALID is not set.</t>
+  </si>
+  <si>
+    <t>reg_read_enable shall be set when S_AXI_ARVALID is set.</t>
+  </si>
+  <si>
+    <t>S_AXI_ARREADY shall not be set when reg_rack is not set.</t>
+  </si>
+  <si>
+    <t>S_AXI_ARREADY shall be set when reg_rack is set.</t>
+  </si>
+  <si>
+    <t>S_AXI_RDATA shall not be set to reg_rdata_latch when S_AXI_ARREADY is not set.</t>
+  </si>
+  <si>
+    <t>S_AXI_RDATA shall be set to reg_rdata_latch when S_AXI_ARREADY is set.</t>
+  </si>
+  <si>
+    <t>1. Set S_AXI_ARREADY to logic high.</t>
+  </si>
+  <si>
+    <t>S_AXI_RDATA = reg_rdata_latch</t>
+  </si>
+  <si>
+    <t>AXI_RD_07</t>
+  </si>
+  <si>
+    <t>AXI_RD_08</t>
+  </si>
+  <si>
+    <t>AXI_RD_07_1</t>
+  </si>
+  <si>
+    <t>AXI_RD_07_2</t>
+  </si>
+  <si>
+    <t>reg_rdata_latch shall not be set to reg_rdata when reg_rack is not set</t>
+  </si>
+  <si>
+    <t>2. Observe reg_rdata_latch</t>
+  </si>
+  <si>
+    <t>reg_rdata_latch = no change</t>
+  </si>
+  <si>
+    <t>reg_rdata_latch shall be set to reg_rdata when reg_rack is set</t>
+  </si>
+  <si>
+    <t>reg_rdata_latch = reg_rdata</t>
+  </si>
+  <si>
+    <t>AXI_RD_08_1</t>
+  </si>
+  <si>
+    <t>S_AXI_RRESP shall be set to "00" when reg_rerror is not set</t>
+  </si>
+  <si>
+    <t>1. Set reg_rerror to logic low.</t>
+  </si>
+  <si>
+    <t>2. Observe S_AXI_RRESP</t>
+  </si>
+  <si>
+    <t>reg_rerror = '0'</t>
+  </si>
+  <si>
+    <t>S_AXI_RRESP = "00"</t>
+  </si>
+  <si>
+    <t>AXI_RD_08_2</t>
+  </si>
+  <si>
+    <t>S_AXI_RRESP shall be set to "01" when reg_rerror is set</t>
+  </si>
+  <si>
+    <t>1. Set reg_rerror to logic high.</t>
+  </si>
+  <si>
+    <t>reg_rerror = '1'</t>
+  </si>
+  <si>
+    <t>S_AXI_RRESP = "01"</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1150,19 +1369,6 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1231,74 +1437,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1333,7 +1471,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1350,66 +1490,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1429,17 +1511,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1499,21 +1570,6 @@
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1643,293 +1699,202 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2211,26 +2176,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I184"/>
+  <dimension ref="A1:I221"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" customWidth="1"/>
-    <col min="4" max="4" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" customWidth="1"/>
+    <col min="4" max="4" width="53.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2258,3477 +2224,4274 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="71" t="s">
         <v>278</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="35" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="32" t="s">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="83"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="32" t="s">
+      <c r="H3" s="45"/>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="83"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="35" t="s">
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="71" t="s">
         <v>295</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="83"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="54" t="s">
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="76" t="s">
         <v>277</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I6" s="79" t="s">
+      <c r="I6" s="39" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="10" t="s">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="79"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="10" t="s">
+      <c r="H7" s="45"/>
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="79"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="7" t="s">
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="39"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="79"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="86" t="s">
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="39"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="71" t="s">
         <v>276</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="82" t="s">
+      <c r="H10" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I10" s="83" t="s">
+      <c r="I10" s="35" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="33" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="83"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="33" t="s">
+      <c r="H11" s="45"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="83"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="35" t="s">
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="71" t="s">
         <v>295</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="54" t="s">
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="82" t="s">
+      <c r="H14" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I14" s="79" t="s">
+      <c r="I14" s="39" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="5" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="82"/>
-      <c r="I15" s="79"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="5" t="s">
+      <c r="H15" s="45"/>
+      <c r="I15" s="39"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="76" t="s">
         <v>294</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="79"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="7" t="s">
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="39"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="79"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="86" t="s">
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="39"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="71" t="s">
         <v>274</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="82" t="s">
+      <c r="H18" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I18" s="83" t="s">
+      <c r="I18" s="35" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="33" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="82"/>
-      <c r="I19" s="83"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="33" t="s">
+      <c r="H19" s="45"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="71" t="s">
         <v>294</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="83"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="35" t="s">
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="71" t="s">
         <v>295</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="83"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="54" t="s">
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="76" t="s">
+      <c r="H22" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I22" s="78" t="s">
+      <c r="I22" s="39" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="10" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="77"/>
-      <c r="I23" s="79"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="10" t="s">
+      <c r="H23" s="45"/>
+      <c r="I23" s="39"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="76" t="s">
         <v>294</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="79"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="7" t="s">
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="39"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="22"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="79"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="39"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="71" t="s">
         <v>272</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I26" s="52" t="s">
+      <c r="I26" s="35" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="63"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="33" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="47"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="70"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="36" t="s">
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="35"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="47"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="53"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="63"/>
-      <c r="B29" s="71" t="s">
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="35"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="47"/>
+      <c r="B29" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="58" t="s">
+      <c r="H29" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I29" s="75" t="s">
+      <c r="I29" s="39" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="63"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="10" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="47"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="75"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="64"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="13" t="s">
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="39"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="48"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="75"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="62" t="s">
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="39"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="71" t="s">
         <v>293</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="50" t="s">
+      <c r="H32" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I32" s="52" t="s">
+      <c r="I32" s="35" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="33" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="47"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="70"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="36" t="s">
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="35"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="47"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="53"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="63"/>
-      <c r="B35" s="71" t="s">
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="35"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="47"/>
+      <c r="B35" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="58" t="s">
+      <c r="H35" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I35" s="75" t="s">
+      <c r="I35" s="39" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="10" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="47"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="75"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="64"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="13" t="s">
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="39"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="48"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="75"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="62" t="s">
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="39"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="71" t="s">
         <v>292</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="30" t="s">
+      <c r="G38" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="50" t="s">
+      <c r="H38" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I38" s="52" t="s">
+      <c r="I38" s="35" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="33" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="47"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="70"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="36" t="s">
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="35"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="47"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="53"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
-      <c r="B41" s="71" t="s">
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="35"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="47"/>
+      <c r="B41" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="73" t="s">
+      <c r="C41" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="H41" s="58" t="s">
+      <c r="H41" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I41" s="75" t="s">
+      <c r="I41" s="39" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="10" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="47"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="75"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="64"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="13" t="s">
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="39"/>
+    </row>
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="48"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="75"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="62" t="s">
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="39"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="67" t="s">
+      <c r="C44" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="71" t="s">
         <v>291</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="30" t="s">
+      <c r="G44" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="H44" s="50" t="s">
+      <c r="H44" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I44" s="52" t="s">
+      <c r="I44" s="35" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="33" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="47"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="33" t="s">
+      <c r="E45" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="70"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="36" t="s">
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="35"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="47"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="53"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
-      <c r="B47" s="71" t="s">
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="35"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="47"/>
+      <c r="B47" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="73" t="s">
+      <c r="C47" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="H47" s="58" t="s">
+      <c r="H47" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I47" s="75" t="s">
+      <c r="I47" s="39" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="63"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="10" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="47"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="75"/>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="64"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="13" t="s">
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="39"/>
+    </row>
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="48"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="75"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="62" t="s">
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="39"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="67" t="s">
+      <c r="C50" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="71" t="s">
         <v>290</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="F50" s="30" t="s">
+      <c r="F50" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="G50" s="30" t="s">
+      <c r="G50" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="H50" s="50" t="s">
+      <c r="H50" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I50" s="52" t="s">
+      <c r="I50" s="35" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="63"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="33" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="47"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="33" t="s">
+      <c r="E51" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="70"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="63"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="36" t="s">
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="35"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="47"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="E52" s="37"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="53"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="63"/>
-      <c r="B53" s="71" t="s">
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="35"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="47"/>
+      <c r="B53" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="73" t="s">
+      <c r="C53" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="H53" s="58" t="s">
+      <c r="H53" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I53" s="75" t="s">
+      <c r="I53" s="39" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="63"/>
-      <c r="B54" s="71"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="10" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="47"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="75"/>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="64"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="13" t="s">
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="39"/>
+    </row>
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="48"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="75"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="62" t="s">
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="39"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="65" t="s">
+      <c r="B56" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="67" t="s">
+      <c r="C56" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="71" t="s">
         <v>289</v>
       </c>
-      <c r="E56" s="30" t="s">
+      <c r="E56" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="F56" s="30" t="s">
+      <c r="F56" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="G56" s="30" t="s">
+      <c r="G56" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="H56" s="50" t="s">
+      <c r="H56" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I56" s="52" t="s">
+      <c r="I56" s="35" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="63"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="33" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="47"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="33" t="s">
+      <c r="E57" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="70"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="63"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="36" t="s">
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="35"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="47"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="E58" s="37"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="53"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="63"/>
-      <c r="B59" s="71" t="s">
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="35"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="47"/>
+      <c r="B59" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="73" t="s">
+      <c r="C59" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G59" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="H59" s="58" t="s">
+      <c r="H59" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I59" s="75" t="s">
+      <c r="I59" s="39" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="63"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="10" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="47"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="75"/>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="64"/>
-      <c r="B61" s="72"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="13" t="s">
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="39"/>
+    </row>
+    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="48"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="75"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="62" t="s">
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="39"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="65" t="s">
+      <c r="B62" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="67" t="s">
+      <c r="C62" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="D62" s="71" t="s">
         <v>288</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E62" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="F62" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="G62" s="30" t="s">
+      <c r="G62" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="H62" s="50" t="s">
+      <c r="H62" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I62" s="52" t="s">
+      <c r="I62" s="35" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="63"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="33" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="47"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E63" s="33" t="s">
+      <c r="E63" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="69"/>
-      <c r="I63" s="70"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
-      <c r="B64" s="66"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="36" t="s">
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="35"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="47"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="E64" s="37"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="53"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="63"/>
-      <c r="B65" s="71" t="s">
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="35"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="47"/>
+      <c r="B65" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="73" t="s">
+      <c r="C65" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G65" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="H65" s="58" t="s">
+      <c r="H65" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I65" s="75" t="s">
+      <c r="I65" s="39" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="63"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="10" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="47"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="69"/>
-      <c r="I66" s="75"/>
-    </row>
-    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="64"/>
-      <c r="B67" s="72"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="13" t="s">
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="39"/>
+    </row>
+    <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="48"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="E67" s="14"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="75"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="62" t="s">
+      <c r="E67" s="76"/>
+      <c r="F67" s="76"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="39"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B68" s="65" t="s">
+      <c r="B68" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="67" t="s">
+      <c r="C68" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="71" t="s">
         <v>287</v>
       </c>
-      <c r="E68" s="30" t="s">
+      <c r="E68" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="F68" s="30" t="s">
+      <c r="F68" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="G68" s="30" t="s">
+      <c r="G68" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="H68" s="50" t="s">
+      <c r="H68" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I68" s="52" t="s">
+      <c r="I68" s="35" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="63"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="33" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="47"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="33" t="s">
+      <c r="E69" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="70"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="63"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="36" t="s">
+      <c r="F69" s="71"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="35"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="47"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="E70" s="37"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="53"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="63"/>
-      <c r="B71" s="71" t="s">
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="35"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="47"/>
+      <c r="B71" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="73" t="s">
+      <c r="C71" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="F71" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G71" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="H71" s="58" t="s">
+      <c r="H71" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I71" s="75" t="s">
+      <c r="I71" s="39" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="63"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="10" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="47"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="69"/>
-      <c r="I72" s="75"/>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="64"/>
-      <c r="B73" s="72"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="13" t="s">
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="39"/>
+    </row>
+    <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="48"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="E73" s="14"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="75"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="62" t="s">
+      <c r="E73" s="76"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="39"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="65" t="s">
+      <c r="B74" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C74" s="67" t="s">
+      <c r="C74" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="71" t="s">
         <v>286</v>
       </c>
-      <c r="E74" s="30" t="s">
+      <c r="E74" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="F74" s="30" t="s">
+      <c r="F74" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="G74" s="30" t="s">
+      <c r="G74" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="H74" s="50" t="s">
+      <c r="H74" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I74" s="52" t="s">
+      <c r="I74" s="35" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="63"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="68"/>
-      <c r="D75" s="33" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="47"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="33" t="s">
+      <c r="E75" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="69"/>
-      <c r="I75" s="70"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="63"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="68"/>
-      <c r="D76" s="36" t="s">
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="35"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="47"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="E76" s="37"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="53"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="63"/>
-      <c r="B77" s="71" t="s">
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="35"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="47"/>
+      <c r="B77" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="73" t="s">
+      <c r="C77" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="F77" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="G77" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="H77" s="58" t="s">
+      <c r="H77" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I77" s="75" t="s">
+      <c r="I77" s="39" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="63"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="73"/>
-      <c r="D78" s="10" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="47"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="E78" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="69"/>
-      <c r="I78" s="75"/>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="64"/>
-      <c r="B79" s="72"/>
-      <c r="C79" s="74"/>
-      <c r="D79" s="13" t="s">
+      <c r="F78" s="76"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="39"/>
+    </row>
+    <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="48"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="E79" s="14"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="75"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="62" t="s">
+      <c r="E79" s="76"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="76"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="39"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="65" t="s">
+      <c r="B80" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C80" s="67" t="s">
+      <c r="C80" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="D80" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="E80" s="30" t="s">
+      <c r="E80" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="F80" s="30" t="s">
+      <c r="F80" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="G80" s="30" t="s">
+      <c r="G80" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="H80" s="50" t="s">
+      <c r="H80" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I80" s="52" t="s">
+      <c r="I80" s="35" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="63"/>
-      <c r="B81" s="66"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="33" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="47"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="E81" s="33" t="s">
+      <c r="E81" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="69"/>
-      <c r="I81" s="70"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="63"/>
-      <c r="B82" s="66"/>
-      <c r="C82" s="68"/>
-      <c r="D82" s="36" t="s">
+      <c r="F81" s="71"/>
+      <c r="G81" s="71"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="35"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="47"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="E82" s="37"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="51"/>
-      <c r="I82" s="53"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="63"/>
-      <c r="B83" s="71" t="s">
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="45"/>
+      <c r="I82" s="35"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="47"/>
+      <c r="B83" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="73" t="s">
+      <c r="C83" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G83" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="H83" s="58" t="s">
+      <c r="H83" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I83" s="75" t="s">
+      <c r="I83" s="39" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="63"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="73"/>
-      <c r="D84" s="10" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="47"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E84" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="69"/>
-      <c r="I84" s="75"/>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="64"/>
-      <c r="B85" s="72"/>
-      <c r="C85" s="74"/>
-      <c r="D85" s="13" t="s">
+      <c r="F84" s="76"/>
+      <c r="G84" s="76"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="39"/>
+    </row>
+    <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="48"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="E85" s="14"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="75"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="62" t="s">
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="39"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="B86" s="65" t="s">
+      <c r="B86" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="67" t="s">
+      <c r="C86" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="D86" s="30" t="s">
+      <c r="D86" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="E86" s="30" t="s">
+      <c r="E86" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="F86" s="30" t="s">
+      <c r="F86" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="G86" s="30" t="s">
+      <c r="G86" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="H86" s="50" t="s">
+      <c r="H86" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I86" s="52" t="s">
+      <c r="I86" s="35" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="63"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="68"/>
-      <c r="D87" s="33" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="47"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E87" s="33" t="s">
+      <c r="E87" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="69"/>
-      <c r="I87" s="70"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="63"/>
-      <c r="B88" s="66"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="36" t="s">
+      <c r="F87" s="71"/>
+      <c r="G87" s="71"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="35"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="47"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="E88" s="37"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="51"/>
-      <c r="I88" s="53"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="63"/>
-      <c r="B89" s="71" t="s">
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="35"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="47"/>
+      <c r="B89" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C89" s="73" t="s">
+      <c r="C89" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E89" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="F89" s="10" t="s">
+      <c r="F89" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="G89" s="10" t="s">
+      <c r="G89" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="H89" s="58" t="s">
+      <c r="H89" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I89" s="75" t="s">
+      <c r="I89" s="39" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="63"/>
-      <c r="B90" s="71"/>
-      <c r="C90" s="73"/>
-      <c r="D90" s="10" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="47"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E90" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="69"/>
-      <c r="I90" s="75"/>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="64"/>
-      <c r="B91" s="72"/>
-      <c r="C91" s="74"/>
-      <c r="D91" s="13" t="s">
+      <c r="F90" s="76"/>
+      <c r="G90" s="76"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="39"/>
+    </row>
+    <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="48"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="E91" s="14"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="59"/>
-      <c r="I91" s="75"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="62" t="s">
+      <c r="E91" s="76"/>
+      <c r="F91" s="76"/>
+      <c r="G91" s="76"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="39"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="B92" s="65" t="s">
+      <c r="B92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="67" t="s">
+      <c r="C92" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="D92" s="30" t="s">
+      <c r="D92" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="E92" s="30" t="s">
+      <c r="E92" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="F92" s="30" t="s">
+      <c r="F92" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="G92" s="30" t="s">
+      <c r="G92" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="H92" s="50" t="s">
+      <c r="H92" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I92" s="52" t="s">
+      <c r="I92" s="35" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="63"/>
-      <c r="B93" s="66"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="33" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="47"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="52"/>
+      <c r="D93" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="E93" s="33" t="s">
+      <c r="E93" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="69"/>
-      <c r="I93" s="70"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="63"/>
-      <c r="B94" s="66"/>
-      <c r="C94" s="68"/>
-      <c r="D94" s="36" t="s">
+      <c r="F93" s="71"/>
+      <c r="G93" s="71"/>
+      <c r="H93" s="45"/>
+      <c r="I93" s="35"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="47"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="E94" s="37"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="51"/>
-      <c r="I94" s="53"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="63"/>
-      <c r="B95" s="71" t="s">
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="71"/>
+      <c r="H94" s="45"/>
+      <c r="I94" s="35"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="47"/>
+      <c r="B95" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="C95" s="73" t="s">
+      <c r="C95" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="F95" s="10" t="s">
+      <c r="F95" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="G95" s="10" t="s">
+      <c r="G95" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="H95" s="58" t="s">
+      <c r="H95" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I95" s="75" t="s">
+      <c r="I95" s="39" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="63"/>
-      <c r="B96" s="71"/>
-      <c r="C96" s="73"/>
-      <c r="D96" s="10" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="47"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="49"/>
+      <c r="D96" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="E96" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="69"/>
-      <c r="I96" s="75"/>
-    </row>
-    <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="64"/>
-      <c r="B97" s="72"/>
-      <c r="C97" s="74"/>
-      <c r="D97" s="13" t="s">
+      <c r="F96" s="76"/>
+      <c r="G96" s="76"/>
+      <c r="H96" s="45"/>
+      <c r="I96" s="39"/>
+    </row>
+    <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="48"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="E97" s="14"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="59"/>
-      <c r="I97" s="75"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="62" t="s">
+      <c r="E97" s="76"/>
+      <c r="F97" s="76"/>
+      <c r="G97" s="76"/>
+      <c r="H97" s="45"/>
+      <c r="I97" s="39"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="B98" s="65" t="s">
+      <c r="B98" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C98" s="67" t="s">
+      <c r="C98" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="D98" s="30" t="s">
+      <c r="D98" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="E98" s="30" t="s">
+      <c r="E98" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="F98" s="30" t="s">
+      <c r="F98" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="G98" s="30" t="s">
+      <c r="G98" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="H98" s="50" t="s">
+      <c r="H98" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I98" s="52" t="s">
+      <c r="I98" s="35" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="63"/>
-      <c r="B99" s="66"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="33" t="s">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="47"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="52"/>
+      <c r="D99" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E99" s="33" t="s">
+      <c r="E99" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F99" s="33"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="69"/>
-      <c r="I99" s="70"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="63"/>
-      <c r="B100" s="66"/>
-      <c r="C100" s="68"/>
-      <c r="D100" s="36" t="s">
+      <c r="F99" s="71"/>
+      <c r="G99" s="71"/>
+      <c r="H99" s="45"/>
+      <c r="I99" s="35"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="47"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="E100" s="37"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="51"/>
-      <c r="I100" s="53"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="63"/>
-      <c r="B101" s="71" t="s">
+      <c r="E100" s="71"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="45"/>
+      <c r="I100" s="35"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="47"/>
+      <c r="B101" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C101" s="73" t="s">
+      <c r="C101" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="F101" s="10" t="s">
+      <c r="F101" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="G101" s="10" t="s">
+      <c r="G101" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="H101" s="58" t="s">
+      <c r="H101" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I101" s="75" t="s">
+      <c r="I101" s="39" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="63"/>
-      <c r="B102" s="71"/>
-      <c r="C102" s="73"/>
-      <c r="D102" s="10" t="s">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="47"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="E102" s="10" t="s">
+      <c r="E102" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="69"/>
-      <c r="I102" s="75"/>
-    </row>
-    <row r="103" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="64"/>
-      <c r="B103" s="72"/>
-      <c r="C103" s="74"/>
-      <c r="D103" s="13" t="s">
+      <c r="F102" s="76"/>
+      <c r="G102" s="76"/>
+      <c r="H102" s="45"/>
+      <c r="I102" s="39"/>
+    </row>
+    <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="48"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="49"/>
+      <c r="D103" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="E103" s="14"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="59"/>
-      <c r="I103" s="75"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="62" t="s">
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="45"/>
+      <c r="I103" s="39"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B104" s="65" t="s">
+      <c r="B104" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="C104" s="67" t="s">
+      <c r="C104" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="D104" s="30" t="s">
+      <c r="D104" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="E104" s="30" t="s">
+      <c r="E104" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="F104" s="30" t="s">
+      <c r="F104" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="G104" s="30" t="s">
+      <c r="G104" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="H104" s="50" t="s">
+      <c r="H104" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I104" s="52" t="s">
+      <c r="I104" s="35" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="63"/>
-      <c r="B105" s="66"/>
-      <c r="C105" s="68"/>
-      <c r="D105" s="33" t="s">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="47"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="52"/>
+      <c r="D105" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="33" t="s">
+      <c r="E105" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="69"/>
-      <c r="I105" s="70"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="63"/>
-      <c r="B106" s="66"/>
-      <c r="C106" s="68"/>
-      <c r="D106" s="36" t="s">
+      <c r="F105" s="71"/>
+      <c r="G105" s="71"/>
+      <c r="H105" s="45"/>
+      <c r="I105" s="35"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="47"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="52"/>
+      <c r="D106" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="E106" s="37"/>
-      <c r="F106" s="36"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="51"/>
-      <c r="I106" s="53"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="63"/>
-      <c r="B107" s="71" t="s">
+      <c r="E106" s="71"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="45"/>
+      <c r="I106" s="35"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="47"/>
+      <c r="B107" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="C107" s="73" t="s">
+      <c r="C107" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="D107" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="F107" s="10" t="s">
+      <c r="F107" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="G107" s="10" t="s">
+      <c r="G107" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="H107" s="58" t="s">
+      <c r="H107" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I107" s="75" t="s">
+      <c r="I107" s="39" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="63"/>
-      <c r="B108" s="71"/>
-      <c r="C108" s="73"/>
-      <c r="D108" s="10" t="s">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="47"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="49"/>
+      <c r="D108" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E108" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="69"/>
-      <c r="I108" s="75"/>
-    </row>
-    <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="64"/>
-      <c r="B109" s="72"/>
-      <c r="C109" s="74"/>
-      <c r="D109" s="13" t="s">
+      <c r="F108" s="76"/>
+      <c r="G108" s="76"/>
+      <c r="H108" s="45"/>
+      <c r="I108" s="39"/>
+    </row>
+    <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="48"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="E109" s="14"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="59"/>
-      <c r="I109" s="75"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="62" t="s">
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="76"/>
+      <c r="H109" s="45"/>
+      <c r="I109" s="39"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="B110" s="65" t="s">
+      <c r="B110" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="C110" s="67" t="s">
+      <c r="C110" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="D110" s="30" t="s">
+      <c r="D110" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="E110" s="30" t="s">
+      <c r="E110" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="F110" s="30" t="s">
+      <c r="F110" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="G110" s="30" t="s">
+      <c r="G110" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="H110" s="50" t="s">
+      <c r="H110" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I110" s="52" t="s">
+      <c r="I110" s="35" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="63"/>
-      <c r="B111" s="66"/>
-      <c r="C111" s="68"/>
-      <c r="D111" s="33" t="s">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="47"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="52"/>
+      <c r="D111" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E111" s="33" t="s">
+      <c r="E111" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="69"/>
-      <c r="I111" s="70"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="63"/>
-      <c r="B112" s="66"/>
-      <c r="C112" s="68"/>
-      <c r="D112" s="36" t="s">
+      <c r="F111" s="71"/>
+      <c r="G111" s="71"/>
+      <c r="H111" s="45"/>
+      <c r="I111" s="35"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="47"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="52"/>
+      <c r="D112" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="E112" s="37"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="51"/>
-      <c r="I112" s="53"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="63"/>
-      <c r="B113" s="71" t="s">
+      <c r="E112" s="71"/>
+      <c r="F112" s="71"/>
+      <c r="G112" s="71"/>
+      <c r="H112" s="45"/>
+      <c r="I112" s="35"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="47"/>
+      <c r="B113" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="C113" s="73" t="s">
+      <c r="C113" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="F113" s="10" t="s">
+      <c r="F113" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="G113" s="10" t="s">
+      <c r="G113" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="H113" s="58" t="s">
+      <c r="H113" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I113" s="75" t="s">
+      <c r="I113" s="39" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="63"/>
-      <c r="B114" s="71"/>
-      <c r="C114" s="73"/>
-      <c r="D114" s="10" t="s">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="47"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="E114" s="10" t="s">
+      <c r="E114" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="69"/>
-      <c r="I114" s="75"/>
-    </row>
-    <row r="115" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="64"/>
-      <c r="B115" s="72"/>
-      <c r="C115" s="74"/>
-      <c r="D115" s="13" t="s">
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="45"/>
+      <c r="I114" s="39"/>
+    </row>
+    <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="48"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="49"/>
+      <c r="D115" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="E115" s="14"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="59"/>
-      <c r="I115" s="75"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="62" t="s">
+      <c r="E115" s="76"/>
+      <c r="F115" s="76"/>
+      <c r="G115" s="76"/>
+      <c r="H115" s="45"/>
+      <c r="I115" s="39"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="B116" s="65" t="s">
+      <c r="B116" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="C116" s="67" t="s">
+      <c r="C116" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="D116" s="30" t="s">
+      <c r="D116" s="71" t="s">
         <v>279</v>
       </c>
-      <c r="E116" s="30" t="s">
+      <c r="E116" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="F116" s="30" t="s">
+      <c r="F116" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="G116" s="30" t="s">
+      <c r="G116" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="H116" s="50" t="s">
+      <c r="H116" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I116" s="52" t="s">
+      <c r="I116" s="35" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="63"/>
-      <c r="B117" s="66"/>
-      <c r="C117" s="68"/>
-      <c r="D117" s="33" t="s">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="47"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="52"/>
+      <c r="D117" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="E117" s="33" t="s">
+      <c r="E117" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="F117" s="33"/>
-      <c r="G117" s="33"/>
-      <c r="H117" s="69"/>
-      <c r="I117" s="70"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="63"/>
-      <c r="B118" s="66"/>
-      <c r="C118" s="68"/>
-      <c r="D118" s="36" t="s">
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="45"/>
+      <c r="I117" s="35"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="47"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="52"/>
+      <c r="D118" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="E118" s="37"/>
-      <c r="F118" s="36"/>
-      <c r="G118" s="36"/>
-      <c r="H118" s="51"/>
-      <c r="I118" s="53"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="63"/>
-      <c r="B119" s="71" t="s">
+      <c r="E118" s="71"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="71"/>
+      <c r="H118" s="45"/>
+      <c r="I118" s="35"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="47"/>
+      <c r="B119" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="C119" s="73" t="s">
+      <c r="C119" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="E119" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="F119" s="10" t="s">
+      <c r="F119" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="G119" s="10" t="s">
+      <c r="G119" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="H119" s="58" t="s">
+      <c r="H119" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I119" s="75" t="s">
+      <c r="I119" s="39" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="63"/>
-      <c r="B120" s="71"/>
-      <c r="C120" s="73"/>
-      <c r="D120" s="10" t="s">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="47"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="49"/>
+      <c r="D120" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="E120" s="10" t="s">
+      <c r="E120" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="69"/>
-      <c r="I120" s="75"/>
-    </row>
-    <row r="121" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="64"/>
-      <c r="B121" s="72"/>
-      <c r="C121" s="74"/>
-      <c r="D121" s="13" t="s">
+      <c r="F120" s="76"/>
+      <c r="G120" s="76"/>
+      <c r="H120" s="45"/>
+      <c r="I120" s="39"/>
+    </row>
+    <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="48"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="49"/>
+      <c r="D121" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="E121" s="14"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="59"/>
-      <c r="I121" s="75"/>
-    </row>
-    <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="43" t="s">
+      <c r="E121" s="76"/>
+      <c r="F121" s="76"/>
+      <c r="G121" s="76"/>
+      <c r="H121" s="45"/>
+      <c r="I121" s="39"/>
+    </row>
+    <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="B122" s="65" t="s">
+      <c r="B122" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C122" s="80" t="s">
+      <c r="C122" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="D122" s="30" t="s">
+      <c r="D122" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="E122" s="40" t="s">
+      <c r="E122" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="F122" s="29" t="s">
+      <c r="F122" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="G122" s="29" t="s">
+      <c r="G122" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="H122" s="50" t="s">
+      <c r="H122" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I122" s="52" t="s">
+      <c r="I122" s="35" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="44"/>
-      <c r="B123" s="66"/>
-      <c r="C123" s="81"/>
-      <c r="D123" s="33" t="s">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="21"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="36"/>
+      <c r="D123" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="E123" s="41" t="s">
+      <c r="E123" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="F123" s="32"/>
-      <c r="G123" s="32"/>
-      <c r="H123" s="69"/>
-      <c r="I123" s="70"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="44"/>
-      <c r="B124" s="66"/>
-      <c r="C124" s="81"/>
-      <c r="D124" s="33" t="s">
+      <c r="F123" s="71"/>
+      <c r="G123" s="71"/>
+      <c r="H123" s="45"/>
+      <c r="I123" s="35"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="21"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="36"/>
+      <c r="D124" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="E124" s="41" t="s">
+      <c r="E124" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="F124" s="32"/>
-      <c r="G124" s="32"/>
-      <c r="H124" s="69"/>
-      <c r="I124" s="70"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="44"/>
-      <c r="B125" s="66"/>
-      <c r="C125" s="81"/>
-      <c r="D125" s="33" t="s">
+      <c r="F124" s="71"/>
+      <c r="G124" s="71"/>
+      <c r="H124" s="45"/>
+      <c r="I124" s="35"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="21"/>
+      <c r="B125" s="35"/>
+      <c r="C125" s="36"/>
+      <c r="D125" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="E125" s="41" t="s">
+      <c r="E125" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="F125" s="32"/>
-      <c r="G125" s="32"/>
-      <c r="H125" s="69"/>
-      <c r="I125" s="70"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="44"/>
-      <c r="B126" s="66"/>
-      <c r="C126" s="81"/>
-      <c r="D126" s="36" t="s">
+      <c r="F125" s="71"/>
+      <c r="G125" s="71"/>
+      <c r="H125" s="45"/>
+      <c r="I125" s="35"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="21"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="E126" s="42"/>
-      <c r="F126" s="35"/>
-      <c r="G126" s="35"/>
-      <c r="H126" s="51"/>
-      <c r="I126" s="53"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="44"/>
-      <c r="B127" s="89" t="s">
+      <c r="E126" s="71"/>
+      <c r="F126" s="71"/>
+      <c r="G126" s="71"/>
+      <c r="H126" s="45"/>
+      <c r="I126" s="35"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="21"/>
+      <c r="B127" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="C127" s="91" t="s">
+      <c r="C127" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="D127" s="15" t="s">
+      <c r="D127" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="E127" s="17" t="s">
+      <c r="E127" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="F127" s="23" t="s">
+      <c r="F127" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="G127" s="23" t="s">
+      <c r="G127" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="H127" s="69" t="s">
+      <c r="H127" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I127" s="60" t="s">
+      <c r="I127" s="39" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="44"/>
-      <c r="B128" s="71"/>
-      <c r="C128" s="97"/>
-      <c r="D128" s="15" t="s">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="21"/>
+      <c r="B128" s="39"/>
+      <c r="C128" s="40"/>
+      <c r="D128" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="E128" s="17" t="s">
+      <c r="E128" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="69"/>
-      <c r="I128" s="75"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="44"/>
-      <c r="B129" s="71"/>
-      <c r="C129" s="97"/>
-      <c r="D129" s="15" t="s">
+      <c r="F128" s="76"/>
+      <c r="G128" s="76"/>
+      <c r="H128" s="45"/>
+      <c r="I128" s="39"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="21"/>
+      <c r="B129" s="39"/>
+      <c r="C129" s="40"/>
+      <c r="D129" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="E129" s="17" t="s">
+      <c r="E129" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="69"/>
-      <c r="I129" s="75"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="44"/>
-      <c r="B130" s="71"/>
-      <c r="C130" s="97"/>
-      <c r="D130" s="15" t="s">
+      <c r="F129" s="76"/>
+      <c r="G129" s="76"/>
+      <c r="H129" s="45"/>
+      <c r="I129" s="39"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="21"/>
+      <c r="B130" s="39"/>
+      <c r="C130" s="40"/>
+      <c r="D130" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="E130" s="17" t="s">
+      <c r="E130" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="69"/>
-      <c r="I130" s="75"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="44"/>
-      <c r="B131" s="71"/>
-      <c r="C131" s="97"/>
-      <c r="D131" s="21" t="s">
+      <c r="F130" s="76"/>
+      <c r="G130" s="76"/>
+      <c r="H130" s="45"/>
+      <c r="I130" s="39"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="21"/>
+      <c r="B131" s="39"/>
+      <c r="C131" s="40"/>
+      <c r="D131" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="E131" s="22"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="51"/>
-      <c r="I131" s="78"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="44"/>
-      <c r="B132" s="47" t="s">
+      <c r="E131" s="76"/>
+      <c r="F131" s="76"/>
+      <c r="G131" s="76"/>
+      <c r="H131" s="45"/>
+      <c r="I131" s="39"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="21"/>
+      <c r="B132" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C132" s="49" t="s">
+      <c r="C132" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="D132" s="33" t="s">
+      <c r="D132" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="E132" s="41" t="s">
+      <c r="E132" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="F132" s="32" t="s">
+      <c r="F132" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="G132" s="32" t="s">
+      <c r="G132" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="H132" s="69" t="s">
+      <c r="H132" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I132" s="92" t="s">
+      <c r="I132" s="35" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="44"/>
-      <c r="B133" s="66"/>
-      <c r="C133" s="81"/>
-      <c r="D133" s="33" t="s">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="21"/>
+      <c r="B133" s="35"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E133" s="41" t="s">
+      <c r="E133" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F133" s="32"/>
-      <c r="G133" s="32"/>
-      <c r="H133" s="69"/>
-      <c r="I133" s="70"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="44"/>
-      <c r="B134" s="66"/>
-      <c r="C134" s="81"/>
-      <c r="D134" s="33" t="s">
+      <c r="F133" s="71"/>
+      <c r="G133" s="71"/>
+      <c r="H133" s="45"/>
+      <c r="I133" s="35"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="21"/>
+      <c r="B134" s="35"/>
+      <c r="C134" s="36"/>
+      <c r="D134" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="E134" s="41" t="s">
+      <c r="E134" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="F134" s="32"/>
-      <c r="G134" s="32"/>
-      <c r="H134" s="69"/>
-      <c r="I134" s="70"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="44"/>
-      <c r="B135" s="66"/>
-      <c r="C135" s="81"/>
-      <c r="D135" s="33" t="s">
+      <c r="F134" s="71"/>
+      <c r="G134" s="71"/>
+      <c r="H134" s="45"/>
+      <c r="I134" s="35"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="21"/>
+      <c r="B135" s="35"/>
+      <c r="C135" s="36"/>
+      <c r="D135" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="E135" s="41" t="s">
+      <c r="E135" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="F135" s="32"/>
-      <c r="G135" s="32"/>
-      <c r="H135" s="69"/>
-      <c r="I135" s="70"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="44"/>
-      <c r="B136" s="66"/>
-      <c r="C136" s="81"/>
-      <c r="D136" s="36" t="s">
+      <c r="F135" s="71"/>
+      <c r="G135" s="71"/>
+      <c r="H135" s="45"/>
+      <c r="I135" s="35"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="21"/>
+      <c r="B136" s="35"/>
+      <c r="C136" s="36"/>
+      <c r="D136" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="E136" s="42"/>
-      <c r="F136" s="35"/>
-      <c r="G136" s="35"/>
-      <c r="H136" s="51"/>
-      <c r="I136" s="53"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="44"/>
-      <c r="B137" s="89" t="s">
+      <c r="E136" s="71"/>
+      <c r="F136" s="71"/>
+      <c r="G136" s="71"/>
+      <c r="H136" s="45"/>
+      <c r="I136" s="35"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="21"/>
+      <c r="B137" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="C137" s="91" t="s">
+      <c r="C137" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="D137" s="15" t="s">
+      <c r="D137" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="E137" s="17" t="s">
+      <c r="E137" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="F137" s="23" t="s">
+      <c r="F137" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="G137" s="23" t="s">
+      <c r="G137" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="H137" s="69" t="s">
+      <c r="H137" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I137" s="60" t="s">
+      <c r="I137" s="39" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="44"/>
-      <c r="B138" s="71"/>
-      <c r="C138" s="97"/>
-      <c r="D138" s="15" t="s">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="21"/>
+      <c r="B138" s="39"/>
+      <c r="C138" s="40"/>
+      <c r="D138" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="E138" s="17" t="s">
+      <c r="E138" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="69"/>
-      <c r="I138" s="75"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="44"/>
-      <c r="B139" s="71"/>
-      <c r="C139" s="97"/>
-      <c r="D139" s="15" t="s">
+      <c r="F138" s="76"/>
+      <c r="G138" s="76"/>
+      <c r="H138" s="45"/>
+      <c r="I138" s="39"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="21"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="40"/>
+      <c r="D139" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="E139" s="17" t="s">
+      <c r="E139" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="69"/>
-      <c r="I139" s="75"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="44"/>
-      <c r="B140" s="71"/>
-      <c r="C140" s="97"/>
-      <c r="D140" s="15" t="s">
+      <c r="F139" s="76"/>
+      <c r="G139" s="76"/>
+      <c r="H139" s="45"/>
+      <c r="I139" s="39"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="21"/>
+      <c r="B140" s="39"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="E140" s="17" t="s">
+      <c r="E140" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="69"/>
-      <c r="I140" s="75"/>
-    </row>
-    <row r="141" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="44"/>
-      <c r="B141" s="54"/>
-      <c r="C141" s="56"/>
-      <c r="D141" s="15" t="s">
+      <c r="F140" s="76"/>
+      <c r="G140" s="76"/>
+      <c r="H140" s="45"/>
+      <c r="I140" s="39"/>
+    </row>
+    <row r="141" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="21"/>
+      <c r="B141" s="39"/>
+      <c r="C141" s="40"/>
+      <c r="D141" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="E141" s="20"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="69"/>
-      <c r="I141" s="61"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="99" t="s">
+      <c r="E141" s="76"/>
+      <c r="F141" s="76"/>
+      <c r="G141" s="76"/>
+      <c r="H141" s="45"/>
+      <c r="I141" s="39"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="B142" s="65" t="s">
+      <c r="B142" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="C142" s="80" t="s">
+      <c r="C142" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="D142" s="31" t="s">
+      <c r="D142" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="E142" s="30" t="s">
+      <c r="E142" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="F142" s="30" t="s">
+      <c r="F142" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="G142" s="30" t="s">
+      <c r="G142" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="H142" s="50" t="s">
+      <c r="H142" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I142" s="52" t="s">
+      <c r="I142" s="35" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="100"/>
-      <c r="B143" s="66"/>
-      <c r="C143" s="81"/>
-      <c r="D143" s="34" t="s">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="33"/>
+      <c r="B143" s="35"/>
+      <c r="C143" s="36"/>
+      <c r="D143" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="E143" s="33" t="s">
+      <c r="E143" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="F143" s="33"/>
-      <c r="G143" s="33"/>
-      <c r="H143" s="69"/>
-      <c r="I143" s="70"/>
-    </row>
-    <row r="144" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="100"/>
-      <c r="B144" s="66"/>
-      <c r="C144" s="81"/>
-      <c r="D144" s="37" t="s">
+      <c r="F143" s="71"/>
+      <c r="G143" s="71"/>
+      <c r="H143" s="45"/>
+      <c r="I143" s="35"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="33"/>
+      <c r="B144" s="35"/>
+      <c r="C144" s="36"/>
+      <c r="D144" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="E144" s="36"/>
-      <c r="F144" s="36"/>
-      <c r="G144" s="36"/>
-      <c r="H144" s="51"/>
-      <c r="I144" s="53"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="100"/>
-      <c r="B145" s="71" t="s">
+      <c r="E144" s="71"/>
+      <c r="F144" s="71"/>
+      <c r="G144" s="71"/>
+      <c r="H144" s="45"/>
+      <c r="I144" s="35"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="33"/>
+      <c r="B145" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="C145" s="97" t="s">
+      <c r="C145" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="D145" s="16" t="s">
+      <c r="D145" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="E145" s="18" t="s">
+      <c r="E145" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="F145" s="18" t="s">
+      <c r="F145" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="G145" s="18" t="s">
+      <c r="G145" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="H145" s="50" t="s">
+      <c r="H145" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I145" s="60" t="s">
+      <c r="I145" s="39" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="100"/>
-      <c r="B146" s="71"/>
-      <c r="C146" s="97"/>
-      <c r="D146" s="16" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="33"/>
+      <c r="B146" s="39"/>
+      <c r="C146" s="40"/>
+      <c r="D146" s="75" t="s">
         <v>211</v>
       </c>
-      <c r="E146" s="15" t="s">
+      <c r="E146" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="69"/>
-      <c r="I146" s="75"/>
-    </row>
-    <row r="147" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="101"/>
-      <c r="B147" s="72"/>
-      <c r="C147" s="98"/>
-      <c r="D147" s="28" t="s">
+      <c r="F146" s="76"/>
+      <c r="G146" s="76"/>
+      <c r="H146" s="45"/>
+      <c r="I146" s="39"/>
+    </row>
+    <row r="147" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="41"/>
+      <c r="B147" s="39"/>
+      <c r="C147" s="40"/>
+      <c r="D147" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="13"/>
-      <c r="H147" s="51"/>
-      <c r="I147" s="61"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="99" t="s">
+      <c r="E147" s="76"/>
+      <c r="F147" s="76"/>
+      <c r="G147" s="76"/>
+      <c r="H147" s="45"/>
+      <c r="I147" s="39"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="B148" s="65" t="s">
+      <c r="B148" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="C148" s="80" t="s">
+      <c r="C148" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D148" s="31" t="s">
+      <c r="D148" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="E148" s="38" t="s">
+      <c r="E148" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="F148" s="30" t="s">
+      <c r="F148" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="G148" s="30" t="s">
+      <c r="G148" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="H148" s="50" t="s">
+      <c r="H148" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I148" s="52" t="s">
+      <c r="I148" s="35" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="100"/>
-      <c r="B149" s="66"/>
-      <c r="C149" s="81"/>
-      <c r="D149" s="34" t="s">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="33"/>
+      <c r="B149" s="35"/>
+      <c r="C149" s="36"/>
+      <c r="D149" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="E149" s="33" t="s">
+      <c r="E149" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="F149" s="33"/>
-      <c r="G149" s="33"/>
-      <c r="H149" s="69"/>
-      <c r="I149" s="70"/>
-    </row>
-    <row r="150" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="100"/>
-      <c r="B150" s="66"/>
-      <c r="C150" s="81"/>
-      <c r="D150" s="37" t="s">
+      <c r="F149" s="71"/>
+      <c r="G149" s="71"/>
+      <c r="H149" s="45"/>
+      <c r="I149" s="35"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="33"/>
+      <c r="B150" s="35"/>
+      <c r="C150" s="36"/>
+      <c r="D150" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="E150" s="36"/>
-      <c r="F150" s="36"/>
-      <c r="G150" s="36"/>
-      <c r="H150" s="51"/>
-      <c r="I150" s="53"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="100"/>
-      <c r="B151" s="71" t="s">
+      <c r="E150" s="71"/>
+      <c r="F150" s="71"/>
+      <c r="G150" s="71"/>
+      <c r="H150" s="45"/>
+      <c r="I150" s="35"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="33"/>
+      <c r="B151" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="C151" s="97" t="s">
+      <c r="C151" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="D151" s="26" t="s">
+      <c r="D151" s="75" t="s">
         <v>216</v>
       </c>
-      <c r="E151" s="18" t="s">
+      <c r="E151" s="75" t="s">
         <v>215</v>
       </c>
-      <c r="F151" s="18" t="s">
+      <c r="F151" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="G151" s="18" t="s">
+      <c r="G151" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="H151" s="50" t="s">
+      <c r="H151" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I151" s="60" t="s">
+      <c r="I151" s="39" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="100"/>
-      <c r="B152" s="71"/>
-      <c r="C152" s="97"/>
-      <c r="D152" s="16" t="s">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="33"/>
+      <c r="B152" s="39"/>
+      <c r="C152" s="40"/>
+      <c r="D152" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="E152" s="15" t="s">
+      <c r="E152" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
-      <c r="H152" s="69"/>
-      <c r="I152" s="75"/>
-    </row>
-    <row r="153" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="101"/>
-      <c r="B153" s="72"/>
-      <c r="C153" s="98"/>
-      <c r="D153" s="27" t="s">
+      <c r="F152" s="76"/>
+      <c r="G152" s="76"/>
+      <c r="H152" s="45"/>
+      <c r="I152" s="39"/>
+    </row>
+    <row r="153" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="41"/>
+      <c r="B153" s="39"/>
+      <c r="C153" s="40"/>
+      <c r="D153" s="75" t="s">
         <v>220</v>
       </c>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="13"/>
-      <c r="H153" s="51"/>
-      <c r="I153" s="61"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="99" t="s">
+      <c r="E153" s="76"/>
+      <c r="F153" s="76"/>
+      <c r="G153" s="76"/>
+      <c r="H153" s="45"/>
+      <c r="I153" s="39"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="B154" s="65" t="s">
+      <c r="B154" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="C154" s="80" t="s">
+      <c r="C154" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="D154" s="31" t="s">
+      <c r="D154" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="E154" s="38" t="s">
+      <c r="E154" s="71" t="s">
         <v>300</v>
       </c>
-      <c r="F154" s="30" t="s">
+      <c r="F154" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="G154" s="30" t="s">
+      <c r="G154" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="H154" s="50" t="s">
+      <c r="H154" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I154" s="52" t="s">
+      <c r="I154" s="35" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="100"/>
-      <c r="B155" s="66"/>
-      <c r="C155" s="81"/>
-      <c r="D155" s="34" t="s">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="33"/>
+      <c r="B155" s="35"/>
+      <c r="C155" s="36"/>
+      <c r="D155" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="E155" s="33" t="s">
+      <c r="E155" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="F155" s="33"/>
-      <c r="G155" s="33"/>
-      <c r="H155" s="69"/>
-      <c r="I155" s="70"/>
-    </row>
-    <row r="156" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="100"/>
-      <c r="B156" s="66"/>
-      <c r="C156" s="81"/>
-      <c r="D156" s="36" t="s">
+      <c r="F155" s="71"/>
+      <c r="G155" s="71"/>
+      <c r="H155" s="45"/>
+      <c r="I155" s="35"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="33"/>
+      <c r="B156" s="35"/>
+      <c r="C156" s="36"/>
+      <c r="D156" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="E156" s="36"/>
-      <c r="F156" s="36"/>
-      <c r="G156" s="36"/>
-      <c r="H156" s="51"/>
-      <c r="I156" s="53"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="100"/>
-      <c r="B157" s="71" t="s">
+      <c r="E156" s="71"/>
+      <c r="F156" s="71"/>
+      <c r="G156" s="71"/>
+      <c r="H156" s="45"/>
+      <c r="I156" s="35"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="33"/>
+      <c r="B157" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="C157" s="97" t="s">
+      <c r="C157" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="D157" s="16" t="s">
+      <c r="D157" s="75" t="s">
         <v>299</v>
       </c>
-      <c r="E157" s="18" t="s">
+      <c r="E157" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="F157" s="18" t="s">
+      <c r="F157" s="75" t="s">
         <v>301</v>
       </c>
-      <c r="G157" s="18" t="s">
+      <c r="G157" s="75" t="s">
         <v>301</v>
       </c>
-      <c r="H157" s="50" t="s">
+      <c r="H157" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I157" s="60" t="s">
+      <c r="I157" s="39" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="100"/>
-      <c r="B158" s="71"/>
-      <c r="C158" s="97"/>
-      <c r="D158" s="16" t="s">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="33"/>
+      <c r="B158" s="39"/>
+      <c r="C158" s="40"/>
+      <c r="D158" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="E158" s="15" t="s">
+      <c r="E158" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="F158" s="10"/>
-      <c r="G158" s="10"/>
-      <c r="H158" s="69"/>
-      <c r="I158" s="75"/>
-    </row>
-    <row r="159" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="102"/>
-      <c r="B159" s="54"/>
-      <c r="C159" s="56"/>
-      <c r="D159" s="15" t="s">
+      <c r="F158" s="76"/>
+      <c r="G158" s="76"/>
+      <c r="H158" s="45"/>
+      <c r="I158" s="39"/>
+    </row>
+    <row r="159" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="34"/>
+      <c r="B159" s="39"/>
+      <c r="C159" s="40"/>
+      <c r="D159" s="75" t="s">
         <v>220</v>
       </c>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
-      <c r="H159" s="51"/>
-      <c r="I159" s="75"/>
-    </row>
-    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="43" t="s">
+      <c r="E159" s="76"/>
+      <c r="F159" s="76"/>
+      <c r="G159" s="76"/>
+      <c r="H159" s="45"/>
+      <c r="I159" s="39"/>
+    </row>
+    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B160" s="46" t="s">
+      <c r="B160" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="C160" s="48" t="s">
+      <c r="C160" s="36" t="s">
         <v>302</v>
       </c>
-      <c r="D160" s="31" t="s">
+      <c r="D160" s="71" t="s">
         <v>233</v>
       </c>
-      <c r="E160" s="30" t="s">
+      <c r="E160" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="F160" s="30" t="s">
+      <c r="F160" s="71" t="s">
         <v>306</v>
       </c>
-      <c r="G160" s="30" t="s">
+      <c r="G160" s="71" t="s">
         <v>306</v>
       </c>
-      <c r="H160" s="50" t="s">
+      <c r="H160" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I160" s="52" t="s">
+      <c r="I160" s="35" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="44"/>
-      <c r="B161" s="47"/>
-      <c r="C161" s="49"/>
-      <c r="D161" s="36" t="s">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" s="21"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="36"/>
+      <c r="D161" s="71" t="s">
         <v>304</v>
       </c>
-      <c r="E161" s="42"/>
-      <c r="F161" s="36"/>
-      <c r="G161" s="36"/>
-      <c r="H161" s="51"/>
-      <c r="I161" s="53"/>
-    </row>
-    <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="44"/>
-      <c r="B162" s="54" t="s">
+      <c r="E161" s="71"/>
+      <c r="F161" s="71"/>
+      <c r="G161" s="71"/>
+      <c r="H161" s="45"/>
+      <c r="I161" s="35"/>
+    </row>
+    <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="21"/>
+      <c r="B162" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="C162" s="56" t="s">
+      <c r="C162" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="D162" s="19" t="s">
+      <c r="D162" s="75" t="s">
         <v>239</v>
       </c>
-      <c r="E162" s="18" t="s">
+      <c r="E162" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="F162" s="18" t="s">
+      <c r="F162" s="75" t="s">
         <v>305</v>
       </c>
-      <c r="G162" s="18" t="s">
+      <c r="G162" s="75" t="s">
         <v>305</v>
       </c>
-      <c r="H162" s="58" t="s">
+      <c r="H162" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I162" s="60" t="s">
+      <c r="I162" s="39" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="45"/>
-      <c r="B163" s="55"/>
-      <c r="C163" s="57"/>
-      <c r="D163" s="24" t="s">
+    <row r="163" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="22"/>
+      <c r="B163" s="39"/>
+      <c r="C163" s="40"/>
+      <c r="D163" s="75" t="s">
         <v>304</v>
       </c>
-      <c r="E163" s="25"/>
-      <c r="F163" s="13"/>
-      <c r="G163" s="13"/>
-      <c r="H163" s="59"/>
-      <c r="I163" s="61"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="43" t="s">
+      <c r="E163" s="76"/>
+      <c r="F163" s="76"/>
+      <c r="G163" s="76"/>
+      <c r="H163" s="45"/>
+      <c r="I163" s="39"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="B164" s="46" t="s">
+      <c r="B164" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="C164" s="48" t="s">
+      <c r="C164" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="D164" s="31" t="s">
+      <c r="D164" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="E164" s="30" t="s">
+      <c r="E164" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="F164" s="30" t="s">
+      <c r="F164" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="G164" s="30" t="s">
+      <c r="G164" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="H164" s="50" t="s">
+      <c r="H164" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I164" s="52" t="s">
+      <c r="I164" s="35" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="44"/>
-      <c r="B165" s="47"/>
-      <c r="C165" s="49"/>
-      <c r="D165" s="36" t="s">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" s="21"/>
+      <c r="B165" s="35"/>
+      <c r="C165" s="36"/>
+      <c r="D165" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="E165" s="42"/>
-      <c r="F165" s="36"/>
-      <c r="G165" s="36"/>
-      <c r="H165" s="51"/>
-      <c r="I165" s="53"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="44"/>
-      <c r="B166" s="54" t="s">
+      <c r="E165" s="71"/>
+      <c r="F165" s="71"/>
+      <c r="G165" s="71"/>
+      <c r="H165" s="45"/>
+      <c r="I165" s="35"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" s="21"/>
+      <c r="B166" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="C166" s="56" t="s">
+      <c r="C166" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="D166" s="19" t="s">
+      <c r="D166" s="75" t="s">
         <v>240</v>
       </c>
-      <c r="E166" s="18" t="s">
+      <c r="E166" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="F166" s="18" t="s">
+      <c r="F166" s="75" t="s">
         <v>243</v>
       </c>
-      <c r="G166" s="18" t="s">
+      <c r="G166" s="75" t="s">
         <v>243</v>
       </c>
-      <c r="H166" s="58" t="s">
+      <c r="H166" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I166" s="60" t="s">
+      <c r="I166" s="39" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="45"/>
-      <c r="B167" s="55"/>
-      <c r="C167" s="57"/>
-      <c r="D167" s="24" t="s">
+    <row r="167" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="22"/>
+      <c r="B167" s="39"/>
+      <c r="C167" s="40"/>
+      <c r="D167" s="75" t="s">
         <v>242</v>
       </c>
-      <c r="E167" s="25"/>
-      <c r="F167" s="13"/>
-      <c r="G167" s="13"/>
-      <c r="H167" s="59"/>
-      <c r="I167" s="61"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="43" t="s">
+      <c r="E167" s="76"/>
+      <c r="F167" s="76"/>
+      <c r="G167" s="76"/>
+      <c r="H167" s="45"/>
+      <c r="I167" s="39"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="B168" s="46" t="s">
+      <c r="B168" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="C168" s="48" t="s">
+      <c r="C168" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="D168" s="31" t="s">
+      <c r="D168" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="E168" s="30" t="s">
+      <c r="E168" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="F168" s="30" t="s">
+      <c r="F168" s="71" t="s">
         <v>251</v>
       </c>
-      <c r="G168" s="30" t="s">
+      <c r="G168" s="71" t="s">
         <v>251</v>
       </c>
-      <c r="H168" s="50" t="s">
+      <c r="H168" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I168" s="52" t="s">
+      <c r="I168" s="35" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="44"/>
-      <c r="B169" s="47"/>
-      <c r="C169" s="49"/>
-      <c r="D169" s="36" t="s">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="21"/>
+      <c r="B169" s="35"/>
+      <c r="C169" s="36"/>
+      <c r="D169" s="71" t="s">
         <v>250</v>
       </c>
-      <c r="E169" s="42"/>
-      <c r="F169" s="36"/>
-      <c r="G169" s="36"/>
-      <c r="H169" s="51"/>
-      <c r="I169" s="53"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="44"/>
-      <c r="B170" s="54" t="s">
+      <c r="E169" s="71"/>
+      <c r="F169" s="71"/>
+      <c r="G169" s="71"/>
+      <c r="H169" s="45"/>
+      <c r="I169" s="35"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="21"/>
+      <c r="B170" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="C170" s="56" t="s">
+      <c r="C170" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="D170" s="19" t="s">
+      <c r="D170" s="75" t="s">
         <v>240</v>
       </c>
-      <c r="E170" s="18" t="s">
+      <c r="E170" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="F170" s="18" t="s">
+      <c r="F170" s="75" t="s">
         <v>252</v>
       </c>
-      <c r="G170" s="18" t="s">
+      <c r="G170" s="75" t="s">
         <v>252</v>
       </c>
-      <c r="H170" s="58" t="s">
+      <c r="H170" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I170" s="60" t="s">
+      <c r="I170" s="39" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="45"/>
-      <c r="B171" s="55"/>
-      <c r="C171" s="57"/>
-      <c r="D171" s="24" t="s">
+    <row r="171" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="22"/>
+      <c r="B171" s="39"/>
+      <c r="C171" s="40"/>
+      <c r="D171" s="75" t="s">
         <v>250</v>
       </c>
-      <c r="E171" s="25"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="13"/>
-      <c r="H171" s="59"/>
-      <c r="I171" s="61"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="43" t="s">
+      <c r="E171" s="76"/>
+      <c r="F171" s="76"/>
+      <c r="G171" s="76"/>
+      <c r="H171" s="45"/>
+      <c r="I171" s="39"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B172" s="46" t="s">
+      <c r="B172" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="C172" s="48" t="s">
+      <c r="C172" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="D172" s="31" t="s">
+      <c r="D172" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="E172" s="30" t="s">
+      <c r="E172" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="F172" s="30" t="s">
+      <c r="F172" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="G172" s="30" t="s">
+      <c r="G172" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="H172" s="50" t="s">
+      <c r="H172" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I172" s="52" t="s">
+      <c r="I172" s="35" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="44"/>
-      <c r="B173" s="47"/>
-      <c r="C173" s="49"/>
-      <c r="D173" s="36" t="s">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" s="21"/>
+      <c r="B173" s="35"/>
+      <c r="C173" s="36"/>
+      <c r="D173" s="71" t="s">
         <v>258</v>
       </c>
-      <c r="E173" s="42"/>
-      <c r="F173" s="36"/>
-      <c r="G173" s="36"/>
-      <c r="H173" s="51"/>
-      <c r="I173" s="53"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="44"/>
-      <c r="B174" s="54" t="s">
+      <c r="E173" s="71"/>
+      <c r="F173" s="71"/>
+      <c r="G173" s="71"/>
+      <c r="H173" s="45"/>
+      <c r="I173" s="35"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" s="21"/>
+      <c r="B174" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="C174" s="56" t="s">
+      <c r="C174" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="D174" s="19" t="s">
+      <c r="D174" s="75" t="s">
         <v>254</v>
       </c>
-      <c r="E174" s="18" t="s">
+      <c r="E174" s="75" t="s">
         <v>257</v>
       </c>
-      <c r="F174" s="18" t="s">
+      <c r="F174" s="75" t="s">
         <v>315</v>
       </c>
-      <c r="G174" s="18" t="s">
+      <c r="G174" s="75" t="s">
         <v>315</v>
       </c>
-      <c r="H174" s="58" t="s">
+      <c r="H174" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I174" s="60" t="s">
+      <c r="I174" s="39" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="45"/>
-      <c r="B175" s="55"/>
-      <c r="C175" s="57"/>
-      <c r="D175" s="24" t="s">
+    <row r="175" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="22"/>
+      <c r="B175" s="39"/>
+      <c r="C175" s="40"/>
+      <c r="D175" s="75" t="s">
         <v>258</v>
       </c>
-      <c r="E175" s="25"/>
-      <c r="F175" s="13"/>
-      <c r="G175" s="13"/>
-      <c r="H175" s="59"/>
-      <c r="I175" s="61"/>
-    </row>
-    <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="43" t="s">
+      <c r="E175" s="76"/>
+      <c r="F175" s="76"/>
+      <c r="G175" s="76"/>
+      <c r="H175" s="45"/>
+      <c r="I175" s="39"/>
+    </row>
+    <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="B176" s="46" t="s">
+      <c r="B176" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="C176" s="48" t="s">
+      <c r="C176" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="D176" s="31" t="s">
+      <c r="D176" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="E176" s="30" t="s">
+      <c r="E176" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="F176" s="30" t="s">
+      <c r="F176" s="71" t="s">
         <v>316</v>
       </c>
-      <c r="G176" s="30" t="s">
+      <c r="G176" s="71" t="s">
         <v>316</v>
       </c>
-      <c r="H176" s="50" t="s">
+      <c r="H176" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I176" s="52" t="s">
+      <c r="I176" s="35" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="44"/>
-      <c r="B177" s="47"/>
-      <c r="C177" s="49"/>
-      <c r="D177" s="36" t="s">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" s="21"/>
+      <c r="B177" s="35"/>
+      <c r="C177" s="36"/>
+      <c r="D177" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="E177" s="42"/>
-      <c r="F177" s="36"/>
-      <c r="G177" s="36"/>
-      <c r="H177" s="51"/>
-      <c r="I177" s="53"/>
-    </row>
-    <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="44"/>
-      <c r="B178" s="54" t="s">
+      <c r="E177" s="71"/>
+      <c r="F177" s="71"/>
+      <c r="G177" s="71"/>
+      <c r="H177" s="45"/>
+      <c r="I177" s="35"/>
+    </row>
+    <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="21"/>
+      <c r="B178" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="C178" s="56" t="s">
+      <c r="C178" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="D178" s="19" t="s">
+      <c r="D178" s="75" t="s">
         <v>269</v>
       </c>
-      <c r="E178" s="18" t="s">
+      <c r="E178" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="F178" s="18" t="s">
+      <c r="F178" s="75" t="s">
         <v>317</v>
       </c>
-      <c r="G178" s="18" t="s">
+      <c r="G178" s="75" t="s">
         <v>317</v>
       </c>
-      <c r="H178" s="58" t="s">
+      <c r="H178" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I178" s="60" t="s">
+      <c r="I178" s="39" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="45"/>
-      <c r="B179" s="55"/>
-      <c r="C179" s="57"/>
-      <c r="D179" s="24" t="s">
+    <row r="179" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="22"/>
+      <c r="B179" s="39"/>
+      <c r="C179" s="40"/>
+      <c r="D179" s="75" t="s">
         <v>268</v>
       </c>
-      <c r="E179" s="25"/>
-      <c r="F179" s="13"/>
-      <c r="G179" s="13"/>
-      <c r="H179" s="59"/>
-      <c r="I179" s="61"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="43" t="s">
+      <c r="E179" s="76"/>
+      <c r="F179" s="76"/>
+      <c r="G179" s="76"/>
+      <c r="H179" s="45"/>
+      <c r="I179" s="39"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="B180" s="46" t="s">
+      <c r="B180" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="C180" s="48" t="s">
+      <c r="C180" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="D180" s="31" t="s">
+      <c r="D180" s="71" t="s">
         <v>312</v>
       </c>
-      <c r="E180" s="30" t="s">
+      <c r="E180" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="F180" s="30" t="s">
+      <c r="F180" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="G180" s="30" t="s">
+      <c r="G180" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="H180" s="50" t="s">
+      <c r="H180" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I180" s="52" t="s">
+      <c r="I180" s="35" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="44"/>
-      <c r="B181" s="47"/>
-      <c r="C181" s="49"/>
-      <c r="D181" s="36" t="s">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181" s="21"/>
+      <c r="B181" s="35"/>
+      <c r="C181" s="36"/>
+      <c r="D181" s="71" t="s">
         <v>232</v>
       </c>
-      <c r="E181" s="42"/>
-      <c r="F181" s="36"/>
-      <c r="G181" s="36"/>
-      <c r="H181" s="51"/>
-      <c r="I181" s="53"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="44"/>
-      <c r="B182" s="54" t="s">
+      <c r="E181" s="71"/>
+      <c r="F181" s="71"/>
+      <c r="G181" s="71"/>
+      <c r="H181" s="45"/>
+      <c r="I181" s="35"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182" s="21"/>
+      <c r="B182" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="C182" s="56" t="s">
+      <c r="C182" s="40" t="s">
         <v>311</v>
       </c>
-      <c r="D182" s="19" t="s">
+      <c r="D182" s="75" t="s">
         <v>313</v>
       </c>
-      <c r="E182" s="18" t="s">
+      <c r="E182" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F182" s="18" t="s">
+      <c r="F182" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G182" s="18" t="s">
+      <c r="G182" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="H182" s="58" t="s">
+      <c r="H182" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I182" s="60" t="s">
+      <c r="I182" s="39" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="45"/>
-      <c r="B183" s="55"/>
-      <c r="C183" s="57"/>
-      <c r="D183" s="24" t="s">
+    <row r="183" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="21"/>
+      <c r="B183" s="39"/>
+      <c r="C183" s="40"/>
+      <c r="D183" s="75" t="s">
         <v>232</v>
       </c>
-      <c r="E183" s="25"/>
-      <c r="F183" s="13"/>
-      <c r="G183" s="13"/>
-      <c r="H183" s="59"/>
-      <c r="I183" s="61"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B184" s="20"/>
-      <c r="C184" s="20"/>
-      <c r="D184" s="20"/>
-      <c r="E184" s="20"/>
-      <c r="F184" s="20"/>
-      <c r="G184" s="20"/>
-      <c r="H184" s="20"/>
-      <c r="I184" s="20"/>
+      <c r="E183" s="76"/>
+      <c r="F183" s="76"/>
+      <c r="G183" s="76"/>
+      <c r="H183" s="45"/>
+      <c r="I183" s="39"/>
+    </row>
+    <row r="184" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="B184" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="C184" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="D184" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="E184" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="F184" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="G184" s="71"/>
+      <c r="H184" s="71"/>
+      <c r="I184" s="71"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185" s="47"/>
+      <c r="B185" s="35"/>
+      <c r="C185" s="36"/>
+      <c r="D185" s="71" t="s">
+        <v>358</v>
+      </c>
+      <c r="E185" s="71" t="s">
+        <v>359</v>
+      </c>
+      <c r="F185" s="71"/>
+      <c r="G185" s="71"/>
+      <c r="H185" s="71"/>
+      <c r="I185" s="71"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" s="47"/>
+      <c r="B186" s="35"/>
+      <c r="C186" s="36"/>
+      <c r="D186" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="E186" s="71"/>
+      <c r="F186" s="71"/>
+      <c r="G186" s="71"/>
+      <c r="H186" s="71"/>
+      <c r="I186" s="71"/>
+    </row>
+    <row r="187" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="47"/>
+      <c r="B187" s="72" t="s">
+        <v>357</v>
+      </c>
+      <c r="C187" s="73" t="s">
+        <v>395</v>
+      </c>
+      <c r="D187" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="E187" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="F187" s="74" t="s">
+        <v>360</v>
+      </c>
+      <c r="G187" s="74"/>
+      <c r="H187" s="74"/>
+      <c r="I187" s="74"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" s="47"/>
+      <c r="B188" s="72"/>
+      <c r="C188" s="73"/>
+      <c r="D188" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="E188" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="F188" s="74"/>
+      <c r="G188" s="74"/>
+      <c r="H188" s="74"/>
+      <c r="I188" s="74"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" s="47"/>
+      <c r="B189" s="78"/>
+      <c r="C189" s="79"/>
+      <c r="D189" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="B190" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="C190" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="D190" s="71" t="s">
+        <v>364</v>
+      </c>
+      <c r="E190" s="71" t="s">
+        <v>360</v>
+      </c>
+      <c r="F190" s="71" t="s">
+        <v>360</v>
+      </c>
+      <c r="G190" s="71"/>
+      <c r="H190" s="71"/>
+      <c r="I190" s="71"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" s="39"/>
+      <c r="B191" s="35"/>
+      <c r="C191" s="36"/>
+      <c r="D191" s="71" t="s">
+        <v>363</v>
+      </c>
+      <c r="E191" s="71" t="s">
+        <v>365</v>
+      </c>
+      <c r="F191" s="71"/>
+      <c r="G191" s="71"/>
+      <c r="H191" s="71"/>
+      <c r="I191" s="71"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" s="39"/>
+      <c r="B192" s="35"/>
+      <c r="C192" s="36"/>
+      <c r="D192" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="E192" s="71"/>
+      <c r="F192" s="71"/>
+      <c r="G192" s="71"/>
+      <c r="H192" s="71"/>
+      <c r="I192" s="71"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" s="39"/>
+      <c r="B193" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="C193" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="D193" s="74" t="s">
+        <v>364</v>
+      </c>
+      <c r="E193" s="74" t="s">
+        <v>360</v>
+      </c>
+      <c r="F193" s="76" t="s">
+        <v>369</v>
+      </c>
+      <c r="G193" s="76"/>
+      <c r="H193" s="76"/>
+      <c r="I193" s="76"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" s="39"/>
+      <c r="B194" s="39"/>
+      <c r="C194" s="40"/>
+      <c r="D194" s="74" t="s">
+        <v>367</v>
+      </c>
+      <c r="E194" s="74" t="s">
+        <v>368</v>
+      </c>
+      <c r="F194" s="76"/>
+      <c r="G194" s="76"/>
+      <c r="H194" s="76"/>
+      <c r="I194" s="76"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" s="39"/>
+      <c r="B195" s="39"/>
+      <c r="C195" s="40"/>
+      <c r="D195" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="E195" s="76"/>
+      <c r="F195" s="76"/>
+      <c r="G195" s="76"/>
+      <c r="H195" s="76"/>
+      <c r="I195" s="76"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="B196" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="C196" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="D196" s="71" t="s">
+        <v>373</v>
+      </c>
+      <c r="E196" s="71" t="s">
+        <v>369</v>
+      </c>
+      <c r="F196" s="71" t="s">
+        <v>369</v>
+      </c>
+      <c r="G196" s="71"/>
+      <c r="H196" s="71"/>
+      <c r="I196" s="71"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" s="39"/>
+      <c r="B197" s="35"/>
+      <c r="C197" s="36"/>
+      <c r="D197" s="71" t="s">
+        <v>367</v>
+      </c>
+      <c r="E197" s="71" t="s">
+        <v>368</v>
+      </c>
+      <c r="F197" s="71"/>
+      <c r="G197" s="71"/>
+      <c r="H197" s="71"/>
+      <c r="I197" s="71"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" s="39"/>
+      <c r="B198" s="35"/>
+      <c r="C198" s="36"/>
+      <c r="D198" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="E198" s="71"/>
+      <c r="F198" s="71"/>
+      <c r="G198" s="71"/>
+      <c r="H198" s="71"/>
+      <c r="I198" s="71"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" s="39"/>
+      <c r="B199" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="C199" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="D199" s="74" t="s">
+        <v>373</v>
+      </c>
+      <c r="E199" s="76" t="s">
+        <v>369</v>
+      </c>
+      <c r="F199" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="G199" s="76"/>
+      <c r="H199" s="76"/>
+      <c r="I199" s="76"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" s="39"/>
+      <c r="B200" s="39"/>
+      <c r="C200" s="40"/>
+      <c r="D200" s="74" t="s">
+        <v>363</v>
+      </c>
+      <c r="E200" s="76" t="s">
+        <v>365</v>
+      </c>
+      <c r="F200" s="76"/>
+      <c r="G200" s="76"/>
+      <c r="H200" s="76"/>
+      <c r="I200" s="76"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201" s="39"/>
+      <c r="B201" s="39"/>
+      <c r="C201" s="40"/>
+      <c r="D201" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="E201" s="76"/>
+      <c r="F201" s="76"/>
+      <c r="G201" s="76"/>
+      <c r="H201" s="76"/>
+      <c r="I201" s="76"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="B202" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="C202" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="D202" s="71" t="s">
+        <v>375</v>
+      </c>
+      <c r="E202" s="71" t="s">
+        <v>359</v>
+      </c>
+      <c r="F202" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="G202" s="71"/>
+      <c r="H202" s="71"/>
+      <c r="I202" s="71"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" s="39"/>
+      <c r="B203" s="35"/>
+      <c r="C203" s="36"/>
+      <c r="D203" s="71" t="s">
+        <v>376</v>
+      </c>
+      <c r="E203" s="71"/>
+      <c r="F203" s="71"/>
+      <c r="G203" s="71"/>
+      <c r="H203" s="71"/>
+      <c r="I203" s="71"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" s="39"/>
+      <c r="B204" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="C204" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="D204" s="74" t="s">
+        <v>377</v>
+      </c>
+      <c r="E204" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="F204" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="G204" s="76"/>
+      <c r="H204" s="76"/>
+      <c r="I204" s="76"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" s="39"/>
+      <c r="B205" s="39"/>
+      <c r="C205" s="40"/>
+      <c r="D205" s="74" t="s">
+        <v>376</v>
+      </c>
+      <c r="E205" s="76"/>
+      <c r="F205" s="76"/>
+      <c r="G205" s="76"/>
+      <c r="H205" s="76"/>
+      <c r="I205" s="76"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="B206" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="C206" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="D206" s="71" t="s">
+        <v>383</v>
+      </c>
+      <c r="E206" s="71" t="s">
+        <v>365</v>
+      </c>
+      <c r="F206" s="71" t="s">
+        <v>386</v>
+      </c>
+      <c r="G206" s="71"/>
+      <c r="H206" s="71"/>
+      <c r="I206" s="71"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207" s="39"/>
+      <c r="B207" s="35"/>
+      <c r="C207" s="36"/>
+      <c r="D207" s="71" t="s">
+        <v>384</v>
+      </c>
+      <c r="E207" s="71"/>
+      <c r="F207" s="71"/>
+      <c r="G207" s="71"/>
+      <c r="H207" s="71"/>
+      <c r="I207" s="71"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208" s="39"/>
+      <c r="B208" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="C208" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="D208" s="74" t="s">
+        <v>385</v>
+      </c>
+      <c r="E208" s="76" t="s">
+        <v>368</v>
+      </c>
+      <c r="F208" s="76" t="s">
+        <v>387</v>
+      </c>
+      <c r="G208" s="76"/>
+      <c r="H208" s="76"/>
+      <c r="I208" s="76"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209" s="39"/>
+      <c r="B209" s="39"/>
+      <c r="C209" s="40"/>
+      <c r="D209" s="74" t="s">
+        <v>384</v>
+      </c>
+      <c r="E209" s="76"/>
+      <c r="F209" s="76"/>
+      <c r="G209" s="76"/>
+      <c r="H209" s="76"/>
+      <c r="I209" s="76"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210" s="77" t="s">
+        <v>388</v>
+      </c>
+      <c r="B210" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="C210" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="D210" s="71" t="s">
+        <v>390</v>
+      </c>
+      <c r="E210" s="71" t="s">
+        <v>386</v>
+      </c>
+      <c r="F210" s="71" t="s">
+        <v>392</v>
+      </c>
+      <c r="G210" s="71"/>
+      <c r="H210" s="71"/>
+      <c r="I210" s="71"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211" s="70"/>
+      <c r="B211" s="35"/>
+      <c r="C211" s="36"/>
+      <c r="D211" s="71" t="s">
+        <v>391</v>
+      </c>
+      <c r="E211" s="71"/>
+      <c r="F211" s="71"/>
+      <c r="G211" s="71"/>
+      <c r="H211" s="71"/>
+      <c r="I211" s="71"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" s="70"/>
+      <c r="B212" s="72" t="s">
+        <v>393</v>
+      </c>
+      <c r="C212" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="D212" s="74" t="s">
+        <v>406</v>
+      </c>
+      <c r="E212" s="74" t="s">
+        <v>387</v>
+      </c>
+      <c r="F212" s="74" t="s">
+        <v>407</v>
+      </c>
+      <c r="G212" s="74"/>
+      <c r="H212" s="74"/>
+      <c r="I212" s="74"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213" s="70"/>
+      <c r="B213" s="78"/>
+      <c r="C213" s="79"/>
+      <c r="D213" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="E213" s="12"/>
+      <c r="F213" s="12"/>
+      <c r="G213" s="12"/>
+      <c r="H213" s="12"/>
+      <c r="I213" s="12"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="B214" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="C214" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="D214" s="71" t="s">
+        <v>383</v>
+      </c>
+      <c r="E214" s="71" t="s">
+        <v>365</v>
+      </c>
+      <c r="F214" s="71" t="s">
+        <v>414</v>
+      </c>
+      <c r="G214" s="71"/>
+      <c r="H214" s="71"/>
+      <c r="I214" s="71"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215" s="39"/>
+      <c r="B215" s="35"/>
+      <c r="C215" s="36"/>
+      <c r="D215" s="71" t="s">
+        <v>413</v>
+      </c>
+      <c r="E215" s="71"/>
+      <c r="F215" s="71"/>
+      <c r="G215" s="71"/>
+      <c r="H215" s="71"/>
+      <c r="I215" s="71"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216" s="39"/>
+      <c r="B216" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="C216" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="D216" s="74" t="s">
+        <v>385</v>
+      </c>
+      <c r="E216" s="76" t="s">
+        <v>368</v>
+      </c>
+      <c r="F216" s="76" t="s">
+        <v>416</v>
+      </c>
+      <c r="G216" s="76"/>
+      <c r="H216" s="76"/>
+      <c r="I216" s="76"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217" s="39"/>
+      <c r="B217" s="39"/>
+      <c r="C217" s="40"/>
+      <c r="D217" s="74" t="s">
+        <v>413</v>
+      </c>
+      <c r="E217" s="76"/>
+      <c r="F217" s="76"/>
+      <c r="G217" s="76"/>
+      <c r="H217" s="76"/>
+      <c r="I217" s="76"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218" s="39" t="s">
+        <v>409</v>
+      </c>
+      <c r="B218" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="C218" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="D218" s="71" t="s">
+        <v>419</v>
+      </c>
+      <c r="E218" s="71" t="s">
+        <v>421</v>
+      </c>
+      <c r="F218" s="71" t="s">
+        <v>422</v>
+      </c>
+      <c r="G218" s="71"/>
+      <c r="H218" s="71"/>
+      <c r="I218" s="71"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" s="39"/>
+      <c r="B219" s="35"/>
+      <c r="C219" s="36"/>
+      <c r="D219" s="71" t="s">
+        <v>420</v>
+      </c>
+      <c r="E219" s="71"/>
+      <c r="F219" s="71"/>
+      <c r="G219" s="71"/>
+      <c r="H219" s="71"/>
+      <c r="I219" s="71"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" s="39"/>
+      <c r="B220" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="C220" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="D220" s="74" t="s">
+        <v>425</v>
+      </c>
+      <c r="E220" s="76" t="s">
+        <v>426</v>
+      </c>
+      <c r="F220" s="76" t="s">
+        <v>427</v>
+      </c>
+      <c r="G220" s="76"/>
+      <c r="H220" s="76"/>
+      <c r="I220" s="76"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" s="39"/>
+      <c r="B221" s="39"/>
+      <c r="C221" s="40"/>
+      <c r="D221" s="74" t="s">
+        <v>420</v>
+      </c>
+      <c r="E221" s="76"/>
+      <c r="F221" s="76"/>
+      <c r="G221" s="76"/>
+      <c r="H221" s="76"/>
+      <c r="I221" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
-    <mergeCell ref="A176:A179"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="H176:H177"/>
-    <mergeCell ref="I176:I177"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="H178:H179"/>
-    <mergeCell ref="I178:I179"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="H172:H173"/>
-    <mergeCell ref="I172:I173"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="H174:H175"/>
-    <mergeCell ref="I174:I175"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="H166:H167"/>
-    <mergeCell ref="I166:I167"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="H168:H169"/>
-    <mergeCell ref="I168:I169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="H164:H165"/>
-    <mergeCell ref="I164:I165"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="A160:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="H160:H161"/>
-    <mergeCell ref="I160:I161"/>
-    <mergeCell ref="I162:I163"/>
-    <mergeCell ref="H162:H163"/>
-    <mergeCell ref="A154:A159"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="H154:H156"/>
-    <mergeCell ref="I154:I156"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="H157:H159"/>
-    <mergeCell ref="I157:I159"/>
-    <mergeCell ref="A148:A153"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="H148:H150"/>
-    <mergeCell ref="I148:I150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="H151:H153"/>
-    <mergeCell ref="I151:I153"/>
+  <mergeCells count="307">
+    <mergeCell ref="A210:A213"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="A214:A217"/>
+    <mergeCell ref="A218:A221"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="C190:C192"/>
+    <mergeCell ref="B190:B192"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="C193:C195"/>
+    <mergeCell ref="A190:A195"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="A196:A201"/>
+    <mergeCell ref="A184:A189"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="C184:C186"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="A180:A183"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="H180:H181"/>
+    <mergeCell ref="I180:I181"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="H182:H183"/>
+    <mergeCell ref="I182:I183"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="H116:H118"/>
+    <mergeCell ref="I116:I118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="H119:H121"/>
+    <mergeCell ref="I119:I121"/>
+    <mergeCell ref="A110:A115"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="H110:H112"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="H113:H115"/>
+    <mergeCell ref="I113:I115"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="H107:H109"/>
+    <mergeCell ref="I107:I109"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="H98:H100"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="I101:I103"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="H132:H136"/>
+    <mergeCell ref="I132:I136"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
     <mergeCell ref="B137:B141"/>
     <mergeCell ref="C137:C141"/>
     <mergeCell ref="H137:H141"/>
@@ -5753,186 +6516,69 @@
     <mergeCell ref="I127:I131"/>
     <mergeCell ref="B132:B136"/>
     <mergeCell ref="C132:C136"/>
-    <mergeCell ref="H132:H136"/>
-    <mergeCell ref="I132:I136"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="I74:I76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="H77:H79"/>
-    <mergeCell ref="I77:I79"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="I95:I97"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="H98:H100"/>
-    <mergeCell ref="I98:I100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="H101:H103"/>
-    <mergeCell ref="I101:I103"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="I104:I106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="H107:H109"/>
-    <mergeCell ref="I107:I109"/>
-    <mergeCell ref="A110:A115"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="H110:H112"/>
-    <mergeCell ref="I110:I112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="H113:H115"/>
-    <mergeCell ref="I113:I115"/>
-    <mergeCell ref="A116:A121"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="H116:H118"/>
-    <mergeCell ref="I116:I118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="H119:H121"/>
-    <mergeCell ref="I119:I121"/>
-    <mergeCell ref="A180:A183"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="H180:H181"/>
-    <mergeCell ref="I180:I181"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="H182:H183"/>
-    <mergeCell ref="I182:I183"/>
+    <mergeCell ref="A148:A153"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="H148:H150"/>
+    <mergeCell ref="I148:I150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="H151:H153"/>
+    <mergeCell ref="I151:I153"/>
+    <mergeCell ref="A154:A159"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="H154:H156"/>
+    <mergeCell ref="I154:I156"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="H157:H159"/>
+    <mergeCell ref="I157:I159"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="H160:H161"/>
+    <mergeCell ref="I160:I161"/>
+    <mergeCell ref="I162:I163"/>
+    <mergeCell ref="H162:H163"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="I166:I167"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="H168:H169"/>
+    <mergeCell ref="I168:I169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="H164:H165"/>
+    <mergeCell ref="I164:I165"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="H172:H173"/>
+    <mergeCell ref="I172:I173"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="H174:H175"/>
+    <mergeCell ref="I174:I175"/>
+    <mergeCell ref="A176:A179"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="H176:H177"/>
+    <mergeCell ref="I176:I177"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="H178:H179"/>
+    <mergeCell ref="I178:I179"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5943,25 +6589,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5110BF86-FE5F-4C8F-9A0D-6A0CFE69DE9D}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -5989,418 +6635,427 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="67" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="64" t="s">
         <v>321</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="26" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="33" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="33" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="36" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="53"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="54" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="57" t="s">
         <v>330</v>
       </c>
-      <c r="D6" s="117" t="s">
+      <c r="D6" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="E6" s="118" t="s">
+      <c r="E6" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="F6" s="117" t="s">
+      <c r="F6" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="G6" s="117" t="s">
+      <c r="G6" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I6" s="125" t="s">
+      <c r="I6" s="53" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="119" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="E7" s="120" t="s">
+      <c r="E7" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="126"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="119" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="54"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="126"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="121" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="54"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="E9" s="122"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="127"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="86" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="56"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="50" t="s">
         <v>333</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="E10" s="106" t="s">
+      <c r="E10" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="H10" s="58" t="s">
+      <c r="H10" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I10" s="92" t="s">
+      <c r="I10" s="43" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="33" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="33" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="36" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="53"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="54" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="E14" s="118" t="s">
+      <c r="E14" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="F14" s="117" t="s">
+      <c r="F14" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="G14" s="117" t="s">
+      <c r="G14" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="H14" s="58" t="s">
+      <c r="H14" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I14" s="125" t="s">
+      <c r="I14" s="53" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="119" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="E15" s="120" t="s">
+      <c r="E15" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="126"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="119" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="54"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="126"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="121" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="54"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="E17" s="122"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="127"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="86" t="s">
+      <c r="E17" s="17"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="56"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="C18" s="111" t="s">
+      <c r="C18" s="60" t="s">
         <v>346</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="E18" s="106" t="s">
+      <c r="E18" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="H18" s="58" t="s">
+      <c r="H18" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I18" s="92" t="s">
+      <c r="I18" s="43" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="33" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="70"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="33" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="70"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="36" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="53"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="54" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="57" t="s">
         <v>347</v>
       </c>
-      <c r="D22" s="117" t="s">
+      <c r="D22" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="E22" s="118" t="s">
+      <c r="E22" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="F22" s="117" t="s">
+      <c r="F22" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="G22" s="117" t="s">
+      <c r="G22" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="H22" s="58" t="s">
+      <c r="H22" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I22" s="125" t="s">
+      <c r="I22" s="53" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="119" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="E23" s="120" t="s">
+      <c r="E23" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="126"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="119" t="s">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="54"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="E24" s="120"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="126"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="123" t="s">
+      <c r="E24" s="15"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="54"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="22"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="E25" s="124"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="128"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="I22:I25"/>
     <mergeCell ref="I18:I21"/>
@@ -6417,15 +7072,6 @@
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6438,7 +7084,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6450,7 +7096,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Test Cases.xlsx
+++ b/Documentation/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010377\Documents\GitHub\axi2spi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5EC269-5E2E-41F2-941D-E63811FD8FD3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64C025B-A53B-4BA1-A72D-77049515B6F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="2775" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AXI" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="419">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1093,6 +1093,198 @@
   </si>
   <si>
     <t>02d937e</t>
+  </si>
+  <si>
+    <t>SPI_CU_01</t>
+  </si>
+  <si>
+    <t>SPI_CU_01_1</t>
+  </si>
+  <si>
+    <t>1. Set SPISEL_I to logic high.</t>
+  </si>
+  <si>
+    <t>2. Set spi_master_en to logic high.</t>
+  </si>
+  <si>
+    <t>Mode_fault_error shall not be set when SPISEL_I is set to logic high and device is in the master mode.</t>
+  </si>
+  <si>
+    <t>3. Observe mode_fault_error</t>
+  </si>
+  <si>
+    <t>SPISEL_I = '1'</t>
+  </si>
+  <si>
+    <t>spi_master_en = '1'</t>
+  </si>
+  <si>
+    <t>mode_fault_error = '0'</t>
+  </si>
+  <si>
+    <t>SPI_CU_01_2</t>
+  </si>
+  <si>
+    <t>Mode_fault_error shall be set when SPISEL_I is set to logic low and device is in the master mode.</t>
+  </si>
+  <si>
+    <t>1. Set SPISEL_I to logic low.</t>
+  </si>
+  <si>
+    <t>SPISEL_I = '0'</t>
+  </si>
+  <si>
+    <t>mode_fault_error = '1'</t>
+  </si>
+  <si>
+    <t>SPI_CU_02</t>
+  </si>
+  <si>
+    <t>SPI_CU_02_1</t>
+  </si>
+  <si>
+    <t>Slave_mode_select shall not be set when spi_master_en is logic high.</t>
+  </si>
+  <si>
+    <t>1. Set spi_master_en to logic high.</t>
+  </si>
+  <si>
+    <t>2. Observe slave_mode_select</t>
+  </si>
+  <si>
+    <t>slave_mode_select = '0'</t>
+  </si>
+  <si>
+    <t>SPI_CU_02_2</t>
+  </si>
+  <si>
+    <t>Slave_mode_select shall be set when spi_master_en is logic low.</t>
+  </si>
+  <si>
+    <t>1. Set spi_master_en to logic low.</t>
+  </si>
+  <si>
+    <t>spi_master_en = '0'</t>
+  </si>
+  <si>
+    <t>slave_mode_select = '1'</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>SPI_CU_03</t>
+  </si>
+  <si>
+    <t>SPI_CU_03_1</t>
+  </si>
+  <si>
+    <t>SPI_CU_03_2</t>
+  </si>
+  <si>
+    <t>SCK_O shall be inverted when cpol is set.</t>
+  </si>
+  <si>
+    <t>SCK_O shall not be inverted when cpol is not set.</t>
+  </si>
+  <si>
+    <t>1. Set cpol to logic low.</t>
+  </si>
+  <si>
+    <t>2. Observe SCK_O</t>
+  </si>
+  <si>
+    <t>1. Set cpol to logic high.</t>
+  </si>
+  <si>
+    <t>cpol = '1'</t>
+  </si>
+  <si>
+    <t>cpol = '0'</t>
+  </si>
+  <si>
+    <t>SCK_O = int_clk</t>
+  </si>
+  <si>
+    <t>SCK_O = NOT (int_clk)</t>
+  </si>
+  <si>
+    <t>The module shall be disabled when spi_system_en is reset.</t>
+  </si>
+  <si>
+    <t>The module shall be functioning when spi_system_en is set.</t>
+  </si>
+  <si>
+    <t>1. Set spi_system_en to logic low.</t>
+  </si>
+  <si>
+    <t>1. Set spi_system_en to logic high.</t>
+  </si>
+  <si>
+    <t>2. Observe SPI activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spi_system_en = '1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spi_system_en = '0'</t>
+  </si>
+  <si>
+    <t>Device is on</t>
+  </si>
+  <si>
+    <t>Device is off</t>
+  </si>
+  <si>
+    <t>SPI_CU_04</t>
+  </si>
+  <si>
+    <t>SPI_CU_04_2</t>
+  </si>
+  <si>
+    <t>SPI_CU_04_1</t>
+  </si>
+  <si>
+    <t>SPI_CU_05</t>
+  </si>
+  <si>
+    <t>SPI_CU_05_1</t>
+  </si>
+  <si>
+    <t>SPI_CU_05_2</t>
+  </si>
+  <si>
+    <t>The MOSI and MISO lines shall be shorted when loopback_en is set.</t>
+  </si>
+  <si>
+    <t>The module shall not be shorted when loopback_en is reset.</t>
+  </si>
+  <si>
+    <t>1. Set loopback_en to logic high.</t>
+  </si>
+  <si>
+    <t>1. Set loopback_en to logic low.</t>
+  </si>
+  <si>
+    <t>2. Observe MOSI_I, MISO_O, MOSI_O, MISO_I</t>
+  </si>
+  <si>
+    <t>loopback_en = '0'</t>
+  </si>
+  <si>
+    <t>loopback_en = '1'</t>
+  </si>
+  <si>
+    <t>MOSI_I = MISO_O</t>
+  </si>
+  <si>
+    <t>MISO_I = MOSI_O</t>
+  </si>
+  <si>
+    <t>MOSI_I != MISO_O</t>
+  </si>
+  <si>
+    <t>MISO_I != MOSI_O</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1300,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1133,8 +1325,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1639,11 +1843,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1691,226 +1906,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1918,7 +1914,186 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1928,7 +2103,142 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2259,13 +2569,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="92" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="29" t="s">
@@ -2283,14 +2593,14 @@
       <c r="H2" s="95" t="s">
         <v>296</v>
       </c>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="97" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="94"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="93"/>
       <c r="D3" s="32" t="s">
         <v>22</v>
       </c>
@@ -2303,41 +2613,41 @@
       <c r="G3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="83"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="98"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="94"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="93"/>
       <c r="D4" s="32" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="83"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="98"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="94"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="93"/>
       <c r="D5" s="35" t="s">
         <v>295</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="83"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="98"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="64" t="s">
         <v>270</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -2352,17 +2662,17 @@
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="96" t="s">
         <v>296</v>
       </c>
-      <c r="I6" s="79" t="s">
+      <c r="I6" s="99" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="90"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="10" t="s">
         <v>22</v>
       </c>
@@ -2375,41 +2685,41 @@
       <c r="G7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="79"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="99"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="90"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="79"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="99"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="91"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="7" t="s">
         <v>295</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="79"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="99"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="86" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="89" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="38" t="s">
@@ -2424,17 +2734,17 @@
       <c r="G10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="82" t="s">
+      <c r="H10" s="96" t="s">
         <v>296</v>
       </c>
-      <c r="I10" s="83" t="s">
+      <c r="I10" s="98" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="85"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="33" t="s">
         <v>22</v>
       </c>
@@ -2447,41 +2757,41 @@
       <c r="G11" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="83"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="98"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="85"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="90"/>
       <c r="D12" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="83"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="98"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="49"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="35" t="s">
         <v>295</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="98"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="54" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="64" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -2496,17 +2806,17 @@
       <c r="G14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="82" t="s">
+      <c r="H14" s="96" t="s">
         <v>296</v>
       </c>
-      <c r="I14" s="79" t="s">
+      <c r="I14" s="99" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="90"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
@@ -2519,41 +2829,41 @@
       <c r="G15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="82"/>
-      <c r="I15" s="79"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="99"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="90"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="91"/>
       <c r="D16" s="5" t="s">
         <v>294</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="79"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="99"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="91"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="7" t="s">
         <v>295</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="79"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="99"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="86" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="89" t="s">
         <v>271</v>
       </c>
       <c r="D18" s="38" t="s">
@@ -2568,17 +2878,17 @@
       <c r="G18" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="82" t="s">
+      <c r="H18" s="96" t="s">
         <v>296</v>
       </c>
-      <c r="I18" s="83" t="s">
+      <c r="I18" s="98" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="85"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="33" t="s">
         <v>29</v>
       </c>
@@ -2591,41 +2901,41 @@
       <c r="G19" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="82"/>
-      <c r="I19" s="83"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="98"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="85"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="90"/>
       <c r="D20" s="33" t="s">
         <v>294</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="83"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="98"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="49"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="35" t="s">
         <v>295</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="83"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="98"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="54" t="s">
+      <c r="A22" s="52"/>
+      <c r="B22" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="64" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -2640,17 +2950,17 @@
       <c r="G22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="76" t="s">
+      <c r="H22" s="103" t="s">
         <v>296</v>
       </c>
-      <c r="I22" s="78" t="s">
+      <c r="I22" s="87" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="90"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="10" t="s">
         <v>29</v>
       </c>
@@ -2663,43 +2973,43 @@
       <c r="G23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="77"/>
-      <c r="I23" s="79"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="99"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="90"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="91"/>
       <c r="D24" s="10" t="s">
         <v>294</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="79"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="99"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="57"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="7" t="s">
         <v>295</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="79"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="99"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="75" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="30" t="s">
@@ -2714,17 +3024,17 @@
       <c r="G26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I26" s="52" t="s">
+      <c r="I26" s="60" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="63"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="81"/>
+      <c r="A27" s="101"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="33" t="s">
         <v>29</v>
       </c>
@@ -2733,28 +3043,28 @@
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="70"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="78"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="81"/>
+      <c r="A28" s="101"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="36" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="53"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="61"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="63"/>
-      <c r="B29" s="71" t="s">
+      <c r="A29" s="101"/>
+      <c r="B29" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="105" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -2769,17 +3079,17 @@
       <c r="G29" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="58" t="s">
+      <c r="H29" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I29" s="75" t="s">
+      <c r="I29" s="81" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="63"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="73"/>
+      <c r="A30" s="101"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="105"/>
       <c r="D30" s="10" t="s">
         <v>44</v>
       </c>
@@ -2788,30 +3098,30 @@
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="75"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="81"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="64"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="74"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="106"/>
       <c r="D31" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="75"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="81"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="109" t="s">
         <v>54</v>
       </c>
       <c r="D32" s="30" t="s">
@@ -2826,17 +3136,17 @@
       <c r="G32" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="50" t="s">
+      <c r="H32" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I32" s="52" t="s">
+      <c r="I32" s="60" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="68"/>
+      <c r="A33" s="101"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="110"/>
       <c r="D33" s="33" t="s">
         <v>29</v>
       </c>
@@ -2845,28 +3155,28 @@
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="70"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="78"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="68"/>
+      <c r="A34" s="101"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="110"/>
       <c r="D34" s="36" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="53"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="61"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="63"/>
-      <c r="B35" s="71" t="s">
+      <c r="A35" s="101"/>
+      <c r="B35" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="105" t="s">
         <v>55</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -2881,17 +3191,17 @@
       <c r="G35" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="58" t="s">
+      <c r="H35" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I35" s="75" t="s">
+      <c r="I35" s="81" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="73"/>
+      <c r="A36" s="101"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="105"/>
       <c r="D36" s="10" t="s">
         <v>58</v>
       </c>
@@ -2900,30 +3210,30 @@
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="75"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="81"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="64"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="74"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="106"/>
       <c r="D37" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="75"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="81"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="109" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="30" t="s">
@@ -2938,17 +3248,17 @@
       <c r="G38" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="50" t="s">
+      <c r="H38" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I38" s="52" t="s">
+      <c r="I38" s="60" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="68"/>
+      <c r="A39" s="101"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="110"/>
       <c r="D39" s="33" t="s">
         <v>22</v>
       </c>
@@ -2957,28 +3267,28 @@
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="70"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="78"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="68"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="110"/>
       <c r="D40" s="36" t="s">
         <v>53</v>
       </c>
       <c r="E40" s="37"/>
       <c r="F40" s="36"/>
       <c r="G40" s="36"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="53"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="61"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
-      <c r="B41" s="71" t="s">
+      <c r="A41" s="101"/>
+      <c r="B41" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="73" t="s">
+      <c r="C41" s="105" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="9" t="s">
@@ -2993,17 +3303,17 @@
       <c r="G41" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H41" s="58" t="s">
+      <c r="H41" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I41" s="75" t="s">
+      <c r="I41" s="81" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="73"/>
+      <c r="A42" s="101"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="105"/>
       <c r="D42" s="10" t="s">
         <v>58</v>
       </c>
@@ -3012,30 +3322,30 @@
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="75"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="81"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="64"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="74"/>
+      <c r="A43" s="102"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="106"/>
       <c r="D43" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="75"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="81"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="62" t="s">
+      <c r="A44" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="67" t="s">
+      <c r="C44" s="109" t="s">
         <v>66</v>
       </c>
       <c r="D44" s="30" t="s">
@@ -3050,17 +3360,17 @@
       <c r="G44" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H44" s="50" t="s">
+      <c r="H44" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I44" s="52" t="s">
+      <c r="I44" s="60" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="68"/>
+      <c r="A45" s="101"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="110"/>
       <c r="D45" s="33" t="s">
         <v>22</v>
       </c>
@@ -3069,28 +3379,28 @@
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="70"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="78"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="68"/>
+      <c r="A46" s="101"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="110"/>
       <c r="D46" s="36" t="s">
         <v>69</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="36"/>
       <c r="G46" s="36"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="53"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="61"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
-      <c r="B47" s="71" t="s">
+      <c r="A47" s="101"/>
+      <c r="B47" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="73" t="s">
+      <c r="C47" s="105" t="s">
         <v>67</v>
       </c>
       <c r="D47" s="9" t="s">
@@ -3105,17 +3415,17 @@
       <c r="G47" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H47" s="58" t="s">
+      <c r="H47" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I47" s="75" t="s">
+      <c r="I47" s="81" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="63"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="73"/>
+      <c r="A48" s="101"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="105"/>
       <c r="D48" s="10" t="s">
         <v>68</v>
       </c>
@@ -3124,30 +3434,30 @@
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="75"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="81"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="64"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="74"/>
+      <c r="A49" s="102"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="106"/>
       <c r="D49" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="75"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="81"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="67" t="s">
+      <c r="C50" s="109" t="s">
         <v>77</v>
       </c>
       <c r="D50" s="30" t="s">
@@ -3162,17 +3472,17 @@
       <c r="G50" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="H50" s="50" t="s">
+      <c r="H50" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I50" s="52" t="s">
+      <c r="I50" s="60" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="63"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="68"/>
+      <c r="A51" s="101"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="110"/>
       <c r="D51" s="33" t="s">
         <v>29</v>
       </c>
@@ -3181,28 +3491,28 @@
       </c>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="70"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="78"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="63"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="68"/>
+      <c r="A52" s="101"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="110"/>
       <c r="D52" s="36" t="s">
         <v>80</v>
       </c>
       <c r="E52" s="37"/>
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="53"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="61"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="63"/>
-      <c r="B53" s="71" t="s">
+      <c r="A53" s="101"/>
+      <c r="B53" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="73" t="s">
+      <c r="C53" s="105" t="s">
         <v>78</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -3217,17 +3527,17 @@
       <c r="G53" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H53" s="58" t="s">
+      <c r="H53" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I53" s="75" t="s">
+      <c r="I53" s="81" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="63"/>
-      <c r="B54" s="71"/>
-      <c r="C54" s="73"/>
+      <c r="A54" s="101"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="105"/>
       <c r="D54" s="10" t="s">
         <v>79</v>
       </c>
@@ -3236,30 +3546,30 @@
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="75"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="81"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="64"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="74"/>
+      <c r="A55" s="102"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="106"/>
       <c r="D55" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="75"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="81"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="65" t="s">
+      <c r="B56" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="67" t="s">
+      <c r="C56" s="109" t="s">
         <v>86</v>
       </c>
       <c r="D56" s="30" t="s">
@@ -3274,17 +3584,17 @@
       <c r="G56" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="H56" s="50" t="s">
+      <c r="H56" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I56" s="52" t="s">
+      <c r="I56" s="60" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="63"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="68"/>
+      <c r="A57" s="101"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="110"/>
       <c r="D57" s="33" t="s">
         <v>22</v>
       </c>
@@ -3293,28 +3603,28 @@
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="70"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="78"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="63"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="68"/>
+      <c r="A58" s="101"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="110"/>
       <c r="D58" s="36" t="s">
         <v>89</v>
       </c>
       <c r="E58" s="37"/>
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="53"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="61"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="63"/>
-      <c r="B59" s="71" t="s">
+      <c r="A59" s="101"/>
+      <c r="B59" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="73" t="s">
+      <c r="C59" s="105" t="s">
         <v>87</v>
       </c>
       <c r="D59" s="9" t="s">
@@ -3329,17 +3639,17 @@
       <c r="G59" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H59" s="58" t="s">
+      <c r="H59" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I59" s="75" t="s">
+      <c r="I59" s="81" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="63"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="73"/>
+      <c r="A60" s="101"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="105"/>
       <c r="D60" s="10" t="s">
         <v>90</v>
       </c>
@@ -3348,30 +3658,30 @@
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="75"/>
+      <c r="H60" s="77"/>
+      <c r="I60" s="81"/>
     </row>
     <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="64"/>
-      <c r="B61" s="72"/>
-      <c r="C61" s="74"/>
+      <c r="A61" s="102"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="106"/>
       <c r="D61" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="75"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="81"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="62" t="s">
+      <c r="A62" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="65" t="s">
+      <c r="B62" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="67" t="s">
+      <c r="C62" s="109" t="s">
         <v>102</v>
       </c>
       <c r="D62" s="30" t="s">
@@ -3386,17 +3696,17 @@
       <c r="G62" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H62" s="50" t="s">
+      <c r="H62" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I62" s="52" t="s">
+      <c r="I62" s="60" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="63"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="68"/>
+      <c r="A63" s="101"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="110"/>
       <c r="D63" s="33" t="s">
         <v>29</v>
       </c>
@@ -3405,28 +3715,28 @@
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
-      <c r="H63" s="69"/>
-      <c r="I63" s="70"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="78"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
-      <c r="B64" s="66"/>
-      <c r="C64" s="68"/>
+      <c r="A64" s="101"/>
+      <c r="B64" s="74"/>
+      <c r="C64" s="110"/>
       <c r="D64" s="36" t="s">
         <v>103</v>
       </c>
       <c r="E64" s="37"/>
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="53"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="61"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="63"/>
-      <c r="B65" s="71" t="s">
+      <c r="A65" s="101"/>
+      <c r="B65" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="73" t="s">
+      <c r="C65" s="105" t="s">
         <v>101</v>
       </c>
       <c r="D65" s="9" t="s">
@@ -3441,17 +3751,17 @@
       <c r="G65" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H65" s="58" t="s">
+      <c r="H65" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I65" s="75" t="s">
+      <c r="I65" s="81" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="63"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="73"/>
+      <c r="A66" s="101"/>
+      <c r="B66" s="79"/>
+      <c r="C66" s="105"/>
       <c r="D66" s="10" t="s">
         <v>104</v>
       </c>
@@ -3460,30 +3770,30 @@
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
-      <c r="H66" s="69"/>
-      <c r="I66" s="75"/>
+      <c r="H66" s="77"/>
+      <c r="I66" s="81"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="64"/>
-      <c r="B67" s="72"/>
-      <c r="C67" s="74"/>
+      <c r="A67" s="102"/>
+      <c r="B67" s="83"/>
+      <c r="C67" s="106"/>
       <c r="D67" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="75"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="81"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="62" t="s">
+      <c r="A68" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="B68" s="65" t="s">
+      <c r="B68" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="67" t="s">
+      <c r="C68" s="109" t="s">
         <v>100</v>
       </c>
       <c r="D68" s="30" t="s">
@@ -3498,17 +3808,17 @@
       <c r="G68" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H68" s="50" t="s">
+      <c r="H68" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I68" s="52" t="s">
+      <c r="I68" s="60" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="63"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="68"/>
+      <c r="A69" s="101"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="110"/>
       <c r="D69" s="33" t="s">
         <v>22</v>
       </c>
@@ -3517,28 +3827,28 @@
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="70"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="78"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="63"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="68"/>
+      <c r="A70" s="101"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="110"/>
       <c r="D70" s="36" t="s">
         <v>103</v>
       </c>
       <c r="E70" s="37"/>
       <c r="F70" s="36"/>
       <c r="G70" s="36"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="53"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="61"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="63"/>
-      <c r="B71" s="71" t="s">
+      <c r="A71" s="101"/>
+      <c r="B71" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="73" t="s">
+      <c r="C71" s="105" t="s">
         <v>99</v>
       </c>
       <c r="D71" s="9" t="s">
@@ -3553,17 +3863,17 @@
       <c r="G71" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H71" s="58" t="s">
+      <c r="H71" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I71" s="75" t="s">
+      <c r="I71" s="81" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="63"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="73"/>
+      <c r="A72" s="101"/>
+      <c r="B72" s="79"/>
+      <c r="C72" s="105"/>
       <c r="D72" s="10" t="s">
         <v>104</v>
       </c>
@@ -3572,30 +3882,30 @@
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
-      <c r="H72" s="69"/>
-      <c r="I72" s="75"/>
+      <c r="H72" s="77"/>
+      <c r="I72" s="81"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="64"/>
-      <c r="B73" s="72"/>
-      <c r="C73" s="74"/>
+      <c r="A73" s="102"/>
+      <c r="B73" s="83"/>
+      <c r="C73" s="106"/>
       <c r="D73" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="75"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="81"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="62" t="s">
+      <c r="A74" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="65" t="s">
+      <c r="B74" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="C74" s="67" t="s">
+      <c r="C74" s="109" t="s">
         <v>111</v>
       </c>
       <c r="D74" s="30" t="s">
@@ -3610,17 +3920,17 @@
       <c r="G74" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="H74" s="50" t="s">
+      <c r="H74" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I74" s="52" t="s">
+      <c r="I74" s="60" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="63"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="68"/>
+      <c r="A75" s="101"/>
+      <c r="B75" s="74"/>
+      <c r="C75" s="110"/>
       <c r="D75" s="33" t="s">
         <v>22</v>
       </c>
@@ -3629,28 +3939,28 @@
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
-      <c r="H75" s="69"/>
-      <c r="I75" s="70"/>
+      <c r="H75" s="77"/>
+      <c r="I75" s="78"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="63"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="68"/>
+      <c r="A76" s="101"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="110"/>
       <c r="D76" s="36" t="s">
         <v>114</v>
       </c>
       <c r="E76" s="37"/>
       <c r="F76" s="36"/>
       <c r="G76" s="36"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="53"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="61"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="63"/>
-      <c r="B77" s="71" t="s">
+      <c r="A77" s="101"/>
+      <c r="B77" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="73" t="s">
+      <c r="C77" s="105" t="s">
         <v>110</v>
       </c>
       <c r="D77" s="9" t="s">
@@ -3665,17 +3975,17 @@
       <c r="G77" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H77" s="58" t="s">
+      <c r="H77" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I77" s="75" t="s">
+      <c r="I77" s="81" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="63"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="73"/>
+      <c r="A78" s="101"/>
+      <c r="B78" s="79"/>
+      <c r="C78" s="105"/>
       <c r="D78" s="10" t="s">
         <v>113</v>
       </c>
@@ -3684,30 +3994,30 @@
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
-      <c r="H78" s="69"/>
-      <c r="I78" s="75"/>
+      <c r="H78" s="77"/>
+      <c r="I78" s="81"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="64"/>
-      <c r="B79" s="72"/>
-      <c r="C79" s="74"/>
+      <c r="A79" s="102"/>
+      <c r="B79" s="83"/>
+      <c r="C79" s="106"/>
       <c r="D79" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="75"/>
+      <c r="H79" s="67"/>
+      <c r="I79" s="81"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="62" t="s">
+      <c r="A80" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="65" t="s">
+      <c r="B80" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="C80" s="67" t="s">
+      <c r="C80" s="109" t="s">
         <v>123</v>
       </c>
       <c r="D80" s="30" t="s">
@@ -3722,17 +4032,17 @@
       <c r="G80" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="H80" s="50" t="s">
+      <c r="H80" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I80" s="52" t="s">
+      <c r="I80" s="60" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="63"/>
-      <c r="B81" s="66"/>
-      <c r="C81" s="68"/>
+      <c r="A81" s="101"/>
+      <c r="B81" s="74"/>
+      <c r="C81" s="110"/>
       <c r="D81" s="33" t="s">
         <v>22</v>
       </c>
@@ -3741,28 +4051,28 @@
       </c>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
-      <c r="H81" s="69"/>
-      <c r="I81" s="70"/>
+      <c r="H81" s="77"/>
+      <c r="I81" s="78"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="63"/>
-      <c r="B82" s="66"/>
-      <c r="C82" s="68"/>
+      <c r="A82" s="101"/>
+      <c r="B82" s="74"/>
+      <c r="C82" s="110"/>
       <c r="D82" s="36" t="s">
         <v>126</v>
       </c>
       <c r="E82" s="37"/>
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
-      <c r="H82" s="51"/>
-      <c r="I82" s="53"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="61"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="63"/>
-      <c r="B83" s="71" t="s">
+      <c r="A83" s="101"/>
+      <c r="B83" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="73" t="s">
+      <c r="C83" s="105" t="s">
         <v>122</v>
       </c>
       <c r="D83" s="9" t="s">
@@ -3777,17 +4087,17 @@
       <c r="G83" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H83" s="58" t="s">
+      <c r="H83" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I83" s="75" t="s">
+      <c r="I83" s="81" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="63"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="73"/>
+      <c r="A84" s="101"/>
+      <c r="B84" s="79"/>
+      <c r="C84" s="105"/>
       <c r="D84" s="10" t="s">
         <v>125</v>
       </c>
@@ -3796,30 +4106,30 @@
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
-      <c r="H84" s="69"/>
-      <c r="I84" s="75"/>
+      <c r="H84" s="77"/>
+      <c r="I84" s="81"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="64"/>
-      <c r="B85" s="72"/>
-      <c r="C85" s="74"/>
+      <c r="A85" s="102"/>
+      <c r="B85" s="83"/>
+      <c r="C85" s="106"/>
       <c r="D85" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="75"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="81"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="62" t="s">
+      <c r="A86" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="B86" s="65" t="s">
+      <c r="B86" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="67" t="s">
+      <c r="C86" s="109" t="s">
         <v>138</v>
       </c>
       <c r="D86" s="30" t="s">
@@ -3834,17 +4144,17 @@
       <c r="G86" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="H86" s="50" t="s">
+      <c r="H86" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I86" s="52" t="s">
+      <c r="I86" s="60" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="63"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="68"/>
+      <c r="A87" s="101"/>
+      <c r="B87" s="74"/>
+      <c r="C87" s="110"/>
       <c r="D87" s="33" t="s">
         <v>29</v>
       </c>
@@ -3853,28 +4163,28 @@
       </c>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
-      <c r="H87" s="69"/>
-      <c r="I87" s="70"/>
+      <c r="H87" s="77"/>
+      <c r="I87" s="78"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="63"/>
-      <c r="B88" s="66"/>
-      <c r="C88" s="68"/>
+      <c r="A88" s="101"/>
+      <c r="B88" s="74"/>
+      <c r="C88" s="110"/>
       <c r="D88" s="36" t="s">
         <v>139</v>
       </c>
       <c r="E88" s="37"/>
       <c r="F88" s="36"/>
       <c r="G88" s="36"/>
-      <c r="H88" s="51"/>
-      <c r="I88" s="53"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="61"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="63"/>
-      <c r="B89" s="71" t="s">
+      <c r="A89" s="101"/>
+      <c r="B89" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="C89" s="73" t="s">
+      <c r="C89" s="105" t="s">
         <v>137</v>
       </c>
       <c r="D89" s="9" t="s">
@@ -3889,17 +4199,17 @@
       <c r="G89" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H89" s="58" t="s">
+      <c r="H89" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I89" s="75" t="s">
+      <c r="I89" s="81" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="63"/>
-      <c r="B90" s="71"/>
-      <c r="C90" s="73"/>
+      <c r="A90" s="101"/>
+      <c r="B90" s="79"/>
+      <c r="C90" s="105"/>
       <c r="D90" s="10" t="s">
         <v>140</v>
       </c>
@@ -3908,30 +4218,30 @@
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
-      <c r="H90" s="69"/>
-      <c r="I90" s="75"/>
+      <c r="H90" s="77"/>
+      <c r="I90" s="81"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="64"/>
-      <c r="B91" s="72"/>
-      <c r="C91" s="74"/>
+      <c r="A91" s="102"/>
+      <c r="B91" s="83"/>
+      <c r="C91" s="106"/>
       <c r="D91" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E91" s="14"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="59"/>
-      <c r="I91" s="75"/>
+      <c r="H91" s="67"/>
+      <c r="I91" s="81"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="62" t="s">
+      <c r="A92" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="B92" s="65" t="s">
+      <c r="B92" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="67" t="s">
+      <c r="C92" s="109" t="s">
         <v>136</v>
       </c>
       <c r="D92" s="30" t="s">
@@ -3946,17 +4256,17 @@
       <c r="G92" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="H92" s="50" t="s">
+      <c r="H92" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I92" s="52" t="s">
+      <c r="I92" s="60" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="63"/>
-      <c r="B93" s="66"/>
-      <c r="C93" s="68"/>
+      <c r="A93" s="101"/>
+      <c r="B93" s="74"/>
+      <c r="C93" s="110"/>
       <c r="D93" s="33" t="s">
         <v>22</v>
       </c>
@@ -3965,28 +4275,28 @@
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
-      <c r="H93" s="69"/>
-      <c r="I93" s="70"/>
+      <c r="H93" s="77"/>
+      <c r="I93" s="78"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="63"/>
-      <c r="B94" s="66"/>
-      <c r="C94" s="68"/>
+      <c r="A94" s="101"/>
+      <c r="B94" s="74"/>
+      <c r="C94" s="110"/>
       <c r="D94" s="36" t="s">
         <v>139</v>
       </c>
       <c r="E94" s="37"/>
       <c r="F94" s="36"/>
       <c r="G94" s="36"/>
-      <c r="H94" s="51"/>
-      <c r="I94" s="53"/>
+      <c r="H94" s="59"/>
+      <c r="I94" s="61"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="63"/>
-      <c r="B95" s="71" t="s">
+      <c r="A95" s="101"/>
+      <c r="B95" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="C95" s="73" t="s">
+      <c r="C95" s="105" t="s">
         <v>135</v>
       </c>
       <c r="D95" s="9" t="s">
@@ -4001,17 +4311,17 @@
       <c r="G95" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H95" s="58" t="s">
+      <c r="H95" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I95" s="75" t="s">
+      <c r="I95" s="81" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="63"/>
-      <c r="B96" s="71"/>
-      <c r="C96" s="73"/>
+      <c r="A96" s="101"/>
+      <c r="B96" s="79"/>
+      <c r="C96" s="105"/>
       <c r="D96" s="10" t="s">
         <v>140</v>
       </c>
@@ -4020,30 +4330,30 @@
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
-      <c r="H96" s="69"/>
-      <c r="I96" s="75"/>
+      <c r="H96" s="77"/>
+      <c r="I96" s="81"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="64"/>
-      <c r="B97" s="72"/>
-      <c r="C97" s="74"/>
+      <c r="A97" s="102"/>
+      <c r="B97" s="83"/>
+      <c r="C97" s="106"/>
       <c r="D97" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E97" s="14"/>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
-      <c r="H97" s="59"/>
-      <c r="I97" s="75"/>
+      <c r="H97" s="67"/>
+      <c r="I97" s="81"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="62" t="s">
+      <c r="A98" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="B98" s="65" t="s">
+      <c r="B98" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="C98" s="67" t="s">
+      <c r="C98" s="109" t="s">
         <v>152</v>
       </c>
       <c r="D98" s="30" t="s">
@@ -4058,17 +4368,17 @@
       <c r="G98" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="H98" s="50" t="s">
+      <c r="H98" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I98" s="52" t="s">
+      <c r="I98" s="60" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="63"/>
-      <c r="B99" s="66"/>
-      <c r="C99" s="68"/>
+      <c r="A99" s="101"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="110"/>
       <c r="D99" s="33" t="s">
         <v>29</v>
       </c>
@@ -4077,28 +4387,28 @@
       </c>
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
-      <c r="H99" s="69"/>
-      <c r="I99" s="70"/>
+      <c r="H99" s="77"/>
+      <c r="I99" s="78"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="63"/>
-      <c r="B100" s="66"/>
-      <c r="C100" s="68"/>
+      <c r="A100" s="101"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="110"/>
       <c r="D100" s="36" t="s">
         <v>150</v>
       </c>
       <c r="E100" s="37"/>
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
-      <c r="H100" s="51"/>
-      <c r="I100" s="53"/>
+      <c r="H100" s="59"/>
+      <c r="I100" s="61"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="63"/>
-      <c r="B101" s="71" t="s">
+      <c r="A101" s="101"/>
+      <c r="B101" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="C101" s="73" t="s">
+      <c r="C101" s="105" t="s">
         <v>153</v>
       </c>
       <c r="D101" s="9" t="s">
@@ -4113,17 +4423,17 @@
       <c r="G101" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H101" s="58" t="s">
+      <c r="H101" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I101" s="75" t="s">
+      <c r="I101" s="81" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="63"/>
-      <c r="B102" s="71"/>
-      <c r="C102" s="73"/>
+      <c r="A102" s="101"/>
+      <c r="B102" s="79"/>
+      <c r="C102" s="105"/>
       <c r="D102" s="10" t="s">
         <v>151</v>
       </c>
@@ -4132,30 +4442,30 @@
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
-      <c r="H102" s="69"/>
-      <c r="I102" s="75"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="81"/>
     </row>
     <row r="103" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="64"/>
-      <c r="B103" s="72"/>
-      <c r="C103" s="74"/>
+      <c r="A103" s="102"/>
+      <c r="B103" s="83"/>
+      <c r="C103" s="106"/>
       <c r="D103" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E103" s="14"/>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
-      <c r="H103" s="59"/>
-      <c r="I103" s="75"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="81"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="62" t="s">
+      <c r="A104" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="B104" s="65" t="s">
+      <c r="B104" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="C104" s="67" t="s">
+      <c r="C104" s="109" t="s">
         <v>154</v>
       </c>
       <c r="D104" s="30" t="s">
@@ -4170,17 +4480,17 @@
       <c r="G104" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="H104" s="50" t="s">
+      <c r="H104" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I104" s="52" t="s">
+      <c r="I104" s="60" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="63"/>
-      <c r="B105" s="66"/>
-      <c r="C105" s="68"/>
+      <c r="A105" s="101"/>
+      <c r="B105" s="74"/>
+      <c r="C105" s="110"/>
       <c r="D105" s="33" t="s">
         <v>22</v>
       </c>
@@ -4189,28 +4499,28 @@
       </c>
       <c r="F105" s="33"/>
       <c r="G105" s="33"/>
-      <c r="H105" s="69"/>
-      <c r="I105" s="70"/>
+      <c r="H105" s="77"/>
+      <c r="I105" s="78"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="63"/>
-      <c r="B106" s="66"/>
-      <c r="C106" s="68"/>
+      <c r="A106" s="101"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="110"/>
       <c r="D106" s="36" t="s">
         <v>150</v>
       </c>
       <c r="E106" s="37"/>
       <c r="F106" s="36"/>
       <c r="G106" s="36"/>
-      <c r="H106" s="51"/>
-      <c r="I106" s="53"/>
+      <c r="H106" s="59"/>
+      <c r="I106" s="61"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="63"/>
-      <c r="B107" s="71" t="s">
+      <c r="A107" s="101"/>
+      <c r="B107" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="C107" s="73" t="s">
+      <c r="C107" s="105" t="s">
         <v>155</v>
       </c>
       <c r="D107" s="9" t="s">
@@ -4225,17 +4535,17 @@
       <c r="G107" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H107" s="58" t="s">
+      <c r="H107" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I107" s="75" t="s">
+      <c r="I107" s="81" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="63"/>
-      <c r="B108" s="71"/>
-      <c r="C108" s="73"/>
+      <c r="A108" s="101"/>
+      <c r="B108" s="79"/>
+      <c r="C108" s="105"/>
       <c r="D108" s="10" t="s">
         <v>149</v>
       </c>
@@ -4244,30 +4554,30 @@
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
-      <c r="H108" s="69"/>
-      <c r="I108" s="75"/>
+      <c r="H108" s="77"/>
+      <c r="I108" s="81"/>
     </row>
     <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="64"/>
-      <c r="B109" s="72"/>
-      <c r="C109" s="74"/>
+      <c r="A109" s="102"/>
+      <c r="B109" s="83"/>
+      <c r="C109" s="106"/>
       <c r="D109" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E109" s="14"/>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
-      <c r="H109" s="59"/>
-      <c r="I109" s="75"/>
+      <c r="H109" s="67"/>
+      <c r="I109" s="81"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="62" t="s">
+      <c r="A110" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="B110" s="65" t="s">
+      <c r="B110" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="C110" s="67" t="s">
+      <c r="C110" s="109" t="s">
         <v>174</v>
       </c>
       <c r="D110" s="30" t="s">
@@ -4282,17 +4592,17 @@
       <c r="G110" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="H110" s="50" t="s">
+      <c r="H110" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I110" s="52" t="s">
+      <c r="I110" s="60" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="63"/>
-      <c r="B111" s="66"/>
-      <c r="C111" s="68"/>
+      <c r="A111" s="101"/>
+      <c r="B111" s="74"/>
+      <c r="C111" s="110"/>
       <c r="D111" s="33" t="s">
         <v>29</v>
       </c>
@@ -4301,28 +4611,28 @@
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
-      <c r="H111" s="69"/>
-      <c r="I111" s="70"/>
+      <c r="H111" s="77"/>
+      <c r="I111" s="78"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="63"/>
-      <c r="B112" s="66"/>
-      <c r="C112" s="68"/>
+      <c r="A112" s="101"/>
+      <c r="B112" s="74"/>
+      <c r="C112" s="110"/>
       <c r="D112" s="36" t="s">
         <v>169</v>
       </c>
       <c r="E112" s="37"/>
       <c r="F112" s="36"/>
       <c r="G112" s="36"/>
-      <c r="H112" s="51"/>
-      <c r="I112" s="53"/>
+      <c r="H112" s="59"/>
+      <c r="I112" s="61"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="63"/>
-      <c r="B113" s="71" t="s">
+      <c r="A113" s="101"/>
+      <c r="B113" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="C113" s="73" t="s">
+      <c r="C113" s="105" t="s">
         <v>173</v>
       </c>
       <c r="D113" s="9" t="s">
@@ -4337,17 +4647,17 @@
       <c r="G113" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="H113" s="58" t="s">
+      <c r="H113" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I113" s="75" t="s">
+      <c r="I113" s="81" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="63"/>
-      <c r="B114" s="71"/>
-      <c r="C114" s="73"/>
+      <c r="A114" s="101"/>
+      <c r="B114" s="79"/>
+      <c r="C114" s="105"/>
       <c r="D114" s="10" t="s">
         <v>170</v>
       </c>
@@ -4356,30 +4666,30 @@
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
-      <c r="H114" s="69"/>
-      <c r="I114" s="75"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="81"/>
     </row>
     <row r="115" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="64"/>
-      <c r="B115" s="72"/>
-      <c r="C115" s="74"/>
+      <c r="A115" s="102"/>
+      <c r="B115" s="83"/>
+      <c r="C115" s="106"/>
       <c r="D115" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E115" s="14"/>
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
-      <c r="H115" s="59"/>
-      <c r="I115" s="75"/>
+      <c r="H115" s="67"/>
+      <c r="I115" s="81"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="62" t="s">
+      <c r="A116" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="B116" s="65" t="s">
+      <c r="B116" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="C116" s="67" t="s">
+      <c r="C116" s="109" t="s">
         <v>172</v>
       </c>
       <c r="D116" s="30" t="s">
@@ -4394,17 +4704,17 @@
       <c r="G116" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="H116" s="50" t="s">
+      <c r="H116" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I116" s="52" t="s">
+      <c r="I116" s="60" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="63"/>
-      <c r="B117" s="66"/>
-      <c r="C117" s="68"/>
+      <c r="A117" s="101"/>
+      <c r="B117" s="74"/>
+      <c r="C117" s="110"/>
       <c r="D117" s="33" t="s">
         <v>22</v>
       </c>
@@ -4413,28 +4723,28 @@
       </c>
       <c r="F117" s="33"/>
       <c r="G117" s="33"/>
-      <c r="H117" s="69"/>
-      <c r="I117" s="70"/>
+      <c r="H117" s="77"/>
+      <c r="I117" s="78"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="63"/>
-      <c r="B118" s="66"/>
-      <c r="C118" s="68"/>
+      <c r="A118" s="101"/>
+      <c r="B118" s="74"/>
+      <c r="C118" s="110"/>
       <c r="D118" s="36" t="s">
         <v>169</v>
       </c>
       <c r="E118" s="37"/>
       <c r="F118" s="36"/>
       <c r="G118" s="36"/>
-      <c r="H118" s="51"/>
-      <c r="I118" s="53"/>
+      <c r="H118" s="59"/>
+      <c r="I118" s="61"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="63"/>
-      <c r="B119" s="71" t="s">
+      <c r="A119" s="101"/>
+      <c r="B119" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="C119" s="73" t="s">
+      <c r="C119" s="105" t="s">
         <v>171</v>
       </c>
       <c r="D119" s="9" t="s">
@@ -4449,17 +4759,17 @@
       <c r="G119" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="H119" s="58" t="s">
+      <c r="H119" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I119" s="75" t="s">
+      <c r="I119" s="81" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="63"/>
-      <c r="B120" s="71"/>
-      <c r="C120" s="73"/>
+      <c r="A120" s="101"/>
+      <c r="B120" s="79"/>
+      <c r="C120" s="105"/>
       <c r="D120" s="10" t="s">
         <v>168</v>
       </c>
@@ -4468,30 +4778,30 @@
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
-      <c r="H120" s="69"/>
-      <c r="I120" s="75"/>
+      <c r="H120" s="77"/>
+      <c r="I120" s="81"/>
     </row>
     <row r="121" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="64"/>
-      <c r="B121" s="72"/>
-      <c r="C121" s="74"/>
+      <c r="A121" s="102"/>
+      <c r="B121" s="83"/>
+      <c r="C121" s="106"/>
       <c r="D121" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E121" s="14"/>
       <c r="F121" s="13"/>
       <c r="G121" s="13"/>
-      <c r="H121" s="59"/>
-      <c r="I121" s="75"/>
+      <c r="H121" s="67"/>
+      <c r="I121" s="81"/>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="43" t="s">
+      <c r="A122" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="B122" s="65" t="s">
+      <c r="B122" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="C122" s="80" t="s">
+      <c r="C122" s="75" t="s">
         <v>182</v>
       </c>
       <c r="D122" s="30" t="s">
@@ -4506,17 +4816,17 @@
       <c r="G122" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="H122" s="50" t="s">
+      <c r="H122" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I122" s="52" t="s">
+      <c r="I122" s="60" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="44"/>
-      <c r="B123" s="66"/>
-      <c r="C123" s="81"/>
+      <c r="A123" s="52"/>
+      <c r="B123" s="74"/>
+      <c r="C123" s="76"/>
       <c r="D123" s="33" t="s">
         <v>187</v>
       </c>
@@ -4525,13 +4835,13 @@
       </c>
       <c r="F123" s="32"/>
       <c r="G123" s="32"/>
-      <c r="H123" s="69"/>
-      <c r="I123" s="70"/>
+      <c r="H123" s="77"/>
+      <c r="I123" s="78"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="44"/>
-      <c r="B124" s="66"/>
-      <c r="C124" s="81"/>
+      <c r="A124" s="52"/>
+      <c r="B124" s="74"/>
+      <c r="C124" s="76"/>
       <c r="D124" s="33" t="s">
         <v>190</v>
       </c>
@@ -4540,13 +4850,13 @@
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="32"/>
-      <c r="H124" s="69"/>
-      <c r="I124" s="70"/>
+      <c r="H124" s="77"/>
+      <c r="I124" s="78"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="44"/>
-      <c r="B125" s="66"/>
-      <c r="C125" s="81"/>
+      <c r="A125" s="52"/>
+      <c r="B125" s="74"/>
+      <c r="C125" s="76"/>
       <c r="D125" s="33" t="s">
         <v>191</v>
       </c>
@@ -4555,28 +4865,28 @@
       </c>
       <c r="F125" s="32"/>
       <c r="G125" s="32"/>
-      <c r="H125" s="69"/>
-      <c r="I125" s="70"/>
+      <c r="H125" s="77"/>
+      <c r="I125" s="78"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="44"/>
-      <c r="B126" s="66"/>
-      <c r="C126" s="81"/>
+      <c r="A126" s="52"/>
+      <c r="B126" s="74"/>
+      <c r="C126" s="76"/>
       <c r="D126" s="36" t="s">
         <v>193</v>
       </c>
       <c r="E126" s="42"/>
       <c r="F126" s="35"/>
       <c r="G126" s="35"/>
-      <c r="H126" s="51"/>
-      <c r="I126" s="53"/>
+      <c r="H126" s="59"/>
+      <c r="I126" s="61"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="44"/>
-      <c r="B127" s="89" t="s">
+      <c r="A127" s="52"/>
+      <c r="B127" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="C127" s="91" t="s">
+      <c r="C127" s="86" t="s">
         <v>194</v>
       </c>
       <c r="D127" s="15" t="s">
@@ -4591,17 +4901,17 @@
       <c r="G127" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="H127" s="69" t="s">
+      <c r="H127" s="77" t="s">
         <v>296</v>
       </c>
-      <c r="I127" s="60" t="s">
+      <c r="I127" s="68" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="44"/>
-      <c r="B128" s="71"/>
-      <c r="C128" s="97"/>
+      <c r="A128" s="52"/>
+      <c r="B128" s="79"/>
+      <c r="C128" s="80"/>
       <c r="D128" s="15" t="s">
         <v>29</v>
       </c>
@@ -4610,13 +4920,13 @@
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
-      <c r="H128" s="69"/>
-      <c r="I128" s="75"/>
+      <c r="H128" s="77"/>
+      <c r="I128" s="81"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="44"/>
-      <c r="B129" s="71"/>
-      <c r="C129" s="97"/>
+      <c r="A129" s="52"/>
+      <c r="B129" s="79"/>
+      <c r="C129" s="80"/>
       <c r="D129" s="15" t="s">
         <v>199</v>
       </c>
@@ -4625,13 +4935,13 @@
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
-      <c r="H129" s="69"/>
-      <c r="I129" s="75"/>
+      <c r="H129" s="77"/>
+      <c r="I129" s="81"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="44"/>
-      <c r="B130" s="71"/>
-      <c r="C130" s="97"/>
+      <c r="A130" s="52"/>
+      <c r="B130" s="79"/>
+      <c r="C130" s="80"/>
       <c r="D130" s="15" t="s">
         <v>191</v>
       </c>
@@ -4640,28 +4950,28 @@
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
-      <c r="H130" s="69"/>
-      <c r="I130" s="75"/>
+      <c r="H130" s="77"/>
+      <c r="I130" s="81"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="44"/>
-      <c r="B131" s="71"/>
-      <c r="C131" s="97"/>
+      <c r="A131" s="52"/>
+      <c r="B131" s="79"/>
+      <c r="C131" s="80"/>
       <c r="D131" s="21" t="s">
         <v>193</v>
       </c>
       <c r="E131" s="22"/>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
-      <c r="H131" s="51"/>
-      <c r="I131" s="78"/>
+      <c r="H131" s="59"/>
+      <c r="I131" s="87"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="44"/>
-      <c r="B132" s="47" t="s">
+      <c r="A132" s="52"/>
+      <c r="B132" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="C132" s="49" t="s">
+      <c r="C132" s="57" t="s">
         <v>195</v>
       </c>
       <c r="D132" s="33" t="s">
@@ -4676,17 +4986,17 @@
       <c r="G132" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="H132" s="69" t="s">
+      <c r="H132" s="77" t="s">
         <v>296</v>
       </c>
-      <c r="I132" s="92" t="s">
+      <c r="I132" s="88" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="44"/>
-      <c r="B133" s="66"/>
-      <c r="C133" s="81"/>
+      <c r="A133" s="52"/>
+      <c r="B133" s="74"/>
+      <c r="C133" s="76"/>
       <c r="D133" s="33" t="s">
         <v>29</v>
       </c>
@@ -4695,13 +5005,13 @@
       </c>
       <c r="F133" s="32"/>
       <c r="G133" s="32"/>
-      <c r="H133" s="69"/>
-      <c r="I133" s="70"/>
+      <c r="H133" s="77"/>
+      <c r="I133" s="78"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="44"/>
-      <c r="B134" s="66"/>
-      <c r="C134" s="81"/>
+      <c r="A134" s="52"/>
+      <c r="B134" s="74"/>
+      <c r="C134" s="76"/>
       <c r="D134" s="33" t="s">
         <v>190</v>
       </c>
@@ -4710,13 +5020,13 @@
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="32"/>
-      <c r="H134" s="69"/>
-      <c r="I134" s="70"/>
+      <c r="H134" s="77"/>
+      <c r="I134" s="78"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="44"/>
-      <c r="B135" s="66"/>
-      <c r="C135" s="81"/>
+      <c r="A135" s="52"/>
+      <c r="B135" s="74"/>
+      <c r="C135" s="76"/>
       <c r="D135" s="33" t="s">
         <v>200</v>
       </c>
@@ -4725,28 +5035,28 @@
       </c>
       <c r="F135" s="32"/>
       <c r="G135" s="32"/>
-      <c r="H135" s="69"/>
-      <c r="I135" s="70"/>
+      <c r="H135" s="77"/>
+      <c r="I135" s="78"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="44"/>
-      <c r="B136" s="66"/>
-      <c r="C136" s="81"/>
+      <c r="A136" s="52"/>
+      <c r="B136" s="74"/>
+      <c r="C136" s="76"/>
       <c r="D136" s="36" t="s">
         <v>193</v>
       </c>
       <c r="E136" s="42"/>
       <c r="F136" s="35"/>
       <c r="G136" s="35"/>
-      <c r="H136" s="51"/>
-      <c r="I136" s="53"/>
+      <c r="H136" s="59"/>
+      <c r="I136" s="61"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="44"/>
-      <c r="B137" s="89" t="s">
+      <c r="A137" s="52"/>
+      <c r="B137" s="85" t="s">
         <v>198</v>
       </c>
-      <c r="C137" s="91" t="s">
+      <c r="C137" s="86" t="s">
         <v>181</v>
       </c>
       <c r="D137" s="15" t="s">
@@ -4761,17 +5071,17 @@
       <c r="G137" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="H137" s="69" t="s">
+      <c r="H137" s="77" t="s">
         <v>296</v>
       </c>
-      <c r="I137" s="60" t="s">
+      <c r="I137" s="68" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="44"/>
-      <c r="B138" s="71"/>
-      <c r="C138" s="97"/>
+      <c r="A138" s="52"/>
+      <c r="B138" s="79"/>
+      <c r="C138" s="80"/>
       <c r="D138" s="15" t="s">
         <v>29</v>
       </c>
@@ -4780,13 +5090,13 @@
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
-      <c r="H138" s="69"/>
-      <c r="I138" s="75"/>
+      <c r="H138" s="77"/>
+      <c r="I138" s="81"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="44"/>
-      <c r="B139" s="71"/>
-      <c r="C139" s="97"/>
+      <c r="A139" s="52"/>
+      <c r="B139" s="79"/>
+      <c r="C139" s="80"/>
       <c r="D139" s="15" t="s">
         <v>190</v>
       </c>
@@ -4795,13 +5105,13 @@
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
-      <c r="H139" s="69"/>
-      <c r="I139" s="75"/>
+      <c r="H139" s="77"/>
+      <c r="I139" s="81"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="44"/>
-      <c r="B140" s="71"/>
-      <c r="C140" s="97"/>
+      <c r="A140" s="52"/>
+      <c r="B140" s="79"/>
+      <c r="C140" s="80"/>
       <c r="D140" s="15" t="s">
         <v>191</v>
       </c>
@@ -4810,30 +5120,30 @@
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
-      <c r="H140" s="69"/>
-      <c r="I140" s="75"/>
+      <c r="H140" s="77"/>
+      <c r="I140" s="81"/>
     </row>
     <row r="141" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="44"/>
-      <c r="B141" s="54"/>
-      <c r="C141" s="56"/>
+      <c r="A141" s="52"/>
+      <c r="B141" s="62"/>
+      <c r="C141" s="64"/>
       <c r="D141" s="15" t="s">
         <v>193</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
-      <c r="H141" s="69"/>
-      <c r="I141" s="61"/>
+      <c r="H141" s="77"/>
+      <c r="I141" s="69"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="99" t="s">
+      <c r="A142" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="B142" s="65" t="s">
+      <c r="B142" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="C142" s="80" t="s">
+      <c r="C142" s="75" t="s">
         <v>208</v>
       </c>
       <c r="D142" s="31" t="s">
@@ -4848,17 +5158,17 @@
       <c r="G142" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="H142" s="50" t="s">
+      <c r="H142" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I142" s="52" t="s">
+      <c r="I142" s="60" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="100"/>
-      <c r="B143" s="66"/>
-      <c r="C143" s="81"/>
+      <c r="A143" s="71"/>
+      <c r="B143" s="74"/>
+      <c r="C143" s="76"/>
       <c r="D143" s="34" t="s">
         <v>189</v>
       </c>
@@ -4867,28 +5177,28 @@
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
-      <c r="H143" s="69"/>
-      <c r="I143" s="70"/>
+      <c r="H143" s="77"/>
+      <c r="I143" s="78"/>
     </row>
     <row r="144" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="100"/>
-      <c r="B144" s="66"/>
-      <c r="C144" s="81"/>
+      <c r="A144" s="71"/>
+      <c r="B144" s="74"/>
+      <c r="C144" s="76"/>
       <c r="D144" s="37" t="s">
         <v>210</v>
       </c>
       <c r="E144" s="36"/>
       <c r="F144" s="36"/>
       <c r="G144" s="36"/>
-      <c r="H144" s="51"/>
-      <c r="I144" s="53"/>
+      <c r="H144" s="59"/>
+      <c r="I144" s="61"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="100"/>
-      <c r="B145" s="71" t="s">
+      <c r="A145" s="71"/>
+      <c r="B145" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="C145" s="97" t="s">
+      <c r="C145" s="80" t="s">
         <v>206</v>
       </c>
       <c r="D145" s="16" t="s">
@@ -4903,17 +5213,17 @@
       <c r="G145" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="H145" s="50" t="s">
+      <c r="H145" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I145" s="60" t="s">
+      <c r="I145" s="68" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="100"/>
-      <c r="B146" s="71"/>
-      <c r="C146" s="97"/>
+      <c r="A146" s="71"/>
+      <c r="B146" s="79"/>
+      <c r="C146" s="80"/>
       <c r="D146" s="16" t="s">
         <v>211</v>
       </c>
@@ -4922,30 +5232,30 @@
       </c>
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
-      <c r="H146" s="69"/>
-      <c r="I146" s="75"/>
+      <c r="H146" s="77"/>
+      <c r="I146" s="81"/>
     </row>
     <row r="147" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="101"/>
-      <c r="B147" s="72"/>
-      <c r="C147" s="98"/>
+      <c r="A147" s="82"/>
+      <c r="B147" s="83"/>
+      <c r="C147" s="84"/>
       <c r="D147" s="28" t="s">
         <v>210</v>
       </c>
       <c r="E147" s="13"/>
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
-      <c r="H147" s="51"/>
-      <c r="I147" s="61"/>
+      <c r="H147" s="59"/>
+      <c r="I147" s="69"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="99" t="s">
+      <c r="A148" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="B148" s="65" t="s">
+      <c r="B148" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="C148" s="80" t="s">
+      <c r="C148" s="75" t="s">
         <v>217</v>
       </c>
       <c r="D148" s="31" t="s">
@@ -4960,17 +5270,17 @@
       <c r="G148" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="H148" s="50" t="s">
+      <c r="H148" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I148" s="52" t="s">
+      <c r="I148" s="60" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="100"/>
-      <c r="B149" s="66"/>
-      <c r="C149" s="81"/>
+      <c r="A149" s="71"/>
+      <c r="B149" s="74"/>
+      <c r="C149" s="76"/>
       <c r="D149" s="34" t="s">
         <v>219</v>
       </c>
@@ -4979,28 +5289,28 @@
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="33"/>
-      <c r="H149" s="69"/>
-      <c r="I149" s="70"/>
+      <c r="H149" s="77"/>
+      <c r="I149" s="78"/>
     </row>
     <row r="150" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="100"/>
-      <c r="B150" s="66"/>
-      <c r="C150" s="81"/>
+      <c r="A150" s="71"/>
+      <c r="B150" s="74"/>
+      <c r="C150" s="76"/>
       <c r="D150" s="37" t="s">
         <v>220</v>
       </c>
       <c r="E150" s="36"/>
       <c r="F150" s="36"/>
       <c r="G150" s="36"/>
-      <c r="H150" s="51"/>
-      <c r="I150" s="53"/>
+      <c r="H150" s="59"/>
+      <c r="I150" s="61"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="100"/>
-      <c r="B151" s="71" t="s">
+      <c r="A151" s="71"/>
+      <c r="B151" s="79" t="s">
         <v>214</v>
       </c>
-      <c r="C151" s="97" t="s">
+      <c r="C151" s="80" t="s">
         <v>218</v>
       </c>
       <c r="D151" s="26" t="s">
@@ -5015,17 +5325,17 @@
       <c r="G151" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="H151" s="50" t="s">
+      <c r="H151" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I151" s="60" t="s">
+      <c r="I151" s="68" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="100"/>
-      <c r="B152" s="71"/>
-      <c r="C152" s="97"/>
+      <c r="A152" s="71"/>
+      <c r="B152" s="79"/>
+      <c r="C152" s="80"/>
       <c r="D152" s="16" t="s">
         <v>188</v>
       </c>
@@ -5034,30 +5344,30 @@
       </c>
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
-      <c r="H152" s="69"/>
-      <c r="I152" s="75"/>
+      <c r="H152" s="77"/>
+      <c r="I152" s="81"/>
     </row>
     <row r="153" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="101"/>
-      <c r="B153" s="72"/>
-      <c r="C153" s="98"/>
+      <c r="A153" s="82"/>
+      <c r="B153" s="83"/>
+      <c r="C153" s="84"/>
       <c r="D153" s="27" t="s">
         <v>220</v>
       </c>
       <c r="E153" s="13"/>
       <c r="F153" s="13"/>
       <c r="G153" s="13"/>
-      <c r="H153" s="51"/>
-      <c r="I153" s="61"/>
+      <c r="H153" s="59"/>
+      <c r="I153" s="69"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="99" t="s">
+      <c r="A154" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="B154" s="65" t="s">
+      <c r="B154" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="C154" s="80" t="s">
+      <c r="C154" s="75" t="s">
         <v>226</v>
       </c>
       <c r="D154" s="31" t="s">
@@ -5072,17 +5382,17 @@
       <c r="G154" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="H154" s="50" t="s">
+      <c r="H154" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I154" s="52" t="s">
+      <c r="I154" s="60" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="100"/>
-      <c r="B155" s="66"/>
-      <c r="C155" s="81"/>
+      <c r="A155" s="71"/>
+      <c r="B155" s="74"/>
+      <c r="C155" s="76"/>
       <c r="D155" s="34" t="s">
         <v>219</v>
       </c>
@@ -5091,28 +5401,28 @@
       </c>
       <c r="F155" s="33"/>
       <c r="G155" s="33"/>
-      <c r="H155" s="69"/>
-      <c r="I155" s="70"/>
+      <c r="H155" s="77"/>
+      <c r="I155" s="78"/>
     </row>
     <row r="156" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="100"/>
-      <c r="B156" s="66"/>
-      <c r="C156" s="81"/>
+      <c r="A156" s="71"/>
+      <c r="B156" s="74"/>
+      <c r="C156" s="76"/>
       <c r="D156" s="36" t="s">
         <v>220</v>
       </c>
       <c r="E156" s="36"/>
       <c r="F156" s="36"/>
       <c r="G156" s="36"/>
-      <c r="H156" s="51"/>
-      <c r="I156" s="53"/>
+      <c r="H156" s="59"/>
+      <c r="I156" s="61"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="100"/>
-      <c r="B157" s="71" t="s">
+      <c r="A157" s="71"/>
+      <c r="B157" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="C157" s="97" t="s">
+      <c r="C157" s="80" t="s">
         <v>227</v>
       </c>
       <c r="D157" s="16" t="s">
@@ -5127,17 +5437,17 @@
       <c r="G157" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="H157" s="50" t="s">
+      <c r="H157" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I157" s="60" t="s">
+      <c r="I157" s="68" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="100"/>
-      <c r="B158" s="71"/>
-      <c r="C158" s="97"/>
+      <c r="A158" s="71"/>
+      <c r="B158" s="79"/>
+      <c r="C158" s="80"/>
       <c r="D158" s="16" t="s">
         <v>188</v>
       </c>
@@ -5146,30 +5456,30 @@
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
-      <c r="H158" s="69"/>
-      <c r="I158" s="75"/>
+      <c r="H158" s="77"/>
+      <c r="I158" s="81"/>
     </row>
     <row r="159" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="102"/>
-      <c r="B159" s="54"/>
-      <c r="C159" s="56"/>
+      <c r="A159" s="72"/>
+      <c r="B159" s="62"/>
+      <c r="C159" s="64"/>
       <c r="D159" s="15" t="s">
         <v>220</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
-      <c r="H159" s="51"/>
-      <c r="I159" s="75"/>
+      <c r="H159" s="59"/>
+      <c r="I159" s="81"/>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="43" t="s">
+      <c r="A160" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="B160" s="46" t="s">
+      <c r="B160" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="C160" s="48" t="s">
+      <c r="C160" s="56" t="s">
         <v>302</v>
       </c>
       <c r="D160" s="31" t="s">
@@ -5184,32 +5494,32 @@
       <c r="G160" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="H160" s="50" t="s">
+      <c r="H160" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I160" s="52" t="s">
+      <c r="I160" s="60" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="44"/>
-      <c r="B161" s="47"/>
-      <c r="C161" s="49"/>
+      <c r="A161" s="52"/>
+      <c r="B161" s="55"/>
+      <c r="C161" s="57"/>
       <c r="D161" s="36" t="s">
         <v>304</v>
       </c>
       <c r="E161" s="42"/>
       <c r="F161" s="36"/>
       <c r="G161" s="36"/>
-      <c r="H161" s="51"/>
-      <c r="I161" s="53"/>
+      <c r="H161" s="59"/>
+      <c r="I161" s="61"/>
     </row>
     <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="44"/>
-      <c r="B162" s="54" t="s">
+      <c r="A162" s="52"/>
+      <c r="B162" s="62" t="s">
         <v>231</v>
       </c>
-      <c r="C162" s="56" t="s">
+      <c r="C162" s="64" t="s">
         <v>303</v>
       </c>
       <c r="D162" s="19" t="s">
@@ -5224,34 +5534,34 @@
       <c r="G162" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="H162" s="58" t="s">
+      <c r="H162" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I162" s="60" t="s">
+      <c r="I162" s="68" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="45"/>
-      <c r="B163" s="55"/>
-      <c r="C163" s="57"/>
+      <c r="A163" s="53"/>
+      <c r="B163" s="63"/>
+      <c r="C163" s="65"/>
       <c r="D163" s="24" t="s">
         <v>304</v>
       </c>
       <c r="E163" s="25"/>
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
-      <c r="H163" s="59"/>
-      <c r="I163" s="61"/>
+      <c r="H163" s="67"/>
+      <c r="I163" s="69"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="43" t="s">
+      <c r="A164" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="B164" s="46" t="s">
+      <c r="B164" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="C164" s="48" t="s">
+      <c r="C164" s="56" t="s">
         <v>238</v>
       </c>
       <c r="D164" s="31" t="s">
@@ -5266,32 +5576,32 @@
       <c r="G164" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="H164" s="50" t="s">
+      <c r="H164" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I164" s="52" t="s">
+      <c r="I164" s="60" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="44"/>
-      <c r="B165" s="47"/>
-      <c r="C165" s="49"/>
+      <c r="A165" s="52"/>
+      <c r="B165" s="55"/>
+      <c r="C165" s="57"/>
       <c r="D165" s="36" t="s">
         <v>242</v>
       </c>
       <c r="E165" s="42"/>
       <c r="F165" s="36"/>
       <c r="G165" s="36"/>
-      <c r="H165" s="51"/>
-      <c r="I165" s="53"/>
+      <c r="H165" s="59"/>
+      <c r="I165" s="61"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="44"/>
-      <c r="B166" s="54" t="s">
+      <c r="A166" s="52"/>
+      <c r="B166" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="C166" s="56" t="s">
+      <c r="C166" s="64" t="s">
         <v>237</v>
       </c>
       <c r="D166" s="19" t="s">
@@ -5306,34 +5616,34 @@
       <c r="G166" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="H166" s="58" t="s">
+      <c r="H166" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I166" s="60" t="s">
+      <c r="I166" s="68" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="45"/>
-      <c r="B167" s="55"/>
-      <c r="C167" s="57"/>
+      <c r="A167" s="53"/>
+      <c r="B167" s="63"/>
+      <c r="C167" s="65"/>
       <c r="D167" s="24" t="s">
         <v>242</v>
       </c>
       <c r="E167" s="25"/>
       <c r="F167" s="13"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="59"/>
-      <c r="I167" s="61"/>
+      <c r="H167" s="67"/>
+      <c r="I167" s="69"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="43" t="s">
+      <c r="A168" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="B168" s="46" t="s">
+      <c r="B168" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="C168" s="48" t="s">
+      <c r="C168" s="56" t="s">
         <v>248</v>
       </c>
       <c r="D168" s="31" t="s">
@@ -5348,32 +5658,32 @@
       <c r="G168" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="H168" s="50" t="s">
+      <c r="H168" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I168" s="52" t="s">
+      <c r="I168" s="60" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="44"/>
-      <c r="B169" s="47"/>
-      <c r="C169" s="49"/>
+      <c r="A169" s="52"/>
+      <c r="B169" s="55"/>
+      <c r="C169" s="57"/>
       <c r="D169" s="36" t="s">
         <v>250</v>
       </c>
       <c r="E169" s="42"/>
       <c r="F169" s="36"/>
       <c r="G169" s="36"/>
-      <c r="H169" s="51"/>
-      <c r="I169" s="53"/>
+      <c r="H169" s="59"/>
+      <c r="I169" s="61"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="44"/>
-      <c r="B170" s="54" t="s">
+      <c r="A170" s="52"/>
+      <c r="B170" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="C170" s="56" t="s">
+      <c r="C170" s="64" t="s">
         <v>249</v>
       </c>
       <c r="D170" s="19" t="s">
@@ -5388,34 +5698,34 @@
       <c r="G170" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="H170" s="58" t="s">
+      <c r="H170" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I170" s="60" t="s">
+      <c r="I170" s="68" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="45"/>
-      <c r="B171" s="55"/>
-      <c r="C171" s="57"/>
+      <c r="A171" s="53"/>
+      <c r="B171" s="63"/>
+      <c r="C171" s="65"/>
       <c r="D171" s="24" t="s">
         <v>250</v>
       </c>
       <c r="E171" s="25"/>
       <c r="F171" s="13"/>
       <c r="G171" s="13"/>
-      <c r="H171" s="59"/>
-      <c r="I171" s="61"/>
+      <c r="H171" s="67"/>
+      <c r="I171" s="69"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="43" t="s">
+      <c r="A172" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="B172" s="46" t="s">
+      <c r="B172" s="54" t="s">
         <v>261</v>
       </c>
-      <c r="C172" s="48" t="s">
+      <c r="C172" s="56" t="s">
         <v>253</v>
       </c>
       <c r="D172" s="31" t="s">
@@ -5430,32 +5740,32 @@
       <c r="G172" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="H172" s="50" t="s">
+      <c r="H172" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I172" s="52" t="s">
+      <c r="I172" s="60" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="44"/>
-      <c r="B173" s="47"/>
-      <c r="C173" s="49"/>
+      <c r="A173" s="52"/>
+      <c r="B173" s="55"/>
+      <c r="C173" s="57"/>
       <c r="D173" s="36" t="s">
         <v>258</v>
       </c>
       <c r="E173" s="42"/>
       <c r="F173" s="36"/>
       <c r="G173" s="36"/>
-      <c r="H173" s="51"/>
-      <c r="I173" s="53"/>
+      <c r="H173" s="59"/>
+      <c r="I173" s="61"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="44"/>
-      <c r="B174" s="54" t="s">
+      <c r="A174" s="52"/>
+      <c r="B174" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="C174" s="56" t="s">
+      <c r="C174" s="64" t="s">
         <v>314</v>
       </c>
       <c r="D174" s="19" t="s">
@@ -5470,34 +5780,34 @@
       <c r="G174" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="H174" s="58" t="s">
+      <c r="H174" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I174" s="60" t="s">
+      <c r="I174" s="68" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="45"/>
-      <c r="B175" s="55"/>
-      <c r="C175" s="57"/>
+      <c r="A175" s="53"/>
+      <c r="B175" s="63"/>
+      <c r="C175" s="65"/>
       <c r="D175" s="24" t="s">
         <v>258</v>
       </c>
       <c r="E175" s="25"/>
       <c r="F175" s="13"/>
       <c r="G175" s="13"/>
-      <c r="H175" s="59"/>
-      <c r="I175" s="61"/>
+      <c r="H175" s="67"/>
+      <c r="I175" s="69"/>
     </row>
     <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="43" t="s">
+      <c r="A176" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="B176" s="46" t="s">
+      <c r="B176" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="C176" s="48" t="s">
+      <c r="C176" s="56" t="s">
         <v>266</v>
       </c>
       <c r="D176" s="31" t="s">
@@ -5512,32 +5822,32 @@
       <c r="G176" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="H176" s="50" t="s">
+      <c r="H176" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I176" s="52" t="s">
+      <c r="I176" s="60" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="44"/>
-      <c r="B177" s="47"/>
-      <c r="C177" s="49"/>
+      <c r="A177" s="52"/>
+      <c r="B177" s="55"/>
+      <c r="C177" s="57"/>
       <c r="D177" s="36" t="s">
         <v>268</v>
       </c>
       <c r="E177" s="42"/>
       <c r="F177" s="36"/>
       <c r="G177" s="36"/>
-      <c r="H177" s="51"/>
-      <c r="I177" s="53"/>
+      <c r="H177" s="59"/>
+      <c r="I177" s="61"/>
     </row>
     <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="44"/>
-      <c r="B178" s="54" t="s">
+      <c r="A178" s="52"/>
+      <c r="B178" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="C178" s="56" t="s">
+      <c r="C178" s="64" t="s">
         <v>267</v>
       </c>
       <c r="D178" s="19" t="s">
@@ -5552,34 +5862,34 @@
       <c r="G178" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="H178" s="58" t="s">
+      <c r="H178" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I178" s="60" t="s">
+      <c r="I178" s="68" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="45"/>
-      <c r="B179" s="55"/>
-      <c r="C179" s="57"/>
+      <c r="A179" s="53"/>
+      <c r="B179" s="63"/>
+      <c r="C179" s="65"/>
       <c r="D179" s="24" t="s">
         <v>268</v>
       </c>
       <c r="E179" s="25"/>
       <c r="F179" s="13"/>
       <c r="G179" s="13"/>
-      <c r="H179" s="59"/>
-      <c r="I179" s="61"/>
+      <c r="H179" s="67"/>
+      <c r="I179" s="69"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="43" t="s">
+      <c r="A180" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="B180" s="46" t="s">
+      <c r="B180" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="C180" s="48" t="s">
+      <c r="C180" s="56" t="s">
         <v>310</v>
       </c>
       <c r="D180" s="31" t="s">
@@ -5594,32 +5904,32 @@
       <c r="G180" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H180" s="50" t="s">
+      <c r="H180" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I180" s="52" t="s">
+      <c r="I180" s="60" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="44"/>
-      <c r="B181" s="47"/>
-      <c r="C181" s="49"/>
+      <c r="A181" s="52"/>
+      <c r="B181" s="55"/>
+      <c r="C181" s="57"/>
       <c r="D181" s="36" t="s">
         <v>232</v>
       </c>
       <c r="E181" s="42"/>
       <c r="F181" s="36"/>
       <c r="G181" s="36"/>
-      <c r="H181" s="51"/>
-      <c r="I181" s="53"/>
+      <c r="H181" s="59"/>
+      <c r="I181" s="61"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="44"/>
-      <c r="B182" s="54" t="s">
+      <c r="A182" s="52"/>
+      <c r="B182" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="C182" s="56" t="s">
+      <c r="C182" s="64" t="s">
         <v>311</v>
       </c>
       <c r="D182" s="19" t="s">
@@ -5634,25 +5944,25 @@
       <c r="G182" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H182" s="58" t="s">
+      <c r="H182" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I182" s="60" t="s">
+      <c r="I182" s="68" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="45"/>
-      <c r="B183" s="55"/>
-      <c r="C183" s="57"/>
+      <c r="A183" s="53"/>
+      <c r="B183" s="63"/>
+      <c r="C183" s="65"/>
       <c r="D183" s="24" t="s">
         <v>232</v>
       </c>
       <c r="E183" s="25"/>
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
-      <c r="H183" s="59"/>
-      <c r="I183" s="61"/>
+      <c r="H183" s="67"/>
+      <c r="I183" s="69"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B184" s="20"/>
@@ -5666,69 +5976,186 @@
     </row>
   </sheetData>
   <mergeCells count="267">
-    <mergeCell ref="A176:A179"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="H176:H177"/>
-    <mergeCell ref="I176:I177"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="H178:H179"/>
-    <mergeCell ref="I178:I179"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="H172:H173"/>
-    <mergeCell ref="I172:I173"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="H174:H175"/>
-    <mergeCell ref="I174:I175"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="H166:H167"/>
-    <mergeCell ref="I166:I167"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="H168:H169"/>
-    <mergeCell ref="I168:I169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="H164:H165"/>
-    <mergeCell ref="I164:I165"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="A160:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="H160:H161"/>
-    <mergeCell ref="I160:I161"/>
-    <mergeCell ref="I162:I163"/>
-    <mergeCell ref="H162:H163"/>
-    <mergeCell ref="A154:A159"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="H154:H156"/>
-    <mergeCell ref="I154:I156"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="H157:H159"/>
-    <mergeCell ref="I157:I159"/>
-    <mergeCell ref="A148:A153"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="H148:H150"/>
-    <mergeCell ref="I148:I150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="H151:H153"/>
-    <mergeCell ref="I151:I153"/>
+    <mergeCell ref="A180:A183"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="H180:H181"/>
+    <mergeCell ref="I180:I181"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="H182:H183"/>
+    <mergeCell ref="I182:I183"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="H116:H118"/>
+    <mergeCell ref="I116:I118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="H119:H121"/>
+    <mergeCell ref="I119:I121"/>
+    <mergeCell ref="A110:A115"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="H110:H112"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="H113:H115"/>
+    <mergeCell ref="I113:I115"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="H107:H109"/>
+    <mergeCell ref="I107:I109"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="H98:H100"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="I101:I103"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="H132:H136"/>
+    <mergeCell ref="I132:I136"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
     <mergeCell ref="B137:B141"/>
     <mergeCell ref="C137:C141"/>
     <mergeCell ref="H137:H141"/>
@@ -5753,186 +6180,69 @@
     <mergeCell ref="I127:I131"/>
     <mergeCell ref="B132:B136"/>
     <mergeCell ref="C132:C136"/>
-    <mergeCell ref="H132:H136"/>
-    <mergeCell ref="I132:I136"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="I74:I76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="H77:H79"/>
-    <mergeCell ref="I77:I79"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="I95:I97"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="H98:H100"/>
-    <mergeCell ref="I98:I100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="H101:H103"/>
-    <mergeCell ref="I101:I103"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="I104:I106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="H107:H109"/>
-    <mergeCell ref="I107:I109"/>
-    <mergeCell ref="A110:A115"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="H110:H112"/>
-    <mergeCell ref="I110:I112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="H113:H115"/>
-    <mergeCell ref="I113:I115"/>
-    <mergeCell ref="A116:A121"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="H116:H118"/>
-    <mergeCell ref="I116:I118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="H119:H121"/>
-    <mergeCell ref="I119:I121"/>
-    <mergeCell ref="A180:A183"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="H180:H181"/>
-    <mergeCell ref="I180:I181"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="H182:H183"/>
-    <mergeCell ref="I182:I183"/>
+    <mergeCell ref="A148:A153"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="H148:H150"/>
+    <mergeCell ref="I148:I150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="H151:H153"/>
+    <mergeCell ref="I151:I153"/>
+    <mergeCell ref="A154:A159"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="H154:H156"/>
+    <mergeCell ref="I154:I156"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="H157:H159"/>
+    <mergeCell ref="I157:I159"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="H160:H161"/>
+    <mergeCell ref="I160:I161"/>
+    <mergeCell ref="I162:I163"/>
+    <mergeCell ref="H162:H163"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="I166:I167"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="H168:H169"/>
+    <mergeCell ref="I168:I169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="H164:H165"/>
+    <mergeCell ref="I164:I165"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="H172:H173"/>
+    <mergeCell ref="I172:I173"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="H174:H175"/>
+    <mergeCell ref="I174:I175"/>
+    <mergeCell ref="A176:A179"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="H176:H177"/>
+    <mergeCell ref="I176:I177"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="H178:H179"/>
+    <mergeCell ref="I178:I179"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5941,17 +6251,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5110BF86-FE5F-4C8F-9A0D-6A0CFE69DE9D}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" customWidth="1"/>
     <col min="4" max="4" width="51.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
@@ -5990,13 +6300,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="123" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="120" t="s">
         <v>321</v>
       </c>
       <c r="D2" s="30" t="s">
@@ -6011,17 +6321,17 @@
       <c r="G2" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="60" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="121"/>
       <c r="D3" s="33" t="s">
         <v>323</v>
       </c>
@@ -6030,115 +6340,115 @@
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="78"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="108"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="121"/>
       <c r="D4" s="33" t="s">
         <v>324</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="122"/>
       <c r="D5" s="36" t="s">
         <v>325</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="53"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="114" t="s">
         <v>330</v>
       </c>
-      <c r="D6" s="117" t="s">
+      <c r="D6" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="E6" s="118" t="s">
+      <c r="E6" s="45" t="s">
         <v>326</v>
       </c>
-      <c r="F6" s="117" t="s">
+      <c r="F6" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="G6" s="117" t="s">
+      <c r="G6" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I6" s="125" t="s">
+      <c r="I6" s="111" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="119" t="s">
+      <c r="A7" s="52"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="E7" s="120" t="s">
+      <c r="E7" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="126"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="112"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="119" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="126"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="112"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="121" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="E9" s="122"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="127"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="113"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="86" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="107" t="s">
         <v>333</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="117" t="s">
         <v>334</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>340</v>
       </c>
-      <c r="E10" s="106" t="s">
+      <c r="E10" s="43" t="s">
         <v>326</v>
       </c>
       <c r="F10" s="38" t="s">
@@ -6147,17 +6457,17 @@
       <c r="G10" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="H10" s="58" t="s">
+      <c r="H10" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I10" s="92" t="s">
+      <c r="I10" s="88" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="112"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="33" t="s">
         <v>323</v>
       </c>
@@ -6166,115 +6476,115 @@
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="78"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="112"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="33" t="s">
         <v>324</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="78"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="113"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="119"/>
       <c r="D13" s="36" t="s">
         <v>335</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="53"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="61"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="54" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="114" t="s">
         <v>337</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="E14" s="118" t="s">
+      <c r="E14" s="45" t="s">
         <v>326</v>
       </c>
-      <c r="F14" s="117" t="s">
+      <c r="F14" s="44" t="s">
         <v>343</v>
       </c>
-      <c r="G14" s="117" t="s">
+      <c r="G14" s="44" t="s">
         <v>343</v>
       </c>
-      <c r="H14" s="58" t="s">
+      <c r="H14" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I14" s="125" t="s">
+      <c r="I14" s="111" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="119" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="E15" s="120" t="s">
+      <c r="E15" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="126"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="112"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="119" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="126"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="112"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="121" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="48" t="s">
         <v>342</v>
       </c>
-      <c r="E17" s="122"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="127"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="113"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="86" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="107" t="s">
         <v>344</v>
       </c>
-      <c r="C18" s="111" t="s">
+      <c r="C18" s="117" t="s">
         <v>346</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="E18" s="106" t="s">
+      <c r="E18" s="43" t="s">
         <v>326</v>
       </c>
       <c r="F18" s="38" t="s">
@@ -6283,17 +6593,17 @@
       <c r="G18" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="H18" s="58" t="s">
+      <c r="H18" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I18" s="92" t="s">
+      <c r="I18" s="88" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="112"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="118"/>
       <c r="D19" s="33" t="s">
         <v>323</v>
       </c>
@@ -6302,105 +6612,563 @@
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="70"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="78"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="112"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="118"/>
       <c r="D20" s="33" t="s">
         <v>324</v>
       </c>
       <c r="E20" s="41"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="70"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="78"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="113"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="119"/>
       <c r="D21" s="36" t="s">
         <v>351</v>
       </c>
       <c r="E21" s="42"/>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="53"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="61"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="54" t="s">
+      <c r="A22" s="52"/>
+      <c r="B22" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="114" t="s">
         <v>347</v>
       </c>
-      <c r="D22" s="117" t="s">
+      <c r="D22" s="44" t="s">
         <v>348</v>
       </c>
-      <c r="E22" s="118" t="s">
+      <c r="E22" s="45" t="s">
         <v>326</v>
       </c>
-      <c r="F22" s="117" t="s">
+      <c r="F22" s="44" t="s">
         <v>353</v>
       </c>
-      <c r="G22" s="117" t="s">
+      <c r="G22" s="44" t="s">
         <v>353</v>
       </c>
-      <c r="H22" s="58" t="s">
+      <c r="H22" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="I22" s="125" t="s">
+      <c r="I22" s="111" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="119" t="s">
+      <c r="A23" s="52"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="E23" s="120" t="s">
+      <c r="E23" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="126"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="112"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="119" t="s">
+      <c r="A24" s="52"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="E24" s="120"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="126"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="112"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="123" t="s">
+      <c r="A25" s="52"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="46" t="s">
         <v>350</v>
       </c>
-      <c r="E25" s="124"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="128"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="112"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="B26" s="143" t="s">
+        <v>356</v>
+      </c>
+      <c r="C26" s="144" t="s">
+        <v>359</v>
+      </c>
+      <c r="D26" s="145" t="s">
+        <v>357</v>
+      </c>
+      <c r="E26" s="146" t="s">
+        <v>361</v>
+      </c>
+      <c r="F26" s="147" t="s">
+        <v>363</v>
+      </c>
+      <c r="G26" s="147"/>
+      <c r="H26" s="165" t="s">
+        <v>380</v>
+      </c>
+      <c r="I26" s="159"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="52"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="135" t="s">
+        <v>358</v>
+      </c>
+      <c r="E27" s="136" t="s">
+        <v>362</v>
+      </c>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="160"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="52"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="140" t="s">
+        <v>360</v>
+      </c>
+      <c r="E28" s="141"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="161"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="52"/>
+      <c r="B29" s="126" t="s">
+        <v>364</v>
+      </c>
+      <c r="C29" s="130" t="s">
+        <v>365</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G29" s="127"/>
+      <c r="H29" s="168" t="s">
+        <v>380</v>
+      </c>
+      <c r="I29" s="162"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="52"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="132" t="s">
+        <v>358</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="163"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="52"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="132" t="s">
+        <v>360</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="164"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="51" t="s">
+        <v>369</v>
+      </c>
+      <c r="B32" s="155" t="s">
+        <v>370</v>
+      </c>
+      <c r="C32" s="156" t="s">
+        <v>371</v>
+      </c>
+      <c r="D32" s="145" t="s">
+        <v>372</v>
+      </c>
+      <c r="E32" s="145" t="s">
+        <v>362</v>
+      </c>
+      <c r="F32" s="146" t="s">
+        <v>374</v>
+      </c>
+      <c r="G32" s="147"/>
+      <c r="H32" s="165" t="s">
+        <v>380</v>
+      </c>
+      <c r="I32" s="159"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="52"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="140" t="s">
+        <v>373</v>
+      </c>
+      <c r="E33" s="140"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="161"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="52"/>
+      <c r="B34" s="154" t="s">
+        <v>375</v>
+      </c>
+      <c r="C34" s="151" t="s">
+        <v>376</v>
+      </c>
+      <c r="D34" s="150" t="s">
+        <v>377</v>
+      </c>
+      <c r="E34" s="150" t="s">
+        <v>378</v>
+      </c>
+      <c r="F34" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="G34" s="127"/>
+      <c r="H34" s="168" t="s">
+        <v>380</v>
+      </c>
+      <c r="I34" s="162"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="53"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="148" t="s">
+        <v>373</v>
+      </c>
+      <c r="E35" s="148"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="169"/>
+      <c r="I35" s="164"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="51" t="s">
+        <v>381</v>
+      </c>
+      <c r="B36" s="155" t="s">
+        <v>382</v>
+      </c>
+      <c r="C36" s="156" t="s">
+        <v>385</v>
+      </c>
+      <c r="D36" s="145" t="s">
+        <v>386</v>
+      </c>
+      <c r="E36" s="145" t="s">
+        <v>390</v>
+      </c>
+      <c r="F36" s="146" t="s">
+        <v>391</v>
+      </c>
+      <c r="G36" s="147"/>
+      <c r="H36" s="165" t="s">
+        <v>380</v>
+      </c>
+      <c r="I36" s="159"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="52"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="140" t="s">
+        <v>387</v>
+      </c>
+      <c r="E37" s="140"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="142"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="161"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="52"/>
+      <c r="B38" s="154" t="s">
+        <v>383</v>
+      </c>
+      <c r="C38" s="151" t="s">
+        <v>384</v>
+      </c>
+      <c r="D38" s="150" t="s">
+        <v>388</v>
+      </c>
+      <c r="E38" s="150" t="s">
+        <v>389</v>
+      </c>
+      <c r="F38" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="G38" s="127"/>
+      <c r="H38" s="168" t="s">
+        <v>380</v>
+      </c>
+      <c r="I38" s="162"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="53"/>
+      <c r="B39" s="157"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="148" t="s">
+        <v>387</v>
+      </c>
+      <c r="E39" s="148"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="169"/>
+      <c r="I39" s="164"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="51" t="s">
+        <v>402</v>
+      </c>
+      <c r="B40" s="155" t="s">
+        <v>404</v>
+      </c>
+      <c r="C40" s="156" t="s">
+        <v>394</v>
+      </c>
+      <c r="D40" s="145" t="s">
+        <v>396</v>
+      </c>
+      <c r="E40" s="145" t="s">
+        <v>398</v>
+      </c>
+      <c r="F40" s="146" t="s">
+        <v>400</v>
+      </c>
+      <c r="G40" s="147"/>
+      <c r="H40" s="165" t="s">
+        <v>380</v>
+      </c>
+      <c r="I40" s="159"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="52"/>
+      <c r="B41" s="153"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="140" t="s">
+        <v>397</v>
+      </c>
+      <c r="E41" s="140"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="167"/>
+      <c r="I41" s="161"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="52"/>
+      <c r="B42" s="154" t="s">
+        <v>403</v>
+      </c>
+      <c r="C42" s="151" t="s">
+        <v>393</v>
+      </c>
+      <c r="D42" s="150" t="s">
+        <v>395</v>
+      </c>
+      <c r="E42" s="150" t="s">
+        <v>399</v>
+      </c>
+      <c r="F42" s="44" t="s">
+        <v>401</v>
+      </c>
+      <c r="G42" s="127"/>
+      <c r="H42" s="168" t="s">
+        <v>380</v>
+      </c>
+      <c r="I42" s="162"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="53"/>
+      <c r="B43" s="157"/>
+      <c r="C43" s="158"/>
+      <c r="D43" s="148" t="s">
+        <v>397</v>
+      </c>
+      <c r="E43" s="148"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="169"/>
+      <c r="I43" s="164"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="51" t="s">
+        <v>405</v>
+      </c>
+      <c r="B44" s="155" t="s">
+        <v>406</v>
+      </c>
+      <c r="C44" s="156" t="s">
+        <v>408</v>
+      </c>
+      <c r="D44" s="145" t="s">
+        <v>410</v>
+      </c>
+      <c r="E44" s="145" t="s">
+        <v>414</v>
+      </c>
+      <c r="F44" s="146" t="s">
+        <v>415</v>
+      </c>
+      <c r="G44" s="147"/>
+      <c r="H44" s="165" t="s">
+        <v>380</v>
+      </c>
+      <c r="I44" s="159"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="52"/>
+      <c r="B45" s="153"/>
+      <c r="C45" s="152"/>
+      <c r="D45" s="140" t="s">
+        <v>412</v>
+      </c>
+      <c r="E45" s="140"/>
+      <c r="F45" s="141" t="s">
+        <v>416</v>
+      </c>
+      <c r="G45" s="142"/>
+      <c r="H45" s="167"/>
+      <c r="I45" s="161"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="52"/>
+      <c r="B46" s="154" t="s">
+        <v>407</v>
+      </c>
+      <c r="C46" s="151" t="s">
+        <v>409</v>
+      </c>
+      <c r="D46" s="150" t="s">
+        <v>411</v>
+      </c>
+      <c r="E46" s="150" t="s">
+        <v>413</v>
+      </c>
+      <c r="F46" s="44" t="s">
+        <v>417</v>
+      </c>
+      <c r="G46" s="127"/>
+      <c r="H46" s="168" t="s">
+        <v>380</v>
+      </c>
+      <c r="I46" s="162"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="53"/>
+      <c r="B47" s="157"/>
+      <c r="C47" s="158"/>
+      <c r="D47" s="148" t="s">
+        <v>412</v>
+      </c>
+      <c r="E47" s="148"/>
+      <c r="F47" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="G47" s="149"/>
+      <c r="H47" s="169"/>
+      <c r="I47" s="164"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="70">
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="I22:I25"/>
     <mergeCell ref="I18:I21"/>
@@ -6417,15 +7185,6 @@
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentation/Test Cases.xlsx
+++ b/Documentation/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010377\Documents\GitHub\axi2spi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64C025B-A53B-4BA1-A72D-77049515B6F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C19606-8C86-4C16-9C4D-CD7E6A8DC272}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="2775" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AXI" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="419">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1170,9 +1170,6 @@
     <t>slave_mode_select = '1'</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>SPI_CU_03</t>
   </si>
   <si>
@@ -1285,6 +1282,9 @@
   </si>
   <si>
     <t>MISO_I != MOSI_O</t>
+  </si>
+  <si>
+    <t>d1b4657</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1300,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1331,12 +1331,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="43">
     <border>
@@ -1858,7 +1852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1914,331 +1908,308 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2569,13 +2540,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="114" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="29" t="s">
@@ -2590,17 +2561,17 @@
       <c r="G2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="95" t="s">
-        <v>296</v>
-      </c>
-      <c r="I2" s="97" t="s">
+      <c r="H2" s="116" t="s">
+        <v>296</v>
+      </c>
+      <c r="I2" s="117" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="93"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="115"/>
       <c r="D3" s="32" t="s">
         <v>22</v>
       </c>
@@ -2613,41 +2584,41 @@
       <c r="G3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="96"/>
-      <c r="I3" s="98"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="104"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="93"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="32" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="98"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="93"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="35" t="s">
         <v>295</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="98"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="62" t="s">
+      <c r="A6" s="65"/>
+      <c r="B6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="77" t="s">
         <v>270</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -2662,17 +2633,17 @@
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="96" t="s">
-        <v>296</v>
-      </c>
-      <c r="I6" s="99" t="s">
+      <c r="H6" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="I6" s="100" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="91"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="10" t="s">
         <v>22</v>
       </c>
@@ -2685,41 +2656,41 @@
       <c r="G7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="99"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="100"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="91"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="99"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="100"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="86"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="112"/>
       <c r="D9" s="7" t="s">
         <v>295</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="99"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="100"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="105" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="38" t="s">
@@ -2734,17 +2705,17 @@
       <c r="G10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="96" t="s">
-        <v>296</v>
-      </c>
-      <c r="I10" s="98" t="s">
+      <c r="H10" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="I10" s="104" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="108"/>
-      <c r="C11" s="90"/>
+      <c r="C11" s="106"/>
       <c r="D11" s="33" t="s">
         <v>22</v>
       </c>
@@ -2757,41 +2728,41 @@
       <c r="G11" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="96"/>
-      <c r="I11" s="98"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="104"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="108"/>
-      <c r="C12" s="90"/>
+      <c r="C12" s="106"/>
       <c r="D12" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="98"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="104"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="57"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="35" t="s">
         <v>295</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="98"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="104"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="62" t="s">
+      <c r="A14" s="65"/>
+      <c r="B14" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="77" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -2806,17 +2777,17 @@
       <c r="G14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="96" t="s">
-        <v>296</v>
-      </c>
-      <c r="I14" s="99" t="s">
+      <c r="H14" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="I14" s="100" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="91"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="111"/>
       <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
@@ -2829,41 +2800,41 @@
       <c r="G15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="96"/>
-      <c r="I15" s="99"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="100"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="91"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="111"/>
       <c r="D16" s="5" t="s">
         <v>294</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="99"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="100"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="112"/>
       <c r="D17" s="7" t="s">
         <v>295</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="99"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="100"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="105" t="s">
         <v>271</v>
       </c>
       <c r="D18" s="38" t="s">
@@ -2878,17 +2849,17 @@
       <c r="G18" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="96" t="s">
-        <v>296</v>
-      </c>
-      <c r="I18" s="98" t="s">
+      <c r="H18" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="I18" s="104" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="108"/>
-      <c r="C19" s="90"/>
+      <c r="C19" s="106"/>
       <c r="D19" s="33" t="s">
         <v>29</v>
       </c>
@@ -2901,41 +2872,41 @@
       <c r="G19" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="96"/>
-      <c r="I19" s="98"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="104"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="108"/>
-      <c r="C20" s="90"/>
+      <c r="C20" s="106"/>
       <c r="D20" s="33" t="s">
         <v>294</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="98"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="104"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="57"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="35" t="s">
         <v>295</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="98"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="104"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="62" t="s">
+      <c r="A22" s="65"/>
+      <c r="B22" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="77" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -2950,17 +2921,17 @@
       <c r="G22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="I22" s="87" t="s">
+      <c r="H22" s="97" t="s">
+        <v>296</v>
+      </c>
+      <c r="I22" s="99" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="91"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="111"/>
       <c r="D23" s="10" t="s">
         <v>29</v>
       </c>
@@ -2973,43 +2944,43 @@
       <c r="G23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="104"/>
-      <c r="I23" s="99"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="100"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="91"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="111"/>
       <c r="D24" s="10" t="s">
         <v>294</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="99"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="100"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="65"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="7" t="s">
         <v>295</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="99"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="100"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="101" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="30" t="s">
@@ -3024,17 +2995,17 @@
       <c r="G26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I26" s="60" t="s">
+      <c r="H26" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I26" s="73" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="101"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="76"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="102"/>
       <c r="D27" s="33" t="s">
         <v>29</v>
       </c>
@@ -3043,28 +3014,28 @@
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="78"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="91"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="101"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="76"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="102"/>
       <c r="D28" s="36" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="61"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="74"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="101"/>
-      <c r="B29" s="79" t="s">
+      <c r="A29" s="84"/>
+      <c r="B29" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="105" t="s">
+      <c r="C29" s="94" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -3079,17 +3050,17 @@
       <c r="G29" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I29" s="81" t="s">
+      <c r="H29" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I29" s="96" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="101"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="105"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="94"/>
       <c r="D30" s="10" t="s">
         <v>44</v>
       </c>
@@ -3098,30 +3069,30 @@
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="81"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="96"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="102"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="106"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="95"/>
       <c r="D31" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="81"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="96"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="100" t="s">
+      <c r="A32" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="109" t="s">
+      <c r="C32" s="88" t="s">
         <v>54</v>
       </c>
       <c r="D32" s="30" t="s">
@@ -3136,17 +3107,17 @@
       <c r="G32" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I32" s="60" t="s">
+      <c r="H32" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I32" s="73" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="101"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="110"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="89"/>
       <c r="D33" s="33" t="s">
         <v>29</v>
       </c>
@@ -3155,28 +3126,28 @@
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="78"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="91"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="101"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="110"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="89"/>
       <c r="D34" s="36" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="61"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="74"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="101"/>
-      <c r="B35" s="79" t="s">
+      <c r="A35" s="84"/>
+      <c r="B35" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="105" t="s">
+      <c r="C35" s="94" t="s">
         <v>55</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -3191,17 +3162,17 @@
       <c r="G35" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I35" s="81" t="s">
+      <c r="H35" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I35" s="96" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="101"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="105"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="94"/>
       <c r="D36" s="10" t="s">
         <v>58</v>
       </c>
@@ -3210,30 +3181,30 @@
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="81"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="96"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="102"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="106"/>
+      <c r="A37" s="85"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="95"/>
       <c r="D37" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="81"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="96"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="100" t="s">
+      <c r="A38" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="109" t="s">
+      <c r="C38" s="88" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="30" t="s">
@@ -3248,17 +3219,17 @@
       <c r="G38" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I38" s="60" t="s">
+      <c r="H38" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I38" s="73" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="101"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="110"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="89"/>
       <c r="D39" s="33" t="s">
         <v>22</v>
       </c>
@@ -3267,28 +3238,28 @@
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="78"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="91"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="101"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="110"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="89"/>
       <c r="D40" s="36" t="s">
         <v>53</v>
       </c>
       <c r="E40" s="37"/>
       <c r="F40" s="36"/>
       <c r="G40" s="36"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="61"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="74"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="101"/>
-      <c r="B41" s="79" t="s">
+      <c r="A41" s="84"/>
+      <c r="B41" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="105" t="s">
+      <c r="C41" s="94" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="9" t="s">
@@ -3303,17 +3274,17 @@
       <c r="G41" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H41" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I41" s="81" t="s">
+      <c r="H41" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I41" s="96" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="101"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="105"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="94"/>
       <c r="D42" s="10" t="s">
         <v>58</v>
       </c>
@@ -3322,30 +3293,30 @@
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="81"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="96"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="102"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="106"/>
+      <c r="A43" s="85"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="95"/>
       <c r="D43" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="81"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="96"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="100" t="s">
+      <c r="A44" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="109" t="s">
+      <c r="C44" s="88" t="s">
         <v>66</v>
       </c>
       <c r="D44" s="30" t="s">
@@ -3360,17 +3331,17 @@
       <c r="G44" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H44" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I44" s="60" t="s">
+      <c r="H44" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I44" s="73" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="101"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="110"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="89"/>
       <c r="D45" s="33" t="s">
         <v>22</v>
       </c>
@@ -3379,28 +3350,28 @@
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="78"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="91"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="101"/>
-      <c r="B46" s="74"/>
-      <c r="C46" s="110"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="89"/>
       <c r="D46" s="36" t="s">
         <v>69</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="36"/>
       <c r="G46" s="36"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="61"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="74"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="101"/>
-      <c r="B47" s="79" t="s">
+      <c r="A47" s="84"/>
+      <c r="B47" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="105" t="s">
+      <c r="C47" s="94" t="s">
         <v>67</v>
       </c>
       <c r="D47" s="9" t="s">
@@ -3415,17 +3386,17 @@
       <c r="G47" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H47" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I47" s="81" t="s">
+      <c r="H47" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I47" s="96" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="101"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="105"/>
+      <c r="A48" s="84"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="94"/>
       <c r="D48" s="10" t="s">
         <v>68</v>
       </c>
@@ -3434,30 +3405,30 @@
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="81"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="96"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="102"/>
-      <c r="B49" s="83"/>
-      <c r="C49" s="106"/>
+      <c r="A49" s="85"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="95"/>
       <c r="D49" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="81"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="96"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="100" t="s">
+      <c r="A50" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="73" t="s">
+      <c r="B50" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="109" t="s">
+      <c r="C50" s="88" t="s">
         <v>77</v>
       </c>
       <c r="D50" s="30" t="s">
@@ -3472,17 +3443,17 @@
       <c r="G50" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="H50" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I50" s="60" t="s">
+      <c r="H50" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I50" s="73" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="101"/>
-      <c r="B51" s="74"/>
-      <c r="C51" s="110"/>
+      <c r="A51" s="84"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="89"/>
       <c r="D51" s="33" t="s">
         <v>29</v>
       </c>
@@ -3491,28 +3462,28 @@
       </c>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="78"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="91"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="101"/>
-      <c r="B52" s="74"/>
-      <c r="C52" s="110"/>
+      <c r="A52" s="84"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="89"/>
       <c r="D52" s="36" t="s">
         <v>80</v>
       </c>
       <c r="E52" s="37"/>
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="61"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="74"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="101"/>
-      <c r="B53" s="79" t="s">
+      <c r="A53" s="84"/>
+      <c r="B53" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="105" t="s">
+      <c r="C53" s="94" t="s">
         <v>78</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -3527,17 +3498,17 @@
       <c r="G53" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H53" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I53" s="81" t="s">
+      <c r="H53" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I53" s="96" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="101"/>
-      <c r="B54" s="79"/>
-      <c r="C54" s="105"/>
+      <c r="A54" s="84"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="94"/>
       <c r="D54" s="10" t="s">
         <v>79</v>
       </c>
@@ -3546,30 +3517,30 @@
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="81"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="96"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="102"/>
-      <c r="B55" s="83"/>
-      <c r="C55" s="106"/>
+      <c r="A55" s="85"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="95"/>
       <c r="D55" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="81"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="96"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="100" t="s">
+      <c r="A56" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="109" t="s">
+      <c r="C56" s="88" t="s">
         <v>86</v>
       </c>
       <c r="D56" s="30" t="s">
@@ -3584,17 +3555,17 @@
       <c r="G56" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="H56" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I56" s="60" t="s">
+      <c r="H56" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I56" s="73" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="101"/>
-      <c r="B57" s="74"/>
-      <c r="C57" s="110"/>
+      <c r="A57" s="84"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="89"/>
       <c r="D57" s="33" t="s">
         <v>22</v>
       </c>
@@ -3603,28 +3574,28 @@
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="78"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="91"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="101"/>
-      <c r="B58" s="74"/>
-      <c r="C58" s="110"/>
+      <c r="A58" s="84"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="89"/>
       <c r="D58" s="36" t="s">
         <v>89</v>
       </c>
       <c r="E58" s="37"/>
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="61"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="74"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="101"/>
-      <c r="B59" s="79" t="s">
+      <c r="A59" s="84"/>
+      <c r="B59" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="105" t="s">
+      <c r="C59" s="94" t="s">
         <v>87</v>
       </c>
       <c r="D59" s="9" t="s">
@@ -3639,17 +3610,17 @@
       <c r="G59" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H59" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I59" s="81" t="s">
+      <c r="H59" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I59" s="96" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="101"/>
-      <c r="B60" s="79"/>
-      <c r="C60" s="105"/>
+      <c r="A60" s="84"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="94"/>
       <c r="D60" s="10" t="s">
         <v>90</v>
       </c>
@@ -3658,30 +3629,30 @@
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="81"/>
+      <c r="H60" s="90"/>
+      <c r="I60" s="96"/>
     </row>
     <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="102"/>
-      <c r="B61" s="83"/>
-      <c r="C61" s="106"/>
+      <c r="A61" s="85"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="95"/>
       <c r="D61" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="81"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="96"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="100" t="s">
+      <c r="A62" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="73" t="s">
+      <c r="B62" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="109" t="s">
+      <c r="C62" s="88" t="s">
         <v>102</v>
       </c>
       <c r="D62" s="30" t="s">
@@ -3696,17 +3667,17 @@
       <c r="G62" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H62" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I62" s="60" t="s">
+      <c r="H62" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I62" s="73" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="101"/>
-      <c r="B63" s="74"/>
-      <c r="C63" s="110"/>
+      <c r="A63" s="84"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="89"/>
       <c r="D63" s="33" t="s">
         <v>29</v>
       </c>
@@ -3715,28 +3686,28 @@
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
-      <c r="H63" s="77"/>
-      <c r="I63" s="78"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="91"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="101"/>
-      <c r="B64" s="74"/>
-      <c r="C64" s="110"/>
+      <c r="A64" s="84"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="89"/>
       <c r="D64" s="36" t="s">
         <v>103</v>
       </c>
       <c r="E64" s="37"/>
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="61"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="74"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="101"/>
-      <c r="B65" s="79" t="s">
+      <c r="A65" s="84"/>
+      <c r="B65" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="105" t="s">
+      <c r="C65" s="94" t="s">
         <v>101</v>
       </c>
       <c r="D65" s="9" t="s">
@@ -3751,17 +3722,17 @@
       <c r="G65" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H65" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I65" s="81" t="s">
+      <c r="H65" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I65" s="96" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="101"/>
-      <c r="B66" s="79"/>
-      <c r="C66" s="105"/>
+      <c r="A66" s="84"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="94"/>
       <c r="D66" s="10" t="s">
         <v>104</v>
       </c>
@@ -3770,30 +3741,30 @@
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
-      <c r="H66" s="77"/>
-      <c r="I66" s="81"/>
+      <c r="H66" s="90"/>
+      <c r="I66" s="96"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="102"/>
-      <c r="B67" s="83"/>
-      <c r="C67" s="106"/>
+      <c r="A67" s="85"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="95"/>
       <c r="D67" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="81"/>
+      <c r="H67" s="80"/>
+      <c r="I67" s="96"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="100" t="s">
+      <c r="A68" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="B68" s="73" t="s">
+      <c r="B68" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="109" t="s">
+      <c r="C68" s="88" t="s">
         <v>100</v>
       </c>
       <c r="D68" s="30" t="s">
@@ -3808,17 +3779,17 @@
       <c r="G68" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H68" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I68" s="60" t="s">
+      <c r="H68" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I68" s="73" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="101"/>
-      <c r="B69" s="74"/>
-      <c r="C69" s="110"/>
+      <c r="A69" s="84"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="89"/>
       <c r="D69" s="33" t="s">
         <v>22</v>
       </c>
@@ -3827,28 +3798,28 @@
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
-      <c r="H69" s="77"/>
-      <c r="I69" s="78"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="91"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="101"/>
-      <c r="B70" s="74"/>
-      <c r="C70" s="110"/>
+      <c r="A70" s="84"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="89"/>
       <c r="D70" s="36" t="s">
         <v>103</v>
       </c>
       <c r="E70" s="37"/>
       <c r="F70" s="36"/>
       <c r="G70" s="36"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="61"/>
+      <c r="H70" s="72"/>
+      <c r="I70" s="74"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="101"/>
-      <c r="B71" s="79" t="s">
+      <c r="A71" s="84"/>
+      <c r="B71" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="105" t="s">
+      <c r="C71" s="94" t="s">
         <v>99</v>
       </c>
       <c r="D71" s="9" t="s">
@@ -3863,17 +3834,17 @@
       <c r="G71" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H71" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I71" s="81" t="s">
+      <c r="H71" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I71" s="96" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="101"/>
-      <c r="B72" s="79"/>
-      <c r="C72" s="105"/>
+      <c r="A72" s="84"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="94"/>
       <c r="D72" s="10" t="s">
         <v>104</v>
       </c>
@@ -3882,30 +3853,30 @@
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
-      <c r="H72" s="77"/>
-      <c r="I72" s="81"/>
+      <c r="H72" s="90"/>
+      <c r="I72" s="96"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="102"/>
-      <c r="B73" s="83"/>
-      <c r="C73" s="106"/>
+      <c r="A73" s="85"/>
+      <c r="B73" s="93"/>
+      <c r="C73" s="95"/>
       <c r="D73" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="81"/>
+      <c r="H73" s="80"/>
+      <c r="I73" s="96"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="100" t="s">
+      <c r="A74" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="73" t="s">
+      <c r="B74" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="C74" s="109" t="s">
+      <c r="C74" s="88" t="s">
         <v>111</v>
       </c>
       <c r="D74" s="30" t="s">
@@ -3920,17 +3891,17 @@
       <c r="G74" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="H74" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I74" s="60" t="s">
+      <c r="H74" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I74" s="73" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="101"/>
-      <c r="B75" s="74"/>
-      <c r="C75" s="110"/>
+      <c r="A75" s="84"/>
+      <c r="B75" s="87"/>
+      <c r="C75" s="89"/>
       <c r="D75" s="33" t="s">
         <v>22</v>
       </c>
@@ -3939,28 +3910,28 @@
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
-      <c r="H75" s="77"/>
-      <c r="I75" s="78"/>
+      <c r="H75" s="90"/>
+      <c r="I75" s="91"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="101"/>
-      <c r="B76" s="74"/>
-      <c r="C76" s="110"/>
+      <c r="A76" s="84"/>
+      <c r="B76" s="87"/>
+      <c r="C76" s="89"/>
       <c r="D76" s="36" t="s">
         <v>114</v>
       </c>
       <c r="E76" s="37"/>
       <c r="F76" s="36"/>
       <c r="G76" s="36"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="61"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="74"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="101"/>
-      <c r="B77" s="79" t="s">
+      <c r="A77" s="84"/>
+      <c r="B77" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="105" t="s">
+      <c r="C77" s="94" t="s">
         <v>110</v>
       </c>
       <c r="D77" s="9" t="s">
@@ -3975,17 +3946,17 @@
       <c r="G77" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H77" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I77" s="81" t="s">
+      <c r="H77" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I77" s="96" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="101"/>
-      <c r="B78" s="79"/>
-      <c r="C78" s="105"/>
+      <c r="A78" s="84"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="94"/>
       <c r="D78" s="10" t="s">
         <v>113</v>
       </c>
@@ -3994,30 +3965,30 @@
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
-      <c r="H78" s="77"/>
-      <c r="I78" s="81"/>
+      <c r="H78" s="90"/>
+      <c r="I78" s="96"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="102"/>
-      <c r="B79" s="83"/>
-      <c r="C79" s="106"/>
+      <c r="A79" s="85"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="95"/>
       <c r="D79" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
-      <c r="H79" s="67"/>
-      <c r="I79" s="81"/>
+      <c r="H79" s="80"/>
+      <c r="I79" s="96"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="100" t="s">
+      <c r="A80" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="73" t="s">
+      <c r="B80" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="C80" s="109" t="s">
+      <c r="C80" s="88" t="s">
         <v>123</v>
       </c>
       <c r="D80" s="30" t="s">
@@ -4032,17 +4003,17 @@
       <c r="G80" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="H80" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I80" s="60" t="s">
+      <c r="H80" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I80" s="73" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="101"/>
-      <c r="B81" s="74"/>
-      <c r="C81" s="110"/>
+      <c r="A81" s="84"/>
+      <c r="B81" s="87"/>
+      <c r="C81" s="89"/>
       <c r="D81" s="33" t="s">
         <v>22</v>
       </c>
@@ -4051,28 +4022,28 @@
       </c>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
-      <c r="H81" s="77"/>
-      <c r="I81" s="78"/>
+      <c r="H81" s="90"/>
+      <c r="I81" s="91"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="101"/>
-      <c r="B82" s="74"/>
-      <c r="C82" s="110"/>
+      <c r="A82" s="84"/>
+      <c r="B82" s="87"/>
+      <c r="C82" s="89"/>
       <c r="D82" s="36" t="s">
         <v>126</v>
       </c>
       <c r="E82" s="37"/>
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
-      <c r="H82" s="59"/>
-      <c r="I82" s="61"/>
+      <c r="H82" s="72"/>
+      <c r="I82" s="74"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="101"/>
-      <c r="B83" s="79" t="s">
+      <c r="A83" s="84"/>
+      <c r="B83" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="105" t="s">
+      <c r="C83" s="94" t="s">
         <v>122</v>
       </c>
       <c r="D83" s="9" t="s">
@@ -4087,17 +4058,17 @@
       <c r="G83" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H83" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I83" s="81" t="s">
+      <c r="H83" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I83" s="96" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="101"/>
-      <c r="B84" s="79"/>
-      <c r="C84" s="105"/>
+      <c r="A84" s="84"/>
+      <c r="B84" s="92"/>
+      <c r="C84" s="94"/>
       <c r="D84" s="10" t="s">
         <v>125</v>
       </c>
@@ -4106,30 +4077,30 @@
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
-      <c r="H84" s="77"/>
-      <c r="I84" s="81"/>
+      <c r="H84" s="90"/>
+      <c r="I84" s="96"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="102"/>
-      <c r="B85" s="83"/>
-      <c r="C85" s="106"/>
+      <c r="A85" s="85"/>
+      <c r="B85" s="93"/>
+      <c r="C85" s="95"/>
       <c r="D85" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="67"/>
-      <c r="I85" s="81"/>
+      <c r="H85" s="80"/>
+      <c r="I85" s="96"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="100" t="s">
+      <c r="A86" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="B86" s="73" t="s">
+      <c r="B86" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="109" t="s">
+      <c r="C86" s="88" t="s">
         <v>138</v>
       </c>
       <c r="D86" s="30" t="s">
@@ -4144,17 +4115,17 @@
       <c r="G86" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="H86" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I86" s="60" t="s">
+      <c r="H86" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I86" s="73" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="101"/>
-      <c r="B87" s="74"/>
-      <c r="C87" s="110"/>
+      <c r="A87" s="84"/>
+      <c r="B87" s="87"/>
+      <c r="C87" s="89"/>
       <c r="D87" s="33" t="s">
         <v>29</v>
       </c>
@@ -4163,28 +4134,28 @@
       </c>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
-      <c r="H87" s="77"/>
-      <c r="I87" s="78"/>
+      <c r="H87" s="90"/>
+      <c r="I87" s="91"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="101"/>
-      <c r="B88" s="74"/>
-      <c r="C88" s="110"/>
+      <c r="A88" s="84"/>
+      <c r="B88" s="87"/>
+      <c r="C88" s="89"/>
       <c r="D88" s="36" t="s">
         <v>139</v>
       </c>
       <c r="E88" s="37"/>
       <c r="F88" s="36"/>
       <c r="G88" s="36"/>
-      <c r="H88" s="59"/>
-      <c r="I88" s="61"/>
+      <c r="H88" s="72"/>
+      <c r="I88" s="74"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="101"/>
-      <c r="B89" s="79" t="s">
+      <c r="A89" s="84"/>
+      <c r="B89" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="C89" s="105" t="s">
+      <c r="C89" s="94" t="s">
         <v>137</v>
       </c>
       <c r="D89" s="9" t="s">
@@ -4199,17 +4170,17 @@
       <c r="G89" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H89" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I89" s="81" t="s">
+      <c r="H89" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I89" s="96" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="101"/>
-      <c r="B90" s="79"/>
-      <c r="C90" s="105"/>
+      <c r="A90" s="84"/>
+      <c r="B90" s="92"/>
+      <c r="C90" s="94"/>
       <c r="D90" s="10" t="s">
         <v>140</v>
       </c>
@@ -4218,30 +4189,30 @@
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
-      <c r="H90" s="77"/>
-      <c r="I90" s="81"/>
+      <c r="H90" s="90"/>
+      <c r="I90" s="96"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="102"/>
-      <c r="B91" s="83"/>
-      <c r="C91" s="106"/>
+      <c r="A91" s="85"/>
+      <c r="B91" s="93"/>
+      <c r="C91" s="95"/>
       <c r="D91" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E91" s="14"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="67"/>
-      <c r="I91" s="81"/>
+      <c r="H91" s="80"/>
+      <c r="I91" s="96"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="100" t="s">
+      <c r="A92" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="B92" s="73" t="s">
+      <c r="B92" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="109" t="s">
+      <c r="C92" s="88" t="s">
         <v>136</v>
       </c>
       <c r="D92" s="30" t="s">
@@ -4256,17 +4227,17 @@
       <c r="G92" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="H92" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I92" s="60" t="s">
+      <c r="H92" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I92" s="73" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="101"/>
-      <c r="B93" s="74"/>
-      <c r="C93" s="110"/>
+      <c r="A93" s="84"/>
+      <c r="B93" s="87"/>
+      <c r="C93" s="89"/>
       <c r="D93" s="33" t="s">
         <v>22</v>
       </c>
@@ -4275,28 +4246,28 @@
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
-      <c r="H93" s="77"/>
-      <c r="I93" s="78"/>
+      <c r="H93" s="90"/>
+      <c r="I93" s="91"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="101"/>
-      <c r="B94" s="74"/>
-      <c r="C94" s="110"/>
+      <c r="A94" s="84"/>
+      <c r="B94" s="87"/>
+      <c r="C94" s="89"/>
       <c r="D94" s="36" t="s">
         <v>139</v>
       </c>
       <c r="E94" s="37"/>
       <c r="F94" s="36"/>
       <c r="G94" s="36"/>
-      <c r="H94" s="59"/>
-      <c r="I94" s="61"/>
+      <c r="H94" s="72"/>
+      <c r="I94" s="74"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="101"/>
-      <c r="B95" s="79" t="s">
+      <c r="A95" s="84"/>
+      <c r="B95" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="C95" s="105" t="s">
+      <c r="C95" s="94" t="s">
         <v>135</v>
       </c>
       <c r="D95" s="9" t="s">
@@ -4311,17 +4282,17 @@
       <c r="G95" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H95" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I95" s="81" t="s">
+      <c r="H95" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I95" s="96" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="101"/>
-      <c r="B96" s="79"/>
-      <c r="C96" s="105"/>
+      <c r="A96" s="84"/>
+      <c r="B96" s="92"/>
+      <c r="C96" s="94"/>
       <c r="D96" s="10" t="s">
         <v>140</v>
       </c>
@@ -4330,30 +4301,30 @@
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
-      <c r="H96" s="77"/>
-      <c r="I96" s="81"/>
+      <c r="H96" s="90"/>
+      <c r="I96" s="96"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="102"/>
-      <c r="B97" s="83"/>
-      <c r="C97" s="106"/>
+      <c r="A97" s="85"/>
+      <c r="B97" s="93"/>
+      <c r="C97" s="95"/>
       <c r="D97" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E97" s="14"/>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
-      <c r="H97" s="67"/>
-      <c r="I97" s="81"/>
+      <c r="H97" s="80"/>
+      <c r="I97" s="96"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="100" t="s">
+      <c r="A98" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="B98" s="73" t="s">
+      <c r="B98" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="C98" s="109" t="s">
+      <c r="C98" s="88" t="s">
         <v>152</v>
       </c>
       <c r="D98" s="30" t="s">
@@ -4368,17 +4339,17 @@
       <c r="G98" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="H98" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I98" s="60" t="s">
+      <c r="H98" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I98" s="73" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="101"/>
-      <c r="B99" s="74"/>
-      <c r="C99" s="110"/>
+      <c r="A99" s="84"/>
+      <c r="B99" s="87"/>
+      <c r="C99" s="89"/>
       <c r="D99" s="33" t="s">
         <v>29</v>
       </c>
@@ -4387,28 +4358,28 @@
       </c>
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
-      <c r="H99" s="77"/>
-      <c r="I99" s="78"/>
+      <c r="H99" s="90"/>
+      <c r="I99" s="91"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="101"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="110"/>
+      <c r="A100" s="84"/>
+      <c r="B100" s="87"/>
+      <c r="C100" s="89"/>
       <c r="D100" s="36" t="s">
         <v>150</v>
       </c>
       <c r="E100" s="37"/>
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
-      <c r="H100" s="59"/>
-      <c r="I100" s="61"/>
+      <c r="H100" s="72"/>
+      <c r="I100" s="74"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="101"/>
-      <c r="B101" s="79" t="s">
+      <c r="A101" s="84"/>
+      <c r="B101" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="C101" s="105" t="s">
+      <c r="C101" s="94" t="s">
         <v>153</v>
       </c>
       <c r="D101" s="9" t="s">
@@ -4423,17 +4394,17 @@
       <c r="G101" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H101" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I101" s="81" t="s">
+      <c r="H101" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I101" s="96" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="101"/>
-      <c r="B102" s="79"/>
-      <c r="C102" s="105"/>
+      <c r="A102" s="84"/>
+      <c r="B102" s="92"/>
+      <c r="C102" s="94"/>
       <c r="D102" s="10" t="s">
         <v>151</v>
       </c>
@@ -4442,30 +4413,30 @@
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
-      <c r="H102" s="77"/>
-      <c r="I102" s="81"/>
+      <c r="H102" s="90"/>
+      <c r="I102" s="96"/>
     </row>
     <row r="103" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="102"/>
-      <c r="B103" s="83"/>
-      <c r="C103" s="106"/>
+      <c r="A103" s="85"/>
+      <c r="B103" s="93"/>
+      <c r="C103" s="95"/>
       <c r="D103" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E103" s="14"/>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
-      <c r="H103" s="67"/>
-      <c r="I103" s="81"/>
+      <c r="H103" s="80"/>
+      <c r="I103" s="96"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="100" t="s">
+      <c r="A104" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="B104" s="73" t="s">
+      <c r="B104" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="C104" s="109" t="s">
+      <c r="C104" s="88" t="s">
         <v>154</v>
       </c>
       <c r="D104" s="30" t="s">
@@ -4480,17 +4451,17 @@
       <c r="G104" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="H104" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I104" s="60" t="s">
+      <c r="H104" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I104" s="73" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="101"/>
-      <c r="B105" s="74"/>
-      <c r="C105" s="110"/>
+      <c r="A105" s="84"/>
+      <c r="B105" s="87"/>
+      <c r="C105" s="89"/>
       <c r="D105" s="33" t="s">
         <v>22</v>
       </c>
@@ -4499,28 +4470,28 @@
       </c>
       <c r="F105" s="33"/>
       <c r="G105" s="33"/>
-      <c r="H105" s="77"/>
-      <c r="I105" s="78"/>
+      <c r="H105" s="90"/>
+      <c r="I105" s="91"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="101"/>
-      <c r="B106" s="74"/>
-      <c r="C106" s="110"/>
+      <c r="A106" s="84"/>
+      <c r="B106" s="87"/>
+      <c r="C106" s="89"/>
       <c r="D106" s="36" t="s">
         <v>150</v>
       </c>
       <c r="E106" s="37"/>
       <c r="F106" s="36"/>
       <c r="G106" s="36"/>
-      <c r="H106" s="59"/>
-      <c r="I106" s="61"/>
+      <c r="H106" s="72"/>
+      <c r="I106" s="74"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="101"/>
-      <c r="B107" s="79" t="s">
+      <c r="A107" s="84"/>
+      <c r="B107" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="C107" s="105" t="s">
+      <c r="C107" s="94" t="s">
         <v>155</v>
       </c>
       <c r="D107" s="9" t="s">
@@ -4535,17 +4506,17 @@
       <c r="G107" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H107" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I107" s="81" t="s">
+      <c r="H107" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I107" s="96" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="101"/>
-      <c r="B108" s="79"/>
-      <c r="C108" s="105"/>
+      <c r="A108" s="84"/>
+      <c r="B108" s="92"/>
+      <c r="C108" s="94"/>
       <c r="D108" s="10" t="s">
         <v>149</v>
       </c>
@@ -4554,30 +4525,30 @@
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
-      <c r="H108" s="77"/>
-      <c r="I108" s="81"/>
+      <c r="H108" s="90"/>
+      <c r="I108" s="96"/>
     </row>
     <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="102"/>
-      <c r="B109" s="83"/>
-      <c r="C109" s="106"/>
+      <c r="A109" s="85"/>
+      <c r="B109" s="93"/>
+      <c r="C109" s="95"/>
       <c r="D109" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E109" s="14"/>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
-      <c r="H109" s="67"/>
-      <c r="I109" s="81"/>
+      <c r="H109" s="80"/>
+      <c r="I109" s="96"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="100" t="s">
+      <c r="A110" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="B110" s="73" t="s">
+      <c r="B110" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="C110" s="109" t="s">
+      <c r="C110" s="88" t="s">
         <v>174</v>
       </c>
       <c r="D110" s="30" t="s">
@@ -4592,17 +4563,17 @@
       <c r="G110" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="H110" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I110" s="60" t="s">
+      <c r="H110" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I110" s="73" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="101"/>
-      <c r="B111" s="74"/>
-      <c r="C111" s="110"/>
+      <c r="A111" s="84"/>
+      <c r="B111" s="87"/>
+      <c r="C111" s="89"/>
       <c r="D111" s="33" t="s">
         <v>29</v>
       </c>
@@ -4611,28 +4582,28 @@
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
-      <c r="H111" s="77"/>
-      <c r="I111" s="78"/>
+      <c r="H111" s="90"/>
+      <c r="I111" s="91"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="101"/>
-      <c r="B112" s="74"/>
-      <c r="C112" s="110"/>
+      <c r="A112" s="84"/>
+      <c r="B112" s="87"/>
+      <c r="C112" s="89"/>
       <c r="D112" s="36" t="s">
         <v>169</v>
       </c>
       <c r="E112" s="37"/>
       <c r="F112" s="36"/>
       <c r="G112" s="36"/>
-      <c r="H112" s="59"/>
-      <c r="I112" s="61"/>
+      <c r="H112" s="72"/>
+      <c r="I112" s="74"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="101"/>
-      <c r="B113" s="79" t="s">
+      <c r="A113" s="84"/>
+      <c r="B113" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="C113" s="105" t="s">
+      <c r="C113" s="94" t="s">
         <v>173</v>
       </c>
       <c r="D113" s="9" t="s">
@@ -4647,17 +4618,17 @@
       <c r="G113" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="H113" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I113" s="81" t="s">
+      <c r="H113" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I113" s="96" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="101"/>
-      <c r="B114" s="79"/>
-      <c r="C114" s="105"/>
+      <c r="A114" s="84"/>
+      <c r="B114" s="92"/>
+      <c r="C114" s="94"/>
       <c r="D114" s="10" t="s">
         <v>170</v>
       </c>
@@ -4666,30 +4637,30 @@
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
-      <c r="H114" s="77"/>
-      <c r="I114" s="81"/>
+      <c r="H114" s="90"/>
+      <c r="I114" s="96"/>
     </row>
     <row r="115" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="102"/>
-      <c r="B115" s="83"/>
-      <c r="C115" s="106"/>
+      <c r="A115" s="85"/>
+      <c r="B115" s="93"/>
+      <c r="C115" s="95"/>
       <c r="D115" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E115" s="14"/>
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
-      <c r="H115" s="67"/>
-      <c r="I115" s="81"/>
+      <c r="H115" s="80"/>
+      <c r="I115" s="96"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="100" t="s">
+      <c r="A116" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="B116" s="73" t="s">
+      <c r="B116" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="C116" s="109" t="s">
+      <c r="C116" s="88" t="s">
         <v>172</v>
       </c>
       <c r="D116" s="30" t="s">
@@ -4704,17 +4675,17 @@
       <c r="G116" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="H116" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I116" s="60" t="s">
+      <c r="H116" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I116" s="73" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="101"/>
-      <c r="B117" s="74"/>
-      <c r="C117" s="110"/>
+      <c r="A117" s="84"/>
+      <c r="B117" s="87"/>
+      <c r="C117" s="89"/>
       <c r="D117" s="33" t="s">
         <v>22</v>
       </c>
@@ -4723,28 +4694,28 @@
       </c>
       <c r="F117" s="33"/>
       <c r="G117" s="33"/>
-      <c r="H117" s="77"/>
-      <c r="I117" s="78"/>
+      <c r="H117" s="90"/>
+      <c r="I117" s="91"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="101"/>
-      <c r="B118" s="74"/>
-      <c r="C118" s="110"/>
+      <c r="A118" s="84"/>
+      <c r="B118" s="87"/>
+      <c r="C118" s="89"/>
       <c r="D118" s="36" t="s">
         <v>169</v>
       </c>
       <c r="E118" s="37"/>
       <c r="F118" s="36"/>
       <c r="G118" s="36"/>
-      <c r="H118" s="59"/>
-      <c r="I118" s="61"/>
+      <c r="H118" s="72"/>
+      <c r="I118" s="74"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="101"/>
-      <c r="B119" s="79" t="s">
+      <c r="A119" s="84"/>
+      <c r="B119" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="C119" s="105" t="s">
+      <c r="C119" s="94" t="s">
         <v>171</v>
       </c>
       <c r="D119" s="9" t="s">
@@ -4759,17 +4730,17 @@
       <c r="G119" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="H119" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I119" s="81" t="s">
+      <c r="H119" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I119" s="96" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="101"/>
-      <c r="B120" s="79"/>
-      <c r="C120" s="105"/>
+      <c r="A120" s="84"/>
+      <c r="B120" s="92"/>
+      <c r="C120" s="94"/>
       <c r="D120" s="10" t="s">
         <v>168</v>
       </c>
@@ -4778,30 +4749,30 @@
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
-      <c r="H120" s="77"/>
-      <c r="I120" s="81"/>
+      <c r="H120" s="90"/>
+      <c r="I120" s="96"/>
     </row>
     <row r="121" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="102"/>
-      <c r="B121" s="83"/>
-      <c r="C121" s="106"/>
+      <c r="A121" s="85"/>
+      <c r="B121" s="93"/>
+      <c r="C121" s="95"/>
       <c r="D121" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E121" s="14"/>
       <c r="F121" s="13"/>
       <c r="G121" s="13"/>
-      <c r="H121" s="67"/>
-      <c r="I121" s="81"/>
+      <c r="H121" s="80"/>
+      <c r="I121" s="96"/>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="51" t="s">
+      <c r="A122" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="B122" s="73" t="s">
+      <c r="B122" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="C122" s="75" t="s">
+      <c r="C122" s="101" t="s">
         <v>182</v>
       </c>
       <c r="D122" s="30" t="s">
@@ -4816,17 +4787,17 @@
       <c r="G122" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="H122" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I122" s="60" t="s">
+      <c r="H122" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I122" s="73" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="52"/>
-      <c r="B123" s="74"/>
-      <c r="C123" s="76"/>
+      <c r="A123" s="65"/>
+      <c r="B123" s="87"/>
+      <c r="C123" s="102"/>
       <c r="D123" s="33" t="s">
         <v>187</v>
       </c>
@@ -4835,13 +4806,13 @@
       </c>
       <c r="F123" s="32"/>
       <c r="G123" s="32"/>
-      <c r="H123" s="77"/>
-      <c r="I123" s="78"/>
+      <c r="H123" s="90"/>
+      <c r="I123" s="91"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="52"/>
-      <c r="B124" s="74"/>
-      <c r="C124" s="76"/>
+      <c r="A124" s="65"/>
+      <c r="B124" s="87"/>
+      <c r="C124" s="102"/>
       <c r="D124" s="33" t="s">
         <v>190</v>
       </c>
@@ -4850,13 +4821,13 @@
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="32"/>
-      <c r="H124" s="77"/>
-      <c r="I124" s="78"/>
+      <c r="H124" s="90"/>
+      <c r="I124" s="91"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="52"/>
-      <c r="B125" s="74"/>
-      <c r="C125" s="76"/>
+      <c r="A125" s="65"/>
+      <c r="B125" s="87"/>
+      <c r="C125" s="102"/>
       <c r="D125" s="33" t="s">
         <v>191</v>
       </c>
@@ -4865,28 +4836,28 @@
       </c>
       <c r="F125" s="32"/>
       <c r="G125" s="32"/>
-      <c r="H125" s="77"/>
-      <c r="I125" s="78"/>
+      <c r="H125" s="90"/>
+      <c r="I125" s="91"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="52"/>
-      <c r="B126" s="74"/>
-      <c r="C126" s="76"/>
+      <c r="A126" s="65"/>
+      <c r="B126" s="87"/>
+      <c r="C126" s="102"/>
       <c r="D126" s="36" t="s">
         <v>193</v>
       </c>
       <c r="E126" s="42"/>
       <c r="F126" s="35"/>
       <c r="G126" s="35"/>
-      <c r="H126" s="59"/>
-      <c r="I126" s="61"/>
+      <c r="H126" s="72"/>
+      <c r="I126" s="74"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="52"/>
-      <c r="B127" s="85" t="s">
+      <c r="A127" s="65"/>
+      <c r="B127" s="110" t="s">
         <v>196</v>
       </c>
-      <c r="C127" s="86" t="s">
+      <c r="C127" s="112" t="s">
         <v>194</v>
       </c>
       <c r="D127" s="15" t="s">
@@ -4901,17 +4872,17 @@
       <c r="G127" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="H127" s="77" t="s">
-        <v>296</v>
-      </c>
-      <c r="I127" s="68" t="s">
+      <c r="H127" s="90" t="s">
+        <v>296</v>
+      </c>
+      <c r="I127" s="81" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="52"/>
-      <c r="B128" s="79"/>
-      <c r="C128" s="80"/>
+      <c r="A128" s="65"/>
+      <c r="B128" s="92"/>
+      <c r="C128" s="118"/>
       <c r="D128" s="15" t="s">
         <v>29</v>
       </c>
@@ -4920,13 +4891,13 @@
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
-      <c r="H128" s="77"/>
-      <c r="I128" s="81"/>
+      <c r="H128" s="90"/>
+      <c r="I128" s="96"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="52"/>
-      <c r="B129" s="79"/>
-      <c r="C129" s="80"/>
+      <c r="A129" s="65"/>
+      <c r="B129" s="92"/>
+      <c r="C129" s="118"/>
       <c r="D129" s="15" t="s">
         <v>199</v>
       </c>
@@ -4935,13 +4906,13 @@
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
-      <c r="H129" s="77"/>
-      <c r="I129" s="81"/>
+      <c r="H129" s="90"/>
+      <c r="I129" s="96"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="52"/>
-      <c r="B130" s="79"/>
-      <c r="C130" s="80"/>
+      <c r="A130" s="65"/>
+      <c r="B130" s="92"/>
+      <c r="C130" s="118"/>
       <c r="D130" s="15" t="s">
         <v>191</v>
       </c>
@@ -4950,28 +4921,28 @@
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
-      <c r="H130" s="77"/>
-      <c r="I130" s="81"/>
+      <c r="H130" s="90"/>
+      <c r="I130" s="96"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="52"/>
-      <c r="B131" s="79"/>
-      <c r="C131" s="80"/>
+      <c r="A131" s="65"/>
+      <c r="B131" s="92"/>
+      <c r="C131" s="118"/>
       <c r="D131" s="21" t="s">
         <v>193</v>
       </c>
       <c r="E131" s="22"/>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
-      <c r="H131" s="59"/>
-      <c r="I131" s="87"/>
+      <c r="H131" s="72"/>
+      <c r="I131" s="99"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="52"/>
-      <c r="B132" s="55" t="s">
+      <c r="A132" s="65"/>
+      <c r="B132" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="C132" s="57" t="s">
+      <c r="C132" s="70" t="s">
         <v>195</v>
       </c>
       <c r="D132" s="33" t="s">
@@ -4986,17 +4957,17 @@
       <c r="G132" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="H132" s="77" t="s">
-        <v>296</v>
-      </c>
-      <c r="I132" s="88" t="s">
+      <c r="H132" s="90" t="s">
+        <v>296</v>
+      </c>
+      <c r="I132" s="113" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="52"/>
-      <c r="B133" s="74"/>
-      <c r="C133" s="76"/>
+      <c r="A133" s="65"/>
+      <c r="B133" s="87"/>
+      <c r="C133" s="102"/>
       <c r="D133" s="33" t="s">
         <v>29</v>
       </c>
@@ -5005,13 +4976,13 @@
       </c>
       <c r="F133" s="32"/>
       <c r="G133" s="32"/>
-      <c r="H133" s="77"/>
-      <c r="I133" s="78"/>
+      <c r="H133" s="90"/>
+      <c r="I133" s="91"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="52"/>
-      <c r="B134" s="74"/>
-      <c r="C134" s="76"/>
+      <c r="A134" s="65"/>
+      <c r="B134" s="87"/>
+      <c r="C134" s="102"/>
       <c r="D134" s="33" t="s">
         <v>190</v>
       </c>
@@ -5020,13 +4991,13 @@
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="32"/>
-      <c r="H134" s="77"/>
-      <c r="I134" s="78"/>
+      <c r="H134" s="90"/>
+      <c r="I134" s="91"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="52"/>
-      <c r="B135" s="74"/>
-      <c r="C135" s="76"/>
+      <c r="A135" s="65"/>
+      <c r="B135" s="87"/>
+      <c r="C135" s="102"/>
       <c r="D135" s="33" t="s">
         <v>200</v>
       </c>
@@ -5035,28 +5006,28 @@
       </c>
       <c r="F135" s="32"/>
       <c r="G135" s="32"/>
-      <c r="H135" s="77"/>
-      <c r="I135" s="78"/>
+      <c r="H135" s="90"/>
+      <c r="I135" s="91"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="52"/>
-      <c r="B136" s="74"/>
-      <c r="C136" s="76"/>
+      <c r="A136" s="65"/>
+      <c r="B136" s="87"/>
+      <c r="C136" s="102"/>
       <c r="D136" s="36" t="s">
         <v>193</v>
       </c>
       <c r="E136" s="42"/>
       <c r="F136" s="35"/>
       <c r="G136" s="35"/>
-      <c r="H136" s="59"/>
-      <c r="I136" s="61"/>
+      <c r="H136" s="72"/>
+      <c r="I136" s="74"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="52"/>
-      <c r="B137" s="85" t="s">
+      <c r="A137" s="65"/>
+      <c r="B137" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="C137" s="86" t="s">
+      <c r="C137" s="112" t="s">
         <v>181</v>
       </c>
       <c r="D137" s="15" t="s">
@@ -5071,17 +5042,17 @@
       <c r="G137" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="H137" s="77" t="s">
-        <v>296</v>
-      </c>
-      <c r="I137" s="68" t="s">
+      <c r="H137" s="90" t="s">
+        <v>296</v>
+      </c>
+      <c r="I137" s="81" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="52"/>
-      <c r="B138" s="79"/>
-      <c r="C138" s="80"/>
+      <c r="A138" s="65"/>
+      <c r="B138" s="92"/>
+      <c r="C138" s="118"/>
       <c r="D138" s="15" t="s">
         <v>29</v>
       </c>
@@ -5090,13 +5061,13 @@
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
-      <c r="H138" s="77"/>
-      <c r="I138" s="81"/>
+      <c r="H138" s="90"/>
+      <c r="I138" s="96"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="52"/>
-      <c r="B139" s="79"/>
-      <c r="C139" s="80"/>
+      <c r="A139" s="65"/>
+      <c r="B139" s="92"/>
+      <c r="C139" s="118"/>
       <c r="D139" s="15" t="s">
         <v>190</v>
       </c>
@@ -5105,13 +5076,13 @@
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
-      <c r="H139" s="77"/>
-      <c r="I139" s="81"/>
+      <c r="H139" s="90"/>
+      <c r="I139" s="96"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="52"/>
-      <c r="B140" s="79"/>
-      <c r="C140" s="80"/>
+      <c r="A140" s="65"/>
+      <c r="B140" s="92"/>
+      <c r="C140" s="118"/>
       <c r="D140" s="15" t="s">
         <v>191</v>
       </c>
@@ -5120,30 +5091,30 @@
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
-      <c r="H140" s="77"/>
-      <c r="I140" s="81"/>
+      <c r="H140" s="90"/>
+      <c r="I140" s="96"/>
     </row>
     <row r="141" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="52"/>
-      <c r="B141" s="62"/>
-      <c r="C141" s="64"/>
+      <c r="A141" s="65"/>
+      <c r="B141" s="75"/>
+      <c r="C141" s="77"/>
       <c r="D141" s="15" t="s">
         <v>193</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
-      <c r="H141" s="77"/>
-      <c r="I141" s="69"/>
+      <c r="H141" s="90"/>
+      <c r="I141" s="82"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="70" t="s">
+      <c r="A142" s="120" t="s">
         <v>204</v>
       </c>
-      <c r="B142" s="73" t="s">
+      <c r="B142" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="C142" s="75" t="s">
+      <c r="C142" s="101" t="s">
         <v>208</v>
       </c>
       <c r="D142" s="31" t="s">
@@ -5158,17 +5129,17 @@
       <c r="G142" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="H142" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I142" s="60" t="s">
+      <c r="H142" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I142" s="73" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="71"/>
-      <c r="B143" s="74"/>
-      <c r="C143" s="76"/>
+      <c r="A143" s="121"/>
+      <c r="B143" s="87"/>
+      <c r="C143" s="102"/>
       <c r="D143" s="34" t="s">
         <v>189</v>
       </c>
@@ -5177,28 +5148,28 @@
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
-      <c r="H143" s="77"/>
-      <c r="I143" s="78"/>
+      <c r="H143" s="90"/>
+      <c r="I143" s="91"/>
     </row>
     <row r="144" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="71"/>
-      <c r="B144" s="74"/>
-      <c r="C144" s="76"/>
+      <c r="A144" s="121"/>
+      <c r="B144" s="87"/>
+      <c r="C144" s="102"/>
       <c r="D144" s="37" t="s">
         <v>210</v>
       </c>
       <c r="E144" s="36"/>
       <c r="F144" s="36"/>
       <c r="G144" s="36"/>
-      <c r="H144" s="59"/>
-      <c r="I144" s="61"/>
+      <c r="H144" s="72"/>
+      <c r="I144" s="74"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="71"/>
-      <c r="B145" s="79" t="s">
+      <c r="A145" s="121"/>
+      <c r="B145" s="92" t="s">
         <v>209</v>
       </c>
-      <c r="C145" s="80" t="s">
+      <c r="C145" s="118" t="s">
         <v>206</v>
       </c>
       <c r="D145" s="16" t="s">
@@ -5213,17 +5184,17 @@
       <c r="G145" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="H145" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I145" s="68" t="s">
+      <c r="H145" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I145" s="81" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="71"/>
-      <c r="B146" s="79"/>
-      <c r="C146" s="80"/>
+      <c r="A146" s="121"/>
+      <c r="B146" s="92"/>
+      <c r="C146" s="118"/>
       <c r="D146" s="16" t="s">
         <v>211</v>
       </c>
@@ -5232,30 +5203,30 @@
       </c>
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
-      <c r="H146" s="77"/>
-      <c r="I146" s="81"/>
+      <c r="H146" s="90"/>
+      <c r="I146" s="96"/>
     </row>
     <row r="147" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="82"/>
-      <c r="B147" s="83"/>
-      <c r="C147" s="84"/>
+      <c r="A147" s="122"/>
+      <c r="B147" s="93"/>
+      <c r="C147" s="119"/>
       <c r="D147" s="28" t="s">
         <v>210</v>
       </c>
       <c r="E147" s="13"/>
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
-      <c r="H147" s="59"/>
-      <c r="I147" s="69"/>
+      <c r="H147" s="72"/>
+      <c r="I147" s="82"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="70" t="s">
+      <c r="A148" s="120" t="s">
         <v>212</v>
       </c>
-      <c r="B148" s="73" t="s">
+      <c r="B148" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="C148" s="75" t="s">
+      <c r="C148" s="101" t="s">
         <v>217</v>
       </c>
       <c r="D148" s="31" t="s">
@@ -5270,17 +5241,17 @@
       <c r="G148" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="H148" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I148" s="60" t="s">
+      <c r="H148" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I148" s="73" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="71"/>
-      <c r="B149" s="74"/>
-      <c r="C149" s="76"/>
+      <c r="A149" s="121"/>
+      <c r="B149" s="87"/>
+      <c r="C149" s="102"/>
       <c r="D149" s="34" t="s">
         <v>219</v>
       </c>
@@ -5289,28 +5260,28 @@
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="33"/>
-      <c r="H149" s="77"/>
-      <c r="I149" s="78"/>
+      <c r="H149" s="90"/>
+      <c r="I149" s="91"/>
     </row>
     <row r="150" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="71"/>
-      <c r="B150" s="74"/>
-      <c r="C150" s="76"/>
+      <c r="A150" s="121"/>
+      <c r="B150" s="87"/>
+      <c r="C150" s="102"/>
       <c r="D150" s="37" t="s">
         <v>220</v>
       </c>
       <c r="E150" s="36"/>
       <c r="F150" s="36"/>
       <c r="G150" s="36"/>
-      <c r="H150" s="59"/>
-      <c r="I150" s="61"/>
+      <c r="H150" s="72"/>
+      <c r="I150" s="74"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="71"/>
-      <c r="B151" s="79" t="s">
+      <c r="A151" s="121"/>
+      <c r="B151" s="92" t="s">
         <v>214</v>
       </c>
-      <c r="C151" s="80" t="s">
+      <c r="C151" s="118" t="s">
         <v>218</v>
       </c>
       <c r="D151" s="26" t="s">
@@ -5325,17 +5296,17 @@
       <c r="G151" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="H151" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I151" s="68" t="s">
+      <c r="H151" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I151" s="81" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="71"/>
-      <c r="B152" s="79"/>
-      <c r="C152" s="80"/>
+      <c r="A152" s="121"/>
+      <c r="B152" s="92"/>
+      <c r="C152" s="118"/>
       <c r="D152" s="16" t="s">
         <v>188</v>
       </c>
@@ -5344,30 +5315,30 @@
       </c>
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
-      <c r="H152" s="77"/>
-      <c r="I152" s="81"/>
+      <c r="H152" s="90"/>
+      <c r="I152" s="96"/>
     </row>
     <row r="153" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="82"/>
-      <c r="B153" s="83"/>
-      <c r="C153" s="84"/>
+      <c r="A153" s="122"/>
+      <c r="B153" s="93"/>
+      <c r="C153" s="119"/>
       <c r="D153" s="27" t="s">
         <v>220</v>
       </c>
       <c r="E153" s="13"/>
       <c r="F153" s="13"/>
       <c r="G153" s="13"/>
-      <c r="H153" s="59"/>
-      <c r="I153" s="69"/>
+      <c r="H153" s="72"/>
+      <c r="I153" s="82"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="70" t="s">
+      <c r="A154" s="120" t="s">
         <v>223</v>
       </c>
-      <c r="B154" s="73" t="s">
+      <c r="B154" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="C154" s="75" t="s">
+      <c r="C154" s="101" t="s">
         <v>226</v>
       </c>
       <c r="D154" s="31" t="s">
@@ -5382,17 +5353,17 @@
       <c r="G154" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="H154" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I154" s="60" t="s">
+      <c r="H154" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I154" s="73" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="71"/>
-      <c r="B155" s="74"/>
-      <c r="C155" s="76"/>
+      <c r="A155" s="121"/>
+      <c r="B155" s="87"/>
+      <c r="C155" s="102"/>
       <c r="D155" s="34" t="s">
         <v>219</v>
       </c>
@@ -5401,28 +5372,28 @@
       </c>
       <c r="F155" s="33"/>
       <c r="G155" s="33"/>
-      <c r="H155" s="77"/>
-      <c r="I155" s="78"/>
+      <c r="H155" s="90"/>
+      <c r="I155" s="91"/>
     </row>
     <row r="156" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="71"/>
-      <c r="B156" s="74"/>
-      <c r="C156" s="76"/>
+      <c r="A156" s="121"/>
+      <c r="B156" s="87"/>
+      <c r="C156" s="102"/>
       <c r="D156" s="36" t="s">
         <v>220</v>
       </c>
       <c r="E156" s="36"/>
       <c r="F156" s="36"/>
       <c r="G156" s="36"/>
-      <c r="H156" s="59"/>
-      <c r="I156" s="61"/>
+      <c r="H156" s="72"/>
+      <c r="I156" s="74"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="71"/>
-      <c r="B157" s="79" t="s">
+      <c r="A157" s="121"/>
+      <c r="B157" s="92" t="s">
         <v>225</v>
       </c>
-      <c r="C157" s="80" t="s">
+      <c r="C157" s="118" t="s">
         <v>227</v>
       </c>
       <c r="D157" s="16" t="s">
@@ -5437,17 +5408,17 @@
       <c r="G157" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="H157" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I157" s="68" t="s">
+      <c r="H157" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I157" s="81" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="71"/>
-      <c r="B158" s="79"/>
-      <c r="C158" s="80"/>
+      <c r="A158" s="121"/>
+      <c r="B158" s="92"/>
+      <c r="C158" s="118"/>
       <c r="D158" s="16" t="s">
         <v>188</v>
       </c>
@@ -5456,30 +5427,30 @@
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
-      <c r="H158" s="77"/>
-      <c r="I158" s="81"/>
+      <c r="H158" s="90"/>
+      <c r="I158" s="96"/>
     </row>
     <row r="159" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="72"/>
-      <c r="B159" s="62"/>
-      <c r="C159" s="64"/>
+      <c r="A159" s="123"/>
+      <c r="B159" s="75"/>
+      <c r="C159" s="77"/>
       <c r="D159" s="15" t="s">
         <v>220</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
-      <c r="H159" s="59"/>
-      <c r="I159" s="81"/>
+      <c r="H159" s="72"/>
+      <c r="I159" s="96"/>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="51" t="s">
+      <c r="A160" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="B160" s="54" t="s">
+      <c r="B160" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="C160" s="56" t="s">
+      <c r="C160" s="69" t="s">
         <v>302</v>
       </c>
       <c r="D160" s="31" t="s">
@@ -5494,32 +5465,32 @@
       <c r="G160" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="H160" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I160" s="60" t="s">
+      <c r="H160" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I160" s="73" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="52"/>
-      <c r="B161" s="55"/>
-      <c r="C161" s="57"/>
+      <c r="A161" s="65"/>
+      <c r="B161" s="68"/>
+      <c r="C161" s="70"/>
       <c r="D161" s="36" t="s">
         <v>304</v>
       </c>
       <c r="E161" s="42"/>
       <c r="F161" s="36"/>
       <c r="G161" s="36"/>
-      <c r="H161" s="59"/>
-      <c r="I161" s="61"/>
+      <c r="H161" s="72"/>
+      <c r="I161" s="74"/>
     </row>
     <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="52"/>
-      <c r="B162" s="62" t="s">
+      <c r="A162" s="65"/>
+      <c r="B162" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="C162" s="64" t="s">
+      <c r="C162" s="77" t="s">
         <v>303</v>
       </c>
       <c r="D162" s="19" t="s">
@@ -5534,34 +5505,34 @@
       <c r="G162" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="H162" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I162" s="68" t="s">
+      <c r="H162" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I162" s="81" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="53"/>
-      <c r="B163" s="63"/>
-      <c r="C163" s="65"/>
+      <c r="A163" s="66"/>
+      <c r="B163" s="76"/>
+      <c r="C163" s="78"/>
       <c r="D163" s="24" t="s">
         <v>304</v>
       </c>
       <c r="E163" s="25"/>
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
-      <c r="H163" s="67"/>
-      <c r="I163" s="69"/>
+      <c r="H163" s="80"/>
+      <c r="I163" s="82"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="51" t="s">
+      <c r="A164" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="B164" s="54" t="s">
+      <c r="B164" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="C164" s="56" t="s">
+      <c r="C164" s="69" t="s">
         <v>238</v>
       </c>
       <c r="D164" s="31" t="s">
@@ -5576,32 +5547,32 @@
       <c r="G164" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="H164" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I164" s="60" t="s">
+      <c r="H164" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I164" s="73" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="52"/>
-      <c r="B165" s="55"/>
-      <c r="C165" s="57"/>
+      <c r="A165" s="65"/>
+      <c r="B165" s="68"/>
+      <c r="C165" s="70"/>
       <c r="D165" s="36" t="s">
         <v>242</v>
       </c>
       <c r="E165" s="42"/>
       <c r="F165" s="36"/>
       <c r="G165" s="36"/>
-      <c r="H165" s="59"/>
-      <c r="I165" s="61"/>
+      <c r="H165" s="72"/>
+      <c r="I165" s="74"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="52"/>
-      <c r="B166" s="62" t="s">
+      <c r="A166" s="65"/>
+      <c r="B166" s="75" t="s">
         <v>236</v>
       </c>
-      <c r="C166" s="64" t="s">
+      <c r="C166" s="77" t="s">
         <v>237</v>
       </c>
       <c r="D166" s="19" t="s">
@@ -5616,34 +5587,34 @@
       <c r="G166" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="H166" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I166" s="68" t="s">
+      <c r="H166" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I166" s="81" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="53"/>
-      <c r="B167" s="63"/>
-      <c r="C167" s="65"/>
+      <c r="A167" s="66"/>
+      <c r="B167" s="76"/>
+      <c r="C167" s="78"/>
       <c r="D167" s="24" t="s">
         <v>242</v>
       </c>
       <c r="E167" s="25"/>
       <c r="F167" s="13"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="67"/>
-      <c r="I167" s="69"/>
+      <c r="H167" s="80"/>
+      <c r="I167" s="82"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="51" t="s">
+      <c r="A168" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="B168" s="54" t="s">
+      <c r="B168" s="67" t="s">
         <v>246</v>
       </c>
-      <c r="C168" s="56" t="s">
+      <c r="C168" s="69" t="s">
         <v>248</v>
       </c>
       <c r="D168" s="31" t="s">
@@ -5658,32 +5629,32 @@
       <c r="G168" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="H168" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I168" s="60" t="s">
+      <c r="H168" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I168" s="73" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="52"/>
-      <c r="B169" s="55"/>
-      <c r="C169" s="57"/>
+      <c r="A169" s="65"/>
+      <c r="B169" s="68"/>
+      <c r="C169" s="70"/>
       <c r="D169" s="36" t="s">
         <v>250</v>
       </c>
       <c r="E169" s="42"/>
       <c r="F169" s="36"/>
       <c r="G169" s="36"/>
-      <c r="H169" s="59"/>
-      <c r="I169" s="61"/>
+      <c r="H169" s="72"/>
+      <c r="I169" s="74"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="52"/>
-      <c r="B170" s="62" t="s">
+      <c r="A170" s="65"/>
+      <c r="B170" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="C170" s="64" t="s">
+      <c r="C170" s="77" t="s">
         <v>249</v>
       </c>
       <c r="D170" s="19" t="s">
@@ -5698,34 +5669,34 @@
       <c r="G170" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="H170" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I170" s="68" t="s">
+      <c r="H170" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I170" s="81" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="53"/>
-      <c r="B171" s="63"/>
-      <c r="C171" s="65"/>
+      <c r="A171" s="66"/>
+      <c r="B171" s="76"/>
+      <c r="C171" s="78"/>
       <c r="D171" s="24" t="s">
         <v>250</v>
       </c>
       <c r="E171" s="25"/>
       <c r="F171" s="13"/>
       <c r="G171" s="13"/>
-      <c r="H171" s="67"/>
-      <c r="I171" s="69"/>
+      <c r="H171" s="80"/>
+      <c r="I171" s="82"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="51" t="s">
+      <c r="A172" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="B172" s="54" t="s">
+      <c r="B172" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="C172" s="56" t="s">
+      <c r="C172" s="69" t="s">
         <v>253</v>
       </c>
       <c r="D172" s="31" t="s">
@@ -5740,32 +5711,32 @@
       <c r="G172" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="H172" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I172" s="60" t="s">
+      <c r="H172" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I172" s="73" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="52"/>
-      <c r="B173" s="55"/>
-      <c r="C173" s="57"/>
+      <c r="A173" s="65"/>
+      <c r="B173" s="68"/>
+      <c r="C173" s="70"/>
       <c r="D173" s="36" t="s">
         <v>258</v>
       </c>
       <c r="E173" s="42"/>
       <c r="F173" s="36"/>
       <c r="G173" s="36"/>
-      <c r="H173" s="59"/>
-      <c r="I173" s="61"/>
+      <c r="H173" s="72"/>
+      <c r="I173" s="74"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="52"/>
-      <c r="B174" s="62" t="s">
+      <c r="A174" s="65"/>
+      <c r="B174" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="C174" s="64" t="s">
+      <c r="C174" s="77" t="s">
         <v>314</v>
       </c>
       <c r="D174" s="19" t="s">
@@ -5780,34 +5751,34 @@
       <c r="G174" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="H174" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I174" s="68" t="s">
+      <c r="H174" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I174" s="81" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="53"/>
-      <c r="B175" s="63"/>
-      <c r="C175" s="65"/>
+      <c r="A175" s="66"/>
+      <c r="B175" s="76"/>
+      <c r="C175" s="78"/>
       <c r="D175" s="24" t="s">
         <v>258</v>
       </c>
       <c r="E175" s="25"/>
       <c r="F175" s="13"/>
       <c r="G175" s="13"/>
-      <c r="H175" s="67"/>
-      <c r="I175" s="69"/>
+      <c r="H175" s="80"/>
+      <c r="I175" s="82"/>
     </row>
     <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="51" t="s">
+      <c r="A176" s="64" t="s">
         <v>263</v>
       </c>
-      <c r="B176" s="54" t="s">
+      <c r="B176" s="67" t="s">
         <v>264</v>
       </c>
-      <c r="C176" s="56" t="s">
+      <c r="C176" s="69" t="s">
         <v>266</v>
       </c>
       <c r="D176" s="31" t="s">
@@ -5822,32 +5793,32 @@
       <c r="G176" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="H176" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I176" s="60" t="s">
+      <c r="H176" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I176" s="73" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="52"/>
-      <c r="B177" s="55"/>
-      <c r="C177" s="57"/>
+      <c r="A177" s="65"/>
+      <c r="B177" s="68"/>
+      <c r="C177" s="70"/>
       <c r="D177" s="36" t="s">
         <v>268</v>
       </c>
       <c r="E177" s="42"/>
       <c r="F177" s="36"/>
       <c r="G177" s="36"/>
-      <c r="H177" s="59"/>
-      <c r="I177" s="61"/>
+      <c r="H177" s="72"/>
+      <c r="I177" s="74"/>
     </row>
     <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="52"/>
-      <c r="B178" s="62" t="s">
+      <c r="A178" s="65"/>
+      <c r="B178" s="75" t="s">
         <v>265</v>
       </c>
-      <c r="C178" s="64" t="s">
+      <c r="C178" s="77" t="s">
         <v>267</v>
       </c>
       <c r="D178" s="19" t="s">
@@ -5862,34 +5833,34 @@
       <c r="G178" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="H178" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I178" s="68" t="s">
+      <c r="H178" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I178" s="81" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="53"/>
-      <c r="B179" s="63"/>
-      <c r="C179" s="65"/>
+      <c r="A179" s="66"/>
+      <c r="B179" s="76"/>
+      <c r="C179" s="78"/>
       <c r="D179" s="24" t="s">
         <v>268</v>
       </c>
       <c r="E179" s="25"/>
       <c r="F179" s="13"/>
       <c r="G179" s="13"/>
-      <c r="H179" s="67"/>
-      <c r="I179" s="69"/>
+      <c r="H179" s="80"/>
+      <c r="I179" s="82"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="51" t="s">
+      <c r="A180" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="B180" s="54" t="s">
+      <c r="B180" s="67" t="s">
         <v>308</v>
       </c>
-      <c r="C180" s="56" t="s">
+      <c r="C180" s="69" t="s">
         <v>310</v>
       </c>
       <c r="D180" s="31" t="s">
@@ -5904,32 +5875,32 @@
       <c r="G180" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H180" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I180" s="60" t="s">
+      <c r="H180" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I180" s="73" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="52"/>
-      <c r="B181" s="55"/>
-      <c r="C181" s="57"/>
+      <c r="A181" s="65"/>
+      <c r="B181" s="68"/>
+      <c r="C181" s="70"/>
       <c r="D181" s="36" t="s">
         <v>232</v>
       </c>
       <c r="E181" s="42"/>
       <c r="F181" s="36"/>
       <c r="G181" s="36"/>
-      <c r="H181" s="59"/>
-      <c r="I181" s="61"/>
+      <c r="H181" s="72"/>
+      <c r="I181" s="74"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="52"/>
-      <c r="B182" s="62" t="s">
+      <c r="A182" s="65"/>
+      <c r="B182" s="75" t="s">
         <v>309</v>
       </c>
-      <c r="C182" s="64" t="s">
+      <c r="C182" s="77" t="s">
         <v>311</v>
       </c>
       <c r="D182" s="19" t="s">
@@ -5944,25 +5915,25 @@
       <c r="G182" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H182" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I182" s="68" t="s">
+      <c r="H182" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I182" s="81" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="53"/>
-      <c r="B183" s="63"/>
-      <c r="C183" s="65"/>
+      <c r="A183" s="66"/>
+      <c r="B183" s="76"/>
+      <c r="C183" s="78"/>
       <c r="D183" s="24" t="s">
         <v>232</v>
       </c>
       <c r="E183" s="25"/>
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
-      <c r="H183" s="67"/>
-      <c r="I183" s="69"/>
+      <c r="H183" s="80"/>
+      <c r="I183" s="82"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B184" s="20"/>
@@ -5976,150 +5947,105 @@
     </row>
   </sheetData>
   <mergeCells count="267">
-    <mergeCell ref="A180:A183"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="H180:H181"/>
-    <mergeCell ref="I180:I181"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="H182:H183"/>
-    <mergeCell ref="I182:I183"/>
-    <mergeCell ref="A116:A121"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="H116:H118"/>
-    <mergeCell ref="I116:I118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="H119:H121"/>
-    <mergeCell ref="I119:I121"/>
-    <mergeCell ref="A110:A115"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="H110:H112"/>
-    <mergeCell ref="I110:I112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="H113:H115"/>
-    <mergeCell ref="I113:I115"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="I104:I106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="H107:H109"/>
-    <mergeCell ref="I107:I109"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="H98:H100"/>
-    <mergeCell ref="I98:I100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="H101:H103"/>
-    <mergeCell ref="I101:I103"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="I95:I97"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="I74:I76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="H77:H79"/>
-    <mergeCell ref="I77:I79"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A176:A179"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="H176:H177"/>
+    <mergeCell ref="I176:I177"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="H178:H179"/>
+    <mergeCell ref="I178:I179"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="H172:H173"/>
+    <mergeCell ref="I172:I173"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="H174:H175"/>
+    <mergeCell ref="I174:I175"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="I166:I167"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="H168:H169"/>
+    <mergeCell ref="I168:I169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="H164:H165"/>
+    <mergeCell ref="I164:I165"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="H160:H161"/>
+    <mergeCell ref="I160:I161"/>
+    <mergeCell ref="I162:I163"/>
+    <mergeCell ref="H162:H163"/>
+    <mergeCell ref="A154:A159"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="H154:H156"/>
+    <mergeCell ref="I154:I156"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="H157:H159"/>
+    <mergeCell ref="I157:I159"/>
+    <mergeCell ref="A148:A153"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="H148:H150"/>
+    <mergeCell ref="I148:I150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="H151:H153"/>
+    <mergeCell ref="I151:I153"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="C137:C141"/>
+    <mergeCell ref="H137:H141"/>
+    <mergeCell ref="I137:I141"/>
+    <mergeCell ref="A122:A141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="H142:H144"/>
+    <mergeCell ref="H145:H147"/>
+    <mergeCell ref="I145:I147"/>
+    <mergeCell ref="I142:I144"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="H122:H126"/>
+    <mergeCell ref="I122:I126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="H127:H131"/>
+    <mergeCell ref="I127:I131"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="C132:C136"/>
+    <mergeCell ref="H132:H136"/>
+    <mergeCell ref="I132:I136"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="H26:H28"/>
     <mergeCell ref="I26:I28"/>
@@ -6144,105 +6070,150 @@
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="C14:C17"/>
-    <mergeCell ref="H132:H136"/>
-    <mergeCell ref="I132:I136"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="C137:C141"/>
-    <mergeCell ref="H137:H141"/>
-    <mergeCell ref="I137:I141"/>
-    <mergeCell ref="A122:A141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="A142:A147"/>
-    <mergeCell ref="H142:H144"/>
-    <mergeCell ref="H145:H147"/>
-    <mergeCell ref="I145:I147"/>
-    <mergeCell ref="I142:I144"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="H122:H126"/>
-    <mergeCell ref="I122:I126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="H127:H131"/>
-    <mergeCell ref="I127:I131"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="A148:A153"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="H148:H150"/>
-    <mergeCell ref="I148:I150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="H151:H153"/>
-    <mergeCell ref="I151:I153"/>
-    <mergeCell ref="A154:A159"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="H154:H156"/>
-    <mergeCell ref="I154:I156"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="H157:H159"/>
-    <mergeCell ref="I157:I159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="A160:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="H160:H161"/>
-    <mergeCell ref="I160:I161"/>
-    <mergeCell ref="I162:I163"/>
-    <mergeCell ref="H162:H163"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="H166:H167"/>
-    <mergeCell ref="I166:I167"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="H168:H169"/>
-    <mergeCell ref="I168:I169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="H164:H165"/>
-    <mergeCell ref="I164:I165"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="H172:H173"/>
-    <mergeCell ref="I172:I173"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="H174:H175"/>
-    <mergeCell ref="I174:I175"/>
-    <mergeCell ref="A176:A179"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="H176:H177"/>
-    <mergeCell ref="I176:I177"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="H178:H179"/>
-    <mergeCell ref="I178:I179"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="H98:H100"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="I101:I103"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="H107:H109"/>
+    <mergeCell ref="I107:I109"/>
+    <mergeCell ref="A110:A115"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="H110:H112"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="H113:H115"/>
+    <mergeCell ref="I113:I115"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="H116:H118"/>
+    <mergeCell ref="I116:I118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="H119:H121"/>
+    <mergeCell ref="I119:I121"/>
+    <mergeCell ref="A180:A183"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="H180:H181"/>
+    <mergeCell ref="I180:I181"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="H182:H183"/>
+    <mergeCell ref="I182:I183"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6253,8 +6224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5110BF86-FE5F-4C8F-9A0D-6A0CFE69DE9D}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6300,13 +6271,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="150" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="147" t="s">
         <v>321</v>
       </c>
       <c r="D2" s="30" t="s">
@@ -6321,17 +6292,17 @@
       <c r="G2" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="H2" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="I2" s="60" t="s">
+      <c r="H2" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I2" s="73" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="121"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="148"/>
       <c r="D3" s="33" t="s">
         <v>323</v>
       </c>
@@ -6340,41 +6311,41 @@
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="78"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="91"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="121"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="148"/>
       <c r="D4" s="33" t="s">
         <v>324</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="78"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="91"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="122"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="149"/>
       <c r="D5" s="36" t="s">
         <v>325</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="61"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="74"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="62" t="s">
+      <c r="A6" s="65"/>
+      <c r="B6" s="75" t="s">
         <v>329</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>330</v>
       </c>
       <c r="D6" s="44" t="s">
@@ -6389,17 +6360,17 @@
       <c r="G6" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="H6" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I6" s="111" t="s">
+      <c r="H6" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I6" s="154" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="115"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="146"/>
       <c r="D7" s="46" t="s">
         <v>323</v>
       </c>
@@ -6408,41 +6379,41 @@
       </c>
       <c r="F7" s="46"/>
       <c r="G7" s="46"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="112"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="155"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="115"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="146"/>
       <c r="D8" s="46" t="s">
         <v>324</v>
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="112"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="155"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="116"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="153"/>
       <c r="D9" s="48" t="s">
         <v>331</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="113"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="156"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="107" t="s">
         <v>333</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="142" t="s">
         <v>334</v>
       </c>
       <c r="D10" s="38" t="s">
@@ -6457,17 +6428,17 @@
       <c r="G10" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="H10" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I10" s="88" t="s">
+      <c r="H10" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I10" s="113" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="108"/>
-      <c r="C11" s="118"/>
+      <c r="C11" s="143"/>
       <c r="D11" s="33" t="s">
         <v>323</v>
       </c>
@@ -6476,41 +6447,41 @@
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="78"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="91"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="108"/>
-      <c r="C12" s="118"/>
+      <c r="C12" s="143"/>
       <c r="D12" s="33" t="s">
         <v>324</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="78"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="91"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="119"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="144"/>
       <c r="D13" s="36" t="s">
         <v>335</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="61"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="74"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="62" t="s">
+      <c r="A14" s="65"/>
+      <c r="B14" s="75" t="s">
         <v>338</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="145" t="s">
         <v>337</v>
       </c>
       <c r="D14" s="44" t="s">
@@ -6525,17 +6496,17 @@
       <c r="G14" s="44" t="s">
         <v>343</v>
       </c>
-      <c r="H14" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I14" s="111" t="s">
+      <c r="H14" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I14" s="154" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="115"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="146"/>
       <c r="D15" s="46" t="s">
         <v>323</v>
       </c>
@@ -6544,41 +6515,41 @@
       </c>
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="112"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="155"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="115"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="146"/>
       <c r="D16" s="46" t="s">
         <v>324</v>
       </c>
       <c r="E16" s="47"/>
       <c r="F16" s="46"/>
       <c r="G16" s="46"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="112"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="155"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="116"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="153"/>
       <c r="D17" s="48" t="s">
         <v>342</v>
       </c>
       <c r="E17" s="49"/>
       <c r="F17" s="48"/>
       <c r="G17" s="48"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="113"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="156"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="107" t="s">
         <v>344</v>
       </c>
-      <c r="C18" s="117" t="s">
+      <c r="C18" s="142" t="s">
         <v>346</v>
       </c>
       <c r="D18" s="38" t="s">
@@ -6593,17 +6564,17 @@
       <c r="G18" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="H18" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I18" s="88" t="s">
+      <c r="H18" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I18" s="113" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="108"/>
-      <c r="C19" s="118"/>
+      <c r="C19" s="143"/>
       <c r="D19" s="33" t="s">
         <v>323</v>
       </c>
@@ -6612,41 +6583,41 @@
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="78"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="91"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="108"/>
-      <c r="C20" s="118"/>
+      <c r="C20" s="143"/>
       <c r="D20" s="33" t="s">
         <v>324</v>
       </c>
       <c r="E20" s="41"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="78"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="91"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="119"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="144"/>
       <c r="D21" s="36" t="s">
         <v>351</v>
       </c>
       <c r="E21" s="42"/>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="61"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="74"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="62" t="s">
+      <c r="A22" s="65"/>
+      <c r="B22" s="75" t="s">
         <v>345</v>
       </c>
-      <c r="C22" s="114" t="s">
+      <c r="C22" s="145" t="s">
         <v>347</v>
       </c>
       <c r="D22" s="44" t="s">
@@ -6661,17 +6632,17 @@
       <c r="G22" s="44" t="s">
         <v>353</v>
       </c>
-      <c r="H22" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="I22" s="111" t="s">
+      <c r="H22" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I22" s="154" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="115"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="146"/>
       <c r="D23" s="46" t="s">
         <v>323</v>
       </c>
@@ -6680,94 +6651,98 @@
       </c>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="112"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="155"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="115"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="146"/>
       <c r="D24" s="46" t="s">
         <v>324</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="46"/>
       <c r="G24" s="46"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="112"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="155"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="115"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="146"/>
       <c r="D25" s="46" t="s">
         <v>350</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="46"/>
       <c r="G25" s="46"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="112"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="155"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="64" t="s">
         <v>355</v>
       </c>
-      <c r="B26" s="143" t="s">
+      <c r="B26" s="135" t="s">
         <v>356</v>
       </c>
-      <c r="C26" s="144" t="s">
+      <c r="C26" s="132" t="s">
         <v>359</v>
       </c>
-      <c r="D26" s="145" t="s">
+      <c r="D26" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="E26" s="146" t="s">
+      <c r="E26" s="60" t="s">
         <v>361</v>
       </c>
-      <c r="F26" s="147" t="s">
+      <c r="F26" s="61" t="s">
         <v>363</v>
       </c>
-      <c r="G26" s="147"/>
-      <c r="H26" s="165" t="s">
-        <v>380</v>
-      </c>
-      <c r="I26" s="159"/>
+      <c r="G26" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="H26" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I26" s="157" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
-      <c r="B27" s="133"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="135" t="s">
+      <c r="A27" s="65"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="53" t="s">
         <v>358</v>
       </c>
-      <c r="E27" s="136" t="s">
+      <c r="E27" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="160"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="158"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="140" t="s">
+      <c r="A28" s="65"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="56" t="s">
         <v>360</v>
       </c>
-      <c r="E28" s="141"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="161"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="159"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
-      <c r="B29" s="126" t="s">
+      <c r="A29" s="65"/>
+      <c r="B29" s="138" t="s">
         <v>364</v>
       </c>
-      <c r="C29" s="130" t="s">
+      <c r="C29" s="140" t="s">
         <v>365</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -6779,396 +6754,382 @@
       <c r="F29" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="G29" s="127"/>
-      <c r="H29" s="168" t="s">
-        <v>380</v>
-      </c>
-      <c r="I29" s="162"/>
+      <c r="G29" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H29" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I29" s="154" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="132" t="s">
+      <c r="A30" s="65"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="52" t="s">
         <v>358</v>
       </c>
       <c r="E30" s="46" t="s">
         <v>362</v>
       </c>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="163"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="155"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="52"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="132" t="s">
+      <c r="A31" s="65"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="52" t="s">
         <v>360</v>
       </c>
       <c r="E31" s="10"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="164"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="160"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="64" t="s">
         <v>369</v>
       </c>
-      <c r="B32" s="155" t="s">
+      <c r="B32" s="124" t="s">
         <v>370</v>
       </c>
-      <c r="C32" s="156" t="s">
+      <c r="C32" s="126" t="s">
         <v>371</v>
       </c>
-      <c r="D32" s="145" t="s">
+      <c r="D32" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="E32" s="145" t="s">
+      <c r="E32" s="59" t="s">
         <v>362</v>
       </c>
-      <c r="F32" s="146" t="s">
+      <c r="F32" s="60" t="s">
         <v>374</v>
       </c>
-      <c r="G32" s="147"/>
-      <c r="H32" s="165" t="s">
-        <v>380</v>
-      </c>
-      <c r="I32" s="159"/>
+      <c r="G32" s="60" t="s">
+        <v>374</v>
+      </c>
+      <c r="H32" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I32" s="157" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
-      <c r="B33" s="153"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="140" t="s">
+      <c r="A33" s="65"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="E33" s="140"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="167"/>
-      <c r="I33" s="161"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="159"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="154" t="s">
+      <c r="A34" s="65"/>
+      <c r="B34" s="128" t="s">
         <v>375</v>
       </c>
-      <c r="C34" s="151" t="s">
+      <c r="C34" s="130" t="s">
         <v>376</v>
       </c>
-      <c r="D34" s="150" t="s">
+      <c r="D34" s="63" t="s">
         <v>377</v>
       </c>
-      <c r="E34" s="150" t="s">
+      <c r="E34" s="63" t="s">
         <v>378</v>
       </c>
       <c r="F34" s="44" t="s">
         <v>379</v>
       </c>
-      <c r="G34" s="127"/>
-      <c r="H34" s="168" t="s">
+      <c r="G34" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="H34" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I34" s="154" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="66"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="E35" s="62"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="160"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="64" t="s">
         <v>380</v>
       </c>
-      <c r="I34" s="162"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="53"/>
-      <c r="B35" s="157"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="148" t="s">
-        <v>373</v>
-      </c>
-      <c r="E35" s="148"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="169"/>
-      <c r="I35" s="164"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="51" t="s">
+      <c r="B36" s="124" t="s">
         <v>381</v>
       </c>
-      <c r="B36" s="155" t="s">
+      <c r="C36" s="126" t="s">
+        <v>384</v>
+      </c>
+      <c r="D36" s="59" t="s">
+        <v>385</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>389</v>
+      </c>
+      <c r="F36" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="G36" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="H36" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I36" s="157" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="65"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="E37" s="56"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="159"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="65"/>
+      <c r="B38" s="128" t="s">
         <v>382</v>
       </c>
-      <c r="C36" s="156" t="s">
-        <v>385</v>
-      </c>
-      <c r="D36" s="145" t="s">
+      <c r="C38" s="130" t="s">
+        <v>383</v>
+      </c>
+      <c r="D38" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="E38" s="63" t="s">
+        <v>388</v>
+      </c>
+      <c r="F38" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="H38" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I38" s="154" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="66"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="62" t="s">
         <v>386</v>
       </c>
-      <c r="E36" s="145" t="s">
-        <v>390</v>
-      </c>
-      <c r="F36" s="146" t="s">
-        <v>391</v>
-      </c>
-      <c r="G36" s="147"/>
-      <c r="H36" s="165" t="s">
-        <v>380</v>
-      </c>
-      <c r="I36" s="159"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
-      <c r="B37" s="153"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="140" t="s">
-        <v>387</v>
-      </c>
-      <c r="E37" s="140"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="142"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="161"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
-      <c r="B38" s="154" t="s">
-        <v>383</v>
-      </c>
-      <c r="C38" s="151" t="s">
-        <v>384</v>
-      </c>
-      <c r="D38" s="150" t="s">
-        <v>388</v>
-      </c>
-      <c r="E38" s="150" t="s">
-        <v>389</v>
-      </c>
-      <c r="F38" s="44" t="s">
+      <c r="E39" s="62"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="160"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="B40" s="124" t="s">
+        <v>403</v>
+      </c>
+      <c r="C40" s="126" t="s">
+        <v>393</v>
+      </c>
+      <c r="D40" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="F40" s="60" t="s">
+        <v>399</v>
+      </c>
+      <c r="G40" s="60" t="s">
+        <v>399</v>
+      </c>
+      <c r="H40" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I40" s="157" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="65"/>
+      <c r="B41" s="125"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="56" t="s">
+        <v>396</v>
+      </c>
+      <c r="E41" s="56"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="159"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="65"/>
+      <c r="B42" s="128" t="s">
+        <v>402</v>
+      </c>
+      <c r="C42" s="130" t="s">
         <v>392</v>
       </c>
-      <c r="G38" s="127"/>
-      <c r="H38" s="168" t="s">
-        <v>380</v>
-      </c>
-      <c r="I38" s="162"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="53"/>
-      <c r="B39" s="157"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="148" t="s">
-        <v>387</v>
-      </c>
-      <c r="E39" s="148"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="169"/>
-      <c r="I39" s="164"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="51" t="s">
-        <v>402</v>
-      </c>
-      <c r="B40" s="155" t="s">
+      <c r="D42" s="63" t="s">
+        <v>394</v>
+      </c>
+      <c r="E42" s="63" t="s">
+        <v>398</v>
+      </c>
+      <c r="F42" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="H42" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I42" s="154" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="66"/>
+      <c r="B43" s="129"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="62" t="s">
+        <v>396</v>
+      </c>
+      <c r="E43" s="62"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="160"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="64" t="s">
         <v>404</v>
       </c>
-      <c r="C40" s="156" t="s">
-        <v>394</v>
-      </c>
-      <c r="D40" s="145" t="s">
-        <v>396</v>
-      </c>
-      <c r="E40" s="145" t="s">
-        <v>398</v>
-      </c>
-      <c r="F40" s="146" t="s">
-        <v>400</v>
-      </c>
-      <c r="G40" s="147"/>
-      <c r="H40" s="165" t="s">
-        <v>380</v>
-      </c>
-      <c r="I40" s="159"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
-      <c r="B41" s="153"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="140" t="s">
-        <v>397</v>
-      </c>
-      <c r="E41" s="140"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="167"/>
-      <c r="I41" s="161"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="154" t="s">
-        <v>403</v>
-      </c>
-      <c r="C42" s="151" t="s">
-        <v>393</v>
-      </c>
-      <c r="D42" s="150" t="s">
-        <v>395</v>
-      </c>
-      <c r="E42" s="150" t="s">
-        <v>399</v>
-      </c>
-      <c r="F42" s="44" t="s">
-        <v>401</v>
-      </c>
-      <c r="G42" s="127"/>
-      <c r="H42" s="168" t="s">
-        <v>380</v>
-      </c>
-      <c r="I42" s="162"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="53"/>
-      <c r="B43" s="157"/>
-      <c r="C43" s="158"/>
-      <c r="D43" s="148" t="s">
-        <v>397</v>
-      </c>
-      <c r="E43" s="148"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="169"/>
-      <c r="I43" s="164"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="51" t="s">
+      <c r="B44" s="124" t="s">
         <v>405</v>
       </c>
-      <c r="B44" s="155" t="s">
+      <c r="C44" s="126" t="s">
+        <v>407</v>
+      </c>
+      <c r="D44" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="E44" s="59" t="s">
+        <v>413</v>
+      </c>
+      <c r="F44" s="60" t="s">
+        <v>414</v>
+      </c>
+      <c r="G44" s="60" t="s">
+        <v>414</v>
+      </c>
+      <c r="H44" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="I44" s="157" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="65"/>
+      <c r="B45" s="125"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="56" t="s">
+        <v>411</v>
+      </c>
+      <c r="E45" s="56"/>
+      <c r="F45" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="G45" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="H45" s="72"/>
+      <c r="I45" s="159"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="65"/>
+      <c r="B46" s="128" t="s">
         <v>406</v>
       </c>
-      <c r="C44" s="156" t="s">
+      <c r="C46" s="130" t="s">
         <v>408</v>
       </c>
-      <c r="D44" s="145" t="s">
+      <c r="D46" s="63" t="s">
         <v>410</v>
       </c>
-      <c r="E44" s="145" t="s">
-        <v>414</v>
-      </c>
-      <c r="F44" s="146" t="s">
-        <v>415</v>
-      </c>
-      <c r="G44" s="147"/>
-      <c r="H44" s="165" t="s">
-        <v>380</v>
-      </c>
-      <c r="I44" s="159"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
-      <c r="B45" s="153"/>
-      <c r="C45" s="152"/>
-      <c r="D45" s="140" t="s">
+      <c r="E46" s="63" t="s">
         <v>412</v>
       </c>
-      <c r="E45" s="140"/>
-      <c r="F45" s="141" t="s">
+      <c r="F46" s="44" t="s">
         <v>416</v>
       </c>
-      <c r="G45" s="142"/>
-      <c r="H45" s="167"/>
-      <c r="I45" s="161"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="154" t="s">
-        <v>407</v>
-      </c>
-      <c r="C46" s="151" t="s">
-        <v>409</v>
-      </c>
-      <c r="D46" s="150" t="s">
+      <c r="G46" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="H46" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I46" s="154" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="66"/>
+      <c r="B47" s="129"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="62" t="s">
         <v>411</v>
       </c>
-      <c r="E46" s="150" t="s">
-        <v>413</v>
-      </c>
-      <c r="F46" s="44" t="s">
+      <c r="E47" s="62"/>
+      <c r="F47" s="50" t="s">
         <v>417</v>
       </c>
-      <c r="G46" s="127"/>
-      <c r="H46" s="168" t="s">
-        <v>380</v>
-      </c>
-      <c r="I46" s="162"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="53"/>
-      <c r="B47" s="157"/>
-      <c r="C47" s="158"/>
-      <c r="D47" s="148" t="s">
-        <v>412</v>
-      </c>
-      <c r="E47" s="148"/>
-      <c r="F47" s="50" t="s">
-        <v>418</v>
-      </c>
-      <c r="G47" s="149"/>
-      <c r="H47" s="169"/>
-      <c r="I47" s="164"/>
+      <c r="G47" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="H47" s="80"/>
+      <c r="I47" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="I22:I25"/>
     <mergeCell ref="I18:I21"/>
@@ -7185,6 +7146,60 @@
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentation/Test Cases.xlsx
+++ b/Documentation/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010371\Documents\GitHub\axi2spi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F9233D-E044-4F86-9814-CAA4213CE706}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE0B218-1240-4243-8481-81D0AEE0DD77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13632" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AXI" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="430">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1251,9 +1251,6 @@
     <t>1. Set S_AXI_ARREADY to logic high.</t>
   </si>
   <si>
-    <t>S_AXI_RDATA = reg_rdata_latch</t>
-  </si>
-  <si>
     <t>AXI_RD_07</t>
   </si>
   <si>
@@ -1269,18 +1266,12 @@
     <t>reg_rdata_latch shall not be set to reg_rdata when reg_rack is not set</t>
   </si>
   <si>
-    <t>2. Observe reg_rdata_latch</t>
-  </si>
-  <si>
     <t>reg_rdata_latch = no change</t>
   </si>
   <si>
     <t>reg_rdata_latch shall be set to reg_rdata when reg_rack is set</t>
   </si>
   <si>
-    <t>reg_rdata_latch = reg_rdata</t>
-  </si>
-  <si>
     <t>AXI_RD_08_1</t>
   </si>
   <si>
@@ -1312,6 +1303,21 @@
   </si>
   <si>
     <t>S_AXI_RRESP = "01"</t>
+  </si>
+  <si>
+    <t>1. Set reg_rdata to 0x"AAAAAAAA"</t>
+  </si>
+  <si>
+    <t>3. Observe reg_rdata_latch</t>
+  </si>
+  <si>
+    <t>reg_rdata = 0x"AAAAAAAA"</t>
+  </si>
+  <si>
+    <t>reg_rdata_latch = 0x"AAAAAAAA"</t>
+  </si>
+  <si>
+    <t>S_AXI_RDATA = 0x"AAAAAAAA"</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1695,11 +1701,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1724,40 +1761,59 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1766,83 +1822,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1851,6 +1835,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1874,26 +1873,89 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2176,10 +2238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I221"/>
+  <dimension ref="A1:I223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C223" sqref="C223"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F212" sqref="F212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2189,7 +2251,7 @@
     <col min="3" max="3" width="48.33203125" customWidth="1"/>
     <col min="4" max="4" width="53.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
@@ -2225,3492 +2287,3492 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="24" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="71" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="35"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="71" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="35"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="71" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="35"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="30" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="76" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="76" t="s">
+      <c r="F7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="76" t="s">
+      <c r="G7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="39"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="76" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="39"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="76" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="39"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="71" t="s">
+      <c r="G10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="24" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="71" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="35"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="71" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="35"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="71" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="35"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="E14" s="76" t="s">
+      <c r="E14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="F14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="76" t="s">
+      <c r="G14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="30" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="76" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="76" t="s">
+      <c r="E15" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="39"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="76" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="39"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="76" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="39"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="35" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="71" t="s">
+      <c r="F18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="71" t="s">
+      <c r="G18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I18" s="35" t="s">
+      <c r="I18" s="24" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="71" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="71" t="s">
+      <c r="F19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="71" t="s">
+      <c r="G19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="35"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="71" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="35"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="71" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="35"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="39" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="76" t="s">
+      <c r="D22" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="E22" s="76" t="s">
+      <c r="E22" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="76" t="s">
+      <c r="F22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="76" t="s">
+      <c r="G22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="45" t="s">
+      <c r="H22" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="I22" s="30" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="76" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="76" t="s">
+      <c r="E23" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="76" t="s">
+      <c r="F23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="76" t="s">
+      <c r="G23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="39"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="76" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="39"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="22"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="76" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="39"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="71" t="s">
+      <c r="D26" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="E26" s="71" t="s">
+      <c r="E26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="71" t="s">
+      <c r="F26" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="71" t="s">
+      <c r="G26" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="45" t="s">
+      <c r="H26" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I26" s="35" t="s">
+      <c r="I26" s="24" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="71" t="s">
+      <c r="A27" s="33"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="71" t="s">
+      <c r="E27" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="35"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="47"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="71" t="s">
+      <c r="A28" s="33"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="35"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
-      <c r="B29" s="39" t="s">
+      <c r="A29" s="33"/>
+      <c r="B29" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="E29" s="76" t="s">
+      <c r="E29" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="76" t="s">
+      <c r="F29" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="76" t="s">
+      <c r="G29" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="45" t="s">
+      <c r="H29" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I29" s="39" t="s">
+      <c r="I29" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="76" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="76" t="s">
+      <c r="E30" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="39"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="48"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="76" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="39"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="71" t="s">
+      <c r="D32" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="E32" s="71" t="s">
+      <c r="E32" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="71" t="s">
+      <c r="F32" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="71" t="s">
+      <c r="G32" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="45" t="s">
+      <c r="H32" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I32" s="35" t="s">
+      <c r="I32" s="24" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="47"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="71" t="s">
+      <c r="A33" s="33"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="71" t="s">
+      <c r="E33" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="35"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="71" t="s">
+      <c r="A34" s="33"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="35"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="47"/>
-      <c r="B35" s="39" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="76" t="s">
+      <c r="D35" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="E35" s="76" t="s">
+      <c r="E35" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="76" t="s">
+      <c r="F35" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="76" t="s">
+      <c r="G35" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="45" t="s">
+      <c r="H35" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I35" s="39" t="s">
+      <c r="I35" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="47"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="76" t="s">
+      <c r="A36" s="33"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="76" t="s">
+      <c r="E36" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="39"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="30"/>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="48"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="76" t="s">
+      <c r="A37" s="37"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="39"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="71" t="s">
+      <c r="D38" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="E38" s="71" t="s">
+      <c r="E38" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F38" s="71" t="s">
+      <c r="F38" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="71" t="s">
+      <c r="G38" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="45" t="s">
+      <c r="H38" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I38" s="35" t="s">
+      <c r="I38" s="24" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="47"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="71" t="s">
+      <c r="A39" s="33"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="71" t="s">
+      <c r="E39" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="35"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="47"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="71" t="s">
+      <c r="A40" s="33"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="35"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="47"/>
-      <c r="B41" s="39" t="s">
+      <c r="A41" s="33"/>
+      <c r="B41" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="76" t="s">
+      <c r="D41" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="E41" s="76" t="s">
+      <c r="E41" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="76" t="s">
+      <c r="F41" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="76" t="s">
+      <c r="G41" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H41" s="45" t="s">
+      <c r="H41" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I41" s="39" t="s">
+      <c r="I41" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="47"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="76" t="s">
+      <c r="A42" s="33"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="76" t="s">
+      <c r="E42" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="39"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="48"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="76" t="s">
+      <c r="A43" s="37"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="39"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="71" t="s">
+      <c r="D44" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="E44" s="71" t="s">
+      <c r="E44" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="71" t="s">
+      <c r="F44" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="71" t="s">
+      <c r="G44" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="H44" s="45" t="s">
+      <c r="H44" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I44" s="35" t="s">
+      <c r="I44" s="24" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="47"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="71" t="s">
+      <c r="A45" s="33"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="71" t="s">
+      <c r="E45" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="35"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="24"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="47"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="71" t="s">
+      <c r="A46" s="33"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="35"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="47"/>
-      <c r="B47" s="39" t="s">
+      <c r="A47" s="33"/>
+      <c r="B47" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="76" t="s">
+      <c r="D47" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="E47" s="76" t="s">
+      <c r="E47" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="76" t="s">
+      <c r="F47" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G47" s="76" t="s">
+      <c r="G47" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="H47" s="45" t="s">
+      <c r="H47" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I47" s="39" t="s">
+      <c r="I47" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="47"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="76" t="s">
+      <c r="A48" s="33"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="76" t="s">
+      <c r="E48" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="39"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="30"/>
     </row>
     <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="48"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="76" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="39"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="30"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="46" t="s">
+      <c r="A50" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="52" t="s">
+      <c r="C50" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="D50" s="71" t="s">
+      <c r="D50" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="E50" s="71" t="s">
+      <c r="E50" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F50" s="71" t="s">
+      <c r="F50" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G50" s="71" t="s">
+      <c r="G50" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="H50" s="45" t="s">
+      <c r="H50" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I50" s="35" t="s">
+      <c r="I50" s="24" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="47"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="71" t="s">
+      <c r="A51" s="33"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="71" t="s">
+      <c r="E51" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="35"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="24"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="47"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="71" t="s">
+      <c r="A52" s="33"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="35"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="24"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="47"/>
-      <c r="B53" s="39" t="s">
+      <c r="A53" s="33"/>
+      <c r="B53" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="76" t="s">
+      <c r="D53" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="E53" s="76" t="s">
+      <c r="E53" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="76" t="s">
+      <c r="F53" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G53" s="76" t="s">
+      <c r="G53" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="H53" s="45" t="s">
+      <c r="H53" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I53" s="39" t="s">
+      <c r="I53" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="47"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="76" t="s">
+      <c r="A54" s="33"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E54" s="76" t="s">
+      <c r="E54" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="39"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="30"/>
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="48"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="76" t="s">
+      <c r="A55" s="37"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="39"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="30"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="46" t="s">
+      <c r="A56" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="52" t="s">
+      <c r="C56" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D56" s="71" t="s">
+      <c r="D56" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="E56" s="71" t="s">
+      <c r="E56" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F56" s="71" t="s">
+      <c r="F56" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G56" s="71" t="s">
+      <c r="G56" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H56" s="45" t="s">
+      <c r="H56" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I56" s="35" t="s">
+      <c r="I56" s="24" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="47"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="71" t="s">
+      <c r="A57" s="33"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="71" t="s">
+      <c r="E57" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="35"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="24"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="47"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="71" t="s">
+      <c r="A58" s="33"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="35"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="24"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="47"/>
-      <c r="B59" s="39" t="s">
+      <c r="A59" s="33"/>
+      <c r="B59" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="76" t="s">
+      <c r="D59" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="E59" s="76" t="s">
+      <c r="E59" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F59" s="76" t="s">
+      <c r="F59" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="G59" s="76" t="s">
+      <c r="G59" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="H59" s="45" t="s">
+      <c r="H59" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I59" s="39" t="s">
+      <c r="I59" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="47"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="76" t="s">
+      <c r="A60" s="33"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E60" s="76" t="s">
+      <c r="E60" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="39"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="30"/>
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="48"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="76" t="s">
+      <c r="A61" s="37"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="39"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="30"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="52" t="s">
+      <c r="C62" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="D62" s="71" t="s">
+      <c r="D62" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="E62" s="71" t="s">
+      <c r="E62" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F62" s="71" t="s">
+      <c r="F62" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="G62" s="71" t="s">
+      <c r="G62" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H62" s="45" t="s">
+      <c r="H62" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I62" s="35" t="s">
+      <c r="I62" s="24" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="47"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="71" t="s">
+      <c r="A63" s="33"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E63" s="71" t="s">
+      <c r="E63" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="35"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="24"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="47"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="71" t="s">
+      <c r="A64" s="33"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="35"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="24"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="47"/>
-      <c r="B65" s="39" t="s">
+      <c r="A65" s="33"/>
+      <c r="B65" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="49" t="s">
+      <c r="C65" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D65" s="76" t="s">
+      <c r="D65" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="E65" s="76" t="s">
+      <c r="E65" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F65" s="76" t="s">
+      <c r="F65" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="G65" s="76" t="s">
+      <c r="G65" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="H65" s="45" t="s">
+      <c r="H65" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I65" s="39" t="s">
+      <c r="I65" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="47"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="76" t="s">
+      <c r="A66" s="33"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E66" s="76" t="s">
+      <c r="E66" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="39"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="30"/>
     </row>
     <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="48"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="76" t="s">
+      <c r="A67" s="37"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E67" s="76"/>
-      <c r="F67" s="76"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="39"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="30"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="71" t="s">
+      <c r="D68" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="E68" s="71" t="s">
+      <c r="E68" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F68" s="71" t="s">
+      <c r="F68" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="G68" s="71" t="s">
+      <c r="G68" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H68" s="45" t="s">
+      <c r="H68" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I68" s="35" t="s">
+      <c r="I68" s="24" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="47"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="71" t="s">
+      <c r="A69" s="33"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="71" t="s">
+      <c r="E69" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="35"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="24"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="47"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="71" t="s">
+      <c r="A70" s="33"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="35"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="24"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="47"/>
-      <c r="B71" s="39" t="s">
+      <c r="A71" s="33"/>
+      <c r="B71" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="D71" s="76" t="s">
+      <c r="D71" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="E71" s="76" t="s">
+      <c r="E71" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F71" s="76" t="s">
+      <c r="F71" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="G71" s="76" t="s">
+      <c r="G71" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="H71" s="45" t="s">
+      <c r="H71" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I71" s="39" t="s">
+      <c r="I71" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="47"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="76" t="s">
+      <c r="A72" s="33"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E72" s="76" t="s">
+      <c r="E72" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F72" s="76"/>
-      <c r="G72" s="76"/>
-      <c r="H72" s="45"/>
-      <c r="I72" s="39"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="48"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="76" t="s">
+      <c r="A73" s="37"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E73" s="76"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="76"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="39"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="46" t="s">
+      <c r="A74" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C74" s="52" t="s">
+      <c r="C74" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="71" t="s">
+      <c r="D74" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="E74" s="71" t="s">
+      <c r="E74" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F74" s="71" t="s">
+      <c r="F74" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="G74" s="71" t="s">
+      <c r="G74" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="H74" s="45" t="s">
+      <c r="H74" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I74" s="35" t="s">
+      <c r="I74" s="24" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="47"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="52"/>
-      <c r="D75" s="71" t="s">
+      <c r="A75" s="33"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="71" t="s">
+      <c r="E75" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="45"/>
-      <c r="I75" s="35"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="24"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="47"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="52"/>
-      <c r="D76" s="71" t="s">
+      <c r="A76" s="33"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="45"/>
-      <c r="I76" s="35"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="24"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="47"/>
-      <c r="B77" s="39" t="s">
+      <c r="A77" s="33"/>
+      <c r="B77" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="49" t="s">
+      <c r="C77" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="D77" s="76" t="s">
+      <c r="D77" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="E77" s="76" t="s">
+      <c r="E77" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F77" s="76" t="s">
+      <c r="F77" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="G77" s="76" t="s">
+      <c r="G77" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="H77" s="45" t="s">
+      <c r="H77" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I77" s="39" t="s">
+      <c r="I77" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="47"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="76" t="s">
+      <c r="A78" s="33"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E78" s="76" t="s">
+      <c r="E78" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F78" s="76"/>
-      <c r="G78" s="76"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="39"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="30"/>
     </row>
     <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="48"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="76" t="s">
+      <c r="A79" s="37"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E79" s="76"/>
-      <c r="F79" s="76"/>
-      <c r="G79" s="76"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="39"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="30"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="46" t="s">
+      <c r="A80" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="35" t="s">
+      <c r="B80" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="C80" s="52" t="s">
+      <c r="C80" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D80" s="71" t="s">
+      <c r="D80" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="E80" s="71" t="s">
+      <c r="E80" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="F80" s="71" t="s">
+      <c r="F80" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="G80" s="71" t="s">
+      <c r="G80" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="H80" s="45" t="s">
+      <c r="H80" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I80" s="35" t="s">
+      <c r="I80" s="24" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="47"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="52"/>
-      <c r="D81" s="71" t="s">
+      <c r="A81" s="33"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E81" s="71" t="s">
+      <c r="E81" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F81" s="71"/>
-      <c r="G81" s="71"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="35"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="24"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="47"/>
-      <c r="B82" s="35"/>
-      <c r="C82" s="52"/>
-      <c r="D82" s="71" t="s">
+      <c r="A82" s="33"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="45"/>
-      <c r="I82" s="35"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="24"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="47"/>
-      <c r="B83" s="39" t="s">
+      <c r="A83" s="33"/>
+      <c r="B83" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="49" t="s">
+      <c r="C83" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="D83" s="76" t="s">
+      <c r="D83" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="E83" s="76" t="s">
+      <c r="E83" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F83" s="76" t="s">
+      <c r="F83" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="G83" s="76" t="s">
+      <c r="G83" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="H83" s="45" t="s">
+      <c r="H83" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I83" s="39" t="s">
+      <c r="I83" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="47"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="76" t="s">
+      <c r="A84" s="33"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="E84" s="76" t="s">
+      <c r="E84" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F84" s="76"/>
-      <c r="G84" s="76"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="39"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="30"/>
     </row>
     <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="48"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="76" t="s">
+      <c r="A85" s="37"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="76"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="39"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="30"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="46" t="s">
+      <c r="A86" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="B86" s="35" t="s">
+      <c r="B86" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="52" t="s">
+      <c r="C86" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="D86" s="71" t="s">
+      <c r="D86" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="E86" s="71" t="s">
+      <c r="E86" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="F86" s="71" t="s">
+      <c r="F86" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="G86" s="71" t="s">
+      <c r="G86" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="H86" s="45" t="s">
+      <c r="H86" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I86" s="35" t="s">
+      <c r="I86" s="24" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="47"/>
-      <c r="B87" s="35"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="71" t="s">
+      <c r="A87" s="33"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E87" s="71" t="s">
+      <c r="E87" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F87" s="71"/>
-      <c r="G87" s="71"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="35"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="24"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="47"/>
-      <c r="B88" s="35"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="71" t="s">
+      <c r="A88" s="33"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="45"/>
-      <c r="I88" s="35"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="24"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="47"/>
-      <c r="B89" s="39" t="s">
+      <c r="A89" s="33"/>
+      <c r="B89" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C89" s="49" t="s">
+      <c r="C89" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D89" s="76" t="s">
+      <c r="D89" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="E89" s="76" t="s">
+      <c r="E89" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F89" s="76" t="s">
+      <c r="F89" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="G89" s="76" t="s">
+      <c r="G89" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="H89" s="45" t="s">
+      <c r="H89" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I89" s="39" t="s">
+      <c r="I89" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="47"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="76" t="s">
+      <c r="A90" s="33"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="E90" s="76" t="s">
+      <c r="E90" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F90" s="76"/>
-      <c r="G90" s="76"/>
-      <c r="H90" s="45"/>
-      <c r="I90" s="39"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="30"/>
     </row>
     <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="48"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="49"/>
-      <c r="D91" s="76" t="s">
+      <c r="A91" s="37"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E91" s="76"/>
-      <c r="F91" s="76"/>
-      <c r="G91" s="76"/>
-      <c r="H91" s="45"/>
-      <c r="I91" s="39"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="30"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="46" t="s">
+      <c r="A92" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="B92" s="35" t="s">
+      <c r="B92" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="52" t="s">
+      <c r="C92" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="D92" s="71" t="s">
+      <c r="D92" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="E92" s="71" t="s">
+      <c r="E92" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="F92" s="71" t="s">
+      <c r="F92" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="G92" s="71" t="s">
+      <c r="G92" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="H92" s="45" t="s">
+      <c r="H92" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I92" s="35" t="s">
+      <c r="I92" s="24" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="47"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="52"/>
-      <c r="D93" s="71" t="s">
+      <c r="A93" s="33"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E93" s="71" t="s">
+      <c r="E93" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F93" s="71"/>
-      <c r="G93" s="71"/>
-      <c r="H93" s="45"/>
-      <c r="I93" s="35"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="24"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="47"/>
-      <c r="B94" s="35"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="71" t="s">
+      <c r="A94" s="33"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="E94" s="71"/>
-      <c r="F94" s="71"/>
-      <c r="G94" s="71"/>
-      <c r="H94" s="45"/>
-      <c r="I94" s="35"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="24"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="47"/>
-      <c r="B95" s="39" t="s">
+      <c r="A95" s="33"/>
+      <c r="B95" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C95" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="D95" s="76" t="s">
+      <c r="D95" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="E95" s="76" t="s">
+      <c r="E95" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F95" s="76" t="s">
+      <c r="F95" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="G95" s="76" t="s">
+      <c r="G95" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="H95" s="45" t="s">
+      <c r="H95" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I95" s="39" t="s">
+      <c r="I95" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="47"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="76" t="s">
+      <c r="A96" s="33"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="E96" s="76" t="s">
+      <c r="E96" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F96" s="76"/>
-      <c r="G96" s="76"/>
-      <c r="H96" s="45"/>
-      <c r="I96" s="39"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="30"/>
     </row>
     <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="48"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="76" t="s">
+      <c r="A97" s="37"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E97" s="76"/>
-      <c r="F97" s="76"/>
-      <c r="G97" s="76"/>
-      <c r="H97" s="45"/>
-      <c r="I97" s="39"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="30"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="46" t="s">
+      <c r="A98" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="B98" s="35" t="s">
+      <c r="B98" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C98" s="52" t="s">
+      <c r="C98" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="D98" s="71" t="s">
+      <c r="D98" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="E98" s="71" t="s">
+      <c r="E98" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="F98" s="71" t="s">
+      <c r="F98" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="G98" s="71" t="s">
+      <c r="G98" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="H98" s="45" t="s">
+      <c r="H98" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I98" s="35" t="s">
+      <c r="I98" s="24" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="47"/>
-      <c r="B99" s="35"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="71" t="s">
+      <c r="A99" s="33"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E99" s="71" t="s">
+      <c r="E99" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F99" s="71"/>
-      <c r="G99" s="71"/>
-      <c r="H99" s="45"/>
-      <c r="I99" s="35"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="24"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="47"/>
-      <c r="B100" s="35"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="71" t="s">
+      <c r="A100" s="33"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="E100" s="71"/>
-      <c r="F100" s="71"/>
-      <c r="G100" s="71"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="35"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="24"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="47"/>
-      <c r="B101" s="39" t="s">
+      <c r="A101" s="33"/>
+      <c r="B101" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="C101" s="49" t="s">
+      <c r="C101" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D101" s="76" t="s">
+      <c r="D101" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="E101" s="76" t="s">
+      <c r="E101" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F101" s="76" t="s">
+      <c r="F101" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G101" s="76" t="s">
+      <c r="G101" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="H101" s="45" t="s">
+      <c r="H101" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I101" s="39" t="s">
+      <c r="I101" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="47"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="49"/>
-      <c r="D102" s="76" t="s">
+      <c r="A102" s="33"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E102" s="76" t="s">
+      <c r="E102" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F102" s="76"/>
-      <c r="G102" s="76"/>
-      <c r="H102" s="45"/>
-      <c r="I102" s="39"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="30"/>
     </row>
     <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="48"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="49"/>
-      <c r="D103" s="76" t="s">
+      <c r="A103" s="37"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="76"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="39"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="30"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="46" t="s">
+      <c r="A104" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="B104" s="35" t="s">
+      <c r="B104" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C104" s="52" t="s">
+      <c r="C104" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="D104" s="71" t="s">
+      <c r="D104" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="E104" s="71" t="s">
+      <c r="E104" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F104" s="71" t="s">
+      <c r="F104" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="G104" s="71" t="s">
+      <c r="G104" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="H104" s="45" t="s">
+      <c r="H104" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I104" s="35" t="s">
+      <c r="I104" s="24" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="47"/>
-      <c r="B105" s="35"/>
-      <c r="C105" s="52"/>
-      <c r="D105" s="71" t="s">
+      <c r="A105" s="33"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="71" t="s">
+      <c r="E105" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F105" s="71"/>
-      <c r="G105" s="71"/>
-      <c r="H105" s="45"/>
-      <c r="I105" s="35"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="24"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="47"/>
-      <c r="B106" s="35"/>
-      <c r="C106" s="52"/>
-      <c r="D106" s="71" t="s">
+      <c r="A106" s="33"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="E106" s="71"/>
-      <c r="F106" s="71"/>
-      <c r="G106" s="71"/>
-      <c r="H106" s="45"/>
-      <c r="I106" s="35"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="24"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="47"/>
-      <c r="B107" s="39" t="s">
+      <c r="A107" s="33"/>
+      <c r="B107" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="C107" s="49" t="s">
+      <c r="C107" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="D107" s="76" t="s">
+      <c r="D107" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="E107" s="76" t="s">
+      <c r="E107" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F107" s="76" t="s">
+      <c r="F107" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G107" s="76" t="s">
+      <c r="G107" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="H107" s="45" t="s">
+      <c r="H107" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I107" s="39" t="s">
+      <c r="I107" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="47"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="49"/>
-      <c r="D108" s="76" t="s">
+      <c r="A108" s="33"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="E108" s="76" t="s">
+      <c r="E108" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F108" s="76"/>
-      <c r="G108" s="76"/>
-      <c r="H108" s="45"/>
-      <c r="I108" s="39"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="30"/>
     </row>
     <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="48"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="49"/>
-      <c r="D109" s="76" t="s">
+      <c r="A109" s="37"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E109" s="76"/>
-      <c r="F109" s="76"/>
-      <c r="G109" s="76"/>
-      <c r="H109" s="45"/>
-      <c r="I109" s="39"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="36"/>
+      <c r="I109" s="30"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="46" t="s">
+      <c r="A110" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="B110" s="35" t="s">
+      <c r="B110" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C110" s="52" t="s">
+      <c r="C110" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="D110" s="71" t="s">
+      <c r="D110" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="E110" s="71" t="s">
+      <c r="E110" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="F110" s="71" t="s">
+      <c r="F110" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="G110" s="71" t="s">
+      <c r="G110" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H110" s="45" t="s">
+      <c r="H110" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I110" s="35" t="s">
+      <c r="I110" s="24" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="47"/>
-      <c r="B111" s="35"/>
-      <c r="C111" s="52"/>
-      <c r="D111" s="71" t="s">
+      <c r="A111" s="33"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="38"/>
+      <c r="D111" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E111" s="71" t="s">
+      <c r="E111" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F111" s="71"/>
-      <c r="G111" s="71"/>
-      <c r="H111" s="45"/>
-      <c r="I111" s="35"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="36"/>
+      <c r="I111" s="24"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="47"/>
-      <c r="B112" s="35"/>
-      <c r="C112" s="52"/>
-      <c r="D112" s="71" t="s">
+      <c r="A112" s="33"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="E112" s="71"/>
-      <c r="F112" s="71"/>
-      <c r="G112" s="71"/>
-      <c r="H112" s="45"/>
-      <c r="I112" s="35"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="36"/>
+      <c r="I112" s="24"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="47"/>
-      <c r="B113" s="39" t="s">
+      <c r="A113" s="33"/>
+      <c r="B113" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="C113" s="49" t="s">
+      <c r="C113" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="D113" s="76" t="s">
+      <c r="D113" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="E113" s="76" t="s">
+      <c r="E113" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F113" s="76" t="s">
+      <c r="F113" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="G113" s="76" t="s">
+      <c r="G113" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="H113" s="45" t="s">
+      <c r="H113" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I113" s="39" t="s">
+      <c r="I113" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="47"/>
-      <c r="B114" s="39"/>
-      <c r="C114" s="49"/>
-      <c r="D114" s="76" t="s">
+      <c r="A114" s="33"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="E114" s="76" t="s">
+      <c r="E114" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F114" s="76"/>
-      <c r="G114" s="76"/>
-      <c r="H114" s="45"/>
-      <c r="I114" s="39"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23"/>
+      <c r="H114" s="36"/>
+      <c r="I114" s="30"/>
     </row>
     <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="48"/>
-      <c r="B115" s="39"/>
-      <c r="C115" s="49"/>
-      <c r="D115" s="76" t="s">
+      <c r="A115" s="37"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="39"/>
+      <c r="D115" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E115" s="76"/>
-      <c r="F115" s="76"/>
-      <c r="G115" s="76"/>
-      <c r="H115" s="45"/>
-      <c r="I115" s="39"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="30"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="46" t="s">
+      <c r="A116" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="B116" s="35" t="s">
+      <c r="B116" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="C116" s="52" t="s">
+      <c r="C116" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="D116" s="71" t="s">
+      <c r="D116" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="E116" s="71" t="s">
+      <c r="E116" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="F116" s="71" t="s">
+      <c r="F116" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="G116" s="71" t="s">
+      <c r="G116" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H116" s="45" t="s">
+      <c r="H116" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I116" s="35" t="s">
+      <c r="I116" s="24" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="47"/>
-      <c r="B117" s="35"/>
-      <c r="C117" s="52"/>
-      <c r="D117" s="71" t="s">
+      <c r="A117" s="33"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E117" s="71" t="s">
+      <c r="E117" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="45"/>
-      <c r="I117" s="35"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="36"/>
+      <c r="I117" s="24"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="47"/>
-      <c r="B118" s="35"/>
-      <c r="C118" s="52"/>
-      <c r="D118" s="71" t="s">
+      <c r="A118" s="33"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="E118" s="71"/>
-      <c r="F118" s="71"/>
-      <c r="G118" s="71"/>
-      <c r="H118" s="45"/>
-      <c r="I118" s="35"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="20"/>
+      <c r="H118" s="36"/>
+      <c r="I118" s="24"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="47"/>
-      <c r="B119" s="39" t="s">
+      <c r="A119" s="33"/>
+      <c r="B119" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="C119" s="49" t="s">
+      <c r="C119" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="D119" s="76" t="s">
+      <c r="D119" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="E119" s="76" t="s">
+      <c r="E119" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F119" s="76" t="s">
+      <c r="F119" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="G119" s="76" t="s">
+      <c r="G119" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="H119" s="45" t="s">
+      <c r="H119" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I119" s="39" t="s">
+      <c r="I119" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="47"/>
-      <c r="B120" s="39"/>
-      <c r="C120" s="49"/>
-      <c r="D120" s="76" t="s">
+      <c r="A120" s="33"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="E120" s="76" t="s">
+      <c r="E120" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F120" s="76"/>
-      <c r="G120" s="76"/>
-      <c r="H120" s="45"/>
-      <c r="I120" s="39"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="36"/>
+      <c r="I120" s="30"/>
     </row>
     <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="48"/>
-      <c r="B121" s="39"/>
-      <c r="C121" s="49"/>
-      <c r="D121" s="76" t="s">
+      <c r="A121" s="37"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="39"/>
+      <c r="D121" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E121" s="76"/>
-      <c r="F121" s="76"/>
-      <c r="G121" s="76"/>
-      <c r="H121" s="45"/>
-      <c r="I121" s="39"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="36"/>
+      <c r="I121" s="30"/>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="20" t="s">
+      <c r="A122" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="B122" s="35" t="s">
+      <c r="B122" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C122" s="36" t="s">
+      <c r="C122" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="D122" s="71" t="s">
+      <c r="D122" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E122" s="71" t="s">
+      <c r="E122" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="F122" s="71" t="s">
+      <c r="F122" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="G122" s="71" t="s">
+      <c r="G122" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="H122" s="45" t="s">
+      <c r="H122" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I122" s="35" t="s">
+      <c r="I122" s="24" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="21"/>
-      <c r="B123" s="35"/>
-      <c r="C123" s="36"/>
-      <c r="D123" s="71" t="s">
+      <c r="A123" s="35"/>
+      <c r="B123" s="24"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="E123" s="71" t="s">
+      <c r="E123" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="F123" s="71"/>
-      <c r="G123" s="71"/>
-      <c r="H123" s="45"/>
-      <c r="I123" s="35"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="36"/>
+      <c r="I123" s="24"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="21"/>
-      <c r="B124" s="35"/>
-      <c r="C124" s="36"/>
-      <c r="D124" s="71" t="s">
+      <c r="A124" s="35"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="E124" s="71" t="s">
+      <c r="E124" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="F124" s="71"/>
-      <c r="G124" s="71"/>
-      <c r="H124" s="45"/>
-      <c r="I124" s="35"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="36"/>
+      <c r="I124" s="24"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="21"/>
-      <c r="B125" s="35"/>
-      <c r="C125" s="36"/>
-      <c r="D125" s="71" t="s">
+      <c r="A125" s="35"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="E125" s="71" t="s">
+      <c r="E125" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="F125" s="71"/>
-      <c r="G125" s="71"/>
-      <c r="H125" s="45"/>
-      <c r="I125" s="35"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="36"/>
+      <c r="I125" s="24"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="21"/>
-      <c r="B126" s="35"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="71" t="s">
+      <c r="A126" s="35"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="E126" s="71"/>
-      <c r="F126" s="71"/>
-      <c r="G126" s="71"/>
-      <c r="H126" s="45"/>
-      <c r="I126" s="35"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="36"/>
+      <c r="I126" s="24"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="21"/>
-      <c r="B127" s="39" t="s">
+      <c r="A127" s="35"/>
+      <c r="B127" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="C127" s="40" t="s">
+      <c r="C127" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="D127" s="75" t="s">
+      <c r="D127" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="E127" s="75" t="s">
+      <c r="E127" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="F127" s="75" t="s">
+      <c r="F127" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="G127" s="75" t="s">
+      <c r="G127" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="H127" s="45" t="s">
+      <c r="H127" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I127" s="39" t="s">
+      <c r="I127" s="30" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="21"/>
-      <c r="B128" s="39"/>
-      <c r="C128" s="40"/>
-      <c r="D128" s="75" t="s">
+      <c r="A128" s="35"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E128" s="75" t="s">
+      <c r="E128" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F128" s="76"/>
-      <c r="G128" s="76"/>
-      <c r="H128" s="45"/>
-      <c r="I128" s="39"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23"/>
+      <c r="H128" s="36"/>
+      <c r="I128" s="30"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="21"/>
-      <c r="B129" s="39"/>
-      <c r="C129" s="40"/>
-      <c r="D129" s="75" t="s">
+      <c r="A129" s="35"/>
+      <c r="B129" s="30"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="E129" s="75" t="s">
+      <c r="E129" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="F129" s="76"/>
-      <c r="G129" s="76"/>
-      <c r="H129" s="45"/>
-      <c r="I129" s="39"/>
+      <c r="F129" s="23"/>
+      <c r="G129" s="23"/>
+      <c r="H129" s="36"/>
+      <c r="I129" s="30"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="21"/>
-      <c r="B130" s="39"/>
-      <c r="C130" s="40"/>
-      <c r="D130" s="75" t="s">
+      <c r="A130" s="35"/>
+      <c r="B130" s="30"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="E130" s="75" t="s">
+      <c r="E130" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="F130" s="76"/>
-      <c r="G130" s="76"/>
-      <c r="H130" s="45"/>
-      <c r="I130" s="39"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="36"/>
+      <c r="I130" s="30"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="21"/>
-      <c r="B131" s="39"/>
-      <c r="C131" s="40"/>
-      <c r="D131" s="75" t="s">
+      <c r="A131" s="35"/>
+      <c r="B131" s="30"/>
+      <c r="C131" s="31"/>
+      <c r="D131" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="E131" s="76"/>
-      <c r="F131" s="76"/>
-      <c r="G131" s="76"/>
-      <c r="H131" s="45"/>
-      <c r="I131" s="39"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="23"/>
+      <c r="H131" s="36"/>
+      <c r="I131" s="30"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="21"/>
-      <c r="B132" s="35" t="s">
+      <c r="A132" s="35"/>
+      <c r="B132" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="C132" s="36" t="s">
+      <c r="C132" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="D132" s="71" t="s">
+      <c r="D132" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E132" s="71" t="s">
+      <c r="E132" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="F132" s="71" t="s">
+      <c r="F132" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="G132" s="71" t="s">
+      <c r="G132" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="H132" s="45" t="s">
+      <c r="H132" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I132" s="35" t="s">
+      <c r="I132" s="24" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="21"/>
-      <c r="B133" s="35"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="71" t="s">
+      <c r="A133" s="35"/>
+      <c r="B133" s="24"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E133" s="71" t="s">
+      <c r="E133" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F133" s="71"/>
-      <c r="G133" s="71"/>
-      <c r="H133" s="45"/>
-      <c r="I133" s="35"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="24"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="21"/>
-      <c r="B134" s="35"/>
-      <c r="C134" s="36"/>
-      <c r="D134" s="71" t="s">
+      <c r="A134" s="35"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="E134" s="71" t="s">
+      <c r="E134" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="F134" s="71"/>
-      <c r="G134" s="71"/>
-      <c r="H134" s="45"/>
-      <c r="I134" s="35"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="20"/>
+      <c r="H134" s="36"/>
+      <c r="I134" s="24"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" s="21"/>
-      <c r="B135" s="35"/>
-      <c r="C135" s="36"/>
-      <c r="D135" s="71" t="s">
+      <c r="A135" s="35"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="E135" s="71" t="s">
+      <c r="E135" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="F135" s="71"/>
-      <c r="G135" s="71"/>
-      <c r="H135" s="45"/>
-      <c r="I135" s="35"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="20"/>
+      <c r="H135" s="36"/>
+      <c r="I135" s="24"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="21"/>
-      <c r="B136" s="35"/>
-      <c r="C136" s="36"/>
-      <c r="D136" s="71" t="s">
+      <c r="A136" s="35"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="E136" s="71"/>
-      <c r="F136" s="71"/>
-      <c r="G136" s="71"/>
-      <c r="H136" s="45"/>
-      <c r="I136" s="35"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="36"/>
+      <c r="I136" s="24"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="21"/>
-      <c r="B137" s="39" t="s">
+      <c r="A137" s="35"/>
+      <c r="B137" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="C137" s="40" t="s">
+      <c r="C137" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="D137" s="75" t="s">
+      <c r="D137" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="E137" s="75" t="s">
+      <c r="E137" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="F137" s="75" t="s">
+      <c r="F137" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="G137" s="75" t="s">
+      <c r="G137" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="H137" s="45" t="s">
+      <c r="H137" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I137" s="39" t="s">
+      <c r="I137" s="30" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="21"/>
-      <c r="B138" s="39"/>
-      <c r="C138" s="40"/>
-      <c r="D138" s="75" t="s">
+      <c r="A138" s="35"/>
+      <c r="B138" s="30"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E138" s="75" t="s">
+      <c r="E138" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F138" s="76"/>
-      <c r="G138" s="76"/>
-      <c r="H138" s="45"/>
-      <c r="I138" s="39"/>
+      <c r="F138" s="23"/>
+      <c r="G138" s="23"/>
+      <c r="H138" s="36"/>
+      <c r="I138" s="30"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" s="21"/>
-      <c r="B139" s="39"/>
-      <c r="C139" s="40"/>
-      <c r="D139" s="75" t="s">
+      <c r="A139" s="35"/>
+      <c r="B139" s="30"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="E139" s="75" t="s">
+      <c r="E139" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="F139" s="76"/>
-      <c r="G139" s="76"/>
-      <c r="H139" s="45"/>
-      <c r="I139" s="39"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="23"/>
+      <c r="H139" s="36"/>
+      <c r="I139" s="30"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" s="21"/>
-      <c r="B140" s="39"/>
-      <c r="C140" s="40"/>
-      <c r="D140" s="75" t="s">
+      <c r="A140" s="35"/>
+      <c r="B140" s="30"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="E140" s="75" t="s">
+      <c r="E140" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="F140" s="76"/>
-      <c r="G140" s="76"/>
-      <c r="H140" s="45"/>
-      <c r="I140" s="39"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="23"/>
+      <c r="H140" s="36"/>
+      <c r="I140" s="30"/>
     </row>
     <row r="141" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="21"/>
-      <c r="B141" s="39"/>
-      <c r="C141" s="40"/>
-      <c r="D141" s="75" t="s">
+      <c r="A141" s="35"/>
+      <c r="B141" s="30"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="E141" s="76"/>
-      <c r="F141" s="76"/>
-      <c r="G141" s="76"/>
-      <c r="H141" s="45"/>
-      <c r="I141" s="39"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="23"/>
+      <c r="G141" s="23"/>
+      <c r="H141" s="36"/>
+      <c r="I141" s="30"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="32" t="s">
+      <c r="A142" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="B142" s="35" t="s">
+      <c r="B142" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="C142" s="36" t="s">
+      <c r="C142" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="D142" s="71" t="s">
+      <c r="D142" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="E142" s="71" t="s">
+      <c r="E142" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="F142" s="71" t="s">
+      <c r="F142" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="G142" s="71" t="s">
+      <c r="G142" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="H142" s="45" t="s">
+      <c r="H142" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I142" s="35" t="s">
+      <c r="I142" s="24" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" s="33"/>
-      <c r="B143" s="35"/>
-      <c r="C143" s="36"/>
-      <c r="D143" s="71" t="s">
+      <c r="A143" s="42"/>
+      <c r="B143" s="24"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="E143" s="71" t="s">
+      <c r="E143" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="F143" s="71"/>
-      <c r="G143" s="71"/>
-      <c r="H143" s="45"/>
-      <c r="I143" s="35"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="20"/>
+      <c r="H143" s="36"/>
+      <c r="I143" s="24"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A144" s="33"/>
-      <c r="B144" s="35"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="71" t="s">
+      <c r="A144" s="42"/>
+      <c r="B144" s="24"/>
+      <c r="C144" s="25"/>
+      <c r="D144" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E144" s="71"/>
-      <c r="F144" s="71"/>
-      <c r="G144" s="71"/>
-      <c r="H144" s="45"/>
-      <c r="I144" s="35"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="20"/>
+      <c r="H144" s="36"/>
+      <c r="I144" s="24"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" s="33"/>
-      <c r="B145" s="39" t="s">
+      <c r="A145" s="42"/>
+      <c r="B145" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="C145" s="40" t="s">
+      <c r="C145" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="D145" s="75" t="s">
+      <c r="D145" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="E145" s="75" t="s">
+      <c r="E145" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="F145" s="75" t="s">
+      <c r="F145" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="G145" s="75" t="s">
+      <c r="G145" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="H145" s="45" t="s">
+      <c r="H145" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I145" s="39" t="s">
+      <c r="I145" s="30" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="33"/>
-      <c r="B146" s="39"/>
-      <c r="C146" s="40"/>
-      <c r="D146" s="75" t="s">
+      <c r="A146" s="42"/>
+      <c r="B146" s="30"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="E146" s="75" t="s">
+      <c r="E146" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="F146" s="76"/>
-      <c r="G146" s="76"/>
-      <c r="H146" s="45"/>
-      <c r="I146" s="39"/>
+      <c r="F146" s="23"/>
+      <c r="G146" s="23"/>
+      <c r="H146" s="36"/>
+      <c r="I146" s="30"/>
     </row>
     <row r="147" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="41"/>
-      <c r="B147" s="39"/>
-      <c r="C147" s="40"/>
-      <c r="D147" s="75" t="s">
+      <c r="A147" s="43"/>
+      <c r="B147" s="30"/>
+      <c r="C147" s="31"/>
+      <c r="D147" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="E147" s="76"/>
-      <c r="F147" s="76"/>
-      <c r="G147" s="76"/>
-      <c r="H147" s="45"/>
-      <c r="I147" s="39"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="23"/>
+      <c r="G147" s="23"/>
+      <c r="H147" s="36"/>
+      <c r="I147" s="30"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148" s="32" t="s">
+      <c r="A148" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="B148" s="35" t="s">
+      <c r="B148" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C148" s="36" t="s">
+      <c r="C148" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="D148" s="71" t="s">
+      <c r="D148" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="E148" s="71" t="s">
+      <c r="E148" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="F148" s="71" t="s">
+      <c r="F148" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="G148" s="71" t="s">
+      <c r="G148" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="H148" s="45" t="s">
+      <c r="H148" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I148" s="35" t="s">
+      <c r="I148" s="24" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="33"/>
-      <c r="B149" s="35"/>
-      <c r="C149" s="36"/>
-      <c r="D149" s="71" t="s">
+      <c r="A149" s="42"/>
+      <c r="B149" s="24"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="E149" s="71" t="s">
+      <c r="E149" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="F149" s="71"/>
-      <c r="G149" s="71"/>
-      <c r="H149" s="45"/>
-      <c r="I149" s="35"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="20"/>
+      <c r="H149" s="36"/>
+      <c r="I149" s="24"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="33"/>
-      <c r="B150" s="35"/>
-      <c r="C150" s="36"/>
-      <c r="D150" s="71" t="s">
+      <c r="A150" s="42"/>
+      <c r="B150" s="24"/>
+      <c r="C150" s="25"/>
+      <c r="D150" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="E150" s="71"/>
-      <c r="F150" s="71"/>
-      <c r="G150" s="71"/>
-      <c r="H150" s="45"/>
-      <c r="I150" s="35"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="36"/>
+      <c r="I150" s="24"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="33"/>
-      <c r="B151" s="39" t="s">
+      <c r="A151" s="42"/>
+      <c r="B151" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="C151" s="40" t="s">
+      <c r="C151" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="D151" s="75" t="s">
+      <c r="D151" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="E151" s="75" t="s">
+      <c r="E151" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="F151" s="75" t="s">
+      <c r="F151" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G151" s="75" t="s">
+      <c r="G151" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="H151" s="45" t="s">
+      <c r="H151" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I151" s="39" t="s">
+      <c r="I151" s="30" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="33"/>
-      <c r="B152" s="39"/>
-      <c r="C152" s="40"/>
-      <c r="D152" s="75" t="s">
+      <c r="A152" s="42"/>
+      <c r="B152" s="30"/>
+      <c r="C152" s="31"/>
+      <c r="D152" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="E152" s="75" t="s">
+      <c r="E152" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="F152" s="76"/>
-      <c r="G152" s="76"/>
-      <c r="H152" s="45"/>
-      <c r="I152" s="39"/>
+      <c r="F152" s="23"/>
+      <c r="G152" s="23"/>
+      <c r="H152" s="36"/>
+      <c r="I152" s="30"/>
     </row>
     <row r="153" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="41"/>
-      <c r="B153" s="39"/>
-      <c r="C153" s="40"/>
-      <c r="D153" s="75" t="s">
+      <c r="A153" s="43"/>
+      <c r="B153" s="30"/>
+      <c r="C153" s="31"/>
+      <c r="D153" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="E153" s="76"/>
-      <c r="F153" s="76"/>
-      <c r="G153" s="76"/>
-      <c r="H153" s="45"/>
-      <c r="I153" s="39"/>
+      <c r="E153" s="23"/>
+      <c r="F153" s="23"/>
+      <c r="G153" s="23"/>
+      <c r="H153" s="36"/>
+      <c r="I153" s="30"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" s="32" t="s">
+      <c r="A154" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="B154" s="35" t="s">
+      <c r="B154" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="C154" s="36" t="s">
+      <c r="C154" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="D154" s="71" t="s">
+      <c r="D154" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="E154" s="71" t="s">
+      <c r="E154" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="F154" s="71" t="s">
+      <c r="F154" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="G154" s="71" t="s">
+      <c r="G154" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="H154" s="45" t="s">
+      <c r="H154" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I154" s="35" t="s">
+      <c r="I154" s="24" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" s="33"/>
-      <c r="B155" s="35"/>
-      <c r="C155" s="36"/>
-      <c r="D155" s="71" t="s">
+      <c r="A155" s="42"/>
+      <c r="B155" s="24"/>
+      <c r="C155" s="25"/>
+      <c r="D155" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="E155" s="71" t="s">
+      <c r="E155" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="F155" s="71"/>
-      <c r="G155" s="71"/>
-      <c r="H155" s="45"/>
-      <c r="I155" s="35"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="36"/>
+      <c r="I155" s="24"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A156" s="33"/>
-      <c r="B156" s="35"/>
-      <c r="C156" s="36"/>
-      <c r="D156" s="71" t="s">
+      <c r="A156" s="42"/>
+      <c r="B156" s="24"/>
+      <c r="C156" s="25"/>
+      <c r="D156" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="E156" s="71"/>
-      <c r="F156" s="71"/>
-      <c r="G156" s="71"/>
-      <c r="H156" s="45"/>
-      <c r="I156" s="35"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="36"/>
+      <c r="I156" s="24"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="33"/>
-      <c r="B157" s="39" t="s">
+      <c r="A157" s="42"/>
+      <c r="B157" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="C157" s="40" t="s">
+      <c r="C157" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="D157" s="75" t="s">
+      <c r="D157" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="E157" s="75" t="s">
+      <c r="E157" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="F157" s="75" t="s">
+      <c r="F157" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="G157" s="75" t="s">
+      <c r="G157" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="H157" s="45" t="s">
+      <c r="H157" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I157" s="39" t="s">
+      <c r="I157" s="30" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="33"/>
-      <c r="B158" s="39"/>
-      <c r="C158" s="40"/>
-      <c r="D158" s="75" t="s">
+      <c r="A158" s="42"/>
+      <c r="B158" s="30"/>
+      <c r="C158" s="31"/>
+      <c r="D158" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="E158" s="75" t="s">
+      <c r="E158" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="F158" s="76"/>
-      <c r="G158" s="76"/>
-      <c r="H158" s="45"/>
-      <c r="I158" s="39"/>
+      <c r="F158" s="23"/>
+      <c r="G158" s="23"/>
+      <c r="H158" s="36"/>
+      <c r="I158" s="30"/>
     </row>
     <row r="159" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="34"/>
-      <c r="B159" s="39"/>
-      <c r="C159" s="40"/>
-      <c r="D159" s="75" t="s">
+      <c r="A159" s="44"/>
+      <c r="B159" s="30"/>
+      <c r="C159" s="31"/>
+      <c r="D159" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="E159" s="76"/>
-      <c r="F159" s="76"/>
-      <c r="G159" s="76"/>
-      <c r="H159" s="45"/>
-      <c r="I159" s="39"/>
+      <c r="E159" s="23"/>
+      <c r="F159" s="23"/>
+      <c r="G159" s="23"/>
+      <c r="H159" s="36"/>
+      <c r="I159" s="30"/>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="20" t="s">
+      <c r="A160" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="B160" s="35" t="s">
+      <c r="B160" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="C160" s="36" t="s">
+      <c r="C160" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="D160" s="71" t="s">
+      <c r="D160" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="E160" s="71" t="s">
+      <c r="E160" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="F160" s="71" t="s">
+      <c r="F160" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="G160" s="71" t="s">
+      <c r="G160" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="H160" s="45" t="s">
+      <c r="H160" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I160" s="35" t="s">
+      <c r="I160" s="24" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A161" s="21"/>
-      <c r="B161" s="35"/>
-      <c r="C161" s="36"/>
-      <c r="D161" s="71" t="s">
+      <c r="A161" s="35"/>
+      <c r="B161" s="24"/>
+      <c r="C161" s="25"/>
+      <c r="D161" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="E161" s="71"/>
-      <c r="F161" s="71"/>
-      <c r="G161" s="71"/>
-      <c r="H161" s="45"/>
-      <c r="I161" s="35"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="20"/>
+      <c r="H161" s="36"/>
+      <c r="I161" s="24"/>
     </row>
     <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="21"/>
-      <c r="B162" s="39" t="s">
+      <c r="A162" s="35"/>
+      <c r="B162" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="C162" s="40" t="s">
+      <c r="C162" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="D162" s="75" t="s">
+      <c r="D162" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="E162" s="75" t="s">
+      <c r="E162" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="F162" s="75" t="s">
+      <c r="F162" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="G162" s="75" t="s">
+      <c r="G162" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="H162" s="45" t="s">
+      <c r="H162" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I162" s="39" t="s">
+      <c r="I162" s="30" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="22"/>
-      <c r="B163" s="39"/>
-      <c r="C163" s="40"/>
-      <c r="D163" s="75" t="s">
+      <c r="A163" s="40"/>
+      <c r="B163" s="30"/>
+      <c r="C163" s="31"/>
+      <c r="D163" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="E163" s="76"/>
-      <c r="F163" s="76"/>
-      <c r="G163" s="76"/>
-      <c r="H163" s="45"/>
-      <c r="I163" s="39"/>
+      <c r="E163" s="23"/>
+      <c r="F163" s="23"/>
+      <c r="G163" s="23"/>
+      <c r="H163" s="36"/>
+      <c r="I163" s="30"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="20" t="s">
+      <c r="A164" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="B164" s="35" t="s">
+      <c r="B164" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="C164" s="36" t="s">
+      <c r="C164" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="D164" s="71" t="s">
+      <c r="D164" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="E164" s="71" t="s">
+      <c r="E164" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="F164" s="71" t="s">
+      <c r="F164" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="G164" s="71" t="s">
+      <c r="G164" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="H164" s="45" t="s">
+      <c r="H164" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I164" s="35" t="s">
+      <c r="I164" s="24" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A165" s="21"/>
-      <c r="B165" s="35"/>
-      <c r="C165" s="36"/>
-      <c r="D165" s="71" t="s">
+      <c r="A165" s="35"/>
+      <c r="B165" s="24"/>
+      <c r="C165" s="25"/>
+      <c r="D165" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="E165" s="71"/>
-      <c r="F165" s="71"/>
-      <c r="G165" s="71"/>
-      <c r="H165" s="45"/>
-      <c r="I165" s="35"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="36"/>
+      <c r="I165" s="24"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166" s="21"/>
-      <c r="B166" s="39" t="s">
+      <c r="A166" s="35"/>
+      <c r="B166" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="C166" s="40" t="s">
+      <c r="C166" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="D166" s="75" t="s">
+      <c r="D166" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="E166" s="75" t="s">
+      <c r="E166" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="F166" s="75" t="s">
+      <c r="F166" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="G166" s="75" t="s">
+      <c r="G166" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="H166" s="45" t="s">
+      <c r="H166" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I166" s="39" t="s">
+      <c r="I166" s="30" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="22"/>
-      <c r="B167" s="39"/>
-      <c r="C167" s="40"/>
-      <c r="D167" s="75" t="s">
+      <c r="A167" s="40"/>
+      <c r="B167" s="30"/>
+      <c r="C167" s="31"/>
+      <c r="D167" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="E167" s="76"/>
-      <c r="F167" s="76"/>
-      <c r="G167" s="76"/>
-      <c r="H167" s="45"/>
-      <c r="I167" s="39"/>
+      <c r="E167" s="23"/>
+      <c r="F167" s="23"/>
+      <c r="G167" s="23"/>
+      <c r="H167" s="36"/>
+      <c r="I167" s="30"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A168" s="20" t="s">
+      <c r="A168" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="B168" s="35" t="s">
+      <c r="B168" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="C168" s="36" t="s">
+      <c r="C168" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="D168" s="71" t="s">
+      <c r="D168" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="E168" s="71" t="s">
+      <c r="E168" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="F168" s="71" t="s">
+      <c r="F168" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="G168" s="71" t="s">
+      <c r="G168" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="H168" s="45" t="s">
+      <c r="H168" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I168" s="35" t="s">
+      <c r="I168" s="24" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A169" s="21"/>
-      <c r="B169" s="35"/>
-      <c r="C169" s="36"/>
-      <c r="D169" s="71" t="s">
+      <c r="A169" s="35"/>
+      <c r="B169" s="24"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="E169" s="71"/>
-      <c r="F169" s="71"/>
-      <c r="G169" s="71"/>
-      <c r="H169" s="45"/>
-      <c r="I169" s="35"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="20"/>
+      <c r="H169" s="36"/>
+      <c r="I169" s="24"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A170" s="21"/>
-      <c r="B170" s="39" t="s">
+      <c r="A170" s="35"/>
+      <c r="B170" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="C170" s="40" t="s">
+      <c r="C170" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="D170" s="75" t="s">
+      <c r="D170" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="E170" s="75" t="s">
+      <c r="E170" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="F170" s="75" t="s">
+      <c r="F170" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="G170" s="75" t="s">
+      <c r="G170" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="H170" s="45" t="s">
+      <c r="H170" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I170" s="39" t="s">
+      <c r="I170" s="30" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="22"/>
-      <c r="B171" s="39"/>
-      <c r="C171" s="40"/>
-      <c r="D171" s="75" t="s">
+      <c r="A171" s="40"/>
+      <c r="B171" s="30"/>
+      <c r="C171" s="31"/>
+      <c r="D171" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="E171" s="76"/>
-      <c r="F171" s="76"/>
-      <c r="G171" s="76"/>
-      <c r="H171" s="45"/>
-      <c r="I171" s="39"/>
+      <c r="E171" s="23"/>
+      <c r="F171" s="23"/>
+      <c r="G171" s="23"/>
+      <c r="H171" s="36"/>
+      <c r="I171" s="30"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A172" s="20" t="s">
+      <c r="A172" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="B172" s="35" t="s">
+      <c r="B172" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C172" s="36" t="s">
+      <c r="C172" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="D172" s="71" t="s">
+      <c r="D172" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="E172" s="71" t="s">
+      <c r="E172" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="F172" s="71" t="s">
+      <c r="F172" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="G172" s="71" t="s">
+      <c r="G172" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="H172" s="45" t="s">
+      <c r="H172" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I172" s="35" t="s">
+      <c r="I172" s="24" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173" s="21"/>
-      <c r="B173" s="35"/>
-      <c r="C173" s="36"/>
-      <c r="D173" s="71" t="s">
+      <c r="A173" s="35"/>
+      <c r="B173" s="24"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="E173" s="71"/>
-      <c r="F173" s="71"/>
-      <c r="G173" s="71"/>
-      <c r="H173" s="45"/>
-      <c r="I173" s="35"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="20"/>
+      <c r="H173" s="36"/>
+      <c r="I173" s="24"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A174" s="21"/>
-      <c r="B174" s="39" t="s">
+      <c r="A174" s="35"/>
+      <c r="B174" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="C174" s="40" t="s">
+      <c r="C174" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="D174" s="75" t="s">
+      <c r="D174" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="E174" s="75" t="s">
+      <c r="E174" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="F174" s="75" t="s">
+      <c r="F174" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="G174" s="75" t="s">
+      <c r="G174" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="H174" s="45" t="s">
+      <c r="H174" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I174" s="39" t="s">
+      <c r="I174" s="30" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="22"/>
-      <c r="B175" s="39"/>
-      <c r="C175" s="40"/>
-      <c r="D175" s="75" t="s">
+      <c r="A175" s="40"/>
+      <c r="B175" s="30"/>
+      <c r="C175" s="31"/>
+      <c r="D175" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="E175" s="76"/>
-      <c r="F175" s="76"/>
-      <c r="G175" s="76"/>
-      <c r="H175" s="45"/>
-      <c r="I175" s="39"/>
+      <c r="E175" s="23"/>
+      <c r="F175" s="23"/>
+      <c r="G175" s="23"/>
+      <c r="H175" s="36"/>
+      <c r="I175" s="30"/>
     </row>
     <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="20" t="s">
+      <c r="A176" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="B176" s="35" t="s">
+      <c r="B176" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C176" s="36" t="s">
+      <c r="C176" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="D176" s="71" t="s">
+      <c r="D176" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="E176" s="71" t="s">
+      <c r="E176" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="F176" s="71" t="s">
+      <c r="F176" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="G176" s="71" t="s">
+      <c r="G176" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="H176" s="45" t="s">
+      <c r="H176" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I176" s="35" t="s">
+      <c r="I176" s="24" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A177" s="21"/>
-      <c r="B177" s="35"/>
-      <c r="C177" s="36"/>
-      <c r="D177" s="71" t="s">
+      <c r="A177" s="35"/>
+      <c r="B177" s="24"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="E177" s="71"/>
-      <c r="F177" s="71"/>
-      <c r="G177" s="71"/>
-      <c r="H177" s="45"/>
-      <c r="I177" s="35"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="20"/>
+      <c r="H177" s="36"/>
+      <c r="I177" s="24"/>
     </row>
     <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="21"/>
-      <c r="B178" s="39" t="s">
+      <c r="A178" s="35"/>
+      <c r="B178" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="C178" s="40" t="s">
+      <c r="C178" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="D178" s="75" t="s">
+      <c r="D178" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="E178" s="75" t="s">
+      <c r="E178" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="F178" s="75" t="s">
+      <c r="F178" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="G178" s="75" t="s">
+      <c r="G178" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="H178" s="45" t="s">
+      <c r="H178" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I178" s="39" t="s">
+      <c r="I178" s="30" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="22"/>
-      <c r="B179" s="39"/>
-      <c r="C179" s="40"/>
-      <c r="D179" s="75" t="s">
+      <c r="A179" s="40"/>
+      <c r="B179" s="30"/>
+      <c r="C179" s="31"/>
+      <c r="D179" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="E179" s="76"/>
-      <c r="F179" s="76"/>
-      <c r="G179" s="76"/>
-      <c r="H179" s="45"/>
-      <c r="I179" s="39"/>
+      <c r="E179" s="23"/>
+      <c r="F179" s="23"/>
+      <c r="G179" s="23"/>
+      <c r="H179" s="36"/>
+      <c r="I179" s="30"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A180" s="20" t="s">
+      <c r="A180" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="B180" s="35" t="s">
+      <c r="B180" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="C180" s="36" t="s">
+      <c r="C180" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="D180" s="71" t="s">
+      <c r="D180" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="E180" s="71" t="s">
+      <c r="E180" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="F180" s="71" t="s">
+      <c r="F180" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G180" s="71" t="s">
+      <c r="G180" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H180" s="45" t="s">
+      <c r="H180" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I180" s="35" t="s">
+      <c r="I180" s="24" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A181" s="21"/>
-      <c r="B181" s="35"/>
-      <c r="C181" s="36"/>
-      <c r="D181" s="71" t="s">
+      <c r="A181" s="35"/>
+      <c r="B181" s="24"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="E181" s="71"/>
-      <c r="F181" s="71"/>
-      <c r="G181" s="71"/>
-      <c r="H181" s="45"/>
-      <c r="I181" s="35"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="20"/>
+      <c r="H181" s="36"/>
+      <c r="I181" s="24"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A182" s="21"/>
-      <c r="B182" s="39" t="s">
+      <c r="A182" s="35"/>
+      <c r="B182" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="C182" s="40" t="s">
+      <c r="C182" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="D182" s="75" t="s">
+      <c r="D182" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="E182" s="75" t="s">
+      <c r="E182" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F182" s="75" t="s">
+      <c r="F182" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G182" s="75" t="s">
+      <c r="G182" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H182" s="45" t="s">
+      <c r="H182" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="I182" s="39" t="s">
+      <c r="I182" s="30" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="21"/>
-      <c r="B183" s="39"/>
-      <c r="C183" s="40"/>
-      <c r="D183" s="75" t="s">
+      <c r="A183" s="35"/>
+      <c r="B183" s="30"/>
+      <c r="C183" s="31"/>
+      <c r="D183" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="E183" s="76"/>
-      <c r="F183" s="76"/>
-      <c r="G183" s="76"/>
-      <c r="H183" s="45"/>
-      <c r="I183" s="39"/>
+      <c r="E183" s="23"/>
+      <c r="F183" s="23"/>
+      <c r="G183" s="23"/>
+      <c r="H183" s="36"/>
+      <c r="I183" s="30"/>
     </row>
     <row r="184" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="46" t="s">
+      <c r="A184" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="B184" s="35" t="s">
+      <c r="B184" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="C184" s="36" t="s">
+      <c r="C184" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="D184" s="71" t="s">
+      <c r="D184" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E184" s="71" t="s">
+      <c r="E184" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="F184" s="71" t="s">
+      <c r="F184" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="G184" s="71"/>
-      <c r="H184" s="71"/>
-      <c r="I184" s="71"/>
+      <c r="G184" s="20"/>
+      <c r="H184" s="20"/>
+      <c r="I184" s="20"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185" s="47"/>
-      <c r="B185" s="35"/>
-      <c r="C185" s="36"/>
-      <c r="D185" s="71" t="s">
+      <c r="A185" s="33"/>
+      <c r="B185" s="24"/>
+      <c r="C185" s="25"/>
+      <c r="D185" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="E185" s="71" t="s">
+      <c r="E185" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="F185" s="71"/>
-      <c r="G185" s="71"/>
-      <c r="H185" s="71"/>
-      <c r="I185" s="71"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="20"/>
+      <c r="H185" s="20"/>
+      <c r="I185" s="20"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" s="47"/>
-      <c r="B186" s="35"/>
-      <c r="C186" s="36"/>
-      <c r="D186" s="71" t="s">
+      <c r="A186" s="33"/>
+      <c r="B186" s="24"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E186" s="71"/>
-      <c r="F186" s="71"/>
-      <c r="G186" s="71"/>
-      <c r="H186" s="71"/>
-      <c r="I186" s="71"/>
+      <c r="E186" s="20"/>
+      <c r="F186" s="20"/>
+      <c r="G186" s="20"/>
+      <c r="H186" s="20"/>
+      <c r="I186" s="20"/>
     </row>
     <row r="187" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="47"/>
-      <c r="B187" s="72" t="s">
+      <c r="A187" s="33"/>
+      <c r="B187" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="C187" s="73" t="s">
+      <c r="C187" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="D187" s="74" t="s">
+      <c r="D187" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="E187" s="74" t="s">
+      <c r="E187" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="F187" s="74" t="s">
+      <c r="F187" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="G187" s="74"/>
-      <c r="H187" s="74"/>
-      <c r="I187" s="74"/>
+      <c r="G187" s="21"/>
+      <c r="H187" s="21"/>
+      <c r="I187" s="21"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A188" s="47"/>
-      <c r="B188" s="72"/>
-      <c r="C188" s="73"/>
-      <c r="D188" s="74" t="s">
+      <c r="A188" s="33"/>
+      <c r="B188" s="26"/>
+      <c r="C188" s="28"/>
+      <c r="D188" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E188" s="74" t="s">
+      <c r="E188" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F188" s="74"/>
-      <c r="G188" s="74"/>
-      <c r="H188" s="74"/>
-      <c r="I188" s="74"/>
+      <c r="F188" s="21"/>
+      <c r="G188" s="21"/>
+      <c r="H188" s="21"/>
+      <c r="I188" s="21"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A189" s="47"/>
-      <c r="B189" s="78"/>
-      <c r="C189" s="79"/>
+      <c r="A189" s="33"/>
+      <c r="B189" s="27"/>
+      <c r="C189" s="29"/>
       <c r="D189" s="12" t="s">
         <v>210</v>
       </c>
@@ -5721,406 +5783,406 @@
       <c r="I189" s="12"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A190" s="39" t="s">
+      <c r="A190" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="B190" s="35" t="s">
+      <c r="B190" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="C190" s="36" t="s">
+      <c r="C190" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="D190" s="71" t="s">
+      <c r="D190" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="E190" s="71" t="s">
+      <c r="E190" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="F190" s="71" t="s">
+      <c r="F190" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="G190" s="71"/>
-      <c r="H190" s="71"/>
-      <c r="I190" s="71"/>
+      <c r="G190" s="20"/>
+      <c r="H190" s="20"/>
+      <c r="I190" s="20"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A191" s="39"/>
-      <c r="B191" s="35"/>
-      <c r="C191" s="36"/>
-      <c r="D191" s="71" t="s">
+      <c r="A191" s="30"/>
+      <c r="B191" s="24"/>
+      <c r="C191" s="25"/>
+      <c r="D191" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="E191" s="71" t="s">
+      <c r="E191" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="F191" s="71"/>
-      <c r="G191" s="71"/>
-      <c r="H191" s="71"/>
-      <c r="I191" s="71"/>
+      <c r="F191" s="20"/>
+      <c r="G191" s="20"/>
+      <c r="H191" s="20"/>
+      <c r="I191" s="20"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A192" s="39"/>
-      <c r="B192" s="35"/>
-      <c r="C192" s="36"/>
-      <c r="D192" s="71" t="s">
+      <c r="A192" s="30"/>
+      <c r="B192" s="24"/>
+      <c r="C192" s="25"/>
+      <c r="D192" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E192" s="71"/>
-      <c r="F192" s="71"/>
-      <c r="G192" s="71"/>
-      <c r="H192" s="71"/>
-      <c r="I192" s="71"/>
+      <c r="E192" s="20"/>
+      <c r="F192" s="20"/>
+      <c r="G192" s="20"/>
+      <c r="H192" s="20"/>
+      <c r="I192" s="20"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193" s="39"/>
-      <c r="B193" s="39" t="s">
+      <c r="A193" s="30"/>
+      <c r="B193" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="C193" s="40" t="s">
+      <c r="C193" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="D193" s="74" t="s">
+      <c r="D193" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="E193" s="74" t="s">
+      <c r="E193" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="F193" s="76" t="s">
+      <c r="F193" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="G193" s="76"/>
-      <c r="H193" s="76"/>
-      <c r="I193" s="76"/>
+      <c r="G193" s="23"/>
+      <c r="H193" s="23"/>
+      <c r="I193" s="23"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A194" s="39"/>
-      <c r="B194" s="39"/>
-      <c r="C194" s="40"/>
-      <c r="D194" s="74" t="s">
+      <c r="A194" s="30"/>
+      <c r="B194" s="30"/>
+      <c r="C194" s="31"/>
+      <c r="D194" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="E194" s="74" t="s">
+      <c r="E194" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="F194" s="76"/>
-      <c r="G194" s="76"/>
-      <c r="H194" s="76"/>
-      <c r="I194" s="76"/>
+      <c r="F194" s="23"/>
+      <c r="G194" s="23"/>
+      <c r="H194" s="23"/>
+      <c r="I194" s="23"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A195" s="39"/>
-      <c r="B195" s="39"/>
-      <c r="C195" s="40"/>
-      <c r="D195" s="74" t="s">
+      <c r="A195" s="30"/>
+      <c r="B195" s="30"/>
+      <c r="C195" s="31"/>
+      <c r="D195" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="E195" s="76"/>
-      <c r="F195" s="76"/>
-      <c r="G195" s="76"/>
-      <c r="H195" s="76"/>
-      <c r="I195" s="76"/>
+      <c r="E195" s="23"/>
+      <c r="F195" s="23"/>
+      <c r="G195" s="23"/>
+      <c r="H195" s="23"/>
+      <c r="I195" s="23"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A196" s="39" t="s">
+      <c r="A196" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="B196" s="35" t="s">
+      <c r="B196" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="C196" s="36" t="s">
+      <c r="C196" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="D196" s="71" t="s">
+      <c r="D196" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="E196" s="71" t="s">
+      <c r="E196" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="F196" s="71" t="s">
+      <c r="F196" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="G196" s="71"/>
-      <c r="H196" s="71"/>
-      <c r="I196" s="71"/>
+      <c r="G196" s="20"/>
+      <c r="H196" s="20"/>
+      <c r="I196" s="20"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A197" s="39"/>
-      <c r="B197" s="35"/>
-      <c r="C197" s="36"/>
-      <c r="D197" s="71" t="s">
+      <c r="A197" s="30"/>
+      <c r="B197" s="24"/>
+      <c r="C197" s="25"/>
+      <c r="D197" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="E197" s="71" t="s">
+      <c r="E197" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="F197" s="71"/>
-      <c r="G197" s="71"/>
-      <c r="H197" s="71"/>
-      <c r="I197" s="71"/>
+      <c r="F197" s="20"/>
+      <c r="G197" s="20"/>
+      <c r="H197" s="20"/>
+      <c r="I197" s="20"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A198" s="39"/>
-      <c r="B198" s="35"/>
-      <c r="C198" s="36"/>
-      <c r="D198" s="71" t="s">
+      <c r="A198" s="30"/>
+      <c r="B198" s="24"/>
+      <c r="C198" s="25"/>
+      <c r="D198" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E198" s="71"/>
-      <c r="F198" s="71"/>
-      <c r="G198" s="71"/>
-      <c r="H198" s="71"/>
-      <c r="I198" s="71"/>
+      <c r="E198" s="20"/>
+      <c r="F198" s="20"/>
+      <c r="G198" s="20"/>
+      <c r="H198" s="20"/>
+      <c r="I198" s="20"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A199" s="39"/>
-      <c r="B199" s="39" t="s">
+      <c r="A199" s="30"/>
+      <c r="B199" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="C199" s="40" t="s">
+      <c r="C199" s="31" t="s">
         <v>399</v>
       </c>
-      <c r="D199" s="74" t="s">
+      <c r="D199" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="E199" s="76" t="s">
+      <c r="E199" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="F199" s="76" t="s">
+      <c r="F199" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="G199" s="76"/>
-      <c r="H199" s="76"/>
-      <c r="I199" s="76"/>
+      <c r="G199" s="23"/>
+      <c r="H199" s="23"/>
+      <c r="I199" s="23"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A200" s="39"/>
-      <c r="B200" s="39"/>
-      <c r="C200" s="40"/>
-      <c r="D200" s="74" t="s">
+      <c r="A200" s="30"/>
+      <c r="B200" s="30"/>
+      <c r="C200" s="31"/>
+      <c r="D200" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="E200" s="76" t="s">
+      <c r="E200" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="F200" s="76"/>
-      <c r="G200" s="76"/>
-      <c r="H200" s="76"/>
-      <c r="I200" s="76"/>
+      <c r="F200" s="23"/>
+      <c r="G200" s="23"/>
+      <c r="H200" s="23"/>
+      <c r="I200" s="23"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A201" s="39"/>
-      <c r="B201" s="39"/>
-      <c r="C201" s="40"/>
-      <c r="D201" s="74" t="s">
+      <c r="A201" s="30"/>
+      <c r="B201" s="30"/>
+      <c r="C201" s="31"/>
+      <c r="D201" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="E201" s="76"/>
-      <c r="F201" s="76"/>
-      <c r="G201" s="76"/>
-      <c r="H201" s="76"/>
-      <c r="I201" s="76"/>
+      <c r="E201" s="23"/>
+      <c r="F201" s="23"/>
+      <c r="G201" s="23"/>
+      <c r="H201" s="23"/>
+      <c r="I201" s="23"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A202" s="39" t="s">
+      <c r="A202" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="B202" s="35" t="s">
+      <c r="B202" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="C202" s="36" t="s">
+      <c r="C202" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="D202" s="71" t="s">
+      <c r="D202" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="E202" s="71" t="s">
+      <c r="E202" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="F202" s="71" t="s">
+      <c r="F202" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G202" s="71"/>
-      <c r="H202" s="71"/>
-      <c r="I202" s="71"/>
+      <c r="G202" s="20"/>
+      <c r="H202" s="20"/>
+      <c r="I202" s="20"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A203" s="39"/>
-      <c r="B203" s="35"/>
-      <c r="C203" s="36"/>
-      <c r="D203" s="71" t="s">
+      <c r="A203" s="30"/>
+      <c r="B203" s="24"/>
+      <c r="C203" s="25"/>
+      <c r="D203" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="E203" s="71"/>
-      <c r="F203" s="71"/>
-      <c r="G203" s="71"/>
-      <c r="H203" s="71"/>
-      <c r="I203" s="71"/>
+      <c r="E203" s="20"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="20"/>
+      <c r="H203" s="20"/>
+      <c r="I203" s="20"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A204" s="39"/>
-      <c r="B204" s="39" t="s">
+      <c r="A204" s="30"/>
+      <c r="B204" s="30" t="s">
         <v>378</v>
       </c>
-      <c r="C204" s="40" t="s">
+      <c r="C204" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="D204" s="74" t="s">
+      <c r="D204" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="E204" s="76" t="s">
+      <c r="E204" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F204" s="76" t="s">
+      <c r="F204" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G204" s="76"/>
-      <c r="H204" s="76"/>
-      <c r="I204" s="76"/>
+      <c r="G204" s="23"/>
+      <c r="H204" s="23"/>
+      <c r="I204" s="23"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A205" s="39"/>
-      <c r="B205" s="39"/>
-      <c r="C205" s="40"/>
-      <c r="D205" s="74" t="s">
+      <c r="A205" s="30"/>
+      <c r="B205" s="30"/>
+      <c r="C205" s="31"/>
+      <c r="D205" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="E205" s="76"/>
-      <c r="F205" s="76"/>
-      <c r="G205" s="76"/>
-      <c r="H205" s="76"/>
-      <c r="I205" s="76"/>
+      <c r="E205" s="23"/>
+      <c r="F205" s="23"/>
+      <c r="G205" s="23"/>
+      <c r="H205" s="23"/>
+      <c r="I205" s="23"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A206" s="39" t="s">
+      <c r="A206" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="B206" s="35" t="s">
+      <c r="B206" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="C206" s="36" t="s">
+      <c r="C206" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="D206" s="71" t="s">
+      <c r="D206" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="E206" s="71" t="s">
+      <c r="E206" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="F206" s="71" t="s">
+      <c r="F206" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="G206" s="71"/>
-      <c r="H206" s="71"/>
-      <c r="I206" s="71"/>
+      <c r="G206" s="20"/>
+      <c r="H206" s="20"/>
+      <c r="I206" s="20"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A207" s="39"/>
-      <c r="B207" s="35"/>
-      <c r="C207" s="36"/>
-      <c r="D207" s="71" t="s">
+      <c r="A207" s="30"/>
+      <c r="B207" s="24"/>
+      <c r="C207" s="25"/>
+      <c r="D207" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="E207" s="71"/>
-      <c r="F207" s="71"/>
-      <c r="G207" s="71"/>
-      <c r="H207" s="71"/>
-      <c r="I207" s="71"/>
+      <c r="E207" s="20"/>
+      <c r="F207" s="20"/>
+      <c r="G207" s="20"/>
+      <c r="H207" s="20"/>
+      <c r="I207" s="20"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A208" s="39"/>
-      <c r="B208" s="39" t="s">
+      <c r="A208" s="30"/>
+      <c r="B208" s="30" t="s">
         <v>382</v>
       </c>
-      <c r="C208" s="40" t="s">
+      <c r="C208" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="D208" s="74" t="s">
+      <c r="D208" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="E208" s="76" t="s">
+      <c r="E208" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="F208" s="76" t="s">
+      <c r="F208" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="G208" s="76"/>
-      <c r="H208" s="76"/>
-      <c r="I208" s="76"/>
+      <c r="G208" s="23"/>
+      <c r="H208" s="23"/>
+      <c r="I208" s="23"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A209" s="39"/>
-      <c r="B209" s="39"/>
-      <c r="C209" s="40"/>
-      <c r="D209" s="74" t="s">
+      <c r="A209" s="30"/>
+      <c r="B209" s="30"/>
+      <c r="C209" s="31"/>
+      <c r="D209" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="E209" s="76"/>
-      <c r="F209" s="76"/>
-      <c r="G209" s="76"/>
-      <c r="H209" s="76"/>
-      <c r="I209" s="76"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A210" s="77" t="s">
+      <c r="E209" s="23"/>
+      <c r="F209" s="23"/>
+      <c r="G209" s="23"/>
+      <c r="H209" s="23"/>
+      <c r="I209" s="23"/>
+    </row>
+    <row r="210" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="78" t="s">
         <v>388</v>
       </c>
-      <c r="B210" s="35" t="s">
+      <c r="B210" s="62" t="s">
         <v>389</v>
       </c>
-      <c r="C210" s="36" t="s">
+      <c r="C210" s="81" t="s">
         <v>404</v>
       </c>
-      <c r="D210" s="71" t="s">
+      <c r="D210" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="E210" s="71" t="s">
+      <c r="E210" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="F210" s="71" t="s">
+      <c r="F210" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="G210" s="71"/>
-      <c r="H210" s="71"/>
-      <c r="I210" s="71"/>
+      <c r="G210" s="20"/>
+      <c r="H210" s="20"/>
+      <c r="I210" s="20"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A211" s="70"/>
-      <c r="B211" s="35"/>
-      <c r="C211" s="36"/>
-      <c r="D211" s="71" t="s">
+      <c r="A211" s="79"/>
+      <c r="B211" s="64"/>
+      <c r="C211" s="82"/>
+      <c r="D211" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="E211" s="71"/>
-      <c r="F211" s="71"/>
-      <c r="G211" s="71"/>
-      <c r="H211" s="71"/>
-      <c r="I211" s="71"/>
+      <c r="E211" s="20"/>
+      <c r="F211" s="20"/>
+      <c r="G211" s="20"/>
+      <c r="H211" s="20"/>
+      <c r="I211" s="20"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A212" s="70"/>
-      <c r="B212" s="72" t="s">
+      <c r="A212" s="79"/>
+      <c r="B212" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="C212" s="73" t="s">
+      <c r="C212" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="D212" s="74" t="s">
+      <c r="D212" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="E212" s="74" t="s">
+      <c r="E212" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="F212" s="74" t="s">
-        <v>407</v>
-      </c>
-      <c r="G212" s="74"/>
-      <c r="H212" s="74"/>
-      <c r="I212" s="74"/>
+      <c r="F212" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="G212" s="21"/>
+      <c r="H212" s="21"/>
+      <c r="I212" s="21"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A213" s="70"/>
-      <c r="B213" s="78"/>
-      <c r="C213" s="79"/>
+      <c r="A213" s="80"/>
+      <c r="B213" s="27"/>
+      <c r="C213" s="29"/>
       <c r="D213" s="12" t="s">
         <v>391</v>
       </c>
@@ -6131,331 +6193,266 @@
       <c r="I213" s="12"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A214" s="39" t="s">
+      <c r="A214" s="78" t="s">
+        <v>407</v>
+      </c>
+      <c r="B214" s="62" t="s">
+        <v>409</v>
+      </c>
+      <c r="C214" s="81" t="s">
+        <v>411</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F214" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="G214" s="7"/>
+      <c r="H214" s="7"/>
+      <c r="I214" s="7"/>
+    </row>
+    <row r="215" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="79"/>
+      <c r="B215" s="63"/>
+      <c r="C215" s="83"/>
+      <c r="D215" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="E215" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="F215" s="20"/>
+      <c r="G215" s="20"/>
+      <c r="H215" s="20"/>
+      <c r="I215" s="20"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216" s="79"/>
+      <c r="B216" s="64"/>
+      <c r="C216" s="82"/>
+      <c r="D216" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="E216" s="20"/>
+      <c r="F216" s="20"/>
+      <c r="G216" s="20"/>
+      <c r="H216" s="20"/>
+      <c r="I216" s="20"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217" s="79"/>
+      <c r="B217" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="C217" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="D217" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="E217" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="F217" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="G217" s="21"/>
+      <c r="H217" s="21"/>
+      <c r="I217" s="21"/>
+    </row>
+    <row r="218" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="79"/>
+      <c r="B218" s="84"/>
+      <c r="C218" s="85"/>
+      <c r="D218" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="E218" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="F218" s="86"/>
+      <c r="G218" s="21"/>
+      <c r="H218" s="21"/>
+      <c r="I218" s="21"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" s="80"/>
+      <c r="B219" s="87"/>
+      <c r="C219" s="88"/>
+      <c r="D219" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="E219" s="21"/>
+      <c r="F219" s="21"/>
+      <c r="G219" s="21"/>
+      <c r="H219" s="21"/>
+      <c r="I219" s="21"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" s="30" t="s">
         <v>408</v>
       </c>
-      <c r="B214" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="C214" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="D214" s="71" t="s">
-        <v>383</v>
-      </c>
-      <c r="E214" s="71" t="s">
-        <v>365</v>
-      </c>
-      <c r="F214" s="71" t="s">
+      <c r="B220" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="G214" s="71"/>
-      <c r="H214" s="71"/>
-      <c r="I214" s="71"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A215" s="39"/>
-      <c r="B215" s="35"/>
-      <c r="C215" s="36"/>
-      <c r="D215" s="71" t="s">
-        <v>413</v>
-      </c>
-      <c r="E215" s="71"/>
-      <c r="F215" s="71"/>
-      <c r="G215" s="71"/>
-      <c r="H215" s="71"/>
-      <c r="I215" s="71"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A216" s="39"/>
-      <c r="B216" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="C216" s="40" t="s">
+      <c r="C220" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="D216" s="74" t="s">
-        <v>385</v>
-      </c>
-      <c r="E216" s="76" t="s">
-        <v>368</v>
-      </c>
-      <c r="F216" s="76" t="s">
+      <c r="D220" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="G216" s="76"/>
-      <c r="H216" s="76"/>
-      <c r="I216" s="76"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A217" s="39"/>
-      <c r="B217" s="39"/>
-      <c r="C217" s="40"/>
-      <c r="D217" s="74" t="s">
-        <v>413</v>
-      </c>
-      <c r="E217" s="76"/>
-      <c r="F217" s="76"/>
-      <c r="G217" s="76"/>
-      <c r="H217" s="76"/>
-      <c r="I217" s="76"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A218" s="39" t="s">
-        <v>409</v>
-      </c>
-      <c r="B218" s="35" t="s">
+      <c r="E220" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="F220" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="G220" s="20"/>
+      <c r="H220" s="20"/>
+      <c r="I220" s="20"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" s="30"/>
+      <c r="B221" s="24"/>
+      <c r="C221" s="25"/>
+      <c r="D221" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="C218" s="36" t="s">
-        <v>418</v>
-      </c>
-      <c r="D218" s="71" t="s">
-        <v>419</v>
-      </c>
-      <c r="E218" s="71" t="s">
+      <c r="E221" s="20"/>
+      <c r="F221" s="20"/>
+      <c r="G221" s="20"/>
+      <c r="H221" s="20"/>
+      <c r="I221" s="20"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222" s="30"/>
+      <c r="B222" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="C222" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="F218" s="71" t="s">
+      <c r="D222" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="G218" s="71"/>
-      <c r="H218" s="71"/>
-      <c r="I218" s="71"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A219" s="39"/>
-      <c r="B219" s="35"/>
-      <c r="C219" s="36"/>
-      <c r="D219" s="71" t="s">
-        <v>420</v>
-      </c>
-      <c r="E219" s="71"/>
-      <c r="F219" s="71"/>
-      <c r="G219" s="71"/>
-      <c r="H219" s="71"/>
-      <c r="I219" s="71"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A220" s="39"/>
-      <c r="B220" s="39" t="s">
+      <c r="E222" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="C220" s="40" t="s">
+      <c r="F222" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="D220" s="74" t="s">
-        <v>425</v>
-      </c>
-      <c r="E220" s="76" t="s">
-        <v>426</v>
-      </c>
-      <c r="F220" s="76" t="s">
-        <v>427</v>
-      </c>
-      <c r="G220" s="76"/>
-      <c r="H220" s="76"/>
-      <c r="I220" s="76"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A221" s="39"/>
-      <c r="B221" s="39"/>
-      <c r="C221" s="40"/>
-      <c r="D221" s="74" t="s">
-        <v>420</v>
-      </c>
-      <c r="E221" s="76"/>
-      <c r="F221" s="76"/>
-      <c r="G221" s="76"/>
-      <c r="H221" s="76"/>
-      <c r="I221" s="76"/>
+      <c r="G222" s="23"/>
+      <c r="H222" s="23"/>
+      <c r="I222" s="23"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223" s="30"/>
+      <c r="B223" s="30"/>
+      <c r="C223" s="31"/>
+      <c r="D223" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="E223" s="23"/>
+      <c r="F223" s="23"/>
+      <c r="G223" s="23"/>
+      <c r="H223" s="23"/>
+      <c r="I223" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="307">
-    <mergeCell ref="A210:A213"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="A214:A217"/>
-    <mergeCell ref="A218:A221"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="C190:C192"/>
-    <mergeCell ref="B190:B192"/>
-    <mergeCell ref="B193:B195"/>
-    <mergeCell ref="C193:C195"/>
-    <mergeCell ref="A190:A195"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="C196:C198"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="A196:A201"/>
-    <mergeCell ref="A184:A189"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="C184:C186"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="A180:A183"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="H180:H181"/>
-    <mergeCell ref="I180:I181"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="H182:H183"/>
-    <mergeCell ref="I182:I183"/>
-    <mergeCell ref="A116:A121"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="H116:H118"/>
-    <mergeCell ref="I116:I118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="H119:H121"/>
-    <mergeCell ref="I119:I121"/>
-    <mergeCell ref="A110:A115"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="H110:H112"/>
-    <mergeCell ref="I110:I112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="H113:H115"/>
-    <mergeCell ref="I113:I115"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="I104:I106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="H107:H109"/>
-    <mergeCell ref="I107:I109"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="H98:H100"/>
-    <mergeCell ref="I98:I100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="H101:H103"/>
-    <mergeCell ref="I101:I103"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="I95:I97"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="I74:I76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="H77:H79"/>
-    <mergeCell ref="I77:I79"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A176:A179"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="H176:H177"/>
+    <mergeCell ref="I176:I177"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="H178:H179"/>
+    <mergeCell ref="I178:I179"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="H172:H173"/>
+    <mergeCell ref="I172:I173"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="H174:H175"/>
+    <mergeCell ref="I174:I175"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="I166:I167"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="H168:H169"/>
+    <mergeCell ref="I168:I169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="H164:H165"/>
+    <mergeCell ref="I164:I165"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="H160:H161"/>
+    <mergeCell ref="I160:I161"/>
+    <mergeCell ref="I162:I163"/>
+    <mergeCell ref="H162:H163"/>
+    <mergeCell ref="A154:A159"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="H154:H156"/>
+    <mergeCell ref="I154:I156"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="H157:H159"/>
+    <mergeCell ref="I157:I159"/>
+    <mergeCell ref="A148:A153"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="H148:H150"/>
+    <mergeCell ref="I148:I150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="H151:H153"/>
+    <mergeCell ref="I151:I153"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="H142:H144"/>
+    <mergeCell ref="H145:H147"/>
+    <mergeCell ref="I145:I147"/>
+    <mergeCell ref="I142:I144"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="H122:H126"/>
+    <mergeCell ref="I122:I126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="H127:H131"/>
+    <mergeCell ref="I127:I131"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="C132:C136"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="H26:H28"/>
     <mergeCell ref="I26:I28"/>
@@ -6480,18 +6477,148 @@
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="C14:C17"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="H98:H100"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="I101:I103"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="H107:H109"/>
+    <mergeCell ref="I107:I109"/>
+    <mergeCell ref="A110:A115"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="H110:H112"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="H113:H115"/>
+    <mergeCell ref="I113:I115"/>
+    <mergeCell ref="I180:I181"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="H182:H183"/>
+    <mergeCell ref="I182:I183"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="H116:H118"/>
+    <mergeCell ref="I116:I118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="H119:H121"/>
+    <mergeCell ref="I119:I121"/>
     <mergeCell ref="H132:H136"/>
     <mergeCell ref="I132:I136"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
     <mergeCell ref="B137:B141"/>
     <mergeCell ref="C137:C141"/>
     <mergeCell ref="H137:H141"/>
@@ -6500,85 +6627,50 @@
     <mergeCell ref="B142:B144"/>
     <mergeCell ref="C142:C144"/>
     <mergeCell ref="B145:B147"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="A142:A147"/>
-    <mergeCell ref="H142:H144"/>
-    <mergeCell ref="H145:H147"/>
-    <mergeCell ref="I145:I147"/>
-    <mergeCell ref="I142:I144"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="H122:H126"/>
-    <mergeCell ref="I122:I126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="H127:H131"/>
-    <mergeCell ref="I127:I131"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="A148:A153"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="H148:H150"/>
-    <mergeCell ref="I148:I150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="H151:H153"/>
-    <mergeCell ref="I151:I153"/>
-    <mergeCell ref="A154:A159"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="H154:H156"/>
-    <mergeCell ref="I154:I156"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="H157:H159"/>
-    <mergeCell ref="I157:I159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="A160:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="H160:H161"/>
-    <mergeCell ref="I160:I161"/>
-    <mergeCell ref="I162:I163"/>
-    <mergeCell ref="H162:H163"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="H166:H167"/>
-    <mergeCell ref="I166:I167"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="H168:H169"/>
-    <mergeCell ref="I168:I169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="H164:H165"/>
-    <mergeCell ref="I164:I165"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="H172:H173"/>
-    <mergeCell ref="I172:I173"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="H174:H175"/>
-    <mergeCell ref="I174:I175"/>
-    <mergeCell ref="A176:A179"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="H176:H177"/>
-    <mergeCell ref="I176:I177"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="H178:H179"/>
-    <mergeCell ref="I178:I179"/>
+    <mergeCell ref="A184:A189"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="C184:C186"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="A180:A183"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="H180:H181"/>
+    <mergeCell ref="C190:C192"/>
+    <mergeCell ref="B190:B192"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="C193:C195"/>
+    <mergeCell ref="A190:A195"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="A196:A201"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="A210:A213"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="A220:A223"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="C222:C223"/>
+    <mergeCell ref="A214:A219"/>
+    <mergeCell ref="B214:B216"/>
+    <mergeCell ref="B217:B219"/>
+    <mergeCell ref="C214:C216"/>
+    <mergeCell ref="C217:C219"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6636,13 +6728,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="57" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="54" t="s">
         <v>321</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -6657,17 +6749,17 @@
       <c r="G2" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="74" t="s">
         <v>296</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="76" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="65"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="5" t="s">
         <v>323</v>
       </c>
@@ -6676,41 +6768,41 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="65"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="5" t="s">
         <v>324</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="72"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="66"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="6" t="s">
         <v>325</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="27"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="51" t="s">
         <v>330</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -6725,17 +6817,17 @@
       <c r="G6" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="68" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="58"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="14" t="s">
         <v>323</v>
       </c>
@@ -6744,41 +6836,41 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="54"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="69"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="58"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="14" t="s">
         <v>324</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="54"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="69"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="59"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="16" t="s">
         <v>331</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="56"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="77"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="62" t="s">
         <v>333</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="45" t="s">
         <v>334</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -6793,17 +6885,17 @@
       <c r="G10" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="71" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="61"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="5" t="s">
         <v>323</v>
       </c>
@@ -6812,41 +6904,41 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="72"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="61"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="5" t="s">
         <v>324</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="72"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="62"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="6" t="s">
         <v>335</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="27"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="51" t="s">
         <v>337</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -6861,17 +6953,17 @@
       <c r="G14" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="I14" s="53" t="s">
+      <c r="I14" s="68" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="58"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="14" t="s">
         <v>323</v>
       </c>
@@ -6880,41 +6972,41 @@
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="54"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="69"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="58"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="14" t="s">
         <v>324</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="54"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="69"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="59"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="16" t="s">
         <v>342</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="56"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="77"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="50" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="62" t="s">
         <v>344</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="45" t="s">
         <v>346</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -6929,17 +7021,17 @@
       <c r="G18" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="71" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="61"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="5" t="s">
         <v>323</v>
       </c>
@@ -6948,41 +7040,41 @@
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="72"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="61"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="5" t="s">
         <v>324</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="62"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="6" t="s">
         <v>351</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="27"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="73"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="28" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="51" t="s">
         <v>347</v>
       </c>
       <c r="D22" s="12" t="s">
@@ -6997,17 +7089,17 @@
       <c r="G22" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="I22" s="53" t="s">
+      <c r="I22" s="68" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="58"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="14" t="s">
         <v>323</v>
       </c>
@@ -7016,46 +7108,37 @@
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="54"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="69"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="58"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="14" t="s">
         <v>324</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="54"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="69"/>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="22"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="63"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="18" t="s">
         <v>350</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="55"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="I22:I25"/>
     <mergeCell ref="I18:I21"/>
@@ -7072,6 +7155,15 @@
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentation/Test Cases.xlsx
+++ b/Documentation/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010371\Documents\GitHub\axi2spi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE0B218-1240-4243-8481-81D0AEE0DD77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200202BD-E867-4B0D-96CD-E1081C07EDF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="439">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1263,21 +1263,12 @@
     <t>AXI_RD_07_2</t>
   </si>
   <si>
-    <t>reg_rdata_latch shall not be set to reg_rdata when reg_rack is not set</t>
-  </si>
-  <si>
     <t>reg_rdata_latch = no change</t>
   </si>
   <si>
-    <t>reg_rdata_latch shall be set to reg_rdata when reg_rack is set</t>
-  </si>
-  <si>
     <t>AXI_RD_08_1</t>
   </si>
   <si>
-    <t>S_AXI_RRESP shall be set to "00" when reg_rerror is not set</t>
-  </si>
-  <si>
     <t>1. Set reg_rerror to logic low.</t>
   </si>
   <si>
@@ -1293,9 +1284,6 @@
     <t>AXI_RD_08_2</t>
   </si>
   <si>
-    <t>S_AXI_RRESP shall be set to "01" when reg_rerror is set</t>
-  </si>
-  <si>
     <t>1. Set reg_rerror to logic high.</t>
   </si>
   <si>
@@ -1318,6 +1306,45 @@
   </si>
   <si>
     <t>S_AXI_RDATA = 0x"AAAAAAAA"</t>
+  </si>
+  <si>
+    <t>2. Wait one S_AXI_ACLK cycle.</t>
+  </si>
+  <si>
+    <t>3. Observe S_AXI_RVALID</t>
+  </si>
+  <si>
+    <t>S_AXI_RVALID = '0'</t>
+  </si>
+  <si>
+    <t>S_AXI_RVALID shall not be set after S_AXI_ACLK cycle when reg_rack is not set.</t>
+  </si>
+  <si>
+    <t>S_AXI_RRESP shall be set to "01" when reg_rerror is set.</t>
+  </si>
+  <si>
+    <t>S_AXI_RRESP shall be set to "00" when reg_rerror is not set.</t>
+  </si>
+  <si>
+    <t>reg_rdata_latch shall be set to reg_rdata when reg_rack is set.</t>
+  </si>
+  <si>
+    <t>reg_rdata_latch shall not be set to reg_rdata when reg_rack is not set.</t>
+  </si>
+  <si>
+    <t>AXI_RD_09_1</t>
+  </si>
+  <si>
+    <t>AXI_RD_09_2</t>
+  </si>
+  <si>
+    <t>S_AXI_RVALID shall be set after one S_AXI_ACLK cycle when reg_rack is set.</t>
+  </si>
+  <si>
+    <t>S_AXI_RVALID = '1'</t>
+  </si>
+  <si>
+    <t>AXI_RD_09</t>
   </si>
 </sst>
 </file>
@@ -1765,11 +1792,57 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1783,110 +1856,44 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1927,36 +1934,56 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2238,10 +2265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I223"/>
+  <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F212" sqref="F212"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D240" sqref="D240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2287,13 +2314,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="29" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="20" t="s">
@@ -2308,17 +2335,17 @@
       <c r="G2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="28" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="20" t="s">
         <v>22</v>
       </c>
@@ -2331,41 +2358,41 @@
       <c r="G3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="24"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="24"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="20" t="s">
         <v>295</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="24"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="30" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="32" t="s">
         <v>270</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -2380,17 +2407,17 @@
       <c r="G6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="31" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="23" t="s">
         <v>22</v>
       </c>
@@ -2403,41 +2430,41 @@
       <c r="G7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="23" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="23" t="s">
         <v>295</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -2452,17 +2479,17 @@
       <c r="G10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="28" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="20" t="s">
         <v>22</v>
       </c>
@@ -2475,41 +2502,41 @@
       <c r="G11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="24"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="24"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="20" t="s">
         <v>295</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="24"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="23" t="s">
@@ -2524,17 +2551,17 @@
       <c r="G14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="31" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="23" t="s">
         <v>29</v>
       </c>
@@ -2547,41 +2574,41 @@
       <c r="G15" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="23" t="s">
         <v>294</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="23" t="s">
         <v>295</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="29" t="s">
         <v>271</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -2596,17 +2623,17 @@
       <c r="G18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="28" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="20" t="s">
         <v>29</v>
       </c>
@@ -2619,41 +2646,41 @@
       <c r="G19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="24"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="20" t="s">
         <v>294</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="24"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="20" t="s">
         <v>295</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="24"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="30" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="32" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -2668,17 +2695,17 @@
       <c r="G22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="36" t="s">
+      <c r="H22" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="31" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="23" t="s">
         <v>29</v>
       </c>
@@ -2691,43 +2718,43 @@
       <c r="G23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="23" t="s">
         <v>294</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="40"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="23" t="s">
         <v>295</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="20" t="s">
@@ -2742,17 +2769,17 @@
       <c r="G26" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I26" s="28" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="20" t="s">
         <v>29</v>
       </c>
@@ -2761,28 +2788,28 @@
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="24"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="24"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="30" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="40" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="23" t="s">
@@ -2797,17 +2824,17 @@
       <c r="G29" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="H29" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="31" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="39"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="23" t="s">
         <v>44</v>
       </c>
@@ -2816,30 +2843,30 @@
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="31"/>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="37"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="39"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="31"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="41" t="s">
         <v>54</v>
       </c>
       <c r="D32" s="20" t="s">
@@ -2854,17 +2881,17 @@
       <c r="G32" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I32" s="28" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="38"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="20" t="s">
         <v>29</v>
       </c>
@@ -2873,28 +2900,28 @@
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="24"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="38"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="24"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="28"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="33"/>
-      <c r="B35" s="30" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="40" t="s">
         <v>55</v>
       </c>
       <c r="D35" s="23" t="s">
@@ -2909,17 +2936,17 @@
       <c r="G35" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="36" t="s">
+      <c r="H35" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I35" s="30" t="s">
+      <c r="I35" s="31" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="33"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="39"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="23" t="s">
         <v>58</v>
       </c>
@@ -2928,30 +2955,30 @@
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="37"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="39"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="40"/>
       <c r="D37" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="31"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="41" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="20" t="s">
@@ -2966,17 +2993,17 @@
       <c r="G38" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="36" t="s">
+      <c r="H38" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I38" s="24" t="s">
+      <c r="I38" s="28" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="33"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="38"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="20" t="s">
         <v>22</v>
       </c>
@@ -2985,28 +3012,28 @@
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="24"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="28"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="33"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="38"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="24"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="28"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="33"/>
-      <c r="B41" s="30" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="40" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="23" t="s">
@@ -3021,17 +3048,17 @@
       <c r="G41" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H41" s="36" t="s">
+      <c r="H41" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I41" s="30" t="s">
+      <c r="I41" s="31" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="33"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="39"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="40"/>
       <c r="D42" s="23" t="s">
         <v>58</v>
       </c>
@@ -3040,30 +3067,30 @@
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="31"/>
     </row>
     <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="37"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="39"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="31"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="41" t="s">
         <v>66</v>
       </c>
       <c r="D44" s="20" t="s">
@@ -3078,17 +3105,17 @@
       <c r="G44" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="H44" s="36" t="s">
+      <c r="H44" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="28" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="33"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="38"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="20" t="s">
         <v>22</v>
       </c>
@@ -3097,28 +3124,28 @@
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="24"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="28"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="33"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="38"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="20" t="s">
         <v>69</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="24"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="28"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="33"/>
-      <c r="B47" s="30" t="s">
+      <c r="A47" s="38"/>
+      <c r="B47" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="40" t="s">
         <v>67</v>
       </c>
       <c r="D47" s="23" t="s">
@@ -3133,17 +3160,17 @@
       <c r="G47" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="H47" s="36" t="s">
+      <c r="H47" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I47" s="30" t="s">
+      <c r="I47" s="31" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="33"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="39"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="40"/>
       <c r="D48" s="23" t="s">
         <v>68</v>
       </c>
@@ -3152,30 +3179,30 @@
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="23"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="31"/>
     </row>
     <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="37"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="39"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="40"/>
       <c r="D49" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="31"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="41" t="s">
         <v>77</v>
       </c>
       <c r="D50" s="20" t="s">
@@ -3190,17 +3217,17 @@
       <c r="G50" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="H50" s="36" t="s">
+      <c r="H50" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I50" s="24" t="s">
+      <c r="I50" s="28" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="33"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="38"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="20" t="s">
         <v>29</v>
       </c>
@@ -3209,28 +3236,28 @@
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="24"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="28"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="33"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="38"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="41"/>
       <c r="D52" s="20" t="s">
         <v>80</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="24"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="28"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="33"/>
-      <c r="B53" s="30" t="s">
+      <c r="A53" s="38"/>
+      <c r="B53" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="40" t="s">
         <v>78</v>
       </c>
       <c r="D53" s="23" t="s">
@@ -3245,17 +3272,17 @@
       <c r="G53" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="H53" s="36" t="s">
+      <c r="H53" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I53" s="30" t="s">
+      <c r="I53" s="31" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="33"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="39"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="23" t="s">
         <v>79</v>
       </c>
@@ -3264,30 +3291,30 @@
       </c>
       <c r="F54" s="23"/>
       <c r="G54" s="23"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="31"/>
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="37"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="39"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="40"/>
       <c r="D55" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="23"/>
       <c r="G55" s="23"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="31"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="41" t="s">
         <v>86</v>
       </c>
       <c r="D56" s="20" t="s">
@@ -3302,17 +3329,17 @@
       <c r="G56" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H56" s="36" t="s">
+      <c r="H56" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I56" s="24" t="s">
+      <c r="I56" s="28" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="33"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="38"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="41"/>
       <c r="D57" s="20" t="s">
         <v>22</v>
       </c>
@@ -3321,28 +3348,28 @@
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="20"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="24"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="28"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="33"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="38"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="41"/>
       <c r="D58" s="20" t="s">
         <v>89</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="24"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="28"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="33"/>
-      <c r="B59" s="30" t="s">
+      <c r="A59" s="38"/>
+      <c r="B59" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="40" t="s">
         <v>87</v>
       </c>
       <c r="D59" s="23" t="s">
@@ -3357,17 +3384,17 @@
       <c r="G59" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="H59" s="36" t="s">
+      <c r="H59" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I59" s="30" t="s">
+      <c r="I59" s="31" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="33"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="39"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="40"/>
       <c r="D60" s="23" t="s">
         <v>90</v>
       </c>
@@ -3376,30 +3403,30 @@
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="31"/>
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="37"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="39"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="40"/>
       <c r="D61" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="31"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="41" t="s">
         <v>102</v>
       </c>
       <c r="D62" s="20" t="s">
@@ -3414,17 +3441,17 @@
       <c r="G62" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H62" s="36" t="s">
+      <c r="H62" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I62" s="24" t="s">
+      <c r="I62" s="28" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="33"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="38"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="41"/>
       <c r="D63" s="20" t="s">
         <v>29</v>
       </c>
@@ -3433,28 +3460,28 @@
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="24"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="28"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="33"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="38"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="41"/>
       <c r="D64" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="24"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="28"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="33"/>
-      <c r="B65" s="30" t="s">
+      <c r="A65" s="38"/>
+      <c r="B65" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="40" t="s">
         <v>101</v>
       </c>
       <c r="D65" s="23" t="s">
@@ -3469,17 +3496,17 @@
       <c r="G65" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="H65" s="36" t="s">
+      <c r="H65" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I65" s="30" t="s">
+      <c r="I65" s="31" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="33"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="39"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="40"/>
       <c r="D66" s="23" t="s">
         <v>104</v>
       </c>
@@ -3488,30 +3515,30 @@
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="31"/>
     </row>
     <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="37"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="39"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="40"/>
       <c r="D67" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E67" s="23"/>
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="31"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="41" t="s">
         <v>100</v>
       </c>
       <c r="D68" s="20" t="s">
@@ -3526,17 +3553,17 @@
       <c r="G68" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H68" s="36" t="s">
+      <c r="H68" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I68" s="24" t="s">
+      <c r="I68" s="28" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="33"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="38"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="41"/>
       <c r="D69" s="20" t="s">
         <v>22</v>
       </c>
@@ -3545,28 +3572,28 @@
       </c>
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="24"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="28"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="33"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="38"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="41"/>
       <c r="D70" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
       <c r="G70" s="20"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="24"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="28"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="33"/>
-      <c r="B71" s="30" t="s">
+      <c r="A71" s="38"/>
+      <c r="B71" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="39" t="s">
+      <c r="C71" s="40" t="s">
         <v>99</v>
       </c>
       <c r="D71" s="23" t="s">
@@ -3581,17 +3608,17 @@
       <c r="G71" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="H71" s="36" t="s">
+      <c r="H71" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I71" s="30" t="s">
+      <c r="I71" s="31" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="33"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="39"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="40"/>
       <c r="D72" s="23" t="s">
         <v>104</v>
       </c>
@@ -3600,30 +3627,30 @@
       </c>
       <c r="F72" s="23"/>
       <c r="G72" s="23"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="31"/>
     </row>
     <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="37"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="39"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="40"/>
       <c r="D73" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="31"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="24" t="s">
+      <c r="B74" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="C74" s="38" t="s">
+      <c r="C74" s="41" t="s">
         <v>111</v>
       </c>
       <c r="D74" s="20" t="s">
@@ -3638,17 +3665,17 @@
       <c r="G74" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="H74" s="36" t="s">
+      <c r="H74" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I74" s="24" t="s">
+      <c r="I74" s="28" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="33"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="38"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="41"/>
       <c r="D75" s="20" t="s">
         <v>22</v>
       </c>
@@ -3657,28 +3684,28 @@
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="20"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="24"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="28"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="33"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="38"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="41"/>
       <c r="D76" s="20" t="s">
         <v>114</v>
       </c>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
       <c r="G76" s="20"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="24"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="28"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="33"/>
-      <c r="B77" s="30" t="s">
+      <c r="A77" s="38"/>
+      <c r="B77" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="40" t="s">
         <v>110</v>
       </c>
       <c r="D77" s="23" t="s">
@@ -3693,17 +3720,17 @@
       <c r="G77" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="H77" s="36" t="s">
+      <c r="H77" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I77" s="30" t="s">
+      <c r="I77" s="31" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="33"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="39"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="40"/>
       <c r="D78" s="23" t="s">
         <v>113</v>
       </c>
@@ -3712,30 +3739,30 @@
       </c>
       <c r="F78" s="23"/>
       <c r="G78" s="23"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="31"/>
     </row>
     <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="37"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="39"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="40"/>
       <c r="D79" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="23"/>
       <c r="G79" s="23"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="31"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="32" t="s">
+      <c r="A80" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="41" t="s">
         <v>123</v>
       </c>
       <c r="D80" s="20" t="s">
@@ -3750,17 +3777,17 @@
       <c r="G80" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="H80" s="36" t="s">
+      <c r="H80" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I80" s="24" t="s">
+      <c r="I80" s="28" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="33"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="38"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="41"/>
       <c r="D81" s="20" t="s">
         <v>22</v>
       </c>
@@ -3769,28 +3796,28 @@
       </c>
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="24"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="28"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="33"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="38"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="41"/>
       <c r="D82" s="20" t="s">
         <v>126</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
       <c r="G82" s="20"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="24"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="28"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="33"/>
-      <c r="B83" s="30" t="s">
+      <c r="A83" s="38"/>
+      <c r="B83" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="39" t="s">
+      <c r="C83" s="40" t="s">
         <v>122</v>
       </c>
       <c r="D83" s="23" t="s">
@@ -3805,17 +3832,17 @@
       <c r="G83" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="H83" s="36" t="s">
+      <c r="H83" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I83" s="30" t="s">
+      <c r="I83" s="31" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="33"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="39"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="40"/>
       <c r="D84" s="23" t="s">
         <v>125</v>
       </c>
@@ -3824,30 +3851,30 @@
       </c>
       <c r="F84" s="23"/>
       <c r="G84" s="23"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="31"/>
     </row>
     <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="37"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="39"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="40"/>
       <c r="D85" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="23"/>
       <c r="G85" s="23"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="31"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="32" t="s">
+      <c r="A86" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="B86" s="24" t="s">
+      <c r="B86" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="38" t="s">
+      <c r="C86" s="41" t="s">
         <v>138</v>
       </c>
       <c r="D86" s="20" t="s">
@@ -3862,17 +3889,17 @@
       <c r="G86" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="H86" s="36" t="s">
+      <c r="H86" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I86" s="24" t="s">
+      <c r="I86" s="28" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="33"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="38"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="41"/>
       <c r="D87" s="20" t="s">
         <v>29</v>
       </c>
@@ -3881,28 +3908,28 @@
       </c>
       <c r="F87" s="20"/>
       <c r="G87" s="20"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="24"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="28"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="33"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="38"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="41"/>
       <c r="D88" s="20" t="s">
         <v>139</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
       <c r="G88" s="20"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="24"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="28"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="33"/>
-      <c r="B89" s="30" t="s">
+      <c r="A89" s="38"/>
+      <c r="B89" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C89" s="39" t="s">
+      <c r="C89" s="40" t="s">
         <v>137</v>
       </c>
       <c r="D89" s="23" t="s">
@@ -3917,17 +3944,17 @@
       <c r="G89" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="H89" s="36" t="s">
+      <c r="H89" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I89" s="30" t="s">
+      <c r="I89" s="31" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="33"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="39"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="40"/>
       <c r="D90" s="23" t="s">
         <v>140</v>
       </c>
@@ -3936,30 +3963,30 @@
       </c>
       <c r="F90" s="23"/>
       <c r="G90" s="23"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="31"/>
     </row>
     <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="37"/>
-      <c r="B91" s="30"/>
-      <c r="C91" s="39"/>
+      <c r="A91" s="39"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="40"/>
       <c r="D91" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E91" s="23"/>
       <c r="F91" s="23"/>
       <c r="G91" s="23"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="31"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="32" t="s">
+      <c r="A92" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="38" t="s">
+      <c r="C92" s="41" t="s">
         <v>136</v>
       </c>
       <c r="D92" s="20" t="s">
@@ -3974,17 +4001,17 @@
       <c r="G92" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="H92" s="36" t="s">
+      <c r="H92" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I92" s="24" t="s">
+      <c r="I92" s="28" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="33"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="38"/>
+      <c r="A93" s="38"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="41"/>
       <c r="D93" s="20" t="s">
         <v>22</v>
       </c>
@@ -3993,28 +4020,28 @@
       </c>
       <c r="F93" s="20"/>
       <c r="G93" s="20"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="24"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="28"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="33"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="38"/>
+      <c r="A94" s="38"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="41"/>
       <c r="D94" s="20" t="s">
         <v>139</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
       <c r="G94" s="20"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="24"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="28"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="33"/>
-      <c r="B95" s="30" t="s">
+      <c r="A95" s="38"/>
+      <c r="B95" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="40" t="s">
         <v>135</v>
       </c>
       <c r="D95" s="23" t="s">
@@ -4029,17 +4056,17 @@
       <c r="G95" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="H95" s="36" t="s">
+      <c r="H95" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I95" s="30" t="s">
+      <c r="I95" s="31" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="33"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="39"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="40"/>
       <c r="D96" s="23" t="s">
         <v>140</v>
       </c>
@@ -4048,30 +4075,30 @@
       </c>
       <c r="F96" s="23"/>
       <c r="G96" s="23"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="31"/>
     </row>
     <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="37"/>
-      <c r="B97" s="30"/>
-      <c r="C97" s="39"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="40"/>
       <c r="D97" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E97" s="23"/>
       <c r="F97" s="23"/>
       <c r="G97" s="23"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="31"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="32" t="s">
+      <c r="A98" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="B98" s="24" t="s">
+      <c r="B98" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="C98" s="38" t="s">
+      <c r="C98" s="41" t="s">
         <v>152</v>
       </c>
       <c r="D98" s="20" t="s">
@@ -4086,17 +4113,17 @@
       <c r="G98" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="H98" s="36" t="s">
+      <c r="H98" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I98" s="24" t="s">
+      <c r="I98" s="28" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="33"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="38"/>
+      <c r="A99" s="38"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="41"/>
       <c r="D99" s="20" t="s">
         <v>29</v>
       </c>
@@ -4105,28 +4132,28 @@
       </c>
       <c r="F99" s="20"/>
       <c r="G99" s="20"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="24"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="28"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="33"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="38"/>
+      <c r="A100" s="38"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="41"/>
       <c r="D100" s="20" t="s">
         <v>150</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="20"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="24"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="28"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="33"/>
-      <c r="B101" s="30" t="s">
+      <c r="A101" s="38"/>
+      <c r="B101" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="C101" s="39" t="s">
+      <c r="C101" s="40" t="s">
         <v>153</v>
       </c>
       <c r="D101" s="23" t="s">
@@ -4141,17 +4168,17 @@
       <c r="G101" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="H101" s="36" t="s">
+      <c r="H101" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I101" s="30" t="s">
+      <c r="I101" s="31" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="33"/>
-      <c r="B102" s="30"/>
-      <c r="C102" s="39"/>
+      <c r="A102" s="38"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="40"/>
       <c r="D102" s="23" t="s">
         <v>151</v>
       </c>
@@ -4160,30 +4187,30 @@
       </c>
       <c r="F102" s="23"/>
       <c r="G102" s="23"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="30"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="31"/>
     </row>
     <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="37"/>
-      <c r="B103" s="30"/>
-      <c r="C103" s="39"/>
+      <c r="A103" s="39"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="40"/>
       <c r="D103" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E103" s="23"/>
       <c r="F103" s="23"/>
       <c r="G103" s="23"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="31"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="32" t="s">
+      <c r="A104" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="B104" s="24" t="s">
+      <c r="B104" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="C104" s="38" t="s">
+      <c r="C104" s="41" t="s">
         <v>154</v>
       </c>
       <c r="D104" s="20" t="s">
@@ -4198,17 +4225,17 @@
       <c r="G104" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="H104" s="36" t="s">
+      <c r="H104" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I104" s="24" t="s">
+      <c r="I104" s="28" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="33"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="38"/>
+      <c r="A105" s="38"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="41"/>
       <c r="D105" s="20" t="s">
         <v>22</v>
       </c>
@@ -4217,28 +4244,28 @@
       </c>
       <c r="F105" s="20"/>
       <c r="G105" s="20"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="24"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="28"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="33"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="38"/>
+      <c r="A106" s="38"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="41"/>
       <c r="D106" s="20" t="s">
         <v>150</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
       <c r="G106" s="20"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="24"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="28"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="33"/>
-      <c r="B107" s="30" t="s">
+      <c r="A107" s="38"/>
+      <c r="B107" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="C107" s="39" t="s">
+      <c r="C107" s="40" t="s">
         <v>155</v>
       </c>
       <c r="D107" s="23" t="s">
@@ -4253,17 +4280,17 @@
       <c r="G107" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="H107" s="36" t="s">
+      <c r="H107" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I107" s="30" t="s">
+      <c r="I107" s="31" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="33"/>
-      <c r="B108" s="30"/>
-      <c r="C108" s="39"/>
+      <c r="A108" s="38"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="40"/>
       <c r="D108" s="23" t="s">
         <v>149</v>
       </c>
@@ -4272,30 +4299,30 @@
       </c>
       <c r="F108" s="23"/>
       <c r="G108" s="23"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="31"/>
     </row>
     <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="37"/>
-      <c r="B109" s="30"/>
-      <c r="C109" s="39"/>
+      <c r="A109" s="39"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="40"/>
       <c r="D109" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E109" s="23"/>
       <c r="F109" s="23"/>
       <c r="G109" s="23"/>
-      <c r="H109" s="36"/>
-      <c r="I109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="31"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="32" t="s">
+      <c r="A110" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="B110" s="24" t="s">
+      <c r="B110" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="C110" s="38" t="s">
+      <c r="C110" s="41" t="s">
         <v>174</v>
       </c>
       <c r="D110" s="20" t="s">
@@ -4310,17 +4337,17 @@
       <c r="G110" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H110" s="36" t="s">
+      <c r="H110" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I110" s="24" t="s">
+      <c r="I110" s="28" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="33"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="38"/>
+      <c r="A111" s="38"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="41"/>
       <c r="D111" s="20" t="s">
         <v>29</v>
       </c>
@@ -4329,28 +4356,28 @@
       </c>
       <c r="F111" s="20"/>
       <c r="G111" s="20"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="24"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="28"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="33"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="38"/>
+      <c r="A112" s="38"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="41"/>
       <c r="D112" s="20" t="s">
         <v>169</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
       <c r="G112" s="20"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="24"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="28"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="33"/>
-      <c r="B113" s="30" t="s">
+      <c r="A113" s="38"/>
+      <c r="B113" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="C113" s="39" t="s">
+      <c r="C113" s="40" t="s">
         <v>173</v>
       </c>
       <c r="D113" s="23" t="s">
@@ -4365,17 +4392,17 @@
       <c r="G113" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="H113" s="36" t="s">
+      <c r="H113" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I113" s="30" t="s">
+      <c r="I113" s="31" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="33"/>
-      <c r="B114" s="30"/>
-      <c r="C114" s="39"/>
+      <c r="A114" s="38"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="40"/>
       <c r="D114" s="23" t="s">
         <v>170</v>
       </c>
@@ -4384,30 +4411,30 @@
       </c>
       <c r="F114" s="23"/>
       <c r="G114" s="23"/>
-      <c r="H114" s="36"/>
-      <c r="I114" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="31"/>
     </row>
     <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="37"/>
-      <c r="B115" s="30"/>
-      <c r="C115" s="39"/>
+      <c r="A115" s="39"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="40"/>
       <c r="D115" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E115" s="23"/>
       <c r="F115" s="23"/>
       <c r="G115" s="23"/>
-      <c r="H115" s="36"/>
-      <c r="I115" s="30"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="31"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="32" t="s">
+      <c r="A116" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="B116" s="24" t="s">
+      <c r="B116" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="C116" s="38" t="s">
+      <c r="C116" s="41" t="s">
         <v>172</v>
       </c>
       <c r="D116" s="20" t="s">
@@ -4422,17 +4449,17 @@
       <c r="G116" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H116" s="36" t="s">
+      <c r="H116" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I116" s="24" t="s">
+      <c r="I116" s="28" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="33"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="38"/>
+      <c r="A117" s="38"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="41"/>
       <c r="D117" s="20" t="s">
         <v>22</v>
       </c>
@@ -4441,28 +4468,28 @@
       </c>
       <c r="F117" s="20"/>
       <c r="G117" s="20"/>
-      <c r="H117" s="36"/>
-      <c r="I117" s="24"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="28"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="33"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="38"/>
+      <c r="A118" s="38"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="41"/>
       <c r="D118" s="20" t="s">
         <v>169</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
       <c r="G118" s="20"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="24"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="28"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="33"/>
-      <c r="B119" s="30" t="s">
+      <c r="A119" s="38"/>
+      <c r="B119" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="C119" s="39" t="s">
+      <c r="C119" s="40" t="s">
         <v>171</v>
       </c>
       <c r="D119" s="23" t="s">
@@ -4477,17 +4504,17 @@
       <c r="G119" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="H119" s="36" t="s">
+      <c r="H119" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I119" s="30" t="s">
+      <c r="I119" s="31" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="33"/>
-      <c r="B120" s="30"/>
-      <c r="C120" s="39"/>
+      <c r="A120" s="38"/>
+      <c r="B120" s="31"/>
+      <c r="C120" s="40"/>
       <c r="D120" s="23" t="s">
         <v>168</v>
       </c>
@@ -4496,30 +4523,30 @@
       </c>
       <c r="F120" s="23"/>
       <c r="G120" s="23"/>
-      <c r="H120" s="36"/>
-      <c r="I120" s="30"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="31"/>
     </row>
     <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="37"/>
-      <c r="B121" s="30"/>
-      <c r="C121" s="39"/>
+      <c r="A121" s="39"/>
+      <c r="B121" s="31"/>
+      <c r="C121" s="40"/>
       <c r="D121" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E121" s="23"/>
       <c r="F121" s="23"/>
       <c r="G121" s="23"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="30"/>
+      <c r="H121" s="30"/>
+      <c r="I121" s="31"/>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="34" t="s">
+      <c r="A122" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="B122" s="24" t="s">
+      <c r="B122" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="C122" s="25" t="s">
+      <c r="C122" s="29" t="s">
         <v>182</v>
       </c>
       <c r="D122" s="20" t="s">
@@ -4534,17 +4561,17 @@
       <c r="G122" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="H122" s="36" t="s">
+      <c r="H122" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I122" s="24" t="s">
+      <c r="I122" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="35"/>
-      <c r="B123" s="24"/>
-      <c r="C123" s="25"/>
+      <c r="A123" s="26"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="29"/>
       <c r="D123" s="20" t="s">
         <v>187</v>
       </c>
@@ -4553,13 +4580,13 @@
       </c>
       <c r="F123" s="20"/>
       <c r="G123" s="20"/>
-      <c r="H123" s="36"/>
-      <c r="I123" s="24"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="28"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="35"/>
-      <c r="B124" s="24"/>
-      <c r="C124" s="25"/>
+      <c r="A124" s="26"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="29"/>
       <c r="D124" s="20" t="s">
         <v>190</v>
       </c>
@@ -4568,13 +4595,13 @@
       </c>
       <c r="F124" s="20"/>
       <c r="G124" s="20"/>
-      <c r="H124" s="36"/>
-      <c r="I124" s="24"/>
+      <c r="H124" s="30"/>
+      <c r="I124" s="28"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="35"/>
-      <c r="B125" s="24"/>
-      <c r="C125" s="25"/>
+      <c r="A125" s="26"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="29"/>
       <c r="D125" s="20" t="s">
         <v>191</v>
       </c>
@@ -4583,28 +4610,28 @@
       </c>
       <c r="F125" s="20"/>
       <c r="G125" s="20"/>
-      <c r="H125" s="36"/>
-      <c r="I125" s="24"/>
+      <c r="H125" s="30"/>
+      <c r="I125" s="28"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="35"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="25"/>
+      <c r="A126" s="26"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="29"/>
       <c r="D126" s="20" t="s">
         <v>193</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
-      <c r="H126" s="36"/>
-      <c r="I126" s="24"/>
+      <c r="H126" s="30"/>
+      <c r="I126" s="28"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="35"/>
-      <c r="B127" s="30" t="s">
+      <c r="A127" s="26"/>
+      <c r="B127" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="C127" s="31" t="s">
+      <c r="C127" s="32" t="s">
         <v>194</v>
       </c>
       <c r="D127" s="22" t="s">
@@ -4619,17 +4646,17 @@
       <c r="G127" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="H127" s="36" t="s">
+      <c r="H127" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I127" s="30" t="s">
+      <c r="I127" s="31" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="35"/>
-      <c r="B128" s="30"/>
-      <c r="C128" s="31"/>
+      <c r="A128" s="26"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="32"/>
       <c r="D128" s="22" t="s">
         <v>29</v>
       </c>
@@ -4638,13 +4665,13 @@
       </c>
       <c r="F128" s="23"/>
       <c r="G128" s="23"/>
-      <c r="H128" s="36"/>
-      <c r="I128" s="30"/>
+      <c r="H128" s="30"/>
+      <c r="I128" s="31"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="35"/>
-      <c r="B129" s="30"/>
-      <c r="C129" s="31"/>
+      <c r="A129" s="26"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="32"/>
       <c r="D129" s="22" t="s">
         <v>199</v>
       </c>
@@ -4653,13 +4680,13 @@
       </c>
       <c r="F129" s="23"/>
       <c r="G129" s="23"/>
-      <c r="H129" s="36"/>
-      <c r="I129" s="30"/>
+      <c r="H129" s="30"/>
+      <c r="I129" s="31"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="35"/>
-      <c r="B130" s="30"/>
-      <c r="C130" s="31"/>
+      <c r="A130" s="26"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="32"/>
       <c r="D130" s="22" t="s">
         <v>191</v>
       </c>
@@ -4668,28 +4695,28 @@
       </c>
       <c r="F130" s="23"/>
       <c r="G130" s="23"/>
-      <c r="H130" s="36"/>
-      <c r="I130" s="30"/>
+      <c r="H130" s="30"/>
+      <c r="I130" s="31"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="35"/>
-      <c r="B131" s="30"/>
-      <c r="C131" s="31"/>
+      <c r="A131" s="26"/>
+      <c r="B131" s="31"/>
+      <c r="C131" s="32"/>
       <c r="D131" s="22" t="s">
         <v>193</v>
       </c>
       <c r="E131" s="23"/>
       <c r="F131" s="23"/>
       <c r="G131" s="23"/>
-      <c r="H131" s="36"/>
-      <c r="I131" s="30"/>
+      <c r="H131" s="30"/>
+      <c r="I131" s="31"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="35"/>
-      <c r="B132" s="24" t="s">
+      <c r="A132" s="26"/>
+      <c r="B132" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="C132" s="25" t="s">
+      <c r="C132" s="29" t="s">
         <v>195</v>
       </c>
       <c r="D132" s="20" t="s">
@@ -4704,17 +4731,17 @@
       <c r="G132" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="H132" s="36" t="s">
+      <c r="H132" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I132" s="24" t="s">
+      <c r="I132" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="35"/>
-      <c r="B133" s="24"/>
-      <c r="C133" s="25"/>
+      <c r="A133" s="26"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="29"/>
       <c r="D133" s="20" t="s">
         <v>29</v>
       </c>
@@ -4723,13 +4750,13 @@
       </c>
       <c r="F133" s="20"/>
       <c r="G133" s="20"/>
-      <c r="H133" s="36"/>
-      <c r="I133" s="24"/>
+      <c r="H133" s="30"/>
+      <c r="I133" s="28"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="35"/>
-      <c r="B134" s="24"/>
-      <c r="C134" s="25"/>
+      <c r="A134" s="26"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="29"/>
       <c r="D134" s="20" t="s">
         <v>190</v>
       </c>
@@ -4738,13 +4765,13 @@
       </c>
       <c r="F134" s="20"/>
       <c r="G134" s="20"/>
-      <c r="H134" s="36"/>
-      <c r="I134" s="24"/>
+      <c r="H134" s="30"/>
+      <c r="I134" s="28"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" s="35"/>
-      <c r="B135" s="24"/>
-      <c r="C135" s="25"/>
+      <c r="A135" s="26"/>
+      <c r="B135" s="28"/>
+      <c r="C135" s="29"/>
       <c r="D135" s="20" t="s">
         <v>200</v>
       </c>
@@ -4753,28 +4780,28 @@
       </c>
       <c r="F135" s="20"/>
       <c r="G135" s="20"/>
-      <c r="H135" s="36"/>
-      <c r="I135" s="24"/>
+      <c r="H135" s="30"/>
+      <c r="I135" s="28"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="35"/>
-      <c r="B136" s="24"/>
-      <c r="C136" s="25"/>
+      <c r="A136" s="26"/>
+      <c r="B136" s="28"/>
+      <c r="C136" s="29"/>
       <c r="D136" s="20" t="s">
         <v>193</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="20"/>
       <c r="G136" s="20"/>
-      <c r="H136" s="36"/>
-      <c r="I136" s="24"/>
+      <c r="H136" s="30"/>
+      <c r="I136" s="28"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="35"/>
-      <c r="B137" s="30" t="s">
+      <c r="A137" s="26"/>
+      <c r="B137" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="C137" s="31" t="s">
+      <c r="C137" s="32" t="s">
         <v>181</v>
       </c>
       <c r="D137" s="22" t="s">
@@ -4789,17 +4816,17 @@
       <c r="G137" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="H137" s="36" t="s">
+      <c r="H137" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I137" s="30" t="s">
+      <c r="I137" s="31" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="35"/>
-      <c r="B138" s="30"/>
-      <c r="C138" s="31"/>
+      <c r="A138" s="26"/>
+      <c r="B138" s="31"/>
+      <c r="C138" s="32"/>
       <c r="D138" s="22" t="s">
         <v>29</v>
       </c>
@@ -4808,13 +4835,13 @@
       </c>
       <c r="F138" s="23"/>
       <c r="G138" s="23"/>
-      <c r="H138" s="36"/>
-      <c r="I138" s="30"/>
+      <c r="H138" s="30"/>
+      <c r="I138" s="31"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" s="35"/>
-      <c r="B139" s="30"/>
-      <c r="C139" s="31"/>
+      <c r="A139" s="26"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="32"/>
       <c r="D139" s="22" t="s">
         <v>190</v>
       </c>
@@ -4823,13 +4850,13 @@
       </c>
       <c r="F139" s="23"/>
       <c r="G139" s="23"/>
-      <c r="H139" s="36"/>
-      <c r="I139" s="30"/>
+      <c r="H139" s="30"/>
+      <c r="I139" s="31"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" s="35"/>
-      <c r="B140" s="30"/>
-      <c r="C140" s="31"/>
+      <c r="A140" s="26"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="32"/>
       <c r="D140" s="22" t="s">
         <v>191</v>
       </c>
@@ -4838,30 +4865,30 @@
       </c>
       <c r="F140" s="23"/>
       <c r="G140" s="23"/>
-      <c r="H140" s="36"/>
-      <c r="I140" s="30"/>
+      <c r="H140" s="30"/>
+      <c r="I140" s="31"/>
     </row>
     <row r="141" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="35"/>
-      <c r="B141" s="30"/>
-      <c r="C141" s="31"/>
+      <c r="A141" s="26"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="32"/>
       <c r="D141" s="22" t="s">
         <v>193</v>
       </c>
       <c r="E141" s="23"/>
       <c r="F141" s="23"/>
       <c r="G141" s="23"/>
-      <c r="H141" s="36"/>
-      <c r="I141" s="30"/>
+      <c r="H141" s="30"/>
+      <c r="I141" s="31"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="41" t="s">
+      <c r="A142" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="B142" s="24" t="s">
+      <c r="B142" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C142" s="25" t="s">
+      <c r="C142" s="29" t="s">
         <v>208</v>
       </c>
       <c r="D142" s="20" t="s">
@@ -4876,17 +4903,17 @@
       <c r="G142" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="H142" s="36" t="s">
+      <c r="H142" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I142" s="24" t="s">
+      <c r="I142" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" s="42"/>
-      <c r="B143" s="24"/>
-      <c r="C143" s="25"/>
+      <c r="A143" s="34"/>
+      <c r="B143" s="28"/>
+      <c r="C143" s="29"/>
       <c r="D143" s="20" t="s">
         <v>189</v>
       </c>
@@ -4895,28 +4922,28 @@
       </c>
       <c r="F143" s="20"/>
       <c r="G143" s="20"/>
-      <c r="H143" s="36"/>
-      <c r="I143" s="24"/>
+      <c r="H143" s="30"/>
+      <c r="I143" s="28"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A144" s="42"/>
-      <c r="B144" s="24"/>
-      <c r="C144" s="25"/>
+      <c r="A144" s="34"/>
+      <c r="B144" s="28"/>
+      <c r="C144" s="29"/>
       <c r="D144" s="20" t="s">
         <v>210</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="20"/>
       <c r="G144" s="20"/>
-      <c r="H144" s="36"/>
-      <c r="I144" s="24"/>
+      <c r="H144" s="30"/>
+      <c r="I144" s="28"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" s="42"/>
-      <c r="B145" s="30" t="s">
+      <c r="A145" s="34"/>
+      <c r="B145" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="C145" s="31" t="s">
+      <c r="C145" s="32" t="s">
         <v>206</v>
       </c>
       <c r="D145" s="22" t="s">
@@ -4931,17 +4958,17 @@
       <c r="G145" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="H145" s="36" t="s">
+      <c r="H145" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I145" s="30" t="s">
+      <c r="I145" s="31" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="42"/>
-      <c r="B146" s="30"/>
-      <c r="C146" s="31"/>
+      <c r="A146" s="34"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="32"/>
       <c r="D146" s="22" t="s">
         <v>211</v>
       </c>
@@ -4950,30 +4977,30 @@
       </c>
       <c r="F146" s="23"/>
       <c r="G146" s="23"/>
-      <c r="H146" s="36"/>
-      <c r="I146" s="30"/>
+      <c r="H146" s="30"/>
+      <c r="I146" s="31"/>
     </row>
     <row r="147" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="43"/>
-      <c r="B147" s="30"/>
-      <c r="C147" s="31"/>
+      <c r="A147" s="36"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="32"/>
       <c r="D147" s="22" t="s">
         <v>210</v>
       </c>
       <c r="E147" s="23"/>
       <c r="F147" s="23"/>
       <c r="G147" s="23"/>
-      <c r="H147" s="36"/>
-      <c r="I147" s="30"/>
+      <c r="H147" s="30"/>
+      <c r="I147" s="31"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148" s="41" t="s">
+      <c r="A148" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="B148" s="24" t="s">
+      <c r="B148" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="C148" s="25" t="s">
+      <c r="C148" s="29" t="s">
         <v>217</v>
       </c>
       <c r="D148" s="20" t="s">
@@ -4988,17 +5015,17 @@
       <c r="G148" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="H148" s="36" t="s">
+      <c r="H148" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I148" s="24" t="s">
+      <c r="I148" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="42"/>
-      <c r="B149" s="24"/>
-      <c r="C149" s="25"/>
+      <c r="A149" s="34"/>
+      <c r="B149" s="28"/>
+      <c r="C149" s="29"/>
       <c r="D149" s="20" t="s">
         <v>219</v>
       </c>
@@ -5007,28 +5034,28 @@
       </c>
       <c r="F149" s="20"/>
       <c r="G149" s="20"/>
-      <c r="H149" s="36"/>
-      <c r="I149" s="24"/>
+      <c r="H149" s="30"/>
+      <c r="I149" s="28"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="42"/>
-      <c r="B150" s="24"/>
-      <c r="C150" s="25"/>
+      <c r="A150" s="34"/>
+      <c r="B150" s="28"/>
+      <c r="C150" s="29"/>
       <c r="D150" s="20" t="s">
         <v>220</v>
       </c>
       <c r="E150" s="20"/>
       <c r="F150" s="20"/>
       <c r="G150" s="20"/>
-      <c r="H150" s="36"/>
-      <c r="I150" s="24"/>
+      <c r="H150" s="30"/>
+      <c r="I150" s="28"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="42"/>
-      <c r="B151" s="30" t="s">
+      <c r="A151" s="34"/>
+      <c r="B151" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="C151" s="31" t="s">
+      <c r="C151" s="32" t="s">
         <v>218</v>
       </c>
       <c r="D151" s="22" t="s">
@@ -5043,17 +5070,17 @@
       <c r="G151" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="H151" s="36" t="s">
+      <c r="H151" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I151" s="30" t="s">
+      <c r="I151" s="31" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="42"/>
-      <c r="B152" s="30"/>
-      <c r="C152" s="31"/>
+      <c r="A152" s="34"/>
+      <c r="B152" s="31"/>
+      <c r="C152" s="32"/>
       <c r="D152" s="22" t="s">
         <v>188</v>
       </c>
@@ -5062,30 +5089,30 @@
       </c>
       <c r="F152" s="23"/>
       <c r="G152" s="23"/>
-      <c r="H152" s="36"/>
-      <c r="I152" s="30"/>
+      <c r="H152" s="30"/>
+      <c r="I152" s="31"/>
     </row>
     <row r="153" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="43"/>
-      <c r="B153" s="30"/>
-      <c r="C153" s="31"/>
+      <c r="A153" s="36"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="32"/>
       <c r="D153" s="22" t="s">
         <v>220</v>
       </c>
       <c r="E153" s="23"/>
       <c r="F153" s="23"/>
       <c r="G153" s="23"/>
-      <c r="H153" s="36"/>
-      <c r="I153" s="30"/>
+      <c r="H153" s="30"/>
+      <c r="I153" s="31"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" s="41" t="s">
+      <c r="A154" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="B154" s="24" t="s">
+      <c r="B154" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="C154" s="25" t="s">
+      <c r="C154" s="29" t="s">
         <v>226</v>
       </c>
       <c r="D154" s="20" t="s">
@@ -5100,17 +5127,17 @@
       <c r="G154" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="H154" s="36" t="s">
+      <c r="H154" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I154" s="24" t="s">
+      <c r="I154" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" s="42"/>
-      <c r="B155" s="24"/>
-      <c r="C155" s="25"/>
+      <c r="A155" s="34"/>
+      <c r="B155" s="28"/>
+      <c r="C155" s="29"/>
       <c r="D155" s="20" t="s">
         <v>219</v>
       </c>
@@ -5119,28 +5146,28 @@
       </c>
       <c r="F155" s="20"/>
       <c r="G155" s="20"/>
-      <c r="H155" s="36"/>
-      <c r="I155" s="24"/>
+      <c r="H155" s="30"/>
+      <c r="I155" s="28"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A156" s="42"/>
-      <c r="B156" s="24"/>
-      <c r="C156" s="25"/>
+      <c r="A156" s="34"/>
+      <c r="B156" s="28"/>
+      <c r="C156" s="29"/>
       <c r="D156" s="20" t="s">
         <v>220</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="20"/>
       <c r="G156" s="20"/>
-      <c r="H156" s="36"/>
-      <c r="I156" s="24"/>
+      <c r="H156" s="30"/>
+      <c r="I156" s="28"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="42"/>
-      <c r="B157" s="30" t="s">
+      <c r="A157" s="34"/>
+      <c r="B157" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="C157" s="31" t="s">
+      <c r="C157" s="32" t="s">
         <v>227</v>
       </c>
       <c r="D157" s="22" t="s">
@@ -5155,17 +5182,17 @@
       <c r="G157" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="H157" s="36" t="s">
+      <c r="H157" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I157" s="30" t="s">
+      <c r="I157" s="31" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="42"/>
-      <c r="B158" s="30"/>
-      <c r="C158" s="31"/>
+      <c r="A158" s="34"/>
+      <c r="B158" s="31"/>
+      <c r="C158" s="32"/>
       <c r="D158" s="22" t="s">
         <v>188</v>
       </c>
@@ -5174,30 +5201,30 @@
       </c>
       <c r="F158" s="23"/>
       <c r="G158" s="23"/>
-      <c r="H158" s="36"/>
-      <c r="I158" s="30"/>
+      <c r="H158" s="30"/>
+      <c r="I158" s="31"/>
     </row>
     <row r="159" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="44"/>
-      <c r="B159" s="30"/>
-      <c r="C159" s="31"/>
+      <c r="A159" s="35"/>
+      <c r="B159" s="31"/>
+      <c r="C159" s="32"/>
       <c r="D159" s="22" t="s">
         <v>220</v>
       </c>
       <c r="E159" s="23"/>
       <c r="F159" s="23"/>
       <c r="G159" s="23"/>
-      <c r="H159" s="36"/>
-      <c r="I159" s="30"/>
+      <c r="H159" s="30"/>
+      <c r="I159" s="31"/>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="34" t="s">
+      <c r="A160" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="B160" s="24" t="s">
+      <c r="B160" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="C160" s="25" t="s">
+      <c r="C160" s="29" t="s">
         <v>302</v>
       </c>
       <c r="D160" s="20" t="s">
@@ -5212,32 +5239,32 @@
       <c r="G160" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="H160" s="36" t="s">
+      <c r="H160" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I160" s="24" t="s">
+      <c r="I160" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A161" s="35"/>
-      <c r="B161" s="24"/>
-      <c r="C161" s="25"/>
+      <c r="A161" s="26"/>
+      <c r="B161" s="28"/>
+      <c r="C161" s="29"/>
       <c r="D161" s="20" t="s">
         <v>304</v>
       </c>
       <c r="E161" s="20"/>
       <c r="F161" s="20"/>
       <c r="G161" s="20"/>
-      <c r="H161" s="36"/>
-      <c r="I161" s="24"/>
+      <c r="H161" s="30"/>
+      <c r="I161" s="28"/>
     </row>
     <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="35"/>
-      <c r="B162" s="30" t="s">
+      <c r="A162" s="26"/>
+      <c r="B162" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="C162" s="31" t="s">
+      <c r="C162" s="32" t="s">
         <v>303</v>
       </c>
       <c r="D162" s="22" t="s">
@@ -5252,34 +5279,34 @@
       <c r="G162" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="H162" s="36" t="s">
+      <c r="H162" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I162" s="30" t="s">
+      <c r="I162" s="31" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="40"/>
-      <c r="B163" s="30"/>
-      <c r="C163" s="31"/>
+      <c r="A163" s="27"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="32"/>
       <c r="D163" s="22" t="s">
         <v>304</v>
       </c>
       <c r="E163" s="23"/>
       <c r="F163" s="23"/>
       <c r="G163" s="23"/>
-      <c r="H163" s="36"/>
-      <c r="I163" s="30"/>
+      <c r="H163" s="30"/>
+      <c r="I163" s="31"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="34" t="s">
+      <c r="A164" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="B164" s="24" t="s">
+      <c r="B164" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="C164" s="25" t="s">
+      <c r="C164" s="29" t="s">
         <v>238</v>
       </c>
       <c r="D164" s="20" t="s">
@@ -5294,32 +5321,32 @@
       <c r="G164" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="H164" s="36" t="s">
+      <c r="H164" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I164" s="24" t="s">
+      <c r="I164" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A165" s="35"/>
-      <c r="B165" s="24"/>
-      <c r="C165" s="25"/>
+      <c r="A165" s="26"/>
+      <c r="B165" s="28"/>
+      <c r="C165" s="29"/>
       <c r="D165" s="20" t="s">
         <v>242</v>
       </c>
       <c r="E165" s="20"/>
       <c r="F165" s="20"/>
       <c r="G165" s="20"/>
-      <c r="H165" s="36"/>
-      <c r="I165" s="24"/>
+      <c r="H165" s="30"/>
+      <c r="I165" s="28"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166" s="35"/>
-      <c r="B166" s="30" t="s">
+      <c r="A166" s="26"/>
+      <c r="B166" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="C166" s="31" t="s">
+      <c r="C166" s="32" t="s">
         <v>237</v>
       </c>
       <c r="D166" s="22" t="s">
@@ -5334,34 +5361,34 @@
       <c r="G166" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="H166" s="36" t="s">
+      <c r="H166" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I166" s="30" t="s">
+      <c r="I166" s="31" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="40"/>
-      <c r="B167" s="30"/>
-      <c r="C167" s="31"/>
+      <c r="A167" s="27"/>
+      <c r="B167" s="31"/>
+      <c r="C167" s="32"/>
       <c r="D167" s="22" t="s">
         <v>242</v>
       </c>
       <c r="E167" s="23"/>
       <c r="F167" s="23"/>
       <c r="G167" s="23"/>
-      <c r="H167" s="36"/>
-      <c r="I167" s="30"/>
+      <c r="H167" s="30"/>
+      <c r="I167" s="31"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A168" s="34" t="s">
+      <c r="A168" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="B168" s="24" t="s">
+      <c r="B168" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="C168" s="25" t="s">
+      <c r="C168" s="29" t="s">
         <v>248</v>
       </c>
       <c r="D168" s="20" t="s">
@@ -5376,32 +5403,32 @@
       <c r="G168" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="H168" s="36" t="s">
+      <c r="H168" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I168" s="24" t="s">
+      <c r="I168" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A169" s="35"/>
-      <c r="B169" s="24"/>
-      <c r="C169" s="25"/>
+      <c r="A169" s="26"/>
+      <c r="B169" s="28"/>
+      <c r="C169" s="29"/>
       <c r="D169" s="20" t="s">
         <v>250</v>
       </c>
       <c r="E169" s="20"/>
       <c r="F169" s="20"/>
       <c r="G169" s="20"/>
-      <c r="H169" s="36"/>
-      <c r="I169" s="24"/>
+      <c r="H169" s="30"/>
+      <c r="I169" s="28"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A170" s="35"/>
-      <c r="B170" s="30" t="s">
+      <c r="A170" s="26"/>
+      <c r="B170" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="C170" s="31" t="s">
+      <c r="C170" s="32" t="s">
         <v>249</v>
       </c>
       <c r="D170" s="22" t="s">
@@ -5416,34 +5443,34 @@
       <c r="G170" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="H170" s="36" t="s">
+      <c r="H170" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I170" s="30" t="s">
+      <c r="I170" s="31" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="40"/>
-      <c r="B171" s="30"/>
-      <c r="C171" s="31"/>
+      <c r="A171" s="27"/>
+      <c r="B171" s="31"/>
+      <c r="C171" s="32"/>
       <c r="D171" s="22" t="s">
         <v>250</v>
       </c>
       <c r="E171" s="23"/>
       <c r="F171" s="23"/>
       <c r="G171" s="23"/>
-      <c r="H171" s="36"/>
-      <c r="I171" s="30"/>
+      <c r="H171" s="30"/>
+      <c r="I171" s="31"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A172" s="34" t="s">
+      <c r="A172" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="B172" s="24" t="s">
+      <c r="B172" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="C172" s="25" t="s">
+      <c r="C172" s="29" t="s">
         <v>253</v>
       </c>
       <c r="D172" s="20" t="s">
@@ -5458,32 +5485,32 @@
       <c r="G172" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="H172" s="36" t="s">
+      <c r="H172" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I172" s="24" t="s">
+      <c r="I172" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173" s="35"/>
-      <c r="B173" s="24"/>
-      <c r="C173" s="25"/>
+      <c r="A173" s="26"/>
+      <c r="B173" s="28"/>
+      <c r="C173" s="29"/>
       <c r="D173" s="20" t="s">
         <v>258</v>
       </c>
       <c r="E173" s="20"/>
       <c r="F173" s="20"/>
       <c r="G173" s="20"/>
-      <c r="H173" s="36"/>
-      <c r="I173" s="24"/>
+      <c r="H173" s="30"/>
+      <c r="I173" s="28"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A174" s="35"/>
-      <c r="B174" s="30" t="s">
+      <c r="A174" s="26"/>
+      <c r="B174" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="C174" s="31" t="s">
+      <c r="C174" s="32" t="s">
         <v>314</v>
       </c>
       <c r="D174" s="22" t="s">
@@ -5498,34 +5525,34 @@
       <c r="G174" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="H174" s="36" t="s">
+      <c r="H174" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I174" s="30" t="s">
+      <c r="I174" s="31" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="40"/>
-      <c r="B175" s="30"/>
-      <c r="C175" s="31"/>
+      <c r="A175" s="27"/>
+      <c r="B175" s="31"/>
+      <c r="C175" s="32"/>
       <c r="D175" s="22" t="s">
         <v>258</v>
       </c>
       <c r="E175" s="23"/>
       <c r="F175" s="23"/>
       <c r="G175" s="23"/>
-      <c r="H175" s="36"/>
-      <c r="I175" s="30"/>
+      <c r="H175" s="30"/>
+      <c r="I175" s="31"/>
     </row>
     <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="34" t="s">
+      <c r="A176" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="B176" s="24" t="s">
+      <c r="B176" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="C176" s="25" t="s">
+      <c r="C176" s="29" t="s">
         <v>266</v>
       </c>
       <c r="D176" s="20" t="s">
@@ -5540,32 +5567,32 @@
       <c r="G176" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="H176" s="36" t="s">
+      <c r="H176" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I176" s="24" t="s">
+      <c r="I176" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A177" s="35"/>
-      <c r="B177" s="24"/>
-      <c r="C177" s="25"/>
+      <c r="A177" s="26"/>
+      <c r="B177" s="28"/>
+      <c r="C177" s="29"/>
       <c r="D177" s="20" t="s">
         <v>268</v>
       </c>
       <c r="E177" s="20"/>
       <c r="F177" s="20"/>
       <c r="G177" s="20"/>
-      <c r="H177" s="36"/>
-      <c r="I177" s="24"/>
+      <c r="H177" s="30"/>
+      <c r="I177" s="28"/>
     </row>
     <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="35"/>
-      <c r="B178" s="30" t="s">
+      <c r="A178" s="26"/>
+      <c r="B178" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="C178" s="31" t="s">
+      <c r="C178" s="32" t="s">
         <v>267</v>
       </c>
       <c r="D178" s="22" t="s">
@@ -5580,34 +5607,34 @@
       <c r="G178" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="H178" s="36" t="s">
+      <c r="H178" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I178" s="30" t="s">
+      <c r="I178" s="31" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="40"/>
-      <c r="B179" s="30"/>
-      <c r="C179" s="31"/>
+      <c r="A179" s="27"/>
+      <c r="B179" s="31"/>
+      <c r="C179" s="32"/>
       <c r="D179" s="22" t="s">
         <v>268</v>
       </c>
       <c r="E179" s="23"/>
       <c r="F179" s="23"/>
       <c r="G179" s="23"/>
-      <c r="H179" s="36"/>
-      <c r="I179" s="30"/>
+      <c r="H179" s="30"/>
+      <c r="I179" s="31"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A180" s="34" t="s">
+      <c r="A180" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="B180" s="24" t="s">
+      <c r="B180" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="C180" s="25" t="s">
+      <c r="C180" s="29" t="s">
         <v>310</v>
       </c>
       <c r="D180" s="20" t="s">
@@ -5622,32 +5649,32 @@
       <c r="G180" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H180" s="36" t="s">
+      <c r="H180" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I180" s="24" t="s">
+      <c r="I180" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A181" s="35"/>
-      <c r="B181" s="24"/>
-      <c r="C181" s="25"/>
+      <c r="A181" s="26"/>
+      <c r="B181" s="28"/>
+      <c r="C181" s="29"/>
       <c r="D181" s="20" t="s">
         <v>232</v>
       </c>
       <c r="E181" s="20"/>
       <c r="F181" s="20"/>
       <c r="G181" s="20"/>
-      <c r="H181" s="36"/>
-      <c r="I181" s="24"/>
+      <c r="H181" s="30"/>
+      <c r="I181" s="28"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A182" s="35"/>
-      <c r="B182" s="30" t="s">
+      <c r="A182" s="26"/>
+      <c r="B182" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="C182" s="31" t="s">
+      <c r="C182" s="32" t="s">
         <v>311</v>
       </c>
       <c r="D182" s="22" t="s">
@@ -5662,34 +5689,34 @@
       <c r="G182" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H182" s="36" t="s">
+      <c r="H182" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I182" s="30" t="s">
+      <c r="I182" s="31" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="35"/>
-      <c r="B183" s="30"/>
-      <c r="C183" s="31"/>
+      <c r="A183" s="26"/>
+      <c r="B183" s="31"/>
+      <c r="C183" s="32"/>
       <c r="D183" s="22" t="s">
         <v>232</v>
       </c>
       <c r="E183" s="23"/>
       <c r="F183" s="23"/>
       <c r="G183" s="23"/>
-      <c r="H183" s="36"/>
-      <c r="I183" s="30"/>
+      <c r="H183" s="30"/>
+      <c r="I183" s="31"/>
     </row>
     <row r="184" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="32" t="s">
+      <c r="A184" s="37" t="s">
         <v>355</v>
       </c>
-      <c r="B184" s="24" t="s">
+      <c r="B184" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="C184" s="25" t="s">
+      <c r="C184" s="29" t="s">
         <v>394</v>
       </c>
       <c r="D184" s="20" t="s">
@@ -5706,9 +5733,9 @@
       <c r="I184" s="20"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185" s="33"/>
-      <c r="B185" s="24"/>
-      <c r="C185" s="25"/>
+      <c r="A185" s="38"/>
+      <c r="B185" s="28"/>
+      <c r="C185" s="29"/>
       <c r="D185" s="20" t="s">
         <v>358</v>
       </c>
@@ -5721,9 +5748,9 @@
       <c r="I185" s="20"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" s="33"/>
-      <c r="B186" s="24"/>
-      <c r="C186" s="25"/>
+      <c r="A186" s="38"/>
+      <c r="B186" s="28"/>
+      <c r="C186" s="29"/>
       <c r="D186" s="20" t="s">
         <v>210</v>
       </c>
@@ -5734,11 +5761,11 @@
       <c r="I186" s="20"/>
     </row>
     <row r="187" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="33"/>
-      <c r="B187" s="26" t="s">
+      <c r="A187" s="38"/>
+      <c r="B187" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="C187" s="28" t="s">
+      <c r="C187" s="44" t="s">
         <v>395</v>
       </c>
       <c r="D187" s="21" t="s">
@@ -5755,9 +5782,9 @@
       <c r="I187" s="21"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A188" s="33"/>
-      <c r="B188" s="26"/>
-      <c r="C188" s="28"/>
+      <c r="A188" s="38"/>
+      <c r="B188" s="42"/>
+      <c r="C188" s="44"/>
       <c r="D188" s="21" t="s">
         <v>22</v>
       </c>
@@ -5770,9 +5797,9 @@
       <c r="I188" s="21"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A189" s="33"/>
-      <c r="B189" s="27"/>
-      <c r="C189" s="29"/>
+      <c r="A189" s="38"/>
+      <c r="B189" s="43"/>
+      <c r="C189" s="45"/>
       <c r="D189" s="12" t="s">
         <v>210</v>
       </c>
@@ -5783,13 +5810,13 @@
       <c r="I189" s="12"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A190" s="30" t="s">
+      <c r="A190" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="B190" s="24" t="s">
+      <c r="B190" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="C190" s="25" t="s">
+      <c r="C190" s="29" t="s">
         <v>396</v>
       </c>
       <c r="D190" s="20" t="s">
@@ -5806,9 +5833,9 @@
       <c r="I190" s="20"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A191" s="30"/>
-      <c r="B191" s="24"/>
-      <c r="C191" s="25"/>
+      <c r="A191" s="31"/>
+      <c r="B191" s="28"/>
+      <c r="C191" s="29"/>
       <c r="D191" s="20" t="s">
         <v>363</v>
       </c>
@@ -5821,9 +5848,9 @@
       <c r="I191" s="20"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A192" s="30"/>
-      <c r="B192" s="24"/>
-      <c r="C192" s="25"/>
+      <c r="A192" s="31"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="29"/>
       <c r="D192" s="20" t="s">
         <v>210</v>
       </c>
@@ -5834,11 +5861,11 @@
       <c r="I192" s="20"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193" s="30"/>
-      <c r="B193" s="30" t="s">
+      <c r="A193" s="31"/>
+      <c r="B193" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="C193" s="31" t="s">
+      <c r="C193" s="32" t="s">
         <v>397</v>
       </c>
       <c r="D193" s="21" t="s">
@@ -5855,9 +5882,9 @@
       <c r="I193" s="23"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A194" s="30"/>
-      <c r="B194" s="30"/>
-      <c r="C194" s="31"/>
+      <c r="A194" s="31"/>
+      <c r="B194" s="31"/>
+      <c r="C194" s="32"/>
       <c r="D194" s="21" t="s">
         <v>367</v>
       </c>
@@ -5870,9 +5897,9 @@
       <c r="I194" s="23"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A195" s="30"/>
-      <c r="B195" s="30"/>
-      <c r="C195" s="31"/>
+      <c r="A195" s="31"/>
+      <c r="B195" s="31"/>
+      <c r="C195" s="32"/>
       <c r="D195" s="21" t="s">
         <v>210</v>
       </c>
@@ -5883,13 +5910,13 @@
       <c r="I195" s="23"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A196" s="30" t="s">
+      <c r="A196" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="B196" s="24" t="s">
+      <c r="B196" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="C196" s="25" t="s">
+      <c r="C196" s="29" t="s">
         <v>398</v>
       </c>
       <c r="D196" s="20" t="s">
@@ -5906,9 +5933,9 @@
       <c r="I196" s="20"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A197" s="30"/>
-      <c r="B197" s="24"/>
-      <c r="C197" s="25"/>
+      <c r="A197" s="31"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="29"/>
       <c r="D197" s="20" t="s">
         <v>367</v>
       </c>
@@ -5921,9 +5948,9 @@
       <c r="I197" s="20"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A198" s="30"/>
-      <c r="B198" s="24"/>
-      <c r="C198" s="25"/>
+      <c r="A198" s="31"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="29"/>
       <c r="D198" s="20" t="s">
         <v>210</v>
       </c>
@@ -5934,11 +5961,11 @@
       <c r="I198" s="20"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A199" s="30"/>
-      <c r="B199" s="30" t="s">
+      <c r="A199" s="31"/>
+      <c r="B199" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="C199" s="31" t="s">
+      <c r="C199" s="32" t="s">
         <v>399</v>
       </c>
       <c r="D199" s="21" t="s">
@@ -5955,9 +5982,9 @@
       <c r="I199" s="23"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A200" s="30"/>
-      <c r="B200" s="30"/>
-      <c r="C200" s="31"/>
+      <c r="A200" s="31"/>
+      <c r="B200" s="31"/>
+      <c r="C200" s="32"/>
       <c r="D200" s="21" t="s">
         <v>363</v>
       </c>
@@ -5970,9 +5997,9 @@
       <c r="I200" s="23"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A201" s="30"/>
-      <c r="B201" s="30"/>
-      <c r="C201" s="31"/>
+      <c r="A201" s="31"/>
+      <c r="B201" s="31"/>
+      <c r="C201" s="32"/>
       <c r="D201" s="21" t="s">
         <v>210</v>
       </c>
@@ -5983,13 +6010,13 @@
       <c r="I201" s="23"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A202" s="30" t="s">
+      <c r="A202" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="B202" s="24" t="s">
+      <c r="B202" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="C202" s="25" t="s">
+      <c r="C202" s="29" t="s">
         <v>400</v>
       </c>
       <c r="D202" s="20" t="s">
@@ -6006,9 +6033,9 @@
       <c r="I202" s="20"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A203" s="30"/>
-      <c r="B203" s="24"/>
-      <c r="C203" s="25"/>
+      <c r="A203" s="31"/>
+      <c r="B203" s="28"/>
+      <c r="C203" s="29"/>
       <c r="D203" s="20" t="s">
         <v>376</v>
       </c>
@@ -6019,11 +6046,11 @@
       <c r="I203" s="20"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A204" s="30"/>
-      <c r="B204" s="30" t="s">
+      <c r="A204" s="31"/>
+      <c r="B204" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="C204" s="31" t="s">
+      <c r="C204" s="32" t="s">
         <v>401</v>
       </c>
       <c r="D204" s="21" t="s">
@@ -6040,9 +6067,9 @@
       <c r="I204" s="23"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A205" s="30"/>
-      <c r="B205" s="30"/>
-      <c r="C205" s="31"/>
+      <c r="A205" s="31"/>
+      <c r="B205" s="31"/>
+      <c r="C205" s="32"/>
       <c r="D205" s="21" t="s">
         <v>376</v>
       </c>
@@ -6053,13 +6080,13 @@
       <c r="I205" s="23"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A206" s="30" t="s">
+      <c r="A206" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="B206" s="24" t="s">
+      <c r="B206" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="C206" s="25" t="s">
+      <c r="C206" s="29" t="s">
         <v>402</v>
       </c>
       <c r="D206" s="20" t="s">
@@ -6076,9 +6103,9 @@
       <c r="I206" s="20"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A207" s="30"/>
-      <c r="B207" s="24"/>
-      <c r="C207" s="25"/>
+      <c r="A207" s="31"/>
+      <c r="B207" s="28"/>
+      <c r="C207" s="29"/>
       <c r="D207" s="20" t="s">
         <v>384</v>
       </c>
@@ -6089,11 +6116,11 @@
       <c r="I207" s="20"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A208" s="30"/>
-      <c r="B208" s="30" t="s">
+      <c r="A208" s="31"/>
+      <c r="B208" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="C208" s="31" t="s">
+      <c r="C208" s="32" t="s">
         <v>403</v>
       </c>
       <c r="D208" s="21" t="s">
@@ -6110,9 +6137,9 @@
       <c r="I208" s="23"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A209" s="30"/>
-      <c r="B209" s="30"/>
-      <c r="C209" s="31"/>
+      <c r="A209" s="31"/>
+      <c r="B209" s="31"/>
+      <c r="C209" s="32"/>
       <c r="D209" s="21" t="s">
         <v>384</v>
       </c>
@@ -6123,13 +6150,13 @@
       <c r="I209" s="23"/>
     </row>
     <row r="210" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="78" t="s">
+      <c r="A210" s="46" t="s">
         <v>388</v>
       </c>
-      <c r="B210" s="62" t="s">
+      <c r="B210" s="49" t="s">
         <v>389</v>
       </c>
-      <c r="C210" s="81" t="s">
+      <c r="C210" s="51" t="s">
         <v>404</v>
       </c>
       <c r="D210" s="20" t="s">
@@ -6146,9 +6173,9 @@
       <c r="I210" s="20"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A211" s="79"/>
-      <c r="B211" s="64"/>
-      <c r="C211" s="82"/>
+      <c r="A211" s="47"/>
+      <c r="B211" s="50"/>
+      <c r="C211" s="52"/>
       <c r="D211" s="20" t="s">
         <v>391</v>
       </c>
@@ -6159,11 +6186,11 @@
       <c r="I211" s="20"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A212" s="79"/>
-      <c r="B212" s="26" t="s">
+      <c r="A212" s="47"/>
+      <c r="B212" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="C212" s="28" t="s">
+      <c r="C212" s="44" t="s">
         <v>405</v>
       </c>
       <c r="D212" s="21" t="s">
@@ -6173,16 +6200,16 @@
         <v>387</v>
       </c>
       <c r="F212" s="21" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G212" s="21"/>
       <c r="H212" s="21"/>
       <c r="I212" s="21"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A213" s="80"/>
-      <c r="B213" s="27"/>
-      <c r="C213" s="29"/>
+      <c r="A213" s="48"/>
+      <c r="B213" s="43"/>
+      <c r="C213" s="45"/>
       <c r="D213" s="12" t="s">
         <v>391</v>
       </c>
@@ -6193,32 +6220,32 @@
       <c r="I213" s="12"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A214" s="78" t="s">
+      <c r="A214" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="B214" s="62" t="s">
+      <c r="B214" s="49" t="s">
         <v>409</v>
       </c>
-      <c r="C214" s="81" t="s">
+      <c r="C214" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F214" s="20" t="s">
         <v>411</v>
-      </c>
-      <c r="D214" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="E214" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F214" s="20" t="s">
-        <v>412</v>
       </c>
       <c r="G214" s="7"/>
       <c r="H214" s="7"/>
       <c r="I214" s="7"/>
     </row>
     <row r="215" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="79"/>
-      <c r="B215" s="63"/>
-      <c r="C215" s="83"/>
+      <c r="A215" s="47"/>
+      <c r="B215" s="53"/>
+      <c r="C215" s="56"/>
       <c r="D215" s="20" t="s">
         <v>363</v>
       </c>
@@ -6231,11 +6258,11 @@
       <c r="I215" s="20"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A216" s="79"/>
-      <c r="B216" s="64"/>
-      <c r="C216" s="82"/>
+      <c r="A216" s="47"/>
+      <c r="B216" s="50"/>
+      <c r="C216" s="52"/>
       <c r="D216" s="20" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E216" s="20"/>
       <c r="F216" s="20"/>
@@ -6244,47 +6271,47 @@
       <c r="I216" s="20"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A217" s="79"/>
-      <c r="B217" s="27" t="s">
+      <c r="A217" s="47"/>
+      <c r="B217" s="43" t="s">
         <v>410</v>
       </c>
-      <c r="C217" s="29" t="s">
-        <v>413</v>
+      <c r="C217" s="45" t="s">
+        <v>432</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E217" s="12" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F217" s="21" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G217" s="21"/>
       <c r="H217" s="21"/>
       <c r="I217" s="21"/>
     </row>
     <row r="218" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="79"/>
-      <c r="B218" s="84"/>
-      <c r="C218" s="85"/>
+      <c r="A218" s="47"/>
+      <c r="B218" s="54"/>
+      <c r="C218" s="57"/>
       <c r="D218" s="21" t="s">
         <v>367</v>
       </c>
       <c r="E218" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="F218" s="86"/>
+      <c r="F218" s="24"/>
       <c r="G218" s="21"/>
       <c r="H218" s="21"/>
       <c r="I218" s="21"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A219" s="80"/>
-      <c r="B219" s="87"/>
-      <c r="C219" s="88"/>
+      <c r="A219" s="48"/>
+      <c r="B219" s="55"/>
+      <c r="C219" s="58"/>
       <c r="D219" s="21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E219" s="21"/>
       <c r="F219" s="21"/>
@@ -6293,34 +6320,34 @@
       <c r="I219" s="21"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A220" s="30" t="s">
+      <c r="A220" s="31" t="s">
         <v>408</v>
       </c>
-      <c r="B220" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="C220" s="25" t="s">
+      <c r="B220" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="C220" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="D220" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="E220" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="D220" s="20" t="s">
+      <c r="F220" s="20" t="s">
         <v>416</v>
-      </c>
-      <c r="E220" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="F220" s="20" t="s">
-        <v>419</v>
       </c>
       <c r="G220" s="20"/>
       <c r="H220" s="20"/>
       <c r="I220" s="20"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A221" s="30"/>
-      <c r="B221" s="24"/>
-      <c r="C221" s="25"/>
+      <c r="A221" s="31"/>
+      <c r="B221" s="28"/>
+      <c r="C221" s="29"/>
       <c r="D221" s="20" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E221" s="20"/>
       <c r="F221" s="20"/>
@@ -6329,32 +6356,32 @@
       <c r="I221" s="20"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A222" s="30"/>
-      <c r="B222" s="30" t="s">
+      <c r="A222" s="31"/>
+      <c r="B222" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="C222" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="D222" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="E222" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="F222" s="23" t="s">
         <v>420</v>
-      </c>
-      <c r="C222" s="31" t="s">
-        <v>421</v>
-      </c>
-      <c r="D222" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="E222" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="F222" s="23" t="s">
-        <v>424</v>
       </c>
       <c r="G222" s="23"/>
       <c r="H222" s="23"/>
       <c r="I222" s="23"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A223" s="30"/>
-      <c r="B223" s="30"/>
-      <c r="C223" s="31"/>
+      <c r="A223" s="31"/>
+      <c r="B223" s="31"/>
+      <c r="C223" s="32"/>
       <c r="D223" s="21" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E223" s="23"/>
       <c r="F223" s="23"/>
@@ -6362,97 +6389,303 @@
       <c r="H223" s="23"/>
       <c r="I223" s="23"/>
     </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="B224" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="C224" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="D224" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="E224" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="F224" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="G224" s="20"/>
+      <c r="H224" s="20"/>
+      <c r="I224" s="20"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A225" s="31"/>
+      <c r="B225" s="28"/>
+      <c r="C225" s="29"/>
+      <c r="D225" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="E225" s="20"/>
+      <c r="F225" s="20"/>
+      <c r="G225" s="20"/>
+      <c r="H225" s="20"/>
+      <c r="I225" s="20"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A226" s="31"/>
+      <c r="B226" s="28"/>
+      <c r="C226" s="29"/>
+      <c r="D226" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="E226" s="20"/>
+      <c r="F226" s="20"/>
+      <c r="G226" s="20"/>
+      <c r="H226" s="20"/>
+      <c r="I226" s="20"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A227" s="31"/>
+      <c r="B227" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="C227" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="D227" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="E227" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="F227" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="G227" s="23"/>
+      <c r="H227" s="23"/>
+      <c r="I227" s="23"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A228" s="31"/>
+      <c r="B228" s="31"/>
+      <c r="C228" s="32"/>
+      <c r="D228" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="E228" s="23"/>
+      <c r="F228" s="23"/>
+      <c r="G228" s="23"/>
+      <c r="H228" s="23"/>
+      <c r="I228" s="23"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A229" s="31"/>
+      <c r="B229" s="31"/>
+      <c r="C229" s="32"/>
+      <c r="D229" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="E229" s="23"/>
+      <c r="F229" s="23"/>
+      <c r="G229" s="23"/>
+      <c r="H229" s="23"/>
+      <c r="I229" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="307">
-    <mergeCell ref="A176:A179"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="H176:H177"/>
-    <mergeCell ref="I176:I177"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="H178:H179"/>
-    <mergeCell ref="I178:I179"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="H172:H173"/>
-    <mergeCell ref="I172:I173"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="H174:H175"/>
-    <mergeCell ref="I174:I175"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="H166:H167"/>
-    <mergeCell ref="I166:I167"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="H168:H169"/>
-    <mergeCell ref="I168:I169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="H164:H165"/>
-    <mergeCell ref="I164:I165"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="A160:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="H160:H161"/>
-    <mergeCell ref="I160:I161"/>
-    <mergeCell ref="I162:I163"/>
-    <mergeCell ref="H162:H163"/>
-    <mergeCell ref="A154:A159"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="H154:H156"/>
-    <mergeCell ref="I154:I156"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="H157:H159"/>
-    <mergeCell ref="I157:I159"/>
-    <mergeCell ref="A148:A153"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="H148:H150"/>
-    <mergeCell ref="I148:I150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="H151:H153"/>
-    <mergeCell ref="I151:I153"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="A142:A147"/>
-    <mergeCell ref="H142:H144"/>
-    <mergeCell ref="H145:H147"/>
-    <mergeCell ref="I145:I147"/>
-    <mergeCell ref="I142:I144"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="H122:H126"/>
-    <mergeCell ref="I122:I126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="H127:H131"/>
-    <mergeCell ref="I127:I131"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
+  <mergeCells count="312">
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="C227:C229"/>
+    <mergeCell ref="A224:A229"/>
+    <mergeCell ref="A210:A213"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="A220:A223"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="C222:C223"/>
+    <mergeCell ref="A214:A219"/>
+    <mergeCell ref="B214:B216"/>
+    <mergeCell ref="B217:B219"/>
+    <mergeCell ref="C214:C216"/>
+    <mergeCell ref="C217:C219"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="C190:C192"/>
+    <mergeCell ref="B190:B192"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="C193:C195"/>
+    <mergeCell ref="A190:A195"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="A196:A201"/>
+    <mergeCell ref="A184:A189"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="C184:C186"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="A180:A183"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="H180:H181"/>
+    <mergeCell ref="I180:I181"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="H182:H183"/>
+    <mergeCell ref="I182:I183"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="H116:H118"/>
+    <mergeCell ref="I116:I118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="H119:H121"/>
+    <mergeCell ref="I119:I121"/>
+    <mergeCell ref="H132:H136"/>
+    <mergeCell ref="I132:I136"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="C137:C141"/>
+    <mergeCell ref="H137:H141"/>
+    <mergeCell ref="I137:I141"/>
+    <mergeCell ref="A122:A141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="A110:A115"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="H110:H112"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="H113:H115"/>
+    <mergeCell ref="I113:I115"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="H107:H109"/>
+    <mergeCell ref="I107:I109"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="H98:H100"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="I101:I103"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="H26:H28"/>
     <mergeCell ref="I26:I28"/>
@@ -6477,200 +6710,95 @@
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="I74:I76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="H77:H79"/>
-    <mergeCell ref="I77:I79"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="I95:I97"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="H98:H100"/>
-    <mergeCell ref="I98:I100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="H101:H103"/>
-    <mergeCell ref="I101:I103"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="I104:I106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="H107:H109"/>
-    <mergeCell ref="I107:I109"/>
-    <mergeCell ref="A110:A115"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="H110:H112"/>
-    <mergeCell ref="I110:I112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="H113:H115"/>
-    <mergeCell ref="I113:I115"/>
-    <mergeCell ref="I180:I181"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="H182:H183"/>
-    <mergeCell ref="I182:I183"/>
-    <mergeCell ref="A116:A121"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="H116:H118"/>
-    <mergeCell ref="I116:I118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="H119:H121"/>
-    <mergeCell ref="I119:I121"/>
-    <mergeCell ref="H132:H136"/>
-    <mergeCell ref="I132:I136"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="C137:C141"/>
-    <mergeCell ref="H137:H141"/>
-    <mergeCell ref="I137:I141"/>
-    <mergeCell ref="A122:A141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="A184:A189"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="C184:C186"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="A180:A183"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="H180:H181"/>
-    <mergeCell ref="C190:C192"/>
-    <mergeCell ref="B190:B192"/>
-    <mergeCell ref="B193:B195"/>
-    <mergeCell ref="C193:C195"/>
-    <mergeCell ref="A190:A195"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="C196:C198"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="A196:A201"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="A210:A213"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="A220:A223"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="C222:C223"/>
-    <mergeCell ref="A214:A219"/>
-    <mergeCell ref="B214:B216"/>
-    <mergeCell ref="B217:B219"/>
-    <mergeCell ref="C214:C216"/>
-    <mergeCell ref="C217:C219"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="H142:H144"/>
+    <mergeCell ref="H145:H147"/>
+    <mergeCell ref="I145:I147"/>
+    <mergeCell ref="I142:I144"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="H122:H126"/>
+    <mergeCell ref="I122:I126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="H127:H131"/>
+    <mergeCell ref="I127:I131"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="C132:C136"/>
+    <mergeCell ref="A148:A153"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="H148:H150"/>
+    <mergeCell ref="I148:I150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="H151:H153"/>
+    <mergeCell ref="I151:I153"/>
+    <mergeCell ref="A154:A159"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="H154:H156"/>
+    <mergeCell ref="I154:I156"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="H157:H159"/>
+    <mergeCell ref="I157:I159"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="H160:H161"/>
+    <mergeCell ref="I160:I161"/>
+    <mergeCell ref="I162:I163"/>
+    <mergeCell ref="H162:H163"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="I166:I167"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="H168:H169"/>
+    <mergeCell ref="I168:I169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="H164:H165"/>
+    <mergeCell ref="I164:I165"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="H172:H173"/>
+    <mergeCell ref="I172:I173"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="H174:H175"/>
+    <mergeCell ref="I174:I175"/>
+    <mergeCell ref="A176:A179"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="H176:H177"/>
+    <mergeCell ref="I176:I177"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="H178:H179"/>
+    <mergeCell ref="I178:I179"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6728,13 +6856,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="86" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="83" t="s">
         <v>321</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -6749,17 +6877,17 @@
       <c r="G2" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="68" t="s">
         <v>296</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="70" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="84"/>
       <c r="D3" s="5" t="s">
         <v>323</v>
       </c>
@@ -6768,41 +6896,41 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="72"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="66"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="55"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="5" t="s">
         <v>324</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="72"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="66"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="56"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="6" t="s">
         <v>325</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="48" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="72" t="s">
         <v>329</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="75" t="s">
         <v>330</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -6817,17 +6945,17 @@
       <c r="G6" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="62" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="52"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="14" t="s">
         <v>323</v>
       </c>
@@ -6836,41 +6964,41 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="69"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="63"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="52"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="14" t="s">
         <v>324</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="69"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="63"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="60"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="16" t="s">
         <v>331</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="77"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="71"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="62" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="78" t="s">
         <v>334</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -6885,17 +7013,17 @@
       <c r="G10" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="H10" s="65" t="s">
+      <c r="H10" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="I10" s="71" t="s">
+      <c r="I10" s="65" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="46"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="5" t="s">
         <v>323</v>
       </c>
@@ -6904,41 +7032,41 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="72"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="66"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="46"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="5" t="s">
         <v>324</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="72"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="66"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="47"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="6" t="s">
         <v>335</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="73"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="67"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="48" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="72" t="s">
         <v>338</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="75" t="s">
         <v>337</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -6953,17 +7081,17 @@
       <c r="G14" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="H14" s="65" t="s">
+      <c r="H14" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="I14" s="68" t="s">
+      <c r="I14" s="62" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="52"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="14" t="s">
         <v>323</v>
       </c>
@@ -6972,41 +7100,41 @@
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="69"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="63"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="52"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="14" t="s">
         <v>324</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="69"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="63"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="60"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="16" t="s">
         <v>342</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="77"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="71"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="62" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="78" t="s">
         <v>346</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -7021,17 +7149,17 @@
       <c r="G18" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="H18" s="65" t="s">
+      <c r="H18" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="I18" s="71" t="s">
+      <c r="I18" s="65" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="46"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="5" t="s">
         <v>323</v>
       </c>
@@ -7040,41 +7168,41 @@
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="72"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="66"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="46"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="5" t="s">
         <v>324</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="72"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="66"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="47"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="80"/>
       <c r="D21" s="6" t="s">
         <v>351</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="73"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="67"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="48" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="72" t="s">
         <v>345</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="75" t="s">
         <v>347</v>
       </c>
       <c r="D22" s="12" t="s">
@@ -7089,17 +7217,17 @@
       <c r="G22" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="H22" s="65" t="s">
+      <c r="H22" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="I22" s="68" t="s">
+      <c r="I22" s="62" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="52"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="14" t="s">
         <v>323</v>
       </c>
@@ -7108,37 +7236,46 @@
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="69"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="63"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="52"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="14" t="s">
         <v>324</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="69"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="63"/>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="40"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="53"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="18" t="s">
         <v>350</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="70"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="I22:I25"/>
     <mergeCell ref="I18:I21"/>
@@ -7155,15 +7292,6 @@
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentation/Test Cases.xlsx
+++ b/Documentation/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010371\Documents\GitHub\axi2spi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200202BD-E867-4B0D-96CD-E1081C07EDF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35220CF1-7DB0-4D56-B0BF-0275C8F0FF8E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AXI" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="439">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1763,7 +1763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1793,67 +1793,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1877,6 +1826,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1894,6 +1855,96 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1934,56 +1985,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2267,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D240" sqref="D240"/>
+    <sheetView topLeftCell="A189" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G222" sqref="G222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2314,13 +2341,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="20" t="s">
@@ -2335,17 +2362,17 @@
       <c r="G2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I2" s="28" t="s">
+      <c r="H2" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="20" t="s">
         <v>22</v>
       </c>
@@ -2358,41 +2385,41 @@
       <c r="G3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="28"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="28"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="20" t="s">
         <v>295</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="28"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>270</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -2407,17 +2434,17 @@
       <c r="G6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I6" s="31" t="s">
+      <c r="H6" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I6" s="27" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="23" t="s">
         <v>22</v>
       </c>
@@ -2430,41 +2457,41 @@
       <c r="G7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="23" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="23" t="s">
         <v>295</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -2479,17 +2506,17 @@
       <c r="G10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I10" s="28" t="s">
+      <c r="H10" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I10" s="26" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="20" t="s">
         <v>22</v>
       </c>
@@ -2502,41 +2529,41 @@
       <c r="G11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="28"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="28"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="20" t="s">
         <v>295</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="28"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="26"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="31" t="s">
+      <c r="A14" s="49"/>
+      <c r="B14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="23" t="s">
@@ -2551,17 +2578,17 @@
       <c r="G14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I14" s="31" t="s">
+      <c r="H14" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I14" s="27" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="23" t="s">
         <v>29</v>
       </c>
@@ -2574,41 +2601,41 @@
       <c r="G15" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="23" t="s">
         <v>294</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="23" t="s">
         <v>295</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="28" t="s">
+      <c r="A18" s="49"/>
+      <c r="B18" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="25" t="s">
         <v>271</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -2623,17 +2650,17 @@
       <c r="G18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I18" s="28" t="s">
+      <c r="H18" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I18" s="26" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="20" t="s">
         <v>29</v>
       </c>
@@ -2646,41 +2673,41 @@
       <c r="G19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="28"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="26"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="20" t="s">
         <v>294</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="28"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="20" t="s">
         <v>295</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="28"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="49"/>
+      <c r="B22" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="28" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -2695,17 +2722,17 @@
       <c r="G22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I22" s="31" t="s">
+      <c r="H22" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I22" s="27" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="23" t="s">
         <v>29</v>
       </c>
@@ -2718,43 +2745,43 @@
       <c r="G23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="23" t="s">
         <v>294</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="27"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="23" t="s">
         <v>295</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="25" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="20" t="s">
@@ -2769,17 +2796,17 @@
       <c r="G26" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I26" s="28" t="s">
+      <c r="H26" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I26" s="26" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="20" t="s">
         <v>29</v>
       </c>
@@ -2788,28 +2815,28 @@
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="28"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="28"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
-      <c r="B29" s="31" t="s">
+      <c r="A29" s="47"/>
+      <c r="B29" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="53" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="23" t="s">
@@ -2824,17 +2851,17 @@
       <c r="G29" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I29" s="31" t="s">
+      <c r="H29" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I29" s="27" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="40"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="53"/>
       <c r="D30" s="23" t="s">
         <v>44</v>
       </c>
@@ -2843,30 +2870,30 @@
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="31"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="27"/>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="39"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="40"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="31"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="52" t="s">
         <v>54</v>
       </c>
       <c r="D32" s="20" t="s">
@@ -2881,17 +2908,17 @@
       <c r="G32" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I32" s="28" t="s">
+      <c r="H32" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I32" s="26" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="38"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="41"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="20" t="s">
         <v>29</v>
       </c>
@@ -2900,28 +2927,28 @@
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="28"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="26"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="38"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="41"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="28"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="26"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="38"/>
-      <c r="B35" s="31" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="53" t="s">
         <v>55</v>
       </c>
       <c r="D35" s="23" t="s">
@@ -2936,17 +2963,17 @@
       <c r="G35" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I35" s="31" t="s">
+      <c r="H35" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I35" s="27" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="38"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="40"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="23" t="s">
         <v>58</v>
       </c>
@@ -2955,30 +2982,30 @@
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="27"/>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="39"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="40"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="31"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="27"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="52" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="20" t="s">
@@ -2993,17 +3020,17 @@
       <c r="G38" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I38" s="28" t="s">
+      <c r="H38" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I38" s="26" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="38"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="41"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="20" t="s">
         <v>22</v>
       </c>
@@ -3012,28 +3039,28 @@
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="28"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="26"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="41"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="28"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="26"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="38"/>
-      <c r="B41" s="31" t="s">
+      <c r="A41" s="47"/>
+      <c r="B41" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="53" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="23" t="s">
@@ -3048,17 +3075,17 @@
       <c r="G41" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H41" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I41" s="31" t="s">
+      <c r="H41" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I41" s="27" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="40"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="23" t="s">
         <v>58</v>
       </c>
@@ -3067,30 +3094,30 @@
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="31"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="27"/>
     </row>
     <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="39"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="40"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="53"/>
       <c r="D43" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="31"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="27"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="52" t="s">
         <v>66</v>
       </c>
       <c r="D44" s="20" t="s">
@@ -3105,17 +3132,17 @@
       <c r="G44" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="H44" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I44" s="28" t="s">
+      <c r="H44" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I44" s="26" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="41"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="52"/>
       <c r="D45" s="20" t="s">
         <v>22</v>
       </c>
@@ -3124,28 +3151,28 @@
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="28"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="26"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="41"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="52"/>
       <c r="D46" s="20" t="s">
         <v>69</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="28"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="26"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
-      <c r="B47" s="31" t="s">
+      <c r="A47" s="47"/>
+      <c r="B47" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="53" t="s">
         <v>67</v>
       </c>
       <c r="D47" s="23" t="s">
@@ -3160,17 +3187,17 @@
       <c r="G47" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="H47" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I47" s="31" t="s">
+      <c r="H47" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I47" s="27" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="40"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="53"/>
       <c r="D48" s="23" t="s">
         <v>68</v>
       </c>
@@ -3179,30 +3206,30 @@
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="23"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="31"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="27"/>
     </row>
     <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="39"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="40"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="31"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="27"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="52" t="s">
         <v>77</v>
       </c>
       <c r="D50" s="20" t="s">
@@ -3217,17 +3244,17 @@
       <c r="G50" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="H50" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I50" s="28" t="s">
+      <c r="H50" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I50" s="26" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="38"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="41"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="20" t="s">
         <v>29</v>
       </c>
@@ -3236,28 +3263,28 @@
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="28"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="26"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="38"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="41"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="52"/>
       <c r="D52" s="20" t="s">
         <v>80</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="28"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="26"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="38"/>
-      <c r="B53" s="31" t="s">
+      <c r="A53" s="47"/>
+      <c r="B53" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="53" t="s">
         <v>78</v>
       </c>
       <c r="D53" s="23" t="s">
@@ -3272,17 +3299,17 @@
       <c r="G53" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="H53" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I53" s="31" t="s">
+      <c r="H53" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I53" s="27" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="38"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="40"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="23" t="s">
         <v>79</v>
       </c>
@@ -3291,30 +3318,30 @@
       </c>
       <c r="F54" s="23"/>
       <c r="G54" s="23"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="31"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="27"/>
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="39"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="40"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="23"/>
       <c r="G55" s="23"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="31"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="27"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="41" t="s">
+      <c r="C56" s="52" t="s">
         <v>86</v>
       </c>
       <c r="D56" s="20" t="s">
@@ -3329,17 +3356,17 @@
       <c r="G56" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H56" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I56" s="28" t="s">
+      <c r="H56" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I56" s="26" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="38"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="41"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="52"/>
       <c r="D57" s="20" t="s">
         <v>22</v>
       </c>
@@ -3348,28 +3375,28 @@
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="20"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="28"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="26"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="38"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="41"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="20" t="s">
         <v>89</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="28"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="26"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="38"/>
-      <c r="B59" s="31" t="s">
+      <c r="A59" s="47"/>
+      <c r="B59" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="40" t="s">
+      <c r="C59" s="53" t="s">
         <v>87</v>
       </c>
       <c r="D59" s="23" t="s">
@@ -3384,17 +3411,17 @@
       <c r="G59" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="H59" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I59" s="31" t="s">
+      <c r="H59" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I59" s="27" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="38"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="40"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="23" t="s">
         <v>90</v>
       </c>
@@ -3403,30 +3430,30 @@
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="31"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="27"/>
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="39"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="40"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="53"/>
       <c r="D61" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="31"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="27"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="37" t="s">
+      <c r="A62" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="52" t="s">
         <v>102</v>
       </c>
       <c r="D62" s="20" t="s">
@@ -3441,17 +3468,17 @@
       <c r="G62" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H62" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I62" s="28" t="s">
+      <c r="H62" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I62" s="26" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="38"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="41"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="52"/>
       <c r="D63" s="20" t="s">
         <v>29</v>
       </c>
@@ -3460,28 +3487,28 @@
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="28"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="26"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="38"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="41"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="52"/>
       <c r="D64" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="28"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="26"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="38"/>
-      <c r="B65" s="31" t="s">
+      <c r="A65" s="47"/>
+      <c r="B65" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="40" t="s">
+      <c r="C65" s="53" t="s">
         <v>101</v>
       </c>
       <c r="D65" s="23" t="s">
@@ -3496,17 +3523,17 @@
       <c r="G65" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="H65" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I65" s="31" t="s">
+      <c r="H65" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I65" s="27" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="38"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="40"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="53"/>
       <c r="D66" s="23" t="s">
         <v>104</v>
       </c>
@@ -3515,30 +3542,30 @@
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="31"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="27"/>
     </row>
     <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="39"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="40"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="53"/>
       <c r="D67" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E67" s="23"/>
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="31"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="27"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B68" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="C68" s="52" t="s">
         <v>100</v>
       </c>
       <c r="D68" s="20" t="s">
@@ -3553,17 +3580,17 @@
       <c r="G68" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H68" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I68" s="28" t="s">
+      <c r="H68" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I68" s="26" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="38"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="41"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="52"/>
       <c r="D69" s="20" t="s">
         <v>22</v>
       </c>
@@ -3572,28 +3599,28 @@
       </c>
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="28"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="26"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="38"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="41"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="52"/>
       <c r="D70" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
       <c r="G70" s="20"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="28"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="26"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="38"/>
-      <c r="B71" s="31" t="s">
+      <c r="A71" s="47"/>
+      <c r="B71" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="40" t="s">
+      <c r="C71" s="53" t="s">
         <v>99</v>
       </c>
       <c r="D71" s="23" t="s">
@@ -3608,17 +3635,17 @@
       <c r="G71" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="H71" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I71" s="31" t="s">
+      <c r="H71" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I71" s="27" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="38"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="40"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="53"/>
       <c r="D72" s="23" t="s">
         <v>104</v>
       </c>
@@ -3627,30 +3654,30 @@
       </c>
       <c r="F72" s="23"/>
       <c r="G72" s="23"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="31"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="27"/>
     </row>
     <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="39"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="40"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="53"/>
       <c r="D73" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="31"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="27"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="37" t="s">
+      <c r="A74" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C74" s="41" t="s">
+      <c r="C74" s="52" t="s">
         <v>111</v>
       </c>
       <c r="D74" s="20" t="s">
@@ -3665,17 +3692,17 @@
       <c r="G74" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="H74" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I74" s="28" t="s">
+      <c r="H74" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I74" s="26" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="38"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="41"/>
+      <c r="A75" s="47"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="52"/>
       <c r="D75" s="20" t="s">
         <v>22</v>
       </c>
@@ -3684,28 +3711,28 @@
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="20"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="28"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="26"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="38"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="41"/>
+      <c r="A76" s="47"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="52"/>
       <c r="D76" s="20" t="s">
         <v>114</v>
       </c>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
       <c r="G76" s="20"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="28"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="26"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="38"/>
-      <c r="B77" s="31" t="s">
+      <c r="A77" s="47"/>
+      <c r="B77" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="40" t="s">
+      <c r="C77" s="53" t="s">
         <v>110</v>
       </c>
       <c r="D77" s="23" t="s">
@@ -3720,17 +3747,17 @@
       <c r="G77" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="H77" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I77" s="31" t="s">
+      <c r="H77" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I77" s="27" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="38"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="40"/>
+      <c r="A78" s="47"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="53"/>
       <c r="D78" s="23" t="s">
         <v>113</v>
       </c>
@@ -3739,30 +3766,30 @@
       </c>
       <c r="F78" s="23"/>
       <c r="G78" s="23"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="31"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="27"/>
     </row>
     <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="39"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="40"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="53"/>
       <c r="D79" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="23"/>
       <c r="G79" s="23"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="31"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="27"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="28" t="s">
+      <c r="B80" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C80" s="41" t="s">
+      <c r="C80" s="52" t="s">
         <v>123</v>
       </c>
       <c r="D80" s="20" t="s">
@@ -3777,17 +3804,17 @@
       <c r="G80" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="H80" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I80" s="28" t="s">
+      <c r="H80" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I80" s="26" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="38"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="41"/>
+      <c r="A81" s="47"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="52"/>
       <c r="D81" s="20" t="s">
         <v>22</v>
       </c>
@@ -3796,28 +3823,28 @@
       </c>
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="28"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="26"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="38"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="41"/>
+      <c r="A82" s="47"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="52"/>
       <c r="D82" s="20" t="s">
         <v>126</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
       <c r="G82" s="20"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="28"/>
+      <c r="H82" s="50"/>
+      <c r="I82" s="26"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="38"/>
-      <c r="B83" s="31" t="s">
+      <c r="A83" s="47"/>
+      <c r="B83" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="40" t="s">
+      <c r="C83" s="53" t="s">
         <v>122</v>
       </c>
       <c r="D83" s="23" t="s">
@@ -3832,17 +3859,17 @@
       <c r="G83" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="H83" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I83" s="31" t="s">
+      <c r="H83" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I83" s="27" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="38"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="40"/>
+      <c r="A84" s="47"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="53"/>
       <c r="D84" s="23" t="s">
         <v>125</v>
       </c>
@@ -3851,30 +3878,30 @@
       </c>
       <c r="F84" s="23"/>
       <c r="G84" s="23"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="31"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="27"/>
     </row>
     <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="39"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="40"/>
+      <c r="A85" s="51"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="53"/>
       <c r="D85" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="23"/>
       <c r="G85" s="23"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="31"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="27"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="37" t="s">
+      <c r="A86" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="B86" s="28" t="s">
+      <c r="B86" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="41" t="s">
+      <c r="C86" s="52" t="s">
         <v>138</v>
       </c>
       <c r="D86" s="20" t="s">
@@ -3889,17 +3916,17 @@
       <c r="G86" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="H86" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I86" s="28" t="s">
+      <c r="H86" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I86" s="26" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="38"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="41"/>
+      <c r="A87" s="47"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="52"/>
       <c r="D87" s="20" t="s">
         <v>29</v>
       </c>
@@ -3908,28 +3935,28 @@
       </c>
       <c r="F87" s="20"/>
       <c r="G87" s="20"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="28"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="26"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="38"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="41"/>
+      <c r="A88" s="47"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="52"/>
       <c r="D88" s="20" t="s">
         <v>139</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
       <c r="G88" s="20"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="28"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="26"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="38"/>
-      <c r="B89" s="31" t="s">
+      <c r="A89" s="47"/>
+      <c r="B89" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C89" s="40" t="s">
+      <c r="C89" s="53" t="s">
         <v>137</v>
       </c>
       <c r="D89" s="23" t="s">
@@ -3944,17 +3971,17 @@
       <c r="G89" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="H89" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I89" s="31" t="s">
+      <c r="H89" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I89" s="27" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="38"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="40"/>
+      <c r="A90" s="47"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="53"/>
       <c r="D90" s="23" t="s">
         <v>140</v>
       </c>
@@ -3963,30 +3990,30 @@
       </c>
       <c r="F90" s="23"/>
       <c r="G90" s="23"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="31"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="27"/>
     </row>
     <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="39"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="40"/>
+      <c r="A91" s="51"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="53"/>
       <c r="D91" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E91" s="23"/>
       <c r="F91" s="23"/>
       <c r="G91" s="23"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="31"/>
+      <c r="H91" s="50"/>
+      <c r="I91" s="27"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="37" t="s">
+      <c r="A92" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="B92" s="28" t="s">
+      <c r="B92" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="41" t="s">
+      <c r="C92" s="52" t="s">
         <v>136</v>
       </c>
       <c r="D92" s="20" t="s">
@@ -4001,17 +4028,17 @@
       <c r="G92" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="H92" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I92" s="28" t="s">
+      <c r="H92" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I92" s="26" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="38"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="41"/>
+      <c r="A93" s="47"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="52"/>
       <c r="D93" s="20" t="s">
         <v>22</v>
       </c>
@@ -4020,28 +4047,28 @@
       </c>
       <c r="F93" s="20"/>
       <c r="G93" s="20"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="28"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="26"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="38"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="41"/>
+      <c r="A94" s="47"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="52"/>
       <c r="D94" s="20" t="s">
         <v>139</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
       <c r="G94" s="20"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="28"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="26"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="38"/>
-      <c r="B95" s="31" t="s">
+      <c r="A95" s="47"/>
+      <c r="B95" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C95" s="40" t="s">
+      <c r="C95" s="53" t="s">
         <v>135</v>
       </c>
       <c r="D95" s="23" t="s">
@@ -4056,17 +4083,17 @@
       <c r="G95" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="H95" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I95" s="31" t="s">
+      <c r="H95" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I95" s="27" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="38"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="40"/>
+      <c r="A96" s="47"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="53"/>
       <c r="D96" s="23" t="s">
         <v>140</v>
       </c>
@@ -4075,30 +4102,30 @@
       </c>
       <c r="F96" s="23"/>
       <c r="G96" s="23"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="31"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="27"/>
     </row>
     <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="39"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="40"/>
+      <c r="A97" s="51"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="53"/>
       <c r="D97" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E97" s="23"/>
       <c r="F97" s="23"/>
       <c r="G97" s="23"/>
-      <c r="H97" s="30"/>
-      <c r="I97" s="31"/>
+      <c r="H97" s="50"/>
+      <c r="I97" s="27"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="37" t="s">
+      <c r="A98" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="B98" s="28" t="s">
+      <c r="B98" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="C98" s="41" t="s">
+      <c r="C98" s="52" t="s">
         <v>152</v>
       </c>
       <c r="D98" s="20" t="s">
@@ -4113,17 +4140,17 @@
       <c r="G98" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="H98" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I98" s="28" t="s">
+      <c r="H98" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I98" s="26" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="38"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="41"/>
+      <c r="A99" s="47"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="52"/>
       <c r="D99" s="20" t="s">
         <v>29</v>
       </c>
@@ -4132,28 +4159,28 @@
       </c>
       <c r="F99" s="20"/>
       <c r="G99" s="20"/>
-      <c r="H99" s="30"/>
-      <c r="I99" s="28"/>
+      <c r="H99" s="50"/>
+      <c r="I99" s="26"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="38"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="41"/>
+      <c r="A100" s="47"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="52"/>
       <c r="D100" s="20" t="s">
         <v>150</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="20"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="28"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="26"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="38"/>
-      <c r="B101" s="31" t="s">
+      <c r="A101" s="47"/>
+      <c r="B101" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C101" s="40" t="s">
+      <c r="C101" s="53" t="s">
         <v>153</v>
       </c>
       <c r="D101" s="23" t="s">
@@ -4168,17 +4195,17 @@
       <c r="G101" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="H101" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I101" s="31" t="s">
+      <c r="H101" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I101" s="27" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="38"/>
-      <c r="B102" s="31"/>
-      <c r="C102" s="40"/>
+      <c r="A102" s="47"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="53"/>
       <c r="D102" s="23" t="s">
         <v>151</v>
       </c>
@@ -4187,30 +4214,30 @@
       </c>
       <c r="F102" s="23"/>
       <c r="G102" s="23"/>
-      <c r="H102" s="30"/>
-      <c r="I102" s="31"/>
+      <c r="H102" s="50"/>
+      <c r="I102" s="27"/>
     </row>
     <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="39"/>
-      <c r="B103" s="31"/>
-      <c r="C103" s="40"/>
+      <c r="A103" s="51"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="53"/>
       <c r="D103" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E103" s="23"/>
       <c r="F103" s="23"/>
       <c r="G103" s="23"/>
-      <c r="H103" s="30"/>
-      <c r="I103" s="31"/>
+      <c r="H103" s="50"/>
+      <c r="I103" s="27"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="37" t="s">
+      <c r="A104" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B104" s="28" t="s">
+      <c r="B104" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C104" s="41" t="s">
+      <c r="C104" s="52" t="s">
         <v>154</v>
       </c>
       <c r="D104" s="20" t="s">
@@ -4225,17 +4252,17 @@
       <c r="G104" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="H104" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I104" s="28" t="s">
+      <c r="H104" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I104" s="26" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="38"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="41"/>
+      <c r="A105" s="47"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="52"/>
       <c r="D105" s="20" t="s">
         <v>22</v>
       </c>
@@ -4244,28 +4271,28 @@
       </c>
       <c r="F105" s="20"/>
       <c r="G105" s="20"/>
-      <c r="H105" s="30"/>
-      <c r="I105" s="28"/>
+      <c r="H105" s="50"/>
+      <c r="I105" s="26"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="38"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="41"/>
+      <c r="A106" s="47"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="52"/>
       <c r="D106" s="20" t="s">
         <v>150</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
       <c r="G106" s="20"/>
-      <c r="H106" s="30"/>
-      <c r="I106" s="28"/>
+      <c r="H106" s="50"/>
+      <c r="I106" s="26"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="38"/>
-      <c r="B107" s="31" t="s">
+      <c r="A107" s="47"/>
+      <c r="B107" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C107" s="40" t="s">
+      <c r="C107" s="53" t="s">
         <v>155</v>
       </c>
       <c r="D107" s="23" t="s">
@@ -4280,17 +4307,17 @@
       <c r="G107" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="H107" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I107" s="31" t="s">
+      <c r="H107" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I107" s="27" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="38"/>
-      <c r="B108" s="31"/>
-      <c r="C108" s="40"/>
+      <c r="A108" s="47"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="53"/>
       <c r="D108" s="23" t="s">
         <v>149</v>
       </c>
@@ -4299,30 +4326,30 @@
       </c>
       <c r="F108" s="23"/>
       <c r="G108" s="23"/>
-      <c r="H108" s="30"/>
-      <c r="I108" s="31"/>
+      <c r="H108" s="50"/>
+      <c r="I108" s="27"/>
     </row>
     <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="39"/>
-      <c r="B109" s="31"/>
-      <c r="C109" s="40"/>
+      <c r="A109" s="51"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="53"/>
       <c r="D109" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E109" s="23"/>
       <c r="F109" s="23"/>
       <c r="G109" s="23"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="31"/>
+      <c r="H109" s="50"/>
+      <c r="I109" s="27"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="37" t="s">
+      <c r="A110" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="B110" s="28" t="s">
+      <c r="B110" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C110" s="41" t="s">
+      <c r="C110" s="52" t="s">
         <v>174</v>
       </c>
       <c r="D110" s="20" t="s">
@@ -4337,17 +4364,17 @@
       <c r="G110" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H110" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I110" s="28" t="s">
+      <c r="H110" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I110" s="26" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="38"/>
-      <c r="B111" s="28"/>
-      <c r="C111" s="41"/>
+      <c r="A111" s="47"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="52"/>
       <c r="D111" s="20" t="s">
         <v>29</v>
       </c>
@@ -4356,28 +4383,28 @@
       </c>
       <c r="F111" s="20"/>
       <c r="G111" s="20"/>
-      <c r="H111" s="30"/>
-      <c r="I111" s="28"/>
+      <c r="H111" s="50"/>
+      <c r="I111" s="26"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="38"/>
-      <c r="B112" s="28"/>
-      <c r="C112" s="41"/>
+      <c r="A112" s="47"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="52"/>
       <c r="D112" s="20" t="s">
         <v>169</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
       <c r="G112" s="20"/>
-      <c r="H112" s="30"/>
-      <c r="I112" s="28"/>
+      <c r="H112" s="50"/>
+      <c r="I112" s="26"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="38"/>
-      <c r="B113" s="31" t="s">
+      <c r="A113" s="47"/>
+      <c r="B113" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C113" s="40" t="s">
+      <c r="C113" s="53" t="s">
         <v>173</v>
       </c>
       <c r="D113" s="23" t="s">
@@ -4392,17 +4419,17 @@
       <c r="G113" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="H113" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I113" s="31" t="s">
+      <c r="H113" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I113" s="27" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="38"/>
-      <c r="B114" s="31"/>
-      <c r="C114" s="40"/>
+      <c r="A114" s="47"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="53"/>
       <c r="D114" s="23" t="s">
         <v>170</v>
       </c>
@@ -4411,30 +4438,30 @@
       </c>
       <c r="F114" s="23"/>
       <c r="G114" s="23"/>
-      <c r="H114" s="30"/>
-      <c r="I114" s="31"/>
+      <c r="H114" s="50"/>
+      <c r="I114" s="27"/>
     </row>
     <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="39"/>
-      <c r="B115" s="31"/>
-      <c r="C115" s="40"/>
+      <c r="A115" s="51"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="53"/>
       <c r="D115" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E115" s="23"/>
       <c r="F115" s="23"/>
       <c r="G115" s="23"/>
-      <c r="H115" s="30"/>
-      <c r="I115" s="31"/>
+      <c r="H115" s="50"/>
+      <c r="I115" s="27"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="37" t="s">
+      <c r="A116" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="B116" s="28" t="s">
+      <c r="B116" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="C116" s="41" t="s">
+      <c r="C116" s="52" t="s">
         <v>172</v>
       </c>
       <c r="D116" s="20" t="s">
@@ -4449,17 +4476,17 @@
       <c r="G116" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H116" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I116" s="28" t="s">
+      <c r="H116" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I116" s="26" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="38"/>
-      <c r="B117" s="28"/>
-      <c r="C117" s="41"/>
+      <c r="A117" s="47"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="52"/>
       <c r="D117" s="20" t="s">
         <v>22</v>
       </c>
@@ -4468,28 +4495,28 @@
       </c>
       <c r="F117" s="20"/>
       <c r="G117" s="20"/>
-      <c r="H117" s="30"/>
-      <c r="I117" s="28"/>
+      <c r="H117" s="50"/>
+      <c r="I117" s="26"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="38"/>
-      <c r="B118" s="28"/>
-      <c r="C118" s="41"/>
+      <c r="A118" s="47"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="52"/>
       <c r="D118" s="20" t="s">
         <v>169</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
       <c r="G118" s="20"/>
-      <c r="H118" s="30"/>
-      <c r="I118" s="28"/>
+      <c r="H118" s="50"/>
+      <c r="I118" s="26"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="38"/>
-      <c r="B119" s="31" t="s">
+      <c r="A119" s="47"/>
+      <c r="B119" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C119" s="40" t="s">
+      <c r="C119" s="53" t="s">
         <v>171</v>
       </c>
       <c r="D119" s="23" t="s">
@@ -4504,17 +4531,17 @@
       <c r="G119" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="H119" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I119" s="31" t="s">
+      <c r="H119" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I119" s="27" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="38"/>
-      <c r="B120" s="31"/>
-      <c r="C120" s="40"/>
+      <c r="A120" s="47"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="53"/>
       <c r="D120" s="23" t="s">
         <v>168</v>
       </c>
@@ -4523,30 +4550,30 @@
       </c>
       <c r="F120" s="23"/>
       <c r="G120" s="23"/>
-      <c r="H120" s="30"/>
-      <c r="I120" s="31"/>
+      <c r="H120" s="50"/>
+      <c r="I120" s="27"/>
     </row>
     <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="39"/>
-      <c r="B121" s="31"/>
-      <c r="C121" s="40"/>
+      <c r="A121" s="51"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="53"/>
       <c r="D121" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E121" s="23"/>
       <c r="F121" s="23"/>
       <c r="G121" s="23"/>
-      <c r="H121" s="30"/>
-      <c r="I121" s="31"/>
+      <c r="H121" s="50"/>
+      <c r="I121" s="27"/>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="25" t="s">
+      <c r="A122" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="B122" s="28" t="s">
+      <c r="B122" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C122" s="29" t="s">
+      <c r="C122" s="25" t="s">
         <v>182</v>
       </c>
       <c r="D122" s="20" t="s">
@@ -4561,17 +4588,17 @@
       <c r="G122" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="H122" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I122" s="28" t="s">
+      <c r="H122" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I122" s="26" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="26"/>
-      <c r="B123" s="28"/>
-      <c r="C123" s="29"/>
+      <c r="A123" s="49"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="25"/>
       <c r="D123" s="20" t="s">
         <v>187</v>
       </c>
@@ -4580,13 +4607,13 @@
       </c>
       <c r="F123" s="20"/>
       <c r="G123" s="20"/>
-      <c r="H123" s="30"/>
-      <c r="I123" s="28"/>
+      <c r="H123" s="50"/>
+      <c r="I123" s="26"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="26"/>
-      <c r="B124" s="28"/>
-      <c r="C124" s="29"/>
+      <c r="A124" s="49"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="25"/>
       <c r="D124" s="20" t="s">
         <v>190</v>
       </c>
@@ -4595,13 +4622,13 @@
       </c>
       <c r="F124" s="20"/>
       <c r="G124" s="20"/>
-      <c r="H124" s="30"/>
-      <c r="I124" s="28"/>
+      <c r="H124" s="50"/>
+      <c r="I124" s="26"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="26"/>
-      <c r="B125" s="28"/>
-      <c r="C125" s="29"/>
+      <c r="A125" s="49"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="25"/>
       <c r="D125" s="20" t="s">
         <v>191</v>
       </c>
@@ -4610,28 +4637,28 @@
       </c>
       <c r="F125" s="20"/>
       <c r="G125" s="20"/>
-      <c r="H125" s="30"/>
-      <c r="I125" s="28"/>
+      <c r="H125" s="50"/>
+      <c r="I125" s="26"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="26"/>
-      <c r="B126" s="28"/>
-      <c r="C126" s="29"/>
+      <c r="A126" s="49"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="25"/>
       <c r="D126" s="20" t="s">
         <v>193</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
-      <c r="H126" s="30"/>
-      <c r="I126" s="28"/>
+      <c r="H126" s="50"/>
+      <c r="I126" s="26"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="26"/>
-      <c r="B127" s="31" t="s">
+      <c r="A127" s="49"/>
+      <c r="B127" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="C127" s="32" t="s">
+      <c r="C127" s="28" t="s">
         <v>194</v>
       </c>
       <c r="D127" s="22" t="s">
@@ -4646,17 +4673,17 @@
       <c r="G127" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="H127" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I127" s="31" t="s">
+      <c r="H127" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I127" s="27" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="26"/>
-      <c r="B128" s="31"/>
-      <c r="C128" s="32"/>
+      <c r="A128" s="49"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="28"/>
       <c r="D128" s="22" t="s">
         <v>29</v>
       </c>
@@ -4665,13 +4692,13 @@
       </c>
       <c r="F128" s="23"/>
       <c r="G128" s="23"/>
-      <c r="H128" s="30"/>
-      <c r="I128" s="31"/>
+      <c r="H128" s="50"/>
+      <c r="I128" s="27"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="26"/>
-      <c r="B129" s="31"/>
-      <c r="C129" s="32"/>
+      <c r="A129" s="49"/>
+      <c r="B129" s="27"/>
+      <c r="C129" s="28"/>
       <c r="D129" s="22" t="s">
         <v>199</v>
       </c>
@@ -4680,13 +4707,13 @@
       </c>
       <c r="F129" s="23"/>
       <c r="G129" s="23"/>
-      <c r="H129" s="30"/>
-      <c r="I129" s="31"/>
+      <c r="H129" s="50"/>
+      <c r="I129" s="27"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="26"/>
-      <c r="B130" s="31"/>
-      <c r="C130" s="32"/>
+      <c r="A130" s="49"/>
+      <c r="B130" s="27"/>
+      <c r="C130" s="28"/>
       <c r="D130" s="22" t="s">
         <v>191</v>
       </c>
@@ -4695,28 +4722,28 @@
       </c>
       <c r="F130" s="23"/>
       <c r="G130" s="23"/>
-      <c r="H130" s="30"/>
-      <c r="I130" s="31"/>
+      <c r="H130" s="50"/>
+      <c r="I130" s="27"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="26"/>
-      <c r="B131" s="31"/>
-      <c r="C131" s="32"/>
+      <c r="A131" s="49"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="28"/>
       <c r="D131" s="22" t="s">
         <v>193</v>
       </c>
       <c r="E131" s="23"/>
       <c r="F131" s="23"/>
       <c r="G131" s="23"/>
-      <c r="H131" s="30"/>
-      <c r="I131" s="31"/>
+      <c r="H131" s="50"/>
+      <c r="I131" s="27"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="26"/>
-      <c r="B132" s="28" t="s">
+      <c r="A132" s="49"/>
+      <c r="B132" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="C132" s="29" t="s">
+      <c r="C132" s="25" t="s">
         <v>195</v>
       </c>
       <c r="D132" s="20" t="s">
@@ -4731,17 +4758,17 @@
       <c r="G132" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="H132" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I132" s="28" t="s">
+      <c r="H132" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I132" s="26" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="26"/>
-      <c r="B133" s="28"/>
-      <c r="C133" s="29"/>
+      <c r="A133" s="49"/>
+      <c r="B133" s="26"/>
+      <c r="C133" s="25"/>
       <c r="D133" s="20" t="s">
         <v>29</v>
       </c>
@@ -4750,13 +4777,13 @@
       </c>
       <c r="F133" s="20"/>
       <c r="G133" s="20"/>
-      <c r="H133" s="30"/>
-      <c r="I133" s="28"/>
+      <c r="H133" s="50"/>
+      <c r="I133" s="26"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="26"/>
-      <c r="B134" s="28"/>
-      <c r="C134" s="29"/>
+      <c r="A134" s="49"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="25"/>
       <c r="D134" s="20" t="s">
         <v>190</v>
       </c>
@@ -4765,13 +4792,13 @@
       </c>
       <c r="F134" s="20"/>
       <c r="G134" s="20"/>
-      <c r="H134" s="30"/>
-      <c r="I134" s="28"/>
+      <c r="H134" s="50"/>
+      <c r="I134" s="26"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" s="26"/>
-      <c r="B135" s="28"/>
-      <c r="C135" s="29"/>
+      <c r="A135" s="49"/>
+      <c r="B135" s="26"/>
+      <c r="C135" s="25"/>
       <c r="D135" s="20" t="s">
         <v>200</v>
       </c>
@@ -4780,28 +4807,28 @@
       </c>
       <c r="F135" s="20"/>
       <c r="G135" s="20"/>
-      <c r="H135" s="30"/>
-      <c r="I135" s="28"/>
+      <c r="H135" s="50"/>
+      <c r="I135" s="26"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="26"/>
-      <c r="B136" s="28"/>
-      <c r="C136" s="29"/>
+      <c r="A136" s="49"/>
+      <c r="B136" s="26"/>
+      <c r="C136" s="25"/>
       <c r="D136" s="20" t="s">
         <v>193</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="20"/>
       <c r="G136" s="20"/>
-      <c r="H136" s="30"/>
-      <c r="I136" s="28"/>
+      <c r="H136" s="50"/>
+      <c r="I136" s="26"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="26"/>
-      <c r="B137" s="31" t="s">
+      <c r="A137" s="49"/>
+      <c r="B137" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="C137" s="32" t="s">
+      <c r="C137" s="28" t="s">
         <v>181</v>
       </c>
       <c r="D137" s="22" t="s">
@@ -4816,17 +4843,17 @@
       <c r="G137" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="H137" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I137" s="31" t="s">
+      <c r="H137" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I137" s="27" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="26"/>
-      <c r="B138" s="31"/>
-      <c r="C138" s="32"/>
+      <c r="A138" s="49"/>
+      <c r="B138" s="27"/>
+      <c r="C138" s="28"/>
       <c r="D138" s="22" t="s">
         <v>29</v>
       </c>
@@ -4835,13 +4862,13 @@
       </c>
       <c r="F138" s="23"/>
       <c r="G138" s="23"/>
-      <c r="H138" s="30"/>
-      <c r="I138" s="31"/>
+      <c r="H138" s="50"/>
+      <c r="I138" s="27"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" s="26"/>
-      <c r="B139" s="31"/>
-      <c r="C139" s="32"/>
+      <c r="A139" s="49"/>
+      <c r="B139" s="27"/>
+      <c r="C139" s="28"/>
       <c r="D139" s="22" t="s">
         <v>190</v>
       </c>
@@ -4850,13 +4877,13 @@
       </c>
       <c r="F139" s="23"/>
       <c r="G139" s="23"/>
-      <c r="H139" s="30"/>
-      <c r="I139" s="31"/>
+      <c r="H139" s="50"/>
+      <c r="I139" s="27"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" s="26"/>
-      <c r="B140" s="31"/>
-      <c r="C140" s="32"/>
+      <c r="A140" s="49"/>
+      <c r="B140" s="27"/>
+      <c r="C140" s="28"/>
       <c r="D140" s="22" t="s">
         <v>191</v>
       </c>
@@ -4865,30 +4892,30 @@
       </c>
       <c r="F140" s="23"/>
       <c r="G140" s="23"/>
-      <c r="H140" s="30"/>
-      <c r="I140" s="31"/>
+      <c r="H140" s="50"/>
+      <c r="I140" s="27"/>
     </row>
     <row r="141" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="26"/>
-      <c r="B141" s="31"/>
-      <c r="C141" s="32"/>
+      <c r="A141" s="49"/>
+      <c r="B141" s="27"/>
+      <c r="C141" s="28"/>
       <c r="D141" s="22" t="s">
         <v>193</v>
       </c>
       <c r="E141" s="23"/>
       <c r="F141" s="23"/>
       <c r="G141" s="23"/>
-      <c r="H141" s="30"/>
-      <c r="I141" s="31"/>
+      <c r="H141" s="50"/>
+      <c r="I141" s="27"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="33" t="s">
+      <c r="A142" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="B142" s="28" t="s">
+      <c r="B142" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="C142" s="29" t="s">
+      <c r="C142" s="25" t="s">
         <v>208</v>
       </c>
       <c r="D142" s="20" t="s">
@@ -4903,17 +4930,17 @@
       <c r="G142" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="H142" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I142" s="28" t="s">
+      <c r="H142" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I142" s="26" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" s="34"/>
-      <c r="B143" s="28"/>
-      <c r="C143" s="29"/>
+      <c r="A143" s="56"/>
+      <c r="B143" s="26"/>
+      <c r="C143" s="25"/>
       <c r="D143" s="20" t="s">
         <v>189</v>
       </c>
@@ -4922,28 +4949,28 @@
       </c>
       <c r="F143" s="20"/>
       <c r="G143" s="20"/>
-      <c r="H143" s="30"/>
-      <c r="I143" s="28"/>
+      <c r="H143" s="50"/>
+      <c r="I143" s="26"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A144" s="34"/>
-      <c r="B144" s="28"/>
-      <c r="C144" s="29"/>
+      <c r="A144" s="56"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="25"/>
       <c r="D144" s="20" t="s">
         <v>210</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="20"/>
       <c r="G144" s="20"/>
-      <c r="H144" s="30"/>
-      <c r="I144" s="28"/>
+      <c r="H144" s="50"/>
+      <c r="I144" s="26"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" s="34"/>
-      <c r="B145" s="31" t="s">
+      <c r="A145" s="56"/>
+      <c r="B145" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="C145" s="32" t="s">
+      <c r="C145" s="28" t="s">
         <v>206</v>
       </c>
       <c r="D145" s="22" t="s">
@@ -4958,17 +4985,17 @@
       <c r="G145" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="H145" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I145" s="31" t="s">
+      <c r="H145" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I145" s="27" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="34"/>
-      <c r="B146" s="31"/>
-      <c r="C146" s="32"/>
+      <c r="A146" s="56"/>
+      <c r="B146" s="27"/>
+      <c r="C146" s="28"/>
       <c r="D146" s="22" t="s">
         <v>211</v>
       </c>
@@ -4977,30 +5004,30 @@
       </c>
       <c r="F146" s="23"/>
       <c r="G146" s="23"/>
-      <c r="H146" s="30"/>
-      <c r="I146" s="31"/>
+      <c r="H146" s="50"/>
+      <c r="I146" s="27"/>
     </row>
     <row r="147" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="36"/>
-      <c r="B147" s="31"/>
-      <c r="C147" s="32"/>
+      <c r="A147" s="57"/>
+      <c r="B147" s="27"/>
+      <c r="C147" s="28"/>
       <c r="D147" s="22" t="s">
         <v>210</v>
       </c>
       <c r="E147" s="23"/>
       <c r="F147" s="23"/>
       <c r="G147" s="23"/>
-      <c r="H147" s="30"/>
-      <c r="I147" s="31"/>
+      <c r="H147" s="50"/>
+      <c r="I147" s="27"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148" s="33" t="s">
+      <c r="A148" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="B148" s="28" t="s">
+      <c r="B148" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="C148" s="29" t="s">
+      <c r="C148" s="25" t="s">
         <v>217</v>
       </c>
       <c r="D148" s="20" t="s">
@@ -5015,17 +5042,17 @@
       <c r="G148" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="H148" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I148" s="28" t="s">
+      <c r="H148" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I148" s="26" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="34"/>
-      <c r="B149" s="28"/>
-      <c r="C149" s="29"/>
+      <c r="A149" s="56"/>
+      <c r="B149" s="26"/>
+      <c r="C149" s="25"/>
       <c r="D149" s="20" t="s">
         <v>219</v>
       </c>
@@ -5034,28 +5061,28 @@
       </c>
       <c r="F149" s="20"/>
       <c r="G149" s="20"/>
-      <c r="H149" s="30"/>
-      <c r="I149" s="28"/>
+      <c r="H149" s="50"/>
+      <c r="I149" s="26"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="34"/>
-      <c r="B150" s="28"/>
-      <c r="C150" s="29"/>
+      <c r="A150" s="56"/>
+      <c r="B150" s="26"/>
+      <c r="C150" s="25"/>
       <c r="D150" s="20" t="s">
         <v>220</v>
       </c>
       <c r="E150" s="20"/>
       <c r="F150" s="20"/>
       <c r="G150" s="20"/>
-      <c r="H150" s="30"/>
-      <c r="I150" s="28"/>
+      <c r="H150" s="50"/>
+      <c r="I150" s="26"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="34"/>
-      <c r="B151" s="31" t="s">
+      <c r="A151" s="56"/>
+      <c r="B151" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="C151" s="32" t="s">
+      <c r="C151" s="28" t="s">
         <v>218</v>
       </c>
       <c r="D151" s="22" t="s">
@@ -5070,17 +5097,17 @@
       <c r="G151" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="H151" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I151" s="31" t="s">
+      <c r="H151" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I151" s="27" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="34"/>
-      <c r="B152" s="31"/>
-      <c r="C152" s="32"/>
+      <c r="A152" s="56"/>
+      <c r="B152" s="27"/>
+      <c r="C152" s="28"/>
       <c r="D152" s="22" t="s">
         <v>188</v>
       </c>
@@ -5089,30 +5116,30 @@
       </c>
       <c r="F152" s="23"/>
       <c r="G152" s="23"/>
-      <c r="H152" s="30"/>
-      <c r="I152" s="31"/>
+      <c r="H152" s="50"/>
+      <c r="I152" s="27"/>
     </row>
     <row r="153" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="36"/>
-      <c r="B153" s="31"/>
-      <c r="C153" s="32"/>
+      <c r="A153" s="57"/>
+      <c r="B153" s="27"/>
+      <c r="C153" s="28"/>
       <c r="D153" s="22" t="s">
         <v>220</v>
       </c>
       <c r="E153" s="23"/>
       <c r="F153" s="23"/>
       <c r="G153" s="23"/>
-      <c r="H153" s="30"/>
-      <c r="I153" s="31"/>
+      <c r="H153" s="50"/>
+      <c r="I153" s="27"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" s="33" t="s">
+      <c r="A154" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="B154" s="28" t="s">
+      <c r="B154" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="C154" s="29" t="s">
+      <c r="C154" s="25" t="s">
         <v>226</v>
       </c>
       <c r="D154" s="20" t="s">
@@ -5127,17 +5154,17 @@
       <c r="G154" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="H154" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I154" s="28" t="s">
+      <c r="H154" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I154" s="26" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" s="34"/>
-      <c r="B155" s="28"/>
-      <c r="C155" s="29"/>
+      <c r="A155" s="56"/>
+      <c r="B155" s="26"/>
+      <c r="C155" s="25"/>
       <c r="D155" s="20" t="s">
         <v>219</v>
       </c>
@@ -5146,28 +5173,28 @@
       </c>
       <c r="F155" s="20"/>
       <c r="G155" s="20"/>
-      <c r="H155" s="30"/>
-      <c r="I155" s="28"/>
+      <c r="H155" s="50"/>
+      <c r="I155" s="26"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A156" s="34"/>
-      <c r="B156" s="28"/>
-      <c r="C156" s="29"/>
+      <c r="A156" s="56"/>
+      <c r="B156" s="26"/>
+      <c r="C156" s="25"/>
       <c r="D156" s="20" t="s">
         <v>220</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="20"/>
       <c r="G156" s="20"/>
-      <c r="H156" s="30"/>
-      <c r="I156" s="28"/>
+      <c r="H156" s="50"/>
+      <c r="I156" s="26"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="34"/>
-      <c r="B157" s="31" t="s">
+      <c r="A157" s="56"/>
+      <c r="B157" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="C157" s="32" t="s">
+      <c r="C157" s="28" t="s">
         <v>227</v>
       </c>
       <c r="D157" s="22" t="s">
@@ -5182,17 +5209,17 @@
       <c r="G157" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="H157" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I157" s="31" t="s">
+      <c r="H157" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I157" s="27" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="34"/>
-      <c r="B158" s="31"/>
-      <c r="C158" s="32"/>
+      <c r="A158" s="56"/>
+      <c r="B158" s="27"/>
+      <c r="C158" s="28"/>
       <c r="D158" s="22" t="s">
         <v>188</v>
       </c>
@@ -5201,30 +5228,30 @@
       </c>
       <c r="F158" s="23"/>
       <c r="G158" s="23"/>
-      <c r="H158" s="30"/>
-      <c r="I158" s="31"/>
+      <c r="H158" s="50"/>
+      <c r="I158" s="27"/>
     </row>
     <row r="159" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="35"/>
-      <c r="B159" s="31"/>
-      <c r="C159" s="32"/>
+      <c r="A159" s="58"/>
+      <c r="B159" s="27"/>
+      <c r="C159" s="28"/>
       <c r="D159" s="22" t="s">
         <v>220</v>
       </c>
       <c r="E159" s="23"/>
       <c r="F159" s="23"/>
       <c r="G159" s="23"/>
-      <c r="H159" s="30"/>
-      <c r="I159" s="31"/>
+      <c r="H159" s="50"/>
+      <c r="I159" s="27"/>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="25" t="s">
+      <c r="A160" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="B160" s="28" t="s">
+      <c r="B160" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="C160" s="29" t="s">
+      <c r="C160" s="25" t="s">
         <v>302</v>
       </c>
       <c r="D160" s="20" t="s">
@@ -5239,32 +5266,32 @@
       <c r="G160" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="H160" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I160" s="28" t="s">
+      <c r="H160" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I160" s="26" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A161" s="26"/>
-      <c r="B161" s="28"/>
-      <c r="C161" s="29"/>
+      <c r="A161" s="49"/>
+      <c r="B161" s="26"/>
+      <c r="C161" s="25"/>
       <c r="D161" s="20" t="s">
         <v>304</v>
       </c>
       <c r="E161" s="20"/>
       <c r="F161" s="20"/>
       <c r="G161" s="20"/>
-      <c r="H161" s="30"/>
-      <c r="I161" s="28"/>
+      <c r="H161" s="50"/>
+      <c r="I161" s="26"/>
     </row>
     <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="26"/>
-      <c r="B162" s="31" t="s">
+      <c r="A162" s="49"/>
+      <c r="B162" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="C162" s="32" t="s">
+      <c r="C162" s="28" t="s">
         <v>303</v>
       </c>
       <c r="D162" s="22" t="s">
@@ -5279,34 +5306,34 @@
       <c r="G162" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="H162" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I162" s="31" t="s">
+      <c r="H162" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I162" s="27" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="27"/>
-      <c r="B163" s="31"/>
-      <c r="C163" s="32"/>
+      <c r="A163" s="54"/>
+      <c r="B163" s="27"/>
+      <c r="C163" s="28"/>
       <c r="D163" s="22" t="s">
         <v>304</v>
       </c>
       <c r="E163" s="23"/>
       <c r="F163" s="23"/>
       <c r="G163" s="23"/>
-      <c r="H163" s="30"/>
-      <c r="I163" s="31"/>
+      <c r="H163" s="50"/>
+      <c r="I163" s="27"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="25" t="s">
+      <c r="A164" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="B164" s="28" t="s">
+      <c r="B164" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C164" s="29" t="s">
+      <c r="C164" s="25" t="s">
         <v>238</v>
       </c>
       <c r="D164" s="20" t="s">
@@ -5321,32 +5348,32 @@
       <c r="G164" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="H164" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I164" s="28" t="s">
+      <c r="H164" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I164" s="26" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A165" s="26"/>
-      <c r="B165" s="28"/>
-      <c r="C165" s="29"/>
+      <c r="A165" s="49"/>
+      <c r="B165" s="26"/>
+      <c r="C165" s="25"/>
       <c r="D165" s="20" t="s">
         <v>242</v>
       </c>
       <c r="E165" s="20"/>
       <c r="F165" s="20"/>
       <c r="G165" s="20"/>
-      <c r="H165" s="30"/>
-      <c r="I165" s="28"/>
+      <c r="H165" s="50"/>
+      <c r="I165" s="26"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166" s="26"/>
-      <c r="B166" s="31" t="s">
+      <c r="A166" s="49"/>
+      <c r="B166" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="C166" s="32" t="s">
+      <c r="C166" s="28" t="s">
         <v>237</v>
       </c>
       <c r="D166" s="22" t="s">
@@ -5361,34 +5388,34 @@
       <c r="G166" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="H166" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I166" s="31" t="s">
+      <c r="H166" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I166" s="27" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="27"/>
-      <c r="B167" s="31"/>
-      <c r="C167" s="32"/>
+      <c r="A167" s="54"/>
+      <c r="B167" s="27"/>
+      <c r="C167" s="28"/>
       <c r="D167" s="22" t="s">
         <v>242</v>
       </c>
       <c r="E167" s="23"/>
       <c r="F167" s="23"/>
       <c r="G167" s="23"/>
-      <c r="H167" s="30"/>
-      <c r="I167" s="31"/>
+      <c r="H167" s="50"/>
+      <c r="I167" s="27"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A168" s="25" t="s">
+      <c r="A168" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="B168" s="28" t="s">
+      <c r="B168" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="C168" s="29" t="s">
+      <c r="C168" s="25" t="s">
         <v>248</v>
       </c>
       <c r="D168" s="20" t="s">
@@ -5403,32 +5430,32 @@
       <c r="G168" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="H168" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I168" s="28" t="s">
+      <c r="H168" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I168" s="26" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A169" s="26"/>
-      <c r="B169" s="28"/>
-      <c r="C169" s="29"/>
+      <c r="A169" s="49"/>
+      <c r="B169" s="26"/>
+      <c r="C169" s="25"/>
       <c r="D169" s="20" t="s">
         <v>250</v>
       </c>
       <c r="E169" s="20"/>
       <c r="F169" s="20"/>
       <c r="G169" s="20"/>
-      <c r="H169" s="30"/>
-      <c r="I169" s="28"/>
+      <c r="H169" s="50"/>
+      <c r="I169" s="26"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A170" s="26"/>
-      <c r="B170" s="31" t="s">
+      <c r="A170" s="49"/>
+      <c r="B170" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="C170" s="32" t="s">
+      <c r="C170" s="28" t="s">
         <v>249</v>
       </c>
       <c r="D170" s="22" t="s">
@@ -5443,34 +5470,34 @@
       <c r="G170" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="H170" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I170" s="31" t="s">
+      <c r="H170" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I170" s="27" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="27"/>
-      <c r="B171" s="31"/>
-      <c r="C171" s="32"/>
+      <c r="A171" s="54"/>
+      <c r="B171" s="27"/>
+      <c r="C171" s="28"/>
       <c r="D171" s="22" t="s">
         <v>250</v>
       </c>
       <c r="E171" s="23"/>
       <c r="F171" s="23"/>
       <c r="G171" s="23"/>
-      <c r="H171" s="30"/>
-      <c r="I171" s="31"/>
+      <c r="H171" s="50"/>
+      <c r="I171" s="27"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A172" s="25" t="s">
+      <c r="A172" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="B172" s="28" t="s">
+      <c r="B172" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="C172" s="29" t="s">
+      <c r="C172" s="25" t="s">
         <v>253</v>
       </c>
       <c r="D172" s="20" t="s">
@@ -5485,32 +5512,32 @@
       <c r="G172" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="H172" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I172" s="28" t="s">
+      <c r="H172" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I172" s="26" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173" s="26"/>
-      <c r="B173" s="28"/>
-      <c r="C173" s="29"/>
+      <c r="A173" s="49"/>
+      <c r="B173" s="26"/>
+      <c r="C173" s="25"/>
       <c r="D173" s="20" t="s">
         <v>258</v>
       </c>
       <c r="E173" s="20"/>
       <c r="F173" s="20"/>
       <c r="G173" s="20"/>
-      <c r="H173" s="30"/>
-      <c r="I173" s="28"/>
+      <c r="H173" s="50"/>
+      <c r="I173" s="26"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A174" s="26"/>
-      <c r="B174" s="31" t="s">
+      <c r="A174" s="49"/>
+      <c r="B174" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="C174" s="32" t="s">
+      <c r="C174" s="28" t="s">
         <v>314</v>
       </c>
       <c r="D174" s="22" t="s">
@@ -5525,34 +5552,34 @@
       <c r="G174" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="H174" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I174" s="31" t="s">
+      <c r="H174" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I174" s="27" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="27"/>
-      <c r="B175" s="31"/>
-      <c r="C175" s="32"/>
+      <c r="A175" s="54"/>
+      <c r="B175" s="27"/>
+      <c r="C175" s="28"/>
       <c r="D175" s="22" t="s">
         <v>258</v>
       </c>
       <c r="E175" s="23"/>
       <c r="F175" s="23"/>
       <c r="G175" s="23"/>
-      <c r="H175" s="30"/>
-      <c r="I175" s="31"/>
+      <c r="H175" s="50"/>
+      <c r="I175" s="27"/>
     </row>
     <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="25" t="s">
+      <c r="A176" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="B176" s="28" t="s">
+      <c r="B176" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="C176" s="29" t="s">
+      <c r="C176" s="25" t="s">
         <v>266</v>
       </c>
       <c r="D176" s="20" t="s">
@@ -5567,32 +5594,32 @@
       <c r="G176" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="H176" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I176" s="28" t="s">
+      <c r="H176" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I176" s="26" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A177" s="26"/>
-      <c r="B177" s="28"/>
-      <c r="C177" s="29"/>
+      <c r="A177" s="49"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="25"/>
       <c r="D177" s="20" t="s">
         <v>268</v>
       </c>
       <c r="E177" s="20"/>
       <c r="F177" s="20"/>
       <c r="G177" s="20"/>
-      <c r="H177" s="30"/>
-      <c r="I177" s="28"/>
+      <c r="H177" s="50"/>
+      <c r="I177" s="26"/>
     </row>
     <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="26"/>
-      <c r="B178" s="31" t="s">
+      <c r="A178" s="49"/>
+      <c r="B178" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="C178" s="32" t="s">
+      <c r="C178" s="28" t="s">
         <v>267</v>
       </c>
       <c r="D178" s="22" t="s">
@@ -5607,34 +5634,34 @@
       <c r="G178" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="H178" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I178" s="31" t="s">
+      <c r="H178" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I178" s="27" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="27"/>
-      <c r="B179" s="31"/>
-      <c r="C179" s="32"/>
+      <c r="A179" s="54"/>
+      <c r="B179" s="27"/>
+      <c r="C179" s="28"/>
       <c r="D179" s="22" t="s">
         <v>268</v>
       </c>
       <c r="E179" s="23"/>
       <c r="F179" s="23"/>
       <c r="G179" s="23"/>
-      <c r="H179" s="30"/>
-      <c r="I179" s="31"/>
+      <c r="H179" s="50"/>
+      <c r="I179" s="27"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A180" s="25" t="s">
+      <c r="A180" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="B180" s="28" t="s">
+      <c r="B180" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="C180" s="29" t="s">
+      <c r="C180" s="25" t="s">
         <v>310</v>
       </c>
       <c r="D180" s="20" t="s">
@@ -5649,32 +5676,32 @@
       <c r="G180" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H180" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I180" s="28" t="s">
+      <c r="H180" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I180" s="26" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A181" s="26"/>
-      <c r="B181" s="28"/>
-      <c r="C181" s="29"/>
+      <c r="A181" s="49"/>
+      <c r="B181" s="26"/>
+      <c r="C181" s="25"/>
       <c r="D181" s="20" t="s">
         <v>232</v>
       </c>
       <c r="E181" s="20"/>
       <c r="F181" s="20"/>
       <c r="G181" s="20"/>
-      <c r="H181" s="30"/>
-      <c r="I181" s="28"/>
+      <c r="H181" s="50"/>
+      <c r="I181" s="26"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A182" s="26"/>
-      <c r="B182" s="31" t="s">
+      <c r="A182" s="49"/>
+      <c r="B182" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="C182" s="32" t="s">
+      <c r="C182" s="28" t="s">
         <v>311</v>
       </c>
       <c r="D182" s="22" t="s">
@@ -5689,34 +5716,34 @@
       <c r="G182" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H182" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I182" s="31" t="s">
+      <c r="H182" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I182" s="27" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="26"/>
-      <c r="B183" s="31"/>
-      <c r="C183" s="32"/>
+      <c r="A183" s="49"/>
+      <c r="B183" s="27"/>
+      <c r="C183" s="28"/>
       <c r="D183" s="22" t="s">
         <v>232</v>
       </c>
       <c r="E183" s="23"/>
       <c r="F183" s="23"/>
       <c r="G183" s="23"/>
-      <c r="H183" s="30"/>
-      <c r="I183" s="31"/>
+      <c r="H183" s="50"/>
+      <c r="I183" s="27"/>
     </row>
     <row r="184" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="37" t="s">
+      <c r="A184" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="B184" s="28" t="s">
+      <c r="B184" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="C184" s="29" t="s">
+      <c r="C184" s="25" t="s">
         <v>394</v>
       </c>
       <c r="D184" s="20" t="s">
@@ -5728,14 +5755,18 @@
       <c r="F184" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="G184" s="20"/>
-      <c r="H184" s="20"/>
-      <c r="I184" s="20"/>
+      <c r="G184" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="H184" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="I184" s="89"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185" s="38"/>
-      <c r="B185" s="28"/>
-      <c r="C185" s="29"/>
+      <c r="A185" s="47"/>
+      <c r="B185" s="26"/>
+      <c r="C185" s="25"/>
       <c r="D185" s="20" t="s">
         <v>358</v>
       </c>
@@ -5744,28 +5775,28 @@
       </c>
       <c r="F185" s="20"/>
       <c r="G185" s="20"/>
-      <c r="H185" s="20"/>
-      <c r="I185" s="20"/>
+      <c r="H185" s="77"/>
+      <c r="I185" s="90"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" s="38"/>
-      <c r="B186" s="28"/>
-      <c r="C186" s="29"/>
+      <c r="A186" s="47"/>
+      <c r="B186" s="26"/>
+      <c r="C186" s="25"/>
       <c r="D186" s="20" t="s">
         <v>210</v>
       </c>
       <c r="E186" s="20"/>
       <c r="F186" s="20"/>
       <c r="G186" s="20"/>
-      <c r="H186" s="20"/>
-      <c r="I186" s="20"/>
+      <c r="H186" s="86"/>
+      <c r="I186" s="91"/>
     </row>
     <row r="187" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="38"/>
-      <c r="B187" s="42" t="s">
+      <c r="A187" s="47"/>
+      <c r="B187" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="C187" s="44" t="s">
+      <c r="C187" s="38" t="s">
         <v>395</v>
       </c>
       <c r="D187" s="21" t="s">
@@ -5777,14 +5808,18 @@
       <c r="F187" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="G187" s="21"/>
-      <c r="H187" s="21"/>
-      <c r="I187" s="21"/>
+      <c r="G187" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="H187" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="I187" s="92"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A188" s="38"/>
-      <c r="B188" s="42"/>
-      <c r="C188" s="44"/>
+      <c r="A188" s="47"/>
+      <c r="B188" s="36"/>
+      <c r="C188" s="38"/>
       <c r="D188" s="21" t="s">
         <v>22</v>
       </c>
@@ -5793,30 +5828,30 @@
       </c>
       <c r="F188" s="21"/>
       <c r="G188" s="21"/>
-      <c r="H188" s="21"/>
-      <c r="I188" s="21"/>
+      <c r="H188" s="77"/>
+      <c r="I188" s="93"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A189" s="38"/>
-      <c r="B189" s="43"/>
-      <c r="C189" s="45"/>
+      <c r="A189" s="47"/>
+      <c r="B189" s="37"/>
+      <c r="C189" s="39"/>
       <c r="D189" s="12" t="s">
         <v>210</v>
       </c>
       <c r="E189" s="12"/>
       <c r="F189" s="12"/>
       <c r="G189" s="12"/>
-      <c r="H189" s="12"/>
-      <c r="I189" s="12"/>
+      <c r="H189" s="86"/>
+      <c r="I189" s="94"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A190" s="31" t="s">
+      <c r="A190" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="B190" s="28" t="s">
+      <c r="B190" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="C190" s="29" t="s">
+      <c r="C190" s="25" t="s">
         <v>396</v>
       </c>
       <c r="D190" s="20" t="s">
@@ -5828,14 +5863,18 @@
       <c r="F190" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="G190" s="20"/>
-      <c r="H190" s="20"/>
-      <c r="I190" s="20"/>
+      <c r="G190" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="H190" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="I190" s="89"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A191" s="31"/>
-      <c r="B191" s="28"/>
-      <c r="C191" s="29"/>
+      <c r="A191" s="27"/>
+      <c r="B191" s="26"/>
+      <c r="C191" s="25"/>
       <c r="D191" s="20" t="s">
         <v>363</v>
       </c>
@@ -5844,28 +5883,28 @@
       </c>
       <c r="F191" s="20"/>
       <c r="G191" s="20"/>
-      <c r="H191" s="20"/>
-      <c r="I191" s="20"/>
+      <c r="H191" s="77"/>
+      <c r="I191" s="90"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A192" s="31"/>
-      <c r="B192" s="28"/>
-      <c r="C192" s="29"/>
+      <c r="A192" s="27"/>
+      <c r="B192" s="26"/>
+      <c r="C192" s="25"/>
       <c r="D192" s="20" t="s">
         <v>210</v>
       </c>
       <c r="E192" s="20"/>
       <c r="F192" s="20"/>
       <c r="G192" s="20"/>
-      <c r="H192" s="20"/>
-      <c r="I192" s="20"/>
+      <c r="H192" s="86"/>
+      <c r="I192" s="91"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193" s="31"/>
-      <c r="B193" s="31" t="s">
+      <c r="A193" s="27"/>
+      <c r="B193" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="C193" s="32" t="s">
+      <c r="C193" s="28" t="s">
         <v>397</v>
       </c>
       <c r="D193" s="21" t="s">
@@ -5877,14 +5916,18 @@
       <c r="F193" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="G193" s="23"/>
-      <c r="H193" s="23"/>
-      <c r="I193" s="23"/>
+      <c r="G193" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="H193" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="I193" s="95"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A194" s="31"/>
-      <c r="B194" s="31"/>
-      <c r="C194" s="32"/>
+      <c r="A194" s="27"/>
+      <c r="B194" s="27"/>
+      <c r="C194" s="28"/>
       <c r="D194" s="21" t="s">
         <v>367</v>
       </c>
@@ -5893,30 +5936,30 @@
       </c>
       <c r="F194" s="23"/>
       <c r="G194" s="23"/>
-      <c r="H194" s="23"/>
-      <c r="I194" s="23"/>
+      <c r="H194" s="77"/>
+      <c r="I194" s="96"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A195" s="31"/>
-      <c r="B195" s="31"/>
-      <c r="C195" s="32"/>
+      <c r="A195" s="27"/>
+      <c r="B195" s="27"/>
+      <c r="C195" s="28"/>
       <c r="D195" s="21" t="s">
         <v>210</v>
       </c>
       <c r="E195" s="23"/>
       <c r="F195" s="23"/>
       <c r="G195" s="23"/>
-      <c r="H195" s="23"/>
-      <c r="I195" s="23"/>
+      <c r="H195" s="86"/>
+      <c r="I195" s="97"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A196" s="31" t="s">
+      <c r="A196" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="B196" s="28" t="s">
+      <c r="B196" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="C196" s="29" t="s">
+      <c r="C196" s="25" t="s">
         <v>398</v>
       </c>
       <c r="D196" s="20" t="s">
@@ -5928,14 +5971,18 @@
       <c r="F196" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="G196" s="20"/>
-      <c r="H196" s="20"/>
-      <c r="I196" s="20"/>
+      <c r="G196" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="H196" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="I196" s="89"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A197" s="31"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="29"/>
+      <c r="A197" s="27"/>
+      <c r="B197" s="26"/>
+      <c r="C197" s="25"/>
       <c r="D197" s="20" t="s">
         <v>367</v>
       </c>
@@ -5944,28 +5991,28 @@
       </c>
       <c r="F197" s="20"/>
       <c r="G197" s="20"/>
-      <c r="H197" s="20"/>
-      <c r="I197" s="20"/>
+      <c r="H197" s="77"/>
+      <c r="I197" s="90"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A198" s="31"/>
-      <c r="B198" s="28"/>
-      <c r="C198" s="29"/>
+      <c r="A198" s="27"/>
+      <c r="B198" s="26"/>
+      <c r="C198" s="25"/>
       <c r="D198" s="20" t="s">
         <v>210</v>
       </c>
       <c r="E198" s="20"/>
       <c r="F198" s="20"/>
       <c r="G198" s="20"/>
-      <c r="H198" s="20"/>
-      <c r="I198" s="20"/>
+      <c r="H198" s="86"/>
+      <c r="I198" s="91"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A199" s="31"/>
-      <c r="B199" s="31" t="s">
+      <c r="A199" s="27"/>
+      <c r="B199" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="C199" s="32" t="s">
+      <c r="C199" s="28" t="s">
         <v>399</v>
       </c>
       <c r="D199" s="21" t="s">
@@ -5977,14 +6024,18 @@
       <c r="F199" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="G199" s="23"/>
-      <c r="H199" s="23"/>
-      <c r="I199" s="23"/>
+      <c r="G199" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="H199" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="I199" s="95"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A200" s="31"/>
-      <c r="B200" s="31"/>
-      <c r="C200" s="32"/>
+      <c r="A200" s="27"/>
+      <c r="B200" s="27"/>
+      <c r="C200" s="28"/>
       <c r="D200" s="21" t="s">
         <v>363</v>
       </c>
@@ -5993,30 +6044,30 @@
       </c>
       <c r="F200" s="23"/>
       <c r="G200" s="23"/>
-      <c r="H200" s="23"/>
-      <c r="I200" s="23"/>
+      <c r="H200" s="77"/>
+      <c r="I200" s="96"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A201" s="31"/>
-      <c r="B201" s="31"/>
-      <c r="C201" s="32"/>
+      <c r="A201" s="27"/>
+      <c r="B201" s="27"/>
+      <c r="C201" s="28"/>
       <c r="D201" s="21" t="s">
         <v>210</v>
       </c>
       <c r="E201" s="23"/>
       <c r="F201" s="23"/>
       <c r="G201" s="23"/>
-      <c r="H201" s="23"/>
-      <c r="I201" s="23"/>
+      <c r="H201" s="86"/>
+      <c r="I201" s="97"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A202" s="31" t="s">
+      <c r="A202" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="B202" s="28" t="s">
+      <c r="B202" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="C202" s="29" t="s">
+      <c r="C202" s="25" t="s">
         <v>400</v>
       </c>
       <c r="D202" s="20" t="s">
@@ -6028,29 +6079,33 @@
       <c r="F202" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G202" s="20"/>
-      <c r="H202" s="20"/>
+      <c r="G202" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H202" s="76" t="s">
+        <v>296</v>
+      </c>
       <c r="I202" s="20"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A203" s="31"/>
-      <c r="B203" s="28"/>
-      <c r="C203" s="29"/>
+      <c r="A203" s="27"/>
+      <c r="B203" s="26"/>
+      <c r="C203" s="25"/>
       <c r="D203" s="20" t="s">
         <v>376</v>
       </c>
       <c r="E203" s="20"/>
       <c r="F203" s="20"/>
       <c r="G203" s="20"/>
-      <c r="H203" s="20"/>
+      <c r="H203" s="86"/>
       <c r="I203" s="20"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A204" s="31"/>
-      <c r="B204" s="31" t="s">
+      <c r="A204" s="27"/>
+      <c r="B204" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="C204" s="32" t="s">
+      <c r="C204" s="28" t="s">
         <v>401</v>
       </c>
       <c r="D204" s="21" t="s">
@@ -6062,31 +6117,35 @@
       <c r="F204" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G204" s="23"/>
-      <c r="H204" s="23"/>
+      <c r="G204" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H204" s="76" t="s">
+        <v>296</v>
+      </c>
       <c r="I204" s="23"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A205" s="31"/>
-      <c r="B205" s="31"/>
-      <c r="C205" s="32"/>
+      <c r="A205" s="27"/>
+      <c r="B205" s="27"/>
+      <c r="C205" s="28"/>
       <c r="D205" s="21" t="s">
         <v>376</v>
       </c>
       <c r="E205" s="23"/>
       <c r="F205" s="23"/>
       <c r="G205" s="23"/>
-      <c r="H205" s="23"/>
+      <c r="H205" s="86"/>
       <c r="I205" s="23"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A206" s="31" t="s">
+      <c r="A206" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="B206" s="28" t="s">
+      <c r="B206" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="C206" s="29" t="s">
+      <c r="C206" s="25" t="s">
         <v>402</v>
       </c>
       <c r="D206" s="20" t="s">
@@ -6098,29 +6157,33 @@
       <c r="F206" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="G206" s="20"/>
-      <c r="H206" s="20"/>
+      <c r="G206" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="H206" s="76" t="s">
+        <v>296</v>
+      </c>
       <c r="I206" s="20"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A207" s="31"/>
-      <c r="B207" s="28"/>
-      <c r="C207" s="29"/>
+      <c r="A207" s="27"/>
+      <c r="B207" s="26"/>
+      <c r="C207" s="25"/>
       <c r="D207" s="20" t="s">
         <v>384</v>
       </c>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
       <c r="G207" s="20"/>
-      <c r="H207" s="20"/>
+      <c r="H207" s="86"/>
       <c r="I207" s="20"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A208" s="31"/>
-      <c r="B208" s="31" t="s">
+      <c r="A208" s="27"/>
+      <c r="B208" s="27" t="s">
         <v>382</v>
       </c>
-      <c r="C208" s="32" t="s">
+      <c r="C208" s="28" t="s">
         <v>403</v>
       </c>
       <c r="D208" s="21" t="s">
@@ -6132,31 +6195,35 @@
       <c r="F208" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="G208" s="23"/>
-      <c r="H208" s="23"/>
+      <c r="G208" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="H208" s="76" t="s">
+        <v>296</v>
+      </c>
       <c r="I208" s="23"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A209" s="31"/>
-      <c r="B209" s="31"/>
-      <c r="C209" s="32"/>
+      <c r="A209" s="27"/>
+      <c r="B209" s="27"/>
+      <c r="C209" s="28"/>
       <c r="D209" s="21" t="s">
         <v>384</v>
       </c>
       <c r="E209" s="23"/>
       <c r="F209" s="23"/>
       <c r="G209" s="23"/>
-      <c r="H209" s="23"/>
+      <c r="H209" s="86"/>
       <c r="I209" s="23"/>
     </row>
     <row r="210" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="46" t="s">
+      <c r="A210" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="B210" s="49" t="s">
+      <c r="B210" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="C210" s="51" t="s">
+      <c r="C210" s="34" t="s">
         <v>404</v>
       </c>
       <c r="D210" s="20" t="s">
@@ -6169,28 +6236,28 @@
         <v>392</v>
       </c>
       <c r="G210" s="20"/>
-      <c r="H210" s="20"/>
+      <c r="H210" s="32"/>
       <c r="I210" s="20"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A211" s="47"/>
-      <c r="B211" s="50"/>
-      <c r="C211" s="52"/>
+      <c r="A211" s="30"/>
+      <c r="B211" s="33"/>
+      <c r="C211" s="35"/>
       <c r="D211" s="20" t="s">
         <v>391</v>
       </c>
       <c r="E211" s="20"/>
       <c r="F211" s="20"/>
       <c r="G211" s="20"/>
-      <c r="H211" s="20"/>
+      <c r="H211" s="33"/>
       <c r="I211" s="20"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A212" s="47"/>
-      <c r="B212" s="42" t="s">
+      <c r="A212" s="30"/>
+      <c r="B212" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="C212" s="44" t="s">
+      <c r="C212" s="38" t="s">
         <v>405</v>
       </c>
       <c r="D212" s="21" t="s">
@@ -6203,30 +6270,30 @@
         <v>425</v>
       </c>
       <c r="G212" s="21"/>
-      <c r="H212" s="21"/>
+      <c r="H212" s="37"/>
       <c r="I212" s="21"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A213" s="48"/>
-      <c r="B213" s="43"/>
-      <c r="C213" s="45"/>
+      <c r="A213" s="31"/>
+      <c r="B213" s="37"/>
+      <c r="C213" s="39"/>
       <c r="D213" s="12" t="s">
         <v>391</v>
       </c>
       <c r="E213" s="12"/>
       <c r="F213" s="12"/>
       <c r="G213" s="12"/>
-      <c r="H213" s="12"/>
+      <c r="H213" s="42"/>
       <c r="I213" s="12"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A214" s="46" t="s">
+      <c r="A214" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="B214" s="49" t="s">
+      <c r="B214" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="C214" s="51" t="s">
+      <c r="C214" s="34" t="s">
         <v>433</v>
       </c>
       <c r="D214" s="7" t="s">
@@ -6239,13 +6306,13 @@
         <v>411</v>
       </c>
       <c r="G214" s="7"/>
-      <c r="H214" s="7"/>
+      <c r="H214" s="32"/>
       <c r="I214" s="7"/>
     </row>
     <row r="215" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="47"/>
-      <c r="B215" s="53"/>
-      <c r="C215" s="56"/>
+      <c r="A215" s="30"/>
+      <c r="B215" s="40"/>
+      <c r="C215" s="43"/>
       <c r="D215" s="20" t="s">
         <v>363</v>
       </c>
@@ -6254,28 +6321,28 @@
       </c>
       <c r="F215" s="20"/>
       <c r="G215" s="20"/>
-      <c r="H215" s="20"/>
+      <c r="H215" s="40"/>
       <c r="I215" s="20"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A216" s="47"/>
-      <c r="B216" s="50"/>
-      <c r="C216" s="52"/>
+      <c r="A216" s="30"/>
+      <c r="B216" s="33"/>
+      <c r="C216" s="35"/>
       <c r="D216" s="20" t="s">
         <v>422</v>
       </c>
       <c r="E216" s="20"/>
       <c r="F216" s="20"/>
       <c r="G216" s="20"/>
-      <c r="H216" s="20"/>
+      <c r="H216" s="33"/>
       <c r="I216" s="20"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A217" s="47"/>
-      <c r="B217" s="43" t="s">
+      <c r="A217" s="30"/>
+      <c r="B217" s="37" t="s">
         <v>410</v>
       </c>
-      <c r="C217" s="45" t="s">
+      <c r="C217" s="39" t="s">
         <v>432</v>
       </c>
       <c r="D217" s="12" t="s">
@@ -6288,13 +6355,13 @@
         <v>424</v>
       </c>
       <c r="G217" s="21"/>
-      <c r="H217" s="21"/>
+      <c r="H217" s="37"/>
       <c r="I217" s="21"/>
     </row>
     <row r="218" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="47"/>
-      <c r="B218" s="54"/>
-      <c r="C218" s="57"/>
+      <c r="A218" s="30"/>
+      <c r="B218" s="41"/>
+      <c r="C218" s="44"/>
       <c r="D218" s="21" t="s">
         <v>367</v>
       </c>
@@ -6303,30 +6370,30 @@
       </c>
       <c r="F218" s="24"/>
       <c r="G218" s="21"/>
-      <c r="H218" s="21"/>
+      <c r="H218" s="41"/>
       <c r="I218" s="21"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A219" s="48"/>
-      <c r="B219" s="55"/>
-      <c r="C219" s="58"/>
+      <c r="A219" s="31"/>
+      <c r="B219" s="42"/>
+      <c r="C219" s="45"/>
       <c r="D219" s="21" t="s">
         <v>422</v>
       </c>
       <c r="E219" s="21"/>
       <c r="F219" s="21"/>
       <c r="G219" s="21"/>
-      <c r="H219" s="21"/>
+      <c r="H219" s="42"/>
       <c r="I219" s="21"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A220" s="31" t="s">
+      <c r="A220" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="B220" s="28" t="s">
+      <c r="B220" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="C220" s="29" t="s">
+      <c r="C220" s="25" t="s">
         <v>431</v>
       </c>
       <c r="D220" s="20" t="s">
@@ -6338,29 +6405,33 @@
       <c r="F220" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="G220" s="20"/>
-      <c r="H220" s="20"/>
+      <c r="G220" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="H220" s="76" t="s">
+        <v>296</v>
+      </c>
       <c r="I220" s="20"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A221" s="31"/>
-      <c r="B221" s="28"/>
-      <c r="C221" s="29"/>
+      <c r="A221" s="27"/>
+      <c r="B221" s="26"/>
+      <c r="C221" s="25"/>
       <c r="D221" s="20" t="s">
         <v>414</v>
       </c>
       <c r="E221" s="20"/>
       <c r="F221" s="20"/>
       <c r="G221" s="20"/>
-      <c r="H221" s="20"/>
+      <c r="H221" s="86"/>
       <c r="I221" s="20"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A222" s="31"/>
-      <c r="B222" s="31" t="s">
+      <c r="A222" s="27"/>
+      <c r="B222" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="C222" s="32" t="s">
+      <c r="C222" s="28" t="s">
         <v>430</v>
       </c>
       <c r="D222" s="21" t="s">
@@ -6372,31 +6443,35 @@
       <c r="F222" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="G222" s="23"/>
-      <c r="H222" s="23"/>
+      <c r="G222" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="H222" s="76" t="s">
+        <v>296</v>
+      </c>
       <c r="I222" s="23"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A223" s="31"/>
-      <c r="B223" s="31"/>
-      <c r="C223" s="32"/>
+      <c r="A223" s="27"/>
+      <c r="B223" s="27"/>
+      <c r="C223" s="28"/>
       <c r="D223" s="21" t="s">
         <v>414</v>
       </c>
       <c r="E223" s="23"/>
       <c r="F223" s="23"/>
       <c r="G223" s="23"/>
-      <c r="H223" s="23"/>
+      <c r="H223" s="86"/>
       <c r="I223" s="23"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A224" s="31" t="s">
+      <c r="A224" s="27" t="s">
         <v>438</v>
       </c>
-      <c r="B224" s="28" t="s">
+      <c r="B224" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="C224" s="29" t="s">
+      <c r="C224" s="25" t="s">
         <v>429</v>
       </c>
       <c r="D224" s="20" t="s">
@@ -6409,41 +6484,41 @@
         <v>428</v>
       </c>
       <c r="G224" s="20"/>
-      <c r="H224" s="20"/>
+      <c r="H224" s="32"/>
       <c r="I224" s="20"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A225" s="31"/>
-      <c r="B225" s="28"/>
-      <c r="C225" s="29"/>
+      <c r="A225" s="27"/>
+      <c r="B225" s="26"/>
+      <c r="C225" s="25"/>
       <c r="D225" s="20" t="s">
         <v>426</v>
       </c>
       <c r="E225" s="20"/>
       <c r="F225" s="20"/>
       <c r="G225" s="20"/>
-      <c r="H225" s="20"/>
+      <c r="H225" s="40"/>
       <c r="I225" s="20"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A226" s="31"/>
-      <c r="B226" s="28"/>
-      <c r="C226" s="29"/>
+      <c r="A226" s="27"/>
+      <c r="B226" s="26"/>
+      <c r="C226" s="25"/>
       <c r="D226" s="20" t="s">
         <v>427</v>
       </c>
       <c r="E226" s="20"/>
       <c r="F226" s="20"/>
       <c r="G226" s="20"/>
-      <c r="H226" s="20"/>
+      <c r="H226" s="33"/>
       <c r="I226" s="20"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A227" s="31"/>
-      <c r="B227" s="31" t="s">
+      <c r="A227" s="27"/>
+      <c r="B227" s="27" t="s">
         <v>435</v>
       </c>
-      <c r="C227" s="32" t="s">
+      <c r="C227" s="28" t="s">
         <v>436</v>
       </c>
       <c r="D227" s="21" t="s">
@@ -6456,86 +6531,298 @@
         <v>437</v>
       </c>
       <c r="G227" s="23"/>
-      <c r="H227" s="23"/>
+      <c r="H227" s="62"/>
       <c r="I227" s="23"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A228" s="31"/>
-      <c r="B228" s="31"/>
-      <c r="C228" s="32"/>
+      <c r="A228" s="27"/>
+      <c r="B228" s="27"/>
+      <c r="C228" s="28"/>
       <c r="D228" s="21" t="s">
         <v>426</v>
       </c>
       <c r="E228" s="23"/>
       <c r="F228" s="23"/>
       <c r="G228" s="23"/>
-      <c r="H228" s="23"/>
+      <c r="H228" s="63"/>
       <c r="I228" s="23"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A229" s="31"/>
-      <c r="B229" s="31"/>
-      <c r="C229" s="32"/>
+      <c r="A229" s="27"/>
+      <c r="B229" s="27"/>
+      <c r="C229" s="28"/>
       <c r="D229" s="21" t="s">
         <v>427</v>
       </c>
       <c r="E229" s="23"/>
       <c r="F229" s="23"/>
       <c r="G229" s="23"/>
-      <c r="H229" s="23"/>
+      <c r="H229" s="75"/>
       <c r="I229" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="B227:B229"/>
-    <mergeCell ref="C227:C229"/>
-    <mergeCell ref="A224:A229"/>
-    <mergeCell ref="A210:A213"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="A220:A223"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="C222:C223"/>
-    <mergeCell ref="A214:A219"/>
-    <mergeCell ref="B214:B216"/>
-    <mergeCell ref="B217:B219"/>
-    <mergeCell ref="C214:C216"/>
-    <mergeCell ref="C217:C219"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="C190:C192"/>
-    <mergeCell ref="B190:B192"/>
-    <mergeCell ref="B193:B195"/>
-    <mergeCell ref="C193:C195"/>
-    <mergeCell ref="A190:A195"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="C196:C198"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="A196:A201"/>
-    <mergeCell ref="A184:A189"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="C184:C186"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="A180:A183"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="H180:H181"/>
+  <mergeCells count="336">
+    <mergeCell ref="H212:H213"/>
+    <mergeCell ref="H214:H216"/>
+    <mergeCell ref="H217:H219"/>
+    <mergeCell ref="H220:H221"/>
+    <mergeCell ref="H222:H223"/>
+    <mergeCell ref="H224:H226"/>
+    <mergeCell ref="H227:H229"/>
+    <mergeCell ref="I184:I186"/>
+    <mergeCell ref="I187:I189"/>
+    <mergeCell ref="I190:I192"/>
+    <mergeCell ref="I193:I195"/>
+    <mergeCell ref="I196:I198"/>
+    <mergeCell ref="I199:I201"/>
+    <mergeCell ref="H190:H192"/>
+    <mergeCell ref="H193:H195"/>
+    <mergeCell ref="H196:H198"/>
+    <mergeCell ref="H199:H201"/>
+    <mergeCell ref="H202:H203"/>
+    <mergeCell ref="H204:H205"/>
+    <mergeCell ref="H206:H207"/>
+    <mergeCell ref="H208:H209"/>
+    <mergeCell ref="H210:H211"/>
+    <mergeCell ref="A176:A179"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="H176:H177"/>
+    <mergeCell ref="I176:I177"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="H178:H179"/>
+    <mergeCell ref="I178:I179"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="H172:H173"/>
+    <mergeCell ref="I172:I173"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="H174:H175"/>
+    <mergeCell ref="I174:I175"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="I166:I167"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="H168:H169"/>
+    <mergeCell ref="I168:I169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="H164:H165"/>
+    <mergeCell ref="I164:I165"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="H160:H161"/>
+    <mergeCell ref="I160:I161"/>
+    <mergeCell ref="I162:I163"/>
+    <mergeCell ref="H162:H163"/>
+    <mergeCell ref="A154:A159"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="H154:H156"/>
+    <mergeCell ref="I154:I156"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="H157:H159"/>
+    <mergeCell ref="I157:I159"/>
+    <mergeCell ref="A148:A153"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="H148:H150"/>
+    <mergeCell ref="I148:I150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="H151:H153"/>
+    <mergeCell ref="I151:I153"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="H142:H144"/>
+    <mergeCell ref="H145:H147"/>
+    <mergeCell ref="I145:I147"/>
+    <mergeCell ref="I142:I144"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="H122:H126"/>
+    <mergeCell ref="I122:I126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="H127:H131"/>
+    <mergeCell ref="I127:I131"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="C132:C136"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="H98:H100"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="I101:I103"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="H107:H109"/>
+    <mergeCell ref="I107:I109"/>
+    <mergeCell ref="A110:A115"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="H110:H112"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="H113:H115"/>
+    <mergeCell ref="I113:I115"/>
     <mergeCell ref="I180:I181"/>
     <mergeCell ref="B182:B183"/>
     <mergeCell ref="C182:C183"/>
@@ -6560,245 +6847,57 @@
     <mergeCell ref="B142:B144"/>
     <mergeCell ref="C142:C144"/>
     <mergeCell ref="B145:B147"/>
-    <mergeCell ref="A110:A115"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="H110:H112"/>
-    <mergeCell ref="I110:I112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="H113:H115"/>
-    <mergeCell ref="I113:I115"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="I104:I106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="H107:H109"/>
-    <mergeCell ref="I107:I109"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="H98:H100"/>
-    <mergeCell ref="I98:I100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="H101:H103"/>
-    <mergeCell ref="I101:I103"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="I95:I97"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="I74:I76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="H77:H79"/>
-    <mergeCell ref="I77:I79"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="A142:A147"/>
-    <mergeCell ref="H142:H144"/>
-    <mergeCell ref="H145:H147"/>
-    <mergeCell ref="I145:I147"/>
-    <mergeCell ref="I142:I144"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="H122:H126"/>
-    <mergeCell ref="I122:I126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="H127:H131"/>
-    <mergeCell ref="I127:I131"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="A148:A153"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="H148:H150"/>
-    <mergeCell ref="I148:I150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="H151:H153"/>
-    <mergeCell ref="I151:I153"/>
-    <mergeCell ref="A154:A159"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="H154:H156"/>
-    <mergeCell ref="I154:I156"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="H157:H159"/>
-    <mergeCell ref="I157:I159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="A160:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="H160:H161"/>
-    <mergeCell ref="I160:I161"/>
-    <mergeCell ref="I162:I163"/>
-    <mergeCell ref="H162:H163"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="H166:H167"/>
-    <mergeCell ref="I166:I167"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="H168:H169"/>
-    <mergeCell ref="I168:I169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="H164:H165"/>
-    <mergeCell ref="I164:I165"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="H172:H173"/>
-    <mergeCell ref="I172:I173"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="H174:H175"/>
-    <mergeCell ref="I174:I175"/>
-    <mergeCell ref="A176:A179"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="H176:H177"/>
-    <mergeCell ref="I176:I177"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="H178:H179"/>
-    <mergeCell ref="I178:I179"/>
+    <mergeCell ref="A184:A189"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="C184:C186"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="A180:A183"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="H180:H181"/>
+    <mergeCell ref="H184:H186"/>
+    <mergeCell ref="H187:H189"/>
+    <mergeCell ref="C190:C192"/>
+    <mergeCell ref="B190:B192"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="C193:C195"/>
+    <mergeCell ref="A190:A195"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="A196:A201"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="C227:C229"/>
+    <mergeCell ref="A224:A229"/>
+    <mergeCell ref="A210:A213"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="A220:A223"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="C222:C223"/>
+    <mergeCell ref="A214:A219"/>
+    <mergeCell ref="B214:B216"/>
+    <mergeCell ref="B217:B219"/>
+    <mergeCell ref="C214:C216"/>
+    <mergeCell ref="C217:C219"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6856,13 +6955,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="48" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="71" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="68" t="s">
         <v>321</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -6877,17 +6976,17 @@
       <c r="G2" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="H2" s="68" t="s">
-        <v>296</v>
-      </c>
-      <c r="I2" s="70" t="s">
+      <c r="H2" s="85" t="s">
+        <v>296</v>
+      </c>
+      <c r="I2" s="87" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="84"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="5" t="s">
         <v>323</v>
       </c>
@@ -6896,41 +6995,41 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="66"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="83"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="84"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="5" t="s">
         <v>324</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="66"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="83"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="85"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="6" t="s">
         <v>325</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="67"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="84"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="72" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="65" t="s">
         <v>330</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -6945,17 +7044,17 @@
       <c r="G6" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="H6" s="59" t="s">
-        <v>296</v>
-      </c>
-      <c r="I6" s="62" t="s">
+      <c r="H6" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="I6" s="79" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="76"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="14" t="s">
         <v>323</v>
       </c>
@@ -6964,41 +7063,41 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="63"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="80"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="76"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="14" t="s">
         <v>324</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="63"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="80"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="77"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="16" t="s">
         <v>331</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="71"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="88"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="49" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="59" t="s">
         <v>334</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -7013,17 +7112,17 @@
       <c r="G10" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="H10" s="59" t="s">
-        <v>296</v>
-      </c>
-      <c r="I10" s="65" t="s">
+      <c r="H10" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="I10" s="82" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="79"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="5" t="s">
         <v>323</v>
       </c>
@@ -7032,41 +7131,41 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="66"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="83"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="79"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="5" t="s">
         <v>324</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="66"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="83"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="80"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="6" t="s">
         <v>335</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="67"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="84"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="72" t="s">
+      <c r="A14" s="49"/>
+      <c r="B14" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" 